--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3748" uniqueCount="1307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7512" uniqueCount="1316">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -3951,6 +3951,33 @@
   </si>
   <si>
     <t>22-01-2025</t>
+  </si>
+  <si>
+    <t>DSS2044</t>
+  </si>
+  <si>
+    <t>DSS2045</t>
+  </si>
+  <si>
+    <t>DSS2046</t>
+  </si>
+  <si>
+    <t>DSS2047</t>
+  </si>
+  <si>
+    <t>DSS2048</t>
+  </si>
+  <si>
+    <t>DSS2049</t>
+  </si>
+  <si>
+    <t>DSS2050</t>
+  </si>
+  <si>
+    <t>DSS2051</t>
+  </si>
+  <si>
+    <t>Mohamed Hamed Gad Ali</t>
   </si>
 </sst>
 </file>
@@ -4575,10 +4602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1044"/>
+  <dimension ref="A1:E1052"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1029" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I1033" sqref="I1033"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1035" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A1052" sqref="A1052"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21971,12 +21998,148 @@
         <v>1</v>
       </c>
     </row>
+    <row r="1045" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1045" s="10" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B1045" s="10" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C1045" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1045" s="44" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E1045" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1046" s="10" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B1046" s="10" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C1046" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1046" s="44" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E1046" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1047" s="10" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B1047" s="10" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C1047" s="10" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1047" s="44" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E1047" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1048" s="10" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B1048" s="10" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C1048" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1048" s="44" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E1048" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1049" s="10" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B1049" s="10" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C1049" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1049" s="44" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E1049" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1050" s="10" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B1050" s="10" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C1050" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1050" s="44" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E1050" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1051" s="10" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B1051" s="10" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C1051" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1051" s="44" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E1051" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1052" s="10" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B1052" s="10" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C1052" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1052" s="44" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E1052" s="17">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E695"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="45" orientation="portrait" r:id="rId1"/>
-  <rowBreaks count="8" manualBreakCount="8">
+  <rowBreaks count="9" manualBreakCount="9">
     <brk id="70" max="16383" man="1"/>
     <brk id="409" max="4" man="1"/>
     <brk id="493" max="4" man="1"/>
@@ -21985,6 +22148,7 @@
     <brk id="753" max="4" man="1"/>
     <brk id="852" max="4" man="1"/>
     <brk id="948" max="4" man="1"/>
+    <brk id="1044" max="4" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7512" uniqueCount="1316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3868" uniqueCount="1343">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -3978,6 +3978,87 @@
   </si>
   <si>
     <t>Mohamed Hamed Gad Ali</t>
+  </si>
+  <si>
+    <t>Eslam Abdelsabour Khalafallah Salim</t>
+  </si>
+  <si>
+    <t>DSS2052</t>
+  </si>
+  <si>
+    <t>DSS2053</t>
+  </si>
+  <si>
+    <t>DSS2054</t>
+  </si>
+  <si>
+    <t>DSS2055</t>
+  </si>
+  <si>
+    <t>DSS2056</t>
+  </si>
+  <si>
+    <t>DSS2057</t>
+  </si>
+  <si>
+    <t>DSS2058</t>
+  </si>
+  <si>
+    <t>DSS2059</t>
+  </si>
+  <si>
+    <t>DSS2060</t>
+  </si>
+  <si>
+    <t>DSS2061</t>
+  </si>
+  <si>
+    <t>DSS2062</t>
+  </si>
+  <si>
+    <t>DSS2063</t>
+  </si>
+  <si>
+    <t>DSS2064</t>
+  </si>
+  <si>
+    <t>DSS2065</t>
+  </si>
+  <si>
+    <t>DSS2066</t>
+  </si>
+  <si>
+    <t>DSS2067</t>
+  </si>
+  <si>
+    <t>Abdullah Hesham Abdullah</t>
+  </si>
+  <si>
+    <t>EBNMASOUD ABDALMONIM ABDALHADI MOHAMED</t>
+  </si>
+  <si>
+    <t>DSS2068</t>
+  </si>
+  <si>
+    <t>DSS2069</t>
+  </si>
+  <si>
+    <t>DSS2070</t>
+  </si>
+  <si>
+    <t>DSS2071</t>
+  </si>
+  <si>
+    <t>DSS2072</t>
+  </si>
+  <si>
+    <t>DSS2073</t>
+  </si>
+  <si>
+    <t>DSS2074</t>
+  </si>
+  <si>
+    <t>DSS2075</t>
   </si>
 </sst>
 </file>
@@ -4173,7 +4254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -4320,6 +4401,9 @@
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -4602,10 +4686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1052"/>
+  <dimension ref="A1:E1076"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1035" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A1052" sqref="A1052"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1062" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G1076" sqref="G1076"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22131,6 +22215,414 @@
         <v>1224</v>
       </c>
       <c r="E1052" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1053" s="11" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B1053" s="11" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C1053" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1053" s="50">
+        <v>45779</v>
+      </c>
+      <c r="E1053" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1054" s="11" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B1054" s="11" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C1054" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1054" s="50">
+        <v>45932</v>
+      </c>
+      <c r="E1054" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1055" s="11" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B1055" s="11" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C1055" s="11" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1055" s="50">
+        <v>45810</v>
+      </c>
+      <c r="E1055" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1056" s="11" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B1056" s="11" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C1056" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1056" s="50">
+        <v>45718</v>
+      </c>
+      <c r="E1056" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1057" s="11" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B1057" s="11" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C1057" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1057" s="50">
+        <v>45659</v>
+      </c>
+      <c r="E1057" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1058" s="11" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B1058" s="11" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C1058" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1058" s="50">
+        <v>45690</v>
+      </c>
+      <c r="E1058" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1059" s="11" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B1059" s="11" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C1059" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1059" s="50">
+        <v>45840</v>
+      </c>
+      <c r="E1059" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1060" s="11" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B1060" s="11" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C1060" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1060" s="50">
+        <v>45871</v>
+      </c>
+      <c r="E1060" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1061" s="10" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B1061" s="10" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C1061" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1061" s="44" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E1061" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1062" s="10" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B1062" s="10" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C1062" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1062" s="44" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E1062" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1063" s="10" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B1063" s="10" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C1063" s="10" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1063" s="44" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E1063" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1064" s="10" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B1064" s="10" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C1064" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1064" s="44" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E1064" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1065" s="10" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B1065" s="10" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C1065" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1065" s="44" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E1065" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1066" s="10" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B1066" s="10" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C1066" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1066" s="44" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E1066" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1067" s="10" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B1067" s="10" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C1067" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1067" s="44" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E1067" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1068" s="10" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B1068" s="10" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C1068" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1068" s="44" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E1068" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1069" s="11" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B1069" s="11" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C1069" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1069" s="11" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E1069" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1070" s="11" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B1070" s="11" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C1070" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1070" s="11" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E1070" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1071" s="11" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B1071" s="11" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C1071" s="11" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1071" s="11" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E1071" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1072" s="11" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B1072" s="11" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C1072" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1072" s="11" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E1072" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1073" s="11" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B1073" s="11" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C1073" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1073" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E1073" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1074" s="11" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B1074" s="11" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C1074" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1074" s="11" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E1074" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1075" s="11" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B1075" s="11" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C1075" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1075" s="11" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E1075" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1076" s="11" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B1076" s="11" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C1076" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1076" s="11" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E1076" s="17">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3868" uniqueCount="1343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3903" uniqueCount="1356">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -4059,6 +4059,45 @@
   </si>
   <si>
     <t>DSS2075</t>
+  </si>
+  <si>
+    <t>ABRAHEEM MAHMOUD MOHAMED ABDULNABI</t>
+  </si>
+  <si>
+    <t>DSS2076</t>
+  </si>
+  <si>
+    <t>DSS2077</t>
+  </si>
+  <si>
+    <t>DSS2078</t>
+  </si>
+  <si>
+    <t>DSS2079</t>
+  </si>
+  <si>
+    <t>DSS2080</t>
+  </si>
+  <si>
+    <t>DSS2081</t>
+  </si>
+  <si>
+    <t>DSS2082</t>
+  </si>
+  <si>
+    <t>DSS2083</t>
+  </si>
+  <si>
+    <t>Abdelazim Mohamed Abdelazim Atia</t>
+  </si>
+  <si>
+    <t>28-01-2025</t>
+  </si>
+  <si>
+    <t>H2S Safety &amp; SCBA</t>
+  </si>
+  <si>
+    <t>DSS2084</t>
   </si>
 </sst>
 </file>
@@ -4686,10 +4725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1076"/>
+  <dimension ref="A1:E1085"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1062" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G1076" sqref="G1076"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1070" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B1085" sqref="B1085"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22500,8 +22539,8 @@
       <c r="C1069" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1069" s="11" t="s">
-        <v>1217</v>
+      <c r="D1069" s="50">
+        <v>45778</v>
       </c>
       <c r="E1069" s="17">
         <v>1</v>
@@ -22623,6 +22662,159 @@
         <v>1224</v>
       </c>
       <c r="E1076" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1077" s="10" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B1077" s="10" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C1077" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1077" s="44" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E1077" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1078" s="10" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B1078" s="10" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C1078" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1078" s="44" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E1078" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1079" s="10" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B1079" s="10" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C1079" s="10" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1079" s="44" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E1079" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1080" s="10" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B1080" s="10" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C1080" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1080" s="44" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E1080" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1081" s="10" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B1081" s="10" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C1081" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1081" s="44" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E1081" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1082" s="10" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B1082" s="10" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C1082" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1082" s="44" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E1082" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1083" s="10" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B1083" s="10" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C1083" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1083" s="44" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E1083" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1084" s="10" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B1084" s="10" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C1084" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1084" s="44" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E1084" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1085" s="11" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B1085" s="11" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C1085" s="11" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D1085" s="11" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E1085" s="17">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$695</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$1112</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$1186</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3903" uniqueCount="1356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4257" uniqueCount="1464">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -4098,6 +4098,330 @@
   </si>
   <si>
     <t>DSS2084</t>
+  </si>
+  <si>
+    <t>MOHAMED ALI BAYOUMI IBRAHIM</t>
+  </si>
+  <si>
+    <t>DSS2085</t>
+  </si>
+  <si>
+    <t>DSS2086</t>
+  </si>
+  <si>
+    <t>DSS2087</t>
+  </si>
+  <si>
+    <t>DSS2088</t>
+  </si>
+  <si>
+    <t>DSS2089</t>
+  </si>
+  <si>
+    <t>DSS2090</t>
+  </si>
+  <si>
+    <t>DSS2091</t>
+  </si>
+  <si>
+    <t>DSS2092</t>
+  </si>
+  <si>
+    <t>ABDELRAHMAN RAGAB ABDELGHANI AWAD</t>
+  </si>
+  <si>
+    <t>IBRAHIM AFIFI AHMED IBRAHIM</t>
+  </si>
+  <si>
+    <t>Ahmed Talaat Mohamed Ghoniem</t>
+  </si>
+  <si>
+    <t>Abdullah Nady Taha Mohamed</t>
+  </si>
+  <si>
+    <t>Yahya Ahmed Mohamed Abdelshafy</t>
+  </si>
+  <si>
+    <t>Ahmed Atef Shoaeb Beses</t>
+  </si>
+  <si>
+    <t>Mahmoud Hosny Mahmoud Ahmed</t>
+  </si>
+  <si>
+    <t>RABIE ELZEEKRAWI MOHAMED ELBAZ</t>
+  </si>
+  <si>
+    <t>DSS2093</t>
+  </si>
+  <si>
+    <t>DSS2094</t>
+  </si>
+  <si>
+    <t>DSS2095</t>
+  </si>
+  <si>
+    <t>DSS2096</t>
+  </si>
+  <si>
+    <t>DSS2097</t>
+  </si>
+  <si>
+    <t>DSS2098</t>
+  </si>
+  <si>
+    <t>DSS2099</t>
+  </si>
+  <si>
+    <t>DSS2100</t>
+  </si>
+  <si>
+    <t>DSS2101</t>
+  </si>
+  <si>
+    <t>DSS2102</t>
+  </si>
+  <si>
+    <t>DSS2103</t>
+  </si>
+  <si>
+    <t>DSS2104</t>
+  </si>
+  <si>
+    <t>DSS2105</t>
+  </si>
+  <si>
+    <t>DSS2106</t>
+  </si>
+  <si>
+    <t>DSS2107</t>
+  </si>
+  <si>
+    <t>DSS2108</t>
+  </si>
+  <si>
+    <t>DSS2109</t>
+  </si>
+  <si>
+    <t>DSS2110</t>
+  </si>
+  <si>
+    <t>DSS2111</t>
+  </si>
+  <si>
+    <t>DSS2112</t>
+  </si>
+  <si>
+    <t>DSS2113</t>
+  </si>
+  <si>
+    <t>DSS2114</t>
+  </si>
+  <si>
+    <t>DSS2115</t>
+  </si>
+  <si>
+    <t>DSS2116</t>
+  </si>
+  <si>
+    <t>DSS2117</t>
+  </si>
+  <si>
+    <t>DSS2118</t>
+  </si>
+  <si>
+    <t>DSS2119</t>
+  </si>
+  <si>
+    <t>DSS2120</t>
+  </si>
+  <si>
+    <t>DSS2121</t>
+  </si>
+  <si>
+    <t>DSS2122</t>
+  </si>
+  <si>
+    <t>DSS2123</t>
+  </si>
+  <si>
+    <t>DSS2124</t>
+  </si>
+  <si>
+    <t>DSS2125</t>
+  </si>
+  <si>
+    <t>DSS2126</t>
+  </si>
+  <si>
+    <t>DSS2127</t>
+  </si>
+  <si>
+    <t>DSS2128</t>
+  </si>
+  <si>
+    <t>DSS2129</t>
+  </si>
+  <si>
+    <t>DSS2130</t>
+  </si>
+  <si>
+    <t>DSS2131</t>
+  </si>
+  <si>
+    <t>DSS2132</t>
+  </si>
+  <si>
+    <t>DSS2133</t>
+  </si>
+  <si>
+    <t>DSS2134</t>
+  </si>
+  <si>
+    <t>DSS2135</t>
+  </si>
+  <si>
+    <t>DSS2136</t>
+  </si>
+  <si>
+    <t>DSS2137</t>
+  </si>
+  <si>
+    <t>DSS2138</t>
+  </si>
+  <si>
+    <t>DSS2139</t>
+  </si>
+  <si>
+    <t>DSS2140</t>
+  </si>
+  <si>
+    <t>DSS2141</t>
+  </si>
+  <si>
+    <t>DSS2142</t>
+  </si>
+  <si>
+    <t>DSS2143</t>
+  </si>
+  <si>
+    <t>DSS2144</t>
+  </si>
+  <si>
+    <t>DSS2145</t>
+  </si>
+  <si>
+    <t>DSS2146</t>
+  </si>
+  <si>
+    <t>DSS2147</t>
+  </si>
+  <si>
+    <t>DSS2148</t>
+  </si>
+  <si>
+    <t>DSS2149</t>
+  </si>
+  <si>
+    <t>DSS2150</t>
+  </si>
+  <si>
+    <t>DSS2151</t>
+  </si>
+  <si>
+    <t>DSS2152</t>
+  </si>
+  <si>
+    <t>DSS2153</t>
+  </si>
+  <si>
+    <t>DSS2154</t>
+  </si>
+  <si>
+    <t>DSS2155</t>
+  </si>
+  <si>
+    <t>DSS2156</t>
+  </si>
+  <si>
+    <t>DSS2157</t>
+  </si>
+  <si>
+    <t>DSS2158</t>
+  </si>
+  <si>
+    <t>DSS2159</t>
+  </si>
+  <si>
+    <t>DSS2160</t>
+  </si>
+  <si>
+    <t>DSS2161</t>
+  </si>
+  <si>
+    <t>DSS2162</t>
+  </si>
+  <si>
+    <t>DSS2163</t>
+  </si>
+  <si>
+    <t>DSS2164</t>
+  </si>
+  <si>
+    <t>DSS2165</t>
+  </si>
+  <si>
+    <t>DSS2166</t>
+  </si>
+  <si>
+    <t>Samir Mohamed Atia Mahmoud</t>
+  </si>
+  <si>
+    <t>Islam Tarek Salama Barakat</t>
+  </si>
+  <si>
+    <t>Ahmed Mohammed Hassan Abdel Latif</t>
+  </si>
+  <si>
+    <t>Ahmed Nasser Mohamed Montasser</t>
+  </si>
+  <si>
+    <t>Ahmed Abdel Karim Shaaban Mohamed</t>
+  </si>
+  <si>
+    <t>Mohamed Ragab Osman Mohamed Ali</t>
+  </si>
+  <si>
+    <t>ABDELGHAFAR MOHAMED ABDELGHAFAR HUSSIN</t>
+  </si>
+  <si>
+    <t>Mahmoud Hamdy Mahmoud Youssef</t>
+  </si>
+  <si>
+    <t>14-01-2025</t>
+  </si>
+  <si>
+    <t>MOHAMMED ATEEYAH MANSOUR</t>
+  </si>
+  <si>
+    <t>DSS2167</t>
+  </si>
+  <si>
+    <t>DSS2168</t>
+  </si>
+  <si>
+    <t>DSS2169</t>
+  </si>
+  <si>
+    <t>DSS2170</t>
+  </si>
+  <si>
+    <t>DSS2171</t>
+  </si>
+  <si>
+    <t>DSS2172</t>
+  </si>
+  <si>
+    <t>DSS2173</t>
   </si>
 </sst>
 </file>
@@ -4725,10 +5049,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1085"/>
+  <dimension ref="A1:E1174"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1070" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B1085" sqref="B1085"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1163" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B1181" sqref="B1181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22815,6 +23139,1519 @@
         <v>1353</v>
       </c>
       <c r="E1085" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1086" s="10" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B1086" s="10" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C1086" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1086" s="44" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E1086" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1087" s="10" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B1087" s="10" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C1087" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1087" s="44" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E1087" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1088" s="10" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B1088" s="10" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C1088" s="10" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1088" s="44" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E1088" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1089" s="10" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B1089" s="10" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C1089" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1089" s="44" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E1089" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1090" s="10" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B1090" s="10" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C1090" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1090" s="44" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E1090" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1091" s="10" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B1091" s="10" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C1091" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1091" s="44" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E1091" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1092" s="10" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B1092" s="10" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C1092" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1092" s="44" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E1092" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1093" s="10" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B1093" s="10" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C1093" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1093" s="44" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E1093" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1094" s="11" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B1094" s="11" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C1094" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1094" s="50">
+        <v>45778</v>
+      </c>
+      <c r="E1094" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1095" s="11" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B1095" s="11" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C1095" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1095" s="11" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E1095" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1096" s="11" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B1096" s="11" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C1096" s="11" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1096" s="11" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E1096" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1097" s="11" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B1097" s="11" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C1097" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1097" s="11" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E1097" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1098" s="11" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B1098" s="11" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C1098" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1098" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E1098" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1099" s="11" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B1099" s="11" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C1099" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1099" s="11" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E1099" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1100" s="11" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B1100" s="11" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C1100" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1100" s="11" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E1100" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1101" s="11" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B1101" s="11" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C1101" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1101" s="11" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E1101" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1102" s="10" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B1102" s="10" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C1102" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1102" s="44" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E1102" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1103" s="10" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B1103" s="10" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C1103" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1103" s="44" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E1103" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1104" s="11" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B1104" s="11" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C1104" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1104" s="50">
+        <v>45778</v>
+      </c>
+      <c r="E1104" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1105" s="11" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B1105" s="11" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C1105" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1105" s="11" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E1105" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1106" s="11" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B1106" s="11" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C1106" s="11" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1106" s="11" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E1106" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1107" s="11" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B1107" s="11" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C1107" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1107" s="11" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E1107" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1108" s="11" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B1108" s="11" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C1108" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1108" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E1108" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1109" s="11" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B1109" s="11" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C1109" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1109" s="11" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E1109" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1110" s="11" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B1110" s="11" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C1110" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1110" s="11" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E1110" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1111" s="11" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B1111" s="11" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C1111" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1111" s="11" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E1111" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1112" s="10" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B1112" s="10" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C1112" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1112" s="44" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E1112" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1113" s="10" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B1113" s="10" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C1113" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1113" s="10" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E1113" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1114" s="10" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B1114" s="10" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C1114" s="10" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1114" s="10" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E1114" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1115" s="10" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B1115" s="10" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C1115" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1115" s="10" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E1115" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1116" s="10" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B1116" s="10" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C1116" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1116" s="10" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E1116" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1117" s="10" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B1117" s="10" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C1117" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1117" s="10" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E1117" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1118" s="10" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B1118" s="10" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C1118" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1118" s="10" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E1118" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1119" s="10" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B1119" s="10" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C1119" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1119" s="10" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E1119" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1120" s="11" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B1120" s="11" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C1120" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1120" s="11" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E1120" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1121" s="11" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B1121" s="11" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C1121" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1121" s="11" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E1121" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1122" s="11" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B1122" s="11" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C1122" s="11" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1122" s="11" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E1122" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1123" s="11" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B1123" s="11" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C1123" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1123" s="11" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E1123" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1124" s="11" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B1124" s="11" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C1124" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1124" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E1124" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1125" s="11" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B1125" s="11" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C1125" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1125" s="11" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E1125" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1126" s="11" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B1126" s="11" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C1126" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1126" s="11" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E1126" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1127" s="11" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B1127" s="11" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C1127" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1127" s="11" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E1127" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1128" s="10" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B1128" s="10" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C1128" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1128" s="44" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E1128" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1129" s="10" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B1129" s="10" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C1129" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1129" s="10" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E1129" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1130" s="10" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B1130" s="10" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C1130" s="10" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1130" s="10" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E1130" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1131" s="10" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B1131" s="10" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C1131" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1131" s="10" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E1131" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1132" s="10" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B1132" s="10" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C1132" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1132" s="10" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E1132" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1133" s="10" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B1133" s="10" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C1133" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1133" s="10" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E1133" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1134" s="10" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B1134" s="10" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C1134" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1134" s="10" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E1134" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1135" s="10" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B1135" s="10" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C1135" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1135" s="10" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E1135" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1136" s="11" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B1136" s="11" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C1136" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1136" s="11" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E1136" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1137" s="11" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B1137" s="11" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C1137" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1137" s="11" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E1137" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1138" s="11" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B1138" s="11" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C1138" s="11" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1138" s="11" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E1138" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1139" s="11" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B1139" s="11" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C1139" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1139" s="11" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E1139" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1140" s="11" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B1140" s="11" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C1140" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1140" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E1140" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1141" s="11" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B1141" s="11" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C1141" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1141" s="11" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E1141" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1142" s="11" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B1142" s="11" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C1142" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1142" s="11" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E1142" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1143" s="11" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B1143" s="11" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C1143" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1143" s="11" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E1143" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1144" s="10" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B1144" s="10" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C1144" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1144" s="44" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E1144" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1145" s="10" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B1145" s="10" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C1145" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1145" s="10" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E1145" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1146" s="10" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B1146" s="10" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C1146" s="10" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1146" s="10" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E1146" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1147" s="10" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B1147" s="10" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C1147" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1147" s="10" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E1147" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1148" s="10" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B1148" s="10" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C1148" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1148" s="10" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E1148" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1149" s="10" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B1149" s="10" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C1149" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1149" s="10" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E1149" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1150" s="10" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B1150" s="10" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C1150" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1150" s="10" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E1150" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1151" s="10" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B1151" s="10" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C1151" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1151" s="10" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E1151" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1152" s="11" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B1152" s="11" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C1152" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1152" s="11" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E1152" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1153" s="11" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B1153" s="11" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C1153" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1153" s="11" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E1153" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1154" s="11" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B1154" s="11" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C1154" s="11" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1154" s="11" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E1154" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1155" s="11" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B1155" s="11" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C1155" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1155" s="11" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E1155" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1156" s="11" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B1156" s="11" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C1156" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1156" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E1156" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1157" s="11" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B1157" s="11" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C1157" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1157" s="11" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E1157" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1158" s="11" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B1158" s="11" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C1158" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1158" s="11" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E1158" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1159" s="11" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B1159" s="11" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C1159" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1159" s="11" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E1159" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1160" s="47" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B1160" s="47" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C1160" s="47" t="s">
+        <v>534</v>
+      </c>
+      <c r="D1160" s="47" t="s">
+        <v>1455</v>
+      </c>
+      <c r="E1160" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1161" s="47" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B1161" s="47" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C1161" s="47" t="s">
+        <v>534</v>
+      </c>
+      <c r="D1161" s="47" t="s">
+        <v>1455</v>
+      </c>
+      <c r="E1161" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1162" s="47" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B1162" s="47" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C1162" s="47" t="s">
+        <v>534</v>
+      </c>
+      <c r="D1162" s="47" t="s">
+        <v>1455</v>
+      </c>
+      <c r="E1162" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1163" s="47" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B1163" s="47" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C1163" s="47" t="s">
+        <v>534</v>
+      </c>
+      <c r="D1163" s="47" t="s">
+        <v>1455</v>
+      </c>
+      <c r="E1163" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1164" s="47" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B1164" s="47" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C1164" s="47" t="s">
+        <v>534</v>
+      </c>
+      <c r="D1164" s="47" t="s">
+        <v>1455</v>
+      </c>
+      <c r="E1164" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1165" s="47" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B1165" s="47" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C1165" s="47" t="s">
+        <v>534</v>
+      </c>
+      <c r="D1165" s="47" t="s">
+        <v>1455</v>
+      </c>
+      <c r="E1165" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1166" s="47" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B1166" s="47" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C1166" s="47" t="s">
+        <v>534</v>
+      </c>
+      <c r="D1166" s="47" t="s">
+        <v>1455</v>
+      </c>
+      <c r="E1166" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1167" s="11" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B1167" s="11" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C1167" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1167" s="11" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E1167" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1168" s="11" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B1168" s="11" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C1168" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1168" s="11" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E1168" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1169" s="11" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B1169" s="11" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C1169" s="11" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1169" s="11" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E1169" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1170" s="11" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B1170" s="11" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C1170" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1170" s="11" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E1170" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1171" s="11" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B1171" s="11" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C1171" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1171" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E1171" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1172" s="11" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B1172" s="11" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C1172" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1172" s="11" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E1172" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1173" s="11" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B1173" s="11" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C1173" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1173" s="11" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E1173" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1174" s="11" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B1174" s="11" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C1174" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1174" s="11" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E1174" s="17">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4257" uniqueCount="1464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4281" uniqueCount="1470">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -4422,6 +4422,24 @@
   </si>
   <si>
     <t>DSS2173</t>
+  </si>
+  <si>
+    <t>DSS2174</t>
+  </si>
+  <si>
+    <t>DSS2175</t>
+  </si>
+  <si>
+    <t>DSS2176</t>
+  </si>
+  <si>
+    <t>DSS2177</t>
+  </si>
+  <si>
+    <t>DSS2178</t>
+  </si>
+  <si>
+    <t>DSS2179</t>
   </si>
 </sst>
 </file>
@@ -5049,10 +5067,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1174"/>
+  <dimension ref="A1:E1180"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1163" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B1181" sqref="B1181"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1169" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A1175" sqref="A1175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24652,6 +24670,108 @@
         <v>1224</v>
       </c>
       <c r="E1174" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1175" s="10" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B1175" s="10" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C1175" s="10" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1175" s="10" t="s">
+        <v>756</v>
+      </c>
+      <c r="E1175" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1176" s="10" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B1176" s="10" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C1176" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1176" s="10" t="s">
+        <v>757</v>
+      </c>
+      <c r="E1176" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1177" s="10" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B1177" s="10" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C1177" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1177" s="10" t="s">
+        <v>758</v>
+      </c>
+      <c r="E1177" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1178" s="10" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B1178" s="10" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C1178" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1178" s="10" t="s">
+        <v>759</v>
+      </c>
+      <c r="E1178" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1179" s="10" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B1179" s="10" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C1179" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1179" s="10" t="s">
+        <v>760</v>
+      </c>
+      <c r="E1179" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1180" s="10" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B1180" s="10" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C1180" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1180" s="10" t="s">
+        <v>761</v>
+      </c>
+      <c r="E1180" s="17">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$695</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$1186</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$1207</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4281" uniqueCount="1470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4345" uniqueCount="1488">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -4440,6 +4440,60 @@
   </si>
   <si>
     <t>DSS2179</t>
+  </si>
+  <si>
+    <t>Mohamed Ahmed Mohamed Mahmoud</t>
+  </si>
+  <si>
+    <t>Youssef Ahmed Mohamed Mahmoud</t>
+  </si>
+  <si>
+    <t>DSS2180</t>
+  </si>
+  <si>
+    <t>DSS2181</t>
+  </si>
+  <si>
+    <t>DSS2182</t>
+  </si>
+  <si>
+    <t>DSS2183</t>
+  </si>
+  <si>
+    <t>DSS2184</t>
+  </si>
+  <si>
+    <t>DSS2185</t>
+  </si>
+  <si>
+    <t>DSS2186</t>
+  </si>
+  <si>
+    <t>DSS2187</t>
+  </si>
+  <si>
+    <t>DSS2188</t>
+  </si>
+  <si>
+    <t>DSS2189</t>
+  </si>
+  <si>
+    <t>DSS2190</t>
+  </si>
+  <si>
+    <t>DSS2191</t>
+  </si>
+  <si>
+    <t>DSS2192</t>
+  </si>
+  <si>
+    <t>DSS2193</t>
+  </si>
+  <si>
+    <t>DSS2194</t>
+  </si>
+  <si>
+    <t>DSS2195</t>
   </si>
 </sst>
 </file>
@@ -5067,10 +5121,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1180"/>
+  <dimension ref="A1:E1196"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1169" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A1175" sqref="A1175"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1182" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B1201" sqref="B1201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24772,6 +24826,278 @@
         <v>761</v>
       </c>
       <c r="E1180" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1181" s="10" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B1181" s="11" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C1181" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1181" s="11" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E1181" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1182" s="10" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B1182" s="11" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C1182" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1182" s="11" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E1182" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1183" s="10" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B1183" s="11" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C1183" s="11" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1183" s="11" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E1183" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1184" s="10" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B1184" s="11" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C1184" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1184" s="11" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E1184" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1185" s="10" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B1185" s="11" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C1185" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1185" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E1185" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1186" s="10" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B1186" s="11" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C1186" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1186" s="11" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E1186" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1187" s="10" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B1187" s="11" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C1187" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1187" s="11" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E1187" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1188" s="10" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B1188" s="11" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C1188" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1188" s="11" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E1188" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1189" s="10" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B1189" s="10" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C1189" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1189" s="44" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E1189" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1190" s="10" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B1190" s="10" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C1190" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1190" s="10" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E1190" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1191" s="10" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B1191" s="10" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C1191" s="10" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1191" s="10" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E1191" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1192" s="10" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B1192" s="10" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C1192" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1192" s="10" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E1192" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1193" s="10" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B1193" s="10" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C1193" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1193" s="10" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E1193" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1194" s="10" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B1194" s="10" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C1194" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1194" s="10" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E1194" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1195" s="10" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B1195" s="10" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C1195" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1195" s="10" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E1195" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1196" s="10" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B1196" s="10" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C1196" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1196" s="10" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E1196" s="17">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4345" uniqueCount="1488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4369" uniqueCount="1497">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -4494,6 +4494,33 @@
   </si>
   <si>
     <t>DSS2195</t>
+  </si>
+  <si>
+    <t>DSS2196</t>
+  </si>
+  <si>
+    <t>DSS2197</t>
+  </si>
+  <si>
+    <t>DSS2198</t>
+  </si>
+  <si>
+    <t>DSS2199</t>
+  </si>
+  <si>
+    <t>DSS2200</t>
+  </si>
+  <si>
+    <t>DSS2201</t>
+  </si>
+  <si>
+    <t>DSS2202</t>
+  </si>
+  <si>
+    <t>DSS2203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Osama Asadullah Qari Saadullah </t>
   </si>
 </sst>
 </file>
@@ -5121,10 +5148,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1196"/>
+  <dimension ref="A1:E1204"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1182" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B1201" sqref="B1201"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1194" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A1197" sqref="A1197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25098,6 +25125,142 @@
         <v>1224</v>
       </c>
       <c r="E1196" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1197" s="11" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B1197" s="11" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C1197" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1197" s="50">
+        <v>45779</v>
+      </c>
+      <c r="E1197" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1198" s="11" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B1198" s="11" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C1198" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1198" s="50">
+        <v>45932</v>
+      </c>
+      <c r="E1198" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1199" s="11" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B1199" s="11" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C1199" s="11" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1199" s="50">
+        <v>45810</v>
+      </c>
+      <c r="E1199" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1200" s="11" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B1200" s="11" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C1200" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1200" s="50">
+        <v>45718</v>
+      </c>
+      <c r="E1200" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1201" s="11" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B1201" s="11" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C1201" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1201" s="50">
+        <v>45659</v>
+      </c>
+      <c r="E1201" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1202" s="11" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B1202" s="11" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C1202" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1202" s="50">
+        <v>45690</v>
+      </c>
+      <c r="E1202" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1203" s="11" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B1203" s="11" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C1203" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1203" s="50">
+        <v>45840</v>
+      </c>
+      <c r="E1203" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1204" s="11" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B1204" s="11" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C1204" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1204" s="50">
+        <v>45871</v>
+      </c>
+      <c r="E1204" s="17">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
@@ -11,9 +11,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$695</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$1207</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$1215</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4369" uniqueCount="1497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4401" uniqueCount="1509">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -4521,12 +4521,48 @@
   </si>
   <si>
     <t xml:space="preserve">Osama Asadullah Qari Saadullah </t>
+  </si>
+  <si>
+    <t>OMAR ABDULRAZEK SALEM KHAIRALLA</t>
+  </si>
+  <si>
+    <t>DSS2204</t>
+  </si>
+  <si>
+    <t>DSS2205</t>
+  </si>
+  <si>
+    <t>Mustafa Sobhy Emam Mustafa</t>
+  </si>
+  <si>
+    <t>DSS2206</t>
+  </si>
+  <si>
+    <t>DSS2207</t>
+  </si>
+  <si>
+    <t>DSS2208</t>
+  </si>
+  <si>
+    <t>DSS2209</t>
+  </si>
+  <si>
+    <t>DSS2210</t>
+  </si>
+  <si>
+    <t>DSS2211</t>
+  </si>
+  <si>
+    <t>DSS2212</t>
+  </si>
+  <si>
+    <t>DSS2213</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4928,7 +4964,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -4963,7 +4999,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -5140,7 +5176,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5148,10 +5184,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1204"/>
+  <dimension ref="A1:E1214"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1194" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A1197" sqref="A1197"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1184" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G1208" sqref="G1208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25261,6 +25297,176 @@
         <v>45871</v>
       </c>
       <c r="E1204" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1205" s="10" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B1205" s="10" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C1205" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1205" s="44" t="s">
+        <v>603</v>
+      </c>
+      <c r="E1205" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1206" s="10" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B1206" s="10" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C1206" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1206" s="44" t="s">
+        <v>603</v>
+      </c>
+      <c r="E1206" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1207" s="11" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B1207" s="11" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C1207" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1207" s="50">
+        <v>45779</v>
+      </c>
+      <c r="E1207" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1208" s="11" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B1208" s="11" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C1208" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1208" s="50">
+        <v>45932</v>
+      </c>
+      <c r="E1208" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1209" s="11" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B1209" s="11" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C1209" s="11" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1209" s="50">
+        <v>45810</v>
+      </c>
+      <c r="E1209" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1210" s="11" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B1210" s="11" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C1210" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1210" s="50">
+        <v>45718</v>
+      </c>
+      <c r="E1210" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1211" s="11" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B1211" s="11" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C1211" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1211" s="50">
+        <v>45659</v>
+      </c>
+      <c r="E1211" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1212" s="11" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B1212" s="11" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C1212" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1212" s="50">
+        <v>45690</v>
+      </c>
+      <c r="E1212" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1213" s="11" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B1213" s="11" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C1213" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1213" s="50">
+        <v>45840</v>
+      </c>
+      <c r="E1213" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1214" s="11" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B1214" s="11" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C1214" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1214" s="50">
+        <v>45871</v>
+      </c>
+      <c r="E1214" s="17">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$695</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$1215</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$1370</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4401" uniqueCount="1509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4749" uniqueCount="1641">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -4557,6 +4557,402 @@
   </si>
   <si>
     <t>DSS2213</t>
+  </si>
+  <si>
+    <t>Galal Abdelmoez Ali Khadrawy</t>
+  </si>
+  <si>
+    <t>DSS2214</t>
+  </si>
+  <si>
+    <t>DSS2215</t>
+  </si>
+  <si>
+    <t>DSS2216</t>
+  </si>
+  <si>
+    <t>DSS2217</t>
+  </si>
+  <si>
+    <t>DSS2218</t>
+  </si>
+  <si>
+    <t>DSS2219</t>
+  </si>
+  <si>
+    <t>DSS2220</t>
+  </si>
+  <si>
+    <t>DSS2221</t>
+  </si>
+  <si>
+    <t>DSS2222</t>
+  </si>
+  <si>
+    <t>DSS2223</t>
+  </si>
+  <si>
+    <t>DSS2224</t>
+  </si>
+  <si>
+    <t>DSS2225</t>
+  </si>
+  <si>
+    <t>DSS2226</t>
+  </si>
+  <si>
+    <t>DSS2227</t>
+  </si>
+  <si>
+    <t>DSS2228</t>
+  </si>
+  <si>
+    <t>DSS2229</t>
+  </si>
+  <si>
+    <t>DSS2230</t>
+  </si>
+  <si>
+    <t>DSS2231</t>
+  </si>
+  <si>
+    <t>DSS2232</t>
+  </si>
+  <si>
+    <t>DSS2233</t>
+  </si>
+  <si>
+    <t>DSS2234</t>
+  </si>
+  <si>
+    <t>DSS2235</t>
+  </si>
+  <si>
+    <t>DSS2236</t>
+  </si>
+  <si>
+    <t>DSS2237</t>
+  </si>
+  <si>
+    <t>DSS2238</t>
+  </si>
+  <si>
+    <t>DSS2239</t>
+  </si>
+  <si>
+    <t>DSS2240</t>
+  </si>
+  <si>
+    <t>DSS2241</t>
+  </si>
+  <si>
+    <t>DSS2242</t>
+  </si>
+  <si>
+    <t>DSS2243</t>
+  </si>
+  <si>
+    <t>DSS2244</t>
+  </si>
+  <si>
+    <t>DSS2245</t>
+  </si>
+  <si>
+    <t>DSS2246</t>
+  </si>
+  <si>
+    <t>DSS2247</t>
+  </si>
+  <si>
+    <t>DSS2248</t>
+  </si>
+  <si>
+    <t>DSS2249</t>
+  </si>
+  <si>
+    <t>DSS2250</t>
+  </si>
+  <si>
+    <t>DSS2251</t>
+  </si>
+  <si>
+    <t>DSS2252</t>
+  </si>
+  <si>
+    <t>DSS2253</t>
+  </si>
+  <si>
+    <t>DSS2254</t>
+  </si>
+  <si>
+    <t>DSS2255</t>
+  </si>
+  <si>
+    <t>DSS2256</t>
+  </si>
+  <si>
+    <t>DSS2257</t>
+  </si>
+  <si>
+    <t>DSS2258</t>
+  </si>
+  <si>
+    <t>DSS2259</t>
+  </si>
+  <si>
+    <t>DSS2260</t>
+  </si>
+  <si>
+    <t>DSS2261</t>
+  </si>
+  <si>
+    <t>DSS2262</t>
+  </si>
+  <si>
+    <t>DSS2263</t>
+  </si>
+  <si>
+    <t>DSS2264</t>
+  </si>
+  <si>
+    <t>DSS2265</t>
+  </si>
+  <si>
+    <t>DSS2266</t>
+  </si>
+  <si>
+    <t>DSS2267</t>
+  </si>
+  <si>
+    <t>DSS2268</t>
+  </si>
+  <si>
+    <t>DSS2269</t>
+  </si>
+  <si>
+    <t>DSS2270</t>
+  </si>
+  <si>
+    <t>DSS2271</t>
+  </si>
+  <si>
+    <t>DSS2272</t>
+  </si>
+  <si>
+    <t>DSS2273</t>
+  </si>
+  <si>
+    <t>DSS2274</t>
+  </si>
+  <si>
+    <t>DSS2275</t>
+  </si>
+  <si>
+    <t>DSS2276</t>
+  </si>
+  <si>
+    <t>DSS2277</t>
+  </si>
+  <si>
+    <t>DSS2278</t>
+  </si>
+  <si>
+    <t>DSS2279</t>
+  </si>
+  <si>
+    <t>DSS2280</t>
+  </si>
+  <si>
+    <t>DSS2281</t>
+  </si>
+  <si>
+    <t>DSS2282</t>
+  </si>
+  <si>
+    <t>DSS2283</t>
+  </si>
+  <si>
+    <t>DSS2284</t>
+  </si>
+  <si>
+    <t>DSS2285</t>
+  </si>
+  <si>
+    <t>DSS2286</t>
+  </si>
+  <si>
+    <t>DSS2287</t>
+  </si>
+  <si>
+    <t>DSS2288</t>
+  </si>
+  <si>
+    <t>DSS2289</t>
+  </si>
+  <si>
+    <t>DSS2290</t>
+  </si>
+  <si>
+    <t>DSS2291</t>
+  </si>
+  <si>
+    <t>DSS2292</t>
+  </si>
+  <si>
+    <t>DSS2293</t>
+  </si>
+  <si>
+    <t>DSS2294</t>
+  </si>
+  <si>
+    <t>DSS2295</t>
+  </si>
+  <si>
+    <t>DSS2296</t>
+  </si>
+  <si>
+    <t>DSS2297</t>
+  </si>
+  <si>
+    <t>DSS2298</t>
+  </si>
+  <si>
+    <t>DSS2299</t>
+  </si>
+  <si>
+    <t>DSS2300</t>
+  </si>
+  <si>
+    <t>DSS2301</t>
+  </si>
+  <si>
+    <t>DSS2302</t>
+  </si>
+  <si>
+    <t>DSS2303</t>
+  </si>
+  <si>
+    <t>DSS2304</t>
+  </si>
+  <si>
+    <t>DSS2305</t>
+  </si>
+  <si>
+    <t>DSS2306</t>
+  </si>
+  <si>
+    <t>DSS2307</t>
+  </si>
+  <si>
+    <t>DSS2308</t>
+  </si>
+  <si>
+    <t>DSS2309</t>
+  </si>
+  <si>
+    <t>Ahmed Mansour Elsayed Abdallah</t>
+  </si>
+  <si>
+    <t>Mohamed Hamdy Ibrahim Koubisy</t>
+  </si>
+  <si>
+    <t>Mohamed Mahmoud Ahmed ELNaghia</t>
+  </si>
+  <si>
+    <t>MOHAMED ELGERGAWI ABDELHAKIM SAYED AHMED</t>
+  </si>
+  <si>
+    <t>Amro Elsayed Mohamed Mohamedein</t>
+  </si>
+  <si>
+    <t>Osama Asadullah Qari Saadullah</t>
+  </si>
+  <si>
+    <t>Mohamed Fathi Khalf Ibrahim</t>
+  </si>
+  <si>
+    <t>AHMED RAMADAN BASTAWY BASHA</t>
+  </si>
+  <si>
+    <t>MOHAMED ABUBAKER MOHAMED MERGHANI</t>
+  </si>
+  <si>
+    <t>Moutii Gorrab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mohammed Habib Aouadi </t>
+  </si>
+  <si>
+    <t>AHMED ZAKI MOHAMED SALAMA</t>
+  </si>
+  <si>
+    <t>KHALED AHMED IBRAHIM MOSTAFA ELKAZAZ</t>
+  </si>
+  <si>
+    <t>Khaled Ramadan Ahmed Ghazy</t>
+  </si>
+  <si>
+    <t>Mohammed Moustafa Moussa Mohammed</t>
+  </si>
+  <si>
+    <t>DSS2310</t>
+  </si>
+  <si>
+    <t>DSS2311</t>
+  </si>
+  <si>
+    <t>DSS2312</t>
+  </si>
+  <si>
+    <t>DSS2313</t>
+  </si>
+  <si>
+    <t>DSS2314</t>
+  </si>
+  <si>
+    <t>DSS2315</t>
+  </si>
+  <si>
+    <t>DSS2316</t>
+  </si>
+  <si>
+    <t>DSS2317</t>
+  </si>
+  <si>
+    <t>DSS2318</t>
+  </si>
+  <si>
+    <t>DSS2319</t>
+  </si>
+  <si>
+    <t>DSS2320</t>
+  </si>
+  <si>
+    <t>DSS2321</t>
+  </si>
+  <si>
+    <t>DSS2322</t>
+  </si>
+  <si>
+    <t>DSS2323</t>
+  </si>
+  <si>
+    <t>DSS2324</t>
+  </si>
+  <si>
+    <t>DSS2325</t>
+  </si>
+  <si>
+    <t>DSS2326</t>
+  </si>
+  <si>
+    <t>DSS2327</t>
+  </si>
+  <si>
+    <t>DSS2328</t>
+  </si>
+  <si>
+    <t>DSS2329</t>
   </si>
 </sst>
 </file>
@@ -4752,7 +5148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -4903,6 +5299,9 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5176,7 +5575,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5184,10 +5583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1214"/>
+  <dimension ref="A1:E1330"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1184" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G1208" sqref="G1208"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1315" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D1340" sqref="D1340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25470,12 +25869,1984 @@
         <v>1</v>
       </c>
     </row>
+    <row r="1215" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1215" s="44" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B1215" s="44" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C1215" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1215" s="44">
+        <v>45779</v>
+      </c>
+      <c r="E1215" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1216" s="44" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B1216" s="44" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C1216" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1216" s="44">
+        <v>45932</v>
+      </c>
+      <c r="E1216" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1217" s="44" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B1217" s="44" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C1217" s="44" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1217" s="44">
+        <v>45810</v>
+      </c>
+      <c r="E1217" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1218" s="44" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B1218" s="44" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C1218" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1218" s="44">
+        <v>45718</v>
+      </c>
+      <c r="E1218" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1219" s="44" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B1219" s="44" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C1219" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1219" s="44">
+        <v>45659</v>
+      </c>
+      <c r="E1219" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1220" s="44" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B1220" s="44" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C1220" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1220" s="44">
+        <v>45690</v>
+      </c>
+      <c r="E1220" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1221" s="44" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B1221" s="44" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C1221" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1221" s="44">
+        <v>45840</v>
+      </c>
+      <c r="E1221" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1222" s="44" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B1222" s="44" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C1222" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1222" s="44">
+        <v>45871</v>
+      </c>
+      <c r="E1222" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1223" s="11" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B1223" s="11" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C1223" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1223" s="50">
+        <v>45779</v>
+      </c>
+      <c r="E1223" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1224" s="11" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B1224" s="11" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C1224" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1224" s="50">
+        <v>45932</v>
+      </c>
+      <c r="E1224" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1225" s="11" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B1225" s="11" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C1225" s="11" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1225" s="50">
+        <v>45810</v>
+      </c>
+      <c r="E1225" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1226" s="11" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B1226" s="11" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C1226" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1226" s="50">
+        <v>45718</v>
+      </c>
+      <c r="E1226" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1227" s="11" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B1227" s="11" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C1227" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1227" s="50">
+        <v>45659</v>
+      </c>
+      <c r="E1227" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1228" s="11" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B1228" s="11" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C1228" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1228" s="50">
+        <v>45690</v>
+      </c>
+      <c r="E1228" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1229" s="11" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B1229" s="11" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C1229" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1229" s="50">
+        <v>45840</v>
+      </c>
+      <c r="E1229" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1230" s="11" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B1230" s="11" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C1230" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1230" s="50">
+        <v>45871</v>
+      </c>
+      <c r="E1230" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1231" s="44" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B1231" s="44" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C1231" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1231" s="44">
+        <v>45779</v>
+      </c>
+      <c r="E1231" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1232" s="44" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B1232" s="44" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C1232" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1232" s="44">
+        <v>45932</v>
+      </c>
+      <c r="E1232" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1233" s="44" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B1233" s="44" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C1233" s="44" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1233" s="44">
+        <v>45810</v>
+      </c>
+      <c r="E1233" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1234" s="44" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B1234" s="44" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C1234" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1234" s="44">
+        <v>45718</v>
+      </c>
+      <c r="E1234" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1235" s="44" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B1235" s="44" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C1235" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1235" s="44">
+        <v>45659</v>
+      </c>
+      <c r="E1235" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1236" s="44" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B1236" s="44" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C1236" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1236" s="44">
+        <v>45690</v>
+      </c>
+      <c r="E1236" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1237" s="44" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B1237" s="44" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C1237" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1237" s="44">
+        <v>45840</v>
+      </c>
+      <c r="E1237" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1238" s="44" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B1238" s="44" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C1238" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1238" s="44">
+        <v>45871</v>
+      </c>
+      <c r="E1238" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1239" s="11" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B1239" s="11" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C1239" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1239" s="50">
+        <v>45779</v>
+      </c>
+      <c r="E1239" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1240" s="11" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B1240" s="11" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C1240" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1240" s="50">
+        <v>45932</v>
+      </c>
+      <c r="E1240" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1241" s="11" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B1241" s="11" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C1241" s="11" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1241" s="50">
+        <v>45810</v>
+      </c>
+      <c r="E1241" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1242" s="11" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B1242" s="11" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C1242" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1242" s="50">
+        <v>45718</v>
+      </c>
+      <c r="E1242" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1243" s="11" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B1243" s="11" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C1243" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1243" s="50">
+        <v>45659</v>
+      </c>
+      <c r="E1243" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1244" s="11" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B1244" s="11" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C1244" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1244" s="50">
+        <v>45690</v>
+      </c>
+      <c r="E1244" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1245" s="11" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B1245" s="11" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C1245" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1245" s="50">
+        <v>45840</v>
+      </c>
+      <c r="E1245" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1246" s="11" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B1246" s="11" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C1246" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1246" s="50">
+        <v>45871</v>
+      </c>
+      <c r="E1246" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1247" s="51" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B1247" s="51" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C1247" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1247" s="44">
+        <v>45779</v>
+      </c>
+      <c r="E1247" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1248" s="51" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B1248" s="51" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C1248" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1248" s="44">
+        <v>45932</v>
+      </c>
+      <c r="E1248" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1249" s="51" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B1249" s="51" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C1249" s="44" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1249" s="44">
+        <v>45810</v>
+      </c>
+      <c r="E1249" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1250" s="51" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B1250" s="51" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C1250" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1250" s="44">
+        <v>45718</v>
+      </c>
+      <c r="E1250" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1251" s="51" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B1251" s="51" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C1251" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1251" s="44">
+        <v>45659</v>
+      </c>
+      <c r="E1251" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1252" s="51" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B1252" s="51" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C1252" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1252" s="44">
+        <v>45690</v>
+      </c>
+      <c r="E1252" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1253" s="51" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B1253" s="51" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C1253" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1253" s="44">
+        <v>45840</v>
+      </c>
+      <c r="E1253" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1254" s="51" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B1254" s="51" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C1254" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1254" s="44">
+        <v>45871</v>
+      </c>
+      <c r="E1254" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1255" s="11" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B1255" s="11" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C1255" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1255" s="50">
+        <v>45779</v>
+      </c>
+      <c r="E1255" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1256" s="11" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B1256" s="11" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C1256" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1256" s="50">
+        <v>45932</v>
+      </c>
+      <c r="E1256" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1257" s="11" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B1257" s="11" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C1257" s="11" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1257" s="50">
+        <v>45810</v>
+      </c>
+      <c r="E1257" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1258" s="11" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B1258" s="11" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C1258" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1258" s="50">
+        <v>45718</v>
+      </c>
+      <c r="E1258" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1259" s="11" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B1259" s="11" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C1259" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1259" s="50">
+        <v>45659</v>
+      </c>
+      <c r="E1259" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1260" s="11" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B1260" s="11" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C1260" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1260" s="50">
+        <v>45690</v>
+      </c>
+      <c r="E1260" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1261" s="11" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B1261" s="11" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C1261" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1261" s="50">
+        <v>45840</v>
+      </c>
+      <c r="E1261" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1262" s="11" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B1262" s="11" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C1262" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1262" s="50">
+        <v>45871</v>
+      </c>
+      <c r="E1262" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1263" s="44" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B1263" s="44" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C1263" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1263" s="44">
+        <v>45779</v>
+      </c>
+      <c r="E1263" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1264" s="44" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B1264" s="44" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C1264" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1264" s="44">
+        <v>45932</v>
+      </c>
+      <c r="E1264" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1265" s="44" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B1265" s="44" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C1265" s="44" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1265" s="44">
+        <v>45810</v>
+      </c>
+      <c r="E1265" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1266" s="44" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B1266" s="44" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C1266" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1266" s="44">
+        <v>45718</v>
+      </c>
+      <c r="E1266" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1267" s="44" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B1267" s="44" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C1267" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1267" s="44">
+        <v>45659</v>
+      </c>
+      <c r="E1267" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1268" s="44" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B1268" s="44" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C1268" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1268" s="44">
+        <v>45690</v>
+      </c>
+      <c r="E1268" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1269" s="44" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B1269" s="44" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C1269" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1269" s="44">
+        <v>45840</v>
+      </c>
+      <c r="E1269" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1270" s="44" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B1270" s="44" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C1270" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1270" s="44">
+        <v>45871</v>
+      </c>
+      <c r="E1270" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1271" s="11" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B1271" s="11" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C1271" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1271" s="50">
+        <v>45779</v>
+      </c>
+      <c r="E1271" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1272" s="11" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B1272" s="11" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C1272" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1272" s="50">
+        <v>45932</v>
+      </c>
+      <c r="E1272" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1273" s="11" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B1273" s="11" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C1273" s="11" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1273" s="50">
+        <v>45810</v>
+      </c>
+      <c r="E1273" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1274" s="11" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B1274" s="11" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C1274" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1274" s="50">
+        <v>45718</v>
+      </c>
+      <c r="E1274" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1275" s="11" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B1275" s="11" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C1275" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1275" s="50">
+        <v>45659</v>
+      </c>
+      <c r="E1275" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1276" s="11" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B1276" s="11" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C1276" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1276" s="50">
+        <v>45690</v>
+      </c>
+      <c r="E1276" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1277" s="11" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B1277" s="11" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C1277" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1277" s="50">
+        <v>45840</v>
+      </c>
+      <c r="E1277" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1278" s="11" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B1278" s="11" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C1278" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1278" s="50">
+        <v>45871</v>
+      </c>
+      <c r="E1278" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1279" s="44" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B1279" s="44" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C1279" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1279" s="44">
+        <v>45779</v>
+      </c>
+      <c r="E1279" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1280" s="44" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B1280" s="44" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C1280" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1280" s="44">
+        <v>45932</v>
+      </c>
+      <c r="E1280" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1281" s="44" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B1281" s="44" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C1281" s="44" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1281" s="44">
+        <v>45810</v>
+      </c>
+      <c r="E1281" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1282" s="44" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B1282" s="44" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C1282" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1282" s="44">
+        <v>45718</v>
+      </c>
+      <c r="E1282" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1283" s="44" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B1283" s="44" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C1283" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1283" s="44">
+        <v>45659</v>
+      </c>
+      <c r="E1283" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1284" s="44" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B1284" s="44" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C1284" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1284" s="44">
+        <v>45690</v>
+      </c>
+      <c r="E1284" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1285" s="44" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B1285" s="44" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C1285" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1285" s="44">
+        <v>45840</v>
+      </c>
+      <c r="E1285" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1286" s="44" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B1286" s="44" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C1286" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1286" s="44">
+        <v>45871</v>
+      </c>
+      <c r="E1286" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1287" s="11" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B1287" s="11" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C1287" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1287" s="50">
+        <v>45779</v>
+      </c>
+      <c r="E1287" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1288" s="11" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B1288" s="11" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C1288" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1288" s="50">
+        <v>45932</v>
+      </c>
+      <c r="E1288" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1289" s="11" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B1289" s="11" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C1289" s="11" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1289" s="50">
+        <v>45810</v>
+      </c>
+      <c r="E1289" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1290" s="11" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B1290" s="11" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C1290" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1290" s="50">
+        <v>45718</v>
+      </c>
+      <c r="E1290" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1291" s="11" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B1291" s="11" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C1291" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1291" s="50">
+        <v>45659</v>
+      </c>
+      <c r="E1291" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1292" s="11" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B1292" s="11" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C1292" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1292" s="50">
+        <v>45690</v>
+      </c>
+      <c r="E1292" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1293" s="11" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B1293" s="11" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C1293" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1293" s="50">
+        <v>45840</v>
+      </c>
+      <c r="E1293" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1294" s="11" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B1294" s="11" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C1294" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1294" s="50">
+        <v>45871</v>
+      </c>
+      <c r="E1294" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1295" s="44" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B1295" s="44" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C1295" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1295" s="44">
+        <v>45779</v>
+      </c>
+      <c r="E1295" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1296" s="44" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B1296" s="44" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C1296" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1296" s="44">
+        <v>45932</v>
+      </c>
+      <c r="E1296" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1297" s="44" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B1297" s="44" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C1297" s="44" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1297" s="44">
+        <v>45810</v>
+      </c>
+      <c r="E1297" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1298" s="44" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B1298" s="44" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C1298" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1298" s="44">
+        <v>45718</v>
+      </c>
+      <c r="E1298" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1299" s="44" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B1299" s="44" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C1299" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1299" s="44">
+        <v>45659</v>
+      </c>
+      <c r="E1299" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1300" s="44" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B1300" s="44" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C1300" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1300" s="44">
+        <v>45690</v>
+      </c>
+      <c r="E1300" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1301" s="44" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B1301" s="44" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C1301" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1301" s="44">
+        <v>45840</v>
+      </c>
+      <c r="E1301" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1302" s="44" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B1302" s="44" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C1302" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1302" s="44">
+        <v>45871</v>
+      </c>
+      <c r="E1302" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1303" s="11" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B1303" s="11" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C1303" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1303" s="50">
+        <v>45779</v>
+      </c>
+      <c r="E1303" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1304" s="11" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B1304" s="11" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C1304" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1304" s="50">
+        <v>45932</v>
+      </c>
+      <c r="E1304" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1305" s="11" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B1305" s="11" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C1305" s="11" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1305" s="50">
+        <v>45810</v>
+      </c>
+      <c r="E1305" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1306" s="11" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B1306" s="11" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C1306" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1306" s="50">
+        <v>45718</v>
+      </c>
+      <c r="E1306" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1307" s="11" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B1307" s="11" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C1307" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1307" s="50">
+        <v>45659</v>
+      </c>
+      <c r="E1307" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1308" s="11" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B1308" s="11" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C1308" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1308" s="50">
+        <v>45690</v>
+      </c>
+      <c r="E1308" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1309" s="11" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B1309" s="11" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C1309" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1309" s="50">
+        <v>45840</v>
+      </c>
+      <c r="E1309" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1310" s="11" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B1310" s="11" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C1310" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1310" s="50">
+        <v>45871</v>
+      </c>
+      <c r="E1310" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1311" s="44" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B1311" s="44" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C1311" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1311" s="44">
+        <v>45779</v>
+      </c>
+      <c r="E1311" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1312" s="44" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B1312" s="44" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C1312" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1312" s="44">
+        <v>45932</v>
+      </c>
+      <c r="E1312" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1313" s="44" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B1313" s="44" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C1313" s="44" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1313" s="44">
+        <v>45810</v>
+      </c>
+      <c r="E1313" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1314" s="44" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B1314" s="44" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C1314" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1314" s="44">
+        <v>45718</v>
+      </c>
+      <c r="E1314" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1315" s="44" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B1315" s="44" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C1315" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1315" s="44">
+        <v>45659</v>
+      </c>
+      <c r="E1315" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1316" s="44" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B1316" s="44" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C1316" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1316" s="44">
+        <v>45690</v>
+      </c>
+      <c r="E1316" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1317" s="44" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B1317" s="44" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C1317" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1317" s="44">
+        <v>45840</v>
+      </c>
+      <c r="E1317" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1318" s="44" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B1318" s="44" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C1318" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1318" s="44">
+        <v>45871</v>
+      </c>
+      <c r="E1318" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1319" s="11" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B1319" s="11" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C1319" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1319" s="50">
+        <v>45779</v>
+      </c>
+      <c r="E1319" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1320" s="11" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B1320" s="11" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C1320" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1320" s="50">
+        <v>45932</v>
+      </c>
+      <c r="E1320" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1321" s="11" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B1321" s="11" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C1321" s="11" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1321" s="50">
+        <v>45810</v>
+      </c>
+      <c r="E1321" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1322" s="11" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B1322" s="11" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C1322" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1322" s="50">
+        <v>45718</v>
+      </c>
+      <c r="E1322" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1323" s="11" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B1323" s="11" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C1323" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1323" s="50">
+        <v>45659</v>
+      </c>
+      <c r="E1323" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1324" s="11" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B1324" s="11" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C1324" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1324" s="50">
+        <v>45690</v>
+      </c>
+      <c r="E1324" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1325" s="11" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B1325" s="11" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C1325" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1325" s="50">
+        <v>45840</v>
+      </c>
+      <c r="E1325" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1326" s="11" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B1326" s="11" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C1326" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1326" s="50">
+        <v>45871</v>
+      </c>
+      <c r="E1326" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1327" s="44" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B1327" s="44" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C1327" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1327" s="44">
+        <v>45779</v>
+      </c>
+      <c r="E1327" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1328" s="44" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B1328" s="44" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C1328" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1328" s="44">
+        <v>45932</v>
+      </c>
+      <c r="E1328" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1329" s="11" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B1329" s="11" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C1329" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1329" s="50">
+        <v>45779</v>
+      </c>
+      <c r="E1329" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1330" s="11" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B1330" s="11" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C1330" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1330" s="50">
+        <v>45932</v>
+      </c>
+      <c r="E1330" s="17">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E695"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="45" orientation="portrait" r:id="rId1"/>
-  <rowBreaks count="9" manualBreakCount="9">
+  <rowBreaks count="10" manualBreakCount="10">
     <brk id="70" max="16383" man="1"/>
     <brk id="409" max="4" man="1"/>
     <brk id="493" max="4" man="1"/>
@@ -25485,6 +27856,7 @@
     <brk id="852" max="4" man="1"/>
     <brk id="948" max="4" man="1"/>
     <brk id="1044" max="4" man="1"/>
+    <brk id="1330" max="4" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4749" uniqueCount="1641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4725" uniqueCount="1639">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -4865,9 +4865,6 @@
     <t>Amro Elsayed Mohamed Mohamedein</t>
   </si>
   <si>
-    <t>Osama Asadullah Qari Saadullah</t>
-  </si>
-  <si>
     <t>Mohamed Fathi Khalf Ibrahim</t>
   </si>
   <si>
@@ -4881,9 +4878,6 @@
   </si>
   <si>
     <t xml:space="preserve">Mohammed Habib Aouadi </t>
-  </si>
-  <si>
-    <t>AHMED ZAKI MOHAMED SALAMA</t>
   </si>
   <si>
     <t>KHALED AHMED IBRAHIM MOSTAFA ELKAZAZ</t>
@@ -5575,7 +5569,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5585,8 +5579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1330"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1315" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D1340" sqref="D1340"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1301" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H1311" sqref="H1310:H1311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26689,144 +26683,72 @@
       <c r="A1263" s="44" t="s">
         <v>1558</v>
       </c>
-      <c r="B1263" s="44" t="s">
-        <v>1611</v>
-      </c>
-      <c r="C1263" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1263" s="44">
-        <v>45779</v>
-      </c>
-      <c r="E1263" s="17">
-        <v>1</v>
-      </c>
+      <c r="B1263" s="44"/>
+      <c r="C1263" s="44"/>
+      <c r="D1263" s="44"/>
     </row>
     <row r="1264" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1264" s="44" t="s">
         <v>1559</v>
       </c>
-      <c r="B1264" s="44" t="s">
-        <v>1611</v>
-      </c>
-      <c r="C1264" s="44" t="s">
-        <v>230</v>
-      </c>
-      <c r="D1264" s="44">
-        <v>45932</v>
-      </c>
-      <c r="E1264" s="17">
-        <v>1</v>
-      </c>
+      <c r="B1264" s="44"/>
+      <c r="C1264" s="44"/>
+      <c r="D1264" s="44"/>
     </row>
     <row r="1265" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1265" s="44" t="s">
         <v>1560</v>
       </c>
-      <c r="B1265" s="44" t="s">
-        <v>1611</v>
-      </c>
-      <c r="C1265" s="44" t="s">
-        <v>952</v>
-      </c>
-      <c r="D1265" s="44">
-        <v>45810</v>
-      </c>
-      <c r="E1265" s="17">
-        <v>1</v>
-      </c>
+      <c r="B1265" s="44"/>
+      <c r="C1265" s="44"/>
+      <c r="D1265" s="44"/>
     </row>
     <row r="1266" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1266" s="44" t="s">
         <v>1561</v>
       </c>
-      <c r="B1266" s="44" t="s">
-        <v>1611</v>
-      </c>
-      <c r="C1266" s="44" t="s">
-        <v>262</v>
-      </c>
-      <c r="D1266" s="44">
-        <v>45718</v>
-      </c>
-      <c r="E1266" s="17">
-        <v>1</v>
-      </c>
+      <c r="B1266" s="44"/>
+      <c r="C1266" s="44"/>
+      <c r="D1266" s="44"/>
     </row>
     <row r="1267" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1267" s="44" t="s">
         <v>1562</v>
       </c>
-      <c r="B1267" s="44" t="s">
-        <v>1611</v>
-      </c>
-      <c r="C1267" s="44" t="s">
-        <v>247</v>
-      </c>
-      <c r="D1267" s="44">
-        <v>45659</v>
-      </c>
-      <c r="E1267" s="17">
-        <v>1</v>
-      </c>
+      <c r="B1267" s="44"/>
+      <c r="C1267" s="44"/>
+      <c r="D1267" s="44"/>
     </row>
     <row r="1268" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1268" s="44" t="s">
         <v>1563</v>
       </c>
-      <c r="B1268" s="44" t="s">
-        <v>1611</v>
-      </c>
-      <c r="C1268" s="44" t="s">
-        <v>263</v>
-      </c>
-      <c r="D1268" s="44">
-        <v>45690</v>
-      </c>
-      <c r="E1268" s="17">
-        <v>1</v>
-      </c>
+      <c r="B1268" s="44"/>
+      <c r="C1268" s="44"/>
+      <c r="D1268" s="44"/>
     </row>
     <row r="1269" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1269" s="44" t="s">
         <v>1564</v>
       </c>
-      <c r="B1269" s="44" t="s">
-        <v>1611</v>
-      </c>
-      <c r="C1269" s="44" t="s">
-        <v>252</v>
-      </c>
-      <c r="D1269" s="44">
-        <v>45840</v>
-      </c>
-      <c r="E1269" s="17">
-        <v>1</v>
-      </c>
+      <c r="B1269" s="44"/>
+      <c r="C1269" s="44"/>
+      <c r="D1269" s="44"/>
     </row>
     <row r="1270" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1270" s="44" t="s">
         <v>1565</v>
       </c>
-      <c r="B1270" s="44" t="s">
-        <v>1611</v>
-      </c>
-      <c r="C1270" s="44" t="s">
-        <v>231</v>
-      </c>
-      <c r="D1270" s="44">
-        <v>45871</v>
-      </c>
-      <c r="E1270" s="17">
-        <v>1</v>
-      </c>
+      <c r="B1270" s="44"/>
+      <c r="C1270" s="44"/>
+      <c r="D1270" s="44"/>
     </row>
     <row r="1271" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1271" s="11" t="s">
         <v>1566</v>
       </c>
       <c r="B1271" s="11" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C1271" s="11" t="s">
         <v>2</v>
@@ -26843,7 +26765,7 @@
         <v>1567</v>
       </c>
       <c r="B1272" s="11" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C1272" s="11" t="s">
         <v>230</v>
@@ -26860,7 +26782,7 @@
         <v>1568</v>
       </c>
       <c r="B1273" s="11" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C1273" s="11" t="s">
         <v>952</v>
@@ -26877,7 +26799,7 @@
         <v>1569</v>
       </c>
       <c r="B1274" s="11" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C1274" s="11" t="s">
         <v>262</v>
@@ -26894,7 +26816,7 @@
         <v>1570</v>
       </c>
       <c r="B1275" s="11" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C1275" s="11" t="s">
         <v>247</v>
@@ -26911,7 +26833,7 @@
         <v>1571</v>
       </c>
       <c r="B1276" s="11" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C1276" s="11" t="s">
         <v>263</v>
@@ -26928,7 +26850,7 @@
         <v>1572</v>
       </c>
       <c r="B1277" s="11" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C1277" s="11" t="s">
         <v>252</v>
@@ -26945,7 +26867,7 @@
         <v>1573</v>
       </c>
       <c r="B1278" s="11" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C1278" s="11" t="s">
         <v>231</v>
@@ -26962,7 +26884,7 @@
         <v>1574</v>
       </c>
       <c r="B1279" s="44" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="C1279" s="44" t="s">
         <v>2</v>
@@ -26979,7 +26901,7 @@
         <v>1575</v>
       </c>
       <c r="B1280" s="44" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="C1280" s="44" t="s">
         <v>230</v>
@@ -26996,7 +26918,7 @@
         <v>1576</v>
       </c>
       <c r="B1281" s="44" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="C1281" s="44" t="s">
         <v>952</v>
@@ -27013,7 +26935,7 @@
         <v>1577</v>
       </c>
       <c r="B1282" s="44" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="C1282" s="44" t="s">
         <v>262</v>
@@ -27030,7 +26952,7 @@
         <v>1578</v>
       </c>
       <c r="B1283" s="44" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="C1283" s="44" t="s">
         <v>247</v>
@@ -27047,7 +26969,7 @@
         <v>1579</v>
       </c>
       <c r="B1284" s="44" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="C1284" s="44" t="s">
         <v>263</v>
@@ -27064,7 +26986,7 @@
         <v>1580</v>
       </c>
       <c r="B1285" s="44" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="C1285" s="44" t="s">
         <v>252</v>
@@ -27081,7 +27003,7 @@
         <v>1581</v>
       </c>
       <c r="B1286" s="44" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="C1286" s="44" t="s">
         <v>231</v>
@@ -27098,7 +27020,7 @@
         <v>1582</v>
       </c>
       <c r="B1287" s="11" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="C1287" s="11" t="s">
         <v>2</v>
@@ -27115,7 +27037,7 @@
         <v>1583</v>
       </c>
       <c r="B1288" s="11" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="C1288" s="11" t="s">
         <v>230</v>
@@ -27132,7 +27054,7 @@
         <v>1584</v>
       </c>
       <c r="B1289" s="11" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="C1289" s="11" t="s">
         <v>952</v>
@@ -27149,7 +27071,7 @@
         <v>1585</v>
       </c>
       <c r="B1290" s="11" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="C1290" s="11" t="s">
         <v>262</v>
@@ -27166,7 +27088,7 @@
         <v>1586</v>
       </c>
       <c r="B1291" s="11" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="C1291" s="11" t="s">
         <v>247</v>
@@ -27183,7 +27105,7 @@
         <v>1587</v>
       </c>
       <c r="B1292" s="11" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="C1292" s="11" t="s">
         <v>263</v>
@@ -27200,7 +27122,7 @@
         <v>1588</v>
       </c>
       <c r="B1293" s="11" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="C1293" s="11" t="s">
         <v>252</v>
@@ -27217,7 +27139,7 @@
         <v>1589</v>
       </c>
       <c r="B1294" s="11" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="C1294" s="11" t="s">
         <v>231</v>
@@ -27234,7 +27156,7 @@
         <v>1590</v>
       </c>
       <c r="B1295" s="44" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="C1295" s="44" t="s">
         <v>2</v>
@@ -27251,7 +27173,7 @@
         <v>1591</v>
       </c>
       <c r="B1296" s="44" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="C1296" s="44" t="s">
         <v>230</v>
@@ -27268,7 +27190,7 @@
         <v>1592</v>
       </c>
       <c r="B1297" s="44" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="C1297" s="44" t="s">
         <v>952</v>
@@ -27285,7 +27207,7 @@
         <v>1593</v>
       </c>
       <c r="B1298" s="44" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="C1298" s="44" t="s">
         <v>262</v>
@@ -27302,7 +27224,7 @@
         <v>1594</v>
       </c>
       <c r="B1299" s="44" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="C1299" s="44" t="s">
         <v>247</v>
@@ -27319,7 +27241,7 @@
         <v>1595</v>
       </c>
       <c r="B1300" s="44" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="C1300" s="44" t="s">
         <v>263</v>
@@ -27336,7 +27258,7 @@
         <v>1596</v>
       </c>
       <c r="B1301" s="44" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="C1301" s="44" t="s">
         <v>252</v>
@@ -27353,7 +27275,7 @@
         <v>1597</v>
       </c>
       <c r="B1302" s="44" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="C1302" s="44" t="s">
         <v>231</v>
@@ -27369,9 +27291,7 @@
       <c r="A1303" s="11" t="s">
         <v>1598</v>
       </c>
-      <c r="B1303" s="11" t="s">
-        <v>1615</v>
-      </c>
+      <c r="B1303" s="11"/>
       <c r="C1303" s="11" t="s">
         <v>2</v>
       </c>
@@ -27386,9 +27306,7 @@
       <c r="A1304" s="11" t="s">
         <v>1599</v>
       </c>
-      <c r="B1304" s="11" t="s">
-        <v>1615</v>
-      </c>
+      <c r="B1304" s="11"/>
       <c r="C1304" s="11" t="s">
         <v>230</v>
       </c>
@@ -27403,9 +27321,7 @@
       <c r="A1305" s="11" t="s">
         <v>1600</v>
       </c>
-      <c r="B1305" s="11" t="s">
-        <v>1615</v>
-      </c>
+      <c r="B1305" s="11"/>
       <c r="C1305" s="11" t="s">
         <v>952</v>
       </c>
@@ -27420,9 +27336,7 @@
       <c r="A1306" s="11" t="s">
         <v>1601</v>
       </c>
-      <c r="B1306" s="11" t="s">
-        <v>1615</v>
-      </c>
+      <c r="B1306" s="11"/>
       <c r="C1306" s="11" t="s">
         <v>262</v>
       </c>
@@ -27437,9 +27351,7 @@
       <c r="A1307" s="11" t="s">
         <v>1602</v>
       </c>
-      <c r="B1307" s="11" t="s">
-        <v>1615</v>
-      </c>
+      <c r="B1307" s="11"/>
       <c r="C1307" s="11" t="s">
         <v>247</v>
       </c>
@@ -27454,9 +27366,7 @@
       <c r="A1308" s="11" t="s">
         <v>1603</v>
       </c>
-      <c r="B1308" s="11" t="s">
-        <v>1615</v>
-      </c>
+      <c r="B1308" s="11"/>
       <c r="C1308" s="11" t="s">
         <v>263</v>
       </c>
@@ -27471,9 +27381,7 @@
       <c r="A1309" s="11" t="s">
         <v>1604</v>
       </c>
-      <c r="B1309" s="11" t="s">
-        <v>1615</v>
-      </c>
+      <c r="B1309" s="11"/>
       <c r="C1309" s="11" t="s">
         <v>252</v>
       </c>
@@ -27488,9 +27396,7 @@
       <c r="A1310" s="11" t="s">
         <v>1605</v>
       </c>
-      <c r="B1310" s="11" t="s">
-        <v>1615</v>
-      </c>
+      <c r="B1310" s="11"/>
       <c r="C1310" s="11" t="s">
         <v>231</v>
       </c>
@@ -27503,10 +27409,10 @@
     </row>
     <row r="1311" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1311" s="44" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="B1311" s="44" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="C1311" s="44" t="s">
         <v>2</v>
@@ -27520,10 +27426,10 @@
     </row>
     <row r="1312" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1312" s="44" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="B1312" s="44" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="C1312" s="44" t="s">
         <v>230</v>
@@ -27537,10 +27443,10 @@
     </row>
     <row r="1313" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1313" s="44" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B1313" s="44" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="C1313" s="44" t="s">
         <v>952</v>
@@ -27554,10 +27460,10 @@
     </row>
     <row r="1314" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1314" s="44" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="B1314" s="44" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="C1314" s="44" t="s">
         <v>262</v>
@@ -27571,10 +27477,10 @@
     </row>
     <row r="1315" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1315" s="44" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="B1315" s="44" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="C1315" s="44" t="s">
         <v>247</v>
@@ -27588,10 +27494,10 @@
     </row>
     <row r="1316" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1316" s="44" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="B1316" s="44" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="C1316" s="44" t="s">
         <v>263</v>
@@ -27605,10 +27511,10 @@
     </row>
     <row r="1317" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1317" s="44" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="B1317" s="44" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="C1317" s="44" t="s">
         <v>252</v>
@@ -27622,10 +27528,10 @@
     </row>
     <row r="1318" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1318" s="44" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="B1318" s="44" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="C1318" s="44" t="s">
         <v>231</v>
@@ -27639,10 +27545,10 @@
     </row>
     <row r="1319" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1319" s="11" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="B1319" s="11" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="C1319" s="11" t="s">
         <v>2</v>
@@ -27656,10 +27562,10 @@
     </row>
     <row r="1320" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1320" s="11" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="B1320" s="11" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="C1320" s="11" t="s">
         <v>230</v>
@@ -27673,10 +27579,10 @@
     </row>
     <row r="1321" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1321" s="11" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="B1321" s="11" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="C1321" s="11" t="s">
         <v>952</v>
@@ -27690,10 +27596,10 @@
     </row>
     <row r="1322" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1322" s="11" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="B1322" s="11" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="C1322" s="11" t="s">
         <v>262</v>
@@ -27707,10 +27613,10 @@
     </row>
     <row r="1323" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1323" s="11" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="B1323" s="11" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="C1323" s="11" t="s">
         <v>247</v>
@@ -27724,10 +27630,10 @@
     </row>
     <row r="1324" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1324" s="11" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="B1324" s="11" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="C1324" s="11" t="s">
         <v>263</v>
@@ -27741,10 +27647,10 @@
     </row>
     <row r="1325" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1325" s="11" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="B1325" s="11" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="C1325" s="11" t="s">
         <v>252</v>
@@ -27758,10 +27664,10 @@
     </row>
     <row r="1326" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1326" s="11" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="B1326" s="11" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="C1326" s="11" t="s">
         <v>231</v>
@@ -27775,10 +27681,10 @@
     </row>
     <row r="1327" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1327" s="44" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="B1327" s="44" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="C1327" s="44" t="s">
         <v>2</v>
@@ -27792,10 +27698,10 @@
     </row>
     <row r="1328" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1328" s="44" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="B1328" s="44" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="C1328" s="44" t="s">
         <v>230</v>
@@ -27809,10 +27715,10 @@
     </row>
     <row r="1329" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1329" s="11" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="B1329" s="11" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="C1329" s="11" t="s">
         <v>2</v>
@@ -27826,10 +27732,10 @@
     </row>
     <row r="1330" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1330" s="11" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="B1330" s="11" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="C1330" s="11" t="s">
         <v>230</v>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4725" uniqueCount="1639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4753" uniqueCount="1652">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -4947,6 +4947,45 @@
   </si>
   <si>
     <t>DSS2329</t>
+  </si>
+  <si>
+    <t>DSS2330</t>
+  </si>
+  <si>
+    <t>DSS2331</t>
+  </si>
+  <si>
+    <t>DSS2332</t>
+  </si>
+  <si>
+    <t>DSS2333</t>
+  </si>
+  <si>
+    <t>DSS2334</t>
+  </si>
+  <si>
+    <t>DSS2335</t>
+  </si>
+  <si>
+    <t>DSS2336</t>
+  </si>
+  <si>
+    <t>DSS2337</t>
+  </si>
+  <si>
+    <t>Ali Saied Ali Mohamed Derbala</t>
+  </si>
+  <si>
+    <t>28/2/2025</t>
+  </si>
+  <si>
+    <t>27/2/2025</t>
+  </si>
+  <si>
+    <t>25/2/2025</t>
+  </si>
+  <si>
+    <t>24/2/2025</t>
   </si>
 </sst>
 </file>
@@ -5577,10 +5616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1330"/>
+  <dimension ref="A1:E1338"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1301" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H1311" sqref="H1310:H1311"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1314" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D1341" sqref="D1341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27747,12 +27786,148 @@
         <v>1</v>
       </c>
     </row>
+    <row r="1331" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1331" s="44" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B1331" s="44" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C1331" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1331" s="44">
+        <v>45750</v>
+      </c>
+      <c r="E1331" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1332" s="44" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B1332" s="44" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C1332" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1332" s="44" t="s">
+        <v>1648</v>
+      </c>
+      <c r="E1332" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1333" s="44" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B1333" s="44" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C1333" s="44" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1333" s="44" t="s">
+        <v>1649</v>
+      </c>
+      <c r="E1333" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1334" s="44" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B1334" s="44" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C1334" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1334" s="44">
+        <v>45719</v>
+      </c>
+      <c r="E1334" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1335" s="44" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B1335" s="44" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C1335" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1335" s="44">
+        <v>45660</v>
+      </c>
+      <c r="E1335" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1336" s="44" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B1336" s="44" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C1336" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1336" s="44" t="s">
+        <v>1650</v>
+      </c>
+      <c r="E1336" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1337" s="44" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B1337" s="44" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C1337" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1337" s="44" t="s">
+        <v>1651</v>
+      </c>
+      <c r="E1337" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1338" s="44" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B1338" s="44" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C1338" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1338" s="44">
+        <v>45691</v>
+      </c>
+      <c r="E1338" s="17">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E695"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="45" orientation="portrait" r:id="rId1"/>
-  <rowBreaks count="10" manualBreakCount="10">
+  <pageSetup scale="40" orientation="portrait" r:id="rId1"/>
+  <rowBreaks count="11" manualBreakCount="11">
     <brk id="70" max="16383" man="1"/>
     <brk id="409" max="4" man="1"/>
     <brk id="493" max="4" man="1"/>
@@ -27762,7 +27937,8 @@
     <brk id="852" max="4" man="1"/>
     <brk id="948" max="4" man="1"/>
     <brk id="1044" max="4" man="1"/>
-    <brk id="1330" max="4" man="1"/>
+    <brk id="1242" max="4" man="1"/>
+    <brk id="1344" max="4" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4753" uniqueCount="1652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4762" uniqueCount="1656">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -4986,6 +4986,18 @@
   </si>
   <si>
     <t>24/2/2025</t>
+  </si>
+  <si>
+    <t>Ahmed Mansour Abdelazim Khalil</t>
+  </si>
+  <si>
+    <t>DSS2338</t>
+  </si>
+  <si>
+    <t>DSS2339</t>
+  </si>
+  <si>
+    <t>DSS2340</t>
   </si>
 </sst>
 </file>
@@ -5608,7 +5620,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5616,10 +5628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1338"/>
+  <dimension ref="A1:E1341"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1314" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D1341" sqref="D1341"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1323" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I1332" sqref="I1332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27919,6 +27931,57 @@
         <v>45691</v>
       </c>
       <c r="E1338" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1339" s="11" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B1339" s="11" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C1339" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1339" s="50">
+        <v>45779</v>
+      </c>
+      <c r="E1339" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1340" s="11" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B1340" s="11" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C1340" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1340" s="50">
+        <v>45779</v>
+      </c>
+      <c r="E1340" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1341" s="11" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B1341" s="11" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C1341" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1341" s="50">
+        <v>45779</v>
+      </c>
+      <c r="E1341" s="17">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4762" uniqueCount="1656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4774" uniqueCount="1653">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -4826,30 +4826,6 @@
     <t>DSS2301</t>
   </si>
   <si>
-    <t>DSS2302</t>
-  </si>
-  <si>
-    <t>DSS2303</t>
-  </si>
-  <si>
-    <t>DSS2304</t>
-  </si>
-  <si>
-    <t>DSS2305</t>
-  </si>
-  <si>
-    <t>DSS2306</t>
-  </si>
-  <si>
-    <t>DSS2307</t>
-  </si>
-  <si>
-    <t>DSS2308</t>
-  </si>
-  <si>
-    <t>DSS2309</t>
-  </si>
-  <si>
     <t>Ahmed Mansour Elsayed Abdallah</t>
   </si>
   <si>
@@ -4998,6 +4974,21 @@
   </si>
   <si>
     <t>DSS2340</t>
+  </si>
+  <si>
+    <t>Mohamed Mamdouh Badawy Kabbash</t>
+  </si>
+  <si>
+    <t>Frst Aid</t>
+  </si>
+  <si>
+    <t>15-2-2025</t>
+  </si>
+  <si>
+    <t>DSS2341</t>
+  </si>
+  <si>
+    <t>Mohamed Atef Ahmed Mousa</t>
   </si>
 </sst>
 </file>
@@ -5628,10 +5619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1341"/>
+  <dimension ref="A1:E1351"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1323" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I1332" sqref="I1332"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1326" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B1348" sqref="B1348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26055,7 +26046,7 @@
         <v>1518</v>
       </c>
       <c r="B1223" s="11" t="s">
-        <v>1606</v>
+        <v>1598</v>
       </c>
       <c r="C1223" s="11" t="s">
         <v>2</v>
@@ -26072,7 +26063,7 @@
         <v>1519</v>
       </c>
       <c r="B1224" s="11" t="s">
-        <v>1606</v>
+        <v>1598</v>
       </c>
       <c r="C1224" s="11" t="s">
         <v>230</v>
@@ -26089,7 +26080,7 @@
         <v>1520</v>
       </c>
       <c r="B1225" s="11" t="s">
-        <v>1606</v>
+        <v>1598</v>
       </c>
       <c r="C1225" s="11" t="s">
         <v>952</v>
@@ -26106,7 +26097,7 @@
         <v>1521</v>
       </c>
       <c r="B1226" s="11" t="s">
-        <v>1606</v>
+        <v>1598</v>
       </c>
       <c r="C1226" s="11" t="s">
         <v>262</v>
@@ -26123,7 +26114,7 @@
         <v>1522</v>
       </c>
       <c r="B1227" s="11" t="s">
-        <v>1606</v>
+        <v>1598</v>
       </c>
       <c r="C1227" s="11" t="s">
         <v>247</v>
@@ -26140,7 +26131,7 @@
         <v>1523</v>
       </c>
       <c r="B1228" s="11" t="s">
-        <v>1606</v>
+        <v>1598</v>
       </c>
       <c r="C1228" s="11" t="s">
         <v>263</v>
@@ -26157,7 +26148,7 @@
         <v>1524</v>
       </c>
       <c r="B1229" s="11" t="s">
-        <v>1606</v>
+        <v>1598</v>
       </c>
       <c r="C1229" s="11" t="s">
         <v>252</v>
@@ -26174,7 +26165,7 @@
         <v>1525</v>
       </c>
       <c r="B1230" s="11" t="s">
-        <v>1606</v>
+        <v>1598</v>
       </c>
       <c r="C1230" s="11" t="s">
         <v>231</v>
@@ -26191,7 +26182,7 @@
         <v>1526</v>
       </c>
       <c r="B1231" s="44" t="s">
-        <v>1607</v>
+        <v>1599</v>
       </c>
       <c r="C1231" s="44" t="s">
         <v>2</v>
@@ -26208,7 +26199,7 @@
         <v>1527</v>
       </c>
       <c r="B1232" s="44" t="s">
-        <v>1607</v>
+        <v>1599</v>
       </c>
       <c r="C1232" s="44" t="s">
         <v>230</v>
@@ -26225,7 +26216,7 @@
         <v>1528</v>
       </c>
       <c r="B1233" s="44" t="s">
-        <v>1607</v>
+        <v>1599</v>
       </c>
       <c r="C1233" s="44" t="s">
         <v>952</v>
@@ -26242,7 +26233,7 @@
         <v>1529</v>
       </c>
       <c r="B1234" s="44" t="s">
-        <v>1607</v>
+        <v>1599</v>
       </c>
       <c r="C1234" s="44" t="s">
         <v>262</v>
@@ -26259,7 +26250,7 @@
         <v>1530</v>
       </c>
       <c r="B1235" s="44" t="s">
-        <v>1607</v>
+        <v>1599</v>
       </c>
       <c r="C1235" s="44" t="s">
         <v>247</v>
@@ -26276,7 +26267,7 @@
         <v>1531</v>
       </c>
       <c r="B1236" s="44" t="s">
-        <v>1607</v>
+        <v>1599</v>
       </c>
       <c r="C1236" s="44" t="s">
         <v>263</v>
@@ -26293,7 +26284,7 @@
         <v>1532</v>
       </c>
       <c r="B1237" s="44" t="s">
-        <v>1607</v>
+        <v>1599</v>
       </c>
       <c r="C1237" s="44" t="s">
         <v>252</v>
@@ -26310,7 +26301,7 @@
         <v>1533</v>
       </c>
       <c r="B1238" s="44" t="s">
-        <v>1607</v>
+        <v>1599</v>
       </c>
       <c r="C1238" s="44" t="s">
         <v>231</v>
@@ -26327,7 +26318,7 @@
         <v>1534</v>
       </c>
       <c r="B1239" s="11" t="s">
-        <v>1608</v>
+        <v>1600</v>
       </c>
       <c r="C1239" s="11" t="s">
         <v>2</v>
@@ -26344,7 +26335,7 @@
         <v>1535</v>
       </c>
       <c r="B1240" s="11" t="s">
-        <v>1608</v>
+        <v>1600</v>
       </c>
       <c r="C1240" s="11" t="s">
         <v>230</v>
@@ -26361,7 +26352,7 @@
         <v>1536</v>
       </c>
       <c r="B1241" s="11" t="s">
-        <v>1608</v>
+        <v>1600</v>
       </c>
       <c r="C1241" s="11" t="s">
         <v>952</v>
@@ -26378,7 +26369,7 @@
         <v>1537</v>
       </c>
       <c r="B1242" s="11" t="s">
-        <v>1608</v>
+        <v>1600</v>
       </c>
       <c r="C1242" s="11" t="s">
         <v>262</v>
@@ -26395,7 +26386,7 @@
         <v>1538</v>
       </c>
       <c r="B1243" s="11" t="s">
-        <v>1608</v>
+        <v>1600</v>
       </c>
       <c r="C1243" s="11" t="s">
         <v>247</v>
@@ -26412,7 +26403,7 @@
         <v>1539</v>
       </c>
       <c r="B1244" s="11" t="s">
-        <v>1608</v>
+        <v>1600</v>
       </c>
       <c r="C1244" s="11" t="s">
         <v>263</v>
@@ -26429,7 +26420,7 @@
         <v>1540</v>
       </c>
       <c r="B1245" s="11" t="s">
-        <v>1608</v>
+        <v>1600</v>
       </c>
       <c r="C1245" s="11" t="s">
         <v>252</v>
@@ -26446,7 +26437,7 @@
         <v>1541</v>
       </c>
       <c r="B1246" s="11" t="s">
-        <v>1608</v>
+        <v>1600</v>
       </c>
       <c r="C1246" s="11" t="s">
         <v>231</v>
@@ -26463,7 +26454,7 @@
         <v>1542</v>
       </c>
       <c r="B1247" s="51" t="s">
-        <v>1609</v>
+        <v>1601</v>
       </c>
       <c r="C1247" s="44" t="s">
         <v>2</v>
@@ -26480,7 +26471,7 @@
         <v>1543</v>
       </c>
       <c r="B1248" s="51" t="s">
-        <v>1609</v>
+        <v>1601</v>
       </c>
       <c r="C1248" s="44" t="s">
         <v>230</v>
@@ -26497,7 +26488,7 @@
         <v>1544</v>
       </c>
       <c r="B1249" s="51" t="s">
-        <v>1609</v>
+        <v>1601</v>
       </c>
       <c r="C1249" s="44" t="s">
         <v>952</v>
@@ -26514,7 +26505,7 @@
         <v>1545</v>
       </c>
       <c r="B1250" s="51" t="s">
-        <v>1609</v>
+        <v>1601</v>
       </c>
       <c r="C1250" s="44" t="s">
         <v>262</v>
@@ -26531,7 +26522,7 @@
         <v>1546</v>
       </c>
       <c r="B1251" s="51" t="s">
-        <v>1609</v>
+        <v>1601</v>
       </c>
       <c r="C1251" s="44" t="s">
         <v>247</v>
@@ -26548,7 +26539,7 @@
         <v>1547</v>
       </c>
       <c r="B1252" s="51" t="s">
-        <v>1609</v>
+        <v>1601</v>
       </c>
       <c r="C1252" s="44" t="s">
         <v>263</v>
@@ -26565,7 +26556,7 @@
         <v>1548</v>
       </c>
       <c r="B1253" s="51" t="s">
-        <v>1609</v>
+        <v>1601</v>
       </c>
       <c r="C1253" s="44" t="s">
         <v>252</v>
@@ -26582,7 +26573,7 @@
         <v>1549</v>
       </c>
       <c r="B1254" s="51" t="s">
-        <v>1609</v>
+        <v>1601</v>
       </c>
       <c r="C1254" s="44" t="s">
         <v>231</v>
@@ -26599,7 +26590,7 @@
         <v>1550</v>
       </c>
       <c r="B1255" s="11" t="s">
-        <v>1610</v>
+        <v>1602</v>
       </c>
       <c r="C1255" s="11" t="s">
         <v>2</v>
@@ -26616,7 +26607,7 @@
         <v>1551</v>
       </c>
       <c r="B1256" s="11" t="s">
-        <v>1610</v>
+        <v>1602</v>
       </c>
       <c r="C1256" s="11" t="s">
         <v>230</v>
@@ -26633,7 +26624,7 @@
         <v>1552</v>
       </c>
       <c r="B1257" s="11" t="s">
-        <v>1610</v>
+        <v>1602</v>
       </c>
       <c r="C1257" s="11" t="s">
         <v>952</v>
@@ -26650,7 +26641,7 @@
         <v>1553</v>
       </c>
       <c r="B1258" s="11" t="s">
-        <v>1610</v>
+        <v>1602</v>
       </c>
       <c r="C1258" s="11" t="s">
         <v>262</v>
@@ -26667,7 +26658,7 @@
         <v>1554</v>
       </c>
       <c r="B1259" s="11" t="s">
-        <v>1610</v>
+        <v>1602</v>
       </c>
       <c r="C1259" s="11" t="s">
         <v>247</v>
@@ -26684,7 +26675,7 @@
         <v>1555</v>
       </c>
       <c r="B1260" s="11" t="s">
-        <v>1610</v>
+        <v>1602</v>
       </c>
       <c r="C1260" s="11" t="s">
         <v>263</v>
@@ -26701,7 +26692,7 @@
         <v>1556</v>
       </c>
       <c r="B1261" s="11" t="s">
-        <v>1610</v>
+        <v>1602</v>
       </c>
       <c r="C1261" s="11" t="s">
         <v>252</v>
@@ -26718,7 +26709,7 @@
         <v>1557</v>
       </c>
       <c r="B1262" s="11" t="s">
-        <v>1610</v>
+        <v>1602</v>
       </c>
       <c r="C1262" s="11" t="s">
         <v>231</v>
@@ -26734,72 +26725,144 @@
       <c r="A1263" s="44" t="s">
         <v>1558</v>
       </c>
-      <c r="B1263" s="44"/>
-      <c r="C1263" s="44"/>
-      <c r="D1263" s="44"/>
+      <c r="B1263" s="44" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C1263" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1263" s="44" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E1263" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="1264" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1264" s="44" t="s">
         <v>1559</v>
       </c>
-      <c r="B1264" s="44"/>
-      <c r="C1264" s="44"/>
-      <c r="D1264" s="44"/>
+      <c r="B1264" s="44" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C1264" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1264" s="44" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E1264" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="1265" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1265" s="44" t="s">
         <v>1560</v>
       </c>
-      <c r="B1265" s="44"/>
-      <c r="C1265" s="44"/>
-      <c r="D1265" s="44"/>
+      <c r="B1265" s="44" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C1265" s="44" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1265" s="44" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E1265" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="1266" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1266" s="44" t="s">
         <v>1561</v>
       </c>
-      <c r="B1266" s="44"/>
-      <c r="C1266" s="44"/>
-      <c r="D1266" s="44"/>
+      <c r="B1266" s="44" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C1266" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1266" s="44" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E1266" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="1267" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1267" s="44" t="s">
         <v>1562</v>
       </c>
-      <c r="B1267" s="44"/>
-      <c r="C1267" s="44"/>
-      <c r="D1267" s="44"/>
+      <c r="B1267" s="44" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C1267" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1267" s="44" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E1267" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="1268" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1268" s="44" t="s">
         <v>1563</v>
       </c>
-      <c r="B1268" s="44"/>
-      <c r="C1268" s="44"/>
-      <c r="D1268" s="44"/>
+      <c r="B1268" s="44" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C1268" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1268" s="44" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E1268" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="1269" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1269" s="44" t="s">
         <v>1564</v>
       </c>
-      <c r="B1269" s="44"/>
-      <c r="C1269" s="44"/>
-      <c r="D1269" s="44"/>
+      <c r="B1269" s="44" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C1269" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1269" s="44" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E1269" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="1270" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1270" s="44" t="s">
         <v>1565</v>
       </c>
-      <c r="B1270" s="44"/>
-      <c r="C1270" s="44"/>
-      <c r="D1270" s="44"/>
+      <c r="B1270" s="44" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C1270" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1270" s="44" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E1270" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="1271" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1271" s="11" t="s">
         <v>1566</v>
       </c>
       <c r="B1271" s="11" t="s">
-        <v>1611</v>
+        <v>1603</v>
       </c>
       <c r="C1271" s="11" t="s">
         <v>2</v>
@@ -26816,7 +26879,7 @@
         <v>1567</v>
       </c>
       <c r="B1272" s="11" t="s">
-        <v>1611</v>
+        <v>1603</v>
       </c>
       <c r="C1272" s="11" t="s">
         <v>230</v>
@@ -26833,7 +26896,7 @@
         <v>1568</v>
       </c>
       <c r="B1273" s="11" t="s">
-        <v>1611</v>
+        <v>1603</v>
       </c>
       <c r="C1273" s="11" t="s">
         <v>952</v>
@@ -26850,7 +26913,7 @@
         <v>1569</v>
       </c>
       <c r="B1274" s="11" t="s">
-        <v>1611</v>
+        <v>1603</v>
       </c>
       <c r="C1274" s="11" t="s">
         <v>262</v>
@@ -26867,7 +26930,7 @@
         <v>1570</v>
       </c>
       <c r="B1275" s="11" t="s">
-        <v>1611</v>
+        <v>1603</v>
       </c>
       <c r="C1275" s="11" t="s">
         <v>247</v>
@@ -26884,7 +26947,7 @@
         <v>1571</v>
       </c>
       <c r="B1276" s="11" t="s">
-        <v>1611</v>
+        <v>1603</v>
       </c>
       <c r="C1276" s="11" t="s">
         <v>263</v>
@@ -26901,7 +26964,7 @@
         <v>1572</v>
       </c>
       <c r="B1277" s="11" t="s">
-        <v>1611</v>
+        <v>1603</v>
       </c>
       <c r="C1277" s="11" t="s">
         <v>252</v>
@@ -26918,7 +26981,7 @@
         <v>1573</v>
       </c>
       <c r="B1278" s="11" t="s">
-        <v>1611</v>
+        <v>1603</v>
       </c>
       <c r="C1278" s="11" t="s">
         <v>231</v>
@@ -26935,7 +26998,7 @@
         <v>1574</v>
       </c>
       <c r="B1279" s="44" t="s">
-        <v>1616</v>
+        <v>1608</v>
       </c>
       <c r="C1279" s="44" t="s">
         <v>2</v>
@@ -26952,7 +27015,7 @@
         <v>1575</v>
       </c>
       <c r="B1280" s="44" t="s">
-        <v>1616</v>
+        <v>1608</v>
       </c>
       <c r="C1280" s="44" t="s">
         <v>230</v>
@@ -26969,7 +27032,7 @@
         <v>1576</v>
       </c>
       <c r="B1281" s="44" t="s">
-        <v>1616</v>
+        <v>1608</v>
       </c>
       <c r="C1281" s="44" t="s">
         <v>952</v>
@@ -26986,7 +27049,7 @@
         <v>1577</v>
       </c>
       <c r="B1282" s="44" t="s">
-        <v>1616</v>
+        <v>1608</v>
       </c>
       <c r="C1282" s="44" t="s">
         <v>262</v>
@@ -27003,7 +27066,7 @@
         <v>1578</v>
       </c>
       <c r="B1283" s="44" t="s">
-        <v>1616</v>
+        <v>1608</v>
       </c>
       <c r="C1283" s="44" t="s">
         <v>247</v>
@@ -27020,7 +27083,7 @@
         <v>1579</v>
       </c>
       <c r="B1284" s="44" t="s">
-        <v>1616</v>
+        <v>1608</v>
       </c>
       <c r="C1284" s="44" t="s">
         <v>263</v>
@@ -27037,7 +27100,7 @@
         <v>1580</v>
       </c>
       <c r="B1285" s="44" t="s">
-        <v>1616</v>
+        <v>1608</v>
       </c>
       <c r="C1285" s="44" t="s">
         <v>252</v>
@@ -27054,7 +27117,7 @@
         <v>1581</v>
       </c>
       <c r="B1286" s="44" t="s">
-        <v>1616</v>
+        <v>1608</v>
       </c>
       <c r="C1286" s="44" t="s">
         <v>231</v>
@@ -27071,7 +27134,7 @@
         <v>1582</v>
       </c>
       <c r="B1287" s="11" t="s">
-        <v>1612</v>
+        <v>1604</v>
       </c>
       <c r="C1287" s="11" t="s">
         <v>2</v>
@@ -27088,7 +27151,7 @@
         <v>1583</v>
       </c>
       <c r="B1288" s="11" t="s">
-        <v>1612</v>
+        <v>1604</v>
       </c>
       <c r="C1288" s="11" t="s">
         <v>230</v>
@@ -27105,7 +27168,7 @@
         <v>1584</v>
       </c>
       <c r="B1289" s="11" t="s">
-        <v>1612</v>
+        <v>1604</v>
       </c>
       <c r="C1289" s="11" t="s">
         <v>952</v>
@@ -27122,7 +27185,7 @@
         <v>1585</v>
       </c>
       <c r="B1290" s="11" t="s">
-        <v>1612</v>
+        <v>1604</v>
       </c>
       <c r="C1290" s="11" t="s">
         <v>262</v>
@@ -27139,7 +27202,7 @@
         <v>1586</v>
       </c>
       <c r="B1291" s="11" t="s">
-        <v>1612</v>
+        <v>1604</v>
       </c>
       <c r="C1291" s="11" t="s">
         <v>247</v>
@@ -27156,7 +27219,7 @@
         <v>1587</v>
       </c>
       <c r="B1292" s="11" t="s">
-        <v>1612</v>
+        <v>1604</v>
       </c>
       <c r="C1292" s="11" t="s">
         <v>263</v>
@@ -27173,7 +27236,7 @@
         <v>1588</v>
       </c>
       <c r="B1293" s="11" t="s">
-        <v>1612</v>
+        <v>1604</v>
       </c>
       <c r="C1293" s="11" t="s">
         <v>252</v>
@@ -27190,7 +27253,7 @@
         <v>1589</v>
       </c>
       <c r="B1294" s="11" t="s">
-        <v>1612</v>
+        <v>1604</v>
       </c>
       <c r="C1294" s="11" t="s">
         <v>231</v>
@@ -27207,7 +27270,7 @@
         <v>1590</v>
       </c>
       <c r="B1295" s="44" t="s">
-        <v>1613</v>
+        <v>1605</v>
       </c>
       <c r="C1295" s="44" t="s">
         <v>2</v>
@@ -27224,7 +27287,7 @@
         <v>1591</v>
       </c>
       <c r="B1296" s="44" t="s">
-        <v>1613</v>
+        <v>1605</v>
       </c>
       <c r="C1296" s="44" t="s">
         <v>230</v>
@@ -27241,7 +27304,7 @@
         <v>1592</v>
       </c>
       <c r="B1297" s="44" t="s">
-        <v>1613</v>
+        <v>1605</v>
       </c>
       <c r="C1297" s="44" t="s">
         <v>952</v>
@@ -27258,7 +27321,7 @@
         <v>1593</v>
       </c>
       <c r="B1298" s="44" t="s">
-        <v>1613</v>
+        <v>1605</v>
       </c>
       <c r="C1298" s="44" t="s">
         <v>262</v>
@@ -27275,7 +27338,7 @@
         <v>1594</v>
       </c>
       <c r="B1299" s="44" t="s">
-        <v>1613</v>
+        <v>1605</v>
       </c>
       <c r="C1299" s="44" t="s">
         <v>247</v>
@@ -27292,7 +27355,7 @@
         <v>1595</v>
       </c>
       <c r="B1300" s="44" t="s">
-        <v>1613</v>
+        <v>1605</v>
       </c>
       <c r="C1300" s="44" t="s">
         <v>263</v>
@@ -27309,7 +27372,7 @@
         <v>1596</v>
       </c>
       <c r="B1301" s="44" t="s">
-        <v>1613</v>
+        <v>1605</v>
       </c>
       <c r="C1301" s="44" t="s">
         <v>252</v>
@@ -27326,7 +27389,7 @@
         <v>1597</v>
       </c>
       <c r="B1302" s="44" t="s">
-        <v>1613</v>
+        <v>1605</v>
       </c>
       <c r="C1302" s="44" t="s">
         <v>231</v>
@@ -27339,131 +27402,59 @@
       </c>
     </row>
     <row r="1303" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1303" s="11" t="s">
-        <v>1598</v>
-      </c>
+      <c r="A1303" s="11"/>
       <c r="B1303" s="11"/>
-      <c r="C1303" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1303" s="50">
-        <v>45779</v>
-      </c>
-      <c r="E1303" s="17">
-        <v>1</v>
-      </c>
+      <c r="C1303" s="11"/>
+      <c r="D1303" s="50"/>
     </row>
     <row r="1304" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1304" s="11" t="s">
-        <v>1599</v>
-      </c>
+      <c r="A1304" s="11"/>
       <c r="B1304" s="11"/>
-      <c r="C1304" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="D1304" s="50">
-        <v>45932</v>
-      </c>
-      <c r="E1304" s="17">
-        <v>1</v>
-      </c>
+      <c r="C1304" s="11"/>
+      <c r="D1304" s="50"/>
     </row>
     <row r="1305" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1305" s="11" t="s">
-        <v>1600</v>
-      </c>
+      <c r="A1305" s="11"/>
       <c r="B1305" s="11"/>
-      <c r="C1305" s="11" t="s">
-        <v>952</v>
-      </c>
-      <c r="D1305" s="50">
-        <v>45810</v>
-      </c>
-      <c r="E1305" s="17">
-        <v>1</v>
-      </c>
+      <c r="C1305" s="11"/>
+      <c r="D1305" s="50"/>
     </row>
     <row r="1306" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1306" s="11" t="s">
-        <v>1601</v>
-      </c>
+      <c r="A1306" s="11"/>
       <c r="B1306" s="11"/>
-      <c r="C1306" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="D1306" s="50">
-        <v>45718</v>
-      </c>
-      <c r="E1306" s="17">
-        <v>1</v>
-      </c>
+      <c r="C1306" s="11"/>
+      <c r="D1306" s="50"/>
     </row>
     <row r="1307" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1307" s="11" t="s">
-        <v>1602</v>
-      </c>
+      <c r="A1307" s="11"/>
       <c r="B1307" s="11"/>
-      <c r="C1307" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="D1307" s="50">
-        <v>45659</v>
-      </c>
-      <c r="E1307" s="17">
-        <v>1</v>
-      </c>
+      <c r="C1307" s="11"/>
+      <c r="D1307" s="50"/>
     </row>
     <row r="1308" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1308" s="11" t="s">
-        <v>1603</v>
-      </c>
+      <c r="A1308" s="11"/>
       <c r="B1308" s="11"/>
-      <c r="C1308" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="D1308" s="50">
-        <v>45690</v>
-      </c>
-      <c r="E1308" s="17">
-        <v>1</v>
-      </c>
+      <c r="C1308" s="11"/>
+      <c r="D1308" s="50"/>
     </row>
     <row r="1309" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1309" s="11" t="s">
-        <v>1604</v>
-      </c>
+      <c r="A1309" s="11"/>
       <c r="B1309" s="11"/>
-      <c r="C1309" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="D1309" s="50">
-        <v>45840</v>
-      </c>
-      <c r="E1309" s="17">
-        <v>1</v>
-      </c>
+      <c r="C1309" s="11"/>
+      <c r="D1309" s="50"/>
     </row>
     <row r="1310" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1310" s="11" t="s">
-        <v>1605</v>
-      </c>
+      <c r="A1310" s="11"/>
       <c r="B1310" s="11"/>
-      <c r="C1310" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="D1310" s="50">
-        <v>45871</v>
-      </c>
-      <c r="E1310" s="17">
-        <v>1</v>
-      </c>
+      <c r="C1310" s="11"/>
+      <c r="D1310" s="50"/>
     </row>
     <row r="1311" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1311" s="44" t="s">
-        <v>1619</v>
+        <v>1611</v>
       </c>
       <c r="B1311" s="44" t="s">
-        <v>1615</v>
+        <v>1607</v>
       </c>
       <c r="C1311" s="44" t="s">
         <v>2</v>
@@ -27477,10 +27468,10 @@
     </row>
     <row r="1312" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1312" s="44" t="s">
-        <v>1620</v>
+        <v>1612</v>
       </c>
       <c r="B1312" s="44" t="s">
-        <v>1615</v>
+        <v>1607</v>
       </c>
       <c r="C1312" s="44" t="s">
         <v>230</v>
@@ -27494,10 +27485,10 @@
     </row>
     <row r="1313" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1313" s="44" t="s">
-        <v>1621</v>
+        <v>1613</v>
       </c>
       <c r="B1313" s="44" t="s">
-        <v>1615</v>
+        <v>1607</v>
       </c>
       <c r="C1313" s="44" t="s">
         <v>952</v>
@@ -27511,10 +27502,10 @@
     </row>
     <row r="1314" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1314" s="44" t="s">
-        <v>1622</v>
+        <v>1614</v>
       </c>
       <c r="B1314" s="44" t="s">
-        <v>1615</v>
+        <v>1607</v>
       </c>
       <c r="C1314" s="44" t="s">
         <v>262</v>
@@ -27528,10 +27519,10 @@
     </row>
     <row r="1315" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1315" s="44" t="s">
-        <v>1623</v>
+        <v>1615</v>
       </c>
       <c r="B1315" s="44" t="s">
-        <v>1615</v>
+        <v>1607</v>
       </c>
       <c r="C1315" s="44" t="s">
         <v>247</v>
@@ -27545,10 +27536,10 @@
     </row>
     <row r="1316" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1316" s="44" t="s">
-        <v>1624</v>
+        <v>1616</v>
       </c>
       <c r="B1316" s="44" t="s">
-        <v>1615</v>
+        <v>1607</v>
       </c>
       <c r="C1316" s="44" t="s">
         <v>263</v>
@@ -27562,10 +27553,10 @@
     </row>
     <row r="1317" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1317" s="44" t="s">
-        <v>1625</v>
+        <v>1617</v>
       </c>
       <c r="B1317" s="44" t="s">
-        <v>1615</v>
+        <v>1607</v>
       </c>
       <c r="C1317" s="44" t="s">
         <v>252</v>
@@ -27579,10 +27570,10 @@
     </row>
     <row r="1318" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1318" s="44" t="s">
-        <v>1626</v>
+        <v>1618</v>
       </c>
       <c r="B1318" s="44" t="s">
-        <v>1615</v>
+        <v>1607</v>
       </c>
       <c r="C1318" s="44" t="s">
         <v>231</v>
@@ -27596,10 +27587,10 @@
     </row>
     <row r="1319" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1319" s="11" t="s">
-        <v>1627</v>
+        <v>1619</v>
       </c>
       <c r="B1319" s="11" t="s">
-        <v>1614</v>
+        <v>1606</v>
       </c>
       <c r="C1319" s="11" t="s">
         <v>2</v>
@@ -27613,10 +27604,10 @@
     </row>
     <row r="1320" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1320" s="11" t="s">
-        <v>1628</v>
+        <v>1620</v>
       </c>
       <c r="B1320" s="11" t="s">
-        <v>1614</v>
+        <v>1606</v>
       </c>
       <c r="C1320" s="11" t="s">
         <v>230</v>
@@ -27630,10 +27621,10 @@
     </row>
     <row r="1321" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1321" s="11" t="s">
-        <v>1629</v>
+        <v>1621</v>
       </c>
       <c r="B1321" s="11" t="s">
-        <v>1614</v>
+        <v>1606</v>
       </c>
       <c r="C1321" s="11" t="s">
         <v>952</v>
@@ -27647,10 +27638,10 @@
     </row>
     <row r="1322" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1322" s="11" t="s">
-        <v>1630</v>
+        <v>1622</v>
       </c>
       <c r="B1322" s="11" t="s">
-        <v>1614</v>
+        <v>1606</v>
       </c>
       <c r="C1322" s="11" t="s">
         <v>262</v>
@@ -27664,10 +27655,10 @@
     </row>
     <row r="1323" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1323" s="11" t="s">
-        <v>1631</v>
+        <v>1623</v>
       </c>
       <c r="B1323" s="11" t="s">
-        <v>1614</v>
+        <v>1606</v>
       </c>
       <c r="C1323" s="11" t="s">
         <v>247</v>
@@ -27681,10 +27672,10 @@
     </row>
     <row r="1324" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1324" s="11" t="s">
-        <v>1632</v>
+        <v>1624</v>
       </c>
       <c r="B1324" s="11" t="s">
-        <v>1614</v>
+        <v>1606</v>
       </c>
       <c r="C1324" s="11" t="s">
         <v>263</v>
@@ -27698,10 +27689,10 @@
     </row>
     <row r="1325" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1325" s="11" t="s">
-        <v>1633</v>
+        <v>1625</v>
       </c>
       <c r="B1325" s="11" t="s">
-        <v>1614</v>
+        <v>1606</v>
       </c>
       <c r="C1325" s="11" t="s">
         <v>252</v>
@@ -27715,10 +27706,10 @@
     </row>
     <row r="1326" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1326" s="11" t="s">
-        <v>1634</v>
+        <v>1626</v>
       </c>
       <c r="B1326" s="11" t="s">
-        <v>1614</v>
+        <v>1606</v>
       </c>
       <c r="C1326" s="11" t="s">
         <v>231</v>
@@ -27732,10 +27723,10 @@
     </row>
     <row r="1327" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1327" s="44" t="s">
-        <v>1635</v>
+        <v>1627</v>
       </c>
       <c r="B1327" s="44" t="s">
-        <v>1617</v>
+        <v>1609</v>
       </c>
       <c r="C1327" s="44" t="s">
         <v>2</v>
@@ -27749,10 +27740,10 @@
     </row>
     <row r="1328" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1328" s="44" t="s">
-        <v>1636</v>
+        <v>1628</v>
       </c>
       <c r="B1328" s="44" t="s">
-        <v>1617</v>
+        <v>1609</v>
       </c>
       <c r="C1328" s="44" t="s">
         <v>230</v>
@@ -27766,10 +27757,10 @@
     </row>
     <row r="1329" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1329" s="11" t="s">
-        <v>1637</v>
+        <v>1629</v>
       </c>
       <c r="B1329" s="11" t="s">
-        <v>1618</v>
+        <v>1610</v>
       </c>
       <c r="C1329" s="11" t="s">
         <v>2</v>
@@ -27783,10 +27774,10 @@
     </row>
     <row r="1330" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1330" s="11" t="s">
-        <v>1638</v>
+        <v>1630</v>
       </c>
       <c r="B1330" s="11" t="s">
-        <v>1618</v>
+        <v>1610</v>
       </c>
       <c r="C1330" s="11" t="s">
         <v>230</v>
@@ -27800,10 +27791,10 @@
     </row>
     <row r="1331" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1331" s="44" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B1331" s="44" t="s">
         <v>1639</v>
-      </c>
-      <c r="B1331" s="44" t="s">
-        <v>1647</v>
       </c>
       <c r="C1331" s="44" t="s">
         <v>2</v>
@@ -27817,16 +27808,16 @@
     </row>
     <row r="1332" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1332" s="44" t="s">
-        <v>1640</v>
+        <v>1632</v>
       </c>
       <c r="B1332" s="44" t="s">
-        <v>1647</v>
+        <v>1639</v>
       </c>
       <c r="C1332" s="44" t="s">
         <v>230</v>
       </c>
       <c r="D1332" s="44" t="s">
-        <v>1648</v>
+        <v>1640</v>
       </c>
       <c r="E1332" s="17">
         <v>1</v>
@@ -27834,16 +27825,16 @@
     </row>
     <row r="1333" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1333" s="44" t="s">
-        <v>1641</v>
+        <v>1633</v>
       </c>
       <c r="B1333" s="44" t="s">
-        <v>1647</v>
+        <v>1639</v>
       </c>
       <c r="C1333" s="44" t="s">
         <v>952</v>
       </c>
       <c r="D1333" s="44" t="s">
-        <v>1649</v>
+        <v>1641</v>
       </c>
       <c r="E1333" s="17">
         <v>1</v>
@@ -27851,10 +27842,10 @@
     </row>
     <row r="1334" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1334" s="44" t="s">
-        <v>1642</v>
+        <v>1634</v>
       </c>
       <c r="B1334" s="44" t="s">
-        <v>1647</v>
+        <v>1639</v>
       </c>
       <c r="C1334" s="44" t="s">
         <v>262</v>
@@ -27868,10 +27859,10 @@
     </row>
     <row r="1335" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1335" s="44" t="s">
-        <v>1643</v>
+        <v>1635</v>
       </c>
       <c r="B1335" s="44" t="s">
-        <v>1647</v>
+        <v>1639</v>
       </c>
       <c r="C1335" s="44" t="s">
         <v>247</v>
@@ -27885,16 +27876,16 @@
     </row>
     <row r="1336" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1336" s="44" t="s">
-        <v>1644</v>
+        <v>1636</v>
       </c>
       <c r="B1336" s="44" t="s">
-        <v>1647</v>
+        <v>1639</v>
       </c>
       <c r="C1336" s="44" t="s">
         <v>263</v>
       </c>
       <c r="D1336" s="44" t="s">
-        <v>1650</v>
+        <v>1642</v>
       </c>
       <c r="E1336" s="17">
         <v>1</v>
@@ -27902,16 +27893,16 @@
     </row>
     <row r="1337" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1337" s="44" t="s">
-        <v>1645</v>
+        <v>1637</v>
       </c>
       <c r="B1337" s="44" t="s">
-        <v>1647</v>
+        <v>1639</v>
       </c>
       <c r="C1337" s="44" t="s">
         <v>252</v>
       </c>
       <c r="D1337" s="44" t="s">
-        <v>1651</v>
+        <v>1643</v>
       </c>
       <c r="E1337" s="17">
         <v>1</v>
@@ -27919,10 +27910,10 @@
     </row>
     <row r="1338" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1338" s="44" t="s">
-        <v>1646</v>
+        <v>1638</v>
       </c>
       <c r="B1338" s="44" t="s">
-        <v>1647</v>
+        <v>1639</v>
       </c>
       <c r="C1338" s="44" t="s">
         <v>231</v>
@@ -27936,10 +27927,10 @@
     </row>
     <row r="1339" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1339" s="11" t="s">
-        <v>1653</v>
+        <v>1645</v>
       </c>
       <c r="B1339" s="11" t="s">
-        <v>1652</v>
+        <v>1644</v>
       </c>
       <c r="C1339" s="11" t="s">
         <v>2</v>
@@ -27953,10 +27944,10 @@
     </row>
     <row r="1340" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1340" s="11" t="s">
-        <v>1654</v>
+        <v>1646</v>
       </c>
       <c r="B1340" s="11" t="s">
-        <v>1652</v>
+        <v>1644</v>
       </c>
       <c r="C1340" s="11" t="s">
         <v>230</v>
@@ -27970,10 +27961,10 @@
     </row>
     <row r="1341" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1341" s="11" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
       <c r="B1341" s="11" t="s">
-        <v>1652</v>
+        <v>1644</v>
       </c>
       <c r="C1341" s="11" t="s">
         <v>239</v>
@@ -27984,6 +27975,50 @@
       <c r="E1341" s="17">
         <v>1</v>
       </c>
+    </row>
+    <row r="1342" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1342" s="44" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B1342" s="44" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C1342" s="44" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D1342" s="44" t="s">
+        <v>1650</v>
+      </c>
+      <c r="E1342" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1343" s="11"/>
+    </row>
+    <row r="1344" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1344" s="11"/>
+    </row>
+    <row r="1345" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1345" s="11"/>
+    </row>
+    <row r="1346" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1346" s="11"/>
+    </row>
+    <row r="1347" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1347" s="11"/>
+    </row>
+    <row r="1348" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1348" s="11"/>
+    </row>
+    <row r="1349" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1349" s="11"/>
+    </row>
+    <row r="1350" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1350" s="11"/>
+    </row>
+    <row r="1351" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1351" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E695"/>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4774" uniqueCount="1653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4774" uniqueCount="1652">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -4977,9 +4977,6 @@
   </si>
   <si>
     <t>Mohamed Mamdouh Badawy Kabbash</t>
-  </si>
-  <si>
-    <t>Frst Aid</t>
   </si>
   <si>
     <t>15-2-2025</t>
@@ -5611,7 +5608,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5622,7 +5619,7 @@
   <dimension ref="A1:E1351"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1326" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B1348" sqref="B1348"/>
+      <selection activeCell="C1347" sqref="C1347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26726,7 +26723,7 @@
         <v>1558</v>
       </c>
       <c r="B1263" s="44" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C1263" s="44" t="s">
         <v>2</v>
@@ -26743,7 +26740,7 @@
         <v>1559</v>
       </c>
       <c r="B1264" s="44" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C1264" s="44" t="s">
         <v>230</v>
@@ -26760,7 +26757,7 @@
         <v>1560</v>
       </c>
       <c r="B1265" s="44" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C1265" s="44" t="s">
         <v>952</v>
@@ -26777,7 +26774,7 @@
         <v>1561</v>
       </c>
       <c r="B1266" s="44" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C1266" s="44" t="s">
         <v>262</v>
@@ -26794,7 +26791,7 @@
         <v>1562</v>
       </c>
       <c r="B1267" s="44" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C1267" s="44" t="s">
         <v>247</v>
@@ -26811,7 +26808,7 @@
         <v>1563</v>
       </c>
       <c r="B1268" s="44" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C1268" s="44" t="s">
         <v>263</v>
@@ -26828,7 +26825,7 @@
         <v>1564</v>
       </c>
       <c r="B1269" s="44" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C1269" s="44" t="s">
         <v>252</v>
@@ -26845,7 +26842,7 @@
         <v>1565</v>
       </c>
       <c r="B1270" s="44" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C1270" s="44" t="s">
         <v>231</v>
@@ -27978,16 +27975,16 @@
     </row>
     <row r="1342" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1342" s="44" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="B1342" s="44" t="s">
         <v>1648</v>
       </c>
       <c r="C1342" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="D1342" s="44" t="s">
         <v>1649</v>
-      </c>
-      <c r="D1342" s="44" t="s">
-        <v>1650</v>
       </c>
       <c r="E1342" s="17">
         <v>1</v>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4774" uniqueCount="1652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4778" uniqueCount="1655">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -4986,6 +4986,15 @@
   </si>
   <si>
     <t>Mohamed Atef Ahmed Mousa</t>
+  </si>
+  <si>
+    <t>MOSTAFA AHMED HUSSIEN MAHMOUD</t>
+  </si>
+  <si>
+    <t>DSS2342</t>
+  </si>
+  <si>
+    <t>13-2-2025</t>
   </si>
 </sst>
 </file>
@@ -5619,7 +5628,7 @@
   <dimension ref="A1:E1351"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1326" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C1347" sqref="C1347"/>
+      <selection activeCell="J1335" sqref="J1335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27991,7 +28000,21 @@
       </c>
     </row>
     <row r="1343" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1343" s="11"/>
+      <c r="A1343" s="11" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B1343" s="11" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C1343" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1343" s="50" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E1343" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="1344" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1344" s="11"/>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -4994,7 +4994,7 @@
     <t>DSS2342</t>
   </si>
   <si>
-    <t>13-2-2025</t>
+    <t>13-3-2025</t>
   </si>
 </sst>
 </file>
@@ -5617,7 +5617,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5628,7 +5628,7 @@
   <dimension ref="A1:E1351"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1326" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J1335" sqref="J1335"/>
+      <selection activeCell="G1348" sqref="G1348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4778" uniqueCount="1655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4830" uniqueCount="1675">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -4995,6 +4995,66 @@
   </si>
   <si>
     <t>13-3-2025</t>
+  </si>
+  <si>
+    <t>Mohamed Abdel Hamid Basyouni Agiza</t>
+  </si>
+  <si>
+    <t>DSS2302</t>
+  </si>
+  <si>
+    <t>DSS2303</t>
+  </si>
+  <si>
+    <t>DSS2304</t>
+  </si>
+  <si>
+    <t>DSS2305</t>
+  </si>
+  <si>
+    <t>DSS2306</t>
+  </si>
+  <si>
+    <t>DSS2307</t>
+  </si>
+  <si>
+    <t>DSS2308</t>
+  </si>
+  <si>
+    <t>DSS2309</t>
+  </si>
+  <si>
+    <t>Hany Mohamed Salah Eldin Ahmed</t>
+  </si>
+  <si>
+    <t>DSS2343</t>
+  </si>
+  <si>
+    <t>DSS2344</t>
+  </si>
+  <si>
+    <t>DSS2345</t>
+  </si>
+  <si>
+    <t>DSS2346</t>
+  </si>
+  <si>
+    <t>DSS2347</t>
+  </si>
+  <si>
+    <t>DSS2348</t>
+  </si>
+  <si>
+    <t>DSS2349</t>
+  </si>
+  <si>
+    <t>DSS2350</t>
+  </si>
+  <si>
+    <t>15-3-2025</t>
+  </si>
+  <si>
+    <t>DSS2367</t>
   </si>
 </sst>
 </file>
@@ -5617,7 +5677,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5625,10 +5685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1351"/>
+  <dimension ref="A1:E1368"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1326" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G1348" sqref="G1348"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1296" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J1300" sqref="J1300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27408,52 +27468,140 @@
       </c>
     </row>
     <row r="1303" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1303" s="11"/>
-      <c r="B1303" s="11"/>
-      <c r="C1303" s="11"/>
-      <c r="D1303" s="50"/>
+      <c r="A1303" s="11" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B1303" s="11" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C1303" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1303" s="50">
+        <v>45779</v>
+      </c>
+      <c r="E1303" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="1304" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1304" s="11"/>
-      <c r="B1304" s="11"/>
-      <c r="C1304" s="11"/>
-      <c r="D1304" s="50"/>
+      <c r="A1304" s="11" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B1304" s="11" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C1304" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1304" s="50">
+        <v>45932</v>
+      </c>
+      <c r="E1304" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="1305" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1305" s="11"/>
-      <c r="B1305" s="11"/>
-      <c r="C1305" s="11"/>
-      <c r="D1305" s="50"/>
+      <c r="A1305" s="11" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B1305" s="11" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C1305" s="11" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1305" s="50">
+        <v>45810</v>
+      </c>
+      <c r="E1305" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="1306" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1306" s="11"/>
-      <c r="B1306" s="11"/>
-      <c r="C1306" s="11"/>
-      <c r="D1306" s="50"/>
+      <c r="A1306" s="11" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B1306" s="11" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C1306" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1306" s="50">
+        <v>45718</v>
+      </c>
+      <c r="E1306" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="1307" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1307" s="11"/>
-      <c r="B1307" s="11"/>
-      <c r="C1307" s="11"/>
-      <c r="D1307" s="50"/>
+      <c r="A1307" s="11" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B1307" s="11" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C1307" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1307" s="50">
+        <v>45659</v>
+      </c>
+      <c r="E1307" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="1308" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1308" s="11"/>
-      <c r="B1308" s="11"/>
-      <c r="C1308" s="11"/>
-      <c r="D1308" s="50"/>
+      <c r="A1308" s="11" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B1308" s="11" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C1308" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1308" s="50">
+        <v>45690</v>
+      </c>
+      <c r="E1308" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="1309" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1309" s="11"/>
-      <c r="B1309" s="11"/>
-      <c r="C1309" s="11"/>
-      <c r="D1309" s="50"/>
+      <c r="A1309" s="11" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B1309" s="11" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C1309" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1309" s="50">
+        <v>45840</v>
+      </c>
+      <c r="E1309" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="1310" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1310" s="11"/>
-      <c r="B1310" s="11"/>
-      <c r="C1310" s="11"/>
-      <c r="D1310" s="50"/>
+      <c r="A1310" s="11" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B1310" s="11" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C1310" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1310" s="50">
+        <v>45871</v>
+      </c>
+      <c r="E1310" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="1311" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1311" s="44" t="s">
@@ -28017,28 +28165,205 @@
       </c>
     </row>
     <row r="1344" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1344" s="11"/>
-    </row>
-    <row r="1345" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1345" s="11"/>
-    </row>
-    <row r="1346" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1346" s="11"/>
-    </row>
-    <row r="1347" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1347" s="11"/>
-    </row>
-    <row r="1348" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1348" s="11"/>
-    </row>
-    <row r="1349" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1349" s="11"/>
-    </row>
-    <row r="1350" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1350" s="11"/>
-    </row>
-    <row r="1351" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1351" s="11"/>
+      <c r="A1344" s="44" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B1344" s="44" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C1344" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1344" s="44">
+        <v>45779</v>
+      </c>
+      <c r="E1344" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1345" s="44" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B1345" s="44" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C1345" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1345" s="44">
+        <v>45932</v>
+      </c>
+      <c r="E1345" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1346" s="44" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B1346" s="44" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C1346" s="44" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1346" s="44">
+        <v>45810</v>
+      </c>
+      <c r="E1346" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1347" s="44" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B1347" s="44" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C1347" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1347" s="44">
+        <v>45718</v>
+      </c>
+      <c r="E1347" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1348" s="44" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B1348" s="44" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C1348" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1348" s="44">
+        <v>45659</v>
+      </c>
+      <c r="E1348" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1349" s="44" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B1349" s="44" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C1349" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1349" s="44">
+        <v>45690</v>
+      </c>
+      <c r="E1349" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1350" s="44" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B1350" s="44" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C1350" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1350" s="44">
+        <v>45840</v>
+      </c>
+      <c r="E1350" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1351" s="44" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B1351" s="44" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C1351" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1351" s="44">
+        <v>45871</v>
+      </c>
+      <c r="E1351" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1352" s="44"/>
+    </row>
+    <row r="1353" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1353" s="44"/>
+    </row>
+    <row r="1354" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1354" s="44"/>
+    </row>
+    <row r="1355" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1355" s="44"/>
+    </row>
+    <row r="1356" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1356" s="44"/>
+    </row>
+    <row r="1357" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1357" s="44"/>
+    </row>
+    <row r="1358" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1358" s="44"/>
+    </row>
+    <row r="1359" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1359" s="44"/>
+    </row>
+    <row r="1360" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1360" s="44"/>
+    </row>
+    <row r="1361" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1361" s="44"/>
+    </row>
+    <row r="1362" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1362" s="44"/>
+    </row>
+    <row r="1363" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1363" s="44"/>
+    </row>
+    <row r="1364" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1364" s="44"/>
+    </row>
+    <row r="1365" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1365" s="44"/>
+    </row>
+    <row r="1366" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1366" s="44"/>
+    </row>
+    <row r="1367" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1367" s="44"/>
+    </row>
+    <row r="1368" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1368" s="44" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B1368" s="44" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C1368" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="D1368" s="44" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E1368" s="17">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E695"/>
@@ -28056,7 +28381,7 @@
     <brk id="948" max="4" man="1"/>
     <brk id="1044" max="4" man="1"/>
     <brk id="1242" max="4" man="1"/>
-    <brk id="1344" max="4" man="1"/>
+    <brk id="1343" max="4" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$695</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$1370</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$1535</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4830" uniqueCount="1675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5332" uniqueCount="1867">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -5055,6 +5055,582 @@
   </si>
   <si>
     <t>DSS2367</t>
+  </si>
+  <si>
+    <t>Waled Hamdy Ibrahim Mohamed</t>
+  </si>
+  <si>
+    <t>DSS2351</t>
+  </si>
+  <si>
+    <t>DSS2352</t>
+  </si>
+  <si>
+    <t>DSS2353</t>
+  </si>
+  <si>
+    <t>TAHANI ALTIJANI ABDALLA  BADR</t>
+  </si>
+  <si>
+    <t>DSS2354</t>
+  </si>
+  <si>
+    <t>DSS2355</t>
+  </si>
+  <si>
+    <t>DSS2356</t>
+  </si>
+  <si>
+    <t>DSS2357</t>
+  </si>
+  <si>
+    <t>DSS2358</t>
+  </si>
+  <si>
+    <t>DSS2359</t>
+  </si>
+  <si>
+    <t>DSS2360</t>
+  </si>
+  <si>
+    <t>DSS2361</t>
+  </si>
+  <si>
+    <t>ABOUBAKR ABRAHEEM ABOUBAKR AEBEEDAT</t>
+  </si>
+  <si>
+    <t>DSS2362</t>
+  </si>
+  <si>
+    <t>DSS2363</t>
+  </si>
+  <si>
+    <t>DSS2364</t>
+  </si>
+  <si>
+    <t>20/2/2025</t>
+  </si>
+  <si>
+    <t>17/2/2025</t>
+  </si>
+  <si>
+    <t>DSS2400</t>
+  </si>
+  <si>
+    <t>Electrical Hazards &amp; Control</t>
+  </si>
+  <si>
+    <t>12/3/2025</t>
+  </si>
+  <si>
+    <t>Mustafa Ibrahim Mustafa Hussein</t>
+  </si>
+  <si>
+    <t>DSS2368</t>
+  </si>
+  <si>
+    <t>DSS2369</t>
+  </si>
+  <si>
+    <t>DSS2370</t>
+  </si>
+  <si>
+    <t>DSS2371</t>
+  </si>
+  <si>
+    <t>DSS2372</t>
+  </si>
+  <si>
+    <t>DSS2373</t>
+  </si>
+  <si>
+    <t>DSS2374</t>
+  </si>
+  <si>
+    <t>DSS2375</t>
+  </si>
+  <si>
+    <t>Mohamed Abuelgasim Ali Mohamed</t>
+  </si>
+  <si>
+    <t>DSS2365</t>
+  </si>
+  <si>
+    <t>DSS2366</t>
+  </si>
+  <si>
+    <t>DSS2376</t>
+  </si>
+  <si>
+    <t>DSS2377</t>
+  </si>
+  <si>
+    <t>DSS2378</t>
+  </si>
+  <si>
+    <t>DSS2379</t>
+  </si>
+  <si>
+    <t>DSS2380</t>
+  </si>
+  <si>
+    <t>DSS2381</t>
+  </si>
+  <si>
+    <t>DSS2382</t>
+  </si>
+  <si>
+    <t>DSS2383</t>
+  </si>
+  <si>
+    <t>Ahmed Reda Abdalla Atia</t>
+  </si>
+  <si>
+    <t>DSS2384</t>
+  </si>
+  <si>
+    <t>DSS2385</t>
+  </si>
+  <si>
+    <t>DSS2386</t>
+  </si>
+  <si>
+    <t>DSS2387</t>
+  </si>
+  <si>
+    <t>DSS2388</t>
+  </si>
+  <si>
+    <t>DSS2389</t>
+  </si>
+  <si>
+    <t>DSS2390</t>
+  </si>
+  <si>
+    <t>DSS2391</t>
+  </si>
+  <si>
+    <t>Mohamed Mahmoud Mohamed Ahmed</t>
+  </si>
+  <si>
+    <t>DSS2401</t>
+  </si>
+  <si>
+    <t>DSS2402</t>
+  </si>
+  <si>
+    <t>MOHAMED ANTAR RAGHEB ABDELSAMIE</t>
+  </si>
+  <si>
+    <t>DSS2392</t>
+  </si>
+  <si>
+    <t>DSS2393</t>
+  </si>
+  <si>
+    <t>DSS2394</t>
+  </si>
+  <si>
+    <t>DSS2395</t>
+  </si>
+  <si>
+    <t>DSS2396</t>
+  </si>
+  <si>
+    <t>DSS2397</t>
+  </si>
+  <si>
+    <t>DSS2398</t>
+  </si>
+  <si>
+    <t>DSS2399</t>
+  </si>
+  <si>
+    <t>Mostafa Mohamed Abdo Hussein</t>
+  </si>
+  <si>
+    <t>DSS2403</t>
+  </si>
+  <si>
+    <t>DSS2404</t>
+  </si>
+  <si>
+    <t>DSS2405</t>
+  </si>
+  <si>
+    <t>DSS2406</t>
+  </si>
+  <si>
+    <t>DSS2407</t>
+  </si>
+  <si>
+    <t>DSS2408</t>
+  </si>
+  <si>
+    <t>DSS2409</t>
+  </si>
+  <si>
+    <t>DSS2410</t>
+  </si>
+  <si>
+    <t>Ahmed Hassan Hassany Mahmoud</t>
+  </si>
+  <si>
+    <t>DSS2411</t>
+  </si>
+  <si>
+    <t>DSS2412</t>
+  </si>
+  <si>
+    <t>Motasim Dalil Eldaw Mohamed</t>
+  </si>
+  <si>
+    <t>DSS2413</t>
+  </si>
+  <si>
+    <t>DSS2414</t>
+  </si>
+  <si>
+    <t>DSS2415</t>
+  </si>
+  <si>
+    <t>DSS2416</t>
+  </si>
+  <si>
+    <t>DSS2417</t>
+  </si>
+  <si>
+    <t>DSS2418</t>
+  </si>
+  <si>
+    <t>DSS2419</t>
+  </si>
+  <si>
+    <t>DSS2420</t>
+  </si>
+  <si>
+    <t>DSS2421</t>
+  </si>
+  <si>
+    <t>DSS2422</t>
+  </si>
+  <si>
+    <t>DSS2423</t>
+  </si>
+  <si>
+    <t>DSS2424</t>
+  </si>
+  <si>
+    <t>DSS2425</t>
+  </si>
+  <si>
+    <t>DSS2426</t>
+  </si>
+  <si>
+    <t>DSS2427</t>
+  </si>
+  <si>
+    <t>DSS2428</t>
+  </si>
+  <si>
+    <t>DSS2429</t>
+  </si>
+  <si>
+    <t>DSS2430</t>
+  </si>
+  <si>
+    <t>DSS2431</t>
+  </si>
+  <si>
+    <t>DSS2432</t>
+  </si>
+  <si>
+    <t>DSS2433</t>
+  </si>
+  <si>
+    <t>DSS2434</t>
+  </si>
+  <si>
+    <t>DSS2435</t>
+  </si>
+  <si>
+    <t>DSS2436</t>
+  </si>
+  <si>
+    <t>DSS2437</t>
+  </si>
+  <si>
+    <t>DSS2438</t>
+  </si>
+  <si>
+    <t>DSS2439</t>
+  </si>
+  <si>
+    <t>DSS2440</t>
+  </si>
+  <si>
+    <t>DSS2441</t>
+  </si>
+  <si>
+    <t>DSS2442</t>
+  </si>
+  <si>
+    <t>DSS2443</t>
+  </si>
+  <si>
+    <t>DSS2444</t>
+  </si>
+  <si>
+    <t>DSS2445</t>
+  </si>
+  <si>
+    <t>DSS2446</t>
+  </si>
+  <si>
+    <t>DSS2447</t>
+  </si>
+  <si>
+    <t>DSS2448</t>
+  </si>
+  <si>
+    <t>DSS2449</t>
+  </si>
+  <si>
+    <t>DSS2450</t>
+  </si>
+  <si>
+    <t>DSS2451</t>
+  </si>
+  <si>
+    <t>DSS2452</t>
+  </si>
+  <si>
+    <t>DSS2453</t>
+  </si>
+  <si>
+    <t>DSS2454</t>
+  </si>
+  <si>
+    <t>DSS2455</t>
+  </si>
+  <si>
+    <t>DSS2456</t>
+  </si>
+  <si>
+    <t>DSS2457</t>
+  </si>
+  <si>
+    <t>DSS2458</t>
+  </si>
+  <si>
+    <t>DSS2459</t>
+  </si>
+  <si>
+    <t>DSS2460</t>
+  </si>
+  <si>
+    <t>DSS2461</t>
+  </si>
+  <si>
+    <t>DSS2462</t>
+  </si>
+  <si>
+    <t>DSS2463</t>
+  </si>
+  <si>
+    <t>DSS2464</t>
+  </si>
+  <si>
+    <t>DSS2465</t>
+  </si>
+  <si>
+    <t>DSS2466</t>
+  </si>
+  <si>
+    <t>DSS2467</t>
+  </si>
+  <si>
+    <t>DSS2468</t>
+  </si>
+  <si>
+    <t>DSS2469</t>
+  </si>
+  <si>
+    <t>DSS2470</t>
+  </si>
+  <si>
+    <t>DSS2471</t>
+  </si>
+  <si>
+    <t>DSS2472</t>
+  </si>
+  <si>
+    <t>DSS2473</t>
+  </si>
+  <si>
+    <t>DSS2474</t>
+  </si>
+  <si>
+    <t>DSS2475</t>
+  </si>
+  <si>
+    <t>DSS2476</t>
+  </si>
+  <si>
+    <t>DSS2477</t>
+  </si>
+  <si>
+    <t>DSS2478</t>
+  </si>
+  <si>
+    <t>DSS2479</t>
+  </si>
+  <si>
+    <t>DSS2480</t>
+  </si>
+  <si>
+    <t>DSS2481</t>
+  </si>
+  <si>
+    <t>DSS2482</t>
+  </si>
+  <si>
+    <t>DSS2483</t>
+  </si>
+  <si>
+    <t>DSS2484</t>
+  </si>
+  <si>
+    <t>DSS2485</t>
+  </si>
+  <si>
+    <t>DSS2486</t>
+  </si>
+  <si>
+    <t>Abd Elkhalek Mahmoud Abd Elkhalek Nassar</t>
+  </si>
+  <si>
+    <t>AHMED MOHAMEDNOUR ABDALRAHIM GASSIMELSEED</t>
+  </si>
+  <si>
+    <t>Eslam Zohry Eid Ali</t>
+  </si>
+  <si>
+    <t>Karim Salama Abdelfatah Elaraby</t>
+  </si>
+  <si>
+    <t>Nour Mahmoud Abd El Rahim Hussein</t>
+  </si>
+  <si>
+    <t>Mohamed Ahmed Khalifa Mohamed</t>
+  </si>
+  <si>
+    <t>Mohamed Osama Mahmoud Mohamed</t>
+  </si>
+  <si>
+    <t>Ahmed Adham Youssef Mahmoud</t>
+  </si>
+  <si>
+    <t>Ahmed Mohammed Mohammed Amer</t>
+  </si>
+  <si>
+    <t>IBRAHIM KHALIL AWAD HASSANEIN</t>
+  </si>
+  <si>
+    <t>Fekry Mohamed Ali Abd Elmageed</t>
+  </si>
+  <si>
+    <t>DSS2487</t>
+  </si>
+  <si>
+    <t>DSS2488</t>
+  </si>
+  <si>
+    <t>DSS2489</t>
+  </si>
+  <si>
+    <t>DSS2490</t>
+  </si>
+  <si>
+    <t>DSS2491</t>
+  </si>
+  <si>
+    <t>DSS2492</t>
+  </si>
+  <si>
+    <t>DSS2493</t>
+  </si>
+  <si>
+    <t>DSS2494</t>
+  </si>
+  <si>
+    <t>DSS2495</t>
+  </si>
+  <si>
+    <t>DSS2496</t>
+  </si>
+  <si>
+    <t>DSS2497</t>
+  </si>
+  <si>
+    <t>DSS2498</t>
+  </si>
+  <si>
+    <t>DSS2499</t>
+  </si>
+  <si>
+    <t>DSS2500</t>
+  </si>
+  <si>
+    <t>DSS2501</t>
+  </si>
+  <si>
+    <t>DSS2502</t>
+  </si>
+  <si>
+    <t>DSS2503</t>
+  </si>
+  <si>
+    <t>DSS2504</t>
+  </si>
+  <si>
+    <t>DSS2505</t>
+  </si>
+  <si>
+    <t>DSS2506</t>
+  </si>
+  <si>
+    <t>DSS2507</t>
+  </si>
+  <si>
+    <t>DSS2508</t>
+  </si>
+  <si>
+    <t>DSS2509</t>
+  </si>
+  <si>
+    <t>DSS2510</t>
+  </si>
+  <si>
+    <t>DSS2511</t>
+  </si>
+  <si>
+    <t>DSS2512</t>
+  </si>
+  <si>
+    <t>DSS2513</t>
+  </si>
+  <si>
+    <t>DSS2514</t>
+  </si>
+  <si>
+    <t>DSS2515</t>
+  </si>
+  <si>
+    <t>DSS2516</t>
+  </si>
+  <si>
+    <t>Kareem Adel Adly Abdaljawad</t>
   </si>
 </sst>
 </file>
@@ -5119,7 +5695,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5153,6 +5729,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5250,7 +5838,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -5403,6 +5991,24 @@
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="7" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -5685,10 +6291,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1368"/>
+  <dimension ref="A1:E1519"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1296" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J1300" sqref="J1300"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1497" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A1510" sqref="A1510"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28301,52 +28907,276 @@
       </c>
     </row>
     <row r="1352" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1352" s="44"/>
+      <c r="A1352" s="11" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B1352" s="11" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C1352" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1352" s="50" t="s">
+        <v>1693</v>
+      </c>
+      <c r="E1352" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="1353" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1353" s="44"/>
+      <c r="A1353" s="11" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B1353" s="11" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C1353" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1353" s="50" t="s">
+        <v>1692</v>
+      </c>
+      <c r="E1353" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="1354" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1354" s="44"/>
+      <c r="A1354" s="11" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B1354" s="11" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C1354" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1354" s="50" t="s">
+        <v>1643</v>
+      </c>
+      <c r="E1354" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="1355" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1355" s="44"/>
+      <c r="A1355" s="44" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B1355" s="44" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C1355" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1355" s="44">
+        <v>45780</v>
+      </c>
+      <c r="E1355" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="1356" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1356" s="44"/>
+      <c r="A1356" s="44" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B1356" s="44" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C1356" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1356" s="44">
+        <v>45933</v>
+      </c>
+      <c r="E1356" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="1357" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1357" s="44"/>
+      <c r="A1357" s="44" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B1357" s="44" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C1357" s="44" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1357" s="44">
+        <v>45811</v>
+      </c>
+      <c r="E1357" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="1358" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1358" s="44"/>
+      <c r="A1358" s="44" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B1358" s="44" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C1358" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1358" s="44">
+        <v>45719</v>
+      </c>
+      <c r="E1358" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="1359" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1359" s="44"/>
+      <c r="A1359" s="44" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B1359" s="44" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C1359" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1359" s="44">
+        <v>45660</v>
+      </c>
+      <c r="E1359" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="1360" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1360" s="44"/>
+      <c r="A1360" s="44" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B1360" s="44" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C1360" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1360" s="44">
+        <v>45691</v>
+      </c>
+      <c r="E1360" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="1361" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1361" s="44"/>
+      <c r="A1361" s="44" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B1361" s="44" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C1361" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1361" s="44">
+        <v>45841</v>
+      </c>
+      <c r="E1361" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="1362" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1362" s="44"/>
+      <c r="A1362" s="44" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B1362" s="44" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C1362" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1362" s="44">
+        <v>45872</v>
+      </c>
+      <c r="E1362" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="1363" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1363" s="44"/>
+      <c r="A1363" s="11" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B1363" s="11" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C1363" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1363" s="50" t="s">
+        <v>1693</v>
+      </c>
+      <c r="E1363" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="1364" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1364" s="44"/>
+      <c r="A1364" s="11" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B1364" s="11" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C1364" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1364" s="50" t="s">
+        <v>1692</v>
+      </c>
+      <c r="E1364" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="1365" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1365" s="44"/>
+      <c r="A1365" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B1365" s="11" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C1365" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1365" s="50" t="s">
+        <v>1643</v>
+      </c>
+      <c r="E1365" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="1366" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1366" s="44"/>
+      <c r="A1366" s="53" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B1366" s="52" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C1366" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1366" s="52">
+        <v>45780</v>
+      </c>
+      <c r="E1366" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="1367" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1367" s="44"/>
+      <c r="A1367" s="53" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B1367" s="52" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C1367" s="52" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1367" s="52">
+        <v>45933</v>
+      </c>
+      <c r="E1367" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="1368" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1368" s="44" t="s">
@@ -28364,6 +29194,2545 @@
       <c r="E1368" s="17">
         <v>1</v>
       </c>
+    </row>
+    <row r="1369" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1369" s="45" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B1369" s="11" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C1369" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1369" s="45">
+        <v>45780</v>
+      </c>
+      <c r="E1369" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1370" s="45" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B1370" s="11" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C1370" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1370" s="45">
+        <v>45933</v>
+      </c>
+      <c r="E1370" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1371" s="45" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B1371" s="11" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C1371" s="45" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1371" s="45">
+        <v>45811</v>
+      </c>
+      <c r="E1371" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1372" s="45" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B1372" s="11" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C1372" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1372" s="45">
+        <v>45719</v>
+      </c>
+      <c r="E1372" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1373" s="45" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B1373" s="11" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C1373" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1373" s="45">
+        <v>45660</v>
+      </c>
+      <c r="E1373" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1374" s="45" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B1374" s="11" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C1374" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1374" s="45">
+        <v>45691</v>
+      </c>
+      <c r="E1374" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1375" s="45" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B1375" s="11" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C1375" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1375" s="45">
+        <v>45841</v>
+      </c>
+      <c r="E1375" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1376" s="45" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B1376" s="11" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C1376" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1376" s="45">
+        <v>45872</v>
+      </c>
+      <c r="E1376" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1377" s="44" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B1377" s="44" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C1377" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1377" s="44">
+        <v>45780</v>
+      </c>
+      <c r="E1377" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1378" s="44" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B1378" s="44" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C1378" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1378" s="44">
+        <v>45933</v>
+      </c>
+      <c r="E1378" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1379" s="44" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B1379" s="44" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C1379" s="44" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1379" s="44">
+        <v>45811</v>
+      </c>
+      <c r="E1379" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1380" s="44" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B1380" s="44" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C1380" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1380" s="44">
+        <v>45719</v>
+      </c>
+      <c r="E1380" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1381" s="44" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B1381" s="44" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C1381" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1381" s="44">
+        <v>45660</v>
+      </c>
+      <c r="E1381" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1382" s="44" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B1382" s="44" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C1382" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1382" s="44">
+        <v>45691</v>
+      </c>
+      <c r="E1382" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1383" s="44" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B1383" s="44" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C1383" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1383" s="44">
+        <v>45841</v>
+      </c>
+      <c r="E1383" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1384" s="44" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B1384" s="44" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C1384" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1384" s="44">
+        <v>45872</v>
+      </c>
+      <c r="E1384" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1385" s="45" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B1385" s="45" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C1385" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1385" s="45">
+        <v>45780</v>
+      </c>
+      <c r="E1385" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1386" s="45" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B1386" s="45" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C1386" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1386" s="45">
+        <v>45933</v>
+      </c>
+      <c r="E1386" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1387" s="45" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B1387" s="45" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C1387" s="45" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1387" s="45">
+        <v>45811</v>
+      </c>
+      <c r="E1387" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1388" s="45" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B1388" s="45" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C1388" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1388" s="45">
+        <v>45719</v>
+      </c>
+      <c r="E1388" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1389" s="45" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B1389" s="45" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C1389" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1389" s="45">
+        <v>45660</v>
+      </c>
+      <c r="E1389" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1390" s="45" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B1390" s="45" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C1390" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1390" s="45">
+        <v>45691</v>
+      </c>
+      <c r="E1390" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1391" s="45" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B1391" s="45" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C1391" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1391" s="45">
+        <v>45841</v>
+      </c>
+      <c r="E1391" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1392" s="45" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B1392" s="45" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C1392" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1392" s="45">
+        <v>45872</v>
+      </c>
+      <c r="E1392" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1393" s="44" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B1393" s="44" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C1393" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1393" s="44">
+        <v>45780</v>
+      </c>
+      <c r="E1393" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1394" s="44" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B1394" s="44" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C1394" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1394" s="44">
+        <v>45933</v>
+      </c>
+      <c r="E1394" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1395" s="44" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B1395" s="44" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C1395" s="44" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1395" s="44">
+        <v>45811</v>
+      </c>
+      <c r="E1395" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1396" s="44" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B1396" s="44" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C1396" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1396" s="44">
+        <v>45719</v>
+      </c>
+      <c r="E1396" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1397" s="44" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B1397" s="44" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C1397" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1397" s="44">
+        <v>45660</v>
+      </c>
+      <c r="E1397" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1398" s="44" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B1398" s="44" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C1398" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1398" s="44">
+        <v>45691</v>
+      </c>
+      <c r="E1398" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1399" s="44" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B1399" s="44" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C1399" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1399" s="44">
+        <v>45841</v>
+      </c>
+      <c r="E1399" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1400" s="44" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B1400" s="44" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C1400" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1400" s="44">
+        <v>45872</v>
+      </c>
+      <c r="E1400" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1401" s="45" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B1401" s="45" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C1401" s="45" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D1401" s="45" t="s">
+        <v>1696</v>
+      </c>
+      <c r="E1401" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1402" s="52" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B1402" s="52" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C1402" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1402" s="52">
+        <v>45780</v>
+      </c>
+      <c r="E1402" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1403" s="52" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B1403" s="52" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C1403" s="52" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1403" s="52">
+        <v>45933</v>
+      </c>
+      <c r="E1403" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1404" s="44" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B1404" s="44" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C1404" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1404" s="44">
+        <v>45780</v>
+      </c>
+      <c r="E1404" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1405" s="44" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B1405" s="44" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C1405" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1405" s="44">
+        <v>45933</v>
+      </c>
+      <c r="E1405" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1406" s="44" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B1406" s="44" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C1406" s="44" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1406" s="44">
+        <v>45811</v>
+      </c>
+      <c r="E1406" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1407" s="44" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B1407" s="44" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C1407" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1407" s="44">
+        <v>45719</v>
+      </c>
+      <c r="E1407" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1408" s="44" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B1408" s="44" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C1408" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1408" s="44">
+        <v>45660</v>
+      </c>
+      <c r="E1408" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1409" s="44" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B1409" s="44" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C1409" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1409" s="44">
+        <v>45691</v>
+      </c>
+      <c r="E1409" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1410" s="44" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B1410" s="44" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C1410" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1410" s="44">
+        <v>45841</v>
+      </c>
+      <c r="E1410" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1411" s="44" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B1411" s="44" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C1411" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1411" s="44">
+        <v>45872</v>
+      </c>
+      <c r="E1411" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1412" s="52" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B1412" s="52" t="s">
+        <v>1747</v>
+      </c>
+      <c r="C1412" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1412" s="52">
+        <v>45780</v>
+      </c>
+      <c r="E1412" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1413" s="52" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B1413" s="52" t="s">
+        <v>1747</v>
+      </c>
+      <c r="C1413" s="52" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1413" s="52">
+        <v>45933</v>
+      </c>
+      <c r="E1413" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1414" s="45" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1414" s="45" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C1414" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1414" s="45">
+        <v>45780</v>
+      </c>
+      <c r="E1414" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1415" s="45" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B1415" s="45" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C1415" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1415" s="45">
+        <v>45933</v>
+      </c>
+      <c r="E1415" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1416" s="45" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B1416" s="45" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C1416" s="45" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1416" s="45">
+        <v>45811</v>
+      </c>
+      <c r="E1416" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1417" s="45" t="s">
+        <v>1754</v>
+      </c>
+      <c r="B1417" s="45" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C1417" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1417" s="45">
+        <v>45719</v>
+      </c>
+      <c r="E1417" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1418" s="45" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B1418" s="45" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C1418" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1418" s="45">
+        <v>45660</v>
+      </c>
+      <c r="E1418" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1419" s="45" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B1419" s="45" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C1419" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1419" s="45">
+        <v>45691</v>
+      </c>
+      <c r="E1419" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1420" s="45" t="s">
+        <v>1757</v>
+      </c>
+      <c r="B1420" s="45" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C1420" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1420" s="45">
+        <v>45841</v>
+      </c>
+      <c r="E1420" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1421" s="45" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B1421" s="45" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C1421" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1421" s="45">
+        <v>45872</v>
+      </c>
+      <c r="E1421" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1422" s="44" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B1422" s="44" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C1422" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1422" s="44">
+        <v>45780</v>
+      </c>
+      <c r="E1422" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1423" s="44" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B1423" s="44" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C1423" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1423" s="44">
+        <v>45933</v>
+      </c>
+      <c r="E1423" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1424" s="44" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B1424" s="44" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C1424" s="44" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1424" s="44">
+        <v>45811</v>
+      </c>
+      <c r="E1424" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1425" s="44" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B1425" s="44" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C1425" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1425" s="44">
+        <v>45719</v>
+      </c>
+      <c r="E1425" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1426" s="44" t="s">
+        <v>1763</v>
+      </c>
+      <c r="B1426" s="44" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C1426" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1426" s="44">
+        <v>45660</v>
+      </c>
+      <c r="E1426" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1427" s="44" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B1427" s="44" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C1427" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1427" s="44">
+        <v>45691</v>
+      </c>
+      <c r="E1427" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1428" s="44" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B1428" s="44" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C1428" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1428" s="44">
+        <v>45841</v>
+      </c>
+      <c r="E1428" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1429" s="44" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B1429" s="44" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C1429" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1429" s="44">
+        <v>45872</v>
+      </c>
+      <c r="E1429" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1430" s="45" t="s">
+        <v>1767</v>
+      </c>
+      <c r="B1430" s="54" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C1430" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1430" s="45">
+        <v>45780</v>
+      </c>
+      <c r="E1430" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1431" s="45" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B1431" s="54" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C1431" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1431" s="45">
+        <v>45933</v>
+      </c>
+      <c r="E1431" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1432" s="45" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B1432" s="54" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C1432" s="45" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1432" s="45">
+        <v>45811</v>
+      </c>
+      <c r="E1432" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1433" s="45" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B1433" s="54" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C1433" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1433" s="45">
+        <v>45719</v>
+      </c>
+      <c r="E1433" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1434" s="45" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B1434" s="54" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C1434" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1434" s="45">
+        <v>45660</v>
+      </c>
+      <c r="E1434" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1435" s="45" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B1435" s="54" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C1435" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1435" s="45">
+        <v>45691</v>
+      </c>
+      <c r="E1435" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1436" s="45" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B1436" s="54" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C1436" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1436" s="45">
+        <v>45841</v>
+      </c>
+      <c r="E1436" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1437" s="45" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B1437" s="54" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C1437" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1437" s="45">
+        <v>45872</v>
+      </c>
+      <c r="E1437" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1438" s="44" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B1438" s="44" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C1438" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1438" s="44">
+        <v>45780</v>
+      </c>
+      <c r="E1438" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1439" s="44" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B1439" s="44" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C1439" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1439" s="44">
+        <v>45933</v>
+      </c>
+      <c r="E1439" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1440" s="44" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B1440" s="44" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C1440" s="44" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1440" s="44">
+        <v>45811</v>
+      </c>
+      <c r="E1440" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1441" s="44" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1441" s="44" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C1441" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1441" s="44">
+        <v>45719</v>
+      </c>
+      <c r="E1441" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1442" s="44" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B1442" s="44" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C1442" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1442" s="44">
+        <v>45660</v>
+      </c>
+      <c r="E1442" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1443" s="44" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B1443" s="44" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C1443" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1443" s="44">
+        <v>45691</v>
+      </c>
+      <c r="E1443" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1444" s="44" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B1444" s="44" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C1444" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1444" s="44">
+        <v>45841</v>
+      </c>
+      <c r="E1444" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1445" s="44" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B1445" s="44" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C1445" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1445" s="44">
+        <v>45872</v>
+      </c>
+      <c r="E1445" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1446" s="45" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B1446" s="45" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C1446" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1446" s="45">
+        <v>45780</v>
+      </c>
+      <c r="E1446" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1447" s="45" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B1447" s="45" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C1447" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1447" s="45">
+        <v>45933</v>
+      </c>
+      <c r="E1447" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1448" s="45" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B1448" s="45" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C1448" s="45" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1448" s="45">
+        <v>45811</v>
+      </c>
+      <c r="E1448" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1449" s="45" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B1449" s="45" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C1449" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1449" s="45">
+        <v>45719</v>
+      </c>
+      <c r="E1449" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1450" s="45" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B1450" s="45" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C1450" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1450" s="45">
+        <v>45660</v>
+      </c>
+      <c r="E1450" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1451" s="45" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B1451" s="45" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C1451" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1451" s="45">
+        <v>45691</v>
+      </c>
+      <c r="E1451" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1452" s="45" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B1452" s="45" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C1452" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1452" s="45">
+        <v>45841</v>
+      </c>
+      <c r="E1452" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1453" s="45" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1453" s="45" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C1453" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1453" s="45">
+        <v>45872</v>
+      </c>
+      <c r="E1453" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1454" s="44" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1454" s="44" t="s">
+        <v>1829</v>
+      </c>
+      <c r="C1454" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1454" s="44">
+        <v>45780</v>
+      </c>
+      <c r="E1454" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1455" s="44" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B1455" s="44" t="s">
+        <v>1829</v>
+      </c>
+      <c r="C1455" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1455" s="44">
+        <v>45933</v>
+      </c>
+      <c r="E1455" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1456" s="44" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B1456" s="44" t="s">
+        <v>1829</v>
+      </c>
+      <c r="C1456" s="44" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1456" s="44">
+        <v>45811</v>
+      </c>
+      <c r="E1456" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1457" s="44" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B1457" s="44" t="s">
+        <v>1829</v>
+      </c>
+      <c r="C1457" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1457" s="44">
+        <v>45719</v>
+      </c>
+      <c r="E1457" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1458" s="44" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B1458" s="44" t="s">
+        <v>1829</v>
+      </c>
+      <c r="C1458" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1458" s="44">
+        <v>45660</v>
+      </c>
+      <c r="E1458" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1459" s="44" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B1459" s="44" t="s">
+        <v>1829</v>
+      </c>
+      <c r="C1459" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1459" s="44">
+        <v>45691</v>
+      </c>
+      <c r="E1459" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1460" s="44" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B1460" s="44" t="s">
+        <v>1829</v>
+      </c>
+      <c r="C1460" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1460" s="44">
+        <v>45841</v>
+      </c>
+      <c r="E1460" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1461" s="44" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B1461" s="44" t="s">
+        <v>1829</v>
+      </c>
+      <c r="C1461" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1461" s="44">
+        <v>45872</v>
+      </c>
+      <c r="E1461" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1462" s="45" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B1462" s="45" t="s">
+        <v>1830</v>
+      </c>
+      <c r="C1462" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1462" s="45">
+        <v>45780</v>
+      </c>
+      <c r="E1462" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1463" s="45" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B1463" s="45" t="s">
+        <v>1830</v>
+      </c>
+      <c r="C1463" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1463" s="45">
+        <v>45933</v>
+      </c>
+      <c r="E1463" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1464" s="45" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B1464" s="45" t="s">
+        <v>1830</v>
+      </c>
+      <c r="C1464" s="45" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1464" s="45">
+        <v>45811</v>
+      </c>
+      <c r="E1464" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1465" s="45" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B1465" s="45" t="s">
+        <v>1830</v>
+      </c>
+      <c r="C1465" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1465" s="45">
+        <v>45719</v>
+      </c>
+      <c r="E1465" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1466" s="45" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B1466" s="45" t="s">
+        <v>1830</v>
+      </c>
+      <c r="C1466" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1466" s="45">
+        <v>45660</v>
+      </c>
+      <c r="E1466" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1467" s="45" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B1467" s="45" t="s">
+        <v>1830</v>
+      </c>
+      <c r="C1467" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1467" s="45">
+        <v>45691</v>
+      </c>
+      <c r="E1467" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1468" s="45" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B1468" s="45" t="s">
+        <v>1830</v>
+      </c>
+      <c r="C1468" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1468" s="45">
+        <v>45841</v>
+      </c>
+      <c r="E1468" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1469" s="45" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B1469" s="45" t="s">
+        <v>1830</v>
+      </c>
+      <c r="C1469" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1469" s="45">
+        <v>45872</v>
+      </c>
+      <c r="E1469" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1470" s="44" t="s">
+        <v>1807</v>
+      </c>
+      <c r="B1470" s="44" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C1470" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1470" s="44">
+        <v>45780</v>
+      </c>
+      <c r="E1470" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1471" s="44" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B1471" s="44" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C1471" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1471" s="44">
+        <v>45933</v>
+      </c>
+      <c r="E1471" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1472" s="44" t="s">
+        <v>1809</v>
+      </c>
+      <c r="B1472" s="44" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C1472" s="44" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1472" s="44">
+        <v>45811</v>
+      </c>
+      <c r="E1472" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1473" s="44" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B1473" s="44" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C1473" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1473" s="44">
+        <v>45719</v>
+      </c>
+      <c r="E1473" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1474" s="44" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B1474" s="44" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C1474" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1474" s="44">
+        <v>45660</v>
+      </c>
+      <c r="E1474" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1475" s="44" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B1475" s="44" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C1475" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1475" s="44">
+        <v>45691</v>
+      </c>
+      <c r="E1475" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1476" s="44" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B1476" s="44" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C1476" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1476" s="44">
+        <v>45841</v>
+      </c>
+      <c r="E1476" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1477" s="44" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B1477" s="44" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C1477" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1477" s="44">
+        <v>45872</v>
+      </c>
+      <c r="E1477" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1478" s="45" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B1478" s="45" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C1478" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1478" s="45">
+        <v>45780</v>
+      </c>
+      <c r="E1478" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1479" s="45" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B1479" s="45" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C1479" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1479" s="45">
+        <v>45933</v>
+      </c>
+      <c r="E1479" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1480" s="45" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B1480" s="45" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C1480" s="45" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1480" s="45">
+        <v>45811</v>
+      </c>
+      <c r="E1480" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1481" s="45" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B1481" s="45" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C1481" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1481" s="45">
+        <v>45719</v>
+      </c>
+      <c r="E1481" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1482" s="45" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B1482" s="45" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C1482" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1482" s="45">
+        <v>45660</v>
+      </c>
+      <c r="E1482" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1483" s="45" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B1483" s="45" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C1483" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1483" s="45">
+        <v>45691</v>
+      </c>
+      <c r="E1483" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1484" s="45" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B1484" s="45" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C1484" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1484" s="45">
+        <v>45841</v>
+      </c>
+      <c r="E1484" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1485" s="45" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B1485" s="45" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C1485" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1485" s="45">
+        <v>45872</v>
+      </c>
+      <c r="E1485" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1486" s="44" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B1486" s="44" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C1486" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1486" s="44">
+        <v>45780</v>
+      </c>
+      <c r="E1486" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1487" s="44" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B1487" s="44" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C1487" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1487" s="44">
+        <v>45933</v>
+      </c>
+      <c r="E1487" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1488" s="44" t="s">
+        <v>1836</v>
+      </c>
+      <c r="B1488" s="44" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C1488" s="44" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1488" s="44">
+        <v>45811</v>
+      </c>
+      <c r="E1488" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1489" s="44" t="s">
+        <v>1837</v>
+      </c>
+      <c r="B1489" s="44" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C1489" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1489" s="44">
+        <v>45719</v>
+      </c>
+      <c r="E1489" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1490" s="44" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B1490" s="44" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C1490" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1490" s="44">
+        <v>45660</v>
+      </c>
+      <c r="E1490" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1491" s="44" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B1491" s="44" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C1491" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1491" s="44">
+        <v>45691</v>
+      </c>
+      <c r="E1491" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1492" s="44" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B1492" s="44" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C1492" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1492" s="44">
+        <v>45841</v>
+      </c>
+      <c r="E1492" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1493" s="44" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B1493" s="44" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C1493" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1493" s="44">
+        <v>45872</v>
+      </c>
+      <c r="E1493" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1494" s="45" t="s">
+        <v>1842</v>
+      </c>
+      <c r="B1494" s="45" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C1494" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1494" s="45">
+        <v>45780</v>
+      </c>
+      <c r="E1494" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1495" s="45" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B1495" s="45" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C1495" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1495" s="45">
+        <v>45933</v>
+      </c>
+      <c r="E1495" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1496" s="45" t="s">
+        <v>1844</v>
+      </c>
+      <c r="B1496" s="45" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C1496" s="45" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1496" s="45">
+        <v>45811</v>
+      </c>
+      <c r="E1496" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1497" s="45" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B1497" s="45" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C1497" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1497" s="45">
+        <v>45719</v>
+      </c>
+      <c r="E1497" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1498" s="45" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B1498" s="45" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C1498" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1498" s="45">
+        <v>45660</v>
+      </c>
+      <c r="E1498" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1499" s="45" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B1499" s="45" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C1499" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1499" s="45">
+        <v>45691</v>
+      </c>
+      <c r="E1499" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1500" s="45" t="s">
+        <v>1848</v>
+      </c>
+      <c r="B1500" s="45" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C1500" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1500" s="45">
+        <v>45841</v>
+      </c>
+      <c r="E1500" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1501" s="45" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B1501" s="45" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C1501" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1501" s="45">
+        <v>45872</v>
+      </c>
+      <c r="E1501" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1502" s="44" t="s">
+        <v>1850</v>
+      </c>
+      <c r="B1502" s="44" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C1502" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1502" s="44">
+        <v>45780</v>
+      </c>
+      <c r="E1502" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1503" s="44" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B1503" s="44" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C1503" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1503" s="44">
+        <v>45933</v>
+      </c>
+      <c r="E1503" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1504" s="44" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B1504" s="44" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C1504" s="44" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1504" s="44">
+        <v>45811</v>
+      </c>
+      <c r="E1504" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1505" s="44" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B1505" s="44" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C1505" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1505" s="44">
+        <v>45719</v>
+      </c>
+      <c r="E1505" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1506" s="44" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B1506" s="44" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C1506" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1506" s="44">
+        <v>45660</v>
+      </c>
+      <c r="E1506" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1507" s="44" t="s">
+        <v>1855</v>
+      </c>
+      <c r="B1507" s="44" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C1507" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1507" s="44">
+        <v>45691</v>
+      </c>
+      <c r="E1507" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1508" s="44" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B1508" s="44" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C1508" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1508" s="44">
+        <v>45841</v>
+      </c>
+      <c r="E1508" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1509" s="44" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B1509" s="44" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C1509" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1509" s="44">
+        <v>45872</v>
+      </c>
+      <c r="E1509" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1510" s="45" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B1510" s="45" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C1510" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1510" s="45">
+        <v>45415</v>
+      </c>
+      <c r="E1510" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1511" s="45" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B1511" s="45" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C1511" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1511" s="45">
+        <v>45568</v>
+      </c>
+      <c r="E1511" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1512" s="45" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B1512" s="45" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C1512" s="45" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1512" s="45">
+        <v>45446</v>
+      </c>
+      <c r="E1512" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1513" s="45" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B1513" s="45" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C1513" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1513" s="45">
+        <v>45354</v>
+      </c>
+      <c r="E1513" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1514" s="45" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B1514" s="45" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C1514" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1514" s="45">
+        <v>45294</v>
+      </c>
+      <c r="E1514" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1515" s="45" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B1515" s="45" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C1515" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1515" s="45">
+        <v>45325</v>
+      </c>
+      <c r="E1515" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1516" s="45" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B1516" s="45" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C1516" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1516" s="45">
+        <v>45476</v>
+      </c>
+      <c r="E1516" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1517" s="45" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B1517" s="45" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C1517" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1517" s="45">
+        <v>45507</v>
+      </c>
+      <c r="E1517" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1518" s="57"/>
+    </row>
+    <row r="1519" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1519" s="57"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E695"/>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5332" uniqueCount="1867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5356" uniqueCount="1876">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -5631,6 +5631,33 @@
   </si>
   <si>
     <t>Kareem Adel Adly Abdaljawad</t>
+  </si>
+  <si>
+    <t>Zead Ahmed Ramadan Abo Elela</t>
+  </si>
+  <si>
+    <t>DSS2517</t>
+  </si>
+  <si>
+    <t>DSS2518</t>
+  </si>
+  <si>
+    <t>DSS2519</t>
+  </si>
+  <si>
+    <t>DSS2520</t>
+  </si>
+  <si>
+    <t>DSS2521</t>
+  </si>
+  <si>
+    <t>DSS2522</t>
+  </si>
+  <si>
+    <t>DSS2523</t>
+  </si>
+  <si>
+    <t>DSS2524</t>
   </si>
 </sst>
 </file>
@@ -5838,7 +5865,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -6007,9 +6034,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6291,10 +6315,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1519"/>
+  <dimension ref="A1:E1525"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1497" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A1510" sqref="A1510"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1501" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G1514" sqref="G1514"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31729,10 +31753,140 @@
       </c>
     </row>
     <row r="1518" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1518" s="57"/>
+      <c r="A1518" s="44" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B1518" s="44" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C1518" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1518" s="44">
+        <v>45780</v>
+      </c>
+      <c r="E1518" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="1519" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1519" s="57"/>
+      <c r="A1519" s="44" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B1519" s="44" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C1519" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1519" s="44">
+        <v>45933</v>
+      </c>
+      <c r="E1519" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1520" s="44" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B1520" s="44" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C1520" s="44" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1520" s="44">
+        <v>45811</v>
+      </c>
+      <c r="E1520" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1521" s="44" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B1521" s="44" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C1521" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1521" s="44">
+        <v>45719</v>
+      </c>
+      <c r="E1521" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1522" s="44" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B1522" s="44" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C1522" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1522" s="44">
+        <v>45660</v>
+      </c>
+      <c r="E1522" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1523" s="44" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B1523" s="44" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C1523" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1523" s="44">
+        <v>45691</v>
+      </c>
+      <c r="E1523" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1524" s="44" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B1524" s="44" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C1524" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1524" s="44">
+        <v>45841</v>
+      </c>
+      <c r="E1524" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1525" s="44" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B1525" s="44" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C1525" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1525" s="44">
+        <v>45872</v>
+      </c>
+      <c r="E1525" s="17">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E695"/>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$695</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$1535</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$1543</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5356" uniqueCount="1876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5380" uniqueCount="1885">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -5658,6 +5658,33 @@
   </si>
   <si>
     <t>DSS2524</t>
+  </si>
+  <si>
+    <t>Ahmed Mostafa Kamel</t>
+  </si>
+  <si>
+    <t>DSS2525</t>
+  </si>
+  <si>
+    <t>DSS2526</t>
+  </si>
+  <si>
+    <t>DSS2527</t>
+  </si>
+  <si>
+    <t>DSS2528</t>
+  </si>
+  <si>
+    <t>DSS2529</t>
+  </si>
+  <si>
+    <t>DSS2530</t>
+  </si>
+  <si>
+    <t>DSS2531</t>
+  </si>
+  <si>
+    <t>DSS2532</t>
   </si>
 </sst>
 </file>
@@ -6307,7 +6334,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6315,10 +6342,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1525"/>
+  <dimension ref="A1:E1533"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1501" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G1514" sqref="G1514"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1509" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E1525" sqref="E1525"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31885,6 +31912,142 @@
         <v>45872</v>
       </c>
       <c r="E1525" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1526" s="45" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B1526" s="45" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C1526" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1526" s="45">
+        <v>45780</v>
+      </c>
+      <c r="E1526" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1527" s="45" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B1527" s="45" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C1527" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1527" s="45">
+        <v>45933</v>
+      </c>
+      <c r="E1527" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1528" s="45" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B1528" s="45" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C1528" s="45" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1528" s="45">
+        <v>45811</v>
+      </c>
+      <c r="E1528" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1529" s="45" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B1529" s="45" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C1529" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1529" s="45">
+        <v>45719</v>
+      </c>
+      <c r="E1529" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1530" s="45" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B1530" s="45" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C1530" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1530" s="45">
+        <v>45660</v>
+      </c>
+      <c r="E1530" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1531" s="45" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B1531" s="45" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C1531" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1531" s="45">
+        <v>45691</v>
+      </c>
+      <c r="E1531" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1532" s="45" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B1532" s="45" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C1532" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1532" s="45">
+        <v>45841</v>
+      </c>
+      <c r="E1532" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1533" s="45" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B1533" s="45" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C1533" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1533" s="45">
+        <v>45872</v>
+      </c>
+      <c r="E1533" s="17">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5380" uniqueCount="1885">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5404" uniqueCount="1894">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -5685,6 +5685,33 @@
   </si>
   <si>
     <t>DSS2532</t>
+  </si>
+  <si>
+    <t>AHMAD ABDELRAHMAN ABDALLA  ABDELKADER</t>
+  </si>
+  <si>
+    <t>DSS2533</t>
+  </si>
+  <si>
+    <t>DSS2534</t>
+  </si>
+  <si>
+    <t>DSS2535</t>
+  </si>
+  <si>
+    <t>DSS2536</t>
+  </si>
+  <si>
+    <t>DSS2537</t>
+  </si>
+  <si>
+    <t>DSS2538</t>
+  </si>
+  <si>
+    <t>DSS2539</t>
+  </si>
+  <si>
+    <t>DSS2540</t>
   </si>
 </sst>
 </file>
@@ -6334,7 +6361,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6342,10 +6369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1533"/>
+  <dimension ref="A1:E1541"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1509" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E1525" sqref="E1525"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1515" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H1527" sqref="H1527"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32048,6 +32075,142 @@
         <v>45872</v>
       </c>
       <c r="E1533" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1534" s="44" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B1534" s="51" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C1534" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1534" s="44">
+        <v>45780</v>
+      </c>
+      <c r="E1534" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1535" s="44" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B1535" s="51" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C1535" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1535" s="44">
+        <v>45933</v>
+      </c>
+      <c r="E1535" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1536" s="44" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B1536" s="51" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C1536" s="44" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1536" s="44">
+        <v>45811</v>
+      </c>
+      <c r="E1536" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1537" s="44" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B1537" s="51" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C1537" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1537" s="44">
+        <v>45719</v>
+      </c>
+      <c r="E1537" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1538" s="44" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B1538" s="51" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C1538" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1538" s="44">
+        <v>45660</v>
+      </c>
+      <c r="E1538" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1539" s="44" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B1539" s="51" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C1539" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1539" s="44">
+        <v>45691</v>
+      </c>
+      <c r="E1539" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1540" s="44" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1540" s="51" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C1540" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1540" s="44">
+        <v>45841</v>
+      </c>
+      <c r="E1540" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1541" s="44" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B1541" s="51" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C1541" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1541" s="44">
+        <v>45872</v>
+      </c>
+      <c r="E1541" s="17">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5404" uniqueCount="1894">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5407" uniqueCount="1895">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -5712,6 +5712,9 @@
   </si>
   <si>
     <t>DSS2540</t>
+  </si>
+  <si>
+    <t>DSS2541</t>
   </si>
 </sst>
 </file>
@@ -6361,7 +6364,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6369,10 +6372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1541"/>
+  <dimension ref="A1:E1542"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1515" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H1527" sqref="H1527"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1527" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I1551" sqref="I1551"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32211,6 +32214,23 @@
         <v>45872</v>
       </c>
       <c r="E1541" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1542" s="45" t="s">
+        <v>1894</v>
+      </c>
+      <c r="B1542" s="45" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C1542" s="45" t="s">
+        <v>462</v>
+      </c>
+      <c r="D1542" s="45">
+        <v>45995</v>
+      </c>
+      <c r="E1542" s="17">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$695</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$1543</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$1559</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5407" uniqueCount="1895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5455" uniqueCount="1918">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -5715,6 +5715,75 @@
   </si>
   <si>
     <t>DSS2541</t>
+  </si>
+  <si>
+    <t>DSS2542</t>
+  </si>
+  <si>
+    <t>DSS2543</t>
+  </si>
+  <si>
+    <t>DSS2544</t>
+  </si>
+  <si>
+    <t>DSS2545</t>
+  </si>
+  <si>
+    <t>DSS2546</t>
+  </si>
+  <si>
+    <t>DSS2547</t>
+  </si>
+  <si>
+    <t>DSS2548</t>
+  </si>
+  <si>
+    <t>DSS2549</t>
+  </si>
+  <si>
+    <t>DSS2550</t>
+  </si>
+  <si>
+    <t>DSS2551</t>
+  </si>
+  <si>
+    <t>DSS2552</t>
+  </si>
+  <si>
+    <t>DSS2553</t>
+  </si>
+  <si>
+    <t>18/2/2025</t>
+  </si>
+  <si>
+    <t>18/3/2025</t>
+  </si>
+  <si>
+    <t>Amgad Saeed Lotfy Ammar</t>
+  </si>
+  <si>
+    <t>Ahmed Mohamed Abou Alhassan Ali</t>
+  </si>
+  <si>
+    <t>Abdullah Abou Baker Abd Alaziz</t>
+  </si>
+  <si>
+    <t>Peter Nashat Amen Gad</t>
+  </si>
+  <si>
+    <t>Tarek Zakaria Radwan</t>
+  </si>
+  <si>
+    <t>AMR NOURELDIN ELSAYED AHMED</t>
+  </si>
+  <si>
+    <t>MASHHOUR MARZOUQ ALSULAMI</t>
+  </si>
+  <si>
+    <t>Sultan Abd El Rahim Abd El Naeem Ali</t>
+  </si>
+  <si>
+    <t>Osama Eltayeb Mohammedahmed Elmakki</t>
   </si>
 </sst>
 </file>
@@ -5922,7 +5991,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -6091,6 +6160,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6364,7 +6436,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6372,10 +6444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1542"/>
+  <dimension ref="A1:E1554"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1527" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I1551" sqref="I1551"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1530" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B1558" sqref="B1558"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32231,6 +32303,210 @@
         <v>45995</v>
       </c>
       <c r="E1542" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1543" s="47" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B1543" s="47" t="s">
+        <v>1909</v>
+      </c>
+      <c r="C1543" s="47" t="s">
+        <v>534</v>
+      </c>
+      <c r="D1543" s="47" t="s">
+        <v>1907</v>
+      </c>
+      <c r="E1543" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1544" s="47" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B1544" s="47" t="s">
+        <v>1910</v>
+      </c>
+      <c r="C1544" s="47" t="s">
+        <v>534</v>
+      </c>
+      <c r="D1544" s="47" t="s">
+        <v>1907</v>
+      </c>
+      <c r="E1544" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1545" s="47" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1545" s="47" t="s">
+        <v>1911</v>
+      </c>
+      <c r="C1545" s="47" t="s">
+        <v>534</v>
+      </c>
+      <c r="D1545" s="47" t="s">
+        <v>1907</v>
+      </c>
+      <c r="E1545" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1546" s="47" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B1546" s="47" t="s">
+        <v>1912</v>
+      </c>
+      <c r="C1546" s="47" t="s">
+        <v>534</v>
+      </c>
+      <c r="D1546" s="47" t="s">
+        <v>1907</v>
+      </c>
+      <c r="E1546" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1547" s="47" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B1547" s="47" t="s">
+        <v>1913</v>
+      </c>
+      <c r="C1547" s="47" t="s">
+        <v>534</v>
+      </c>
+      <c r="D1547" s="47" t="s">
+        <v>1907</v>
+      </c>
+      <c r="E1547" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1548" s="47" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B1548" s="47" t="s">
+        <v>1914</v>
+      </c>
+      <c r="C1548" s="47" t="s">
+        <v>534</v>
+      </c>
+      <c r="D1548" s="47" t="s">
+        <v>1907</v>
+      </c>
+      <c r="E1548" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1549" s="47" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B1549" s="47" t="s">
+        <v>477</v>
+      </c>
+      <c r="C1549" s="47" t="s">
+        <v>534</v>
+      </c>
+      <c r="D1549" s="47" t="s">
+        <v>1907</v>
+      </c>
+      <c r="E1549" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1550" s="47" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1550" s="47" t="s">
+        <v>1915</v>
+      </c>
+      <c r="C1550" s="47" t="s">
+        <v>534</v>
+      </c>
+      <c r="D1550" s="47" t="s">
+        <v>1907</v>
+      </c>
+      <c r="E1550" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1551" s="47" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1551" s="57" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C1551" s="47" t="s">
+        <v>534</v>
+      </c>
+      <c r="D1551" s="47" t="s">
+        <v>1907</v>
+      </c>
+      <c r="E1551" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1552" s="47" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B1552" s="47" t="s">
+        <v>732</v>
+      </c>
+      <c r="C1552" s="47" t="s">
+        <v>534</v>
+      </c>
+      <c r="D1552" s="47" t="s">
+        <v>1908</v>
+      </c>
+      <c r="E1552" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1553" s="47" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B1553" s="47" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C1553" s="47" t="s">
+        <v>534</v>
+      </c>
+      <c r="D1553" s="47" t="s">
+        <v>1908</v>
+      </c>
+      <c r="E1553" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1554" s="47" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B1554" s="47" t="s">
+        <v>1917</v>
+      </c>
+      <c r="C1554" s="47" t="s">
+        <v>534</v>
+      </c>
+      <c r="D1554" s="47" t="s">
+        <v>1908</v>
+      </c>
+      <c r="E1554" s="17">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$695</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$1559</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$1564</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5455" uniqueCount="1918">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5479" uniqueCount="1927">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -5784,6 +5784,33 @@
   </si>
   <si>
     <t>Osama Eltayeb Mohammedahmed Elmakki</t>
+  </si>
+  <si>
+    <t>DSS2554</t>
+  </si>
+  <si>
+    <t>DSS2555</t>
+  </si>
+  <si>
+    <t>DSS2556</t>
+  </si>
+  <si>
+    <t>DSS2557</t>
+  </si>
+  <si>
+    <t>DSS2558</t>
+  </si>
+  <si>
+    <t>DSS2559</t>
+  </si>
+  <si>
+    <t>DSS2560</t>
+  </si>
+  <si>
+    <t>DSS2561</t>
+  </si>
+  <si>
+    <t>Youssef Adel Adly Abd Abdaljawad</t>
   </si>
 </sst>
 </file>
@@ -6436,7 +6463,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6444,10 +6471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1554"/>
+  <dimension ref="A1:E1562"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1530" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B1558" sqref="B1558"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1542" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C1574" sqref="C1574"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32507,6 +32534,142 @@
         <v>1908</v>
       </c>
       <c r="E1554" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1555" s="44" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B1555" s="44" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C1555" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1555" s="44">
+        <v>45780</v>
+      </c>
+      <c r="E1555" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1556" s="44" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B1556" s="44" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C1556" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1556" s="44">
+        <v>45933</v>
+      </c>
+      <c r="E1556" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1557" s="44" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B1557" s="44" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C1557" s="44" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1557" s="44">
+        <v>45811</v>
+      </c>
+      <c r="E1557" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1558" s="44" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B1558" s="44" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C1558" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1558" s="44">
+        <v>45719</v>
+      </c>
+      <c r="E1558" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1559" s="44" t="s">
+        <v>1922</v>
+      </c>
+      <c r="B1559" s="44" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C1559" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1559" s="44">
+        <v>45660</v>
+      </c>
+      <c r="E1559" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1560" s="44" t="s">
+        <v>1923</v>
+      </c>
+      <c r="B1560" s="44" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C1560" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1560" s="44">
+        <v>45691</v>
+      </c>
+      <c r="E1560" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1561" s="44" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B1561" s="44" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C1561" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1561" s="44">
+        <v>45841</v>
+      </c>
+      <c r="E1561" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1562" s="44" t="s">
+        <v>1925</v>
+      </c>
+      <c r="B1562" s="44" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C1562" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1562" s="44">
+        <v>45872</v>
+      </c>
+      <c r="E1562" s="17">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$695</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$1564</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$1572</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5479" uniqueCount="1927">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5511" uniqueCount="1937">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -5811,6 +5811,36 @@
   </si>
   <si>
     <t>Youssef Adel Adly Abd Abdaljawad</t>
+  </si>
+  <si>
+    <t>xxxxxxxxxxxxxxxx</t>
+  </si>
+  <si>
+    <t>DSS2562</t>
+  </si>
+  <si>
+    <t>DSS2563</t>
+  </si>
+  <si>
+    <t>DSS2564</t>
+  </si>
+  <si>
+    <t>DSS2565</t>
+  </si>
+  <si>
+    <t>DSS2566</t>
+  </si>
+  <si>
+    <t>DSS2567</t>
+  </si>
+  <si>
+    <t>DSS2568</t>
+  </si>
+  <si>
+    <t>DSS2569</t>
+  </si>
+  <si>
+    <t>MOHAMMED ALI HAMMUDAH SHARAB</t>
   </si>
 </sst>
 </file>
@@ -6471,10 +6501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1562"/>
+  <dimension ref="A1:E1570"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1542" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C1574" sqref="C1574"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1548" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A1563" sqref="A1563"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28958,7 +28988,7 @@
         <v>1664</v>
       </c>
       <c r="C1344" s="44" t="s">
-        <v>2</v>
+        <v>1927</v>
       </c>
       <c r="D1344" s="44">
         <v>45779</v>
@@ -32670,6 +32700,142 @@
         <v>45872</v>
       </c>
       <c r="E1562" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1563" s="45" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B1563" s="45" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C1563" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1563" s="45" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E1563" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1564" s="45" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B1564" s="45" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C1564" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1564" s="45" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E1564" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1565" s="45" t="s">
+        <v>1930</v>
+      </c>
+      <c r="B1565" s="45" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C1565" s="45" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1565" s="45" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E1565" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1566" s="45" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B1566" s="45" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C1566" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1566" s="45" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E1566" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1567" s="45" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B1567" s="45" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C1567" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1567" s="45" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E1567" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1568" s="45" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B1568" s="45" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C1568" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1568" s="45" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E1568" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1569" s="45" t="s">
+        <v>1934</v>
+      </c>
+      <c r="B1569" s="45" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C1569" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1569" s="45" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E1569" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1570" s="45" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B1570" s="45" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C1570" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1570" s="45" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E1570" s="17">
         <v>1</v>
       </c>
     </row>
@@ -32678,7 +32844,7 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="40" orientation="portrait" r:id="rId1"/>
-  <rowBreaks count="11" manualBreakCount="11">
+  <rowBreaks count="12" manualBreakCount="12">
     <brk id="70" max="16383" man="1"/>
     <brk id="409" max="4" man="1"/>
     <brk id="493" max="4" man="1"/>
@@ -32690,6 +32856,7 @@
     <brk id="1044" max="4" man="1"/>
     <brk id="1242" max="4" man="1"/>
     <brk id="1343" max="4" man="1"/>
+    <brk id="1562" max="4" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$695</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$1572</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$1587</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5511" uniqueCount="1937">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5523" uniqueCount="1944">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -5841,6 +5841,27 @@
   </si>
   <si>
     <t>MOHAMMED ALI HAMMUDAH SHARAB</t>
+  </si>
+  <si>
+    <t>Hassan Ramadan ELmoursi Abouelabbas</t>
+  </si>
+  <si>
+    <t>DSS2570</t>
+  </si>
+  <si>
+    <t>DSS2571</t>
+  </si>
+  <si>
+    <t>DSS2572</t>
+  </si>
+  <si>
+    <t>01/03/2025</t>
+  </si>
+  <si>
+    <t>27/02/2025</t>
+  </si>
+  <si>
+    <t>24/02/2025</t>
   </si>
 </sst>
 </file>
@@ -6501,10 +6522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1570"/>
+  <dimension ref="A1:E1573"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1548" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A1563" sqref="A1563"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1547" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I1556" sqref="I1556"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32836,6 +32857,57 @@
         <v>1224</v>
       </c>
       <c r="E1570" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1571" s="44" t="s">
+        <v>1938</v>
+      </c>
+      <c r="B1571" s="44" t="s">
+        <v>1937</v>
+      </c>
+      <c r="C1571" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1571" s="44" t="s">
+        <v>1942</v>
+      </c>
+      <c r="E1571" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1572" s="44" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B1572" s="44" t="s">
+        <v>1937</v>
+      </c>
+      <c r="C1572" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1572" s="44" t="s">
+        <v>1943</v>
+      </c>
+      <c r="E1572" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1573" s="44" t="s">
+        <v>1940</v>
+      </c>
+      <c r="B1573" s="44" t="s">
+        <v>1937</v>
+      </c>
+      <c r="C1573" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1573" s="44" t="s">
+        <v>1941</v>
+      </c>
+      <c r="E1573" s="17">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5523" uniqueCount="1944">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5526" uniqueCount="1946">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -5862,6 +5862,12 @@
   </si>
   <si>
     <t>24/02/2025</t>
+  </si>
+  <si>
+    <t>MAHMOUD HOSNY MAHMOUD AHMED</t>
+  </si>
+  <si>
+    <t>DSS2573</t>
   </si>
 </sst>
 </file>
@@ -6514,7 +6520,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6522,10 +6528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1573"/>
+  <dimension ref="A1:E1574"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1547" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I1556" sqref="I1556"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1556" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L1574" sqref="L1574"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32908,6 +32914,23 @@
         <v>1941</v>
       </c>
       <c r="E1573" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1574" s="45" t="s">
+        <v>1945</v>
+      </c>
+      <c r="B1574" s="45" t="s">
+        <v>1944</v>
+      </c>
+      <c r="C1574" s="45" t="s">
+        <v>462</v>
+      </c>
+      <c r="D1574" s="45">
+        <v>45995</v>
+      </c>
+      <c r="E1574" s="17">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$695</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$1587</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$1671</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5526" uniqueCount="1946">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5758" uniqueCount="2033">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -5868,6 +5868,267 @@
   </si>
   <si>
     <t>DSS2573</t>
+  </si>
+  <si>
+    <t>DSS2574</t>
+  </si>
+  <si>
+    <t>DSS2575</t>
+  </si>
+  <si>
+    <t>DSS2576</t>
+  </si>
+  <si>
+    <t>DSS2577</t>
+  </si>
+  <si>
+    <t>DSS2578</t>
+  </si>
+  <si>
+    <t>DSS2579</t>
+  </si>
+  <si>
+    <t>DSS2580</t>
+  </si>
+  <si>
+    <t>DSS2581</t>
+  </si>
+  <si>
+    <t>Ahmed Mohamed Abdel-al  Ali</t>
+  </si>
+  <si>
+    <t>DSS2582</t>
+  </si>
+  <si>
+    <t>DSS2583</t>
+  </si>
+  <si>
+    <t>DSS2584</t>
+  </si>
+  <si>
+    <t>DSS2585</t>
+  </si>
+  <si>
+    <t>DSS2586</t>
+  </si>
+  <si>
+    <t>DSS2587</t>
+  </si>
+  <si>
+    <t>DSS2588</t>
+  </si>
+  <si>
+    <t>DSS2589</t>
+  </si>
+  <si>
+    <t>Mohamed Abd Elrady Abu Elfadl Mohamed</t>
+  </si>
+  <si>
+    <t>Gamal Sabet Mohamed Abuzeed</t>
+  </si>
+  <si>
+    <t>Mohamed Mohamed Elsayed Morsy</t>
+  </si>
+  <si>
+    <t>Mohammed Wahied Mohammed Ali</t>
+  </si>
+  <si>
+    <t>DSS2590</t>
+  </si>
+  <si>
+    <t>DSS2591</t>
+  </si>
+  <si>
+    <t>DSS2592</t>
+  </si>
+  <si>
+    <t>DSS2593</t>
+  </si>
+  <si>
+    <t>DSS2594</t>
+  </si>
+  <si>
+    <t>DSS2595</t>
+  </si>
+  <si>
+    <t>DSS2596</t>
+  </si>
+  <si>
+    <t>DSS2597</t>
+  </si>
+  <si>
+    <t>DSS2598</t>
+  </si>
+  <si>
+    <t>DSS2599</t>
+  </si>
+  <si>
+    <t>DSS2600</t>
+  </si>
+  <si>
+    <t>DSS2601</t>
+  </si>
+  <si>
+    <t>DSS2602</t>
+  </si>
+  <si>
+    <t>DSS2603</t>
+  </si>
+  <si>
+    <t>DSS2604</t>
+  </si>
+  <si>
+    <t>DSS2605</t>
+  </si>
+  <si>
+    <t>DSS2606</t>
+  </si>
+  <si>
+    <t>DSS2607</t>
+  </si>
+  <si>
+    <t>DSS2608</t>
+  </si>
+  <si>
+    <t>DSS2609</t>
+  </si>
+  <si>
+    <t>DSS2610</t>
+  </si>
+  <si>
+    <t>DSS2611</t>
+  </si>
+  <si>
+    <t>DSS2612</t>
+  </si>
+  <si>
+    <t>DSS2613</t>
+  </si>
+  <si>
+    <t>DSS2614</t>
+  </si>
+  <si>
+    <t>DSS2615</t>
+  </si>
+  <si>
+    <t>DSS2616</t>
+  </si>
+  <si>
+    <t>DSS2617</t>
+  </si>
+  <si>
+    <t>DSS2618</t>
+  </si>
+  <si>
+    <t>DSS2619</t>
+  </si>
+  <si>
+    <t>DSS2620</t>
+  </si>
+  <si>
+    <t>DSS2621</t>
+  </si>
+  <si>
+    <t>DSS2622</t>
+  </si>
+  <si>
+    <t>DSS2623</t>
+  </si>
+  <si>
+    <t>DSS2624</t>
+  </si>
+  <si>
+    <t>DSS2625</t>
+  </si>
+  <si>
+    <t>DSS2626</t>
+  </si>
+  <si>
+    <t>DSS2627</t>
+  </si>
+  <si>
+    <t>DSS2628</t>
+  </si>
+  <si>
+    <t>DSS2629</t>
+  </si>
+  <si>
+    <t>DSS2630</t>
+  </si>
+  <si>
+    <t>DSS2631</t>
+  </si>
+  <si>
+    <t>DSS2632</t>
+  </si>
+  <si>
+    <t>DSS2633</t>
+  </si>
+  <si>
+    <t>DSS2634</t>
+  </si>
+  <si>
+    <t>DSS2635</t>
+  </si>
+  <si>
+    <t>DSS2636</t>
+  </si>
+  <si>
+    <t>DSS2637</t>
+  </si>
+  <si>
+    <t>Khaled shiref hussein Abdul Muttalib</t>
+  </si>
+  <si>
+    <t>DSS2638</t>
+  </si>
+  <si>
+    <t>DSS2639</t>
+  </si>
+  <si>
+    <t>DSS2640</t>
+  </si>
+  <si>
+    <t>DSS2641</t>
+  </si>
+  <si>
+    <t>DSS2642</t>
+  </si>
+  <si>
+    <t>DSS2643</t>
+  </si>
+  <si>
+    <t>DSS2644</t>
+  </si>
+  <si>
+    <t>DSS2645</t>
+  </si>
+  <si>
+    <t>Abdalrady Shabaan Abdalrady Ebrahim</t>
+  </si>
+  <si>
+    <t>DSS2646</t>
+  </si>
+  <si>
+    <t>DSS2647</t>
+  </si>
+  <si>
+    <t>DSS2648</t>
+  </si>
+  <si>
+    <t>DSS2649</t>
+  </si>
+  <si>
+    <t>DSS2650</t>
+  </si>
+  <si>
+    <t>DSS2651</t>
+  </si>
+  <si>
+    <t>DSS2652</t>
+  </si>
+  <si>
+    <t>DSS2653</t>
   </si>
 </sst>
 </file>
@@ -6528,10 +6789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1574"/>
+  <dimension ref="A1:E1654"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1556" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L1574" sqref="L1574"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1633" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D1659" sqref="D1659"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32931,6 +33192,1350 @@
         <v>45995</v>
       </c>
       <c r="E1574" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1575" s="44" t="s">
+        <v>1946</v>
+      </c>
+      <c r="B1575" s="44"/>
+      <c r="C1575" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1575" s="44">
+        <v>45780</v>
+      </c>
+      <c r="E1575" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1576" s="44" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B1576" s="44"/>
+      <c r="C1576" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1576" s="44">
+        <v>45933</v>
+      </c>
+      <c r="E1576" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1577" s="44" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B1577" s="44"/>
+      <c r="C1577" s="44" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1577" s="44">
+        <v>45811</v>
+      </c>
+      <c r="E1577" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1578" s="44" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B1578" s="44"/>
+      <c r="C1578" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1578" s="44">
+        <v>45719</v>
+      </c>
+      <c r="E1578" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1579" s="44" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B1579" s="44"/>
+      <c r="C1579" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1579" s="44">
+        <v>45660</v>
+      </c>
+      <c r="E1579" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1580" s="44" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B1580" s="44"/>
+      <c r="C1580" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1580" s="44">
+        <v>45691</v>
+      </c>
+      <c r="E1580" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1581" s="44" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B1581" s="44"/>
+      <c r="C1581" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1581" s="44">
+        <v>45841</v>
+      </c>
+      <c r="E1581" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1582" s="44" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B1582" s="44"/>
+      <c r="C1582" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1582" s="44">
+        <v>45872</v>
+      </c>
+      <c r="E1582" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1583" s="45" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B1583" s="45" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C1583" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1583" s="45">
+        <v>45780</v>
+      </c>
+      <c r="E1583" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1584" s="45" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B1584" s="45" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C1584" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1584" s="45">
+        <v>45933</v>
+      </c>
+      <c r="E1584" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1585" s="45" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B1585" s="45" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C1585" s="45" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1585" s="45">
+        <v>45811</v>
+      </c>
+      <c r="E1585" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1586" s="45" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B1586" s="45" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C1586" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1586" s="45">
+        <v>45719</v>
+      </c>
+      <c r="E1586" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1587" s="45" t="s">
+        <v>1959</v>
+      </c>
+      <c r="B1587" s="45" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C1587" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1587" s="45">
+        <v>45660</v>
+      </c>
+      <c r="E1587" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1588" s="45" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B1588" s="45" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C1588" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1588" s="45">
+        <v>45691</v>
+      </c>
+      <c r="E1588" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1589" s="45" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B1589" s="45" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C1589" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1589" s="45">
+        <v>45841</v>
+      </c>
+      <c r="E1589" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1590" s="45" t="s">
+        <v>1962</v>
+      </c>
+      <c r="B1590" s="45" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C1590" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1590" s="45">
+        <v>45872</v>
+      </c>
+      <c r="E1590" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1591" s="44" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B1591" s="44" t="s">
+        <v>1963</v>
+      </c>
+      <c r="C1591" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1591" s="44">
+        <v>45780</v>
+      </c>
+      <c r="E1591" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1592" s="44" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B1592" s="44" t="s">
+        <v>1963</v>
+      </c>
+      <c r="C1592" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1592" s="44">
+        <v>45933</v>
+      </c>
+      <c r="E1592" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1593" s="44" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B1593" s="44" t="s">
+        <v>1963</v>
+      </c>
+      <c r="C1593" s="44" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1593" s="44">
+        <v>45811</v>
+      </c>
+      <c r="E1593" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1594" s="44" t="s">
+        <v>1970</v>
+      </c>
+      <c r="B1594" s="44" t="s">
+        <v>1963</v>
+      </c>
+      <c r="C1594" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1594" s="44">
+        <v>45719</v>
+      </c>
+      <c r="E1594" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1595" s="44" t="s">
+        <v>1971</v>
+      </c>
+      <c r="B1595" s="44" t="s">
+        <v>1963</v>
+      </c>
+      <c r="C1595" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1595" s="44">
+        <v>45660</v>
+      </c>
+      <c r="E1595" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1596" s="44" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B1596" s="44" t="s">
+        <v>1963</v>
+      </c>
+      <c r="C1596" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1596" s="44">
+        <v>45691</v>
+      </c>
+      <c r="E1596" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1597" s="44" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B1597" s="44" t="s">
+        <v>1963</v>
+      </c>
+      <c r="C1597" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1597" s="44">
+        <v>45841</v>
+      </c>
+      <c r="E1597" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1598" s="44" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B1598" s="44" t="s">
+        <v>1963</v>
+      </c>
+      <c r="C1598" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1598" s="44">
+        <v>45872</v>
+      </c>
+      <c r="E1598" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1599" s="45" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B1599" s="45" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C1599" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1599" s="45">
+        <v>45780</v>
+      </c>
+      <c r="E1599" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1600" s="45" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B1600" s="45" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C1600" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1600" s="45">
+        <v>45933</v>
+      </c>
+      <c r="E1600" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1601" s="45" t="s">
+        <v>1977</v>
+      </c>
+      <c r="B1601" s="45" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C1601" s="45" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1601" s="45">
+        <v>45811</v>
+      </c>
+      <c r="E1601" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1602" s="45" t="s">
+        <v>1978</v>
+      </c>
+      <c r="B1602" s="45" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C1602" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1602" s="45">
+        <v>45719</v>
+      </c>
+      <c r="E1602" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1603" s="45" t="s">
+        <v>1979</v>
+      </c>
+      <c r="B1603" s="45" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C1603" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1603" s="45">
+        <v>45660</v>
+      </c>
+      <c r="E1603" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1604" s="45" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B1604" s="45" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C1604" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1604" s="45">
+        <v>45691</v>
+      </c>
+      <c r="E1604" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1605" s="45" t="s">
+        <v>1981</v>
+      </c>
+      <c r="B1605" s="45" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C1605" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1605" s="45">
+        <v>45841</v>
+      </c>
+      <c r="E1605" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1606" s="45" t="s">
+        <v>1982</v>
+      </c>
+      <c r="B1606" s="45" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C1606" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1606" s="45">
+        <v>45872</v>
+      </c>
+      <c r="E1606" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1607" s="44" t="s">
+        <v>1983</v>
+      </c>
+      <c r="B1607" s="51" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C1607" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1607" s="44">
+        <v>45780</v>
+      </c>
+      <c r="E1607" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1608" s="44" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B1608" s="51" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C1608" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1608" s="44">
+        <v>45933</v>
+      </c>
+      <c r="E1608" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1609" s="44" t="s">
+        <v>1985</v>
+      </c>
+      <c r="B1609" s="51" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C1609" s="44" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1609" s="44">
+        <v>45811</v>
+      </c>
+      <c r="E1609" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1610" s="44" t="s">
+        <v>1986</v>
+      </c>
+      <c r="B1610" s="51" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C1610" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1610" s="44">
+        <v>45719</v>
+      </c>
+      <c r="E1610" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1611" s="44" t="s">
+        <v>1987</v>
+      </c>
+      <c r="B1611" s="51" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C1611" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1611" s="44">
+        <v>45660</v>
+      </c>
+      <c r="E1611" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1612" s="44" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B1612" s="51" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C1612" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1612" s="44">
+        <v>45691</v>
+      </c>
+      <c r="E1612" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1613" s="44" t="s">
+        <v>1989</v>
+      </c>
+      <c r="B1613" s="51" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C1613" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1613" s="44">
+        <v>45841</v>
+      </c>
+      <c r="E1613" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1614" s="44" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B1614" s="51" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C1614" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1614" s="44">
+        <v>45872</v>
+      </c>
+      <c r="E1614" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1615" s="45" t="s">
+        <v>1991</v>
+      </c>
+      <c r="B1615" s="45" t="s">
+        <v>1964</v>
+      </c>
+      <c r="C1615" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1615" s="45">
+        <v>45780</v>
+      </c>
+      <c r="E1615" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1616" s="45" t="s">
+        <v>1992</v>
+      </c>
+      <c r="B1616" s="45" t="s">
+        <v>1964</v>
+      </c>
+      <c r="C1616" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1616" s="45">
+        <v>45933</v>
+      </c>
+      <c r="E1616" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1617" s="45" t="s">
+        <v>1993</v>
+      </c>
+      <c r="B1617" s="45" t="s">
+        <v>1964</v>
+      </c>
+      <c r="C1617" s="45" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1617" s="45">
+        <v>45811</v>
+      </c>
+      <c r="E1617" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1618" s="45" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B1618" s="45" t="s">
+        <v>1964</v>
+      </c>
+      <c r="C1618" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1618" s="45">
+        <v>45719</v>
+      </c>
+      <c r="E1618" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1619" s="45" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B1619" s="45" t="s">
+        <v>1964</v>
+      </c>
+      <c r="C1619" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1619" s="45">
+        <v>45660</v>
+      </c>
+      <c r="E1619" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1620" s="45" t="s">
+        <v>1996</v>
+      </c>
+      <c r="B1620" s="45" t="s">
+        <v>1964</v>
+      </c>
+      <c r="C1620" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1620" s="45">
+        <v>45691</v>
+      </c>
+      <c r="E1620" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1621" s="45" t="s">
+        <v>1997</v>
+      </c>
+      <c r="B1621" s="45" t="s">
+        <v>1964</v>
+      </c>
+      <c r="C1621" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1621" s="45">
+        <v>45841</v>
+      </c>
+      <c r="E1621" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1622" s="45" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B1622" s="45" t="s">
+        <v>1964</v>
+      </c>
+      <c r="C1622" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1622" s="45">
+        <v>45872</v>
+      </c>
+      <c r="E1622" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1623" s="44" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B1623" s="44" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C1623" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1623" s="44">
+        <v>45780</v>
+      </c>
+      <c r="E1623" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1624" s="44" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B1624" s="44" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C1624" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1624" s="44">
+        <v>45933</v>
+      </c>
+      <c r="E1624" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1625" s="44" t="s">
+        <v>2001</v>
+      </c>
+      <c r="B1625" s="44" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C1625" s="44" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1625" s="44">
+        <v>45811</v>
+      </c>
+      <c r="E1625" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1626" s="44" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B1626" s="44" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C1626" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1626" s="44">
+        <v>45719</v>
+      </c>
+      <c r="E1626" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1627" s="44" t="s">
+        <v>2003</v>
+      </c>
+      <c r="B1627" s="44" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C1627" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1627" s="44">
+        <v>45660</v>
+      </c>
+      <c r="E1627" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1628" s="44" t="s">
+        <v>2004</v>
+      </c>
+      <c r="B1628" s="44" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C1628" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1628" s="44">
+        <v>45691</v>
+      </c>
+      <c r="E1628" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1629" s="44" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B1629" s="44" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C1629" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1629" s="44">
+        <v>45841</v>
+      </c>
+      <c r="E1629" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1630" s="44" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B1630" s="44" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C1630" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1630" s="44">
+        <v>45872</v>
+      </c>
+      <c r="E1630" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1631" s="45" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B1631" s="45" t="s">
+        <v>1966</v>
+      </c>
+      <c r="C1631" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1631" s="45">
+        <v>45780</v>
+      </c>
+      <c r="E1631" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1632" s="45" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B1632" s="45" t="s">
+        <v>1966</v>
+      </c>
+      <c r="C1632" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1632" s="45">
+        <v>45933</v>
+      </c>
+      <c r="E1632" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1633" s="45" t="s">
+        <v>2009</v>
+      </c>
+      <c r="B1633" s="45" t="s">
+        <v>1966</v>
+      </c>
+      <c r="C1633" s="45" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1633" s="45">
+        <v>45811</v>
+      </c>
+      <c r="E1633" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1634" s="45" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B1634" s="45" t="s">
+        <v>1966</v>
+      </c>
+      <c r="C1634" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1634" s="45">
+        <v>45719</v>
+      </c>
+      <c r="E1634" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1635" s="45" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B1635" s="45" t="s">
+        <v>1966</v>
+      </c>
+      <c r="C1635" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1635" s="45">
+        <v>45660</v>
+      </c>
+      <c r="E1635" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1636" s="45" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B1636" s="45" t="s">
+        <v>1966</v>
+      </c>
+      <c r="C1636" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1636" s="45">
+        <v>45691</v>
+      </c>
+      <c r="E1636" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1637" s="45" t="s">
+        <v>2013</v>
+      </c>
+      <c r="B1637" s="45" t="s">
+        <v>1966</v>
+      </c>
+      <c r="C1637" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1637" s="45">
+        <v>45841</v>
+      </c>
+      <c r="E1637" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1638" s="45" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B1638" s="45" t="s">
+        <v>1966</v>
+      </c>
+      <c r="C1638" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1638" s="45">
+        <v>45872</v>
+      </c>
+      <c r="E1638" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1639" s="44" t="s">
+        <v>2016</v>
+      </c>
+      <c r="B1639" s="44" t="s">
+        <v>2015</v>
+      </c>
+      <c r="C1639" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1639" s="44">
+        <v>45780</v>
+      </c>
+      <c r="E1639" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1640" s="44" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B1640" s="44" t="s">
+        <v>2015</v>
+      </c>
+      <c r="C1640" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1640" s="44">
+        <v>45933</v>
+      </c>
+      <c r="E1640" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1641" s="44" t="s">
+        <v>2018</v>
+      </c>
+      <c r="B1641" s="44" t="s">
+        <v>2015</v>
+      </c>
+      <c r="C1641" s="44" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1641" s="44">
+        <v>45811</v>
+      </c>
+      <c r="E1641" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1642" s="44" t="s">
+        <v>2019</v>
+      </c>
+      <c r="B1642" s="44" t="s">
+        <v>2015</v>
+      </c>
+      <c r="C1642" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1642" s="44">
+        <v>45719</v>
+      </c>
+      <c r="E1642" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1643" s="44" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B1643" s="44" t="s">
+        <v>2015</v>
+      </c>
+      <c r="C1643" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1643" s="44">
+        <v>45660</v>
+      </c>
+      <c r="E1643" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1644" s="44" t="s">
+        <v>2021</v>
+      </c>
+      <c r="B1644" s="44" t="s">
+        <v>2015</v>
+      </c>
+      <c r="C1644" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1644" s="44">
+        <v>45691</v>
+      </c>
+      <c r="E1644" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1645" s="44" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B1645" s="44" t="s">
+        <v>2015</v>
+      </c>
+      <c r="C1645" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1645" s="44">
+        <v>45841</v>
+      </c>
+      <c r="E1645" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1646" s="44" t="s">
+        <v>2023</v>
+      </c>
+      <c r="B1646" s="44" t="s">
+        <v>2015</v>
+      </c>
+      <c r="C1646" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1646" s="44">
+        <v>45872</v>
+      </c>
+      <c r="E1646" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1647" s="45" t="s">
+        <v>2025</v>
+      </c>
+      <c r="B1647" s="45" t="s">
+        <v>2024</v>
+      </c>
+      <c r="C1647" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1647" s="45">
+        <v>45780</v>
+      </c>
+      <c r="E1647" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1648" s="45" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B1648" s="45" t="s">
+        <v>2024</v>
+      </c>
+      <c r="C1648" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1648" s="45">
+        <v>45933</v>
+      </c>
+      <c r="E1648" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1649" s="45" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B1649" s="45" t="s">
+        <v>2024</v>
+      </c>
+      <c r="C1649" s="45" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1649" s="45">
+        <v>45811</v>
+      </c>
+      <c r="E1649" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1650" s="45" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B1650" s="45" t="s">
+        <v>2024</v>
+      </c>
+      <c r="C1650" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1650" s="45">
+        <v>45719</v>
+      </c>
+      <c r="E1650" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1651" s="45" t="s">
+        <v>2029</v>
+      </c>
+      <c r="B1651" s="45" t="s">
+        <v>2024</v>
+      </c>
+      <c r="C1651" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1651" s="45">
+        <v>45660</v>
+      </c>
+      <c r="E1651" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1652" s="45" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B1652" s="45" t="s">
+        <v>2024</v>
+      </c>
+      <c r="C1652" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1652" s="45">
+        <v>45691</v>
+      </c>
+      <c r="E1652" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1653" s="45" t="s">
+        <v>2031</v>
+      </c>
+      <c r="B1653" s="45" t="s">
+        <v>2024</v>
+      </c>
+      <c r="C1653" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1653" s="45">
+        <v>45841</v>
+      </c>
+      <c r="E1653" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1654" s="45" t="s">
+        <v>2032</v>
+      </c>
+      <c r="B1654" s="45" t="s">
+        <v>2024</v>
+      </c>
+      <c r="C1654" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1654" s="45">
+        <v>45872</v>
+      </c>
+      <c r="E1654" s="17">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5758" uniqueCount="2033">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5761" uniqueCount="2034">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -6129,6 +6129,9 @@
   </si>
   <si>
     <t>DSS2653</t>
+  </si>
+  <si>
+    <t>DSS2654</t>
   </si>
 </sst>
 </file>
@@ -6789,10 +6792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1654"/>
+  <dimension ref="A1:E1655"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1633" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D1659" sqref="D1659"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1645" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B1658" sqref="B1658"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34536,6 +34539,23 @@
         <v>45872</v>
       </c>
       <c r="E1654" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1655" s="44" t="s">
+        <v>2033</v>
+      </c>
+      <c r="B1655" s="44" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1655" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="D1655" s="44">
+        <v>45995</v>
+      </c>
+      <c r="E1655" s="17">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5761" uniqueCount="2034">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5762" uniqueCount="2035">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -6132,6 +6132,9 @@
   </si>
   <si>
     <t>DSS2654</t>
+  </si>
+  <si>
+    <t>27/4/2025</t>
   </si>
 </sst>
 </file>
@@ -6784,7 +6787,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6795,7 +6798,7 @@
   <dimension ref="A1:E1655"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1645" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B1658" sqref="B1658"/>
+      <selection activeCell="D1659" sqref="D1659"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34552,8 +34555,8 @@
       <c r="C1655" s="44" t="s">
         <v>462</v>
       </c>
-      <c r="D1655" s="44">
-        <v>45995</v>
+      <c r="D1655" s="44" t="s">
+        <v>2034</v>
       </c>
       <c r="E1655" s="17">
         <v>1</v>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5810" uniqueCount="2053">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5814" uniqueCount="2056">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -6189,6 +6189,15 @@
   </si>
   <si>
     <t>Mohamed Roshdy Abdelazim Abbady</t>
+  </si>
+  <si>
+    <t>26-3-2025</t>
+  </si>
+  <si>
+    <t>Incident Investigation</t>
+  </si>
+  <si>
+    <t>DSS2671</t>
   </si>
 </sst>
 </file>
@@ -6845,7 +6854,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6853,10 +6862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1671"/>
+  <dimension ref="A1:E1672"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1648" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I1668" sqref="I1668"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1652" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B1672" sqref="B1672"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34890,6 +34899,20 @@
       </c>
       <c r="E1671" s="13">
         <v>1</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1672" s="36" t="s">
+        <v>2055</v>
+      </c>
+      <c r="B1672" s="60" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C1672" s="36" t="s">
+        <v>2054</v>
+      </c>
+      <c r="D1672" s="36" t="s">
+        <v>2053</v>
       </c>
     </row>
   </sheetData>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$695</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$1674</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$1694</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5814" uniqueCount="2056">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5862" uniqueCount="2074">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -6198,6 +6198,60 @@
   </si>
   <si>
     <t>DSS2671</t>
+  </si>
+  <si>
+    <t>Mohamed Eltaher Othman Elsayed Ibrahim</t>
+  </si>
+  <si>
+    <t>DSS2672</t>
+  </si>
+  <si>
+    <t>DSS2673</t>
+  </si>
+  <si>
+    <t>DSS2674</t>
+  </si>
+  <si>
+    <t>DSS2675</t>
+  </si>
+  <si>
+    <t>DSS2676</t>
+  </si>
+  <si>
+    <t>DSS2677</t>
+  </si>
+  <si>
+    <t>DSS2678</t>
+  </si>
+  <si>
+    <t>DSS2679</t>
+  </si>
+  <si>
+    <t>Mohamed Ali El sayed Ibrahim</t>
+  </si>
+  <si>
+    <t>DSS2680</t>
+  </si>
+  <si>
+    <t>DSS2681</t>
+  </si>
+  <si>
+    <t>DSS2682</t>
+  </si>
+  <si>
+    <t>DSS2683</t>
+  </si>
+  <si>
+    <t>DSS2684</t>
+  </si>
+  <si>
+    <t>DSS2685</t>
+  </si>
+  <si>
+    <t>DSS2686</t>
+  </si>
+  <si>
+    <t>DSS2687</t>
   </si>
 </sst>
 </file>
@@ -6862,10 +6916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1672"/>
+  <dimension ref="A1:E1688"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1652" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B1672" sqref="B1672"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1667" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I1683" sqref="I1683"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34914,13 +34968,288 @@
       <c r="D1672" s="36" t="s">
         <v>2053</v>
       </c>
+      <c r="E1672" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1673" s="35" t="s">
+        <v>2057</v>
+      </c>
+      <c r="B1673" s="35" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C1673" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1673" s="35">
+        <v>45781</v>
+      </c>
+      <c r="E1673" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1674" s="35" t="s">
+        <v>2058</v>
+      </c>
+      <c r="B1674" s="35" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C1674" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1674" s="35">
+        <v>45934</v>
+      </c>
+      <c r="E1674" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1675" s="35" t="s">
+        <v>2059</v>
+      </c>
+      <c r="B1675" s="35" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C1675" s="35" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1675" s="35">
+        <v>45812</v>
+      </c>
+      <c r="E1675" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1676" s="35" t="s">
+        <v>2060</v>
+      </c>
+      <c r="B1676" s="35" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C1676" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1676" s="35">
+        <v>45720</v>
+      </c>
+      <c r="E1676" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1677" s="35" t="s">
+        <v>2061</v>
+      </c>
+      <c r="B1677" s="35" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C1677" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1677" s="35">
+        <v>45661</v>
+      </c>
+      <c r="E1677" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1678" s="35" t="s">
+        <v>2062</v>
+      </c>
+      <c r="B1678" s="35" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C1678" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1678" s="35">
+        <v>45692</v>
+      </c>
+      <c r="E1678" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1679" s="35" t="s">
+        <v>2063</v>
+      </c>
+      <c r="B1679" s="35" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C1679" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1679" s="35">
+        <v>45842</v>
+      </c>
+      <c r="E1679" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1680" s="35" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B1680" s="35" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C1680" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1680" s="35">
+        <v>45873</v>
+      </c>
+      <c r="E1680" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1681" s="36" t="s">
+        <v>2066</v>
+      </c>
+      <c r="B1681" s="36" t="s">
+        <v>2065</v>
+      </c>
+      <c r="C1681" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1681" s="36">
+        <v>45781</v>
+      </c>
+      <c r="E1681" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1682" s="36" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1682" s="36" t="s">
+        <v>2065</v>
+      </c>
+      <c r="C1682" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1682" s="36">
+        <v>45934</v>
+      </c>
+      <c r="E1682" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1683" s="36" t="s">
+        <v>2068</v>
+      </c>
+      <c r="B1683" s="36" t="s">
+        <v>2065</v>
+      </c>
+      <c r="C1683" s="36" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1683" s="36">
+        <v>45812</v>
+      </c>
+      <c r="E1683" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1684" s="36" t="s">
+        <v>2069</v>
+      </c>
+      <c r="B1684" s="36" t="s">
+        <v>2065</v>
+      </c>
+      <c r="C1684" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1684" s="36">
+        <v>45720</v>
+      </c>
+      <c r="E1684" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1685" s="36" t="s">
+        <v>2070</v>
+      </c>
+      <c r="B1685" s="36" t="s">
+        <v>2065</v>
+      </c>
+      <c r="C1685" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1685" s="36">
+        <v>45661</v>
+      </c>
+      <c r="E1685" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1686" s="36" t="s">
+        <v>2071</v>
+      </c>
+      <c r="B1686" s="36" t="s">
+        <v>2065</v>
+      </c>
+      <c r="C1686" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1686" s="36">
+        <v>45692</v>
+      </c>
+      <c r="E1686" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1687" s="36" t="s">
+        <v>2072</v>
+      </c>
+      <c r="B1687" s="36" t="s">
+        <v>2065</v>
+      </c>
+      <c r="C1687" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1687" s="36">
+        <v>45842</v>
+      </c>
+      <c r="E1687" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1688" s="36" t="s">
+        <v>2073</v>
+      </c>
+      <c r="B1688" s="36" t="s">
+        <v>2065</v>
+      </c>
+      <c r="C1688" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1688" s="36">
+        <v>45873</v>
+      </c>
+      <c r="E1688" s="13">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E695"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="40" orientation="portrait" r:id="rId1"/>
-  <rowBreaks count="12" manualBreakCount="12">
+  <rowBreaks count="13" manualBreakCount="13">
     <brk id="70" max="16383" man="1"/>
     <brk id="409" max="4" man="1"/>
     <brk id="493" max="4" man="1"/>
@@ -34933,6 +35262,7 @@
     <brk id="1242" max="4" man="1"/>
     <brk id="1343" max="4" man="1"/>
     <brk id="1562" max="4" man="1"/>
+    <brk id="1671" max="4" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$695</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$1694</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$1708</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5862" uniqueCount="2074">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5865" uniqueCount="2077">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -6252,6 +6252,15 @@
   </si>
   <si>
     <t>DSS2687</t>
+  </si>
+  <si>
+    <t>YEHYA ZOHRY EID ALY</t>
+  </si>
+  <si>
+    <t>DSS2696</t>
+  </si>
+  <si>
+    <t>SCAFFOLDING SUPERVISOR</t>
   </si>
 </sst>
 </file>
@@ -6908,7 +6917,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6916,10 +6925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1688"/>
+  <dimension ref="A1:E1697"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1667" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I1683" sqref="I1683"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1682" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B1697" sqref="B1697"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35241,6 +35250,71 @@
         <v>45873</v>
       </c>
       <c r="E1688" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1689" s="35"/>
+      <c r="B1689" s="35"/>
+      <c r="C1689" s="35"/>
+      <c r="D1689" s="35"/>
+    </row>
+    <row r="1690" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1690" s="35"/>
+      <c r="B1690" s="35"/>
+      <c r="C1690" s="35"/>
+      <c r="D1690" s="35"/>
+    </row>
+    <row r="1691" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1691" s="35"/>
+      <c r="B1691" s="35"/>
+      <c r="C1691" s="35"/>
+      <c r="D1691" s="35"/>
+    </row>
+    <row r="1692" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1692" s="35"/>
+      <c r="B1692" s="35"/>
+      <c r="C1692" s="35"/>
+      <c r="D1692" s="35"/>
+    </row>
+    <row r="1693" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1693" s="35"/>
+      <c r="B1693" s="35"/>
+      <c r="C1693" s="35"/>
+      <c r="D1693" s="35"/>
+    </row>
+    <row r="1694" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1694" s="35"/>
+      <c r="B1694" s="35"/>
+      <c r="C1694" s="35"/>
+      <c r="D1694" s="35"/>
+    </row>
+    <row r="1695" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1695" s="35"/>
+      <c r="B1695" s="35"/>
+      <c r="C1695" s="35"/>
+      <c r="D1695" s="35"/>
+    </row>
+    <row r="1696" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1696" s="35"/>
+      <c r="B1696" s="35"/>
+      <c r="C1696" s="35"/>
+      <c r="D1696" s="35"/>
+    </row>
+    <row r="1697" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1697" s="36" t="s">
+        <v>2075</v>
+      </c>
+      <c r="B1697" s="36" t="s">
+        <v>2074</v>
+      </c>
+      <c r="C1697" s="36" t="s">
+        <v>2076</v>
+      </c>
+      <c r="D1697" s="36">
+        <v>45507</v>
+      </c>
+      <c r="E1697" s="13">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$695</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$1708</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$1897</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5865" uniqueCount="2077">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6473" uniqueCount="2303">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -5870,30 +5870,6 @@
     <t>DSS2573</t>
   </si>
   <si>
-    <t>DSS2574</t>
-  </si>
-  <si>
-    <t>DSS2575</t>
-  </si>
-  <si>
-    <t>DSS2576</t>
-  </si>
-  <si>
-    <t>DSS2577</t>
-  </si>
-  <si>
-    <t>DSS2578</t>
-  </si>
-  <si>
-    <t>DSS2579</t>
-  </si>
-  <si>
-    <t>DSS2580</t>
-  </si>
-  <si>
-    <t>DSS2581</t>
-  </si>
-  <si>
     <t>Ahmed Mohamed Abdel-al  Ali</t>
   </si>
   <si>
@@ -6261,6 +6237,708 @@
   </si>
   <si>
     <t>SCAFFOLDING SUPERVISOR</t>
+  </si>
+  <si>
+    <t>Abdulhameed Mustafa Abdulhadi Al Bagouri</t>
+  </si>
+  <si>
+    <t>Mostafa Elsayed Mostafa Mohamed Ali</t>
+  </si>
+  <si>
+    <t>Mahmoud Mohamed Ali Mohaseb</t>
+  </si>
+  <si>
+    <t>Nidal Rafiq Yousef Al Shaer</t>
+  </si>
+  <si>
+    <t>Mikko Flores Pabuna</t>
+  </si>
+  <si>
+    <t>Ali Muhammad Najye Zaky</t>
+  </si>
+  <si>
+    <t>Mohamed Ali Saber Mahmoud</t>
+  </si>
+  <si>
+    <t>AHMED MAHMOUD MOHAMED ZAMZAM</t>
+  </si>
+  <si>
+    <t>Mohamed Mubarak Suliman Rahma</t>
+  </si>
+  <si>
+    <t>ELSAYED ALI MOHAMED ELSAYED</t>
+  </si>
+  <si>
+    <t>Mohamed Modawi Basheer Abdallah</t>
+  </si>
+  <si>
+    <t>Maksimous Magdy Erian Hemaia</t>
+  </si>
+  <si>
+    <t>Ahmed Mohamed Elsayed Ahmed Ali</t>
+  </si>
+  <si>
+    <t>AHMED ISSA ABDELHAMED YOUSSEF</t>
+  </si>
+  <si>
+    <t>Akram Hussein Mahmoud Salem</t>
+  </si>
+  <si>
+    <t>Bassam Nabulsi</t>
+  </si>
+  <si>
+    <t>RAFIA MOHAMMED JUMMAH</t>
+  </si>
+  <si>
+    <t>Adel Mahmoud Ahmad Abu-Shalha</t>
+  </si>
+  <si>
+    <t>FARES ATTIA IBRAHIM ELSAYAD</t>
+  </si>
+  <si>
+    <t>DSS2697</t>
+  </si>
+  <si>
+    <t>DSS2698</t>
+  </si>
+  <si>
+    <t>DSS2699</t>
+  </si>
+  <si>
+    <t>DSS2700</t>
+  </si>
+  <si>
+    <t>DSS2701</t>
+  </si>
+  <si>
+    <t>DSS2702</t>
+  </si>
+  <si>
+    <t>DSS2703</t>
+  </si>
+  <si>
+    <t>DSS2704</t>
+  </si>
+  <si>
+    <t>DSS2705</t>
+  </si>
+  <si>
+    <t>DSS2706</t>
+  </si>
+  <si>
+    <t>DSS2707</t>
+  </si>
+  <si>
+    <t>DSS2708</t>
+  </si>
+  <si>
+    <t>DSS2709</t>
+  </si>
+  <si>
+    <t>DSS2710</t>
+  </si>
+  <si>
+    <t>DSS2711</t>
+  </si>
+  <si>
+    <t>DSS2712</t>
+  </si>
+  <si>
+    <t>DSS2713</t>
+  </si>
+  <si>
+    <t>DSS2714</t>
+  </si>
+  <si>
+    <t>DSS2715</t>
+  </si>
+  <si>
+    <t>DSS2716</t>
+  </si>
+  <si>
+    <t>DSS2717</t>
+  </si>
+  <si>
+    <t>DSS2718</t>
+  </si>
+  <si>
+    <t>DSS2719</t>
+  </si>
+  <si>
+    <t>DSS2720</t>
+  </si>
+  <si>
+    <t>DSS2721</t>
+  </si>
+  <si>
+    <t>DSS2722</t>
+  </si>
+  <si>
+    <t>DSS2723</t>
+  </si>
+  <si>
+    <t>DSS2724</t>
+  </si>
+  <si>
+    <t>DSS2725</t>
+  </si>
+  <si>
+    <t>DSS2726</t>
+  </si>
+  <si>
+    <t>DSS2727</t>
+  </si>
+  <si>
+    <t>DSS2728</t>
+  </si>
+  <si>
+    <t>DSS2729</t>
+  </si>
+  <si>
+    <t>DSS2730</t>
+  </si>
+  <si>
+    <t>DSS2731</t>
+  </si>
+  <si>
+    <t>DSS2732</t>
+  </si>
+  <si>
+    <t>DSS2733</t>
+  </si>
+  <si>
+    <t>DSS2734</t>
+  </si>
+  <si>
+    <t>DSS2735</t>
+  </si>
+  <si>
+    <t>DSS2736</t>
+  </si>
+  <si>
+    <t>DSS2737</t>
+  </si>
+  <si>
+    <t>DSS2738</t>
+  </si>
+  <si>
+    <t>DSS2739</t>
+  </si>
+  <si>
+    <t>DSS2740</t>
+  </si>
+  <si>
+    <t>DSS2741</t>
+  </si>
+  <si>
+    <t>DSS2742</t>
+  </si>
+  <si>
+    <t>DSS2743</t>
+  </si>
+  <si>
+    <t>DSS2744</t>
+  </si>
+  <si>
+    <t>DSS2745</t>
+  </si>
+  <si>
+    <t>DSS2746</t>
+  </si>
+  <si>
+    <t>DSS2747</t>
+  </si>
+  <si>
+    <t>DSS2748</t>
+  </si>
+  <si>
+    <t>DSS2749</t>
+  </si>
+  <si>
+    <t>DSS2750</t>
+  </si>
+  <si>
+    <t>DSS2751</t>
+  </si>
+  <si>
+    <t>DSS2752</t>
+  </si>
+  <si>
+    <t>DSS2753</t>
+  </si>
+  <si>
+    <t>DSS2754</t>
+  </si>
+  <si>
+    <t>DSS2755</t>
+  </si>
+  <si>
+    <t>DSS2756</t>
+  </si>
+  <si>
+    <t>DSS2757</t>
+  </si>
+  <si>
+    <t>DSS2758</t>
+  </si>
+  <si>
+    <t>DSS2759</t>
+  </si>
+  <si>
+    <t>DSS2760</t>
+  </si>
+  <si>
+    <t>DSS2761</t>
+  </si>
+  <si>
+    <t>DSS2762</t>
+  </si>
+  <si>
+    <t>DSS2763</t>
+  </si>
+  <si>
+    <t>DSS2764</t>
+  </si>
+  <si>
+    <t>DSS2765</t>
+  </si>
+  <si>
+    <t>DSS2766</t>
+  </si>
+  <si>
+    <t>DSS2767</t>
+  </si>
+  <si>
+    <t>DSS2768</t>
+  </si>
+  <si>
+    <t>DSS2769</t>
+  </si>
+  <si>
+    <t>DSS2770</t>
+  </si>
+  <si>
+    <t>DSS2771</t>
+  </si>
+  <si>
+    <t>DSS2772</t>
+  </si>
+  <si>
+    <t>DSS2773</t>
+  </si>
+  <si>
+    <t>DSS2774</t>
+  </si>
+  <si>
+    <t>DSS2775</t>
+  </si>
+  <si>
+    <t>DSS2776</t>
+  </si>
+  <si>
+    <t>DSS2777</t>
+  </si>
+  <si>
+    <t>DSS2778</t>
+  </si>
+  <si>
+    <t>DSS2779</t>
+  </si>
+  <si>
+    <t>DSS2780</t>
+  </si>
+  <si>
+    <t>DSS2781</t>
+  </si>
+  <si>
+    <t>DSS2782</t>
+  </si>
+  <si>
+    <t>DSS2783</t>
+  </si>
+  <si>
+    <t>DSS2784</t>
+  </si>
+  <si>
+    <t>DSS2793</t>
+  </si>
+  <si>
+    <t>DSS2794</t>
+  </si>
+  <si>
+    <t>DSS2795</t>
+  </si>
+  <si>
+    <t>DSS2796</t>
+  </si>
+  <si>
+    <t>DSS2797</t>
+  </si>
+  <si>
+    <t>DSS2798</t>
+  </si>
+  <si>
+    <t>DSS2799</t>
+  </si>
+  <si>
+    <t>DSS2800</t>
+  </si>
+  <si>
+    <t>DSS2801</t>
+  </si>
+  <si>
+    <t>DSS2802</t>
+  </si>
+  <si>
+    <t>DSS2803</t>
+  </si>
+  <si>
+    <t>DSS2804</t>
+  </si>
+  <si>
+    <t>DSS2805</t>
+  </si>
+  <si>
+    <t>DSS2806</t>
+  </si>
+  <si>
+    <t>DSS2807</t>
+  </si>
+  <si>
+    <t>DSS2808</t>
+  </si>
+  <si>
+    <t>DSS2809</t>
+  </si>
+  <si>
+    <t>DSS2810</t>
+  </si>
+  <si>
+    <t>DSS2811</t>
+  </si>
+  <si>
+    <t>DSS2812</t>
+  </si>
+  <si>
+    <t>DSS2813</t>
+  </si>
+  <si>
+    <t>DSS2814</t>
+  </si>
+  <si>
+    <t>DSS2815</t>
+  </si>
+  <si>
+    <t>DSS2816</t>
+  </si>
+  <si>
+    <t>DSS2817</t>
+  </si>
+  <si>
+    <t>DSS2818</t>
+  </si>
+  <si>
+    <t>DSS2819</t>
+  </si>
+  <si>
+    <t>DSS2820</t>
+  </si>
+  <si>
+    <t>DSS2821</t>
+  </si>
+  <si>
+    <t>DSS2822</t>
+  </si>
+  <si>
+    <t>DSS2823</t>
+  </si>
+  <si>
+    <t>DSS2824</t>
+  </si>
+  <si>
+    <t>DSS2825</t>
+  </si>
+  <si>
+    <t>DSS2826</t>
+  </si>
+  <si>
+    <t>DSS2827</t>
+  </si>
+  <si>
+    <t>DSS2828</t>
+  </si>
+  <si>
+    <t>DSS2829</t>
+  </si>
+  <si>
+    <t>DSS2830</t>
+  </si>
+  <si>
+    <t>DSS2831</t>
+  </si>
+  <si>
+    <t>DSS2832</t>
+  </si>
+  <si>
+    <t>DSS2833</t>
+  </si>
+  <si>
+    <t>DSS2834</t>
+  </si>
+  <si>
+    <t>DSS2835</t>
+  </si>
+  <si>
+    <t>DSS2836</t>
+  </si>
+  <si>
+    <t>DSS2837</t>
+  </si>
+  <si>
+    <t>DSS2838</t>
+  </si>
+  <si>
+    <t>DSS2839</t>
+  </si>
+  <si>
+    <t>DSS2840</t>
+  </si>
+  <si>
+    <t>DSS2841</t>
+  </si>
+  <si>
+    <t>DSS2842</t>
+  </si>
+  <si>
+    <t>DSS2843</t>
+  </si>
+  <si>
+    <t>DSS2844</t>
+  </si>
+  <si>
+    <t>DSS2845</t>
+  </si>
+  <si>
+    <t>DSS2846</t>
+  </si>
+  <si>
+    <t>DSS2847</t>
+  </si>
+  <si>
+    <t>DSS2848</t>
+  </si>
+  <si>
+    <t>DSS2849</t>
+  </si>
+  <si>
+    <t>DSS2850</t>
+  </si>
+  <si>
+    <t>DSS2851</t>
+  </si>
+  <si>
+    <t>DSS2852</t>
+  </si>
+  <si>
+    <t>DSS2853</t>
+  </si>
+  <si>
+    <t>DSS2854</t>
+  </si>
+  <si>
+    <t>DSS2855</t>
+  </si>
+  <si>
+    <t>DSS2856</t>
+  </si>
+  <si>
+    <t>DSS2857</t>
+  </si>
+  <si>
+    <t>DSS2858</t>
+  </si>
+  <si>
+    <t>DSS2859</t>
+  </si>
+  <si>
+    <t>DSS2860</t>
+  </si>
+  <si>
+    <t>DSS2861</t>
+  </si>
+  <si>
+    <t>DSS2862</t>
+  </si>
+  <si>
+    <t>DSS2863</t>
+  </si>
+  <si>
+    <t>DSS2864</t>
+  </si>
+  <si>
+    <t>DSS2688</t>
+  </si>
+  <si>
+    <t>DSS2689</t>
+  </si>
+  <si>
+    <t>DSS2690</t>
+  </si>
+  <si>
+    <t>DSS2691</t>
+  </si>
+  <si>
+    <t>DSS2692</t>
+  </si>
+  <si>
+    <t>DSS2693</t>
+  </si>
+  <si>
+    <t>DSS2694</t>
+  </si>
+  <si>
+    <t>DSS2695</t>
+  </si>
+  <si>
+    <t>Ahmed Hamada Fouad Abouelmagd</t>
+  </si>
+  <si>
+    <t>HASSAN ATTIA BAKHIT MOHAMED</t>
+  </si>
+  <si>
+    <t>MOHAMMED FOUZI AHMED ALHADAD</t>
+  </si>
+  <si>
+    <t>Mahmoud Hosny Khalaf Mohamed</t>
+  </si>
+  <si>
+    <t>DSS2865</t>
+  </si>
+  <si>
+    <t>DSS2866</t>
+  </si>
+  <si>
+    <t>DSS2867</t>
+  </si>
+  <si>
+    <t>DSS2868</t>
+  </si>
+  <si>
+    <t>DSS2869</t>
+  </si>
+  <si>
+    <t>DSS2870</t>
+  </si>
+  <si>
+    <t>DSS2871</t>
+  </si>
+  <si>
+    <t>DSS2872</t>
+  </si>
+  <si>
+    <t>DSS2873</t>
+  </si>
+  <si>
+    <t>DSS2874</t>
+  </si>
+  <si>
+    <t>DSS2875</t>
+  </si>
+  <si>
+    <t>DSS2876</t>
+  </si>
+  <si>
+    <t>DSS2877</t>
+  </si>
+  <si>
+    <t>DSS2878</t>
+  </si>
+  <si>
+    <t>DSS2879</t>
+  </si>
+  <si>
+    <t>DSS2880</t>
+  </si>
+  <si>
+    <t>Ahmed Gamal Hosni Elsayed</t>
+  </si>
+  <si>
+    <t>Ehab Abdelfattah Zakaria Abdallah</t>
+  </si>
+  <si>
+    <t>DSS2881</t>
+  </si>
+  <si>
+    <t>DSS2882</t>
+  </si>
+  <si>
+    <t>DSS2883</t>
+  </si>
+  <si>
+    <t>DSS2884</t>
+  </si>
+  <si>
+    <t>DSS2885</t>
+  </si>
+  <si>
+    <t>DSS2886</t>
+  </si>
+  <si>
+    <t>DSS2887</t>
+  </si>
+  <si>
+    <t>DSS2888</t>
+  </si>
+  <si>
+    <t>DSS2889</t>
+  </si>
+  <si>
+    <t>DSS2890</t>
+  </si>
+  <si>
+    <t>DSS2891</t>
+  </si>
+  <si>
+    <t>DSS2892</t>
+  </si>
+  <si>
+    <t>DSS2893</t>
+  </si>
+  <si>
+    <t>DSS2894</t>
+  </si>
+  <si>
+    <t>DSS2895</t>
+  </si>
+  <si>
+    <t>DSS2896</t>
+  </si>
+  <si>
+    <t>AHMED NASRULDEEN RAMADHAN ISMADIGH</t>
+  </si>
+  <si>
+    <t>DSS2897</t>
+  </si>
+  <si>
+    <t>DSS2898</t>
+  </si>
+  <si>
+    <t>DSS2899</t>
+  </si>
+  <si>
+    <t>DSS2900</t>
+  </si>
+  <si>
+    <t>DSS2901</t>
+  </si>
+  <si>
+    <t>DSS2902</t>
+  </si>
+  <si>
+    <t>DSS2903</t>
+  </si>
+  <si>
+    <t>DSS2904</t>
   </si>
 </sst>
 </file>
@@ -6463,7 +7141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -6644,6 +7322,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="8" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6925,10 +7606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1697"/>
+  <dimension ref="A1:E1889"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1682" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B1697" sqref="B1697"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1868" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H1883" sqref="H1883"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33332,14 +34013,16 @@
       </c>
     </row>
     <row r="1575" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1575" s="35" t="s">
+      <c r="A1575" s="36" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B1575" s="58" t="s">
         <v>1946</v>
       </c>
-      <c r="B1575" s="55"/>
-      <c r="C1575" s="35" t="s">
+      <c r="C1575" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D1575" s="35">
+      <c r="D1575" s="36">
         <v>45780</v>
       </c>
       <c r="E1575" s="13">
@@ -33347,14 +34030,16 @@
       </c>
     </row>
     <row r="1576" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1576" s="35" t="s">
-        <v>1947</v>
-      </c>
-      <c r="B1576" s="55"/>
-      <c r="C1576" s="35" t="s">
+      <c r="A1576" s="36" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B1576" s="58" t="s">
+        <v>1946</v>
+      </c>
+      <c r="C1576" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="D1576" s="35">
+      <c r="D1576" s="36">
         <v>45933</v>
       </c>
       <c r="E1576" s="13">
@@ -33362,14 +34047,16 @@
       </c>
     </row>
     <row r="1577" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1577" s="35" t="s">
-        <v>1948</v>
-      </c>
-      <c r="B1577" s="55"/>
-      <c r="C1577" s="35" t="s">
+      <c r="A1577" s="36" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B1577" s="58" t="s">
+        <v>1946</v>
+      </c>
+      <c r="C1577" s="36" t="s">
         <v>952</v>
       </c>
-      <c r="D1577" s="35">
+      <c r="D1577" s="36">
         <v>45811</v>
       </c>
       <c r="E1577" s="13">
@@ -33377,14 +34064,16 @@
       </c>
     </row>
     <row r="1578" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1578" s="35" t="s">
-        <v>1949</v>
-      </c>
-      <c r="B1578" s="55"/>
-      <c r="C1578" s="35" t="s">
+      <c r="A1578" s="36" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B1578" s="58" t="s">
+        <v>1946</v>
+      </c>
+      <c r="C1578" s="36" t="s">
         <v>262</v>
       </c>
-      <c r="D1578" s="35">
+      <c r="D1578" s="36">
         <v>45719</v>
       </c>
       <c r="E1578" s="13">
@@ -33392,14 +34081,16 @@
       </c>
     </row>
     <row r="1579" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1579" s="35" t="s">
-        <v>1950</v>
-      </c>
-      <c r="B1579" s="55"/>
-      <c r="C1579" s="35" t="s">
+      <c r="A1579" s="36" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B1579" s="58" t="s">
+        <v>1946</v>
+      </c>
+      <c r="C1579" s="36" t="s">
         <v>247</v>
       </c>
-      <c r="D1579" s="35">
+      <c r="D1579" s="36">
         <v>45660</v>
       </c>
       <c r="E1579" s="13">
@@ -33407,14 +34098,16 @@
       </c>
     </row>
     <row r="1580" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1580" s="35" t="s">
-        <v>1951</v>
-      </c>
-      <c r="B1580" s="55"/>
-      <c r="C1580" s="35" t="s">
+      <c r="A1580" s="36" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B1580" s="58" t="s">
+        <v>1946</v>
+      </c>
+      <c r="C1580" s="36" t="s">
         <v>263</v>
       </c>
-      <c r="D1580" s="35">
+      <c r="D1580" s="36">
         <v>45691</v>
       </c>
       <c r="E1580" s="13">
@@ -33422,14 +34115,16 @@
       </c>
     </row>
     <row r="1581" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1581" s="35" t="s">
-        <v>1952</v>
-      </c>
-      <c r="B1581" s="55"/>
-      <c r="C1581" s="35" t="s">
+      <c r="A1581" s="36" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B1581" s="58" t="s">
+        <v>1946</v>
+      </c>
+      <c r="C1581" s="36" t="s">
         <v>252</v>
       </c>
-      <c r="D1581" s="35">
+      <c r="D1581" s="36">
         <v>45841</v>
       </c>
       <c r="E1581" s="13">
@@ -33437,14 +34132,16 @@
       </c>
     </row>
     <row r="1582" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1582" s="35" t="s">
-        <v>1953</v>
-      </c>
-      <c r="B1582" s="55"/>
-      <c r="C1582" s="35" t="s">
+      <c r="A1582" s="36" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B1582" s="58" t="s">
+        <v>1946</v>
+      </c>
+      <c r="C1582" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="D1582" s="35">
+      <c r="D1582" s="36">
         <v>45872</v>
       </c>
       <c r="E1582" s="13">
@@ -33452,16 +34149,16 @@
       </c>
     </row>
     <row r="1583" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1583" s="36" t="s">
+      <c r="A1583" s="35" t="s">
+        <v>1959</v>
+      </c>
+      <c r="B1583" s="55" t="s">
         <v>1955</v>
       </c>
-      <c r="B1583" s="58" t="s">
-        <v>1954</v>
-      </c>
-      <c r="C1583" s="36" t="s">
+      <c r="C1583" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1583" s="36">
+      <c r="D1583" s="35">
         <v>45780</v>
       </c>
       <c r="E1583" s="13">
@@ -33469,1088 +34166,1088 @@
       </c>
     </row>
     <row r="1584" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1584" s="36" t="s">
+      <c r="A1584" s="35" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B1584" s="55" t="s">
+        <v>1955</v>
+      </c>
+      <c r="C1584" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1584" s="35">
+        <v>45933</v>
+      </c>
+      <c r="E1584" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1585" s="35" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B1585" s="55" t="s">
+        <v>1955</v>
+      </c>
+      <c r="C1585" s="35" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1585" s="35">
+        <v>45811</v>
+      </c>
+      <c r="E1585" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1586" s="35" t="s">
+        <v>1962</v>
+      </c>
+      <c r="B1586" s="55" t="s">
+        <v>1955</v>
+      </c>
+      <c r="C1586" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1586" s="35">
+        <v>45719</v>
+      </c>
+      <c r="E1586" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1587" s="35" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B1587" s="55" t="s">
+        <v>1955</v>
+      </c>
+      <c r="C1587" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1587" s="35">
+        <v>45660</v>
+      </c>
+      <c r="E1587" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1588" s="35" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B1588" s="55" t="s">
+        <v>1955</v>
+      </c>
+      <c r="C1588" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1588" s="35">
+        <v>45691</v>
+      </c>
+      <c r="E1588" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1589" s="35" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B1589" s="55" t="s">
+        <v>1955</v>
+      </c>
+      <c r="C1589" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1589" s="35">
+        <v>45841</v>
+      </c>
+      <c r="E1589" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1590" s="35" t="s">
+        <v>1966</v>
+      </c>
+      <c r="B1590" s="55" t="s">
+        <v>1955</v>
+      </c>
+      <c r="C1590" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1590" s="35">
+        <v>45872</v>
+      </c>
+      <c r="E1590" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1591" s="36" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B1591" s="58" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C1591" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1591" s="36">
+        <v>45780</v>
+      </c>
+      <c r="E1591" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1592" s="36" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B1592" s="58" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C1592" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1592" s="36">
+        <v>45933</v>
+      </c>
+      <c r="E1592" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1593" s="36" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B1593" s="58" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C1593" s="36" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1593" s="36">
+        <v>45811</v>
+      </c>
+      <c r="E1593" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1594" s="36" t="s">
+        <v>1970</v>
+      </c>
+      <c r="B1594" s="58" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C1594" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1594" s="36">
+        <v>45719</v>
+      </c>
+      <c r="E1594" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1595" s="36" t="s">
+        <v>1971</v>
+      </c>
+      <c r="B1595" s="58" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C1595" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1595" s="36">
+        <v>45660</v>
+      </c>
+      <c r="E1595" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1596" s="36" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B1596" s="58" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C1596" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1596" s="36">
+        <v>45691</v>
+      </c>
+      <c r="E1596" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1597" s="36" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B1597" s="58" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C1597" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1597" s="36">
+        <v>45841</v>
+      </c>
+      <c r="E1597" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1598" s="36" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B1598" s="58" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C1598" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1598" s="36">
+        <v>45872</v>
+      </c>
+      <c r="E1598" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1599" s="35" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B1599" s="56" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C1599" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1599" s="35">
+        <v>45780</v>
+      </c>
+      <c r="E1599" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1600" s="35" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B1600" s="56" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C1600" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1600" s="35">
+        <v>45933</v>
+      </c>
+      <c r="E1600" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1601" s="35" t="s">
+        <v>1977</v>
+      </c>
+      <c r="B1601" s="56" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C1601" s="35" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1601" s="35">
+        <v>45811</v>
+      </c>
+      <c r="E1601" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1602" s="35" t="s">
+        <v>1978</v>
+      </c>
+      <c r="B1602" s="56" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C1602" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1602" s="35">
+        <v>45719</v>
+      </c>
+      <c r="E1602" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1603" s="35" t="s">
+        <v>1979</v>
+      </c>
+      <c r="B1603" s="56" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C1603" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1603" s="35">
+        <v>45660</v>
+      </c>
+      <c r="E1603" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1604" s="35" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B1604" s="56" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C1604" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1604" s="35">
+        <v>45691</v>
+      </c>
+      <c r="E1604" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1605" s="35" t="s">
+        <v>1981</v>
+      </c>
+      <c r="B1605" s="56" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C1605" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1605" s="35">
+        <v>45841</v>
+      </c>
+      <c r="E1605" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1606" s="35" t="s">
+        <v>1982</v>
+      </c>
+      <c r="B1606" s="56" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C1606" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1606" s="35">
+        <v>45872</v>
+      </c>
+      <c r="E1606" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1607" s="36" t="s">
+        <v>1983</v>
+      </c>
+      <c r="B1607" s="58" t="s">
         <v>1956</v>
       </c>
-      <c r="B1584" s="58" t="s">
-        <v>1954</v>
-      </c>
-      <c r="C1584" s="36" t="s">
+      <c r="C1607" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1607" s="36">
+        <v>45780</v>
+      </c>
+      <c r="E1607" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1608" s="36" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B1608" s="58" t="s">
+        <v>1956</v>
+      </c>
+      <c r="C1608" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="D1584" s="36">
+      <c r="D1608" s="36">
         <v>45933</v>
       </c>
-      <c r="E1584" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1585" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1585" s="36" t="s">
+      <c r="E1608" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1609" s="36" t="s">
+        <v>1985</v>
+      </c>
+      <c r="B1609" s="58" t="s">
+        <v>1956</v>
+      </c>
+      <c r="C1609" s="36" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1609" s="36">
+        <v>45811</v>
+      </c>
+      <c r="E1609" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1610" s="36" t="s">
+        <v>1986</v>
+      </c>
+      <c r="B1610" s="58" t="s">
+        <v>1956</v>
+      </c>
+      <c r="C1610" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1610" s="36">
+        <v>45719</v>
+      </c>
+      <c r="E1610" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1611" s="36" t="s">
+        <v>1987</v>
+      </c>
+      <c r="B1611" s="58" t="s">
+        <v>1956</v>
+      </c>
+      <c r="C1611" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1611" s="36">
+        <v>45660</v>
+      </c>
+      <c r="E1611" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1612" s="36" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B1612" s="58" t="s">
+        <v>1956</v>
+      </c>
+      <c r="C1612" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1612" s="36">
+        <v>45691</v>
+      </c>
+      <c r="E1612" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1613" s="36" t="s">
+        <v>1989</v>
+      </c>
+      <c r="B1613" s="58" t="s">
+        <v>1956</v>
+      </c>
+      <c r="C1613" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1613" s="36">
+        <v>45841</v>
+      </c>
+      <c r="E1613" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1614" s="36" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B1614" s="58" t="s">
+        <v>1956</v>
+      </c>
+      <c r="C1614" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1614" s="36">
+        <v>45872</v>
+      </c>
+      <c r="E1614" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1615" s="35" t="s">
+        <v>1991</v>
+      </c>
+      <c r="B1615" s="55" t="s">
         <v>1957</v>
       </c>
-      <c r="B1585" s="58" t="s">
-        <v>1954</v>
-      </c>
-      <c r="C1585" s="36" t="s">
+      <c r="C1615" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1615" s="35">
+        <v>45780</v>
+      </c>
+      <c r="E1615" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1616" s="35" t="s">
+        <v>1992</v>
+      </c>
+      <c r="B1616" s="55" t="s">
+        <v>1957</v>
+      </c>
+      <c r="C1616" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1616" s="35">
+        <v>45933</v>
+      </c>
+      <c r="E1616" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1617" s="35" t="s">
+        <v>1993</v>
+      </c>
+      <c r="B1617" s="55" t="s">
+        <v>1957</v>
+      </c>
+      <c r="C1617" s="35" t="s">
         <v>952</v>
       </c>
-      <c r="D1585" s="36">
+      <c r="D1617" s="35">
         <v>45811</v>
       </c>
-      <c r="E1585" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1586" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1586" s="36" t="s">
+      <c r="E1617" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1618" s="35" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B1618" s="55" t="s">
+        <v>1957</v>
+      </c>
+      <c r="C1618" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1618" s="35">
+        <v>45719</v>
+      </c>
+      <c r="E1618" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1619" s="35" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B1619" s="55" t="s">
+        <v>1957</v>
+      </c>
+      <c r="C1619" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1619" s="35">
+        <v>45660</v>
+      </c>
+      <c r="E1619" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1620" s="35" t="s">
+        <v>1996</v>
+      </c>
+      <c r="B1620" s="55" t="s">
+        <v>1957</v>
+      </c>
+      <c r="C1620" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1620" s="35">
+        <v>45691</v>
+      </c>
+      <c r="E1620" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1621" s="35" t="s">
+        <v>1997</v>
+      </c>
+      <c r="B1621" s="55" t="s">
+        <v>1957</v>
+      </c>
+      <c r="C1621" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1621" s="35">
+        <v>45841</v>
+      </c>
+      <c r="E1621" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1622" s="35" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B1622" s="55" t="s">
+        <v>1957</v>
+      </c>
+      <c r="C1622" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1622" s="35">
+        <v>45872</v>
+      </c>
+      <c r="E1622" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1623" s="36" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B1623" s="58" t="s">
         <v>1958</v>
       </c>
-      <c r="B1586" s="58" t="s">
-        <v>1954</v>
-      </c>
-      <c r="C1586" s="36" t="s">
+      <c r="C1623" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1623" s="36">
+        <v>45780</v>
+      </c>
+      <c r="E1623" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1624" s="36" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B1624" s="58" t="s">
+        <v>1958</v>
+      </c>
+      <c r="C1624" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1624" s="36">
+        <v>45933</v>
+      </c>
+      <c r="E1624" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1625" s="36" t="s">
+        <v>2001</v>
+      </c>
+      <c r="B1625" s="58" t="s">
+        <v>1958</v>
+      </c>
+      <c r="C1625" s="36" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1625" s="36">
+        <v>45811</v>
+      </c>
+      <c r="E1625" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1626" s="36" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B1626" s="58" t="s">
+        <v>1958</v>
+      </c>
+      <c r="C1626" s="36" t="s">
         <v>262</v>
       </c>
-      <c r="D1586" s="36">
+      <c r="D1626" s="36">
         <v>45719</v>
       </c>
-      <c r="E1586" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1587" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1587" s="36" t="s">
-        <v>1959</v>
-      </c>
-      <c r="B1587" s="58" t="s">
-        <v>1954</v>
-      </c>
-      <c r="C1587" s="36" t="s">
+      <c r="E1626" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1627" s="36" t="s">
+        <v>2003</v>
+      </c>
+      <c r="B1627" s="58" t="s">
+        <v>1958</v>
+      </c>
+      <c r="C1627" s="36" t="s">
         <v>247</v>
       </c>
-      <c r="D1587" s="36">
+      <c r="D1627" s="36">
         <v>45660</v>
       </c>
-      <c r="E1587" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1588" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1588" s="36" t="s">
-        <v>1960</v>
-      </c>
-      <c r="B1588" s="58" t="s">
-        <v>1954</v>
-      </c>
-      <c r="C1588" s="36" t="s">
+      <c r="E1627" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1628" s="36" t="s">
+        <v>2004</v>
+      </c>
+      <c r="B1628" s="58" t="s">
+        <v>1958</v>
+      </c>
+      <c r="C1628" s="36" t="s">
         <v>263</v>
       </c>
-      <c r="D1588" s="36">
+      <c r="D1628" s="36">
         <v>45691</v>
       </c>
-      <c r="E1588" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1589" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1589" s="36" t="s">
-        <v>1961</v>
-      </c>
-      <c r="B1589" s="58" t="s">
-        <v>1954</v>
-      </c>
-      <c r="C1589" s="36" t="s">
+      <c r="E1628" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1629" s="36" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B1629" s="58" t="s">
+        <v>1958</v>
+      </c>
+      <c r="C1629" s="36" t="s">
         <v>252</v>
       </c>
-      <c r="D1589" s="36">
+      <c r="D1629" s="36">
         <v>45841</v>
       </c>
-      <c r="E1589" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1590" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1590" s="36" t="s">
-        <v>1962</v>
-      </c>
-      <c r="B1590" s="58" t="s">
-        <v>1954</v>
-      </c>
-      <c r="C1590" s="36" t="s">
+      <c r="E1629" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1630" s="36" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B1630" s="58" t="s">
+        <v>1958</v>
+      </c>
+      <c r="C1630" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="D1590" s="36">
+      <c r="D1630" s="36">
         <v>45872</v>
       </c>
-      <c r="E1590" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1591" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1591" s="35" t="s">
-        <v>1967</v>
-      </c>
-      <c r="B1591" s="55" t="s">
-        <v>1963</v>
-      </c>
-      <c r="C1591" s="35" t="s">
+      <c r="E1630" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1631" s="35" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B1631" s="55" t="s">
+        <v>2007</v>
+      </c>
+      <c r="C1631" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1591" s="35">
+      <c r="D1631" s="35">
         <v>45780</v>
       </c>
-      <c r="E1591" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1592" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1592" s="35" t="s">
-        <v>1968</v>
-      </c>
-      <c r="B1592" s="55" t="s">
-        <v>1963</v>
-      </c>
-      <c r="C1592" s="35" t="s">
+      <c r="E1631" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1632" s="35" t="s">
+        <v>2009</v>
+      </c>
+      <c r="B1632" s="55" t="s">
+        <v>2007</v>
+      </c>
+      <c r="C1632" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="D1592" s="35">
+      <c r="D1632" s="35">
         <v>45933</v>
       </c>
-      <c r="E1592" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1593" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1593" s="35" t="s">
-        <v>1969</v>
-      </c>
-      <c r="B1593" s="55" t="s">
-        <v>1963</v>
-      </c>
-      <c r="C1593" s="35" t="s">
+      <c r="E1632" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1633" s="35" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B1633" s="55" t="s">
+        <v>2007</v>
+      </c>
+      <c r="C1633" s="35" t="s">
         <v>952</v>
       </c>
-      <c r="D1593" s="35">
+      <c r="D1633" s="35">
         <v>45811</v>
       </c>
-      <c r="E1593" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1594" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1594" s="35" t="s">
-        <v>1970</v>
-      </c>
-      <c r="B1594" s="55" t="s">
-        <v>1963</v>
-      </c>
-      <c r="C1594" s="35" t="s">
+      <c r="E1633" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1634" s="35" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B1634" s="55" t="s">
+        <v>2007</v>
+      </c>
+      <c r="C1634" s="35" t="s">
         <v>262</v>
       </c>
-      <c r="D1594" s="35">
+      <c r="D1634" s="35">
         <v>45719</v>
       </c>
-      <c r="E1594" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1595" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1595" s="35" t="s">
-        <v>1971</v>
-      </c>
-      <c r="B1595" s="55" t="s">
-        <v>1963</v>
-      </c>
-      <c r="C1595" s="35" t="s">
+      <c r="E1634" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1635" s="35" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B1635" s="55" t="s">
+        <v>2007</v>
+      </c>
+      <c r="C1635" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="D1595" s="35">
+      <c r="D1635" s="35">
         <v>45660</v>
       </c>
-      <c r="E1595" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1596" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1596" s="35" t="s">
-        <v>1972</v>
-      </c>
-      <c r="B1596" s="55" t="s">
-        <v>1963</v>
-      </c>
-      <c r="C1596" s="35" t="s">
+      <c r="E1635" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1636" s="35" t="s">
+        <v>2013</v>
+      </c>
+      <c r="B1636" s="55" t="s">
+        <v>2007</v>
+      </c>
+      <c r="C1636" s="35" t="s">
         <v>263</v>
       </c>
-      <c r="D1596" s="35">
+      <c r="D1636" s="35">
         <v>45691</v>
       </c>
-      <c r="E1596" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1597" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1597" s="35" t="s">
-        <v>1973</v>
-      </c>
-      <c r="B1597" s="55" t="s">
-        <v>1963</v>
-      </c>
-      <c r="C1597" s="35" t="s">
+      <c r="E1636" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1637" s="35" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B1637" s="55" t="s">
+        <v>2007</v>
+      </c>
+      <c r="C1637" s="35" t="s">
         <v>252</v>
       </c>
-      <c r="D1597" s="35">
+      <c r="D1637" s="35">
         <v>45841</v>
       </c>
-      <c r="E1597" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1598" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1598" s="35" t="s">
-        <v>1974</v>
-      </c>
-      <c r="B1598" s="55" t="s">
-        <v>1963</v>
-      </c>
-      <c r="C1598" s="35" t="s">
+      <c r="E1637" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1638" s="35" t="s">
+        <v>2015</v>
+      </c>
+      <c r="B1638" s="55" t="s">
+        <v>2007</v>
+      </c>
+      <c r="C1638" s="35" t="s">
         <v>231</v>
       </c>
-      <c r="D1598" s="35">
+      <c r="D1638" s="35">
         <v>45872</v>
       </c>
-      <c r="E1598" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1599" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1599" s="36" t="s">
-        <v>1975</v>
-      </c>
-      <c r="B1599" s="58" t="s">
-        <v>1916</v>
-      </c>
-      <c r="C1599" s="36" t="s">
+      <c r="E1638" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1639" s="36" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B1639" s="58" t="s">
+        <v>2016</v>
+      </c>
+      <c r="C1639" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D1599" s="36">
+      <c r="D1639" s="36">
         <v>45780</v>
       </c>
-      <c r="E1599" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1600" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1600" s="36" t="s">
-        <v>1976</v>
-      </c>
-      <c r="B1600" s="58" t="s">
-        <v>1916</v>
-      </c>
-      <c r="C1600" s="36" t="s">
+      <c r="E1639" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1640" s="36" t="s">
+        <v>2018</v>
+      </c>
+      <c r="B1640" s="58" t="s">
+        <v>2016</v>
+      </c>
+      <c r="C1640" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="D1600" s="36">
+      <c r="D1640" s="36">
         <v>45933</v>
       </c>
-      <c r="E1600" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1601" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1601" s="36" t="s">
-        <v>1977</v>
-      </c>
-      <c r="B1601" s="58" t="s">
-        <v>1916</v>
-      </c>
-      <c r="C1601" s="36" t="s">
+      <c r="E1640" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1641" s="36" t="s">
+        <v>2019</v>
+      </c>
+      <c r="B1641" s="58" t="s">
+        <v>2016</v>
+      </c>
+      <c r="C1641" s="36" t="s">
         <v>952</v>
       </c>
-      <c r="D1601" s="36">
+      <c r="D1641" s="36">
         <v>45811</v>
       </c>
-      <c r="E1601" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1602" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1602" s="36" t="s">
-        <v>1978</v>
-      </c>
-      <c r="B1602" s="58" t="s">
-        <v>1916</v>
-      </c>
-      <c r="C1602" s="36" t="s">
+      <c r="E1641" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1642" s="36" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B1642" s="58" t="s">
+        <v>2016</v>
+      </c>
+      <c r="C1642" s="36" t="s">
         <v>262</v>
       </c>
-      <c r="D1602" s="36">
+      <c r="D1642" s="36">
         <v>45719</v>
       </c>
-      <c r="E1602" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1603" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1603" s="36" t="s">
-        <v>1979</v>
-      </c>
-      <c r="B1603" s="58" t="s">
-        <v>1916</v>
-      </c>
-      <c r="C1603" s="36" t="s">
+      <c r="E1642" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1643" s="36" t="s">
+        <v>2021</v>
+      </c>
+      <c r="B1643" s="58" t="s">
+        <v>2016</v>
+      </c>
+      <c r="C1643" s="36" t="s">
         <v>247</v>
       </c>
-      <c r="D1603" s="36">
+      <c r="D1643" s="36">
         <v>45660</v>
       </c>
-      <c r="E1603" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1604" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1604" s="36" t="s">
-        <v>1980</v>
-      </c>
-      <c r="B1604" s="58" t="s">
-        <v>1916</v>
-      </c>
-      <c r="C1604" s="36" t="s">
+      <c r="E1643" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1644" s="36" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B1644" s="58" t="s">
+        <v>2016</v>
+      </c>
+      <c r="C1644" s="36" t="s">
         <v>263</v>
       </c>
-      <c r="D1604" s="36">
+      <c r="D1644" s="36">
         <v>45691</v>
       </c>
-      <c r="E1604" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1605" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1605" s="36" t="s">
-        <v>1981</v>
-      </c>
-      <c r="B1605" s="58" t="s">
-        <v>1916</v>
-      </c>
-      <c r="C1605" s="36" t="s">
+      <c r="E1644" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1645" s="36" t="s">
+        <v>2023</v>
+      </c>
+      <c r="B1645" s="58" t="s">
+        <v>2016</v>
+      </c>
+      <c r="C1645" s="36" t="s">
         <v>252</v>
       </c>
-      <c r="D1605" s="36">
+      <c r="D1645" s="36">
         <v>45841</v>
       </c>
-      <c r="E1605" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1606" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1606" s="36" t="s">
-        <v>1982</v>
-      </c>
-      <c r="B1606" s="58" t="s">
-        <v>1916</v>
-      </c>
-      <c r="C1606" s="36" t="s">
+      <c r="E1645" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1646" s="36" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B1646" s="58" t="s">
+        <v>2016</v>
+      </c>
+      <c r="C1646" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="D1606" s="36">
+      <c r="D1646" s="36">
         <v>45872</v>
       </c>
-      <c r="E1606" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1607" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1607" s="35" t="s">
-        <v>1983</v>
-      </c>
-      <c r="B1607" s="56" t="s">
-        <v>1885</v>
-      </c>
-      <c r="C1607" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1607" s="35">
-        <v>45780</v>
-      </c>
-      <c r="E1607" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1608" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1608" s="35" t="s">
-        <v>1984</v>
-      </c>
-      <c r="B1608" s="56" t="s">
-        <v>1885</v>
-      </c>
-      <c r="C1608" s="35" t="s">
-        <v>230</v>
-      </c>
-      <c r="D1608" s="35">
-        <v>45933</v>
-      </c>
-      <c r="E1608" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1609" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1609" s="35" t="s">
-        <v>1985</v>
-      </c>
-      <c r="B1609" s="56" t="s">
-        <v>1885</v>
-      </c>
-      <c r="C1609" s="35" t="s">
-        <v>952</v>
-      </c>
-      <c r="D1609" s="35">
-        <v>45811</v>
-      </c>
-      <c r="E1609" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1610" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1610" s="35" t="s">
-        <v>1986</v>
-      </c>
-      <c r="B1610" s="56" t="s">
-        <v>1885</v>
-      </c>
-      <c r="C1610" s="35" t="s">
-        <v>262</v>
-      </c>
-      <c r="D1610" s="35">
-        <v>45719</v>
-      </c>
-      <c r="E1610" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1611" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1611" s="35" t="s">
-        <v>1987</v>
-      </c>
-      <c r="B1611" s="56" t="s">
-        <v>1885</v>
-      </c>
-      <c r="C1611" s="35" t="s">
-        <v>247</v>
-      </c>
-      <c r="D1611" s="35">
-        <v>45660</v>
-      </c>
-      <c r="E1611" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1612" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1612" s="35" t="s">
-        <v>1988</v>
-      </c>
-      <c r="B1612" s="56" t="s">
-        <v>1885</v>
-      </c>
-      <c r="C1612" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="D1612" s="35">
-        <v>45691</v>
-      </c>
-      <c r="E1612" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1613" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1613" s="35" t="s">
-        <v>1989</v>
-      </c>
-      <c r="B1613" s="56" t="s">
-        <v>1885</v>
-      </c>
-      <c r="C1613" s="35" t="s">
-        <v>252</v>
-      </c>
-      <c r="D1613" s="35">
-        <v>45841</v>
-      </c>
-      <c r="E1613" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1614" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1614" s="35" t="s">
-        <v>1990</v>
-      </c>
-      <c r="B1614" s="56" t="s">
-        <v>1885</v>
-      </c>
-      <c r="C1614" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="D1614" s="35">
-        <v>45872</v>
-      </c>
-      <c r="E1614" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1615" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1615" s="36" t="s">
-        <v>1991</v>
-      </c>
-      <c r="B1615" s="58" t="s">
-        <v>1964</v>
-      </c>
-      <c r="C1615" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1615" s="36">
-        <v>45780</v>
-      </c>
-      <c r="E1615" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1616" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1616" s="36" t="s">
-        <v>1992</v>
-      </c>
-      <c r="B1616" s="58" t="s">
-        <v>1964</v>
-      </c>
-      <c r="C1616" s="36" t="s">
-        <v>230</v>
-      </c>
-      <c r="D1616" s="36">
-        <v>45933</v>
-      </c>
-      <c r="E1616" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1617" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1617" s="36" t="s">
-        <v>1993</v>
-      </c>
-      <c r="B1617" s="58" t="s">
-        <v>1964</v>
-      </c>
-      <c r="C1617" s="36" t="s">
-        <v>952</v>
-      </c>
-      <c r="D1617" s="36">
-        <v>45811</v>
-      </c>
-      <c r="E1617" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1618" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1618" s="36" t="s">
-        <v>1994</v>
-      </c>
-      <c r="B1618" s="58" t="s">
-        <v>1964</v>
-      </c>
-      <c r="C1618" s="36" t="s">
-        <v>262</v>
-      </c>
-      <c r="D1618" s="36">
-        <v>45719</v>
-      </c>
-      <c r="E1618" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1619" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1619" s="36" t="s">
-        <v>1995</v>
-      </c>
-      <c r="B1619" s="58" t="s">
-        <v>1964</v>
-      </c>
-      <c r="C1619" s="36" t="s">
-        <v>247</v>
-      </c>
-      <c r="D1619" s="36">
-        <v>45660</v>
-      </c>
-      <c r="E1619" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1620" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1620" s="36" t="s">
-        <v>1996</v>
-      </c>
-      <c r="B1620" s="58" t="s">
-        <v>1964</v>
-      </c>
-      <c r="C1620" s="36" t="s">
-        <v>263</v>
-      </c>
-      <c r="D1620" s="36">
-        <v>45691</v>
-      </c>
-      <c r="E1620" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1621" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1621" s="36" t="s">
-        <v>1997</v>
-      </c>
-      <c r="B1621" s="58" t="s">
-        <v>1964</v>
-      </c>
-      <c r="C1621" s="36" t="s">
-        <v>252</v>
-      </c>
-      <c r="D1621" s="36">
-        <v>45841</v>
-      </c>
-      <c r="E1621" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1622" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1622" s="36" t="s">
-        <v>1998</v>
-      </c>
-      <c r="B1622" s="58" t="s">
-        <v>1964</v>
-      </c>
-      <c r="C1622" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="D1622" s="36">
-        <v>45872</v>
-      </c>
-      <c r="E1622" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1623" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1623" s="35" t="s">
-        <v>1999</v>
-      </c>
-      <c r="B1623" s="55" t="s">
-        <v>1965</v>
-      </c>
-      <c r="C1623" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1623" s="35">
-        <v>45780</v>
-      </c>
-      <c r="E1623" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1624" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1624" s="35" t="s">
-        <v>2000</v>
-      </c>
-      <c r="B1624" s="55" t="s">
-        <v>1965</v>
-      </c>
-      <c r="C1624" s="35" t="s">
-        <v>230</v>
-      </c>
-      <c r="D1624" s="35">
-        <v>45933</v>
-      </c>
-      <c r="E1624" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1625" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1625" s="35" t="s">
-        <v>2001</v>
-      </c>
-      <c r="B1625" s="55" t="s">
-        <v>1965</v>
-      </c>
-      <c r="C1625" s="35" t="s">
-        <v>952</v>
-      </c>
-      <c r="D1625" s="35">
-        <v>45811</v>
-      </c>
-      <c r="E1625" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1626" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1626" s="35" t="s">
-        <v>2002</v>
-      </c>
-      <c r="B1626" s="55" t="s">
-        <v>1965</v>
-      </c>
-      <c r="C1626" s="35" t="s">
-        <v>262</v>
-      </c>
-      <c r="D1626" s="35">
-        <v>45719</v>
-      </c>
-      <c r="E1626" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1627" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1627" s="35" t="s">
-        <v>2003</v>
-      </c>
-      <c r="B1627" s="55" t="s">
-        <v>1965</v>
-      </c>
-      <c r="C1627" s="35" t="s">
-        <v>247</v>
-      </c>
-      <c r="D1627" s="35">
-        <v>45660</v>
-      </c>
-      <c r="E1627" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1628" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1628" s="35" t="s">
-        <v>2004</v>
-      </c>
-      <c r="B1628" s="55" t="s">
-        <v>1965</v>
-      </c>
-      <c r="C1628" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="D1628" s="35">
-        <v>45691</v>
-      </c>
-      <c r="E1628" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1629" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1629" s="35" t="s">
-        <v>2005</v>
-      </c>
-      <c r="B1629" s="55" t="s">
-        <v>1965</v>
-      </c>
-      <c r="C1629" s="35" t="s">
-        <v>252</v>
-      </c>
-      <c r="D1629" s="35">
-        <v>45841</v>
-      </c>
-      <c r="E1629" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1630" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1630" s="35" t="s">
-        <v>2006</v>
-      </c>
-      <c r="B1630" s="55" t="s">
-        <v>1965</v>
-      </c>
-      <c r="C1630" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="D1630" s="35">
-        <v>45872</v>
-      </c>
-      <c r="E1630" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1631" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1631" s="36" t="s">
-        <v>2007</v>
-      </c>
-      <c r="B1631" s="58" t="s">
-        <v>1966</v>
-      </c>
-      <c r="C1631" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1631" s="36">
-        <v>45780</v>
-      </c>
-      <c r="E1631" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1632" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1632" s="36" t="s">
-        <v>2008</v>
-      </c>
-      <c r="B1632" s="58" t="s">
-        <v>1966</v>
-      </c>
-      <c r="C1632" s="36" t="s">
-        <v>230</v>
-      </c>
-      <c r="D1632" s="36">
-        <v>45933</v>
-      </c>
-      <c r="E1632" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1633" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1633" s="36" t="s">
-        <v>2009</v>
-      </c>
-      <c r="B1633" s="58" t="s">
-        <v>1966</v>
-      </c>
-      <c r="C1633" s="36" t="s">
-        <v>952</v>
-      </c>
-      <c r="D1633" s="36">
-        <v>45811</v>
-      </c>
-      <c r="E1633" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1634" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1634" s="36" t="s">
-        <v>2010</v>
-      </c>
-      <c r="B1634" s="58" t="s">
-        <v>1966</v>
-      </c>
-      <c r="C1634" s="36" t="s">
-        <v>262</v>
-      </c>
-      <c r="D1634" s="36">
-        <v>45719</v>
-      </c>
-      <c r="E1634" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1635" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1635" s="36" t="s">
-        <v>2011</v>
-      </c>
-      <c r="B1635" s="58" t="s">
-        <v>1966</v>
-      </c>
-      <c r="C1635" s="36" t="s">
-        <v>247</v>
-      </c>
-      <c r="D1635" s="36">
-        <v>45660</v>
-      </c>
-      <c r="E1635" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1636" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1636" s="36" t="s">
-        <v>2012</v>
-      </c>
-      <c r="B1636" s="58" t="s">
-        <v>1966</v>
-      </c>
-      <c r="C1636" s="36" t="s">
-        <v>263</v>
-      </c>
-      <c r="D1636" s="36">
-        <v>45691</v>
-      </c>
-      <c r="E1636" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1637" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1637" s="36" t="s">
-        <v>2013</v>
-      </c>
-      <c r="B1637" s="58" t="s">
-        <v>1966</v>
-      </c>
-      <c r="C1637" s="36" t="s">
-        <v>252</v>
-      </c>
-      <c r="D1637" s="36">
-        <v>45841</v>
-      </c>
-      <c r="E1637" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1638" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1638" s="36" t="s">
-        <v>2014</v>
-      </c>
-      <c r="B1638" s="58" t="s">
-        <v>1966</v>
-      </c>
-      <c r="C1638" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="D1638" s="36">
-        <v>45872</v>
-      </c>
-      <c r="E1638" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1639" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1639" s="35" t="s">
-        <v>2016</v>
-      </c>
-      <c r="B1639" s="55" t="s">
-        <v>2015</v>
-      </c>
-      <c r="C1639" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1639" s="35">
-        <v>45780</v>
-      </c>
-      <c r="E1639" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1640" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1640" s="35" t="s">
-        <v>2017</v>
-      </c>
-      <c r="B1640" s="55" t="s">
-        <v>2015</v>
-      </c>
-      <c r="C1640" s="35" t="s">
-        <v>230</v>
-      </c>
-      <c r="D1640" s="35">
-        <v>45933</v>
-      </c>
-      <c r="E1640" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1641" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1641" s="35" t="s">
-        <v>2018</v>
-      </c>
-      <c r="B1641" s="55" t="s">
-        <v>2015</v>
-      </c>
-      <c r="C1641" s="35" t="s">
-        <v>952</v>
-      </c>
-      <c r="D1641" s="35">
-        <v>45811</v>
-      </c>
-      <c r="E1641" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1642" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1642" s="35" t="s">
-        <v>2019</v>
-      </c>
-      <c r="B1642" s="55" t="s">
-        <v>2015</v>
-      </c>
-      <c r="C1642" s="35" t="s">
-        <v>262</v>
-      </c>
-      <c r="D1642" s="35">
-        <v>45719</v>
-      </c>
-      <c r="E1642" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1643" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1643" s="35" t="s">
-        <v>2020</v>
-      </c>
-      <c r="B1643" s="55" t="s">
-        <v>2015</v>
-      </c>
-      <c r="C1643" s="35" t="s">
-        <v>247</v>
-      </c>
-      <c r="D1643" s="35">
-        <v>45660</v>
-      </c>
-      <c r="E1643" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1644" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1644" s="35" t="s">
-        <v>2021</v>
-      </c>
-      <c r="B1644" s="55" t="s">
-        <v>2015</v>
-      </c>
-      <c r="C1644" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="D1644" s="35">
-        <v>45691</v>
-      </c>
-      <c r="E1644" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1645" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1645" s="35" t="s">
-        <v>2022</v>
-      </c>
-      <c r="B1645" s="55" t="s">
-        <v>2015</v>
-      </c>
-      <c r="C1645" s="35" t="s">
-        <v>252</v>
-      </c>
-      <c r="D1645" s="35">
-        <v>45841</v>
-      </c>
-      <c r="E1645" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1646" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1646" s="35" t="s">
-        <v>2023</v>
-      </c>
-      <c r="B1646" s="55" t="s">
-        <v>2015</v>
-      </c>
-      <c r="C1646" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="D1646" s="35">
-        <v>45872</v>
-      </c>
       <c r="E1646" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="1647" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1647" s="36" t="s">
+      <c r="A1647" s="35" t="s">
         <v>2025</v>
       </c>
-      <c r="B1647" s="58" t="s">
-        <v>2024</v>
-      </c>
-      <c r="C1647" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1647" s="36">
-        <v>45780</v>
+      <c r="B1647" s="55" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1647" s="35" t="s">
+        <v>462</v>
+      </c>
+      <c r="D1647" s="35" t="s">
+        <v>2026</v>
       </c>
       <c r="E1647" s="13">
         <v>1</v>
@@ -34558,16 +35255,16 @@
     </row>
     <row r="1648" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1648" s="36" t="s">
-        <v>2026</v>
-      </c>
-      <c r="B1648" s="58" t="s">
-        <v>2024</v>
+        <v>2028</v>
+      </c>
+      <c r="B1648" s="60" t="s">
+        <v>2027</v>
       </c>
       <c r="C1648" s="36" t="s">
-        <v>230</v>
+        <v>2</v>
       </c>
       <c r="D1648" s="36">
-        <v>45933</v>
+        <v>45780</v>
       </c>
       <c r="E1648" s="13">
         <v>1</v>
@@ -34575,16 +35272,16 @@
     </row>
     <row r="1649" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1649" s="36" t="s">
+        <v>2029</v>
+      </c>
+      <c r="B1649" s="60" t="s">
         <v>2027</v>
       </c>
-      <c r="B1649" s="58" t="s">
-        <v>2024</v>
-      </c>
       <c r="C1649" s="36" t="s">
-        <v>952</v>
+        <v>230</v>
       </c>
       <c r="D1649" s="36">
-        <v>45811</v>
+        <v>45933</v>
       </c>
       <c r="E1649" s="13">
         <v>1</v>
@@ -34592,16 +35289,16 @@
     </row>
     <row r="1650" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1650" s="36" t="s">
-        <v>2028</v>
-      </c>
-      <c r="B1650" s="58" t="s">
-        <v>2024</v>
+        <v>2030</v>
+      </c>
+      <c r="B1650" s="60" t="s">
+        <v>2027</v>
       </c>
       <c r="C1650" s="36" t="s">
-        <v>262</v>
+        <v>952</v>
       </c>
       <c r="D1650" s="36">
-        <v>45719</v>
+        <v>45811</v>
       </c>
       <c r="E1650" s="13">
         <v>1</v>
@@ -34609,16 +35306,16 @@
     </row>
     <row r="1651" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1651" s="36" t="s">
-        <v>2029</v>
-      </c>
-      <c r="B1651" s="58" t="s">
-        <v>2024</v>
+        <v>2031</v>
+      </c>
+      <c r="B1651" s="60" t="s">
+        <v>2027</v>
       </c>
       <c r="C1651" s="36" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="D1651" s="36">
-        <v>45660</v>
+        <v>45719</v>
       </c>
       <c r="E1651" s="13">
         <v>1</v>
@@ -34626,16 +35323,16 @@
     </row>
     <row r="1652" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1652" s="36" t="s">
-        <v>2030</v>
-      </c>
-      <c r="B1652" s="58" t="s">
-        <v>2024</v>
+        <v>2032</v>
+      </c>
+      <c r="B1652" s="60" t="s">
+        <v>2027</v>
       </c>
       <c r="C1652" s="36" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="D1652" s="36">
-        <v>45691</v>
+        <v>45660</v>
       </c>
       <c r="E1652" s="13">
         <v>1</v>
@@ -34643,16 +35340,16 @@
     </row>
     <row r="1653" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1653" s="36" t="s">
-        <v>2031</v>
-      </c>
-      <c r="B1653" s="58" t="s">
-        <v>2024</v>
+        <v>2033</v>
+      </c>
+      <c r="B1653" s="60" t="s">
+        <v>2027</v>
       </c>
       <c r="C1653" s="36" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="D1653" s="36">
-        <v>45841</v>
+        <v>45691</v>
       </c>
       <c r="E1653" s="13">
         <v>1</v>
@@ -34660,49 +35357,49 @@
     </row>
     <row r="1654" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1654" s="36" t="s">
-        <v>2032</v>
-      </c>
-      <c r="B1654" s="58" t="s">
-        <v>2024</v>
+        <v>2034</v>
+      </c>
+      <c r="B1654" s="60" t="s">
+        <v>2027</v>
       </c>
       <c r="C1654" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1654" s="36">
+        <v>45841</v>
+      </c>
+      <c r="E1654" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1655" s="36" t="s">
+        <v>2035</v>
+      </c>
+      <c r="B1655" s="60" t="s">
+        <v>2027</v>
+      </c>
+      <c r="C1655" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="D1654" s="36">
+      <c r="D1655" s="36">
         <v>45872</v>
       </c>
-      <c r="E1654" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1655" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1655" s="35" t="s">
-        <v>2033</v>
-      </c>
-      <c r="B1655" s="55" t="s">
-        <v>257</v>
-      </c>
-      <c r="C1655" s="35" t="s">
-        <v>462</v>
-      </c>
-      <c r="D1655" s="35" t="s">
-        <v>2034</v>
-      </c>
       <c r="E1655" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="1656" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1656" s="36" t="s">
+      <c r="A1656" s="35" t="s">
         <v>2036</v>
       </c>
-      <c r="B1656" s="60" t="s">
-        <v>2035</v>
-      </c>
-      <c r="C1656" s="36" t="s">
+      <c r="B1656" s="35" t="s">
+        <v>2044</v>
+      </c>
+      <c r="C1656" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1656" s="36">
+      <c r="D1656" s="35">
         <v>45780</v>
       </c>
       <c r="E1656" s="13">
@@ -34710,16 +35407,16 @@
       </c>
     </row>
     <row r="1657" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1657" s="36" t="s">
+      <c r="A1657" s="35" t="s">
         <v>2037</v>
       </c>
-      <c r="B1657" s="60" t="s">
-        <v>2035</v>
-      </c>
-      <c r="C1657" s="36" t="s">
+      <c r="B1657" s="35" t="s">
+        <v>2044</v>
+      </c>
+      <c r="C1657" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="D1657" s="36">
+      <c r="D1657" s="35">
         <v>45933</v>
       </c>
       <c r="E1657" s="13">
@@ -34727,16 +35424,16 @@
       </c>
     </row>
     <row r="1658" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1658" s="36" t="s">
+      <c r="A1658" s="35" t="s">
         <v>2038</v>
       </c>
-      <c r="B1658" s="60" t="s">
-        <v>2035</v>
-      </c>
-      <c r="C1658" s="36" t="s">
+      <c r="B1658" s="35" t="s">
+        <v>2044</v>
+      </c>
+      <c r="C1658" s="35" t="s">
         <v>952</v>
       </c>
-      <c r="D1658" s="36">
+      <c r="D1658" s="35">
         <v>45811</v>
       </c>
       <c r="E1658" s="13">
@@ -34744,16 +35441,16 @@
       </c>
     </row>
     <row r="1659" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1659" s="36" t="s">
+      <c r="A1659" s="35" t="s">
         <v>2039</v>
       </c>
-      <c r="B1659" s="60" t="s">
-        <v>2035</v>
-      </c>
-      <c r="C1659" s="36" t="s">
+      <c r="B1659" s="35" t="s">
+        <v>2044</v>
+      </c>
+      <c r="C1659" s="35" t="s">
         <v>262</v>
       </c>
-      <c r="D1659" s="36">
+      <c r="D1659" s="35">
         <v>45719</v>
       </c>
       <c r="E1659" s="13">
@@ -34761,16 +35458,16 @@
       </c>
     </row>
     <row r="1660" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1660" s="36" t="s">
+      <c r="A1660" s="35" t="s">
         <v>2040</v>
       </c>
-      <c r="B1660" s="60" t="s">
-        <v>2035</v>
-      </c>
-      <c r="C1660" s="36" t="s">
+      <c r="B1660" s="35" t="s">
+        <v>2044</v>
+      </c>
+      <c r="C1660" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="D1660" s="36">
+      <c r="D1660" s="35">
         <v>45660</v>
       </c>
       <c r="E1660" s="13">
@@ -34778,16 +35475,16 @@
       </c>
     </row>
     <row r="1661" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1661" s="36" t="s">
+      <c r="A1661" s="35" t="s">
         <v>2041</v>
       </c>
-      <c r="B1661" s="60" t="s">
-        <v>2035</v>
-      </c>
-      <c r="C1661" s="36" t="s">
+      <c r="B1661" s="35" t="s">
+        <v>2044</v>
+      </c>
+      <c r="C1661" s="35" t="s">
         <v>263</v>
       </c>
-      <c r="D1661" s="36">
+      <c r="D1661" s="35">
         <v>45691</v>
       </c>
       <c r="E1661" s="13">
@@ -34795,16 +35492,16 @@
       </c>
     </row>
     <row r="1662" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1662" s="36" t="s">
+      <c r="A1662" s="35" t="s">
         <v>2042</v>
       </c>
-      <c r="B1662" s="60" t="s">
-        <v>2035</v>
-      </c>
-      <c r="C1662" s="36" t="s">
+      <c r="B1662" s="35" t="s">
+        <v>2044</v>
+      </c>
+      <c r="C1662" s="35" t="s">
         <v>252</v>
       </c>
-      <c r="D1662" s="36">
+      <c r="D1662" s="35">
         <v>45841</v>
       </c>
       <c r="E1662" s="13">
@@ -34812,16 +35509,16 @@
       </c>
     </row>
     <row r="1663" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1663" s="36" t="s">
+      <c r="A1663" s="35" t="s">
         <v>2043</v>
       </c>
-      <c r="B1663" s="60" t="s">
-        <v>2035</v>
-      </c>
-      <c r="C1663" s="36" t="s">
+      <c r="B1663" s="35" t="s">
+        <v>2044</v>
+      </c>
+      <c r="C1663" s="35" t="s">
         <v>231</v>
       </c>
-      <c r="D1663" s="36">
+      <c r="D1663" s="35">
         <v>45872</v>
       </c>
       <c r="E1663" s="13">
@@ -34829,17 +35526,17 @@
       </c>
     </row>
     <row r="1664" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1664" s="35" t="s">
-        <v>2044</v>
-      </c>
-      <c r="B1664" s="35" t="s">
-        <v>2052</v>
-      </c>
-      <c r="C1664" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1664" s="35">
-        <v>45780</v>
+      <c r="A1664" s="36" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B1664" s="60" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C1664" s="36" t="s">
+        <v>2046</v>
+      </c>
+      <c r="D1664" s="36" t="s">
+        <v>2045</v>
       </c>
       <c r="E1664" s="13">
         <v>1</v>
@@ -34847,16 +35544,16 @@
     </row>
     <row r="1665" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1665" s="35" t="s">
-        <v>2045</v>
+        <v>2049</v>
       </c>
       <c r="B1665" s="35" t="s">
-        <v>2052</v>
+        <v>2048</v>
       </c>
       <c r="C1665" s="35" t="s">
-        <v>230</v>
+        <v>2</v>
       </c>
       <c r="D1665" s="35">
-        <v>45933</v>
+        <v>45781</v>
       </c>
       <c r="E1665" s="13">
         <v>1</v>
@@ -34864,16 +35561,16 @@
     </row>
     <row r="1666" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1666" s="35" t="s">
-        <v>2046</v>
+        <v>2050</v>
       </c>
       <c r="B1666" s="35" t="s">
-        <v>2052</v>
+        <v>2048</v>
       </c>
       <c r="C1666" s="35" t="s">
-        <v>952</v>
+        <v>230</v>
       </c>
       <c r="D1666" s="35">
-        <v>45811</v>
+        <v>45934</v>
       </c>
       <c r="E1666" s="13">
         <v>1</v>
@@ -34881,16 +35578,16 @@
     </row>
     <row r="1667" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1667" s="35" t="s">
-        <v>2047</v>
+        <v>2051</v>
       </c>
       <c r="B1667" s="35" t="s">
-        <v>2052</v>
+        <v>2048</v>
       </c>
       <c r="C1667" s="35" t="s">
-        <v>262</v>
+        <v>952</v>
       </c>
       <c r="D1667" s="35">
-        <v>45719</v>
+        <v>45812</v>
       </c>
       <c r="E1667" s="13">
         <v>1</v>
@@ -34898,16 +35595,16 @@
     </row>
     <row r="1668" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1668" s="35" t="s">
+        <v>2052</v>
+      </c>
+      <c r="B1668" s="35" t="s">
         <v>2048</v>
       </c>
-      <c r="B1668" s="35" t="s">
-        <v>2052</v>
-      </c>
       <c r="C1668" s="35" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="D1668" s="35">
-        <v>45660</v>
+        <v>45720</v>
       </c>
       <c r="E1668" s="13">
         <v>1</v>
@@ -34915,16 +35612,16 @@
     </row>
     <row r="1669" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1669" s="35" t="s">
-        <v>2049</v>
+        <v>2053</v>
       </c>
       <c r="B1669" s="35" t="s">
-        <v>2052</v>
+        <v>2048</v>
       </c>
       <c r="C1669" s="35" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="D1669" s="35">
-        <v>45691</v>
+        <v>45661</v>
       </c>
       <c r="E1669" s="13">
         <v>1</v>
@@ -34932,16 +35629,16 @@
     </row>
     <row r="1670" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1670" s="35" t="s">
-        <v>2050</v>
+        <v>2054</v>
       </c>
       <c r="B1670" s="35" t="s">
-        <v>2052</v>
+        <v>2048</v>
       </c>
       <c r="C1670" s="35" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="D1670" s="35">
-        <v>45841</v>
+        <v>45692</v>
       </c>
       <c r="E1670" s="13">
         <v>1</v>
@@ -34949,49 +35646,49 @@
     </row>
     <row r="1671" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1671" s="35" t="s">
-        <v>2051</v>
+        <v>2055</v>
       </c>
       <c r="B1671" s="35" t="s">
-        <v>2052</v>
+        <v>2048</v>
       </c>
       <c r="C1671" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1671" s="35">
+        <v>45842</v>
+      </c>
+      <c r="E1671" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1672" s="35" t="s">
+        <v>2056</v>
+      </c>
+      <c r="B1672" s="35" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C1672" s="35" t="s">
         <v>231</v>
       </c>
-      <c r="D1671" s="35">
-        <v>45872</v>
-      </c>
-      <c r="E1671" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1672" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1672" s="36" t="s">
-        <v>2055</v>
-      </c>
-      <c r="B1672" s="60" t="s">
-        <v>1452</v>
-      </c>
-      <c r="C1672" s="36" t="s">
-        <v>2054</v>
-      </c>
-      <c r="D1672" s="36" t="s">
-        <v>2053</v>
+      <c r="D1672" s="35">
+        <v>45873</v>
       </c>
       <c r="E1672" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="1673" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1673" s="35" t="s">
+      <c r="A1673" s="36" t="s">
+        <v>2058</v>
+      </c>
+      <c r="B1673" s="36" t="s">
         <v>2057</v>
       </c>
-      <c r="B1673" s="35" t="s">
-        <v>2056</v>
-      </c>
-      <c r="C1673" s="35" t="s">
+      <c r="C1673" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D1673" s="35">
+      <c r="D1673" s="36">
         <v>45781</v>
       </c>
       <c r="E1673" s="13">
@@ -34999,16 +35696,16 @@
       </c>
     </row>
     <row r="1674" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1674" s="35" t="s">
-        <v>2058</v>
-      </c>
-      <c r="B1674" s="35" t="s">
-        <v>2056</v>
-      </c>
-      <c r="C1674" s="35" t="s">
+      <c r="A1674" s="36" t="s">
+        <v>2059</v>
+      </c>
+      <c r="B1674" s="36" t="s">
+        <v>2057</v>
+      </c>
+      <c r="C1674" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="D1674" s="35">
+      <c r="D1674" s="36">
         <v>45934</v>
       </c>
       <c r="E1674" s="13">
@@ -35016,16 +35713,16 @@
       </c>
     </row>
     <row r="1675" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1675" s="35" t="s">
-        <v>2059</v>
-      </c>
-      <c r="B1675" s="35" t="s">
-        <v>2056</v>
-      </c>
-      <c r="C1675" s="35" t="s">
+      <c r="A1675" s="36" t="s">
+        <v>2060</v>
+      </c>
+      <c r="B1675" s="36" t="s">
+        <v>2057</v>
+      </c>
+      <c r="C1675" s="36" t="s">
         <v>952</v>
       </c>
-      <c r="D1675" s="35">
+      <c r="D1675" s="36">
         <v>45812</v>
       </c>
       <c r="E1675" s="13">
@@ -35033,16 +35730,16 @@
       </c>
     </row>
     <row r="1676" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1676" s="35" t="s">
-        <v>2060</v>
-      </c>
-      <c r="B1676" s="35" t="s">
-        <v>2056</v>
-      </c>
-      <c r="C1676" s="35" t="s">
+      <c r="A1676" s="36" t="s">
+        <v>2061</v>
+      </c>
+      <c r="B1676" s="36" t="s">
+        <v>2057</v>
+      </c>
+      <c r="C1676" s="36" t="s">
         <v>262</v>
       </c>
-      <c r="D1676" s="35">
+      <c r="D1676" s="36">
         <v>45720</v>
       </c>
       <c r="E1676" s="13">
@@ -35050,16 +35747,16 @@
       </c>
     </row>
     <row r="1677" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1677" s="35" t="s">
-        <v>2061</v>
-      </c>
-      <c r="B1677" s="35" t="s">
-        <v>2056</v>
-      </c>
-      <c r="C1677" s="35" t="s">
+      <c r="A1677" s="36" t="s">
+        <v>2062</v>
+      </c>
+      <c r="B1677" s="36" t="s">
+        <v>2057</v>
+      </c>
+      <c r="C1677" s="36" t="s">
         <v>247</v>
       </c>
-      <c r="D1677" s="35">
+      <c r="D1677" s="36">
         <v>45661</v>
       </c>
       <c r="E1677" s="13">
@@ -35067,16 +35764,16 @@
       </c>
     </row>
     <row r="1678" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1678" s="35" t="s">
-        <v>2062</v>
-      </c>
-      <c r="B1678" s="35" t="s">
-        <v>2056</v>
-      </c>
-      <c r="C1678" s="35" t="s">
+      <c r="A1678" s="36" t="s">
+        <v>2063</v>
+      </c>
+      <c r="B1678" s="36" t="s">
+        <v>2057</v>
+      </c>
+      <c r="C1678" s="36" t="s">
         <v>263</v>
       </c>
-      <c r="D1678" s="35">
+      <c r="D1678" s="36">
         <v>45692</v>
       </c>
       <c r="E1678" s="13">
@@ -35084,16 +35781,16 @@
       </c>
     </row>
     <row r="1679" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1679" s="35" t="s">
-        <v>2063</v>
-      </c>
-      <c r="B1679" s="35" t="s">
-        <v>2056</v>
-      </c>
-      <c r="C1679" s="35" t="s">
+      <c r="A1679" s="36" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B1679" s="36" t="s">
+        <v>2057</v>
+      </c>
+      <c r="C1679" s="36" t="s">
         <v>252</v>
       </c>
-      <c r="D1679" s="35">
+      <c r="D1679" s="36">
         <v>45842</v>
       </c>
       <c r="E1679" s="13">
@@ -35101,16 +35798,16 @@
       </c>
     </row>
     <row r="1680" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1680" s="35" t="s">
-        <v>2064</v>
-      </c>
-      <c r="B1680" s="35" t="s">
-        <v>2056</v>
-      </c>
-      <c r="C1680" s="35" t="s">
+      <c r="A1680" s="36" t="s">
+        <v>2065</v>
+      </c>
+      <c r="B1680" s="36" t="s">
+        <v>2057</v>
+      </c>
+      <c r="C1680" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="D1680" s="35">
+      <c r="D1680" s="36">
         <v>45873</v>
       </c>
       <c r="E1680" s="13">
@@ -35118,203 +35815,3555 @@
       </c>
     </row>
     <row r="1681" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1681" s="36" t="s">
+      <c r="A1681" s="35" t="s">
+        <v>2248</v>
+      </c>
+      <c r="B1681" s="35" t="s">
+        <v>2086</v>
+      </c>
+      <c r="C1681" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1681" s="35">
+        <v>45781</v>
+      </c>
+      <c r="E1681" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1682" s="35" t="s">
+        <v>2249</v>
+      </c>
+      <c r="B1682" s="35" t="s">
+        <v>2086</v>
+      </c>
+      <c r="C1682" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1682" s="35">
+        <v>45934</v>
+      </c>
+      <c r="E1682" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1683" s="35" t="s">
+        <v>2250</v>
+      </c>
+      <c r="B1683" s="35" t="s">
+        <v>2086</v>
+      </c>
+      <c r="C1683" s="35" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1683" s="35">
+        <v>45812</v>
+      </c>
+      <c r="E1683" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1684" s="35" t="s">
+        <v>2251</v>
+      </c>
+      <c r="B1684" s="35" t="s">
+        <v>2086</v>
+      </c>
+      <c r="C1684" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1684" s="35">
+        <v>45720</v>
+      </c>
+      <c r="E1684" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1685" s="35" t="s">
+        <v>2252</v>
+      </c>
+      <c r="B1685" s="35" t="s">
+        <v>2086</v>
+      </c>
+      <c r="C1685" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1685" s="35">
+        <v>45661</v>
+      </c>
+      <c r="E1685" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1686" s="35" t="s">
+        <v>2253</v>
+      </c>
+      <c r="B1686" s="35" t="s">
+        <v>2086</v>
+      </c>
+      <c r="C1686" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1686" s="35">
+        <v>45692</v>
+      </c>
+      <c r="E1686" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1687" s="35" t="s">
+        <v>2254</v>
+      </c>
+      <c r="B1687" s="35" t="s">
+        <v>2086</v>
+      </c>
+      <c r="C1687" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1687" s="35">
+        <v>45842</v>
+      </c>
+      <c r="E1687" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1688" s="35" t="s">
+        <v>2255</v>
+      </c>
+      <c r="B1688" s="35" t="s">
+        <v>2086</v>
+      </c>
+      <c r="C1688" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1688" s="35">
+        <v>45873</v>
+      </c>
+      <c r="E1688" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1689" s="36" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1689" s="36" t="s">
         <v>2066</v>
       </c>
-      <c r="B1681" s="36" t="s">
-        <v>2065</v>
-      </c>
-      <c r="C1681" s="36" t="s">
+      <c r="C1689" s="36" t="s">
+        <v>2068</v>
+      </c>
+      <c r="D1689" s="36">
+        <v>45507</v>
+      </c>
+      <c r="E1689" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1690" s="35" t="s">
+        <v>2088</v>
+      </c>
+      <c r="B1690" s="35" t="s">
+        <v>2069</v>
+      </c>
+      <c r="C1690" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1681" s="36">
+      <c r="D1690" s="35">
         <v>45781</v>
       </c>
-      <c r="E1681" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1682" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1682" s="36" t="s">
-        <v>2067</v>
-      </c>
-      <c r="B1682" s="36" t="s">
-        <v>2065</v>
-      </c>
-      <c r="C1682" s="36" t="s">
+      <c r="E1690" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1691" s="35" t="s">
+        <v>2089</v>
+      </c>
+      <c r="B1691" s="35" t="s">
+        <v>2069</v>
+      </c>
+      <c r="C1691" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="D1682" s="36">
+      <c r="D1691" s="35">
         <v>45934</v>
       </c>
-      <c r="E1682" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1683" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1683" s="36" t="s">
-        <v>2068</v>
-      </c>
-      <c r="B1683" s="36" t="s">
-        <v>2065</v>
-      </c>
-      <c r="C1683" s="36" t="s">
+      <c r="E1691" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1692" s="35" t="s">
+        <v>2090</v>
+      </c>
+      <c r="B1692" s="35" t="s">
+        <v>2069</v>
+      </c>
+      <c r="C1692" s="35" t="s">
         <v>952</v>
       </c>
-      <c r="D1683" s="36">
+      <c r="D1692" s="35">
         <v>45812</v>
       </c>
-      <c r="E1683" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1684" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1684" s="36" t="s">
+      <c r="E1692" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1693" s="35" t="s">
+        <v>2091</v>
+      </c>
+      <c r="B1693" s="35" t="s">
         <v>2069</v>
       </c>
-      <c r="B1684" s="36" t="s">
-        <v>2065</v>
-      </c>
-      <c r="C1684" s="36" t="s">
+      <c r="C1693" s="35" t="s">
         <v>262</v>
       </c>
-      <c r="D1684" s="36">
+      <c r="D1693" s="35">
         <v>45720</v>
       </c>
-      <c r="E1684" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1685" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1685" s="36" t="s">
+      <c r="E1693" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1694" s="35" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B1694" s="35" t="s">
+        <v>2069</v>
+      </c>
+      <c r="C1694" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1694" s="35">
+        <v>45661</v>
+      </c>
+      <c r="E1694" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1695" s="35" t="s">
+        <v>2093</v>
+      </c>
+      <c r="B1695" s="35" t="s">
+        <v>2069</v>
+      </c>
+      <c r="C1695" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1695" s="35">
+        <v>45692</v>
+      </c>
+      <c r="E1695" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1696" s="35" t="s">
+        <v>2094</v>
+      </c>
+      <c r="B1696" s="35" t="s">
+        <v>2069</v>
+      </c>
+      <c r="C1696" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1696" s="35">
+        <v>45842</v>
+      </c>
+      <c r="E1696" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1697" s="35" t="s">
+        <v>2095</v>
+      </c>
+      <c r="B1697" s="35" t="s">
+        <v>2069</v>
+      </c>
+      <c r="C1697" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1697" s="35">
+        <v>45873</v>
+      </c>
+      <c r="E1697" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1698" s="36" t="s">
+        <v>2096</v>
+      </c>
+      <c r="B1698" s="36" t="s">
         <v>2070</v>
       </c>
-      <c r="B1685" s="36" t="s">
-        <v>2065</v>
-      </c>
-      <c r="C1685" s="36" t="s">
+      <c r="C1698" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1698" s="36">
+        <v>45781</v>
+      </c>
+      <c r="E1698" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1699" s="36" t="s">
+        <v>2097</v>
+      </c>
+      <c r="B1699" s="36" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C1699" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1699" s="36">
+        <v>45934</v>
+      </c>
+      <c r="E1699" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1700" s="36" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B1700" s="36" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C1700" s="36" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1700" s="36">
+        <v>45812</v>
+      </c>
+      <c r="E1700" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1701" s="36" t="s">
+        <v>2099</v>
+      </c>
+      <c r="B1701" s="36" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C1701" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1701" s="36">
+        <v>45720</v>
+      </c>
+      <c r="E1701" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1702" s="36" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B1702" s="36" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C1702" s="36" t="s">
         <v>247</v>
       </c>
-      <c r="D1685" s="36">
+      <c r="D1702" s="36">
         <v>45661</v>
       </c>
-      <c r="E1685" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1686" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1686" s="36" t="s">
+      <c r="E1702" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1703" s="36" t="s">
+        <v>2101</v>
+      </c>
+      <c r="B1703" s="36" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C1703" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1703" s="36">
+        <v>45692</v>
+      </c>
+      <c r="E1703" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1704" s="36" t="s">
+        <v>2102</v>
+      </c>
+      <c r="B1704" s="36" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C1704" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1704" s="36">
+        <v>45842</v>
+      </c>
+      <c r="E1704" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1705" s="36" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B1705" s="36" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C1705" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1705" s="36">
+        <v>45873</v>
+      </c>
+      <c r="E1705" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1706" s="35" t="s">
+        <v>2104</v>
+      </c>
+      <c r="B1706" s="35" t="s">
         <v>2071</v>
       </c>
-      <c r="B1686" s="36" t="s">
-        <v>2065</v>
-      </c>
-      <c r="C1686" s="36" t="s">
+      <c r="C1706" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1706" s="35">
+        <v>45781</v>
+      </c>
+      <c r="E1706" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1707" s="35" t="s">
+        <v>2105</v>
+      </c>
+      <c r="B1707" s="35" t="s">
+        <v>2071</v>
+      </c>
+      <c r="C1707" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1707" s="35">
+        <v>45934</v>
+      </c>
+      <c r="E1707" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1708" s="35" t="s">
+        <v>2106</v>
+      </c>
+      <c r="B1708" s="35" t="s">
+        <v>2071</v>
+      </c>
+      <c r="C1708" s="35" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1708" s="35">
+        <v>45812</v>
+      </c>
+      <c r="E1708" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1709" s="35" t="s">
+        <v>2107</v>
+      </c>
+      <c r="B1709" s="35" t="s">
+        <v>2071</v>
+      </c>
+      <c r="C1709" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1709" s="35">
+        <v>45720</v>
+      </c>
+      <c r="E1709" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1710" s="35" t="s">
+        <v>2108</v>
+      </c>
+      <c r="B1710" s="35" t="s">
+        <v>2071</v>
+      </c>
+      <c r="C1710" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1710" s="35">
+        <v>45661</v>
+      </c>
+      <c r="E1710" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1711" s="35" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B1711" s="35" t="s">
+        <v>2071</v>
+      </c>
+      <c r="C1711" s="35" t="s">
         <v>263</v>
       </c>
-      <c r="D1686" s="36">
+      <c r="D1711" s="35">
         <v>45692</v>
       </c>
-      <c r="E1686" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1687" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1687" s="36" t="s">
+      <c r="E1711" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1712" s="35" t="s">
+        <v>2110</v>
+      </c>
+      <c r="B1712" s="35" t="s">
+        <v>2071</v>
+      </c>
+      <c r="C1712" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1712" s="35">
+        <v>45842</v>
+      </c>
+      <c r="E1712" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1713" s="35" t="s">
+        <v>2111</v>
+      </c>
+      <c r="B1713" s="35" t="s">
+        <v>2071</v>
+      </c>
+      <c r="C1713" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1713" s="35">
+        <v>45873</v>
+      </c>
+      <c r="E1713" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1714" s="36" t="s">
+        <v>2112</v>
+      </c>
+      <c r="B1714" s="36" t="s">
         <v>2072</v>
       </c>
-      <c r="B1687" s="36" t="s">
-        <v>2065</v>
-      </c>
-      <c r="C1687" s="36" t="s">
+      <c r="C1714" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1714" s="36">
+        <v>45781</v>
+      </c>
+      <c r="E1714" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1715" s="36" t="s">
+        <v>2113</v>
+      </c>
+      <c r="B1715" s="36" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C1715" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1715" s="36">
+        <v>45934</v>
+      </c>
+      <c r="E1715" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1716" s="36" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B1716" s="36" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C1716" s="36" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1716" s="36">
+        <v>45812</v>
+      </c>
+      <c r="E1716" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1717" s="36" t="s">
+        <v>2115</v>
+      </c>
+      <c r="B1717" s="36" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C1717" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1717" s="36">
+        <v>45720</v>
+      </c>
+      <c r="E1717" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1718" s="36" t="s">
+        <v>2116</v>
+      </c>
+      <c r="B1718" s="36" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C1718" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1718" s="36">
+        <v>45661</v>
+      </c>
+      <c r="E1718" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1719" s="36" t="s">
+        <v>2117</v>
+      </c>
+      <c r="B1719" s="36" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C1719" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1719" s="36">
+        <v>45692</v>
+      </c>
+      <c r="E1719" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1720" s="36" t="s">
+        <v>2118</v>
+      </c>
+      <c r="B1720" s="36" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C1720" s="36" t="s">
         <v>252</v>
       </c>
-      <c r="D1687" s="36">
+      <c r="D1720" s="36">
         <v>45842</v>
       </c>
-      <c r="E1687" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1688" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1688" s="36" t="s">
+      <c r="E1720" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1721" s="36" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B1721" s="36" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C1721" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1721" s="36">
+        <v>45873</v>
+      </c>
+      <c r="E1721" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1722" s="35" t="s">
+        <v>2120</v>
+      </c>
+      <c r="B1722" s="35" t="s">
         <v>2073</v>
       </c>
-      <c r="B1688" s="36" t="s">
-        <v>2065</v>
-      </c>
-      <c r="C1688" s="36" t="s">
+      <c r="C1722" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1722" s="35">
+        <v>45781</v>
+      </c>
+      <c r="E1722" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1723" s="35" t="s">
+        <v>2121</v>
+      </c>
+      <c r="B1723" s="35" t="s">
+        <v>2073</v>
+      </c>
+      <c r="C1723" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1723" s="35">
+        <v>45934</v>
+      </c>
+      <c r="E1723" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1724" s="35" t="s">
+        <v>2122</v>
+      </c>
+      <c r="B1724" s="35" t="s">
+        <v>2073</v>
+      </c>
+      <c r="C1724" s="35" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1724" s="35">
+        <v>45812</v>
+      </c>
+      <c r="E1724" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1725" s="35" t="s">
+        <v>2123</v>
+      </c>
+      <c r="B1725" s="35" t="s">
+        <v>2073</v>
+      </c>
+      <c r="C1725" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1725" s="35">
+        <v>45720</v>
+      </c>
+      <c r="E1725" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1726" s="35" t="s">
+        <v>2124</v>
+      </c>
+      <c r="B1726" s="35" t="s">
+        <v>2073</v>
+      </c>
+      <c r="C1726" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1726" s="35">
+        <v>45661</v>
+      </c>
+      <c r="E1726" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1727" s="35" t="s">
+        <v>2125</v>
+      </c>
+      <c r="B1727" s="35" t="s">
+        <v>2073</v>
+      </c>
+      <c r="C1727" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1727" s="35">
+        <v>45692</v>
+      </c>
+      <c r="E1727" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1728" s="35" t="s">
+        <v>2126</v>
+      </c>
+      <c r="B1728" s="35" t="s">
+        <v>2073</v>
+      </c>
+      <c r="C1728" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1728" s="35">
+        <v>45842</v>
+      </c>
+      <c r="E1728" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1729" s="35" t="s">
+        <v>2127</v>
+      </c>
+      <c r="B1729" s="35" t="s">
+        <v>2073</v>
+      </c>
+      <c r="C1729" s="35" t="s">
         <v>231</v>
       </c>
-      <c r="D1688" s="36">
+      <c r="D1729" s="35">
         <v>45873</v>
       </c>
-      <c r="E1688" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1689" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1689" s="35"/>
-      <c r="B1689" s="35"/>
-      <c r="C1689" s="35"/>
-      <c r="D1689" s="35"/>
-    </row>
-    <row r="1690" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1690" s="35"/>
-      <c r="B1690" s="35"/>
-      <c r="C1690" s="35"/>
-      <c r="D1690" s="35"/>
-    </row>
-    <row r="1691" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1691" s="35"/>
-      <c r="B1691" s="35"/>
-      <c r="C1691" s="35"/>
-      <c r="D1691" s="35"/>
-    </row>
-    <row r="1692" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1692" s="35"/>
-      <c r="B1692" s="35"/>
-      <c r="C1692" s="35"/>
-      <c r="D1692" s="35"/>
-    </row>
-    <row r="1693" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1693" s="35"/>
-      <c r="B1693" s="35"/>
-      <c r="C1693" s="35"/>
-      <c r="D1693" s="35"/>
-    </row>
-    <row r="1694" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1694" s="35"/>
-      <c r="B1694" s="35"/>
-      <c r="C1694" s="35"/>
-      <c r="D1694" s="35"/>
-    </row>
-    <row r="1695" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1695" s="35"/>
-      <c r="B1695" s="35"/>
-      <c r="C1695" s="35"/>
-      <c r="D1695" s="35"/>
-    </row>
-    <row r="1696" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1696" s="35"/>
-      <c r="B1696" s="35"/>
-      <c r="C1696" s="35"/>
-      <c r="D1696" s="35"/>
-    </row>
-    <row r="1697" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1697" s="36" t="s">
+      <c r="E1729" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1730" s="36" t="s">
+        <v>2128</v>
+      </c>
+      <c r="B1730" s="36" t="s">
+        <v>2074</v>
+      </c>
+      <c r="C1730" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1730" s="36">
+        <v>45781</v>
+      </c>
+      <c r="E1730" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1731" s="36" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B1731" s="36" t="s">
+        <v>2074</v>
+      </c>
+      <c r="C1731" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1731" s="36">
+        <v>45934</v>
+      </c>
+      <c r="E1731" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1732" s="36" t="s">
+        <v>2130</v>
+      </c>
+      <c r="B1732" s="36" t="s">
+        <v>2074</v>
+      </c>
+      <c r="C1732" s="36" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1732" s="36">
+        <v>45812</v>
+      </c>
+      <c r="E1732" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1733" s="36" t="s">
+        <v>2131</v>
+      </c>
+      <c r="B1733" s="36" t="s">
+        <v>2074</v>
+      </c>
+      <c r="C1733" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1733" s="36">
+        <v>45720</v>
+      </c>
+      <c r="E1733" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1734" s="36" t="s">
+        <v>2132</v>
+      </c>
+      <c r="B1734" s="36" t="s">
+        <v>2074</v>
+      </c>
+      <c r="C1734" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1734" s="36">
+        <v>45661</v>
+      </c>
+      <c r="E1734" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1735" s="36" t="s">
+        <v>2133</v>
+      </c>
+      <c r="B1735" s="36" t="s">
+        <v>2074</v>
+      </c>
+      <c r="C1735" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1735" s="36">
+        <v>45692</v>
+      </c>
+      <c r="E1735" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1736" s="36" t="s">
+        <v>2134</v>
+      </c>
+      <c r="B1736" s="36" t="s">
+        <v>2074</v>
+      </c>
+      <c r="C1736" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1736" s="36">
+        <v>45842</v>
+      </c>
+      <c r="E1736" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1737" s="36" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B1737" s="36" t="s">
+        <v>2074</v>
+      </c>
+      <c r="C1737" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1737" s="36">
+        <v>45873</v>
+      </c>
+      <c r="E1737" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1738" s="35" t="s">
+        <v>2136</v>
+      </c>
+      <c r="B1738" s="35" t="s">
         <v>2075</v>
       </c>
-      <c r="B1697" s="36" t="s">
-        <v>2074</v>
-      </c>
-      <c r="C1697" s="36" t="s">
+      <c r="C1738" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1738" s="35">
+        <v>45781</v>
+      </c>
+      <c r="E1738" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1739" s="35" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B1739" s="35" t="s">
+        <v>2075</v>
+      </c>
+      <c r="C1739" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1739" s="35">
+        <v>45934</v>
+      </c>
+      <c r="E1739" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1740" s="35" t="s">
+        <v>2138</v>
+      </c>
+      <c r="B1740" s="35" t="s">
+        <v>2075</v>
+      </c>
+      <c r="C1740" s="35" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1740" s="35">
+        <v>45812</v>
+      </c>
+      <c r="E1740" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1741" s="35" t="s">
+        <v>2139</v>
+      </c>
+      <c r="B1741" s="35" t="s">
+        <v>2075</v>
+      </c>
+      <c r="C1741" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1741" s="35">
+        <v>45720</v>
+      </c>
+      <c r="E1741" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1742" s="35" t="s">
+        <v>2140</v>
+      </c>
+      <c r="B1742" s="35" t="s">
+        <v>2075</v>
+      </c>
+      <c r="C1742" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1742" s="35">
+        <v>45661</v>
+      </c>
+      <c r="E1742" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1743" s="35" t="s">
+        <v>2141</v>
+      </c>
+      <c r="B1743" s="35" t="s">
+        <v>2075</v>
+      </c>
+      <c r="C1743" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1743" s="35">
+        <v>45692</v>
+      </c>
+      <c r="E1743" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1744" s="35" t="s">
+        <v>2142</v>
+      </c>
+      <c r="B1744" s="35" t="s">
+        <v>2075</v>
+      </c>
+      <c r="C1744" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1744" s="35">
+        <v>45842</v>
+      </c>
+      <c r="E1744" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1745" s="35" t="s">
+        <v>2143</v>
+      </c>
+      <c r="B1745" s="35" t="s">
+        <v>2075</v>
+      </c>
+      <c r="C1745" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1745" s="35">
+        <v>45873</v>
+      </c>
+      <c r="E1745" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1746" s="36" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B1746" s="36" t="s">
         <v>2076</v>
       </c>
-      <c r="D1697" s="36">
-        <v>45507</v>
-      </c>
-      <c r="E1697" s="13">
+      <c r="C1746" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1746" s="36">
+        <v>45781</v>
+      </c>
+      <c r="E1746" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1747" s="36" t="s">
+        <v>2145</v>
+      </c>
+      <c r="B1747" s="36" t="s">
+        <v>2076</v>
+      </c>
+      <c r="C1747" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1747" s="36">
+        <v>45934</v>
+      </c>
+      <c r="E1747" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1748" s="36" t="s">
+        <v>2146</v>
+      </c>
+      <c r="B1748" s="36" t="s">
+        <v>2076</v>
+      </c>
+      <c r="C1748" s="36" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1748" s="36">
+        <v>45812</v>
+      </c>
+      <c r="E1748" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1749" s="36" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B1749" s="36" t="s">
+        <v>2076</v>
+      </c>
+      <c r="C1749" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1749" s="36">
+        <v>45720</v>
+      </c>
+      <c r="E1749" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1750" s="36" t="s">
+        <v>2148</v>
+      </c>
+      <c r="B1750" s="36" t="s">
+        <v>2076</v>
+      </c>
+      <c r="C1750" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1750" s="36">
+        <v>45661</v>
+      </c>
+      <c r="E1750" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1751" s="36" t="s">
+        <v>2149</v>
+      </c>
+      <c r="B1751" s="36" t="s">
+        <v>2076</v>
+      </c>
+      <c r="C1751" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1751" s="36">
+        <v>45692</v>
+      </c>
+      <c r="E1751" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1752" s="36" t="s">
+        <v>2150</v>
+      </c>
+      <c r="B1752" s="36" t="s">
+        <v>2076</v>
+      </c>
+      <c r="C1752" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1752" s="36">
+        <v>45842</v>
+      </c>
+      <c r="E1752" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1753" s="36" t="s">
+        <v>2151</v>
+      </c>
+      <c r="B1753" s="36" t="s">
+        <v>2076</v>
+      </c>
+      <c r="C1753" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1753" s="36">
+        <v>45873</v>
+      </c>
+      <c r="E1753" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1754" s="35" t="s">
+        <v>2152</v>
+      </c>
+      <c r="B1754" s="35" t="s">
+        <v>2087</v>
+      </c>
+      <c r="C1754" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1754" s="35">
+        <v>45781</v>
+      </c>
+      <c r="E1754" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1755" s="35" t="s">
+        <v>2153</v>
+      </c>
+      <c r="B1755" s="35" t="s">
+        <v>2087</v>
+      </c>
+      <c r="C1755" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1755" s="35">
+        <v>45934</v>
+      </c>
+      <c r="E1755" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1756" s="35" t="s">
+        <v>2154</v>
+      </c>
+      <c r="B1756" s="35" t="s">
+        <v>2087</v>
+      </c>
+      <c r="C1756" s="35" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1756" s="35">
+        <v>45812</v>
+      </c>
+      <c r="E1756" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1757" s="35" t="s">
+        <v>2155</v>
+      </c>
+      <c r="B1757" s="35" t="s">
+        <v>2087</v>
+      </c>
+      <c r="C1757" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1757" s="35">
+        <v>45720</v>
+      </c>
+      <c r="E1757" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1758" s="35" t="s">
+        <v>2156</v>
+      </c>
+      <c r="B1758" s="35" t="s">
+        <v>2087</v>
+      </c>
+      <c r="C1758" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1758" s="35">
+        <v>45661</v>
+      </c>
+      <c r="E1758" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1759" s="35" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B1759" s="35" t="s">
+        <v>2087</v>
+      </c>
+      <c r="C1759" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1759" s="35">
+        <v>45692</v>
+      </c>
+      <c r="E1759" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1760" s="35" t="s">
+        <v>2158</v>
+      </c>
+      <c r="B1760" s="35" t="s">
+        <v>2087</v>
+      </c>
+      <c r="C1760" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1760" s="35">
+        <v>45842</v>
+      </c>
+      <c r="E1760" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1761" s="35" t="s">
+        <v>2159</v>
+      </c>
+      <c r="B1761" s="35" t="s">
+        <v>2087</v>
+      </c>
+      <c r="C1761" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1761" s="35">
+        <v>45873</v>
+      </c>
+      <c r="E1761" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1762" s="36" t="s">
+        <v>2160</v>
+      </c>
+      <c r="B1762" s="36" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C1762" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1762" s="36">
+        <v>45781</v>
+      </c>
+      <c r="E1762" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1763" s="36" t="s">
+        <v>2161</v>
+      </c>
+      <c r="B1763" s="36" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C1763" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1763" s="36">
+        <v>45934</v>
+      </c>
+      <c r="E1763" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1764" s="36" t="s">
+        <v>2162</v>
+      </c>
+      <c r="B1764" s="36" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C1764" s="36" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1764" s="36">
+        <v>45812</v>
+      </c>
+      <c r="E1764" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1765" s="36" t="s">
+        <v>2163</v>
+      </c>
+      <c r="B1765" s="36" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C1765" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1765" s="36">
+        <v>45720</v>
+      </c>
+      <c r="E1765" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1766" s="36" t="s">
+        <v>2164</v>
+      </c>
+      <c r="B1766" s="36" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C1766" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1766" s="36">
+        <v>45661</v>
+      </c>
+      <c r="E1766" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1767" s="36" t="s">
+        <v>2165</v>
+      </c>
+      <c r="B1767" s="36" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C1767" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1767" s="36">
+        <v>45692</v>
+      </c>
+      <c r="E1767" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1768" s="36" t="s">
+        <v>2166</v>
+      </c>
+      <c r="B1768" s="36" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C1768" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1768" s="36">
+        <v>45842</v>
+      </c>
+      <c r="E1768" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1769" s="36" t="s">
+        <v>2167</v>
+      </c>
+      <c r="B1769" s="36" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C1769" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1769" s="36">
+        <v>45873</v>
+      </c>
+      <c r="E1769" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1770" s="35" t="s">
+        <v>2168</v>
+      </c>
+      <c r="B1770" s="35" t="s">
+        <v>2078</v>
+      </c>
+      <c r="C1770" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1770" s="35">
+        <v>45781</v>
+      </c>
+      <c r="E1770" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1771" s="35" t="s">
+        <v>2169</v>
+      </c>
+      <c r="B1771" s="35" t="s">
+        <v>2078</v>
+      </c>
+      <c r="C1771" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1771" s="35">
+        <v>45934</v>
+      </c>
+      <c r="E1771" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1772" s="35" t="s">
+        <v>2170</v>
+      </c>
+      <c r="B1772" s="35" t="s">
+        <v>2078</v>
+      </c>
+      <c r="C1772" s="35" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1772" s="35">
+        <v>45812</v>
+      </c>
+      <c r="E1772" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1773" s="35" t="s">
+        <v>2171</v>
+      </c>
+      <c r="B1773" s="35" t="s">
+        <v>2078</v>
+      </c>
+      <c r="C1773" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1773" s="35">
+        <v>45720</v>
+      </c>
+      <c r="E1773" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1774" s="35" t="s">
+        <v>2172</v>
+      </c>
+      <c r="B1774" s="35" t="s">
+        <v>2078</v>
+      </c>
+      <c r="C1774" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1774" s="35">
+        <v>45661</v>
+      </c>
+      <c r="E1774" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1775" s="35" t="s">
+        <v>2173</v>
+      </c>
+      <c r="B1775" s="35" t="s">
+        <v>2078</v>
+      </c>
+      <c r="C1775" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1775" s="35">
+        <v>45692</v>
+      </c>
+      <c r="E1775" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1776" s="35" t="s">
+        <v>2174</v>
+      </c>
+      <c r="B1776" s="35" t="s">
+        <v>2078</v>
+      </c>
+      <c r="C1776" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1776" s="35">
+        <v>45842</v>
+      </c>
+      <c r="E1776" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1777" s="35" t="s">
+        <v>2175</v>
+      </c>
+      <c r="B1777" s="35" t="s">
+        <v>2078</v>
+      </c>
+      <c r="C1777" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1777" s="35">
+        <v>45873</v>
+      </c>
+      <c r="E1777" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1778" s="61" t="s">
+        <v>2176</v>
+      </c>
+      <c r="B1778" s="61" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C1778" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1778" s="61">
+        <v>45781</v>
+      </c>
+      <c r="E1778" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1779" s="61" t="s">
+        <v>2177</v>
+      </c>
+      <c r="B1779" s="61" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C1779" s="61" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1779" s="61">
+        <v>45934</v>
+      </c>
+      <c r="E1779" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1780" s="61" t="s">
+        <v>2178</v>
+      </c>
+      <c r="B1780" s="61" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C1780" s="61" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1780" s="61">
+        <v>45812</v>
+      </c>
+      <c r="E1780" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1781" s="61" t="s">
+        <v>2179</v>
+      </c>
+      <c r="B1781" s="61" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C1781" s="61" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1781" s="61">
+        <v>45720</v>
+      </c>
+      <c r="E1781" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1782" s="61" t="s">
+        <v>2180</v>
+      </c>
+      <c r="B1782" s="61" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C1782" s="61" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1782" s="61">
+        <v>45661</v>
+      </c>
+      <c r="E1782" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1783" s="61" t="s">
+        <v>2181</v>
+      </c>
+      <c r="B1783" s="61" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C1783" s="61" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1783" s="61">
+        <v>45692</v>
+      </c>
+      <c r="E1783" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1784" s="61" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B1784" s="61" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C1784" s="61" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1784" s="61">
+        <v>45842</v>
+      </c>
+      <c r="E1784" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1785" s="61" t="s">
+        <v>2183</v>
+      </c>
+      <c r="B1785" s="61" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C1785" s="61" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1785" s="61">
+        <v>45873</v>
+      </c>
+      <c r="E1785" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1786" s="36" t="s">
+        <v>2184</v>
+      </c>
+      <c r="B1786" s="36" t="s">
+        <v>2080</v>
+      </c>
+      <c r="C1786" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1786" s="36">
+        <v>45781</v>
+      </c>
+      <c r="E1786" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1787" s="36" t="s">
+        <v>2185</v>
+      </c>
+      <c r="B1787" s="36" t="s">
+        <v>2080</v>
+      </c>
+      <c r="C1787" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1787" s="36">
+        <v>45934</v>
+      </c>
+      <c r="E1787" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1788" s="36" t="s">
+        <v>2186</v>
+      </c>
+      <c r="B1788" s="36" t="s">
+        <v>2080</v>
+      </c>
+      <c r="C1788" s="36" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1788" s="36">
+        <v>45812</v>
+      </c>
+      <c r="E1788" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1789" s="36" t="s">
+        <v>2187</v>
+      </c>
+      <c r="B1789" s="36" t="s">
+        <v>2080</v>
+      </c>
+      <c r="C1789" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1789" s="36">
+        <v>45720</v>
+      </c>
+      <c r="E1789" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1790" s="36" t="s">
+        <v>2188</v>
+      </c>
+      <c r="B1790" s="36" t="s">
+        <v>2080</v>
+      </c>
+      <c r="C1790" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1790" s="36">
+        <v>45661</v>
+      </c>
+      <c r="E1790" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1791" s="36" t="s">
+        <v>2189</v>
+      </c>
+      <c r="B1791" s="36" t="s">
+        <v>2080</v>
+      </c>
+      <c r="C1791" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1791" s="36">
+        <v>45692</v>
+      </c>
+      <c r="E1791" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1792" s="36" t="s">
+        <v>2190</v>
+      </c>
+      <c r="B1792" s="36" t="s">
+        <v>2080</v>
+      </c>
+      <c r="C1792" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1792" s="36">
+        <v>45842</v>
+      </c>
+      <c r="E1792" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1793" s="36" t="s">
+        <v>2191</v>
+      </c>
+      <c r="B1793" s="36" t="s">
+        <v>2080</v>
+      </c>
+      <c r="C1793" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1793" s="36">
+        <v>45873</v>
+      </c>
+      <c r="E1793" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1794" s="35" t="s">
+        <v>2192</v>
+      </c>
+      <c r="B1794" s="35" t="s">
+        <v>2081</v>
+      </c>
+      <c r="C1794" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1794" s="35">
+        <v>45781</v>
+      </c>
+      <c r="E1794" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1795" s="35" t="s">
+        <v>2193</v>
+      </c>
+      <c r="B1795" s="35" t="s">
+        <v>2081</v>
+      </c>
+      <c r="C1795" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1795" s="35">
+        <v>45934</v>
+      </c>
+      <c r="E1795" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1796" s="35" t="s">
+        <v>2194</v>
+      </c>
+      <c r="B1796" s="35" t="s">
+        <v>2081</v>
+      </c>
+      <c r="C1796" s="35" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1796" s="35">
+        <v>45812</v>
+      </c>
+      <c r="E1796" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1797" s="35" t="s">
+        <v>2195</v>
+      </c>
+      <c r="B1797" s="35" t="s">
+        <v>2081</v>
+      </c>
+      <c r="C1797" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1797" s="35">
+        <v>45720</v>
+      </c>
+      <c r="E1797" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1798" s="35" t="s">
+        <v>2196</v>
+      </c>
+      <c r="B1798" s="35" t="s">
+        <v>2081</v>
+      </c>
+      <c r="C1798" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1798" s="35">
+        <v>45661</v>
+      </c>
+      <c r="E1798" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1799" s="35" t="s">
+        <v>2197</v>
+      </c>
+      <c r="B1799" s="35" t="s">
+        <v>2081</v>
+      </c>
+      <c r="C1799" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1799" s="35">
+        <v>45692</v>
+      </c>
+      <c r="E1799" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1800" s="35" t="s">
+        <v>2198</v>
+      </c>
+      <c r="B1800" s="35" t="s">
+        <v>2081</v>
+      </c>
+      <c r="C1800" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1800" s="35">
+        <v>45842</v>
+      </c>
+      <c r="E1800" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1801" s="35" t="s">
+        <v>2199</v>
+      </c>
+      <c r="B1801" s="35" t="s">
+        <v>2081</v>
+      </c>
+      <c r="C1801" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1801" s="35">
+        <v>45873</v>
+      </c>
+      <c r="E1801" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1802" s="36" t="s">
+        <v>2200</v>
+      </c>
+      <c r="B1802" s="36" t="s">
+        <v>2082</v>
+      </c>
+      <c r="C1802" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1802" s="36">
+        <v>45781</v>
+      </c>
+      <c r="E1802" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1803" s="36" t="s">
+        <v>2201</v>
+      </c>
+      <c r="B1803" s="36" t="s">
+        <v>2082</v>
+      </c>
+      <c r="C1803" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1803" s="36">
+        <v>45934</v>
+      </c>
+      <c r="E1803" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1804" s="36" t="s">
+        <v>2202</v>
+      </c>
+      <c r="B1804" s="36" t="s">
+        <v>2082</v>
+      </c>
+      <c r="C1804" s="36" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1804" s="36">
+        <v>45812</v>
+      </c>
+      <c r="E1804" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1805" s="36" t="s">
+        <v>2203</v>
+      </c>
+      <c r="B1805" s="36" t="s">
+        <v>2082</v>
+      </c>
+      <c r="C1805" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1805" s="36">
+        <v>45720</v>
+      </c>
+      <c r="E1805" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1806" s="36" t="s">
+        <v>2204</v>
+      </c>
+      <c r="B1806" s="36" t="s">
+        <v>2082</v>
+      </c>
+      <c r="C1806" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1806" s="36">
+        <v>45661</v>
+      </c>
+      <c r="E1806" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1807" s="36" t="s">
+        <v>2205</v>
+      </c>
+      <c r="B1807" s="36" t="s">
+        <v>2082</v>
+      </c>
+      <c r="C1807" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1807" s="36">
+        <v>45692</v>
+      </c>
+      <c r="E1807" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1808" s="36" t="s">
+        <v>2206</v>
+      </c>
+      <c r="B1808" s="36" t="s">
+        <v>2082</v>
+      </c>
+      <c r="C1808" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1808" s="36">
+        <v>45842</v>
+      </c>
+      <c r="E1808" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1809" s="36" t="s">
+        <v>2207</v>
+      </c>
+      <c r="B1809" s="36" t="s">
+        <v>2082</v>
+      </c>
+      <c r="C1809" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1809" s="36">
+        <v>45873</v>
+      </c>
+      <c r="E1809" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1810" s="35" t="s">
+        <v>2208</v>
+      </c>
+      <c r="B1810" s="35" t="s">
+        <v>2083</v>
+      </c>
+      <c r="C1810" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1810" s="35">
+        <v>45781</v>
+      </c>
+      <c r="E1810" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1811" s="35" t="s">
+        <v>2209</v>
+      </c>
+      <c r="B1811" s="35" t="s">
+        <v>2083</v>
+      </c>
+      <c r="C1811" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1811" s="35">
+        <v>45934</v>
+      </c>
+      <c r="E1811" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1812" s="35" t="s">
+        <v>2210</v>
+      </c>
+      <c r="B1812" s="35" t="s">
+        <v>2083</v>
+      </c>
+      <c r="C1812" s="35" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1812" s="35">
+        <v>45812</v>
+      </c>
+      <c r="E1812" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1813" s="35" t="s">
+        <v>2211</v>
+      </c>
+      <c r="B1813" s="35" t="s">
+        <v>2083</v>
+      </c>
+      <c r="C1813" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1813" s="35">
+        <v>45720</v>
+      </c>
+      <c r="E1813" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1814" s="35" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B1814" s="35" t="s">
+        <v>2083</v>
+      </c>
+      <c r="C1814" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1814" s="35">
+        <v>45661</v>
+      </c>
+      <c r="E1814" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1815" s="35" t="s">
+        <v>2213</v>
+      </c>
+      <c r="B1815" s="35" t="s">
+        <v>2083</v>
+      </c>
+      <c r="C1815" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1815" s="35">
+        <v>45692</v>
+      </c>
+      <c r="E1815" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1816" s="35" t="s">
+        <v>2214</v>
+      </c>
+      <c r="B1816" s="35" t="s">
+        <v>2083</v>
+      </c>
+      <c r="C1816" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1816" s="35">
+        <v>45842</v>
+      </c>
+      <c r="E1816" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1817" s="35" t="s">
+        <v>2215</v>
+      </c>
+      <c r="B1817" s="35" t="s">
+        <v>2083</v>
+      </c>
+      <c r="C1817" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1817" s="35">
+        <v>45873</v>
+      </c>
+      <c r="E1817" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1818" s="36" t="s">
+        <v>2216</v>
+      </c>
+      <c r="B1818" s="36" t="s">
+        <v>2084</v>
+      </c>
+      <c r="C1818" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1818" s="36">
+        <v>45781</v>
+      </c>
+      <c r="E1818" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1819" s="36" t="s">
+        <v>2217</v>
+      </c>
+      <c r="B1819" s="36" t="s">
+        <v>2084</v>
+      </c>
+      <c r="C1819" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1819" s="36">
+        <v>45934</v>
+      </c>
+      <c r="E1819" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1820" s="36" t="s">
+        <v>2218</v>
+      </c>
+      <c r="B1820" s="36" t="s">
+        <v>2084</v>
+      </c>
+      <c r="C1820" s="36" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1820" s="36">
+        <v>45812</v>
+      </c>
+      <c r="E1820" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1821" s="36" t="s">
+        <v>2219</v>
+      </c>
+      <c r="B1821" s="36" t="s">
+        <v>2084</v>
+      </c>
+      <c r="C1821" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1821" s="36">
+        <v>45720</v>
+      </c>
+      <c r="E1821" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1822" s="36" t="s">
+        <v>2220</v>
+      </c>
+      <c r="B1822" s="36" t="s">
+        <v>2084</v>
+      </c>
+      <c r="C1822" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1822" s="36">
+        <v>45661</v>
+      </c>
+      <c r="E1822" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1823" s="36" t="s">
+        <v>2221</v>
+      </c>
+      <c r="B1823" s="36" t="s">
+        <v>2084</v>
+      </c>
+      <c r="C1823" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1823" s="36">
+        <v>45692</v>
+      </c>
+      <c r="E1823" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1824" s="36" t="s">
+        <v>2222</v>
+      </c>
+      <c r="B1824" s="36" t="s">
+        <v>2084</v>
+      </c>
+      <c r="C1824" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1824" s="36">
+        <v>45842</v>
+      </c>
+      <c r="E1824" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1825" s="36" t="s">
+        <v>2223</v>
+      </c>
+      <c r="B1825" s="36" t="s">
+        <v>2084</v>
+      </c>
+      <c r="C1825" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1825" s="36">
+        <v>45873</v>
+      </c>
+      <c r="E1825" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1826" s="35" t="s">
+        <v>2224</v>
+      </c>
+      <c r="B1826" s="35" t="s">
+        <v>2085</v>
+      </c>
+      <c r="C1826" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1826" s="35">
+        <v>45781</v>
+      </c>
+      <c r="E1826" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1827" s="35" t="s">
+        <v>2225</v>
+      </c>
+      <c r="B1827" s="35" t="s">
+        <v>2085</v>
+      </c>
+      <c r="C1827" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1827" s="35">
+        <v>45934</v>
+      </c>
+      <c r="E1827" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1828" s="35" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B1828" s="35" t="s">
+        <v>2085</v>
+      </c>
+      <c r="C1828" s="35" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1828" s="35">
+        <v>45812</v>
+      </c>
+      <c r="E1828" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1829" s="35" t="s">
+        <v>2227</v>
+      </c>
+      <c r="B1829" s="35" t="s">
+        <v>2085</v>
+      </c>
+      <c r="C1829" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1829" s="35">
+        <v>45720</v>
+      </c>
+      <c r="E1829" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1830" s="35" t="s">
+        <v>2228</v>
+      </c>
+      <c r="B1830" s="35" t="s">
+        <v>2085</v>
+      </c>
+      <c r="C1830" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1830" s="35">
+        <v>45661</v>
+      </c>
+      <c r="E1830" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1831" s="35" t="s">
+        <v>2229</v>
+      </c>
+      <c r="B1831" s="35" t="s">
+        <v>2085</v>
+      </c>
+      <c r="C1831" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1831" s="35">
+        <v>45692</v>
+      </c>
+      <c r="E1831" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1832" s="35" t="s">
+        <v>2230</v>
+      </c>
+      <c r="B1832" s="35" t="s">
+        <v>2085</v>
+      </c>
+      <c r="C1832" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1832" s="35">
+        <v>45842</v>
+      </c>
+      <c r="E1832" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1833" s="35" t="s">
+        <v>2231</v>
+      </c>
+      <c r="B1833" s="35" t="s">
+        <v>2085</v>
+      </c>
+      <c r="C1833" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1833" s="35">
+        <v>45873</v>
+      </c>
+      <c r="E1833" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1834" s="61" t="s">
+        <v>2232</v>
+      </c>
+      <c r="B1834" s="61" t="s">
+        <v>2256</v>
+      </c>
+      <c r="C1834" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1834" s="61">
+        <v>45782</v>
+      </c>
+      <c r="E1834" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1835" s="61" t="s">
+        <v>2233</v>
+      </c>
+      <c r="B1835" s="61" t="s">
+        <v>2256</v>
+      </c>
+      <c r="C1835" s="61" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1835" s="61">
+        <v>45935</v>
+      </c>
+      <c r="E1835" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1836" s="61" t="s">
+        <v>2234</v>
+      </c>
+      <c r="B1836" s="61" t="s">
+        <v>2256</v>
+      </c>
+      <c r="C1836" s="61" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1836" s="61">
+        <v>45813</v>
+      </c>
+      <c r="E1836" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1837" s="61" t="s">
+        <v>2235</v>
+      </c>
+      <c r="B1837" s="61" t="s">
+        <v>2256</v>
+      </c>
+      <c r="C1837" s="61" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1837" s="61">
+        <v>45721</v>
+      </c>
+      <c r="E1837" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1838" s="61" t="s">
+        <v>2236</v>
+      </c>
+      <c r="B1838" s="61" t="s">
+        <v>2256</v>
+      </c>
+      <c r="C1838" s="61" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1838" s="61">
+        <v>45662</v>
+      </c>
+      <c r="E1838" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1839" s="61" t="s">
+        <v>2237</v>
+      </c>
+      <c r="B1839" s="61" t="s">
+        <v>2256</v>
+      </c>
+      <c r="C1839" s="61" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1839" s="61">
+        <v>45693</v>
+      </c>
+      <c r="E1839" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1840" s="61" t="s">
+        <v>2238</v>
+      </c>
+      <c r="B1840" s="61" t="s">
+        <v>2256</v>
+      </c>
+      <c r="C1840" s="61" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1840" s="61">
+        <v>45843</v>
+      </c>
+      <c r="E1840" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1841" s="61" t="s">
+        <v>2239</v>
+      </c>
+      <c r="B1841" s="61" t="s">
+        <v>2256</v>
+      </c>
+      <c r="C1841" s="61" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1841" s="61">
+        <v>45874</v>
+      </c>
+      <c r="E1841" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1842" s="35" t="s">
+        <v>2240</v>
+      </c>
+      <c r="B1842" s="35" t="s">
+        <v>2257</v>
+      </c>
+      <c r="C1842" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1842" s="35">
+        <v>45782</v>
+      </c>
+      <c r="E1842" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1843" s="35" t="s">
+        <v>2241</v>
+      </c>
+      <c r="B1843" s="35" t="s">
+        <v>2257</v>
+      </c>
+      <c r="C1843" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1843" s="35">
+        <v>45935</v>
+      </c>
+      <c r="E1843" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1844" s="35" t="s">
+        <v>2242</v>
+      </c>
+      <c r="B1844" s="35" t="s">
+        <v>2257</v>
+      </c>
+      <c r="C1844" s="35" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1844" s="35">
+        <v>45813</v>
+      </c>
+      <c r="E1844" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1845" s="35" t="s">
+        <v>2243</v>
+      </c>
+      <c r="B1845" s="35" t="s">
+        <v>2257</v>
+      </c>
+      <c r="C1845" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1845" s="35">
+        <v>45721</v>
+      </c>
+      <c r="E1845" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1846" s="35" t="s">
+        <v>2244</v>
+      </c>
+      <c r="B1846" s="35" t="s">
+        <v>2257</v>
+      </c>
+      <c r="C1846" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1846" s="35">
+        <v>45662</v>
+      </c>
+      <c r="E1846" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1847" s="35" t="s">
+        <v>2245</v>
+      </c>
+      <c r="B1847" s="35" t="s">
+        <v>2257</v>
+      </c>
+      <c r="C1847" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1847" s="35">
+        <v>45693</v>
+      </c>
+      <c r="E1847" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1848" s="35" t="s">
+        <v>2246</v>
+      </c>
+      <c r="B1848" s="35" t="s">
+        <v>2257</v>
+      </c>
+      <c r="C1848" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1848" s="35">
+        <v>45843</v>
+      </c>
+      <c r="E1848" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1849" s="35" t="s">
+        <v>2247</v>
+      </c>
+      <c r="B1849" s="35" t="s">
+        <v>2257</v>
+      </c>
+      <c r="C1849" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1849" s="35">
+        <v>45874</v>
+      </c>
+      <c r="E1849" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1850" s="36" t="s">
+        <v>2260</v>
+      </c>
+      <c r="B1850" s="36" t="s">
+        <v>2258</v>
+      </c>
+      <c r="C1850" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1850" s="36">
+        <v>45782</v>
+      </c>
+      <c r="E1850" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1851" s="36" t="s">
+        <v>2261</v>
+      </c>
+      <c r="B1851" s="36" t="s">
+        <v>2258</v>
+      </c>
+      <c r="C1851" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1851" s="36">
+        <v>45935</v>
+      </c>
+      <c r="E1851" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1852" s="36" t="s">
+        <v>2262</v>
+      </c>
+      <c r="B1852" s="36" t="s">
+        <v>2258</v>
+      </c>
+      <c r="C1852" s="36" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1852" s="36">
+        <v>45813</v>
+      </c>
+      <c r="E1852" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1853" s="36" t="s">
+        <v>2263</v>
+      </c>
+      <c r="B1853" s="36" t="s">
+        <v>2258</v>
+      </c>
+      <c r="C1853" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1853" s="36">
+        <v>45721</v>
+      </c>
+      <c r="E1853" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1854" s="36" t="s">
+        <v>2264</v>
+      </c>
+      <c r="B1854" s="36" t="s">
+        <v>2258</v>
+      </c>
+      <c r="C1854" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1854" s="36">
+        <v>45662</v>
+      </c>
+      <c r="E1854" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1855" s="36" t="s">
+        <v>2265</v>
+      </c>
+      <c r="B1855" s="36" t="s">
+        <v>2258</v>
+      </c>
+      <c r="C1855" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1855" s="36">
+        <v>45693</v>
+      </c>
+      <c r="E1855" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1856" s="36" t="s">
+        <v>2266</v>
+      </c>
+      <c r="B1856" s="36" t="s">
+        <v>2258</v>
+      </c>
+      <c r="C1856" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1856" s="36">
+        <v>45843</v>
+      </c>
+      <c r="E1856" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1857" s="36" t="s">
+        <v>2267</v>
+      </c>
+      <c r="B1857" s="36" t="s">
+        <v>2258</v>
+      </c>
+      <c r="C1857" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1857" s="36">
+        <v>45874</v>
+      </c>
+      <c r="E1857" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1858" s="35" t="s">
+        <v>2268</v>
+      </c>
+      <c r="B1858" s="35" t="s">
+        <v>2259</v>
+      </c>
+      <c r="C1858" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1858" s="35">
+        <v>45782</v>
+      </c>
+      <c r="E1858" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1859" s="35" t="s">
+        <v>2269</v>
+      </c>
+      <c r="B1859" s="35" t="s">
+        <v>2259</v>
+      </c>
+      <c r="C1859" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1859" s="35">
+        <v>45935</v>
+      </c>
+      <c r="E1859" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1860" s="35" t="s">
+        <v>2270</v>
+      </c>
+      <c r="B1860" s="35" t="s">
+        <v>2259</v>
+      </c>
+      <c r="C1860" s="35" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1860" s="35">
+        <v>45813</v>
+      </c>
+      <c r="E1860" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1861" s="35" t="s">
+        <v>2271</v>
+      </c>
+      <c r="B1861" s="35" t="s">
+        <v>2259</v>
+      </c>
+      <c r="C1861" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1861" s="35">
+        <v>45721</v>
+      </c>
+      <c r="E1861" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1862" s="35" t="s">
+        <v>2272</v>
+      </c>
+      <c r="B1862" s="35" t="s">
+        <v>2259</v>
+      </c>
+      <c r="C1862" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1862" s="35">
+        <v>45662</v>
+      </c>
+      <c r="E1862" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1863" s="35" t="s">
+        <v>2273</v>
+      </c>
+      <c r="B1863" s="35" t="s">
+        <v>2259</v>
+      </c>
+      <c r="C1863" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1863" s="35">
+        <v>45693</v>
+      </c>
+      <c r="E1863" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1864" s="35" t="s">
+        <v>2274</v>
+      </c>
+      <c r="B1864" s="35" t="s">
+        <v>2259</v>
+      </c>
+      <c r="C1864" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1864" s="35">
+        <v>45843</v>
+      </c>
+      <c r="E1864" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1865" s="35" t="s">
+        <v>2275</v>
+      </c>
+      <c r="B1865" s="35" t="s">
+        <v>2259</v>
+      </c>
+      <c r="C1865" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1865" s="35">
+        <v>45874</v>
+      </c>
+      <c r="E1865" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1866" s="36" t="s">
+        <v>2278</v>
+      </c>
+      <c r="B1866" s="36" t="s">
+        <v>2276</v>
+      </c>
+      <c r="C1866" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1866" s="36">
+        <v>45782</v>
+      </c>
+      <c r="E1866" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1867" s="36" t="s">
+        <v>2279</v>
+      </c>
+      <c r="B1867" s="36" t="s">
+        <v>2276</v>
+      </c>
+      <c r="C1867" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1867" s="36">
+        <v>45935</v>
+      </c>
+      <c r="E1867" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1868" s="36" t="s">
+        <v>2280</v>
+      </c>
+      <c r="B1868" s="36" t="s">
+        <v>2276</v>
+      </c>
+      <c r="C1868" s="36" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1868" s="36">
+        <v>45813</v>
+      </c>
+      <c r="E1868" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1869" s="36" t="s">
+        <v>2281</v>
+      </c>
+      <c r="B1869" s="36" t="s">
+        <v>2276</v>
+      </c>
+      <c r="C1869" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1869" s="36">
+        <v>45721</v>
+      </c>
+      <c r="E1869" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1870" s="36" t="s">
+        <v>2282</v>
+      </c>
+      <c r="B1870" s="36" t="s">
+        <v>2276</v>
+      </c>
+      <c r="C1870" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1870" s="36">
+        <v>45662</v>
+      </c>
+      <c r="E1870" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1871" s="36" t="s">
+        <v>2283</v>
+      </c>
+      <c r="B1871" s="36" t="s">
+        <v>2276</v>
+      </c>
+      <c r="C1871" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1871" s="36">
+        <v>45693</v>
+      </c>
+      <c r="E1871" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1872" s="36" t="s">
+        <v>2284</v>
+      </c>
+      <c r="B1872" s="36" t="s">
+        <v>2276</v>
+      </c>
+      <c r="C1872" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1872" s="36">
+        <v>45843</v>
+      </c>
+      <c r="E1872" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1873" s="36" t="s">
+        <v>2285</v>
+      </c>
+      <c r="B1873" s="36" t="s">
+        <v>2276</v>
+      </c>
+      <c r="C1873" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1873" s="36">
+        <v>45874</v>
+      </c>
+      <c r="E1873" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1874" s="35" t="s">
+        <v>2286</v>
+      </c>
+      <c r="B1874" s="35" t="s">
+        <v>2277</v>
+      </c>
+      <c r="C1874" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1874" s="35">
+        <v>45782</v>
+      </c>
+      <c r="E1874" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1875" s="35" t="s">
+        <v>2287</v>
+      </c>
+      <c r="B1875" s="35" t="s">
+        <v>2277</v>
+      </c>
+      <c r="C1875" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1875" s="35">
+        <v>45935</v>
+      </c>
+      <c r="E1875" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1876" s="35" t="s">
+        <v>2288</v>
+      </c>
+      <c r="B1876" s="35" t="s">
+        <v>2277</v>
+      </c>
+      <c r="C1876" s="35" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1876" s="35">
+        <v>45813</v>
+      </c>
+      <c r="E1876" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1877" s="35" t="s">
+        <v>2289</v>
+      </c>
+      <c r="B1877" s="35" t="s">
+        <v>2277</v>
+      </c>
+      <c r="C1877" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1877" s="35">
+        <v>45721</v>
+      </c>
+      <c r="E1877" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1878" s="35" t="s">
+        <v>2290</v>
+      </c>
+      <c r="B1878" s="35" t="s">
+        <v>2277</v>
+      </c>
+      <c r="C1878" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1878" s="35">
+        <v>45662</v>
+      </c>
+      <c r="E1878" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1879" s="35" t="s">
+        <v>2291</v>
+      </c>
+      <c r="B1879" s="35" t="s">
+        <v>2277</v>
+      </c>
+      <c r="C1879" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1879" s="35">
+        <v>45693</v>
+      </c>
+      <c r="E1879" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1880" s="35" t="s">
+        <v>2292</v>
+      </c>
+      <c r="B1880" s="35" t="s">
+        <v>2277</v>
+      </c>
+      <c r="C1880" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1880" s="35">
+        <v>45843</v>
+      </c>
+      <c r="E1880" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1881" s="35" t="s">
+        <v>2293</v>
+      </c>
+      <c r="B1881" s="35" t="s">
+        <v>2277</v>
+      </c>
+      <c r="C1881" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1881" s="35">
+        <v>45874</v>
+      </c>
+      <c r="E1881" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1882" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1882" s="36" t="s">
+        <v>2295</v>
+      </c>
+      <c r="B1882" s="36" t="s">
+        <v>2294</v>
+      </c>
+      <c r="C1882" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1882" s="36">
+        <v>45782</v>
+      </c>
+      <c r="E1882" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1883" s="36" t="s">
+        <v>2296</v>
+      </c>
+      <c r="B1883" s="36" t="s">
+        <v>2294</v>
+      </c>
+      <c r="C1883" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1883" s="36">
+        <v>45935</v>
+      </c>
+      <c r="E1883" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1884" s="36" t="s">
+        <v>2297</v>
+      </c>
+      <c r="B1884" s="36" t="s">
+        <v>2294</v>
+      </c>
+      <c r="C1884" s="36" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1884" s="36">
+        <v>45813</v>
+      </c>
+      <c r="E1884" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1885" s="36" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B1885" s="36" t="s">
+        <v>2294</v>
+      </c>
+      <c r="C1885" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1885" s="36">
+        <v>45721</v>
+      </c>
+      <c r="E1885" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1886" s="36" t="s">
+        <v>2299</v>
+      </c>
+      <c r="B1886" s="36" t="s">
+        <v>2294</v>
+      </c>
+      <c r="C1886" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1886" s="36">
+        <v>45662</v>
+      </c>
+      <c r="E1886" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1887" s="36" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B1887" s="36" t="s">
+        <v>2294</v>
+      </c>
+      <c r="C1887" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1887" s="36">
+        <v>45693</v>
+      </c>
+      <c r="E1887" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1888" s="36" t="s">
+        <v>2301</v>
+      </c>
+      <c r="B1888" s="36" t="s">
+        <v>2294</v>
+      </c>
+      <c r="C1888" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1888" s="36">
+        <v>45843</v>
+      </c>
+      <c r="E1888" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1889" s="36" t="s">
+        <v>2302</v>
+      </c>
+      <c r="B1889" s="36" t="s">
+        <v>2294</v>
+      </c>
+      <c r="C1889" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1889" s="36">
+        <v>45874</v>
+      </c>
+      <c r="E1889" s="13">
         <v>1</v>
       </c>
     </row>
@@ -35323,7 +39372,7 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="40" orientation="portrait" r:id="rId1"/>
-  <rowBreaks count="13" manualBreakCount="13">
+  <rowBreaks count="14" manualBreakCount="14">
     <brk id="70" max="16383" man="1"/>
     <brk id="409" max="4" man="1"/>
     <brk id="493" max="4" man="1"/>
@@ -35336,7 +39385,8 @@
     <brk id="1242" max="4" man="1"/>
     <brk id="1343" max="4" man="1"/>
     <brk id="1562" max="4" man="1"/>
-    <brk id="1671" max="4" man="1"/>
+    <brk id="1663" max="4" man="1"/>
+    <brk id="1873" max="4" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$695</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$1897</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$1973</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6473" uniqueCount="2303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6674" uniqueCount="2381">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -6939,6 +6939,240 @@
   </si>
   <si>
     <t>DSS2904</t>
+  </si>
+  <si>
+    <t>AHMED MOHAMED KHALID HASHIM</t>
+  </si>
+  <si>
+    <t>AHMED MEGAHED ALY MAKLAD</t>
+  </si>
+  <si>
+    <t>Mahmoud Taha Madani Mohamed</t>
+  </si>
+  <si>
+    <t>Elamir Ali Ahmed Abd Elazim</t>
+  </si>
+  <si>
+    <t>Amr Gamal Mohamed El Shafei</t>
+  </si>
+  <si>
+    <t>Abdullah Jibril Muhammad Hassan</t>
+  </si>
+  <si>
+    <t>NAWAF MUNAHI H ALSHAHRANI</t>
+  </si>
+  <si>
+    <t>Rajab Saad Rajab</t>
+  </si>
+  <si>
+    <t>DSS2905</t>
+  </si>
+  <si>
+    <t>DSS2906</t>
+  </si>
+  <si>
+    <t>DSS2907</t>
+  </si>
+  <si>
+    <t>DSS2908</t>
+  </si>
+  <si>
+    <t>DSS2909</t>
+  </si>
+  <si>
+    <t>DSS2910</t>
+  </si>
+  <si>
+    <t>DSS2911</t>
+  </si>
+  <si>
+    <t>DSS2912</t>
+  </si>
+  <si>
+    <t>DSS2913</t>
+  </si>
+  <si>
+    <t>DSS2914</t>
+  </si>
+  <si>
+    <t>DSS2915</t>
+  </si>
+  <si>
+    <t>DSS2916</t>
+  </si>
+  <si>
+    <t>DSS2917</t>
+  </si>
+  <si>
+    <t>DSS2918</t>
+  </si>
+  <si>
+    <t>DSS2919</t>
+  </si>
+  <si>
+    <t>DSS2920</t>
+  </si>
+  <si>
+    <t>DSS2921</t>
+  </si>
+  <si>
+    <t>DSS2922</t>
+  </si>
+  <si>
+    <t>DSS2923</t>
+  </si>
+  <si>
+    <t>DSS2924</t>
+  </si>
+  <si>
+    <t>DSS2925</t>
+  </si>
+  <si>
+    <t>DSS2926</t>
+  </si>
+  <si>
+    <t>DSS2927</t>
+  </si>
+  <si>
+    <t>DSS2928</t>
+  </si>
+  <si>
+    <t>DSS2929</t>
+  </si>
+  <si>
+    <t>DSS2930</t>
+  </si>
+  <si>
+    <t>DSS2931</t>
+  </si>
+  <si>
+    <t>DSS2932</t>
+  </si>
+  <si>
+    <t>DSS2933</t>
+  </si>
+  <si>
+    <t>DSS2934</t>
+  </si>
+  <si>
+    <t>DSS2935</t>
+  </si>
+  <si>
+    <t>DSS2936</t>
+  </si>
+  <si>
+    <t>DSS2937</t>
+  </si>
+  <si>
+    <t>DSS2938</t>
+  </si>
+  <si>
+    <t>DSS2939</t>
+  </si>
+  <si>
+    <t>DSS2940</t>
+  </si>
+  <si>
+    <t>DSS2941</t>
+  </si>
+  <si>
+    <t>DSS2942</t>
+  </si>
+  <si>
+    <t>DSS2943</t>
+  </si>
+  <si>
+    <t>DSS2944</t>
+  </si>
+  <si>
+    <t>DSS2945</t>
+  </si>
+  <si>
+    <t>DSS2946</t>
+  </si>
+  <si>
+    <t>DSS2947</t>
+  </si>
+  <si>
+    <t>DSS2948</t>
+  </si>
+  <si>
+    <t>DSS2949</t>
+  </si>
+  <si>
+    <t>DSS2950</t>
+  </si>
+  <si>
+    <t>DSS2951</t>
+  </si>
+  <si>
+    <t>DSS2952</t>
+  </si>
+  <si>
+    <t>DSS2953</t>
+  </si>
+  <si>
+    <t>DSS2954</t>
+  </si>
+  <si>
+    <t>DSS2955</t>
+  </si>
+  <si>
+    <t>DSS2956</t>
+  </si>
+  <si>
+    <t>DSS2957</t>
+  </si>
+  <si>
+    <t>DSS2958</t>
+  </si>
+  <si>
+    <t>DSS2959</t>
+  </si>
+  <si>
+    <t>DSS2960</t>
+  </si>
+  <si>
+    <t>DSS2961</t>
+  </si>
+  <si>
+    <t>DSS2962</t>
+  </si>
+  <si>
+    <t>DSS2963</t>
+  </si>
+  <si>
+    <t>DSS2964</t>
+  </si>
+  <si>
+    <t>DSS2965</t>
+  </si>
+  <si>
+    <t>DSS2966</t>
+  </si>
+  <si>
+    <t>DSS2967</t>
+  </si>
+  <si>
+    <t>DSS2968</t>
+  </si>
+  <si>
+    <t>AMER HAMDY AMER MOHAMED</t>
+  </si>
+  <si>
+    <t>HARINDER YADAV MITHU CHAUDHARI</t>
+  </si>
+  <si>
+    <t>KHALIL MIAH</t>
+  </si>
+  <si>
+    <t>DSS2969</t>
+  </si>
+  <si>
+    <t>DSS2970</t>
+  </si>
+  <si>
+    <t>DSS2971</t>
   </si>
 </sst>
 </file>
@@ -7011,7 +7245,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7057,6 +7291,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7141,7 +7381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -7325,6 +7565,18 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="8" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="9" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7606,10 +7858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1889"/>
+  <dimension ref="A1:E1956"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1868" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H1883" sqref="H1883"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1937" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H1958" sqref="H1958"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38428,7 +38680,7 @@
       <c r="D1834" s="61">
         <v>45782</v>
       </c>
-      <c r="E1834" s="46">
+      <c r="E1834" s="62">
         <v>1</v>
       </c>
     </row>
@@ -38445,7 +38697,7 @@
       <c r="D1835" s="61">
         <v>45935</v>
       </c>
-      <c r="E1835" s="46">
+      <c r="E1835" s="62">
         <v>1</v>
       </c>
     </row>
@@ -38462,7 +38714,7 @@
       <c r="D1836" s="61">
         <v>45813</v>
       </c>
-      <c r="E1836" s="46">
+      <c r="E1836" s="62">
         <v>1</v>
       </c>
     </row>
@@ -38479,7 +38731,7 @@
       <c r="D1837" s="61">
         <v>45721</v>
       </c>
-      <c r="E1837" s="46">
+      <c r="E1837" s="62">
         <v>1</v>
       </c>
     </row>
@@ -38496,7 +38748,7 @@
       <c r="D1838" s="61">
         <v>45662</v>
       </c>
-      <c r="E1838" s="46">
+      <c r="E1838" s="62">
         <v>1</v>
       </c>
     </row>
@@ -38513,7 +38765,7 @@
       <c r="D1839" s="61">
         <v>45693</v>
       </c>
-      <c r="E1839" s="46">
+      <c r="E1839" s="62">
         <v>1</v>
       </c>
     </row>
@@ -38530,7 +38782,7 @@
       <c r="D1840" s="61">
         <v>45843</v>
       </c>
-      <c r="E1840" s="46">
+      <c r="E1840" s="62">
         <v>1</v>
       </c>
     </row>
@@ -38547,7 +38799,7 @@
       <c r="D1841" s="61">
         <v>45874</v>
       </c>
-      <c r="E1841" s="46">
+      <c r="E1841" s="62">
         <v>1</v>
       </c>
     </row>
@@ -39364,6 +39616,1145 @@
         <v>45874</v>
       </c>
       <c r="E1889" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1890" s="35" t="s">
+        <v>2311</v>
+      </c>
+      <c r="B1890" s="35" t="s">
+        <v>2303</v>
+      </c>
+      <c r="C1890" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1890" s="35">
+        <v>45782</v>
+      </c>
+      <c r="E1890" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1891" s="35" t="s">
+        <v>2312</v>
+      </c>
+      <c r="B1891" s="35" t="s">
+        <v>2303</v>
+      </c>
+      <c r="C1891" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1891" s="35">
+        <v>45935</v>
+      </c>
+      <c r="E1891" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1892" s="35" t="s">
+        <v>2313</v>
+      </c>
+      <c r="B1892" s="35" t="s">
+        <v>2303</v>
+      </c>
+      <c r="C1892" s="35" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1892" s="35">
+        <v>45813</v>
+      </c>
+      <c r="E1892" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1893" s="35" t="s">
+        <v>2314</v>
+      </c>
+      <c r="B1893" s="35" t="s">
+        <v>2303</v>
+      </c>
+      <c r="C1893" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1893" s="35">
+        <v>45721</v>
+      </c>
+      <c r="E1893" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1894" s="35" t="s">
+        <v>2315</v>
+      </c>
+      <c r="B1894" s="35" t="s">
+        <v>2303</v>
+      </c>
+      <c r="C1894" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1894" s="35">
+        <v>45662</v>
+      </c>
+      <c r="E1894" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1895" s="35" t="s">
+        <v>2316</v>
+      </c>
+      <c r="B1895" s="35" t="s">
+        <v>2303</v>
+      </c>
+      <c r="C1895" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1895" s="35">
+        <v>45693</v>
+      </c>
+      <c r="E1895" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1896" s="35" t="s">
+        <v>2317</v>
+      </c>
+      <c r="B1896" s="35" t="s">
+        <v>2303</v>
+      </c>
+      <c r="C1896" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1896" s="35">
+        <v>45843</v>
+      </c>
+      <c r="E1896" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1897" s="35" t="s">
+        <v>2318</v>
+      </c>
+      <c r="B1897" s="35" t="s">
+        <v>2303</v>
+      </c>
+      <c r="C1897" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1897" s="35">
+        <v>45874</v>
+      </c>
+      <c r="E1897" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1898" s="36" t="s">
+        <v>2319</v>
+      </c>
+      <c r="B1898" s="36" t="s">
+        <v>2304</v>
+      </c>
+      <c r="C1898" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1898" s="36">
+        <v>45782</v>
+      </c>
+      <c r="E1898" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1899" s="36" t="s">
+        <v>2320</v>
+      </c>
+      <c r="B1899" s="36" t="s">
+        <v>2304</v>
+      </c>
+      <c r="C1899" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1899" s="36">
+        <v>45935</v>
+      </c>
+      <c r="E1899" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1900" s="36" t="s">
+        <v>2321</v>
+      </c>
+      <c r="B1900" s="36" t="s">
+        <v>2304</v>
+      </c>
+      <c r="C1900" s="36" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1900" s="36">
+        <v>45813</v>
+      </c>
+      <c r="E1900" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1901" s="36" t="s">
+        <v>2322</v>
+      </c>
+      <c r="B1901" s="36" t="s">
+        <v>2304</v>
+      </c>
+      <c r="C1901" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1901" s="36">
+        <v>45721</v>
+      </c>
+      <c r="E1901" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1902" s="36" t="s">
+        <v>2323</v>
+      </c>
+      <c r="B1902" s="36" t="s">
+        <v>2304</v>
+      </c>
+      <c r="C1902" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1902" s="36">
+        <v>45662</v>
+      </c>
+      <c r="E1902" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1903" s="36" t="s">
+        <v>2324</v>
+      </c>
+      <c r="B1903" s="36" t="s">
+        <v>2304</v>
+      </c>
+      <c r="C1903" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1903" s="36">
+        <v>45693</v>
+      </c>
+      <c r="E1903" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1904" s="36" t="s">
+        <v>2325</v>
+      </c>
+      <c r="B1904" s="36" t="s">
+        <v>2304</v>
+      </c>
+      <c r="C1904" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1904" s="36">
+        <v>45843</v>
+      </c>
+      <c r="E1904" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1905" s="36" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B1905" s="36" t="s">
+        <v>2304</v>
+      </c>
+      <c r="C1905" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1905" s="36">
+        <v>45874</v>
+      </c>
+      <c r="E1905" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1906" s="35" t="s">
+        <v>2327</v>
+      </c>
+      <c r="B1906" s="35" t="s">
+        <v>2305</v>
+      </c>
+      <c r="C1906" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1906" s="35">
+        <v>45782</v>
+      </c>
+      <c r="E1906" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1907" s="35" t="s">
+        <v>2328</v>
+      </c>
+      <c r="B1907" s="35" t="s">
+        <v>2305</v>
+      </c>
+      <c r="C1907" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1907" s="35">
+        <v>45935</v>
+      </c>
+      <c r="E1907" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1908" s="35" t="s">
+        <v>2329</v>
+      </c>
+      <c r="B1908" s="35" t="s">
+        <v>2305</v>
+      </c>
+      <c r="C1908" s="35" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1908" s="35">
+        <v>45813</v>
+      </c>
+      <c r="E1908" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1909" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1909" s="35" t="s">
+        <v>2330</v>
+      </c>
+      <c r="B1909" s="35" t="s">
+        <v>2305</v>
+      </c>
+      <c r="C1909" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1909" s="35">
+        <v>45721</v>
+      </c>
+      <c r="E1909" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1910" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1910" s="35" t="s">
+        <v>2331</v>
+      </c>
+      <c r="B1910" s="35" t="s">
+        <v>2305</v>
+      </c>
+      <c r="C1910" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1910" s="35">
+        <v>45662</v>
+      </c>
+      <c r="E1910" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1911" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1911" s="35" t="s">
+        <v>2332</v>
+      </c>
+      <c r="B1911" s="35" t="s">
+        <v>2305</v>
+      </c>
+      <c r="C1911" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1911" s="35">
+        <v>45693</v>
+      </c>
+      <c r="E1911" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1912" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1912" s="35" t="s">
+        <v>2333</v>
+      </c>
+      <c r="B1912" s="35" t="s">
+        <v>2305</v>
+      </c>
+      <c r="C1912" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1912" s="35">
+        <v>45843</v>
+      </c>
+      <c r="E1912" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1913" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1913" s="35" t="s">
+        <v>2334</v>
+      </c>
+      <c r="B1913" s="35" t="s">
+        <v>2305</v>
+      </c>
+      <c r="C1913" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1913" s="35">
+        <v>45874</v>
+      </c>
+      <c r="E1913" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1914" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1914" s="36" t="s">
+        <v>2335</v>
+      </c>
+      <c r="B1914" s="36" t="s">
+        <v>2306</v>
+      </c>
+      <c r="C1914" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1914" s="36">
+        <v>45782</v>
+      </c>
+      <c r="E1914" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1915" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1915" s="36" t="s">
+        <v>2336</v>
+      </c>
+      <c r="B1915" s="36" t="s">
+        <v>2306</v>
+      </c>
+      <c r="C1915" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1915" s="36">
+        <v>45935</v>
+      </c>
+      <c r="E1915" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1916" s="36" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B1916" s="36" t="s">
+        <v>2306</v>
+      </c>
+      <c r="C1916" s="36" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1916" s="36">
+        <v>45813</v>
+      </c>
+      <c r="E1916" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1917" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1917" s="36" t="s">
+        <v>2338</v>
+      </c>
+      <c r="B1917" s="36" t="s">
+        <v>2306</v>
+      </c>
+      <c r="C1917" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1917" s="36">
+        <v>45721</v>
+      </c>
+      <c r="E1917" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1918" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1918" s="36" t="s">
+        <v>2339</v>
+      </c>
+      <c r="B1918" s="36" t="s">
+        <v>2306</v>
+      </c>
+      <c r="C1918" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1918" s="36">
+        <v>45662</v>
+      </c>
+      <c r="E1918" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1919" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1919" s="36" t="s">
+        <v>2340</v>
+      </c>
+      <c r="B1919" s="36" t="s">
+        <v>2306</v>
+      </c>
+      <c r="C1919" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1919" s="36">
+        <v>45693</v>
+      </c>
+      <c r="E1919" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1920" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1920" s="36" t="s">
+        <v>2341</v>
+      </c>
+      <c r="B1920" s="36" t="s">
+        <v>2306</v>
+      </c>
+      <c r="C1920" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1920" s="36">
+        <v>45843</v>
+      </c>
+      <c r="E1920" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1921" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1921" s="36" t="s">
+        <v>2342</v>
+      </c>
+      <c r="B1921" s="36" t="s">
+        <v>2306</v>
+      </c>
+      <c r="C1921" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1921" s="36">
+        <v>45874</v>
+      </c>
+      <c r="E1921" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1922" s="35" t="s">
+        <v>2343</v>
+      </c>
+      <c r="B1922" s="35" t="s">
+        <v>2307</v>
+      </c>
+      <c r="C1922" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1922" s="35">
+        <v>45782</v>
+      </c>
+      <c r="E1922" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1923" s="35" t="s">
+        <v>2344</v>
+      </c>
+      <c r="B1923" s="35" t="s">
+        <v>2307</v>
+      </c>
+      <c r="C1923" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1923" s="35">
+        <v>45935</v>
+      </c>
+      <c r="E1923" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1924" s="35" t="s">
+        <v>2345</v>
+      </c>
+      <c r="B1924" s="35" t="s">
+        <v>2307</v>
+      </c>
+      <c r="C1924" s="35" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1924" s="35">
+        <v>45813</v>
+      </c>
+      <c r="E1924" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1925" s="35" t="s">
+        <v>2346</v>
+      </c>
+      <c r="B1925" s="35" t="s">
+        <v>2307</v>
+      </c>
+      <c r="C1925" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1925" s="35">
+        <v>45721</v>
+      </c>
+      <c r="E1925" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1926" s="35" t="s">
+        <v>2347</v>
+      </c>
+      <c r="B1926" s="35" t="s">
+        <v>2307</v>
+      </c>
+      <c r="C1926" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1926" s="35">
+        <v>45662</v>
+      </c>
+      <c r="E1926" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1927" s="35" t="s">
+        <v>2348</v>
+      </c>
+      <c r="B1927" s="35" t="s">
+        <v>2307</v>
+      </c>
+      <c r="C1927" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1927" s="35">
+        <v>45693</v>
+      </c>
+      <c r="E1927" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1928" s="35" t="s">
+        <v>2349</v>
+      </c>
+      <c r="B1928" s="35" t="s">
+        <v>2307</v>
+      </c>
+      <c r="C1928" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1928" s="35">
+        <v>45843</v>
+      </c>
+      <c r="E1928" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1929" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1929" s="35" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B1929" s="35" t="s">
+        <v>2307</v>
+      </c>
+      <c r="C1929" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1929" s="35">
+        <v>45874</v>
+      </c>
+      <c r="E1929" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1930" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1930" s="36" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B1930" s="36" t="s">
+        <v>2308</v>
+      </c>
+      <c r="C1930" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1930" s="36">
+        <v>45782</v>
+      </c>
+      <c r="E1930" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1931" s="36" t="s">
+        <v>2352</v>
+      </c>
+      <c r="B1931" s="36" t="s">
+        <v>2308</v>
+      </c>
+      <c r="C1931" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1931" s="36">
+        <v>45935</v>
+      </c>
+      <c r="E1931" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1932" s="36" t="s">
+        <v>2353</v>
+      </c>
+      <c r="B1932" s="36" t="s">
+        <v>2308</v>
+      </c>
+      <c r="C1932" s="36" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1932" s="36">
+        <v>45813</v>
+      </c>
+      <c r="E1932" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1933" s="36" t="s">
+        <v>2354</v>
+      </c>
+      <c r="B1933" s="36" t="s">
+        <v>2308</v>
+      </c>
+      <c r="C1933" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1933" s="36">
+        <v>45721</v>
+      </c>
+      <c r="E1933" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1934" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1934" s="36" t="s">
+        <v>2355</v>
+      </c>
+      <c r="B1934" s="36" t="s">
+        <v>2308</v>
+      </c>
+      <c r="C1934" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1934" s="36">
+        <v>45662</v>
+      </c>
+      <c r="E1934" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1935" s="36" t="s">
+        <v>2356</v>
+      </c>
+      <c r="B1935" s="36" t="s">
+        <v>2308</v>
+      </c>
+      <c r="C1935" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1935" s="36">
+        <v>45693</v>
+      </c>
+      <c r="E1935" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1936" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1936" s="36" t="s">
+        <v>2357</v>
+      </c>
+      <c r="B1936" s="36" t="s">
+        <v>2308</v>
+      </c>
+      <c r="C1936" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1936" s="36">
+        <v>45843</v>
+      </c>
+      <c r="E1936" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1937" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1937" s="36" t="s">
+        <v>2358</v>
+      </c>
+      <c r="B1937" s="36" t="s">
+        <v>2308</v>
+      </c>
+      <c r="C1937" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1937" s="36">
+        <v>45874</v>
+      </c>
+      <c r="E1937" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1938" s="35" t="s">
+        <v>2359</v>
+      </c>
+      <c r="B1938" s="35" t="s">
+        <v>2309</v>
+      </c>
+      <c r="C1938" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1938" s="35">
+        <v>45782</v>
+      </c>
+      <c r="E1938" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1939" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1939" s="35" t="s">
+        <v>2360</v>
+      </c>
+      <c r="B1939" s="35" t="s">
+        <v>2309</v>
+      </c>
+      <c r="C1939" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1939" s="35">
+        <v>45935</v>
+      </c>
+      <c r="E1939" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1940" s="35" t="s">
+        <v>2361</v>
+      </c>
+      <c r="B1940" s="35" t="s">
+        <v>2309</v>
+      </c>
+      <c r="C1940" s="35" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1940" s="35">
+        <v>45813</v>
+      </c>
+      <c r="E1940" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1941" s="35" t="s">
+        <v>2362</v>
+      </c>
+      <c r="B1941" s="35" t="s">
+        <v>2309</v>
+      </c>
+      <c r="C1941" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1941" s="35">
+        <v>45721</v>
+      </c>
+      <c r="E1941" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1942" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1942" s="35" t="s">
+        <v>2363</v>
+      </c>
+      <c r="B1942" s="35" t="s">
+        <v>2309</v>
+      </c>
+      <c r="C1942" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1942" s="35">
+        <v>45662</v>
+      </c>
+      <c r="E1942" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1943" s="35" t="s">
+        <v>2364</v>
+      </c>
+      <c r="B1943" s="35" t="s">
+        <v>2309</v>
+      </c>
+      <c r="C1943" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1943" s="35">
+        <v>45693</v>
+      </c>
+      <c r="E1943" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1944" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1944" s="35" t="s">
+        <v>2365</v>
+      </c>
+      <c r="B1944" s="35" t="s">
+        <v>2309</v>
+      </c>
+      <c r="C1944" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1944" s="35">
+        <v>45843</v>
+      </c>
+      <c r="E1944" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1945" s="35" t="s">
+        <v>2366</v>
+      </c>
+      <c r="B1945" s="35" t="s">
+        <v>2309</v>
+      </c>
+      <c r="C1945" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1945" s="35">
+        <v>45874</v>
+      </c>
+      <c r="E1945" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1946" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1946" s="36" t="s">
+        <v>2367</v>
+      </c>
+      <c r="B1946" s="36" t="s">
+        <v>2310</v>
+      </c>
+      <c r="C1946" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1946" s="36">
+        <v>45782</v>
+      </c>
+      <c r="E1946" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1947" s="36" t="s">
+        <v>2368</v>
+      </c>
+      <c r="B1947" s="36" t="s">
+        <v>2310</v>
+      </c>
+      <c r="C1947" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1947" s="36">
+        <v>45935</v>
+      </c>
+      <c r="E1947" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1948" s="36" t="s">
+        <v>2369</v>
+      </c>
+      <c r="B1948" s="36" t="s">
+        <v>2310</v>
+      </c>
+      <c r="C1948" s="36" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1948" s="36">
+        <v>45813</v>
+      </c>
+      <c r="E1948" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1949" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1949" s="36" t="s">
+        <v>2370</v>
+      </c>
+      <c r="B1949" s="36" t="s">
+        <v>2310</v>
+      </c>
+      <c r="C1949" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1949" s="36">
+        <v>45721</v>
+      </c>
+      <c r="E1949" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1950" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1950" s="36" t="s">
+        <v>2371</v>
+      </c>
+      <c r="B1950" s="36" t="s">
+        <v>2310</v>
+      </c>
+      <c r="C1950" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1950" s="36">
+        <v>45662</v>
+      </c>
+      <c r="E1950" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1951" s="36" t="s">
+        <v>2372</v>
+      </c>
+      <c r="B1951" s="36" t="s">
+        <v>2310</v>
+      </c>
+      <c r="C1951" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1951" s="36">
+        <v>45693</v>
+      </c>
+      <c r="E1951" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1952" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1952" s="36" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1952" s="36" t="s">
+        <v>2310</v>
+      </c>
+      <c r="C1952" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1952" s="36">
+        <v>45843</v>
+      </c>
+      <c r="E1952" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1953" s="36" t="s">
+        <v>2374</v>
+      </c>
+      <c r="B1953" s="36" t="s">
+        <v>2310</v>
+      </c>
+      <c r="C1953" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1953" s="36">
+        <v>45874</v>
+      </c>
+      <c r="E1953" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1954" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1954" s="63" t="s">
+        <v>2378</v>
+      </c>
+      <c r="B1954" s="64" t="s">
+        <v>2375</v>
+      </c>
+      <c r="C1954" s="65" t="s">
+        <v>462</v>
+      </c>
+      <c r="D1954" s="63">
+        <v>45874</v>
+      </c>
+      <c r="E1954" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1955" s="63" t="s">
+        <v>2379</v>
+      </c>
+      <c r="B1955" s="64" t="s">
+        <v>2376</v>
+      </c>
+      <c r="C1955" s="65" t="s">
+        <v>462</v>
+      </c>
+      <c r="D1955" s="63">
+        <v>45874</v>
+      </c>
+      <c r="E1955" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1956" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1956" s="63" t="s">
+        <v>2380</v>
+      </c>
+      <c r="B1956" s="64" t="s">
+        <v>2377</v>
+      </c>
+      <c r="C1956" s="65" t="s">
+        <v>462</v>
+      </c>
+      <c r="D1956" s="63">
+        <v>45874</v>
+      </c>
+      <c r="E1956" s="13">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6674" uniqueCount="2381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6698" uniqueCount="2390">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -7173,6 +7173,33 @@
   </si>
   <si>
     <t>DSS2971</t>
+  </si>
+  <si>
+    <t>Ahmed Abdlazim Alsayid Esmail</t>
+  </si>
+  <si>
+    <t>DSS2972</t>
+  </si>
+  <si>
+    <t>DSS2973</t>
+  </si>
+  <si>
+    <t>DSS2974</t>
+  </si>
+  <si>
+    <t>DSS2975</t>
+  </si>
+  <si>
+    <t>DSS2976</t>
+  </si>
+  <si>
+    <t>DSS2977</t>
+  </si>
+  <si>
+    <t>DSS2978</t>
+  </si>
+  <si>
+    <t>DSS2979</t>
   </si>
 </sst>
 </file>
@@ -7850,7 +7877,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7858,10 +7885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1956"/>
+  <dimension ref="A1:E1964"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1937" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H1958" sqref="H1958"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1940" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A1957" sqref="A1957"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40755,6 +40782,142 @@
         <v>45874</v>
       </c>
       <c r="E1956" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1957" s="36" t="s">
+        <v>2382</v>
+      </c>
+      <c r="B1957" s="36" t="s">
+        <v>2381</v>
+      </c>
+      <c r="C1957" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1957" s="36">
+        <v>45051</v>
+      </c>
+      <c r="E1957" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1958" s="36" t="s">
+        <v>2383</v>
+      </c>
+      <c r="B1958" s="36" t="s">
+        <v>2381</v>
+      </c>
+      <c r="C1958" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1958" s="36">
+        <v>45204</v>
+      </c>
+      <c r="E1958" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1959" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1959" s="36" t="s">
+        <v>2384</v>
+      </c>
+      <c r="B1959" s="36" t="s">
+        <v>2381</v>
+      </c>
+      <c r="C1959" s="36" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1959" s="36">
+        <v>45082</v>
+      </c>
+      <c r="E1959" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1960" s="36" t="s">
+        <v>2385</v>
+      </c>
+      <c r="B1960" s="36" t="s">
+        <v>2381</v>
+      </c>
+      <c r="C1960" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1960" s="36">
+        <v>44990</v>
+      </c>
+      <c r="E1960" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1961" s="36" t="s">
+        <v>2386</v>
+      </c>
+      <c r="B1961" s="36" t="s">
+        <v>2381</v>
+      </c>
+      <c r="C1961" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1961" s="36">
+        <v>44931</v>
+      </c>
+      <c r="E1961" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1962" s="36" t="s">
+        <v>2387</v>
+      </c>
+      <c r="B1962" s="36" t="s">
+        <v>2381</v>
+      </c>
+      <c r="C1962" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1962" s="36">
+        <v>44962</v>
+      </c>
+      <c r="E1962" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1963" s="36" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B1963" s="36" t="s">
+        <v>2381</v>
+      </c>
+      <c r="C1963" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1963" s="36">
+        <v>45112</v>
+      </c>
+      <c r="E1963" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1964" s="36" t="s">
+        <v>2389</v>
+      </c>
+      <c r="B1964" s="36" t="s">
+        <v>2381</v>
+      </c>
+      <c r="C1964" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1964" s="36">
+        <v>45143</v>
+      </c>
+      <c r="E1964" s="13">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6698" uniqueCount="2390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6701" uniqueCount="2393">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -7200,6 +7200,15 @@
   </si>
   <si>
     <t>DSS2979</t>
+  </si>
+  <si>
+    <t>Abdallah Sabra Mohamed Mohamed</t>
+  </si>
+  <si>
+    <t>DSS2980</t>
+  </si>
+  <si>
+    <t>Permit To Work</t>
   </si>
 </sst>
 </file>
@@ -7877,7 +7886,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7885,10 +7894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1964"/>
+  <dimension ref="A1:E1965"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1940" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A1957" sqref="A1957"/>
+      <selection activeCell="A1965" sqref="A1965"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40918,6 +40927,23 @@
         <v>45143</v>
       </c>
       <c r="E1964" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1965" s="61" t="s">
+        <v>2391</v>
+      </c>
+      <c r="B1965" s="61" t="s">
+        <v>2390</v>
+      </c>
+      <c r="C1965" s="61" t="s">
+        <v>2392</v>
+      </c>
+      <c r="D1965" s="61">
+        <v>45143</v>
+      </c>
+      <c r="E1965" s="13">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6701" uniqueCount="2393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6704" uniqueCount="2395">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -7209,6 +7209,12 @@
   </si>
   <si>
     <t>Permit To Work</t>
+  </si>
+  <si>
+    <t>DSS2981</t>
+  </si>
+  <si>
+    <t>Mahmoud Ahmed Saad Ahmed Tera</t>
   </si>
 </sst>
 </file>
@@ -7886,7 +7892,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7894,10 +7900,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1965"/>
+  <dimension ref="A1:E1966"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1940" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A1965" sqref="A1965"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1946" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B1971" sqref="B1971"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40944,6 +40950,23 @@
         <v>45143</v>
       </c>
       <c r="E1965" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1966" s="36" t="s">
+        <v>2393</v>
+      </c>
+      <c r="B1966" s="36" t="s">
+        <v>2394</v>
+      </c>
+      <c r="C1966" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1966" s="36">
+        <v>44962</v>
+      </c>
+      <c r="E1966" s="13">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -7214,7 +7214,7 @@
     <t>DSS2981</t>
   </si>
   <si>
-    <t>Mahmoud Ahmed Saad Ahmed Tera</t>
+    <t>Mahmoud Ahmed Saad Ahmed Tera - From: SeaLandX Company</t>
   </si>
 </sst>
 </file>
@@ -7892,7 +7892,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7903,13 +7903,13 @@
   <dimension ref="A1:E1966"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1946" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B1971" sqref="B1971"/>
+      <selection activeCell="B1968" sqref="B1968"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="54.85546875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="61.28515625" style="13" customWidth="1"/>
     <col min="3" max="3" width="43.42578125" style="37" customWidth="1"/>
     <col min="4" max="4" width="22.28515625" style="37" customWidth="1"/>
     <col min="5" max="5" width="7.28515625" style="13" customWidth="1"/>
@@ -40953,7 +40953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1966" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1966" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1966" s="36" t="s">
         <v>2393</v>
       </c>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$695</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$1973</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$2071</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6704" uniqueCount="2395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7120" uniqueCount="2521">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -7215,6 +7215,384 @@
   </si>
   <si>
     <t>Mahmoud Ahmed Saad Ahmed Tera - From: SeaLandX Company</t>
+  </si>
+  <si>
+    <t>Al Sherif Ashraf Abd Elhamid Ahmed</t>
+  </si>
+  <si>
+    <t>SALAH ALI ABDO AHMED AlASLI</t>
+  </si>
+  <si>
+    <t>MAGDI SHOEIB ABDELRAHMAN MOHAMED</t>
+  </si>
+  <si>
+    <t>Amen Lutfi Omar Aljadi</t>
+  </si>
+  <si>
+    <t>ADLI ADEL ABDULLAH ALI MUSAIHELAN</t>
+  </si>
+  <si>
+    <t>DSS2982</t>
+  </si>
+  <si>
+    <t>DSS2983</t>
+  </si>
+  <si>
+    <t>DSS2984</t>
+  </si>
+  <si>
+    <t>DSS2985</t>
+  </si>
+  <si>
+    <t>DSS2986</t>
+  </si>
+  <si>
+    <t>DSS2987</t>
+  </si>
+  <si>
+    <t>DSS2988</t>
+  </si>
+  <si>
+    <t>DSS2989</t>
+  </si>
+  <si>
+    <t>DSS2990</t>
+  </si>
+  <si>
+    <t>DSS2991</t>
+  </si>
+  <si>
+    <t>DSS2992</t>
+  </si>
+  <si>
+    <t>DSS2993</t>
+  </si>
+  <si>
+    <t>DSS2994</t>
+  </si>
+  <si>
+    <t>DSS2995</t>
+  </si>
+  <si>
+    <t>DSS2996</t>
+  </si>
+  <si>
+    <t>DSS2997</t>
+  </si>
+  <si>
+    <t>DSS2998</t>
+  </si>
+  <si>
+    <t>DSS2999</t>
+  </si>
+  <si>
+    <t>DSS3000</t>
+  </si>
+  <si>
+    <t>DSS3001</t>
+  </si>
+  <si>
+    <t>DSS3002</t>
+  </si>
+  <si>
+    <t>DSS3003</t>
+  </si>
+  <si>
+    <t>DSS3004</t>
+  </si>
+  <si>
+    <t>DSS3005</t>
+  </si>
+  <si>
+    <t>DSS3006</t>
+  </si>
+  <si>
+    <t>DSS3007</t>
+  </si>
+  <si>
+    <t>DSS3008</t>
+  </si>
+  <si>
+    <t>DSS3009</t>
+  </si>
+  <si>
+    <t>DSS3010</t>
+  </si>
+  <si>
+    <t>DSS3011</t>
+  </si>
+  <si>
+    <t>DSS3012</t>
+  </si>
+  <si>
+    <t>DSS3013</t>
+  </si>
+  <si>
+    <t>DSS3014</t>
+  </si>
+  <si>
+    <t>DSS3015</t>
+  </si>
+  <si>
+    <t>DSS3016</t>
+  </si>
+  <si>
+    <t>DSS3017</t>
+  </si>
+  <si>
+    <t>DSS3018</t>
+  </si>
+  <si>
+    <t>DSS3019</t>
+  </si>
+  <si>
+    <t>DSS3020</t>
+  </si>
+  <si>
+    <t>DSS3021</t>
+  </si>
+  <si>
+    <t>05-May-2025</t>
+  </si>
+  <si>
+    <t>10-May-2025</t>
+  </si>
+  <si>
+    <t>06-May-2025</t>
+  </si>
+  <si>
+    <t>03-May-2025</t>
+  </si>
+  <si>
+    <t>01-May-2025</t>
+  </si>
+  <si>
+    <t>02-May-2025</t>
+  </si>
+  <si>
+    <t>07-May-2025</t>
+  </si>
+  <si>
+    <t>08-May-2025</t>
+  </si>
+  <si>
+    <t>Ammar Mostafa Elsayed Amoory</t>
+  </si>
+  <si>
+    <t>Adham Sayed Ahmed Mohamed</t>
+  </si>
+  <si>
+    <t>ESLAM SAID MOHAMED KHALED</t>
+  </si>
+  <si>
+    <t>Haitham Hamed Abdelhamed Raslan</t>
+  </si>
+  <si>
+    <t>Ahmed Farhat Mohamed Khalil Harb</t>
+  </si>
+  <si>
+    <t>Gamal Mossad Mahmoud El sayyad</t>
+  </si>
+  <si>
+    <t>Ahmed Mohamed Mahmoud Abdelaziz</t>
+  </si>
+  <si>
+    <t>Abdelrahman Elgarayhy Awad Selim</t>
+  </si>
+  <si>
+    <t>DSS3022</t>
+  </si>
+  <si>
+    <t>DSS3023</t>
+  </si>
+  <si>
+    <t>DSS3024</t>
+  </si>
+  <si>
+    <t>DSS3025</t>
+  </si>
+  <si>
+    <t>DSS3026</t>
+  </si>
+  <si>
+    <t>DSS3027</t>
+  </si>
+  <si>
+    <t>DSS3028</t>
+  </si>
+  <si>
+    <t>DSS3029</t>
+  </si>
+  <si>
+    <t>DSS3030</t>
+  </si>
+  <si>
+    <t>DSS3031</t>
+  </si>
+  <si>
+    <t>DSS3032</t>
+  </si>
+  <si>
+    <t>DSS3033</t>
+  </si>
+  <si>
+    <t>DSS3034</t>
+  </si>
+  <si>
+    <t>DSS3035</t>
+  </si>
+  <si>
+    <t>DSS3036</t>
+  </si>
+  <si>
+    <t>DSS3037</t>
+  </si>
+  <si>
+    <t>DSS3038</t>
+  </si>
+  <si>
+    <t>DSS3039</t>
+  </si>
+  <si>
+    <t>DSS3040</t>
+  </si>
+  <si>
+    <t>DSS3041</t>
+  </si>
+  <si>
+    <t>DSS3042</t>
+  </si>
+  <si>
+    <t>DSS3043</t>
+  </si>
+  <si>
+    <t>DSS3044</t>
+  </si>
+  <si>
+    <t>DSS3045</t>
+  </si>
+  <si>
+    <t>DSS3046</t>
+  </si>
+  <si>
+    <t>DSS3047</t>
+  </si>
+  <si>
+    <t>DSS3048</t>
+  </si>
+  <si>
+    <t>DSS3049</t>
+  </si>
+  <si>
+    <t>DSS3050</t>
+  </si>
+  <si>
+    <t>DSS3051</t>
+  </si>
+  <si>
+    <t>DSS3052</t>
+  </si>
+  <si>
+    <t>DSS3053</t>
+  </si>
+  <si>
+    <t>DSS3054</t>
+  </si>
+  <si>
+    <t>DSS3055</t>
+  </si>
+  <si>
+    <t>DSS3056</t>
+  </si>
+  <si>
+    <t>DSS3057</t>
+  </si>
+  <si>
+    <t>DSS3058</t>
+  </si>
+  <si>
+    <t>DSS3059</t>
+  </si>
+  <si>
+    <t>DSS3060</t>
+  </si>
+  <si>
+    <t>DSS3061</t>
+  </si>
+  <si>
+    <t>DSS3062</t>
+  </si>
+  <si>
+    <t>DSS3063</t>
+  </si>
+  <si>
+    <t>DSS3064</t>
+  </si>
+  <si>
+    <t>DSS3065</t>
+  </si>
+  <si>
+    <t>DSS3066</t>
+  </si>
+  <si>
+    <t>DSS3067</t>
+  </si>
+  <si>
+    <t>DSS3068</t>
+  </si>
+  <si>
+    <t>DSS3069</t>
+  </si>
+  <si>
+    <t>DSS3070</t>
+  </si>
+  <si>
+    <t>DSS3071</t>
+  </si>
+  <si>
+    <t>DSS3072</t>
+  </si>
+  <si>
+    <t>DSS3073</t>
+  </si>
+  <si>
+    <t>DSS3074</t>
+  </si>
+  <si>
+    <t>DSS3075</t>
+  </si>
+  <si>
+    <t>DSS3076</t>
+  </si>
+  <si>
+    <t>DSS3077</t>
+  </si>
+  <si>
+    <t>DSS3078</t>
+  </si>
+  <si>
+    <t>DSS3079</t>
+  </si>
+  <si>
+    <t>DSS3080</t>
+  </si>
+  <si>
+    <t>DSS3081</t>
+  </si>
+  <si>
+    <t>DSS3082</t>
+  </si>
+  <si>
+    <t>DSS3083</t>
+  </si>
+  <si>
+    <t>DSS3084</t>
+  </si>
+  <si>
+    <t>DSS3085</t>
+  </si>
+  <si>
+    <t>Lifting, Rigging &amp; Lashing Competent Person</t>
   </si>
 </sst>
 </file>
@@ -7900,10 +8278,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1966"/>
+  <dimension ref="A1:E2070"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1946" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B1968" sqref="B1968"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1949" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F1973" sqref="F1973"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40961,12 +41339,1780 @@
         <v>2394</v>
       </c>
       <c r="C1966" s="36" t="s">
-        <v>263</v>
+        <v>2520</v>
       </c>
       <c r="D1966" s="36">
         <v>44962</v>
       </c>
       <c r="E1966" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1967" s="35" t="s">
+        <v>2400</v>
+      </c>
+      <c r="B1967" s="35" t="s">
+        <v>2395</v>
+      </c>
+      <c r="C1967" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1967" s="35" t="s">
+        <v>2440</v>
+      </c>
+      <c r="E1967" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1968" s="35" t="s">
+        <v>2401</v>
+      </c>
+      <c r="B1968" s="35" t="s">
+        <v>2395</v>
+      </c>
+      <c r="C1968" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1968" s="35" t="s">
+        <v>2441</v>
+      </c>
+      <c r="E1968" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1969" s="35" t="s">
+        <v>2402</v>
+      </c>
+      <c r="B1969" s="35" t="s">
+        <v>2395</v>
+      </c>
+      <c r="C1969" s="35" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1969" s="35" t="s">
+        <v>2442</v>
+      </c>
+      <c r="E1969" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1970" s="35" t="s">
+        <v>2403</v>
+      </c>
+      <c r="B1970" s="35" t="s">
+        <v>2395</v>
+      </c>
+      <c r="C1970" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1970" s="35" t="s">
+        <v>2443</v>
+      </c>
+      <c r="E1970" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1971" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1971" s="35" t="s">
+        <v>2404</v>
+      </c>
+      <c r="B1971" s="35" t="s">
+        <v>2395</v>
+      </c>
+      <c r="C1971" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1971" s="35" t="s">
+        <v>2444</v>
+      </c>
+      <c r="E1971" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1972" s="35" t="s">
+        <v>2405</v>
+      </c>
+      <c r="B1972" s="35" t="s">
+        <v>2395</v>
+      </c>
+      <c r="C1972" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1972" s="35" t="s">
+        <v>2445</v>
+      </c>
+      <c r="E1972" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1973" s="35" t="s">
+        <v>2406</v>
+      </c>
+      <c r="B1973" s="35" t="s">
+        <v>2395</v>
+      </c>
+      <c r="C1973" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1973" s="35" t="s">
+        <v>2446</v>
+      </c>
+      <c r="E1973" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1974" s="35" t="s">
+        <v>2407</v>
+      </c>
+      <c r="B1974" s="35" t="s">
+        <v>2395</v>
+      </c>
+      <c r="C1974" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1974" s="35" t="s">
+        <v>2447</v>
+      </c>
+      <c r="E1974" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1975" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1975" s="36" t="s">
+        <v>2408</v>
+      </c>
+      <c r="B1975" s="36" t="s">
+        <v>2396</v>
+      </c>
+      <c r="C1975" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1975" s="36" t="s">
+        <v>2440</v>
+      </c>
+      <c r="E1975" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1976" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1976" s="36" t="s">
+        <v>2409</v>
+      </c>
+      <c r="B1976" s="36" t="s">
+        <v>2396</v>
+      </c>
+      <c r="C1976" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1976" s="36" t="s">
+        <v>2441</v>
+      </c>
+      <c r="E1976" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1977" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1977" s="36" t="s">
+        <v>2410</v>
+      </c>
+      <c r="B1977" s="36" t="s">
+        <v>2396</v>
+      </c>
+      <c r="C1977" s="36" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1977" s="36" t="s">
+        <v>2442</v>
+      </c>
+      <c r="E1977" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1978" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1978" s="36" t="s">
+        <v>2411</v>
+      </c>
+      <c r="B1978" s="36" t="s">
+        <v>2396</v>
+      </c>
+      <c r="C1978" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1978" s="36" t="s">
+        <v>2443</v>
+      </c>
+      <c r="E1978" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1979" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1979" s="36" t="s">
+        <v>2412</v>
+      </c>
+      <c r="B1979" s="36" t="s">
+        <v>2396</v>
+      </c>
+      <c r="C1979" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1979" s="36" t="s">
+        <v>2444</v>
+      </c>
+      <c r="E1979" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1980" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1980" s="36" t="s">
+        <v>2413</v>
+      </c>
+      <c r="B1980" s="36" t="s">
+        <v>2396</v>
+      </c>
+      <c r="C1980" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1980" s="36" t="s">
+        <v>2445</v>
+      </c>
+      <c r="E1980" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1981" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1981" s="36" t="s">
+        <v>2414</v>
+      </c>
+      <c r="B1981" s="36" t="s">
+        <v>2396</v>
+      </c>
+      <c r="C1981" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1981" s="36" t="s">
+        <v>2446</v>
+      </c>
+      <c r="E1981" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1982" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1982" s="36" t="s">
+        <v>2415</v>
+      </c>
+      <c r="B1982" s="36" t="s">
+        <v>2396</v>
+      </c>
+      <c r="C1982" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1982" s="36" t="s">
+        <v>2447</v>
+      </c>
+      <c r="E1982" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1983" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1983" s="35" t="s">
+        <v>2416</v>
+      </c>
+      <c r="B1983" s="35" t="s">
+        <v>2397</v>
+      </c>
+      <c r="C1983" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1983" s="35" t="s">
+        <v>2440</v>
+      </c>
+      <c r="E1983" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1984" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1984" s="35" t="s">
+        <v>2417</v>
+      </c>
+      <c r="B1984" s="35" t="s">
+        <v>2397</v>
+      </c>
+      <c r="C1984" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1984" s="35" t="s">
+        <v>2441</v>
+      </c>
+      <c r="E1984" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1985" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1985" s="35" t="s">
+        <v>2418</v>
+      </c>
+      <c r="B1985" s="35" t="s">
+        <v>2397</v>
+      </c>
+      <c r="C1985" s="35" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1985" s="35" t="s">
+        <v>2442</v>
+      </c>
+      <c r="E1985" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1986" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1986" s="35" t="s">
+        <v>2419</v>
+      </c>
+      <c r="B1986" s="35" t="s">
+        <v>2397</v>
+      </c>
+      <c r="C1986" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1986" s="35" t="s">
+        <v>2443</v>
+      </c>
+      <c r="E1986" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1987" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1987" s="35" t="s">
+        <v>2420</v>
+      </c>
+      <c r="B1987" s="35" t="s">
+        <v>2397</v>
+      </c>
+      <c r="C1987" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1987" s="35" t="s">
+        <v>2444</v>
+      </c>
+      <c r="E1987" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1988" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1988" s="35" t="s">
+        <v>2421</v>
+      </c>
+      <c r="B1988" s="35" t="s">
+        <v>2397</v>
+      </c>
+      <c r="C1988" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1988" s="35" t="s">
+        <v>2445</v>
+      </c>
+      <c r="E1988" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1989" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1989" s="35" t="s">
+        <v>2422</v>
+      </c>
+      <c r="B1989" s="35" t="s">
+        <v>2397</v>
+      </c>
+      <c r="C1989" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1989" s="35" t="s">
+        <v>2446</v>
+      </c>
+      <c r="E1989" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1990" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1990" s="35" t="s">
+        <v>2423</v>
+      </c>
+      <c r="B1990" s="35" t="s">
+        <v>2397</v>
+      </c>
+      <c r="C1990" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1990" s="35" t="s">
+        <v>2447</v>
+      </c>
+      <c r="E1990" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1991" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1991" s="36" t="s">
+        <v>2424</v>
+      </c>
+      <c r="B1991" s="36" t="s">
+        <v>2398</v>
+      </c>
+      <c r="C1991" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1991" s="36" t="s">
+        <v>2440</v>
+      </c>
+      <c r="E1991" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1992" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1992" s="36" t="s">
+        <v>2425</v>
+      </c>
+      <c r="B1992" s="36" t="s">
+        <v>2398</v>
+      </c>
+      <c r="C1992" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1992" s="36" t="s">
+        <v>2441</v>
+      </c>
+      <c r="E1992" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1993" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1993" s="36" t="s">
+        <v>2426</v>
+      </c>
+      <c r="B1993" s="36" t="s">
+        <v>2398</v>
+      </c>
+      <c r="C1993" s="36" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1993" s="36" t="s">
+        <v>2442</v>
+      </c>
+      <c r="E1993" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1994" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1994" s="36" t="s">
+        <v>2427</v>
+      </c>
+      <c r="B1994" s="36" t="s">
+        <v>2398</v>
+      </c>
+      <c r="C1994" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1994" s="36" t="s">
+        <v>2443</v>
+      </c>
+      <c r="E1994" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1995" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1995" s="36" t="s">
+        <v>2428</v>
+      </c>
+      <c r="B1995" s="36" t="s">
+        <v>2398</v>
+      </c>
+      <c r="C1995" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1995" s="36" t="s">
+        <v>2444</v>
+      </c>
+      <c r="E1995" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1996" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1996" s="36" t="s">
+        <v>2429</v>
+      </c>
+      <c r="B1996" s="36" t="s">
+        <v>2398</v>
+      </c>
+      <c r="C1996" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1996" s="36" t="s">
+        <v>2445</v>
+      </c>
+      <c r="E1996" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1997" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1997" s="36" t="s">
+        <v>2430</v>
+      </c>
+      <c r="B1997" s="36" t="s">
+        <v>2398</v>
+      </c>
+      <c r="C1997" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1997" s="36" t="s">
+        <v>2446</v>
+      </c>
+      <c r="E1997" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1998" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1998" s="36" t="s">
+        <v>2431</v>
+      </c>
+      <c r="B1998" s="36" t="s">
+        <v>2398</v>
+      </c>
+      <c r="C1998" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1998" s="36" t="s">
+        <v>2447</v>
+      </c>
+      <c r="E1998" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1999" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1999" s="35" t="s">
+        <v>2432</v>
+      </c>
+      <c r="B1999" s="35" t="s">
+        <v>2399</v>
+      </c>
+      <c r="C1999" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1999" s="35" t="s">
+        <v>2440</v>
+      </c>
+      <c r="E1999" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2000" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2000" s="35" t="s">
+        <v>2433</v>
+      </c>
+      <c r="B2000" s="35" t="s">
+        <v>2399</v>
+      </c>
+      <c r="C2000" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2000" s="35" t="s">
+        <v>2441</v>
+      </c>
+      <c r="E2000" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2001" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2001" s="35" t="s">
+        <v>2434</v>
+      </c>
+      <c r="B2001" s="35" t="s">
+        <v>2399</v>
+      </c>
+      <c r="C2001" s="35" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2001" s="35" t="s">
+        <v>2442</v>
+      </c>
+      <c r="E2001" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2002" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2002" s="35" t="s">
+        <v>2435</v>
+      </c>
+      <c r="B2002" s="35" t="s">
+        <v>2399</v>
+      </c>
+      <c r="C2002" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2002" s="35" t="s">
+        <v>2443</v>
+      </c>
+      <c r="E2002" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2003" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2003" s="35" t="s">
+        <v>2436</v>
+      </c>
+      <c r="B2003" s="35" t="s">
+        <v>2399</v>
+      </c>
+      <c r="C2003" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2003" s="35" t="s">
+        <v>2444</v>
+      </c>
+      <c r="E2003" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2004" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2004" s="35" t="s">
+        <v>2437</v>
+      </c>
+      <c r="B2004" s="35" t="s">
+        <v>2399</v>
+      </c>
+      <c r="C2004" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2004" s="35" t="s">
+        <v>2445</v>
+      </c>
+      <c r="E2004" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2005" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2005" s="35" t="s">
+        <v>2438</v>
+      </c>
+      <c r="B2005" s="35" t="s">
+        <v>2399</v>
+      </c>
+      <c r="C2005" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2005" s="35" t="s">
+        <v>2446</v>
+      </c>
+      <c r="E2005" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2006" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2006" s="35" t="s">
+        <v>2439</v>
+      </c>
+      <c r="B2006" s="35" t="s">
+        <v>2399</v>
+      </c>
+      <c r="C2006" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2006" s="35" t="s">
+        <v>2447</v>
+      </c>
+      <c r="E2006" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2007" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2007" s="36" t="s">
+        <v>2456</v>
+      </c>
+      <c r="B2007" s="36" t="s">
+        <v>2448</v>
+      </c>
+      <c r="C2007" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2007" s="36" t="s">
+        <v>2440</v>
+      </c>
+      <c r="E2007" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2008" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2008" s="36" t="s">
+        <v>2457</v>
+      </c>
+      <c r="B2008" s="36" t="s">
+        <v>2448</v>
+      </c>
+      <c r="C2008" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2008" s="36" t="s">
+        <v>2441</v>
+      </c>
+      <c r="E2008" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2009" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2009" s="36" t="s">
+        <v>2458</v>
+      </c>
+      <c r="B2009" s="36" t="s">
+        <v>2448</v>
+      </c>
+      <c r="C2009" s="36" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2009" s="36" t="s">
+        <v>2442</v>
+      </c>
+      <c r="E2009" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2010" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2010" s="36" t="s">
+        <v>2459</v>
+      </c>
+      <c r="B2010" s="36" t="s">
+        <v>2448</v>
+      </c>
+      <c r="C2010" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2010" s="36" t="s">
+        <v>2443</v>
+      </c>
+      <c r="E2010" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2011" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2011" s="36" t="s">
+        <v>2460</v>
+      </c>
+      <c r="B2011" s="36" t="s">
+        <v>2448</v>
+      </c>
+      <c r="C2011" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2011" s="36" t="s">
+        <v>2444</v>
+      </c>
+      <c r="E2011" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2012" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2012" s="36" t="s">
+        <v>2461</v>
+      </c>
+      <c r="B2012" s="36" t="s">
+        <v>2448</v>
+      </c>
+      <c r="C2012" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2012" s="36" t="s">
+        <v>2445</v>
+      </c>
+      <c r="E2012" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2013" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2013" s="36" t="s">
+        <v>2462</v>
+      </c>
+      <c r="B2013" s="36" t="s">
+        <v>2448</v>
+      </c>
+      <c r="C2013" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2013" s="36" t="s">
+        <v>2446</v>
+      </c>
+      <c r="E2013" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2014" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2014" s="36" t="s">
+        <v>2463</v>
+      </c>
+      <c r="B2014" s="36" t="s">
+        <v>2448</v>
+      </c>
+      <c r="C2014" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2014" s="36" t="s">
+        <v>2447</v>
+      </c>
+      <c r="E2014" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2015" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2015" s="35" t="s">
+        <v>2464</v>
+      </c>
+      <c r="B2015" s="35" t="s">
+        <v>2449</v>
+      </c>
+      <c r="C2015" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2015" s="35" t="s">
+        <v>2440</v>
+      </c>
+      <c r="E2015" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2016" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2016" s="35" t="s">
+        <v>2465</v>
+      </c>
+      <c r="B2016" s="35" t="s">
+        <v>2449</v>
+      </c>
+      <c r="C2016" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2016" s="35" t="s">
+        <v>2441</v>
+      </c>
+      <c r="E2016" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2017" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2017" s="35" t="s">
+        <v>2466</v>
+      </c>
+      <c r="B2017" s="35" t="s">
+        <v>2449</v>
+      </c>
+      <c r="C2017" s="35" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2017" s="35" t="s">
+        <v>2442</v>
+      </c>
+      <c r="E2017" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2018" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2018" s="35" t="s">
+        <v>2467</v>
+      </c>
+      <c r="B2018" s="35" t="s">
+        <v>2449</v>
+      </c>
+      <c r="C2018" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2018" s="35" t="s">
+        <v>2443</v>
+      </c>
+      <c r="E2018" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2019" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2019" s="35" t="s">
+        <v>2468</v>
+      </c>
+      <c r="B2019" s="35" t="s">
+        <v>2449</v>
+      </c>
+      <c r="C2019" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2019" s="35" t="s">
+        <v>2444</v>
+      </c>
+      <c r="E2019" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2020" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2020" s="35" t="s">
+        <v>2469</v>
+      </c>
+      <c r="B2020" s="35" t="s">
+        <v>2449</v>
+      </c>
+      <c r="C2020" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2020" s="35" t="s">
+        <v>2445</v>
+      </c>
+      <c r="E2020" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2021" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2021" s="35" t="s">
+        <v>2470</v>
+      </c>
+      <c r="B2021" s="35" t="s">
+        <v>2449</v>
+      </c>
+      <c r="C2021" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2021" s="35" t="s">
+        <v>2446</v>
+      </c>
+      <c r="E2021" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2022" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2022" s="35" t="s">
+        <v>2471</v>
+      </c>
+      <c r="B2022" s="35" t="s">
+        <v>2449</v>
+      </c>
+      <c r="C2022" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2022" s="35" t="s">
+        <v>2447</v>
+      </c>
+      <c r="E2022" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2023" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2023" s="36" t="s">
+        <v>2472</v>
+      </c>
+      <c r="B2023" s="36" t="s">
+        <v>2450</v>
+      </c>
+      <c r="C2023" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2023" s="36" t="s">
+        <v>2440</v>
+      </c>
+      <c r="E2023" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2024" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2024" s="36" t="s">
+        <v>2473</v>
+      </c>
+      <c r="B2024" s="36" t="s">
+        <v>2450</v>
+      </c>
+      <c r="C2024" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2024" s="36" t="s">
+        <v>2441</v>
+      </c>
+      <c r="E2024" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2025" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2025" s="36" t="s">
+        <v>2474</v>
+      </c>
+      <c r="B2025" s="36" t="s">
+        <v>2450</v>
+      </c>
+      <c r="C2025" s="36" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2025" s="36" t="s">
+        <v>2442</v>
+      </c>
+      <c r="E2025" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2026" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2026" s="36" t="s">
+        <v>2475</v>
+      </c>
+      <c r="B2026" s="36" t="s">
+        <v>2450</v>
+      </c>
+      <c r="C2026" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2026" s="36" t="s">
+        <v>2443</v>
+      </c>
+      <c r="E2026" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2027" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2027" s="36" t="s">
+        <v>2476</v>
+      </c>
+      <c r="B2027" s="36" t="s">
+        <v>2450</v>
+      </c>
+      <c r="C2027" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2027" s="36" t="s">
+        <v>2444</v>
+      </c>
+      <c r="E2027" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2028" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2028" s="36" t="s">
+        <v>2477</v>
+      </c>
+      <c r="B2028" s="36" t="s">
+        <v>2450</v>
+      </c>
+      <c r="C2028" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2028" s="36" t="s">
+        <v>2445</v>
+      </c>
+      <c r="E2028" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2029" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2029" s="36" t="s">
+        <v>2478</v>
+      </c>
+      <c r="B2029" s="36" t="s">
+        <v>2450</v>
+      </c>
+      <c r="C2029" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2029" s="36" t="s">
+        <v>2446</v>
+      </c>
+      <c r="E2029" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2030" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2030" s="36" t="s">
+        <v>2479</v>
+      </c>
+      <c r="B2030" s="36" t="s">
+        <v>2450</v>
+      </c>
+      <c r="C2030" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2030" s="36" t="s">
+        <v>2447</v>
+      </c>
+      <c r="E2030" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2031" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2031" s="35" t="s">
+        <v>2480</v>
+      </c>
+      <c r="B2031" s="35" t="s">
+        <v>2451</v>
+      </c>
+      <c r="C2031" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2031" s="35" t="s">
+        <v>2440</v>
+      </c>
+      <c r="E2031" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2032" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2032" s="35" t="s">
+        <v>2481</v>
+      </c>
+      <c r="B2032" s="35" t="s">
+        <v>2451</v>
+      </c>
+      <c r="C2032" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2032" s="35" t="s">
+        <v>2441</v>
+      </c>
+      <c r="E2032" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2033" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2033" s="35" t="s">
+        <v>2482</v>
+      </c>
+      <c r="B2033" s="35" t="s">
+        <v>2451</v>
+      </c>
+      <c r="C2033" s="35" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2033" s="35" t="s">
+        <v>2442</v>
+      </c>
+      <c r="E2033" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2034" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2034" s="35" t="s">
+        <v>2483</v>
+      </c>
+      <c r="B2034" s="35" t="s">
+        <v>2451</v>
+      </c>
+      <c r="C2034" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2034" s="35" t="s">
+        <v>2443</v>
+      </c>
+      <c r="E2034" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2035" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2035" s="35" t="s">
+        <v>2484</v>
+      </c>
+      <c r="B2035" s="35" t="s">
+        <v>2451</v>
+      </c>
+      <c r="C2035" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2035" s="35" t="s">
+        <v>2444</v>
+      </c>
+      <c r="E2035" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2036" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2036" s="35" t="s">
+        <v>2485</v>
+      </c>
+      <c r="B2036" s="35" t="s">
+        <v>2451</v>
+      </c>
+      <c r="C2036" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2036" s="35" t="s">
+        <v>2445</v>
+      </c>
+      <c r="E2036" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2037" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2037" s="35" t="s">
+        <v>2486</v>
+      </c>
+      <c r="B2037" s="35" t="s">
+        <v>2451</v>
+      </c>
+      <c r="C2037" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2037" s="35" t="s">
+        <v>2446</v>
+      </c>
+      <c r="E2037" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2038" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2038" s="35" t="s">
+        <v>2487</v>
+      </c>
+      <c r="B2038" s="35" t="s">
+        <v>2451</v>
+      </c>
+      <c r="C2038" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2038" s="35" t="s">
+        <v>2447</v>
+      </c>
+      <c r="E2038" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2039" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2039" s="36" t="s">
+        <v>2488</v>
+      </c>
+      <c r="B2039" s="36" t="s">
+        <v>2452</v>
+      </c>
+      <c r="C2039" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2039" s="36" t="s">
+        <v>2440</v>
+      </c>
+      <c r="E2039" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2040" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2040" s="36" t="s">
+        <v>2489</v>
+      </c>
+      <c r="B2040" s="36" t="s">
+        <v>2452</v>
+      </c>
+      <c r="C2040" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2040" s="36" t="s">
+        <v>2441</v>
+      </c>
+      <c r="E2040" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2041" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2041" s="36" t="s">
+        <v>2490</v>
+      </c>
+      <c r="B2041" s="36" t="s">
+        <v>2452</v>
+      </c>
+      <c r="C2041" s="36" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2041" s="36" t="s">
+        <v>2442</v>
+      </c>
+      <c r="E2041" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2042" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2042" s="36" t="s">
+        <v>2491</v>
+      </c>
+      <c r="B2042" s="36" t="s">
+        <v>2452</v>
+      </c>
+      <c r="C2042" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2042" s="36" t="s">
+        <v>2443</v>
+      </c>
+      <c r="E2042" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2043" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2043" s="36" t="s">
+        <v>2492</v>
+      </c>
+      <c r="B2043" s="36" t="s">
+        <v>2452</v>
+      </c>
+      <c r="C2043" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2043" s="36" t="s">
+        <v>2444</v>
+      </c>
+      <c r="E2043" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2044" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2044" s="36" t="s">
+        <v>2493</v>
+      </c>
+      <c r="B2044" s="36" t="s">
+        <v>2452</v>
+      </c>
+      <c r="C2044" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2044" s="36" t="s">
+        <v>2445</v>
+      </c>
+      <c r="E2044" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2045" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2045" s="36" t="s">
+        <v>2494</v>
+      </c>
+      <c r="B2045" s="36" t="s">
+        <v>2452</v>
+      </c>
+      <c r="C2045" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2045" s="36" t="s">
+        <v>2446</v>
+      </c>
+      <c r="E2045" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2046" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2046" s="36" t="s">
+        <v>2495</v>
+      </c>
+      <c r="B2046" s="36" t="s">
+        <v>2452</v>
+      </c>
+      <c r="C2046" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2046" s="36" t="s">
+        <v>2447</v>
+      </c>
+      <c r="E2046" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2047" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2047" s="35" t="s">
+        <v>2496</v>
+      </c>
+      <c r="B2047" s="35" t="s">
+        <v>2453</v>
+      </c>
+      <c r="C2047" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2047" s="35" t="s">
+        <v>2440</v>
+      </c>
+      <c r="E2047" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2048" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2048" s="35" t="s">
+        <v>2497</v>
+      </c>
+      <c r="B2048" s="35" t="s">
+        <v>2453</v>
+      </c>
+      <c r="C2048" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2048" s="35" t="s">
+        <v>2441</v>
+      </c>
+      <c r="E2048" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2049" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2049" s="35" t="s">
+        <v>2498</v>
+      </c>
+      <c r="B2049" s="35" t="s">
+        <v>2453</v>
+      </c>
+      <c r="C2049" s="35" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2049" s="35" t="s">
+        <v>2442</v>
+      </c>
+      <c r="E2049" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2050" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2050" s="35" t="s">
+        <v>2499</v>
+      </c>
+      <c r="B2050" s="35" t="s">
+        <v>2453</v>
+      </c>
+      <c r="C2050" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2050" s="35" t="s">
+        <v>2443</v>
+      </c>
+      <c r="E2050" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2051" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2051" s="35" t="s">
+        <v>2500</v>
+      </c>
+      <c r="B2051" s="35" t="s">
+        <v>2453</v>
+      </c>
+      <c r="C2051" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2051" s="35" t="s">
+        <v>2444</v>
+      </c>
+      <c r="E2051" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2052" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2052" s="35" t="s">
+        <v>2501</v>
+      </c>
+      <c r="B2052" s="35" t="s">
+        <v>2453</v>
+      </c>
+      <c r="C2052" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2052" s="35" t="s">
+        <v>2445</v>
+      </c>
+      <c r="E2052" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2053" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2053" s="35" t="s">
+        <v>2502</v>
+      </c>
+      <c r="B2053" s="35" t="s">
+        <v>2453</v>
+      </c>
+      <c r="C2053" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2053" s="35" t="s">
+        <v>2446</v>
+      </c>
+      <c r="E2053" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2054" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2054" s="35" t="s">
+        <v>2503</v>
+      </c>
+      <c r="B2054" s="35" t="s">
+        <v>2453</v>
+      </c>
+      <c r="C2054" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2054" s="35" t="s">
+        <v>2447</v>
+      </c>
+      <c r="E2054" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2055" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2055" s="36" t="s">
+        <v>2504</v>
+      </c>
+      <c r="B2055" s="36" t="s">
+        <v>2454</v>
+      </c>
+      <c r="C2055" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2055" s="36" t="s">
+        <v>2440</v>
+      </c>
+      <c r="E2055" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2056" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2056" s="36" t="s">
+        <v>2505</v>
+      </c>
+      <c r="B2056" s="36" t="s">
+        <v>2454</v>
+      </c>
+      <c r="C2056" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2056" s="36" t="s">
+        <v>2441</v>
+      </c>
+      <c r="E2056" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2057" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2057" s="36" t="s">
+        <v>2506</v>
+      </c>
+      <c r="B2057" s="36" t="s">
+        <v>2454</v>
+      </c>
+      <c r="C2057" s="36" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2057" s="36" t="s">
+        <v>2442</v>
+      </c>
+      <c r="E2057" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2058" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2058" s="36" t="s">
+        <v>2507</v>
+      </c>
+      <c r="B2058" s="36" t="s">
+        <v>2454</v>
+      </c>
+      <c r="C2058" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2058" s="36" t="s">
+        <v>2443</v>
+      </c>
+      <c r="E2058" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2059" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2059" s="36" t="s">
+        <v>2508</v>
+      </c>
+      <c r="B2059" s="36" t="s">
+        <v>2454</v>
+      </c>
+      <c r="C2059" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2059" s="36" t="s">
+        <v>2444</v>
+      </c>
+      <c r="E2059" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2060" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2060" s="36" t="s">
+        <v>2509</v>
+      </c>
+      <c r="B2060" s="36" t="s">
+        <v>2454</v>
+      </c>
+      <c r="C2060" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2060" s="36" t="s">
+        <v>2445</v>
+      </c>
+      <c r="E2060" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2061" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2061" s="36" t="s">
+        <v>2510</v>
+      </c>
+      <c r="B2061" s="36" t="s">
+        <v>2454</v>
+      </c>
+      <c r="C2061" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2061" s="36" t="s">
+        <v>2446</v>
+      </c>
+      <c r="E2061" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2062" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2062" s="36" t="s">
+        <v>2511</v>
+      </c>
+      <c r="B2062" s="36" t="s">
+        <v>2454</v>
+      </c>
+      <c r="C2062" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2062" s="36" t="s">
+        <v>2447</v>
+      </c>
+      <c r="E2062" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2063" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2063" s="35" t="s">
+        <v>2512</v>
+      </c>
+      <c r="B2063" s="35" t="s">
+        <v>2455</v>
+      </c>
+      <c r="C2063" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2063" s="35" t="s">
+        <v>2440</v>
+      </c>
+      <c r="E2063" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2064" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2064" s="35" t="s">
+        <v>2513</v>
+      </c>
+      <c r="B2064" s="35" t="s">
+        <v>2455</v>
+      </c>
+      <c r="C2064" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2064" s="35" t="s">
+        <v>2441</v>
+      </c>
+      <c r="E2064" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2065" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2065" s="35" t="s">
+        <v>2514</v>
+      </c>
+      <c r="B2065" s="35" t="s">
+        <v>2455</v>
+      </c>
+      <c r="C2065" s="35" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2065" s="35" t="s">
+        <v>2442</v>
+      </c>
+      <c r="E2065" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2066" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2066" s="35" t="s">
+        <v>2515</v>
+      </c>
+      <c r="B2066" s="35" t="s">
+        <v>2455</v>
+      </c>
+      <c r="C2066" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2066" s="35" t="s">
+        <v>2443</v>
+      </c>
+      <c r="E2066" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2067" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2067" s="35" t="s">
+        <v>2516</v>
+      </c>
+      <c r="B2067" s="35" t="s">
+        <v>2455</v>
+      </c>
+      <c r="C2067" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2067" s="35" t="s">
+        <v>2444</v>
+      </c>
+      <c r="E2067" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2068" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2068" s="35" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B2068" s="35" t="s">
+        <v>2455</v>
+      </c>
+      <c r="C2068" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2068" s="35" t="s">
+        <v>2445</v>
+      </c>
+      <c r="E2068" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2069" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2069" s="35" t="s">
+        <v>2518</v>
+      </c>
+      <c r="B2069" s="35" t="s">
+        <v>2455</v>
+      </c>
+      <c r="C2069" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2069" s="35" t="s">
+        <v>2446</v>
+      </c>
+      <c r="E2069" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2070" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2070" s="35" t="s">
+        <v>2519</v>
+      </c>
+      <c r="B2070" s="35" t="s">
+        <v>2455</v>
+      </c>
+      <c r="C2070" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2070" s="35" t="s">
+        <v>2447</v>
+      </c>
+      <c r="E2070" s="13">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$695</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$2071</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$2096</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7120" uniqueCount="2521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7136" uniqueCount="2533">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -7593,6 +7593,42 @@
   </si>
   <si>
     <t>Lifting, Rigging &amp; Lashing Competent Person</t>
+  </si>
+  <si>
+    <t>DSS3086</t>
+  </si>
+  <si>
+    <t>DSS3087</t>
+  </si>
+  <si>
+    <t>DSS3088</t>
+  </si>
+  <si>
+    <t>DSS3089</t>
+  </si>
+  <si>
+    <t>Mohamed Ismail Mohamed Mohamed</t>
+  </si>
+  <si>
+    <t>Abdelrazek Ossama Abdelrazek Baioumy</t>
+  </si>
+  <si>
+    <t>Ziad Ahmed Ramadan Abo Ellala</t>
+  </si>
+  <si>
+    <t>Mohamed Mosbah Abdelhamid Ahmed</t>
+  </si>
+  <si>
+    <t>14-May-2025</t>
+  </si>
+  <si>
+    <t>14-May-2026</t>
+  </si>
+  <si>
+    <t>14-May-2027</t>
+  </si>
+  <si>
+    <t>14-May-2028</t>
   </si>
 </sst>
 </file>
@@ -7801,7 +7837,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -7997,6 +8033,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8270,7 +8309,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8278,10 +8317,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2070"/>
+  <dimension ref="A1:E2074"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1949" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F1973" sqref="F1973"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2055" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C2081" sqref="C2081"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43113,6 +43152,74 @@
         <v>2447</v>
       </c>
       <c r="E2070" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2071" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2071" s="51" t="s">
+        <v>2521</v>
+      </c>
+      <c r="B2071" s="51" t="s">
+        <v>2525</v>
+      </c>
+      <c r="C2071" s="51" t="s">
+        <v>534</v>
+      </c>
+      <c r="D2071" s="66" t="s">
+        <v>2529</v>
+      </c>
+      <c r="E2071" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2072" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2072" s="51" t="s">
+        <v>2522</v>
+      </c>
+      <c r="B2072" s="51" t="s">
+        <v>2526</v>
+      </c>
+      <c r="C2072" s="51" t="s">
+        <v>534</v>
+      </c>
+      <c r="D2072" s="66" t="s">
+        <v>2530</v>
+      </c>
+      <c r="E2072" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2073" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2073" s="51" t="s">
+        <v>2523</v>
+      </c>
+      <c r="B2073" s="51" t="s">
+        <v>2527</v>
+      </c>
+      <c r="C2073" s="51" t="s">
+        <v>534</v>
+      </c>
+      <c r="D2073" s="66" t="s">
+        <v>2531</v>
+      </c>
+      <c r="E2073" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2074" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2074" s="51" t="s">
+        <v>2524</v>
+      </c>
+      <c r="B2074" s="51" t="s">
+        <v>2528</v>
+      </c>
+      <c r="C2074" s="51" t="s">
+        <v>534</v>
+      </c>
+      <c r="D2074" s="66" t="s">
+        <v>2532</v>
+      </c>
+      <c r="E2074" s="13">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$695</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$2096</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$2255</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7136" uniqueCount="2533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7624" uniqueCount="2679">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -7629,6 +7629,444 @@
   </si>
   <si>
     <t>14-May-2028</t>
+  </si>
+  <si>
+    <t>Farouk Ahmed Farouk Mansour</t>
+  </si>
+  <si>
+    <t>DSS3090</t>
+  </si>
+  <si>
+    <t>DSS3091</t>
+  </si>
+  <si>
+    <t>DSS3092</t>
+  </si>
+  <si>
+    <t>DSS3093</t>
+  </si>
+  <si>
+    <t>DSS3094</t>
+  </si>
+  <si>
+    <t>DSS3095</t>
+  </si>
+  <si>
+    <t>DSS3096</t>
+  </si>
+  <si>
+    <t>DSS3097</t>
+  </si>
+  <si>
+    <t>Abanoub Gerges Adly Shafiq</t>
+  </si>
+  <si>
+    <t>DSS3098</t>
+  </si>
+  <si>
+    <t>DSS3099</t>
+  </si>
+  <si>
+    <t>DSS3100</t>
+  </si>
+  <si>
+    <t>DSS3101</t>
+  </si>
+  <si>
+    <t>DSS3102</t>
+  </si>
+  <si>
+    <t>DSS3103</t>
+  </si>
+  <si>
+    <t>DSS3104</t>
+  </si>
+  <si>
+    <t>DSS3105</t>
+  </si>
+  <si>
+    <t>MAHMOUD SAMY ABDELAZIZ HAFEZ</t>
+  </si>
+  <si>
+    <t>DSS3106</t>
+  </si>
+  <si>
+    <t>DSS3107</t>
+  </si>
+  <si>
+    <t>Ibrahim Ahmed Ali Elgammal</t>
+  </si>
+  <si>
+    <t>Ahmed Hussein Nour Abdallah</t>
+  </si>
+  <si>
+    <t>DSS3108</t>
+  </si>
+  <si>
+    <t>DSS3109</t>
+  </si>
+  <si>
+    <t>DSS3110</t>
+  </si>
+  <si>
+    <t>DSS3111</t>
+  </si>
+  <si>
+    <t>DSS3112</t>
+  </si>
+  <si>
+    <t>DSS3113</t>
+  </si>
+  <si>
+    <t>DSS3114</t>
+  </si>
+  <si>
+    <t>DSS3115</t>
+  </si>
+  <si>
+    <t>DSS3116</t>
+  </si>
+  <si>
+    <t>DSS3117</t>
+  </si>
+  <si>
+    <t>DSS3118</t>
+  </si>
+  <si>
+    <t>DSS3119</t>
+  </si>
+  <si>
+    <t>DSS3120</t>
+  </si>
+  <si>
+    <t>DSS3121</t>
+  </si>
+  <si>
+    <t>DSS3122</t>
+  </si>
+  <si>
+    <t>DSS3123</t>
+  </si>
+  <si>
+    <t>DSS3124</t>
+  </si>
+  <si>
+    <t>DSS3125</t>
+  </si>
+  <si>
+    <t>DSS3126</t>
+  </si>
+  <si>
+    <t>DSS3127</t>
+  </si>
+  <si>
+    <t>DSS3128</t>
+  </si>
+  <si>
+    <t>DSS3129</t>
+  </si>
+  <si>
+    <t>DSS3130</t>
+  </si>
+  <si>
+    <t>DSS3131</t>
+  </si>
+  <si>
+    <t>Mekhael Mishmish Wageh Sobhe</t>
+  </si>
+  <si>
+    <t>Ramy Mohammed Attia Hussein</t>
+  </si>
+  <si>
+    <t>ATEF ELSAID ALI ELZOHIRI</t>
+  </si>
+  <si>
+    <t>MOHAMED SOLIMAN ATWA SOLIMAN GEBIL</t>
+  </si>
+  <si>
+    <t>Fadl Morsy Helmy Morsy</t>
+  </si>
+  <si>
+    <t>Jalal Abdulhamid Mawloud Basheer</t>
+  </si>
+  <si>
+    <t>Ashraf Mahmoud Hussein Mahmoud</t>
+  </si>
+  <si>
+    <t>Fares Omar Mahmoud Ibrahim</t>
+  </si>
+  <si>
+    <t>Nour El Din Mourad Khalil Ibrahim</t>
+  </si>
+  <si>
+    <t>Mohamed Talaat Fathy Metwaly</t>
+  </si>
+  <si>
+    <t>Ziad Ayman Hasan Amar</t>
+  </si>
+  <si>
+    <t>05-Jun-2025</t>
+  </si>
+  <si>
+    <t>10-Jun-2025</t>
+  </si>
+  <si>
+    <t>06-Jun-2025</t>
+  </si>
+  <si>
+    <t>03-Jun-2025</t>
+  </si>
+  <si>
+    <t>01-Jun-2025</t>
+  </si>
+  <si>
+    <t>02-Jun-2025</t>
+  </si>
+  <si>
+    <t>07-Jun-2025</t>
+  </si>
+  <si>
+    <t>08-Jun-2025</t>
+  </si>
+  <si>
+    <t>DSS3132</t>
+  </si>
+  <si>
+    <t>DSS3133</t>
+  </si>
+  <si>
+    <t>DSS3134</t>
+  </si>
+  <si>
+    <t>DSS3135</t>
+  </si>
+  <si>
+    <t>DSS3136</t>
+  </si>
+  <si>
+    <t>DSS3137</t>
+  </si>
+  <si>
+    <t>DSS3138</t>
+  </si>
+  <si>
+    <t>DSS3139</t>
+  </si>
+  <si>
+    <t>DSS3140</t>
+  </si>
+  <si>
+    <t>DSS3141</t>
+  </si>
+  <si>
+    <t>DSS3142</t>
+  </si>
+  <si>
+    <t>DSS3143</t>
+  </si>
+  <si>
+    <t>DSS3144</t>
+  </si>
+  <si>
+    <t>DSS3145</t>
+  </si>
+  <si>
+    <t>DSS3146</t>
+  </si>
+  <si>
+    <t>DSS3147</t>
+  </si>
+  <si>
+    <t>DSS3148</t>
+  </si>
+  <si>
+    <t>DSS3149</t>
+  </si>
+  <si>
+    <t>DSS3150</t>
+  </si>
+  <si>
+    <t>DSS3151</t>
+  </si>
+  <si>
+    <t>DSS3152</t>
+  </si>
+  <si>
+    <t>DSS3153</t>
+  </si>
+  <si>
+    <t>DSS3154</t>
+  </si>
+  <si>
+    <t>DSS3155</t>
+  </si>
+  <si>
+    <t>DSS3156</t>
+  </si>
+  <si>
+    <t>DSS3157</t>
+  </si>
+  <si>
+    <t>DSS3158</t>
+  </si>
+  <si>
+    <t>DSS3159</t>
+  </si>
+  <si>
+    <t>DSS3160</t>
+  </si>
+  <si>
+    <t>DSS3161</t>
+  </si>
+  <si>
+    <t>DSS3162</t>
+  </si>
+  <si>
+    <t>DSS3163</t>
+  </si>
+  <si>
+    <t>DSS3164</t>
+  </si>
+  <si>
+    <t>DSS3165</t>
+  </si>
+  <si>
+    <t>DSS3166</t>
+  </si>
+  <si>
+    <t>DSS3167</t>
+  </si>
+  <si>
+    <t>DSS3168</t>
+  </si>
+  <si>
+    <t>DSS3169</t>
+  </si>
+  <si>
+    <t>DSS3170</t>
+  </si>
+  <si>
+    <t>DSS3171</t>
+  </si>
+  <si>
+    <t>DSS3172</t>
+  </si>
+  <si>
+    <t>DSS3173</t>
+  </si>
+  <si>
+    <t>DSS3174</t>
+  </si>
+  <si>
+    <t>DSS3175</t>
+  </si>
+  <si>
+    <t>DSS3176</t>
+  </si>
+  <si>
+    <t>DSS3177</t>
+  </si>
+  <si>
+    <t>DSS3178</t>
+  </si>
+  <si>
+    <t>DSS3179</t>
+  </si>
+  <si>
+    <t>DSS3180</t>
+  </si>
+  <si>
+    <t>DSS3181</t>
+  </si>
+  <si>
+    <t>DSS3182</t>
+  </si>
+  <si>
+    <t>DSS3183</t>
+  </si>
+  <si>
+    <t>DSS3184</t>
+  </si>
+  <si>
+    <t>DSS3185</t>
+  </si>
+  <si>
+    <t>DSS3186</t>
+  </si>
+  <si>
+    <t>DSS3187</t>
+  </si>
+  <si>
+    <t>DSS3188</t>
+  </si>
+  <si>
+    <t>DSS3189</t>
+  </si>
+  <si>
+    <t>DSS3190</t>
+  </si>
+  <si>
+    <t>DSS3191</t>
+  </si>
+  <si>
+    <t>DSS3192</t>
+  </si>
+  <si>
+    <t>DSS3193</t>
+  </si>
+  <si>
+    <t>DSS3194</t>
+  </si>
+  <si>
+    <t>DSS3195</t>
+  </si>
+  <si>
+    <t>DSS3196</t>
+  </si>
+  <si>
+    <t>DSS3197</t>
+  </si>
+  <si>
+    <t>DSS3198</t>
+  </si>
+  <si>
+    <t>DSS3199</t>
+  </si>
+  <si>
+    <t>DSS3200</t>
+  </si>
+  <si>
+    <t>DSS3201</t>
+  </si>
+  <si>
+    <t>DSS3202</t>
+  </si>
+  <si>
+    <t>DSS3203</t>
+  </si>
+  <si>
+    <t>DSS3204</t>
+  </si>
+  <si>
+    <t>DSS3205</t>
+  </si>
+  <si>
+    <t>DSS3206</t>
+  </si>
+  <si>
+    <t>DSS3207</t>
+  </si>
+  <si>
+    <t>DSS3208</t>
+  </si>
+  <si>
+    <t>DSS3209</t>
+  </si>
+  <si>
+    <t>DSS3210</t>
+  </si>
+  <si>
+    <t>DSS3211</t>
   </si>
 </sst>
 </file>
@@ -8317,10 +8755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2074"/>
+  <dimension ref="A1:E2250"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2055" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C2081" sqref="C2081"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2173" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A2189" sqref="A2189:D2196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43223,12 +43661,2248 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2075" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2075" s="35" t="s">
+        <v>2534</v>
+      </c>
+      <c r="B2075" s="35" t="s">
+        <v>2533</v>
+      </c>
+      <c r="C2075" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2075" s="35" t="s">
+        <v>2440</v>
+      </c>
+      <c r="E2075" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2076" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2076" s="35" t="s">
+        <v>2535</v>
+      </c>
+      <c r="B2076" s="35" t="s">
+        <v>2533</v>
+      </c>
+      <c r="C2076" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2076" s="35" t="s">
+        <v>2441</v>
+      </c>
+      <c r="E2076" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2077" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2077" s="35" t="s">
+        <v>2536</v>
+      </c>
+      <c r="B2077" s="35" t="s">
+        <v>2533</v>
+      </c>
+      <c r="C2077" s="35" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2077" s="35" t="s">
+        <v>2442</v>
+      </c>
+      <c r="E2077" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2078" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2078" s="35" t="s">
+        <v>2537</v>
+      </c>
+      <c r="B2078" s="35" t="s">
+        <v>2533</v>
+      </c>
+      <c r="C2078" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2078" s="35" t="s">
+        <v>2443</v>
+      </c>
+      <c r="E2078" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2079" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2079" s="35" t="s">
+        <v>2538</v>
+      </c>
+      <c r="B2079" s="35" t="s">
+        <v>2533</v>
+      </c>
+      <c r="C2079" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2079" s="35" t="s">
+        <v>2444</v>
+      </c>
+      <c r="E2079" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2080" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2080" s="35" t="s">
+        <v>2539</v>
+      </c>
+      <c r="B2080" s="35" t="s">
+        <v>2533</v>
+      </c>
+      <c r="C2080" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2080" s="35" t="s">
+        <v>2445</v>
+      </c>
+      <c r="E2080" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2081" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2081" s="35" t="s">
+        <v>2540</v>
+      </c>
+      <c r="B2081" s="35" t="s">
+        <v>2533</v>
+      </c>
+      <c r="C2081" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2081" s="35" t="s">
+        <v>2446</v>
+      </c>
+      <c r="E2081" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2082" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2082" s="35" t="s">
+        <v>2541</v>
+      </c>
+      <c r="B2082" s="35" t="s">
+        <v>2533</v>
+      </c>
+      <c r="C2082" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2082" s="35" t="s">
+        <v>2447</v>
+      </c>
+      <c r="E2082" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2083" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2083" s="36" t="s">
+        <v>2543</v>
+      </c>
+      <c r="B2083" s="36" t="s">
+        <v>2542</v>
+      </c>
+      <c r="C2083" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2083" s="36" t="s">
+        <v>2440</v>
+      </c>
+      <c r="E2083" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2084" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2084" s="36" t="s">
+        <v>2544</v>
+      </c>
+      <c r="B2084" s="36" t="s">
+        <v>2542</v>
+      </c>
+      <c r="C2084" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2084" s="36" t="s">
+        <v>2441</v>
+      </c>
+      <c r="E2084" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2085" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2085" s="36" t="s">
+        <v>2545</v>
+      </c>
+      <c r="B2085" s="36" t="s">
+        <v>2542</v>
+      </c>
+      <c r="C2085" s="36" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2085" s="36" t="s">
+        <v>2442</v>
+      </c>
+      <c r="E2085" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2086" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2086" s="36" t="s">
+        <v>2546</v>
+      </c>
+      <c r="B2086" s="36" t="s">
+        <v>2542</v>
+      </c>
+      <c r="C2086" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2086" s="36" t="s">
+        <v>2443</v>
+      </c>
+      <c r="E2086" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2087" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2087" s="36" t="s">
+        <v>2547</v>
+      </c>
+      <c r="B2087" s="36" t="s">
+        <v>2542</v>
+      </c>
+      <c r="C2087" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2087" s="36" t="s">
+        <v>2444</v>
+      </c>
+      <c r="E2087" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2088" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2088" s="36" t="s">
+        <v>2548</v>
+      </c>
+      <c r="B2088" s="36" t="s">
+        <v>2542</v>
+      </c>
+      <c r="C2088" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2088" s="36" t="s">
+        <v>2445</v>
+      </c>
+      <c r="E2088" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2089" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2089" s="36" t="s">
+        <v>2549</v>
+      </c>
+      <c r="B2089" s="36" t="s">
+        <v>2542</v>
+      </c>
+      <c r="C2089" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2089" s="36" t="s">
+        <v>2446</v>
+      </c>
+      <c r="E2089" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2090" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2090" s="36" t="s">
+        <v>2550</v>
+      </c>
+      <c r="B2090" s="36" t="s">
+        <v>2542</v>
+      </c>
+      <c r="C2090" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2090" s="36" t="s">
+        <v>2447</v>
+      </c>
+      <c r="E2090" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2091" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2091" s="35" t="s">
+        <v>2552</v>
+      </c>
+      <c r="B2091" s="35" t="s">
+        <v>2551</v>
+      </c>
+      <c r="C2091" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2091" s="35" t="s">
+        <v>2444</v>
+      </c>
+      <c r="E2091" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2092" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2092" s="35" t="s">
+        <v>2553</v>
+      </c>
+      <c r="B2092" s="35" t="s">
+        <v>2551</v>
+      </c>
+      <c r="C2092" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2092" s="35" t="s">
+        <v>2445</v>
+      </c>
+      <c r="E2092" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2093" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2093" s="36" t="s">
+        <v>2556</v>
+      </c>
+      <c r="B2093" s="36" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C2093" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2093" s="36" t="s">
+        <v>2591</v>
+      </c>
+      <c r="E2093" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2094" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2094" s="36" t="s">
+        <v>2557</v>
+      </c>
+      <c r="B2094" s="36" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C2094" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2094" s="36" t="s">
+        <v>2592</v>
+      </c>
+      <c r="E2094" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2095" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2095" s="36" t="s">
+        <v>2558</v>
+      </c>
+      <c r="B2095" s="36" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C2095" s="36" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2095" s="36" t="s">
+        <v>2593</v>
+      </c>
+      <c r="E2095" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2096" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2096" s="36" t="s">
+        <v>2559</v>
+      </c>
+      <c r="B2096" s="36" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C2096" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2096" s="36" t="s">
+        <v>2594</v>
+      </c>
+      <c r="E2096" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2097" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2097" s="36" t="s">
+        <v>2560</v>
+      </c>
+      <c r="B2097" s="36" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C2097" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2097" s="36" t="s">
+        <v>2595</v>
+      </c>
+      <c r="E2097" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2098" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2098" s="36" t="s">
+        <v>2561</v>
+      </c>
+      <c r="B2098" s="36" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C2098" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2098" s="36" t="s">
+        <v>2596</v>
+      </c>
+      <c r="E2098" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2099" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2099" s="36" t="s">
+        <v>2562</v>
+      </c>
+      <c r="B2099" s="36" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C2099" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2099" s="36" t="s">
+        <v>2597</v>
+      </c>
+      <c r="E2099" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2100" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2100" s="36" t="s">
+        <v>2563</v>
+      </c>
+      <c r="B2100" s="36" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C2100" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2100" s="36" t="s">
+        <v>2598</v>
+      </c>
+      <c r="E2100" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2101" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2101" s="35" t="s">
+        <v>2564</v>
+      </c>
+      <c r="B2101" s="35" t="s">
+        <v>2555</v>
+      </c>
+      <c r="C2101" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2101" s="35" t="s">
+        <v>2591</v>
+      </c>
+      <c r="E2101" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2102" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2102" s="35" t="s">
+        <v>2565</v>
+      </c>
+      <c r="B2102" s="35" t="s">
+        <v>2555</v>
+      </c>
+      <c r="C2102" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2102" s="35" t="s">
+        <v>2592</v>
+      </c>
+      <c r="E2102" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2103" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2103" s="35" t="s">
+        <v>2566</v>
+      </c>
+      <c r="B2103" s="35" t="s">
+        <v>2555</v>
+      </c>
+      <c r="C2103" s="35" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2103" s="35" t="s">
+        <v>2593</v>
+      </c>
+      <c r="E2103" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2104" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2104" s="35" t="s">
+        <v>2567</v>
+      </c>
+      <c r="B2104" s="35" t="s">
+        <v>2555</v>
+      </c>
+      <c r="C2104" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2104" s="35" t="s">
+        <v>2594</v>
+      </c>
+      <c r="E2104" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2105" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2105" s="35" t="s">
+        <v>2568</v>
+      </c>
+      <c r="B2105" s="35" t="s">
+        <v>2555</v>
+      </c>
+      <c r="C2105" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2105" s="35" t="s">
+        <v>2595</v>
+      </c>
+      <c r="E2105" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2106" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2106" s="35" t="s">
+        <v>2569</v>
+      </c>
+      <c r="B2106" s="35" t="s">
+        <v>2555</v>
+      </c>
+      <c r="C2106" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2106" s="35" t="s">
+        <v>2596</v>
+      </c>
+      <c r="E2106" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2107" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2107" s="35" t="s">
+        <v>2570</v>
+      </c>
+      <c r="B2107" s="35" t="s">
+        <v>2555</v>
+      </c>
+      <c r="C2107" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2107" s="35" t="s">
+        <v>2597</v>
+      </c>
+      <c r="E2107" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2108" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2108" s="35" t="s">
+        <v>2571</v>
+      </c>
+      <c r="B2108" s="35" t="s">
+        <v>2555</v>
+      </c>
+      <c r="C2108" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2108" s="35" t="s">
+        <v>2598</v>
+      </c>
+      <c r="E2108" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2109" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2109" s="36" t="s">
+        <v>2572</v>
+      </c>
+      <c r="B2109" s="36" t="s">
+        <v>2580</v>
+      </c>
+      <c r="C2109" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2109" s="36" t="s">
+        <v>2591</v>
+      </c>
+      <c r="E2109" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2110" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2110" s="36" t="s">
+        <v>2573</v>
+      </c>
+      <c r="B2110" s="36" t="s">
+        <v>2580</v>
+      </c>
+      <c r="C2110" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2110" s="36" t="s">
+        <v>2592</v>
+      </c>
+      <c r="E2110" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2111" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2111" s="36" t="s">
+        <v>2574</v>
+      </c>
+      <c r="B2111" s="36" t="s">
+        <v>2580</v>
+      </c>
+      <c r="C2111" s="36" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2111" s="36" t="s">
+        <v>2593</v>
+      </c>
+      <c r="E2111" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2112" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2112" s="36" t="s">
+        <v>2575</v>
+      </c>
+      <c r="B2112" s="36" t="s">
+        <v>2580</v>
+      </c>
+      <c r="C2112" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2112" s="36" t="s">
+        <v>2594</v>
+      </c>
+      <c r="E2112" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2113" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2113" s="36" t="s">
+        <v>2576</v>
+      </c>
+      <c r="B2113" s="36" t="s">
+        <v>2580</v>
+      </c>
+      <c r="C2113" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2113" s="36" t="s">
+        <v>2595</v>
+      </c>
+      <c r="E2113" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2114" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2114" s="36" t="s">
+        <v>2577</v>
+      </c>
+      <c r="B2114" s="36" t="s">
+        <v>2580</v>
+      </c>
+      <c r="C2114" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2114" s="36" t="s">
+        <v>2596</v>
+      </c>
+      <c r="E2114" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2115" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2115" s="36" t="s">
+        <v>2578</v>
+      </c>
+      <c r="B2115" s="36" t="s">
+        <v>2580</v>
+      </c>
+      <c r="C2115" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2115" s="36" t="s">
+        <v>2597</v>
+      </c>
+      <c r="E2115" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2116" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2116" s="36" t="s">
+        <v>2579</v>
+      </c>
+      <c r="B2116" s="36" t="s">
+        <v>2580</v>
+      </c>
+      <c r="C2116" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2116" s="36" t="s">
+        <v>2598</v>
+      </c>
+      <c r="E2116" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2117" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2117" s="35" t="s">
+        <v>2599</v>
+      </c>
+      <c r="B2117" s="35" t="s">
+        <v>2581</v>
+      </c>
+      <c r="C2117" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2117" s="35" t="s">
+        <v>2591</v>
+      </c>
+      <c r="E2117" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2118" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2118" s="35" t="s">
+        <v>2600</v>
+      </c>
+      <c r="B2118" s="35" t="s">
+        <v>2581</v>
+      </c>
+      <c r="C2118" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2118" s="35" t="s">
+        <v>2592</v>
+      </c>
+      <c r="E2118" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2119" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2119" s="35" t="s">
+        <v>2601</v>
+      </c>
+      <c r="B2119" s="35" t="s">
+        <v>2581</v>
+      </c>
+      <c r="C2119" s="35" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2119" s="35" t="s">
+        <v>2593</v>
+      </c>
+      <c r="E2119" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2120" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2120" s="35" t="s">
+        <v>2602</v>
+      </c>
+      <c r="B2120" s="35" t="s">
+        <v>2581</v>
+      </c>
+      <c r="C2120" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2120" s="35" t="s">
+        <v>2594</v>
+      </c>
+      <c r="E2120" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2121" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2121" s="35" t="s">
+        <v>2603</v>
+      </c>
+      <c r="B2121" s="35" t="s">
+        <v>2581</v>
+      </c>
+      <c r="C2121" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2121" s="35" t="s">
+        <v>2595</v>
+      </c>
+      <c r="E2121" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2122" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2122" s="35" t="s">
+        <v>2604</v>
+      </c>
+      <c r="B2122" s="35" t="s">
+        <v>2581</v>
+      </c>
+      <c r="C2122" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2122" s="35" t="s">
+        <v>2596</v>
+      </c>
+      <c r="E2122" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2123" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2123" s="35" t="s">
+        <v>2605</v>
+      </c>
+      <c r="B2123" s="35" t="s">
+        <v>2581</v>
+      </c>
+      <c r="C2123" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2123" s="35" t="s">
+        <v>2597</v>
+      </c>
+      <c r="E2123" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2124" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2124" s="35" t="s">
+        <v>2606</v>
+      </c>
+      <c r="B2124" s="35" t="s">
+        <v>2581</v>
+      </c>
+      <c r="C2124" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2124" s="35" t="s">
+        <v>2598</v>
+      </c>
+      <c r="E2124" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2125" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2125" s="36" t="s">
+        <v>2607</v>
+      </c>
+      <c r="B2125" s="36" t="s">
+        <v>2582</v>
+      </c>
+      <c r="C2125" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2125" s="36" t="s">
+        <v>2591</v>
+      </c>
+      <c r="E2125" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2126" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2126" s="36" t="s">
+        <v>2608</v>
+      </c>
+      <c r="B2126" s="36" t="s">
+        <v>2582</v>
+      </c>
+      <c r="C2126" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2126" s="36" t="s">
+        <v>2592</v>
+      </c>
+      <c r="E2126" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2127" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2127" s="36" t="s">
+        <v>2609</v>
+      </c>
+      <c r="B2127" s="36" t="s">
+        <v>2582</v>
+      </c>
+      <c r="C2127" s="36" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2127" s="36" t="s">
+        <v>2593</v>
+      </c>
+      <c r="E2127" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2128" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2128" s="36" t="s">
+        <v>2610</v>
+      </c>
+      <c r="B2128" s="36" t="s">
+        <v>2582</v>
+      </c>
+      <c r="C2128" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2128" s="36" t="s">
+        <v>2594</v>
+      </c>
+      <c r="E2128" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2129" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2129" s="36" t="s">
+        <v>2611</v>
+      </c>
+      <c r="B2129" s="36" t="s">
+        <v>2582</v>
+      </c>
+      <c r="C2129" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2129" s="36" t="s">
+        <v>2595</v>
+      </c>
+      <c r="E2129" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2130" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2130" s="36" t="s">
+        <v>2612</v>
+      </c>
+      <c r="B2130" s="36" t="s">
+        <v>2582</v>
+      </c>
+      <c r="C2130" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2130" s="36" t="s">
+        <v>2596</v>
+      </c>
+      <c r="E2130" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2131" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2131" s="36" t="s">
+        <v>2613</v>
+      </c>
+      <c r="B2131" s="36" t="s">
+        <v>2582</v>
+      </c>
+      <c r="C2131" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2131" s="36" t="s">
+        <v>2597</v>
+      </c>
+      <c r="E2131" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2132" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2132" s="36" t="s">
+        <v>2614</v>
+      </c>
+      <c r="B2132" s="36" t="s">
+        <v>2582</v>
+      </c>
+      <c r="C2132" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2132" s="36" t="s">
+        <v>2598</v>
+      </c>
+      <c r="E2132" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2133" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2133" s="35" t="s">
+        <v>2615</v>
+      </c>
+      <c r="B2133" s="35" t="s">
+        <v>2583</v>
+      </c>
+      <c r="C2133" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2133" s="35" t="s">
+        <v>2591</v>
+      </c>
+      <c r="E2133" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2134" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2134" s="35" t="s">
+        <v>2616</v>
+      </c>
+      <c r="B2134" s="35" t="s">
+        <v>2583</v>
+      </c>
+      <c r="C2134" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2134" s="35" t="s">
+        <v>2592</v>
+      </c>
+      <c r="E2134" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2135" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2135" s="35" t="s">
+        <v>2617</v>
+      </c>
+      <c r="B2135" s="35" t="s">
+        <v>2583</v>
+      </c>
+      <c r="C2135" s="35" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2135" s="35" t="s">
+        <v>2593</v>
+      </c>
+      <c r="E2135" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2136" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2136" s="35" t="s">
+        <v>2618</v>
+      </c>
+      <c r="B2136" s="35" t="s">
+        <v>2583</v>
+      </c>
+      <c r="C2136" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2136" s="35" t="s">
+        <v>2594</v>
+      </c>
+      <c r="E2136" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2137" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2137" s="35" t="s">
+        <v>2619</v>
+      </c>
+      <c r="B2137" s="35" t="s">
+        <v>2583</v>
+      </c>
+      <c r="C2137" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2137" s="35" t="s">
+        <v>2595</v>
+      </c>
+      <c r="E2137" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2138" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2138" s="35" t="s">
+        <v>2620</v>
+      </c>
+      <c r="B2138" s="35" t="s">
+        <v>2583</v>
+      </c>
+      <c r="C2138" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2138" s="35" t="s">
+        <v>2596</v>
+      </c>
+      <c r="E2138" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2139" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2139" s="35" t="s">
+        <v>2621</v>
+      </c>
+      <c r="B2139" s="35" t="s">
+        <v>2583</v>
+      </c>
+      <c r="C2139" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2139" s="35" t="s">
+        <v>2597</v>
+      </c>
+      <c r="E2139" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2140" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2140" s="35" t="s">
+        <v>2622</v>
+      </c>
+      <c r="B2140" s="35" t="s">
+        <v>2583</v>
+      </c>
+      <c r="C2140" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2140" s="35" t="s">
+        <v>2598</v>
+      </c>
+      <c r="E2140" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2141" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2141" s="36" t="s">
+        <v>2623</v>
+      </c>
+      <c r="B2141" s="36" t="s">
+        <v>2584</v>
+      </c>
+      <c r="C2141" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2141" s="36" t="s">
+        <v>2591</v>
+      </c>
+      <c r="E2141" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2142" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2142" s="36" t="s">
+        <v>2624</v>
+      </c>
+      <c r="B2142" s="36" t="s">
+        <v>2584</v>
+      </c>
+      <c r="C2142" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2142" s="36" t="s">
+        <v>2592</v>
+      </c>
+      <c r="E2142" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2143" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2143" s="36" t="s">
+        <v>2625</v>
+      </c>
+      <c r="B2143" s="36" t="s">
+        <v>2584</v>
+      </c>
+      <c r="C2143" s="36" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2143" s="36" t="s">
+        <v>2593</v>
+      </c>
+      <c r="E2143" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2144" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2144" s="36" t="s">
+        <v>2626</v>
+      </c>
+      <c r="B2144" s="36" t="s">
+        <v>2584</v>
+      </c>
+      <c r="C2144" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2144" s="36" t="s">
+        <v>2594</v>
+      </c>
+      <c r="E2144" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2145" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2145" s="36" t="s">
+        <v>2627</v>
+      </c>
+      <c r="B2145" s="36" t="s">
+        <v>2584</v>
+      </c>
+      <c r="C2145" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2145" s="36" t="s">
+        <v>2595</v>
+      </c>
+      <c r="E2145" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2146" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2146" s="36" t="s">
+        <v>2628</v>
+      </c>
+      <c r="B2146" s="36" t="s">
+        <v>2584</v>
+      </c>
+      <c r="C2146" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2146" s="36" t="s">
+        <v>2596</v>
+      </c>
+      <c r="E2146" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2147" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2147" s="36" t="s">
+        <v>2629</v>
+      </c>
+      <c r="B2147" s="36" t="s">
+        <v>2584</v>
+      </c>
+      <c r="C2147" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2147" s="36" t="s">
+        <v>2597</v>
+      </c>
+      <c r="E2147" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2148" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2148" s="36" t="s">
+        <v>2630</v>
+      </c>
+      <c r="B2148" s="36" t="s">
+        <v>2584</v>
+      </c>
+      <c r="C2148" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2148" s="36" t="s">
+        <v>2598</v>
+      </c>
+      <c r="E2148" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2149" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2149" s="35" t="s">
+        <v>2631</v>
+      </c>
+      <c r="B2149" s="35" t="s">
+        <v>2585</v>
+      </c>
+      <c r="C2149" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2149" s="35" t="s">
+        <v>2591</v>
+      </c>
+      <c r="E2149" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2150" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2150" s="35" t="s">
+        <v>2632</v>
+      </c>
+      <c r="B2150" s="35" t="s">
+        <v>2585</v>
+      </c>
+      <c r="C2150" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2150" s="35" t="s">
+        <v>2592</v>
+      </c>
+      <c r="E2150" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2151" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2151" s="35" t="s">
+        <v>2633</v>
+      </c>
+      <c r="B2151" s="35" t="s">
+        <v>2585</v>
+      </c>
+      <c r="C2151" s="35" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2151" s="35" t="s">
+        <v>2593</v>
+      </c>
+      <c r="E2151" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2152" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2152" s="35" t="s">
+        <v>2634</v>
+      </c>
+      <c r="B2152" s="35" t="s">
+        <v>2585</v>
+      </c>
+      <c r="C2152" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2152" s="35" t="s">
+        <v>2594</v>
+      </c>
+      <c r="E2152" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2153" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2153" s="35" t="s">
+        <v>2635</v>
+      </c>
+      <c r="B2153" s="35" t="s">
+        <v>2585</v>
+      </c>
+      <c r="C2153" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2153" s="35" t="s">
+        <v>2595</v>
+      </c>
+      <c r="E2153" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2154" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2154" s="35" t="s">
+        <v>2636</v>
+      </c>
+      <c r="B2154" s="35" t="s">
+        <v>2585</v>
+      </c>
+      <c r="C2154" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2154" s="35" t="s">
+        <v>2596</v>
+      </c>
+      <c r="E2154" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2155" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2155" s="35" t="s">
+        <v>2637</v>
+      </c>
+      <c r="B2155" s="35" t="s">
+        <v>2585</v>
+      </c>
+      <c r="C2155" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2155" s="35" t="s">
+        <v>2597</v>
+      </c>
+      <c r="E2155" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2156" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2156" s="35" t="s">
+        <v>2638</v>
+      </c>
+      <c r="B2156" s="35" t="s">
+        <v>2585</v>
+      </c>
+      <c r="C2156" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2156" s="35" t="s">
+        <v>2598</v>
+      </c>
+      <c r="E2156" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2157" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2157" s="36" t="s">
+        <v>2639</v>
+      </c>
+      <c r="B2157" s="36" t="s">
+        <v>2586</v>
+      </c>
+      <c r="C2157" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2157" s="36" t="s">
+        <v>2591</v>
+      </c>
+      <c r="E2157" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2158" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2158" s="36" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B2158" s="36" t="s">
+        <v>2586</v>
+      </c>
+      <c r="C2158" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2158" s="36" t="s">
+        <v>2592</v>
+      </c>
+      <c r="E2158" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2159" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2159" s="36" t="s">
+        <v>2641</v>
+      </c>
+      <c r="B2159" s="36" t="s">
+        <v>2586</v>
+      </c>
+      <c r="C2159" s="36" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2159" s="36" t="s">
+        <v>2593</v>
+      </c>
+      <c r="E2159" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2160" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2160" s="36" t="s">
+        <v>2642</v>
+      </c>
+      <c r="B2160" s="36" t="s">
+        <v>2586</v>
+      </c>
+      <c r="C2160" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2160" s="36" t="s">
+        <v>2594</v>
+      </c>
+      <c r="E2160" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2161" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2161" s="36" t="s">
+        <v>2643</v>
+      </c>
+      <c r="B2161" s="36" t="s">
+        <v>2586</v>
+      </c>
+      <c r="C2161" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2161" s="36" t="s">
+        <v>2595</v>
+      </c>
+      <c r="E2161" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2162" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2162" s="36" t="s">
+        <v>2644</v>
+      </c>
+      <c r="B2162" s="36" t="s">
+        <v>2586</v>
+      </c>
+      <c r="C2162" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2162" s="36" t="s">
+        <v>2596</v>
+      </c>
+      <c r="E2162" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2163" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2163" s="36" t="s">
+        <v>2645</v>
+      </c>
+      <c r="B2163" s="36" t="s">
+        <v>2586</v>
+      </c>
+      <c r="C2163" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2163" s="36" t="s">
+        <v>2597</v>
+      </c>
+      <c r="E2163" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2164" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2164" s="36" t="s">
+        <v>2646</v>
+      </c>
+      <c r="B2164" s="36" t="s">
+        <v>2586</v>
+      </c>
+      <c r="C2164" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2164" s="36" t="s">
+        <v>2598</v>
+      </c>
+      <c r="E2164" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2165" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2165" s="35" t="s">
+        <v>2647</v>
+      </c>
+      <c r="B2165" s="35" t="s">
+        <v>2587</v>
+      </c>
+      <c r="C2165" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2165" s="35" t="s">
+        <v>2591</v>
+      </c>
+      <c r="E2165" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2166" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2166" s="35" t="s">
+        <v>2648</v>
+      </c>
+      <c r="B2166" s="35" t="s">
+        <v>2587</v>
+      </c>
+      <c r="C2166" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2166" s="35" t="s">
+        <v>2592</v>
+      </c>
+      <c r="E2166" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2167" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2167" s="35" t="s">
+        <v>2649</v>
+      </c>
+      <c r="B2167" s="35" t="s">
+        <v>2587</v>
+      </c>
+      <c r="C2167" s="35" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2167" s="35" t="s">
+        <v>2593</v>
+      </c>
+      <c r="E2167" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2168" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2168" s="35" t="s">
+        <v>2650</v>
+      </c>
+      <c r="B2168" s="35" t="s">
+        <v>2587</v>
+      </c>
+      <c r="C2168" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2168" s="35" t="s">
+        <v>2594</v>
+      </c>
+      <c r="E2168" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2169" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2169" s="35" t="s">
+        <v>2651</v>
+      </c>
+      <c r="B2169" s="35" t="s">
+        <v>2587</v>
+      </c>
+      <c r="C2169" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2169" s="35" t="s">
+        <v>2595</v>
+      </c>
+      <c r="E2169" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2170" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2170" s="35" t="s">
+        <v>2652</v>
+      </c>
+      <c r="B2170" s="35" t="s">
+        <v>2587</v>
+      </c>
+      <c r="C2170" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2170" s="35" t="s">
+        <v>2596</v>
+      </c>
+      <c r="E2170" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2171" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2171" s="35" t="s">
+        <v>2653</v>
+      </c>
+      <c r="B2171" s="35" t="s">
+        <v>2587</v>
+      </c>
+      <c r="C2171" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2171" s="35" t="s">
+        <v>2597</v>
+      </c>
+      <c r="E2171" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2172" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2172" s="35" t="s">
+        <v>2654</v>
+      </c>
+      <c r="B2172" s="35" t="s">
+        <v>2587</v>
+      </c>
+      <c r="C2172" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2172" s="35" t="s">
+        <v>2598</v>
+      </c>
+      <c r="E2172" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2173" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2173" s="36" t="s">
+        <v>2655</v>
+      </c>
+      <c r="B2173" s="36" t="s">
+        <v>2588</v>
+      </c>
+      <c r="C2173" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2173" s="36" t="s">
+        <v>2591</v>
+      </c>
+      <c r="E2173" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2174" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2174" s="36" t="s">
+        <v>2656</v>
+      </c>
+      <c r="B2174" s="36" t="s">
+        <v>2588</v>
+      </c>
+      <c r="C2174" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2174" s="36" t="s">
+        <v>2592</v>
+      </c>
+      <c r="E2174" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2175" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2175" s="36" t="s">
+        <v>2657</v>
+      </c>
+      <c r="B2175" s="36" t="s">
+        <v>2588</v>
+      </c>
+      <c r="C2175" s="36" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2175" s="36" t="s">
+        <v>2593</v>
+      </c>
+      <c r="E2175" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2176" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2176" s="36" t="s">
+        <v>2658</v>
+      </c>
+      <c r="B2176" s="36" t="s">
+        <v>2588</v>
+      </c>
+      <c r="C2176" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2176" s="36" t="s">
+        <v>2594</v>
+      </c>
+      <c r="E2176" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2177" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2177" s="36" t="s">
+        <v>2659</v>
+      </c>
+      <c r="B2177" s="36" t="s">
+        <v>2588</v>
+      </c>
+      <c r="C2177" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2177" s="36" t="s">
+        <v>2595</v>
+      </c>
+      <c r="E2177" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2178" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2178" s="36" t="s">
+        <v>2660</v>
+      </c>
+      <c r="B2178" s="36" t="s">
+        <v>2588</v>
+      </c>
+      <c r="C2178" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2178" s="36" t="s">
+        <v>2596</v>
+      </c>
+      <c r="E2178" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2179" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2179" s="36" t="s">
+        <v>2661</v>
+      </c>
+      <c r="B2179" s="36" t="s">
+        <v>2588</v>
+      </c>
+      <c r="C2179" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2179" s="36" t="s">
+        <v>2597</v>
+      </c>
+      <c r="E2179" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2180" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2180" s="36" t="s">
+        <v>2662</v>
+      </c>
+      <c r="B2180" s="36" t="s">
+        <v>2588</v>
+      </c>
+      <c r="C2180" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2180" s="36" t="s">
+        <v>2598</v>
+      </c>
+      <c r="E2180" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2181" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2181" s="35" t="s">
+        <v>2663</v>
+      </c>
+      <c r="B2181" s="35" t="s">
+        <v>2589</v>
+      </c>
+      <c r="C2181" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2181" s="35" t="s">
+        <v>2591</v>
+      </c>
+      <c r="E2181" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2182" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2182" s="35" t="s">
+        <v>2664</v>
+      </c>
+      <c r="B2182" s="35" t="s">
+        <v>2589</v>
+      </c>
+      <c r="C2182" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2182" s="35" t="s">
+        <v>2592</v>
+      </c>
+      <c r="E2182" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2183" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2183" s="35" t="s">
+        <v>2665</v>
+      </c>
+      <c r="B2183" s="35" t="s">
+        <v>2589</v>
+      </c>
+      <c r="C2183" s="35" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2183" s="35" t="s">
+        <v>2593</v>
+      </c>
+      <c r="E2183" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2184" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2184" s="35" t="s">
+        <v>2666</v>
+      </c>
+      <c r="B2184" s="35" t="s">
+        <v>2589</v>
+      </c>
+      <c r="C2184" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2184" s="35" t="s">
+        <v>2594</v>
+      </c>
+      <c r="E2184" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2185" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2185" s="35" t="s">
+        <v>2667</v>
+      </c>
+      <c r="B2185" s="35" t="s">
+        <v>2589</v>
+      </c>
+      <c r="C2185" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2185" s="35" t="s">
+        <v>2595</v>
+      </c>
+      <c r="E2185" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2186" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2186" s="35" t="s">
+        <v>2668</v>
+      </c>
+      <c r="B2186" s="35" t="s">
+        <v>2589</v>
+      </c>
+      <c r="C2186" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2186" s="35" t="s">
+        <v>2596</v>
+      </c>
+      <c r="E2186" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2187" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2187" s="35" t="s">
+        <v>2669</v>
+      </c>
+      <c r="B2187" s="35" t="s">
+        <v>2589</v>
+      </c>
+      <c r="C2187" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2187" s="35" t="s">
+        <v>2597</v>
+      </c>
+      <c r="E2187" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2188" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2188" s="35" t="s">
+        <v>2670</v>
+      </c>
+      <c r="B2188" s="35" t="s">
+        <v>2589</v>
+      </c>
+      <c r="C2188" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2188" s="35" t="s">
+        <v>2598</v>
+      </c>
+      <c r="E2188" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2189" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2189" s="36" t="s">
+        <v>2671</v>
+      </c>
+      <c r="B2189" s="36" t="s">
+        <v>2590</v>
+      </c>
+      <c r="C2189" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2189" s="36" t="s">
+        <v>2591</v>
+      </c>
+      <c r="E2189" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2190" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2190" s="36" t="s">
+        <v>2672</v>
+      </c>
+      <c r="B2190" s="36" t="s">
+        <v>2590</v>
+      </c>
+      <c r="C2190" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2190" s="36" t="s">
+        <v>2592</v>
+      </c>
+      <c r="E2190" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2191" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2191" s="36" t="s">
+        <v>2673</v>
+      </c>
+      <c r="B2191" s="36" t="s">
+        <v>2590</v>
+      </c>
+      <c r="C2191" s="36" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2191" s="36" t="s">
+        <v>2593</v>
+      </c>
+      <c r="E2191" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2192" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2192" s="36" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B2192" s="36" t="s">
+        <v>2590</v>
+      </c>
+      <c r="C2192" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2192" s="36" t="s">
+        <v>2594</v>
+      </c>
+      <c r="E2192" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2193" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2193" s="36" t="s">
+        <v>2675</v>
+      </c>
+      <c r="B2193" s="36" t="s">
+        <v>2590</v>
+      </c>
+      <c r="C2193" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2193" s="36" t="s">
+        <v>2595</v>
+      </c>
+      <c r="E2193" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2194" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2194" s="36" t="s">
+        <v>2676</v>
+      </c>
+      <c r="B2194" s="36" t="s">
+        <v>2590</v>
+      </c>
+      <c r="C2194" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2194" s="36" t="s">
+        <v>2596</v>
+      </c>
+      <c r="E2194" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2195" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2195" s="36" t="s">
+        <v>2677</v>
+      </c>
+      <c r="B2195" s="36" t="s">
+        <v>2590</v>
+      </c>
+      <c r="C2195" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2195" s="36" t="s">
+        <v>2597</v>
+      </c>
+      <c r="E2195" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2196" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2196" s="36" t="s">
+        <v>2678</v>
+      </c>
+      <c r="B2196" s="36" t="s">
+        <v>2590</v>
+      </c>
+      <c r="C2196" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2196" s="36" t="s">
+        <v>2598</v>
+      </c>
+      <c r="E2196" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2197" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2197" s="35"/>
+    </row>
+    <row r="2198" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2198" s="35"/>
+    </row>
+    <row r="2199" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2199" s="35"/>
+    </row>
+    <row r="2200" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2200" s="35"/>
+    </row>
+    <row r="2201" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2201" s="35"/>
+    </row>
+    <row r="2202" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2202" s="35"/>
+    </row>
+    <row r="2203" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2203" s="35"/>
+    </row>
+    <row r="2204" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2204" s="35"/>
+    </row>
+    <row r="2205" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2205" s="35"/>
+    </row>
+    <row r="2206" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2206" s="35"/>
+    </row>
+    <row r="2207" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2207" s="35"/>
+    </row>
+    <row r="2208" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2208" s="35"/>
+    </row>
+    <row r="2209" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2209" s="35"/>
+    </row>
+    <row r="2210" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2210" s="35"/>
+    </row>
+    <row r="2211" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2211" s="35"/>
+    </row>
+    <row r="2212" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2212" s="35"/>
+    </row>
+    <row r="2213" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2213" s="35"/>
+    </row>
+    <row r="2214" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2214" s="35"/>
+    </row>
+    <row r="2215" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2215" s="35"/>
+    </row>
+    <row r="2216" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2216" s="35"/>
+    </row>
+    <row r="2217" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2217" s="35"/>
+    </row>
+    <row r="2218" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2218" s="35"/>
+    </row>
+    <row r="2219" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2219" s="35"/>
+    </row>
+    <row r="2220" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2220" s="35"/>
+    </row>
+    <row r="2221" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2221" s="35"/>
+    </row>
+    <row r="2222" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2222" s="35"/>
+    </row>
+    <row r="2223" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2223" s="35"/>
+    </row>
+    <row r="2224" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2224" s="35"/>
+    </row>
+    <row r="2225" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2225" s="35"/>
+    </row>
+    <row r="2226" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2226" s="35"/>
+    </row>
+    <row r="2227" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2227" s="35"/>
+    </row>
+    <row r="2228" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2228" s="35"/>
+    </row>
+    <row r="2229" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2229" s="35"/>
+    </row>
+    <row r="2230" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2230" s="35"/>
+    </row>
+    <row r="2231" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2231" s="35"/>
+    </row>
+    <row r="2232" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2232" s="35"/>
+    </row>
+    <row r="2233" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2233" s="35"/>
+    </row>
+    <row r="2234" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2234" s="35"/>
+    </row>
+    <row r="2235" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2235" s="35"/>
+    </row>
+    <row r="2236" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2236" s="35"/>
+    </row>
+    <row r="2237" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2237" s="35"/>
+    </row>
+    <row r="2238" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2238" s="35"/>
+    </row>
+    <row r="2239" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2239" s="35"/>
+    </row>
+    <row r="2240" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2240" s="35"/>
+    </row>
+    <row r="2241" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2241" s="35"/>
+    </row>
+    <row r="2242" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2242" s="35"/>
+    </row>
+    <row r="2243" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2243" s="35"/>
+    </row>
+    <row r="2244" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2244" s="35"/>
+    </row>
+    <row r="2245" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2245" s="35"/>
+    </row>
+    <row r="2246" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2246" s="35"/>
+    </row>
+    <row r="2247" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2247" s="35"/>
+    </row>
+    <row r="2248" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2248" s="35"/>
+    </row>
+    <row r="2249" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2249" s="35"/>
+    </row>
+    <row r="2250" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2250" s="35"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E695"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="40" orientation="portrait" r:id="rId1"/>
-  <rowBreaks count="14" manualBreakCount="14">
+  <rowBreaks count="15" manualBreakCount="15">
     <brk id="70" max="16383" man="1"/>
     <brk id="409" max="4" man="1"/>
     <brk id="493" max="4" man="1"/>
@@ -43243,6 +45917,7 @@
     <brk id="1562" max="4" man="1"/>
     <brk id="1663" max="4" man="1"/>
     <brk id="1873" max="4" man="1"/>
+    <brk id="2090" max="4" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7624" uniqueCount="2679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7656" uniqueCount="2688">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -8067,6 +8067,33 @@
   </si>
   <si>
     <t>DSS3211</t>
+  </si>
+  <si>
+    <t>Mohamed Said Fahmy Abd El Fatah</t>
+  </si>
+  <si>
+    <t>DSS3212</t>
+  </si>
+  <si>
+    <t>DSS3213</t>
+  </si>
+  <si>
+    <t>DSS3214</t>
+  </si>
+  <si>
+    <t>DSS3215</t>
+  </si>
+  <si>
+    <t>DSS3216</t>
+  </si>
+  <si>
+    <t>DSS3217</t>
+  </si>
+  <si>
+    <t>DSS3218</t>
+  </si>
+  <si>
+    <t>DSS3219</t>
   </si>
 </sst>
 </file>
@@ -8747,7 +8774,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8757,8 +8784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2250"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2173" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A2189" sqref="A2189:D2196"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2179" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B2197" sqref="B2197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45736,28 +45763,140 @@
       </c>
     </row>
     <row r="2197" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2197" s="35"/>
+      <c r="A2197" s="35" t="s">
+        <v>2680</v>
+      </c>
+      <c r="B2197" s="35" t="s">
+        <v>2679</v>
+      </c>
+      <c r="C2197" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2197" s="35" t="s">
+        <v>2591</v>
+      </c>
+      <c r="E2197" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="2198" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2198" s="35"/>
+      <c r="A2198" s="35" t="s">
+        <v>2681</v>
+      </c>
+      <c r="B2198" s="35" t="s">
+        <v>2679</v>
+      </c>
+      <c r="C2198" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2198" s="35" t="s">
+        <v>2592</v>
+      </c>
+      <c r="E2198" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="2199" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2199" s="35"/>
+      <c r="A2199" s="35" t="s">
+        <v>2682</v>
+      </c>
+      <c r="B2199" s="35" t="s">
+        <v>2679</v>
+      </c>
+      <c r="C2199" s="35" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2199" s="35" t="s">
+        <v>2593</v>
+      </c>
+      <c r="E2199" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="2200" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2200" s="35"/>
+      <c r="A2200" s="35" t="s">
+        <v>2683</v>
+      </c>
+      <c r="B2200" s="35" t="s">
+        <v>2679</v>
+      </c>
+      <c r="C2200" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2200" s="35" t="s">
+        <v>2594</v>
+      </c>
+      <c r="E2200" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="2201" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2201" s="35"/>
+      <c r="A2201" s="35" t="s">
+        <v>2684</v>
+      </c>
+      <c r="B2201" s="35" t="s">
+        <v>2679</v>
+      </c>
+      <c r="C2201" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2201" s="35" t="s">
+        <v>2595</v>
+      </c>
+      <c r="E2201" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="2202" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2202" s="35"/>
+      <c r="A2202" s="35" t="s">
+        <v>2685</v>
+      </c>
+      <c r="B2202" s="35" t="s">
+        <v>2679</v>
+      </c>
+      <c r="C2202" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2202" s="35" t="s">
+        <v>2596</v>
+      </c>
+      <c r="E2202" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="2203" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2203" s="35"/>
+      <c r="A2203" s="35" t="s">
+        <v>2686</v>
+      </c>
+      <c r="B2203" s="35" t="s">
+        <v>2679</v>
+      </c>
+      <c r="C2203" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2203" s="35" t="s">
+        <v>2597</v>
+      </c>
+      <c r="E2203" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="2204" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2204" s="35"/>
+      <c r="A2204" s="35" t="s">
+        <v>2687</v>
+      </c>
+      <c r="B2204" s="35" t="s">
+        <v>2679</v>
+      </c>
+      <c r="C2204" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2204" s="35" t="s">
+        <v>2598</v>
+      </c>
+      <c r="E2204" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="2205" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2205" s="35"/>
@@ -45902,7 +46041,7 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="40" orientation="portrait" r:id="rId1"/>
-  <rowBreaks count="15" manualBreakCount="15">
+  <rowBreaks count="16" manualBreakCount="16">
     <brk id="70" max="16383" man="1"/>
     <brk id="409" max="4" man="1"/>
     <brk id="493" max="4" man="1"/>
@@ -45918,6 +46057,7 @@
     <brk id="1663" max="4" man="1"/>
     <brk id="1873" max="4" man="1"/>
     <brk id="2090" max="4" man="1"/>
+    <brk id="2196" max="4" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7656" uniqueCount="2688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7660" uniqueCount="2690">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -8094,6 +8094,12 @@
   </si>
   <si>
     <t>DSS3219</t>
+  </si>
+  <si>
+    <t>Mohamed Gamil Mohamed Ali</t>
+  </si>
+  <si>
+    <t>DSS3220</t>
   </si>
 </sst>
 </file>
@@ -8774,7 +8780,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8784,8 +8790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2250"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2179" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B2197" sqref="B2197"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2187" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B2210" sqref="B2210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45899,7 +45905,21 @@
       </c>
     </row>
     <row r="2205" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2205" s="35"/>
+      <c r="A2205" s="51" t="s">
+        <v>2689</v>
+      </c>
+      <c r="B2205" s="51" t="s">
+        <v>2688</v>
+      </c>
+      <c r="C2205" s="51" t="s">
+        <v>534</v>
+      </c>
+      <c r="D2205" s="66" t="s">
+        <v>2529</v>
+      </c>
+      <c r="E2205" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="2206" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2206" s="35"/>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7660" uniqueCount="2690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7732" uniqueCount="2712">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -6620,18 +6620,6 @@
     <t>DSS2812</t>
   </si>
   <si>
-    <t>DSS2813</t>
-  </si>
-  <si>
-    <t>DSS2814</t>
-  </si>
-  <si>
-    <t>DSS2815</t>
-  </si>
-  <si>
-    <t>DSS2816</t>
-  </si>
-  <si>
     <t>DSS2817</t>
   </si>
   <si>
@@ -7292,18 +7280,6 @@
     <t>DSS3001</t>
   </si>
   <si>
-    <t>DSS3002</t>
-  </si>
-  <si>
-    <t>DSS3003</t>
-  </si>
-  <si>
-    <t>DSS3004</t>
-  </si>
-  <si>
-    <t>DSS3005</t>
-  </si>
-  <si>
     <t>DSS3006</t>
   </si>
   <si>
@@ -8100,6 +8076,96 @@
   </si>
   <si>
     <t>DSS3220</t>
+  </si>
+  <si>
+    <t>Ahmed Mostafa Hassan Qandil</t>
+  </si>
+  <si>
+    <t>Medhat Mamdouh Mohamed Ali</t>
+  </si>
+  <si>
+    <t>DSS3221</t>
+  </si>
+  <si>
+    <t>DSS3222</t>
+  </si>
+  <si>
+    <t>DSS3223</t>
+  </si>
+  <si>
+    <t>DSS3224</t>
+  </si>
+  <si>
+    <t>DSS3225</t>
+  </si>
+  <si>
+    <t>DSS3226</t>
+  </si>
+  <si>
+    <t>DSS3227</t>
+  </si>
+  <si>
+    <t>DSS3228</t>
+  </si>
+  <si>
+    <t>DSS3229</t>
+  </si>
+  <si>
+    <t>DSS3230</t>
+  </si>
+  <si>
+    <t>DSS3231</t>
+  </si>
+  <si>
+    <t>DSS3232</t>
+  </si>
+  <si>
+    <t>DSS3233</t>
+  </si>
+  <si>
+    <t>DSS3234</t>
+  </si>
+  <si>
+    <t>DSS3235</t>
+  </si>
+  <si>
+    <t>DSS3236</t>
+  </si>
+  <si>
+    <t>05-May-2021</t>
+  </si>
+  <si>
+    <t>10-May-2021</t>
+  </si>
+  <si>
+    <t>06-May-2021</t>
+  </si>
+  <si>
+    <t>03-May-2021</t>
+  </si>
+  <si>
+    <t>01-Feb-2022</t>
+  </si>
+  <si>
+    <t>05-Jan-2021</t>
+  </si>
+  <si>
+    <t>10-Jan-2021</t>
+  </si>
+  <si>
+    <t>06-Jan-2021</t>
+  </si>
+  <si>
+    <t>03-Jan-2021</t>
+  </si>
+  <si>
+    <t>01-Mar-2022</t>
+  </si>
+  <si>
+    <t>DSS1001c</t>
+  </si>
+  <si>
+    <t>DSS008v</t>
   </si>
 </sst>
 </file>
@@ -8308,7 +8374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -8507,6 +8573,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="6" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8790,8 +8862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2250"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2187" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B2210" sqref="B2210"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1781" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B1808" sqref="B1808"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36998,7 +37070,7 @@
     </row>
     <row r="1681" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1681" s="35" t="s">
-        <v>2248</v>
+        <v>2244</v>
       </c>
       <c r="B1681" s="35" t="s">
         <v>2086</v>
@@ -37015,7 +37087,7 @@
     </row>
     <row r="1682" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1682" s="35" t="s">
-        <v>2249</v>
+        <v>2245</v>
       </c>
       <c r="B1682" s="35" t="s">
         <v>2086</v>
@@ -37032,7 +37104,7 @@
     </row>
     <row r="1683" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1683" s="35" t="s">
-        <v>2250</v>
+        <v>2246</v>
       </c>
       <c r="B1683" s="35" t="s">
         <v>2086</v>
@@ -37049,7 +37121,7 @@
     </row>
     <row r="1684" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1684" s="35" t="s">
-        <v>2251</v>
+        <v>2247</v>
       </c>
       <c r="B1684" s="35" t="s">
         <v>2086</v>
@@ -37066,7 +37138,7 @@
     </row>
     <row r="1685" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1685" s="35" t="s">
-        <v>2252</v>
+        <v>2248</v>
       </c>
       <c r="B1685" s="35" t="s">
         <v>2086</v>
@@ -37083,7 +37155,7 @@
     </row>
     <row r="1686" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1686" s="35" t="s">
-        <v>2253</v>
+        <v>2249</v>
       </c>
       <c r="B1686" s="35" t="s">
         <v>2086</v>
@@ -37100,7 +37172,7 @@
     </row>
     <row r="1687" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1687" s="35" t="s">
-        <v>2254</v>
+        <v>2250</v>
       </c>
       <c r="B1687" s="35" t="s">
         <v>2086</v>
@@ -37117,7 +37189,7 @@
     </row>
     <row r="1688" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1688" s="35" t="s">
-        <v>2255</v>
+        <v>2251</v>
       </c>
       <c r="B1688" s="35" t="s">
         <v>2086</v>
@@ -38918,144 +38990,144 @@
       </c>
     </row>
     <row r="1794" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1794" s="35" t="s">
+      <c r="A1794" s="67" t="s">
         <v>2192</v>
       </c>
-      <c r="B1794" s="35" t="s">
+      <c r="B1794" s="67" t="s">
         <v>2081</v>
       </c>
-      <c r="C1794" s="35" t="s">
+      <c r="C1794" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D1794" s="35">
-        <v>45781</v>
-      </c>
-      <c r="E1794" s="13">
+      <c r="D1794" s="67" t="s">
+        <v>2705</v>
+      </c>
+      <c r="E1794" s="68">
         <v>1</v>
       </c>
     </row>
     <row r="1795" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1795" s="35" t="s">
+      <c r="A1795" s="67" t="s">
         <v>2193</v>
       </c>
-      <c r="B1795" s="35" t="s">
+      <c r="B1795" s="67" t="s">
         <v>2081</v>
       </c>
-      <c r="C1795" s="35" t="s">
+      <c r="C1795" s="67" t="s">
         <v>230</v>
       </c>
-      <c r="D1795" s="35">
-        <v>45934</v>
-      </c>
-      <c r="E1795" s="13">
+      <c r="D1795" s="67" t="s">
+        <v>2706</v>
+      </c>
+      <c r="E1795" s="68">
         <v>1</v>
       </c>
     </row>
     <row r="1796" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1796" s="35" t="s">
+      <c r="A1796" s="67" t="s">
         <v>2194</v>
       </c>
-      <c r="B1796" s="35" t="s">
+      <c r="B1796" s="67" t="s">
         <v>2081</v>
       </c>
-      <c r="C1796" s="35" t="s">
+      <c r="C1796" s="67" t="s">
         <v>952</v>
       </c>
-      <c r="D1796" s="35">
-        <v>45812</v>
-      </c>
-      <c r="E1796" s="13">
+      <c r="D1796" s="67" t="s">
+        <v>2707</v>
+      </c>
+      <c r="E1796" s="68">
         <v>1</v>
       </c>
     </row>
     <row r="1797" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1797" s="35" t="s">
+      <c r="A1797" s="67" t="s">
         <v>2195</v>
       </c>
-      <c r="B1797" s="35" t="s">
+      <c r="B1797" s="67" t="s">
         <v>2081</v>
       </c>
-      <c r="C1797" s="35" t="s">
+      <c r="C1797" s="67" t="s">
         <v>262</v>
       </c>
-      <c r="D1797" s="35">
-        <v>45720</v>
-      </c>
-      <c r="E1797" s="13">
+      <c r="D1797" s="67" t="s">
+        <v>2708</v>
+      </c>
+      <c r="E1797" s="68">
         <v>1</v>
       </c>
     </row>
     <row r="1798" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1798" s="35" t="s">
-        <v>2196</v>
-      </c>
-      <c r="B1798" s="35" t="s">
+      <c r="A1798" s="67" t="s">
+        <v>2711</v>
+      </c>
+      <c r="B1798" s="67" t="s">
         <v>2081</v>
       </c>
-      <c r="C1798" s="35" t="s">
+      <c r="C1798" s="67" t="s">
         <v>247</v>
       </c>
-      <c r="D1798" s="35">
-        <v>45661</v>
-      </c>
-      <c r="E1798" s="13">
+      <c r="D1798" s="67" t="s">
+        <v>2709</v>
+      </c>
+      <c r="E1798" s="68">
         <v>1</v>
       </c>
     </row>
     <row r="1799" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1799" s="35" t="s">
-        <v>2197</v>
-      </c>
-      <c r="B1799" s="35" t="s">
+      <c r="A1799" s="67" t="s">
+        <v>2711</v>
+      </c>
+      <c r="B1799" s="67" t="s">
         <v>2081</v>
       </c>
-      <c r="C1799" s="35" t="s">
+      <c r="C1799" s="67" t="s">
         <v>263</v>
       </c>
-      <c r="D1799" s="35">
-        <v>45692</v>
-      </c>
-      <c r="E1799" s="13">
+      <c r="D1799" s="67" t="s">
+        <v>2709</v>
+      </c>
+      <c r="E1799" s="68">
         <v>1</v>
       </c>
     </row>
     <row r="1800" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1800" s="35" t="s">
-        <v>2198</v>
-      </c>
-      <c r="B1800" s="35" t="s">
+      <c r="A1800" s="67" t="s">
+        <v>2711</v>
+      </c>
+      <c r="B1800" s="67" t="s">
         <v>2081</v>
       </c>
-      <c r="C1800" s="35" t="s">
+      <c r="C1800" s="67" t="s">
         <v>252</v>
       </c>
-      <c r="D1800" s="35">
-        <v>45842</v>
-      </c>
-      <c r="E1800" s="13">
+      <c r="D1800" s="67" t="s">
+        <v>2709</v>
+      </c>
+      <c r="E1800" s="68">
         <v>1</v>
       </c>
     </row>
     <row r="1801" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1801" s="35" t="s">
-        <v>2199</v>
-      </c>
-      <c r="B1801" s="35" t="s">
+      <c r="A1801" s="67" t="s">
+        <v>2711</v>
+      </c>
+      <c r="B1801" s="67" t="s">
         <v>2081</v>
       </c>
-      <c r="C1801" s="35" t="s">
+      <c r="C1801" s="67" t="s">
         <v>231</v>
       </c>
-      <c r="D1801" s="35">
-        <v>45873</v>
-      </c>
-      <c r="E1801" s="13">
+      <c r="D1801" s="67" t="s">
+        <v>2709</v>
+      </c>
+      <c r="E1801" s="68">
         <v>1</v>
       </c>
     </row>
     <row r="1802" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1802" s="36" t="s">
-        <v>2200</v>
+        <v>2196</v>
       </c>
       <c r="B1802" s="36" t="s">
         <v>2082</v>
@@ -39072,7 +39144,7 @@
     </row>
     <row r="1803" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1803" s="36" t="s">
-        <v>2201</v>
+        <v>2197</v>
       </c>
       <c r="B1803" s="36" t="s">
         <v>2082</v>
@@ -39089,7 +39161,7 @@
     </row>
     <row r="1804" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1804" s="36" t="s">
-        <v>2202</v>
+        <v>2198</v>
       </c>
       <c r="B1804" s="36" t="s">
         <v>2082</v>
@@ -39106,7 +39178,7 @@
     </row>
     <row r="1805" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1805" s="36" t="s">
-        <v>2203</v>
+        <v>2199</v>
       </c>
       <c r="B1805" s="36" t="s">
         <v>2082</v>
@@ -39123,7 +39195,7 @@
     </row>
     <row r="1806" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1806" s="36" t="s">
-        <v>2204</v>
+        <v>2200</v>
       </c>
       <c r="B1806" s="36" t="s">
         <v>2082</v>
@@ -39140,7 +39212,7 @@
     </row>
     <row r="1807" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1807" s="36" t="s">
-        <v>2205</v>
+        <v>2201</v>
       </c>
       <c r="B1807" s="36" t="s">
         <v>2082</v>
@@ -39157,7 +39229,7 @@
     </row>
     <row r="1808" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1808" s="36" t="s">
-        <v>2206</v>
+        <v>2202</v>
       </c>
       <c r="B1808" s="36" t="s">
         <v>2082</v>
@@ -39174,7 +39246,7 @@
     </row>
     <row r="1809" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1809" s="36" t="s">
-        <v>2207</v>
+        <v>2203</v>
       </c>
       <c r="B1809" s="36" t="s">
         <v>2082</v>
@@ -39191,7 +39263,7 @@
     </row>
     <row r="1810" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1810" s="35" t="s">
-        <v>2208</v>
+        <v>2204</v>
       </c>
       <c r="B1810" s="35" t="s">
         <v>2083</v>
@@ -39208,7 +39280,7 @@
     </row>
     <row r="1811" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1811" s="35" t="s">
-        <v>2209</v>
+        <v>2205</v>
       </c>
       <c r="B1811" s="35" t="s">
         <v>2083</v>
@@ -39225,7 +39297,7 @@
     </row>
     <row r="1812" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1812" s="35" t="s">
-        <v>2210</v>
+        <v>2206</v>
       </c>
       <c r="B1812" s="35" t="s">
         <v>2083</v>
@@ -39242,7 +39314,7 @@
     </row>
     <row r="1813" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1813" s="35" t="s">
-        <v>2211</v>
+        <v>2207</v>
       </c>
       <c r="B1813" s="35" t="s">
         <v>2083</v>
@@ -39259,7 +39331,7 @@
     </row>
     <row r="1814" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1814" s="35" t="s">
-        <v>2212</v>
+        <v>2208</v>
       </c>
       <c r="B1814" s="35" t="s">
         <v>2083</v>
@@ -39276,7 +39348,7 @@
     </row>
     <row r="1815" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1815" s="35" t="s">
-        <v>2213</v>
+        <v>2209</v>
       </c>
       <c r="B1815" s="35" t="s">
         <v>2083</v>
@@ -39293,7 +39365,7 @@
     </row>
     <row r="1816" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1816" s="35" t="s">
-        <v>2214</v>
+        <v>2210</v>
       </c>
       <c r="B1816" s="35" t="s">
         <v>2083</v>
@@ -39310,7 +39382,7 @@
     </row>
     <row r="1817" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1817" s="35" t="s">
-        <v>2215</v>
+        <v>2211</v>
       </c>
       <c r="B1817" s="35" t="s">
         <v>2083</v>
@@ -39327,7 +39399,7 @@
     </row>
     <row r="1818" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1818" s="36" t="s">
-        <v>2216</v>
+        <v>2212</v>
       </c>
       <c r="B1818" s="36" t="s">
         <v>2084</v>
@@ -39344,7 +39416,7 @@
     </row>
     <row r="1819" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1819" s="36" t="s">
-        <v>2217</v>
+        <v>2213</v>
       </c>
       <c r="B1819" s="36" t="s">
         <v>2084</v>
@@ -39361,7 +39433,7 @@
     </row>
     <row r="1820" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1820" s="36" t="s">
-        <v>2218</v>
+        <v>2214</v>
       </c>
       <c r="B1820" s="36" t="s">
         <v>2084</v>
@@ -39378,7 +39450,7 @@
     </row>
     <row r="1821" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1821" s="36" t="s">
-        <v>2219</v>
+        <v>2215</v>
       </c>
       <c r="B1821" s="36" t="s">
         <v>2084</v>
@@ -39395,7 +39467,7 @@
     </row>
     <row r="1822" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1822" s="36" t="s">
-        <v>2220</v>
+        <v>2216</v>
       </c>
       <c r="B1822" s="36" t="s">
         <v>2084</v>
@@ -39412,7 +39484,7 @@
     </row>
     <row r="1823" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1823" s="36" t="s">
-        <v>2221</v>
+        <v>2217</v>
       </c>
       <c r="B1823" s="36" t="s">
         <v>2084</v>
@@ -39429,7 +39501,7 @@
     </row>
     <row r="1824" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1824" s="36" t="s">
-        <v>2222</v>
+        <v>2218</v>
       </c>
       <c r="B1824" s="36" t="s">
         <v>2084</v>
@@ -39446,7 +39518,7 @@
     </row>
     <row r="1825" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1825" s="36" t="s">
-        <v>2223</v>
+        <v>2219</v>
       </c>
       <c r="B1825" s="36" t="s">
         <v>2084</v>
@@ -39463,7 +39535,7 @@
     </row>
     <row r="1826" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1826" s="35" t="s">
-        <v>2224</v>
+        <v>2220</v>
       </c>
       <c r="B1826" s="35" t="s">
         <v>2085</v>
@@ -39480,7 +39552,7 @@
     </row>
     <row r="1827" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1827" s="35" t="s">
-        <v>2225</v>
+        <v>2221</v>
       </c>
       <c r="B1827" s="35" t="s">
         <v>2085</v>
@@ -39497,7 +39569,7 @@
     </row>
     <row r="1828" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1828" s="35" t="s">
-        <v>2226</v>
+        <v>2222</v>
       </c>
       <c r="B1828" s="35" t="s">
         <v>2085</v>
@@ -39514,7 +39586,7 @@
     </row>
     <row r="1829" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1829" s="35" t="s">
-        <v>2227</v>
+        <v>2223</v>
       </c>
       <c r="B1829" s="35" t="s">
         <v>2085</v>
@@ -39531,7 +39603,7 @@
     </row>
     <row r="1830" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1830" s="35" t="s">
-        <v>2228</v>
+        <v>2224</v>
       </c>
       <c r="B1830" s="35" t="s">
         <v>2085</v>
@@ -39548,7 +39620,7 @@
     </row>
     <row r="1831" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1831" s="35" t="s">
-        <v>2229</v>
+        <v>2225</v>
       </c>
       <c r="B1831" s="35" t="s">
         <v>2085</v>
@@ -39565,7 +39637,7 @@
     </row>
     <row r="1832" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1832" s="35" t="s">
-        <v>2230</v>
+        <v>2226</v>
       </c>
       <c r="B1832" s="35" t="s">
         <v>2085</v>
@@ -39582,7 +39654,7 @@
     </row>
     <row r="1833" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1833" s="35" t="s">
-        <v>2231</v>
+        <v>2227</v>
       </c>
       <c r="B1833" s="35" t="s">
         <v>2085</v>
@@ -39599,10 +39671,10 @@
     </row>
     <row r="1834" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1834" s="61" t="s">
-        <v>2232</v>
+        <v>2228</v>
       </c>
       <c r="B1834" s="61" t="s">
-        <v>2256</v>
+        <v>2252</v>
       </c>
       <c r="C1834" s="61" t="s">
         <v>2</v>
@@ -39616,10 +39688,10 @@
     </row>
     <row r="1835" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1835" s="61" t="s">
-        <v>2233</v>
+        <v>2229</v>
       </c>
       <c r="B1835" s="61" t="s">
-        <v>2256</v>
+        <v>2252</v>
       </c>
       <c r="C1835" s="61" t="s">
         <v>230</v>
@@ -39633,10 +39705,10 @@
     </row>
     <row r="1836" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1836" s="61" t="s">
-        <v>2234</v>
+        <v>2230</v>
       </c>
       <c r="B1836" s="61" t="s">
-        <v>2256</v>
+        <v>2252</v>
       </c>
       <c r="C1836" s="61" t="s">
         <v>952</v>
@@ -39650,10 +39722,10 @@
     </row>
     <row r="1837" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1837" s="61" t="s">
-        <v>2235</v>
+        <v>2231</v>
       </c>
       <c r="B1837" s="61" t="s">
-        <v>2256</v>
+        <v>2252</v>
       </c>
       <c r="C1837" s="61" t="s">
         <v>262</v>
@@ -39667,10 +39739,10 @@
     </row>
     <row r="1838" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1838" s="61" t="s">
-        <v>2236</v>
+        <v>2232</v>
       </c>
       <c r="B1838" s="61" t="s">
-        <v>2256</v>
+        <v>2252</v>
       </c>
       <c r="C1838" s="61" t="s">
         <v>247</v>
@@ -39684,10 +39756,10 @@
     </row>
     <row r="1839" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1839" s="61" t="s">
-        <v>2237</v>
+        <v>2233</v>
       </c>
       <c r="B1839" s="61" t="s">
-        <v>2256</v>
+        <v>2252</v>
       </c>
       <c r="C1839" s="61" t="s">
         <v>263</v>
@@ -39701,10 +39773,10 @@
     </row>
     <row r="1840" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1840" s="61" t="s">
-        <v>2238</v>
+        <v>2234</v>
       </c>
       <c r="B1840" s="61" t="s">
-        <v>2256</v>
+        <v>2252</v>
       </c>
       <c r="C1840" s="61" t="s">
         <v>252</v>
@@ -39718,10 +39790,10 @@
     </row>
     <row r="1841" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1841" s="61" t="s">
-        <v>2239</v>
+        <v>2235</v>
       </c>
       <c r="B1841" s="61" t="s">
-        <v>2256</v>
+        <v>2252</v>
       </c>
       <c r="C1841" s="61" t="s">
         <v>231</v>
@@ -39735,10 +39807,10 @@
     </row>
     <row r="1842" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1842" s="35" t="s">
-        <v>2240</v>
+        <v>2236</v>
       </c>
       <c r="B1842" s="35" t="s">
-        <v>2257</v>
+        <v>2253</v>
       </c>
       <c r="C1842" s="35" t="s">
         <v>2</v>
@@ -39752,10 +39824,10 @@
     </row>
     <row r="1843" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1843" s="35" t="s">
-        <v>2241</v>
+        <v>2237</v>
       </c>
       <c r="B1843" s="35" t="s">
-        <v>2257</v>
+        <v>2253</v>
       </c>
       <c r="C1843" s="35" t="s">
         <v>230</v>
@@ -39769,10 +39841,10 @@
     </row>
     <row r="1844" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1844" s="35" t="s">
-        <v>2242</v>
+        <v>2238</v>
       </c>
       <c r="B1844" s="35" t="s">
-        <v>2257</v>
+        <v>2253</v>
       </c>
       <c r="C1844" s="35" t="s">
         <v>952</v>
@@ -39786,10 +39858,10 @@
     </row>
     <row r="1845" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1845" s="35" t="s">
-        <v>2243</v>
+        <v>2239</v>
       </c>
       <c r="B1845" s="35" t="s">
-        <v>2257</v>
+        <v>2253</v>
       </c>
       <c r="C1845" s="35" t="s">
         <v>262</v>
@@ -39803,10 +39875,10 @@
     </row>
     <row r="1846" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1846" s="35" t="s">
-        <v>2244</v>
+        <v>2240</v>
       </c>
       <c r="B1846" s="35" t="s">
-        <v>2257</v>
+        <v>2253</v>
       </c>
       <c r="C1846" s="35" t="s">
         <v>247</v>
@@ -39820,10 +39892,10 @@
     </row>
     <row r="1847" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1847" s="35" t="s">
-        <v>2245</v>
+        <v>2241</v>
       </c>
       <c r="B1847" s="35" t="s">
-        <v>2257</v>
+        <v>2253</v>
       </c>
       <c r="C1847" s="35" t="s">
         <v>263</v>
@@ -39837,10 +39909,10 @@
     </row>
     <row r="1848" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1848" s="35" t="s">
-        <v>2246</v>
+        <v>2242</v>
       </c>
       <c r="B1848" s="35" t="s">
-        <v>2257</v>
+        <v>2253</v>
       </c>
       <c r="C1848" s="35" t="s">
         <v>252</v>
@@ -39854,10 +39926,10 @@
     </row>
     <row r="1849" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1849" s="35" t="s">
-        <v>2247</v>
+        <v>2243</v>
       </c>
       <c r="B1849" s="35" t="s">
-        <v>2257</v>
+        <v>2253</v>
       </c>
       <c r="C1849" s="35" t="s">
         <v>231</v>
@@ -39871,10 +39943,10 @@
     </row>
     <row r="1850" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1850" s="36" t="s">
-        <v>2260</v>
+        <v>2256</v>
       </c>
       <c r="B1850" s="36" t="s">
-        <v>2258</v>
+        <v>2254</v>
       </c>
       <c r="C1850" s="36" t="s">
         <v>2</v>
@@ -39888,10 +39960,10 @@
     </row>
     <row r="1851" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1851" s="36" t="s">
-        <v>2261</v>
+        <v>2257</v>
       </c>
       <c r="B1851" s="36" t="s">
-        <v>2258</v>
+        <v>2254</v>
       </c>
       <c r="C1851" s="36" t="s">
         <v>230</v>
@@ -39905,10 +39977,10 @@
     </row>
     <row r="1852" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1852" s="36" t="s">
-        <v>2262</v>
+        <v>2258</v>
       </c>
       <c r="B1852" s="36" t="s">
-        <v>2258</v>
+        <v>2254</v>
       </c>
       <c r="C1852" s="36" t="s">
         <v>952</v>
@@ -39922,10 +39994,10 @@
     </row>
     <row r="1853" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1853" s="36" t="s">
-        <v>2263</v>
+        <v>2259</v>
       </c>
       <c r="B1853" s="36" t="s">
-        <v>2258</v>
+        <v>2254</v>
       </c>
       <c r="C1853" s="36" t="s">
         <v>262</v>
@@ -39939,10 +40011,10 @@
     </row>
     <row r="1854" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1854" s="36" t="s">
-        <v>2264</v>
+        <v>2260</v>
       </c>
       <c r="B1854" s="36" t="s">
-        <v>2258</v>
+        <v>2254</v>
       </c>
       <c r="C1854" s="36" t="s">
         <v>247</v>
@@ -39956,10 +40028,10 @@
     </row>
     <row r="1855" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1855" s="36" t="s">
-        <v>2265</v>
+        <v>2261</v>
       </c>
       <c r="B1855" s="36" t="s">
-        <v>2258</v>
+        <v>2254</v>
       </c>
       <c r="C1855" s="36" t="s">
         <v>263</v>
@@ -39973,10 +40045,10 @@
     </row>
     <row r="1856" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1856" s="36" t="s">
-        <v>2266</v>
+        <v>2262</v>
       </c>
       <c r="B1856" s="36" t="s">
-        <v>2258</v>
+        <v>2254</v>
       </c>
       <c r="C1856" s="36" t="s">
         <v>252</v>
@@ -39990,10 +40062,10 @@
     </row>
     <row r="1857" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1857" s="36" t="s">
-        <v>2267</v>
+        <v>2263</v>
       </c>
       <c r="B1857" s="36" t="s">
-        <v>2258</v>
+        <v>2254</v>
       </c>
       <c r="C1857" s="36" t="s">
         <v>231</v>
@@ -40007,10 +40079,10 @@
     </row>
     <row r="1858" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1858" s="35" t="s">
-        <v>2268</v>
+        <v>2264</v>
       </c>
       <c r="B1858" s="35" t="s">
-        <v>2259</v>
+        <v>2255</v>
       </c>
       <c r="C1858" s="35" t="s">
         <v>2</v>
@@ -40024,10 +40096,10 @@
     </row>
     <row r="1859" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1859" s="35" t="s">
-        <v>2269</v>
+        <v>2265</v>
       </c>
       <c r="B1859" s="35" t="s">
-        <v>2259</v>
+        <v>2255</v>
       </c>
       <c r="C1859" s="35" t="s">
         <v>230</v>
@@ -40041,10 +40113,10 @@
     </row>
     <row r="1860" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1860" s="35" t="s">
-        <v>2270</v>
+        <v>2266</v>
       </c>
       <c r="B1860" s="35" t="s">
-        <v>2259</v>
+        <v>2255</v>
       </c>
       <c r="C1860" s="35" t="s">
         <v>952</v>
@@ -40058,10 +40130,10 @@
     </row>
     <row r="1861" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1861" s="35" t="s">
-        <v>2271</v>
+        <v>2267</v>
       </c>
       <c r="B1861" s="35" t="s">
-        <v>2259</v>
+        <v>2255</v>
       </c>
       <c r="C1861" s="35" t="s">
         <v>262</v>
@@ -40075,10 +40147,10 @@
     </row>
     <row r="1862" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1862" s="35" t="s">
-        <v>2272</v>
+        <v>2268</v>
       </c>
       <c r="B1862" s="35" t="s">
-        <v>2259</v>
+        <v>2255</v>
       </c>
       <c r="C1862" s="35" t="s">
         <v>247</v>
@@ -40092,10 +40164,10 @@
     </row>
     <row r="1863" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1863" s="35" t="s">
-        <v>2273</v>
+        <v>2269</v>
       </c>
       <c r="B1863" s="35" t="s">
-        <v>2259</v>
+        <v>2255</v>
       </c>
       <c r="C1863" s="35" t="s">
         <v>263</v>
@@ -40109,10 +40181,10 @@
     </row>
     <row r="1864" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1864" s="35" t="s">
-        <v>2274</v>
+        <v>2270</v>
       </c>
       <c r="B1864" s="35" t="s">
-        <v>2259</v>
+        <v>2255</v>
       </c>
       <c r="C1864" s="35" t="s">
         <v>252</v>
@@ -40126,10 +40198,10 @@
     </row>
     <row r="1865" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1865" s="35" t="s">
-        <v>2275</v>
+        <v>2271</v>
       </c>
       <c r="B1865" s="35" t="s">
-        <v>2259</v>
+        <v>2255</v>
       </c>
       <c r="C1865" s="35" t="s">
         <v>231</v>
@@ -40143,10 +40215,10 @@
     </row>
     <row r="1866" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1866" s="36" t="s">
-        <v>2278</v>
+        <v>2274</v>
       </c>
       <c r="B1866" s="36" t="s">
-        <v>2276</v>
+        <v>2272</v>
       </c>
       <c r="C1866" s="36" t="s">
         <v>2</v>
@@ -40160,10 +40232,10 @@
     </row>
     <row r="1867" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1867" s="36" t="s">
-        <v>2279</v>
+        <v>2275</v>
       </c>
       <c r="B1867" s="36" t="s">
-        <v>2276</v>
+        <v>2272</v>
       </c>
       <c r="C1867" s="36" t="s">
         <v>230</v>
@@ -40177,10 +40249,10 @@
     </row>
     <row r="1868" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1868" s="36" t="s">
-        <v>2280</v>
+        <v>2276</v>
       </c>
       <c r="B1868" s="36" t="s">
-        <v>2276</v>
+        <v>2272</v>
       </c>
       <c r="C1868" s="36" t="s">
         <v>952</v>
@@ -40194,10 +40266,10 @@
     </row>
     <row r="1869" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1869" s="36" t="s">
-        <v>2281</v>
+        <v>2277</v>
       </c>
       <c r="B1869" s="36" t="s">
-        <v>2276</v>
+        <v>2272</v>
       </c>
       <c r="C1869" s="36" t="s">
         <v>262</v>
@@ -40211,10 +40283,10 @@
     </row>
     <row r="1870" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1870" s="36" t="s">
-        <v>2282</v>
+        <v>2278</v>
       </c>
       <c r="B1870" s="36" t="s">
-        <v>2276</v>
+        <v>2272</v>
       </c>
       <c r="C1870" s="36" t="s">
         <v>247</v>
@@ -40228,10 +40300,10 @@
     </row>
     <row r="1871" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1871" s="36" t="s">
-        <v>2283</v>
+        <v>2279</v>
       </c>
       <c r="B1871" s="36" t="s">
-        <v>2276</v>
+        <v>2272</v>
       </c>
       <c r="C1871" s="36" t="s">
         <v>263</v>
@@ -40245,10 +40317,10 @@
     </row>
     <row r="1872" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1872" s="36" t="s">
-        <v>2284</v>
+        <v>2280</v>
       </c>
       <c r="B1872" s="36" t="s">
-        <v>2276</v>
+        <v>2272</v>
       </c>
       <c r="C1872" s="36" t="s">
         <v>252</v>
@@ -40262,10 +40334,10 @@
     </row>
     <row r="1873" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1873" s="36" t="s">
-        <v>2285</v>
+        <v>2281</v>
       </c>
       <c r="B1873" s="36" t="s">
-        <v>2276</v>
+        <v>2272</v>
       </c>
       <c r="C1873" s="36" t="s">
         <v>231</v>
@@ -40279,10 +40351,10 @@
     </row>
     <row r="1874" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1874" s="35" t="s">
-        <v>2286</v>
+        <v>2282</v>
       </c>
       <c r="B1874" s="35" t="s">
-        <v>2277</v>
+        <v>2273</v>
       </c>
       <c r="C1874" s="35" t="s">
         <v>2</v>
@@ -40296,10 +40368,10 @@
     </row>
     <row r="1875" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1875" s="35" t="s">
-        <v>2287</v>
+        <v>2283</v>
       </c>
       <c r="B1875" s="35" t="s">
-        <v>2277</v>
+        <v>2273</v>
       </c>
       <c r="C1875" s="35" t="s">
         <v>230</v>
@@ -40313,10 +40385,10 @@
     </row>
     <row r="1876" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1876" s="35" t="s">
-        <v>2288</v>
+        <v>2284</v>
       </c>
       <c r="B1876" s="35" t="s">
-        <v>2277</v>
+        <v>2273</v>
       </c>
       <c r="C1876" s="35" t="s">
         <v>952</v>
@@ -40330,10 +40402,10 @@
     </row>
     <row r="1877" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1877" s="35" t="s">
-        <v>2289</v>
+        <v>2285</v>
       </c>
       <c r="B1877" s="35" t="s">
-        <v>2277</v>
+        <v>2273</v>
       </c>
       <c r="C1877" s="35" t="s">
         <v>262</v>
@@ -40347,10 +40419,10 @@
     </row>
     <row r="1878" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1878" s="35" t="s">
-        <v>2290</v>
+        <v>2286</v>
       </c>
       <c r="B1878" s="35" t="s">
-        <v>2277</v>
+        <v>2273</v>
       </c>
       <c r="C1878" s="35" t="s">
         <v>247</v>
@@ -40364,10 +40436,10 @@
     </row>
     <row r="1879" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1879" s="35" t="s">
-        <v>2291</v>
+        <v>2287</v>
       </c>
       <c r="B1879" s="35" t="s">
-        <v>2277</v>
+        <v>2273</v>
       </c>
       <c r="C1879" s="35" t="s">
         <v>263</v>
@@ -40381,10 +40453,10 @@
     </row>
     <row r="1880" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1880" s="35" t="s">
-        <v>2292</v>
+        <v>2288</v>
       </c>
       <c r="B1880" s="35" t="s">
-        <v>2277</v>
+        <v>2273</v>
       </c>
       <c r="C1880" s="35" t="s">
         <v>252</v>
@@ -40398,10 +40470,10 @@
     </row>
     <row r="1881" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1881" s="35" t="s">
-        <v>2293</v>
+        <v>2289</v>
       </c>
       <c r="B1881" s="35" t="s">
-        <v>2277</v>
+        <v>2273</v>
       </c>
       <c r="C1881" s="35" t="s">
         <v>231</v>
@@ -40415,10 +40487,10 @@
     </row>
     <row r="1882" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1882" s="36" t="s">
-        <v>2295</v>
+        <v>2291</v>
       </c>
       <c r="B1882" s="36" t="s">
-        <v>2294</v>
+        <v>2290</v>
       </c>
       <c r="C1882" s="36" t="s">
         <v>2</v>
@@ -40432,10 +40504,10 @@
     </row>
     <row r="1883" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1883" s="36" t="s">
-        <v>2296</v>
+        <v>2292</v>
       </c>
       <c r="B1883" s="36" t="s">
-        <v>2294</v>
+        <v>2290</v>
       </c>
       <c r="C1883" s="36" t="s">
         <v>230</v>
@@ -40449,10 +40521,10 @@
     </row>
     <row r="1884" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1884" s="36" t="s">
-        <v>2297</v>
+        <v>2293</v>
       </c>
       <c r="B1884" s="36" t="s">
-        <v>2294</v>
+        <v>2290</v>
       </c>
       <c r="C1884" s="36" t="s">
         <v>952</v>
@@ -40466,10 +40538,10 @@
     </row>
     <row r="1885" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1885" s="36" t="s">
-        <v>2298</v>
+        <v>2294</v>
       </c>
       <c r="B1885" s="36" t="s">
-        <v>2294</v>
+        <v>2290</v>
       </c>
       <c r="C1885" s="36" t="s">
         <v>262</v>
@@ -40483,10 +40555,10 @@
     </row>
     <row r="1886" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1886" s="36" t="s">
-        <v>2299</v>
+        <v>2295</v>
       </c>
       <c r="B1886" s="36" t="s">
-        <v>2294</v>
+        <v>2290</v>
       </c>
       <c r="C1886" s="36" t="s">
         <v>247</v>
@@ -40500,10 +40572,10 @@
     </row>
     <row r="1887" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1887" s="36" t="s">
-        <v>2300</v>
+        <v>2296</v>
       </c>
       <c r="B1887" s="36" t="s">
-        <v>2294</v>
+        <v>2290</v>
       </c>
       <c r="C1887" s="36" t="s">
         <v>263</v>
@@ -40517,10 +40589,10 @@
     </row>
     <row r="1888" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1888" s="36" t="s">
-        <v>2301</v>
+        <v>2297</v>
       </c>
       <c r="B1888" s="36" t="s">
-        <v>2294</v>
+        <v>2290</v>
       </c>
       <c r="C1888" s="36" t="s">
         <v>252</v>
@@ -40534,10 +40606,10 @@
     </row>
     <row r="1889" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1889" s="36" t="s">
-        <v>2302</v>
+        <v>2298</v>
       </c>
       <c r="B1889" s="36" t="s">
-        <v>2294</v>
+        <v>2290</v>
       </c>
       <c r="C1889" s="36" t="s">
         <v>231</v>
@@ -40551,10 +40623,10 @@
     </row>
     <row r="1890" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1890" s="35" t="s">
-        <v>2311</v>
+        <v>2307</v>
       </c>
       <c r="B1890" s="35" t="s">
-        <v>2303</v>
+        <v>2299</v>
       </c>
       <c r="C1890" s="35" t="s">
         <v>2</v>
@@ -40568,10 +40640,10 @@
     </row>
     <row r="1891" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1891" s="35" t="s">
-        <v>2312</v>
+        <v>2308</v>
       </c>
       <c r="B1891" s="35" t="s">
-        <v>2303</v>
+        <v>2299</v>
       </c>
       <c r="C1891" s="35" t="s">
         <v>230</v>
@@ -40585,10 +40657,10 @@
     </row>
     <row r="1892" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1892" s="35" t="s">
-        <v>2313</v>
+        <v>2309</v>
       </c>
       <c r="B1892" s="35" t="s">
-        <v>2303</v>
+        <v>2299</v>
       </c>
       <c r="C1892" s="35" t="s">
         <v>952</v>
@@ -40602,10 +40674,10 @@
     </row>
     <row r="1893" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1893" s="35" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="B1893" s="35" t="s">
-        <v>2303</v>
+        <v>2299</v>
       </c>
       <c r="C1893" s="35" t="s">
         <v>262</v>
@@ -40619,10 +40691,10 @@
     </row>
     <row r="1894" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1894" s="35" t="s">
-        <v>2315</v>
+        <v>2311</v>
       </c>
       <c r="B1894" s="35" t="s">
-        <v>2303</v>
+        <v>2299</v>
       </c>
       <c r="C1894" s="35" t="s">
         <v>247</v>
@@ -40636,10 +40708,10 @@
     </row>
     <row r="1895" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1895" s="35" t="s">
-        <v>2316</v>
+        <v>2312</v>
       </c>
       <c r="B1895" s="35" t="s">
-        <v>2303</v>
+        <v>2299</v>
       </c>
       <c r="C1895" s="35" t="s">
         <v>263</v>
@@ -40653,10 +40725,10 @@
     </row>
     <row r="1896" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1896" s="35" t="s">
-        <v>2317</v>
+        <v>2313</v>
       </c>
       <c r="B1896" s="35" t="s">
-        <v>2303</v>
+        <v>2299</v>
       </c>
       <c r="C1896" s="35" t="s">
         <v>252</v>
@@ -40670,10 +40742,10 @@
     </row>
     <row r="1897" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1897" s="35" t="s">
-        <v>2318</v>
+        <v>2314</v>
       </c>
       <c r="B1897" s="35" t="s">
-        <v>2303</v>
+        <v>2299</v>
       </c>
       <c r="C1897" s="35" t="s">
         <v>231</v>
@@ -40687,10 +40759,10 @@
     </row>
     <row r="1898" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1898" s="36" t="s">
-        <v>2319</v>
+        <v>2315</v>
       </c>
       <c r="B1898" s="36" t="s">
-        <v>2304</v>
+        <v>2300</v>
       </c>
       <c r="C1898" s="36" t="s">
         <v>2</v>
@@ -40704,10 +40776,10 @@
     </row>
     <row r="1899" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1899" s="36" t="s">
-        <v>2320</v>
+        <v>2316</v>
       </c>
       <c r="B1899" s="36" t="s">
-        <v>2304</v>
+        <v>2300</v>
       </c>
       <c r="C1899" s="36" t="s">
         <v>230</v>
@@ -40721,10 +40793,10 @@
     </row>
     <row r="1900" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1900" s="36" t="s">
-        <v>2321</v>
+        <v>2317</v>
       </c>
       <c r="B1900" s="36" t="s">
-        <v>2304</v>
+        <v>2300</v>
       </c>
       <c r="C1900" s="36" t="s">
         <v>952</v>
@@ -40738,10 +40810,10 @@
     </row>
     <row r="1901" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1901" s="36" t="s">
-        <v>2322</v>
+        <v>2318</v>
       </c>
       <c r="B1901" s="36" t="s">
-        <v>2304</v>
+        <v>2300</v>
       </c>
       <c r="C1901" s="36" t="s">
         <v>262</v>
@@ -40755,10 +40827,10 @@
     </row>
     <row r="1902" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1902" s="36" t="s">
-        <v>2323</v>
+        <v>2319</v>
       </c>
       <c r="B1902" s="36" t="s">
-        <v>2304</v>
+        <v>2300</v>
       </c>
       <c r="C1902" s="36" t="s">
         <v>247</v>
@@ -40772,10 +40844,10 @@
     </row>
     <row r="1903" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1903" s="36" t="s">
-        <v>2324</v>
+        <v>2320</v>
       </c>
       <c r="B1903" s="36" t="s">
-        <v>2304</v>
+        <v>2300</v>
       </c>
       <c r="C1903" s="36" t="s">
         <v>263</v>
@@ -40789,10 +40861,10 @@
     </row>
     <row r="1904" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1904" s="36" t="s">
-        <v>2325</v>
+        <v>2321</v>
       </c>
       <c r="B1904" s="36" t="s">
-        <v>2304</v>
+        <v>2300</v>
       </c>
       <c r="C1904" s="36" t="s">
         <v>252</v>
@@ -40806,10 +40878,10 @@
     </row>
     <row r="1905" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1905" s="36" t="s">
-        <v>2326</v>
+        <v>2322</v>
       </c>
       <c r="B1905" s="36" t="s">
-        <v>2304</v>
+        <v>2300</v>
       </c>
       <c r="C1905" s="36" t="s">
         <v>231</v>
@@ -40823,10 +40895,10 @@
     </row>
     <row r="1906" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1906" s="35" t="s">
-        <v>2327</v>
+        <v>2323</v>
       </c>
       <c r="B1906" s="35" t="s">
-        <v>2305</v>
+        <v>2301</v>
       </c>
       <c r="C1906" s="35" t="s">
         <v>2</v>
@@ -40840,10 +40912,10 @@
     </row>
     <row r="1907" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1907" s="35" t="s">
-        <v>2328</v>
+        <v>2324</v>
       </c>
       <c r="B1907" s="35" t="s">
-        <v>2305</v>
+        <v>2301</v>
       </c>
       <c r="C1907" s="35" t="s">
         <v>230</v>
@@ -40857,10 +40929,10 @@
     </row>
     <row r="1908" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1908" s="35" t="s">
-        <v>2329</v>
+        <v>2325</v>
       </c>
       <c r="B1908" s="35" t="s">
-        <v>2305</v>
+        <v>2301</v>
       </c>
       <c r="C1908" s="35" t="s">
         <v>952</v>
@@ -40874,10 +40946,10 @@
     </row>
     <row r="1909" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1909" s="35" t="s">
-        <v>2330</v>
+        <v>2326</v>
       </c>
       <c r="B1909" s="35" t="s">
-        <v>2305</v>
+        <v>2301</v>
       </c>
       <c r="C1909" s="35" t="s">
         <v>262</v>
@@ -40891,10 +40963,10 @@
     </row>
     <row r="1910" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1910" s="35" t="s">
-        <v>2331</v>
+        <v>2327</v>
       </c>
       <c r="B1910" s="35" t="s">
-        <v>2305</v>
+        <v>2301</v>
       </c>
       <c r="C1910" s="35" t="s">
         <v>247</v>
@@ -40908,10 +40980,10 @@
     </row>
     <row r="1911" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1911" s="35" t="s">
-        <v>2332</v>
+        <v>2328</v>
       </c>
       <c r="B1911" s="35" t="s">
-        <v>2305</v>
+        <v>2301</v>
       </c>
       <c r="C1911" s="35" t="s">
         <v>263</v>
@@ -40925,10 +40997,10 @@
     </row>
     <row r="1912" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1912" s="35" t="s">
-        <v>2333</v>
+        <v>2329</v>
       </c>
       <c r="B1912" s="35" t="s">
-        <v>2305</v>
+        <v>2301</v>
       </c>
       <c r="C1912" s="35" t="s">
         <v>252</v>
@@ -40942,10 +41014,10 @@
     </row>
     <row r="1913" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1913" s="35" t="s">
-        <v>2334</v>
+        <v>2330</v>
       </c>
       <c r="B1913" s="35" t="s">
-        <v>2305</v>
+        <v>2301</v>
       </c>
       <c r="C1913" s="35" t="s">
         <v>231</v>
@@ -40959,10 +41031,10 @@
     </row>
     <row r="1914" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1914" s="36" t="s">
-        <v>2335</v>
+        <v>2331</v>
       </c>
       <c r="B1914" s="36" t="s">
-        <v>2306</v>
+        <v>2302</v>
       </c>
       <c r="C1914" s="36" t="s">
         <v>2</v>
@@ -40976,10 +41048,10 @@
     </row>
     <row r="1915" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1915" s="36" t="s">
-        <v>2336</v>
+        <v>2332</v>
       </c>
       <c r="B1915" s="36" t="s">
-        <v>2306</v>
+        <v>2302</v>
       </c>
       <c r="C1915" s="36" t="s">
         <v>230</v>
@@ -40993,10 +41065,10 @@
     </row>
     <row r="1916" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1916" s="36" t="s">
-        <v>2337</v>
+        <v>2333</v>
       </c>
       <c r="B1916" s="36" t="s">
-        <v>2306</v>
+        <v>2302</v>
       </c>
       <c r="C1916" s="36" t="s">
         <v>952</v>
@@ -41010,10 +41082,10 @@
     </row>
     <row r="1917" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1917" s="36" t="s">
-        <v>2338</v>
+        <v>2334</v>
       </c>
       <c r="B1917" s="36" t="s">
-        <v>2306</v>
+        <v>2302</v>
       </c>
       <c r="C1917" s="36" t="s">
         <v>262</v>
@@ -41027,10 +41099,10 @@
     </row>
     <row r="1918" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1918" s="36" t="s">
-        <v>2339</v>
+        <v>2335</v>
       </c>
       <c r="B1918" s="36" t="s">
-        <v>2306</v>
+        <v>2302</v>
       </c>
       <c r="C1918" s="36" t="s">
         <v>247</v>
@@ -41044,10 +41116,10 @@
     </row>
     <row r="1919" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1919" s="36" t="s">
-        <v>2340</v>
+        <v>2336</v>
       </c>
       <c r="B1919" s="36" t="s">
-        <v>2306</v>
+        <v>2302</v>
       </c>
       <c r="C1919" s="36" t="s">
         <v>263</v>
@@ -41061,10 +41133,10 @@
     </row>
     <row r="1920" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1920" s="36" t="s">
-        <v>2341</v>
+        <v>2337</v>
       </c>
       <c r="B1920" s="36" t="s">
-        <v>2306</v>
+        <v>2302</v>
       </c>
       <c r="C1920" s="36" t="s">
         <v>252</v>
@@ -41078,10 +41150,10 @@
     </row>
     <row r="1921" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1921" s="36" t="s">
-        <v>2342</v>
+        <v>2338</v>
       </c>
       <c r="B1921" s="36" t="s">
-        <v>2306</v>
+        <v>2302</v>
       </c>
       <c r="C1921" s="36" t="s">
         <v>231</v>
@@ -41095,10 +41167,10 @@
     </row>
     <row r="1922" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1922" s="35" t="s">
-        <v>2343</v>
+        <v>2339</v>
       </c>
       <c r="B1922" s="35" t="s">
-        <v>2307</v>
+        <v>2303</v>
       </c>
       <c r="C1922" s="35" t="s">
         <v>2</v>
@@ -41112,10 +41184,10 @@
     </row>
     <row r="1923" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1923" s="35" t="s">
-        <v>2344</v>
+        <v>2340</v>
       </c>
       <c r="B1923" s="35" t="s">
-        <v>2307</v>
+        <v>2303</v>
       </c>
       <c r="C1923" s="35" t="s">
         <v>230</v>
@@ -41129,10 +41201,10 @@
     </row>
     <row r="1924" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1924" s="35" t="s">
-        <v>2345</v>
+        <v>2341</v>
       </c>
       <c r="B1924" s="35" t="s">
-        <v>2307</v>
+        <v>2303</v>
       </c>
       <c r="C1924" s="35" t="s">
         <v>952</v>
@@ -41146,10 +41218,10 @@
     </row>
     <row r="1925" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1925" s="35" t="s">
-        <v>2346</v>
+        <v>2342</v>
       </c>
       <c r="B1925" s="35" t="s">
-        <v>2307</v>
+        <v>2303</v>
       </c>
       <c r="C1925" s="35" t="s">
         <v>262</v>
@@ -41163,10 +41235,10 @@
     </row>
     <row r="1926" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1926" s="35" t="s">
-        <v>2347</v>
+        <v>2343</v>
       </c>
       <c r="B1926" s="35" t="s">
-        <v>2307</v>
+        <v>2303</v>
       </c>
       <c r="C1926" s="35" t="s">
         <v>247</v>
@@ -41180,10 +41252,10 @@
     </row>
     <row r="1927" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1927" s="35" t="s">
-        <v>2348</v>
+        <v>2344</v>
       </c>
       <c r="B1927" s="35" t="s">
-        <v>2307</v>
+        <v>2303</v>
       </c>
       <c r="C1927" s="35" t="s">
         <v>263</v>
@@ -41197,10 +41269,10 @@
     </row>
     <row r="1928" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1928" s="35" t="s">
-        <v>2349</v>
+        <v>2345</v>
       </c>
       <c r="B1928" s="35" t="s">
-        <v>2307</v>
+        <v>2303</v>
       </c>
       <c r="C1928" s="35" t="s">
         <v>252</v>
@@ -41214,10 +41286,10 @@
     </row>
     <row r="1929" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1929" s="35" t="s">
-        <v>2350</v>
+        <v>2346</v>
       </c>
       <c r="B1929" s="35" t="s">
-        <v>2307</v>
+        <v>2303</v>
       </c>
       <c r="C1929" s="35" t="s">
         <v>231</v>
@@ -41231,10 +41303,10 @@
     </row>
     <row r="1930" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1930" s="36" t="s">
-        <v>2351</v>
+        <v>2347</v>
       </c>
       <c r="B1930" s="36" t="s">
-        <v>2308</v>
+        <v>2304</v>
       </c>
       <c r="C1930" s="36" t="s">
         <v>2</v>
@@ -41248,10 +41320,10 @@
     </row>
     <row r="1931" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1931" s="36" t="s">
-        <v>2352</v>
+        <v>2348</v>
       </c>
       <c r="B1931" s="36" t="s">
-        <v>2308</v>
+        <v>2304</v>
       </c>
       <c r="C1931" s="36" t="s">
         <v>230</v>
@@ -41265,10 +41337,10 @@
     </row>
     <row r="1932" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1932" s="36" t="s">
-        <v>2353</v>
+        <v>2349</v>
       </c>
       <c r="B1932" s="36" t="s">
-        <v>2308</v>
+        <v>2304</v>
       </c>
       <c r="C1932" s="36" t="s">
         <v>952</v>
@@ -41282,10 +41354,10 @@
     </row>
     <row r="1933" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1933" s="36" t="s">
-        <v>2354</v>
+        <v>2350</v>
       </c>
       <c r="B1933" s="36" t="s">
-        <v>2308</v>
+        <v>2304</v>
       </c>
       <c r="C1933" s="36" t="s">
         <v>262</v>
@@ -41299,10 +41371,10 @@
     </row>
     <row r="1934" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1934" s="36" t="s">
-        <v>2355</v>
+        <v>2351</v>
       </c>
       <c r="B1934" s="36" t="s">
-        <v>2308</v>
+        <v>2304</v>
       </c>
       <c r="C1934" s="36" t="s">
         <v>247</v>
@@ -41316,10 +41388,10 @@
     </row>
     <row r="1935" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1935" s="36" t="s">
-        <v>2356</v>
+        <v>2352</v>
       </c>
       <c r="B1935" s="36" t="s">
-        <v>2308</v>
+        <v>2304</v>
       </c>
       <c r="C1935" s="36" t="s">
         <v>263</v>
@@ -41333,10 +41405,10 @@
     </row>
     <row r="1936" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1936" s="36" t="s">
-        <v>2357</v>
+        <v>2353</v>
       </c>
       <c r="B1936" s="36" t="s">
-        <v>2308</v>
+        <v>2304</v>
       </c>
       <c r="C1936" s="36" t="s">
         <v>252</v>
@@ -41350,10 +41422,10 @@
     </row>
     <row r="1937" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1937" s="36" t="s">
-        <v>2358</v>
+        <v>2354</v>
       </c>
       <c r="B1937" s="36" t="s">
-        <v>2308</v>
+        <v>2304</v>
       </c>
       <c r="C1937" s="36" t="s">
         <v>231</v>
@@ -41367,10 +41439,10 @@
     </row>
     <row r="1938" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1938" s="35" t="s">
-        <v>2359</v>
+        <v>2355</v>
       </c>
       <c r="B1938" s="35" t="s">
-        <v>2309</v>
+        <v>2305</v>
       </c>
       <c r="C1938" s="35" t="s">
         <v>2</v>
@@ -41384,10 +41456,10 @@
     </row>
     <row r="1939" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1939" s="35" t="s">
-        <v>2360</v>
+        <v>2356</v>
       </c>
       <c r="B1939" s="35" t="s">
-        <v>2309</v>
+        <v>2305</v>
       </c>
       <c r="C1939" s="35" t="s">
         <v>230</v>
@@ -41401,10 +41473,10 @@
     </row>
     <row r="1940" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1940" s="35" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="B1940" s="35" t="s">
-        <v>2309</v>
+        <v>2305</v>
       </c>
       <c r="C1940" s="35" t="s">
         <v>952</v>
@@ -41418,10 +41490,10 @@
     </row>
     <row r="1941" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1941" s="35" t="s">
-        <v>2362</v>
+        <v>2358</v>
       </c>
       <c r="B1941" s="35" t="s">
-        <v>2309</v>
+        <v>2305</v>
       </c>
       <c r="C1941" s="35" t="s">
         <v>262</v>
@@ -41435,10 +41507,10 @@
     </row>
     <row r="1942" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1942" s="35" t="s">
-        <v>2363</v>
+        <v>2359</v>
       </c>
       <c r="B1942" s="35" t="s">
-        <v>2309</v>
+        <v>2305</v>
       </c>
       <c r="C1942" s="35" t="s">
         <v>247</v>
@@ -41452,10 +41524,10 @@
     </row>
     <row r="1943" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1943" s="35" t="s">
-        <v>2364</v>
+        <v>2360</v>
       </c>
       <c r="B1943" s="35" t="s">
-        <v>2309</v>
+        <v>2305</v>
       </c>
       <c r="C1943" s="35" t="s">
         <v>263</v>
@@ -41469,10 +41541,10 @@
     </row>
     <row r="1944" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1944" s="35" t="s">
-        <v>2365</v>
+        <v>2361</v>
       </c>
       <c r="B1944" s="35" t="s">
-        <v>2309</v>
+        <v>2305</v>
       </c>
       <c r="C1944" s="35" t="s">
         <v>252</v>
@@ -41486,10 +41558,10 @@
     </row>
     <row r="1945" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1945" s="35" t="s">
-        <v>2366</v>
+        <v>2362</v>
       </c>
       <c r="B1945" s="35" t="s">
-        <v>2309</v>
+        <v>2305</v>
       </c>
       <c r="C1945" s="35" t="s">
         <v>231</v>
@@ -41503,10 +41575,10 @@
     </row>
     <row r="1946" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1946" s="36" t="s">
-        <v>2367</v>
+        <v>2363</v>
       </c>
       <c r="B1946" s="36" t="s">
-        <v>2310</v>
+        <v>2306</v>
       </c>
       <c r="C1946" s="36" t="s">
         <v>2</v>
@@ -41520,10 +41592,10 @@
     </row>
     <row r="1947" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1947" s="36" t="s">
-        <v>2368</v>
+        <v>2364</v>
       </c>
       <c r="B1947" s="36" t="s">
-        <v>2310</v>
+        <v>2306</v>
       </c>
       <c r="C1947" s="36" t="s">
         <v>230</v>
@@ -41537,10 +41609,10 @@
     </row>
     <row r="1948" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1948" s="36" t="s">
-        <v>2369</v>
+        <v>2365</v>
       </c>
       <c r="B1948" s="36" t="s">
-        <v>2310</v>
+        <v>2306</v>
       </c>
       <c r="C1948" s="36" t="s">
         <v>952</v>
@@ -41554,10 +41626,10 @@
     </row>
     <row r="1949" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1949" s="36" t="s">
-        <v>2370</v>
+        <v>2366</v>
       </c>
       <c r="B1949" s="36" t="s">
-        <v>2310</v>
+        <v>2306</v>
       </c>
       <c r="C1949" s="36" t="s">
         <v>262</v>
@@ -41571,10 +41643,10 @@
     </row>
     <row r="1950" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1950" s="36" t="s">
-        <v>2371</v>
+        <v>2367</v>
       </c>
       <c r="B1950" s="36" t="s">
-        <v>2310</v>
+        <v>2306</v>
       </c>
       <c r="C1950" s="36" t="s">
         <v>247</v>
@@ -41588,10 +41660,10 @@
     </row>
     <row r="1951" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1951" s="36" t="s">
-        <v>2372</v>
+        <v>2368</v>
       </c>
       <c r="B1951" s="36" t="s">
-        <v>2310</v>
+        <v>2306</v>
       </c>
       <c r="C1951" s="36" t="s">
         <v>263</v>
@@ -41605,10 +41677,10 @@
     </row>
     <row r="1952" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1952" s="36" t="s">
-        <v>2373</v>
+        <v>2369</v>
       </c>
       <c r="B1952" s="36" t="s">
-        <v>2310</v>
+        <v>2306</v>
       </c>
       <c r="C1952" s="36" t="s">
         <v>252</v>
@@ -41622,10 +41694,10 @@
     </row>
     <row r="1953" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1953" s="36" t="s">
-        <v>2374</v>
+        <v>2370</v>
       </c>
       <c r="B1953" s="36" t="s">
-        <v>2310</v>
+        <v>2306</v>
       </c>
       <c r="C1953" s="36" t="s">
         <v>231</v>
@@ -41639,10 +41711,10 @@
     </row>
     <row r="1954" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1954" s="63" t="s">
-        <v>2378</v>
+        <v>2374</v>
       </c>
       <c r="B1954" s="64" t="s">
-        <v>2375</v>
+        <v>2371</v>
       </c>
       <c r="C1954" s="65" t="s">
         <v>462</v>
@@ -41656,10 +41728,10 @@
     </row>
     <row r="1955" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1955" s="63" t="s">
-        <v>2379</v>
+        <v>2375</v>
       </c>
       <c r="B1955" s="64" t="s">
-        <v>2376</v>
+        <v>2372</v>
       </c>
       <c r="C1955" s="65" t="s">
         <v>462</v>
@@ -41673,10 +41745,10 @@
     </row>
     <row r="1956" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1956" s="63" t="s">
-        <v>2380</v>
+        <v>2376</v>
       </c>
       <c r="B1956" s="64" t="s">
-        <v>2377</v>
+        <v>2373</v>
       </c>
       <c r="C1956" s="65" t="s">
         <v>462</v>
@@ -41690,10 +41762,10 @@
     </row>
     <row r="1957" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1957" s="36" t="s">
-        <v>2382</v>
+        <v>2378</v>
       </c>
       <c r="B1957" s="36" t="s">
-        <v>2381</v>
+        <v>2377</v>
       </c>
       <c r="C1957" s="36" t="s">
         <v>2</v>
@@ -41707,10 +41779,10 @@
     </row>
     <row r="1958" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1958" s="36" t="s">
-        <v>2383</v>
+        <v>2379</v>
       </c>
       <c r="B1958" s="36" t="s">
-        <v>2381</v>
+        <v>2377</v>
       </c>
       <c r="C1958" s="36" t="s">
         <v>230</v>
@@ -41724,10 +41796,10 @@
     </row>
     <row r="1959" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1959" s="36" t="s">
-        <v>2384</v>
+        <v>2380</v>
       </c>
       <c r="B1959" s="36" t="s">
-        <v>2381</v>
+        <v>2377</v>
       </c>
       <c r="C1959" s="36" t="s">
         <v>952</v>
@@ -41741,10 +41813,10 @@
     </row>
     <row r="1960" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1960" s="36" t="s">
-        <v>2385</v>
+        <v>2381</v>
       </c>
       <c r="B1960" s="36" t="s">
-        <v>2381</v>
+        <v>2377</v>
       </c>
       <c r="C1960" s="36" t="s">
         <v>262</v>
@@ -41758,10 +41830,10 @@
     </row>
     <row r="1961" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1961" s="36" t="s">
-        <v>2386</v>
+        <v>2382</v>
       </c>
       <c r="B1961" s="36" t="s">
-        <v>2381</v>
+        <v>2377</v>
       </c>
       <c r="C1961" s="36" t="s">
         <v>247</v>
@@ -41775,10 +41847,10 @@
     </row>
     <row r="1962" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1962" s="36" t="s">
-        <v>2387</v>
+        <v>2383</v>
       </c>
       <c r="B1962" s="36" t="s">
-        <v>2381</v>
+        <v>2377</v>
       </c>
       <c r="C1962" s="36" t="s">
         <v>263</v>
@@ -41792,10 +41864,10 @@
     </row>
     <row r="1963" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1963" s="36" t="s">
-        <v>2388</v>
+        <v>2384</v>
       </c>
       <c r="B1963" s="36" t="s">
-        <v>2381</v>
+        <v>2377</v>
       </c>
       <c r="C1963" s="36" t="s">
         <v>252</v>
@@ -41809,10 +41881,10 @@
     </row>
     <row r="1964" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1964" s="36" t="s">
-        <v>2389</v>
+        <v>2385</v>
       </c>
       <c r="B1964" s="36" t="s">
-        <v>2381</v>
+        <v>2377</v>
       </c>
       <c r="C1964" s="36" t="s">
         <v>231</v>
@@ -41826,13 +41898,13 @@
     </row>
     <row r="1965" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1965" s="61" t="s">
-        <v>2391</v>
+        <v>2387</v>
       </c>
       <c r="B1965" s="61" t="s">
-        <v>2390</v>
+        <v>2386</v>
       </c>
       <c r="C1965" s="61" t="s">
-        <v>2392</v>
+        <v>2388</v>
       </c>
       <c r="D1965" s="61">
         <v>45143</v>
@@ -41843,13 +41915,13 @@
     </row>
     <row r="1966" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1966" s="36" t="s">
-        <v>2393</v>
+        <v>2389</v>
       </c>
       <c r="B1966" s="36" t="s">
-        <v>2394</v>
+        <v>2390</v>
       </c>
       <c r="C1966" s="36" t="s">
-        <v>2520</v>
+        <v>2512</v>
       </c>
       <c r="D1966" s="36">
         <v>44962</v>
@@ -41860,16 +41932,16 @@
     </row>
     <row r="1967" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1967" s="35" t="s">
-        <v>2400</v>
+        <v>2396</v>
       </c>
       <c r="B1967" s="35" t="s">
-        <v>2395</v>
+        <v>2391</v>
       </c>
       <c r="C1967" s="35" t="s">
         <v>2</v>
       </c>
       <c r="D1967" s="35" t="s">
-        <v>2440</v>
+        <v>2432</v>
       </c>
       <c r="E1967" s="13">
         <v>1</v>
@@ -41877,16 +41949,16 @@
     </row>
     <row r="1968" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1968" s="35" t="s">
-        <v>2401</v>
+        <v>2397</v>
       </c>
       <c r="B1968" s="35" t="s">
-        <v>2395</v>
+        <v>2391</v>
       </c>
       <c r="C1968" s="35" t="s">
         <v>230</v>
       </c>
       <c r="D1968" s="35" t="s">
-        <v>2441</v>
+        <v>2433</v>
       </c>
       <c r="E1968" s="13">
         <v>1</v>
@@ -41894,16 +41966,16 @@
     </row>
     <row r="1969" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1969" s="35" t="s">
-        <v>2402</v>
+        <v>2398</v>
       </c>
       <c r="B1969" s="35" t="s">
-        <v>2395</v>
+        <v>2391</v>
       </c>
       <c r="C1969" s="35" t="s">
         <v>952</v>
       </c>
       <c r="D1969" s="35" t="s">
-        <v>2442</v>
+        <v>2434</v>
       </c>
       <c r="E1969" s="13">
         <v>1</v>
@@ -41911,16 +41983,16 @@
     </row>
     <row r="1970" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1970" s="35" t="s">
-        <v>2403</v>
+        <v>2399</v>
       </c>
       <c r="B1970" s="35" t="s">
-        <v>2395</v>
+        <v>2391</v>
       </c>
       <c r="C1970" s="35" t="s">
         <v>262</v>
       </c>
       <c r="D1970" s="35" t="s">
-        <v>2443</v>
+        <v>2435</v>
       </c>
       <c r="E1970" s="13">
         <v>1</v>
@@ -41928,16 +42000,16 @@
     </row>
     <row r="1971" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1971" s="35" t="s">
-        <v>2404</v>
+        <v>2400</v>
       </c>
       <c r="B1971" s="35" t="s">
-        <v>2395</v>
+        <v>2391</v>
       </c>
       <c r="C1971" s="35" t="s">
         <v>247</v>
       </c>
       <c r="D1971" s="35" t="s">
-        <v>2444</v>
+        <v>2436</v>
       </c>
       <c r="E1971" s="13">
         <v>1</v>
@@ -41945,16 +42017,16 @@
     </row>
     <row r="1972" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1972" s="35" t="s">
-        <v>2405</v>
+        <v>2401</v>
       </c>
       <c r="B1972" s="35" t="s">
-        <v>2395</v>
+        <v>2391</v>
       </c>
       <c r="C1972" s="35" t="s">
         <v>263</v>
       </c>
       <c r="D1972" s="35" t="s">
-        <v>2445</v>
+        <v>2437</v>
       </c>
       <c r="E1972" s="13">
         <v>1</v>
@@ -41962,16 +42034,16 @@
     </row>
     <row r="1973" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1973" s="35" t="s">
-        <v>2406</v>
+        <v>2402</v>
       </c>
       <c r="B1973" s="35" t="s">
-        <v>2395</v>
+        <v>2391</v>
       </c>
       <c r="C1973" s="35" t="s">
         <v>252</v>
       </c>
       <c r="D1973" s="35" t="s">
-        <v>2446</v>
+        <v>2438</v>
       </c>
       <c r="E1973" s="13">
         <v>1</v>
@@ -41979,16 +42051,16 @@
     </row>
     <row r="1974" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1974" s="35" t="s">
-        <v>2407</v>
+        <v>2403</v>
       </c>
       <c r="B1974" s="35" t="s">
-        <v>2395</v>
+        <v>2391</v>
       </c>
       <c r="C1974" s="35" t="s">
         <v>231</v>
       </c>
       <c r="D1974" s="35" t="s">
-        <v>2447</v>
+        <v>2439</v>
       </c>
       <c r="E1974" s="13">
         <v>1</v>
@@ -41996,16 +42068,16 @@
     </row>
     <row r="1975" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1975" s="36" t="s">
-        <v>2408</v>
+        <v>2404</v>
       </c>
       <c r="B1975" s="36" t="s">
-        <v>2396</v>
+        <v>2392</v>
       </c>
       <c r="C1975" s="36" t="s">
         <v>2</v>
       </c>
       <c r="D1975" s="36" t="s">
-        <v>2440</v>
+        <v>2432</v>
       </c>
       <c r="E1975" s="13">
         <v>1</v>
@@ -42013,16 +42085,16 @@
     </row>
     <row r="1976" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1976" s="36" t="s">
-        <v>2409</v>
+        <v>2405</v>
       </c>
       <c r="B1976" s="36" t="s">
-        <v>2396</v>
+        <v>2392</v>
       </c>
       <c r="C1976" s="36" t="s">
         <v>230</v>
       </c>
       <c r="D1976" s="36" t="s">
-        <v>2441</v>
+        <v>2433</v>
       </c>
       <c r="E1976" s="13">
         <v>1</v>
@@ -42030,16 +42102,16 @@
     </row>
     <row r="1977" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1977" s="36" t="s">
-        <v>2410</v>
+        <v>2406</v>
       </c>
       <c r="B1977" s="36" t="s">
-        <v>2396</v>
+        <v>2392</v>
       </c>
       <c r="C1977" s="36" t="s">
         <v>952</v>
       </c>
       <c r="D1977" s="36" t="s">
-        <v>2442</v>
+        <v>2434</v>
       </c>
       <c r="E1977" s="13">
         <v>1</v>
@@ -42047,16 +42119,16 @@
     </row>
     <row r="1978" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1978" s="36" t="s">
-        <v>2411</v>
+        <v>2407</v>
       </c>
       <c r="B1978" s="36" t="s">
-        <v>2396</v>
+        <v>2392</v>
       </c>
       <c r="C1978" s="36" t="s">
         <v>262</v>
       </c>
       <c r="D1978" s="36" t="s">
-        <v>2443</v>
+        <v>2435</v>
       </c>
       <c r="E1978" s="13">
         <v>1</v>
@@ -42064,16 +42136,16 @@
     </row>
     <row r="1979" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1979" s="36" t="s">
-        <v>2412</v>
+        <v>2408</v>
       </c>
       <c r="B1979" s="36" t="s">
-        <v>2396</v>
+        <v>2392</v>
       </c>
       <c r="C1979" s="36" t="s">
         <v>247</v>
       </c>
       <c r="D1979" s="36" t="s">
-        <v>2444</v>
+        <v>2436</v>
       </c>
       <c r="E1979" s="13">
         <v>1</v>
@@ -42081,16 +42153,16 @@
     </row>
     <row r="1980" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1980" s="36" t="s">
-        <v>2413</v>
+        <v>2409</v>
       </c>
       <c r="B1980" s="36" t="s">
-        <v>2396</v>
+        <v>2392</v>
       </c>
       <c r="C1980" s="36" t="s">
         <v>263</v>
       </c>
       <c r="D1980" s="36" t="s">
-        <v>2445</v>
+        <v>2437</v>
       </c>
       <c r="E1980" s="13">
         <v>1</v>
@@ -42098,16 +42170,16 @@
     </row>
     <row r="1981" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1981" s="36" t="s">
-        <v>2414</v>
+        <v>2410</v>
       </c>
       <c r="B1981" s="36" t="s">
-        <v>2396</v>
+        <v>2392</v>
       </c>
       <c r="C1981" s="36" t="s">
         <v>252</v>
       </c>
       <c r="D1981" s="36" t="s">
-        <v>2446</v>
+        <v>2438</v>
       </c>
       <c r="E1981" s="13">
         <v>1</v>
@@ -42115,169 +42187,169 @@
     </row>
     <row r="1982" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1982" s="36" t="s">
-        <v>2415</v>
+        <v>2411</v>
       </c>
       <c r="B1982" s="36" t="s">
-        <v>2396</v>
+        <v>2392</v>
       </c>
       <c r="C1982" s="36" t="s">
         <v>231</v>
       </c>
       <c r="D1982" s="36" t="s">
-        <v>2447</v>
+        <v>2439</v>
       </c>
       <c r="E1982" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="1983" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1983" s="35" t="s">
-        <v>2416</v>
-      </c>
-      <c r="B1983" s="35" t="s">
-        <v>2397</v>
-      </c>
-      <c r="C1983" s="35" t="s">
+      <c r="A1983" s="67" t="s">
+        <v>2412</v>
+      </c>
+      <c r="B1983" s="67" t="s">
+        <v>2393</v>
+      </c>
+      <c r="C1983" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D1983" s="35" t="s">
-        <v>2440</v>
-      </c>
-      <c r="E1983" s="13">
+      <c r="D1983" s="67" t="s">
+        <v>2700</v>
+      </c>
+      <c r="E1983" s="68">
         <v>1</v>
       </c>
     </row>
     <row r="1984" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1984" s="35" t="s">
-        <v>2417</v>
-      </c>
-      <c r="B1984" s="35" t="s">
-        <v>2397</v>
-      </c>
-      <c r="C1984" s="35" t="s">
+      <c r="A1984" s="67" t="s">
+        <v>2413</v>
+      </c>
+      <c r="B1984" s="67" t="s">
+        <v>2393</v>
+      </c>
+      <c r="C1984" s="67" t="s">
         <v>230</v>
       </c>
-      <c r="D1984" s="35" t="s">
-        <v>2441</v>
-      </c>
-      <c r="E1984" s="13">
+      <c r="D1984" s="67" t="s">
+        <v>2701</v>
+      </c>
+      <c r="E1984" s="68">
         <v>1</v>
       </c>
     </row>
     <row r="1985" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1985" s="35" t="s">
-        <v>2418</v>
-      </c>
-      <c r="B1985" s="35" t="s">
-        <v>2397</v>
-      </c>
-      <c r="C1985" s="35" t="s">
+      <c r="A1985" s="67" t="s">
+        <v>2414</v>
+      </c>
+      <c r="B1985" s="67" t="s">
+        <v>2393</v>
+      </c>
+      <c r="C1985" s="67" t="s">
         <v>952</v>
       </c>
-      <c r="D1985" s="35" t="s">
-        <v>2442</v>
-      </c>
-      <c r="E1985" s="13">
+      <c r="D1985" s="67" t="s">
+        <v>2702</v>
+      </c>
+      <c r="E1985" s="68">
         <v>1</v>
       </c>
     </row>
     <row r="1986" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1986" s="35" t="s">
-        <v>2419</v>
-      </c>
-      <c r="B1986" s="35" t="s">
-        <v>2397</v>
-      </c>
-      <c r="C1986" s="35" t="s">
+      <c r="A1986" s="67" t="s">
+        <v>2415</v>
+      </c>
+      <c r="B1986" s="67" t="s">
+        <v>2393</v>
+      </c>
+      <c r="C1986" s="67" t="s">
         <v>262</v>
       </c>
-      <c r="D1986" s="35" t="s">
-        <v>2443</v>
-      </c>
-      <c r="E1986" s="13">
+      <c r="D1986" s="67" t="s">
+        <v>2703</v>
+      </c>
+      <c r="E1986" s="68">
         <v>1</v>
       </c>
     </row>
     <row r="1987" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1987" s="35" t="s">
-        <v>2420</v>
-      </c>
-      <c r="B1987" s="35" t="s">
-        <v>2397</v>
-      </c>
-      <c r="C1987" s="35" t="s">
+      <c r="A1987" s="67" t="s">
+        <v>2710</v>
+      </c>
+      <c r="B1987" s="67" t="s">
+        <v>2393</v>
+      </c>
+      <c r="C1987" s="67" t="s">
         <v>247</v>
       </c>
-      <c r="D1987" s="35" t="s">
-        <v>2444</v>
-      </c>
-      <c r="E1987" s="13">
+      <c r="D1987" s="67" t="s">
+        <v>2704</v>
+      </c>
+      <c r="E1987" s="68">
         <v>1</v>
       </c>
     </row>
     <row r="1988" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1988" s="35" t="s">
-        <v>2421</v>
-      </c>
-      <c r="B1988" s="35" t="s">
-        <v>2397</v>
-      </c>
-      <c r="C1988" s="35" t="s">
+      <c r="A1988" s="67" t="s">
+        <v>2710</v>
+      </c>
+      <c r="B1988" s="67" t="s">
+        <v>2393</v>
+      </c>
+      <c r="C1988" s="67" t="s">
         <v>263</v>
       </c>
-      <c r="D1988" s="35" t="s">
-        <v>2445</v>
-      </c>
-      <c r="E1988" s="13">
+      <c r="D1988" s="67" t="s">
+        <v>2704</v>
+      </c>
+      <c r="E1988" s="68">
         <v>1</v>
       </c>
     </row>
     <row r="1989" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1989" s="35" t="s">
-        <v>2422</v>
-      </c>
-      <c r="B1989" s="35" t="s">
-        <v>2397</v>
-      </c>
-      <c r="C1989" s="35" t="s">
+      <c r="A1989" s="67" t="s">
+        <v>2710</v>
+      </c>
+      <c r="B1989" s="67" t="s">
+        <v>2393</v>
+      </c>
+      <c r="C1989" s="67" t="s">
         <v>252</v>
       </c>
-      <c r="D1989" s="35" t="s">
-        <v>2446</v>
-      </c>
-      <c r="E1989" s="13">
+      <c r="D1989" s="67" t="s">
+        <v>2704</v>
+      </c>
+      <c r="E1989" s="68">
         <v>1</v>
       </c>
     </row>
     <row r="1990" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1990" s="35" t="s">
-        <v>2423</v>
-      </c>
-      <c r="B1990" s="35" t="s">
-        <v>2397</v>
-      </c>
-      <c r="C1990" s="35" t="s">
+      <c r="A1990" s="67" t="s">
+        <v>2710</v>
+      </c>
+      <c r="B1990" s="67" t="s">
+        <v>2393</v>
+      </c>
+      <c r="C1990" s="67" t="s">
         <v>231</v>
       </c>
-      <c r="D1990" s="35" t="s">
-        <v>2447</v>
-      </c>
-      <c r="E1990" s="13">
+      <c r="D1990" s="67" t="s">
+        <v>2704</v>
+      </c>
+      <c r="E1990" s="68">
         <v>1</v>
       </c>
     </row>
     <row r="1991" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1991" s="36" t="s">
-        <v>2424</v>
+        <v>2416</v>
       </c>
       <c r="B1991" s="36" t="s">
-        <v>2398</v>
+        <v>2394</v>
       </c>
       <c r="C1991" s="36" t="s">
         <v>2</v>
       </c>
       <c r="D1991" s="36" t="s">
-        <v>2440</v>
+        <v>2432</v>
       </c>
       <c r="E1991" s="13">
         <v>1</v>
@@ -42285,16 +42357,16 @@
     </row>
     <row r="1992" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1992" s="36" t="s">
-        <v>2425</v>
+        <v>2417</v>
       </c>
       <c r="B1992" s="36" t="s">
-        <v>2398</v>
+        <v>2394</v>
       </c>
       <c r="C1992" s="36" t="s">
         <v>230</v>
       </c>
       <c r="D1992" s="36" t="s">
-        <v>2441</v>
+        <v>2433</v>
       </c>
       <c r="E1992" s="13">
         <v>1</v>
@@ -42302,16 +42374,16 @@
     </row>
     <row r="1993" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1993" s="36" t="s">
-        <v>2426</v>
+        <v>2418</v>
       </c>
       <c r="B1993" s="36" t="s">
-        <v>2398</v>
+        <v>2394</v>
       </c>
       <c r="C1993" s="36" t="s">
         <v>952</v>
       </c>
       <c r="D1993" s="36" t="s">
-        <v>2442</v>
+        <v>2434</v>
       </c>
       <c r="E1993" s="13">
         <v>1</v>
@@ -42319,16 +42391,16 @@
     </row>
     <row r="1994" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1994" s="36" t="s">
-        <v>2427</v>
+        <v>2419</v>
       </c>
       <c r="B1994" s="36" t="s">
-        <v>2398</v>
+        <v>2394</v>
       </c>
       <c r="C1994" s="36" t="s">
         <v>262</v>
       </c>
       <c r="D1994" s="36" t="s">
-        <v>2443</v>
+        <v>2435</v>
       </c>
       <c r="E1994" s="13">
         <v>1</v>
@@ -42336,16 +42408,16 @@
     </row>
     <row r="1995" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1995" s="36" t="s">
-        <v>2428</v>
+        <v>2420</v>
       </c>
       <c r="B1995" s="36" t="s">
-        <v>2398</v>
+        <v>2394</v>
       </c>
       <c r="C1995" s="36" t="s">
         <v>247</v>
       </c>
       <c r="D1995" s="36" t="s">
-        <v>2444</v>
+        <v>2436</v>
       </c>
       <c r="E1995" s="13">
         <v>1</v>
@@ -42353,16 +42425,16 @@
     </row>
     <row r="1996" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1996" s="36" t="s">
-        <v>2429</v>
+        <v>2421</v>
       </c>
       <c r="B1996" s="36" t="s">
-        <v>2398</v>
+        <v>2394</v>
       </c>
       <c r="C1996" s="36" t="s">
         <v>263</v>
       </c>
       <c r="D1996" s="36" t="s">
-        <v>2445</v>
+        <v>2437</v>
       </c>
       <c r="E1996" s="13">
         <v>1</v>
@@ -42370,16 +42442,16 @@
     </row>
     <row r="1997" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1997" s="36" t="s">
-        <v>2430</v>
+        <v>2422</v>
       </c>
       <c r="B1997" s="36" t="s">
-        <v>2398</v>
+        <v>2394</v>
       </c>
       <c r="C1997" s="36" t="s">
         <v>252</v>
       </c>
       <c r="D1997" s="36" t="s">
-        <v>2446</v>
+        <v>2438</v>
       </c>
       <c r="E1997" s="13">
         <v>1</v>
@@ -42387,16 +42459,16 @@
     </row>
     <row r="1998" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1998" s="36" t="s">
-        <v>2431</v>
+        <v>2423</v>
       </c>
       <c r="B1998" s="36" t="s">
-        <v>2398</v>
+        <v>2394</v>
       </c>
       <c r="C1998" s="36" t="s">
         <v>231</v>
       </c>
       <c r="D1998" s="36" t="s">
-        <v>2447</v>
+        <v>2439</v>
       </c>
       <c r="E1998" s="13">
         <v>1</v>
@@ -42404,16 +42476,16 @@
     </row>
     <row r="1999" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1999" s="35" t="s">
-        <v>2432</v>
+        <v>2424</v>
       </c>
       <c r="B1999" s="35" t="s">
-        <v>2399</v>
+        <v>2395</v>
       </c>
       <c r="C1999" s="35" t="s">
         <v>2</v>
       </c>
       <c r="D1999" s="35" t="s">
-        <v>2440</v>
+        <v>2432</v>
       </c>
       <c r="E1999" s="13">
         <v>1</v>
@@ -42421,16 +42493,16 @@
     </row>
     <row r="2000" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2000" s="35" t="s">
-        <v>2433</v>
+        <v>2425</v>
       </c>
       <c r="B2000" s="35" t="s">
-        <v>2399</v>
+        <v>2395</v>
       </c>
       <c r="C2000" s="35" t="s">
         <v>230</v>
       </c>
       <c r="D2000" s="35" t="s">
-        <v>2441</v>
+        <v>2433</v>
       </c>
       <c r="E2000" s="13">
         <v>1</v>
@@ -42438,16 +42510,16 @@
     </row>
     <row r="2001" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2001" s="35" t="s">
-        <v>2434</v>
+        <v>2426</v>
       </c>
       <c r="B2001" s="35" t="s">
-        <v>2399</v>
+        <v>2395</v>
       </c>
       <c r="C2001" s="35" t="s">
         <v>952</v>
       </c>
       <c r="D2001" s="35" t="s">
-        <v>2442</v>
+        <v>2434</v>
       </c>
       <c r="E2001" s="13">
         <v>1</v>
@@ -42455,16 +42527,16 @@
     </row>
     <row r="2002" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2002" s="35" t="s">
-        <v>2435</v>
+        <v>2427</v>
       </c>
       <c r="B2002" s="35" t="s">
-        <v>2399</v>
+        <v>2395</v>
       </c>
       <c r="C2002" s="35" t="s">
         <v>262</v>
       </c>
       <c r="D2002" s="35" t="s">
-        <v>2443</v>
+        <v>2435</v>
       </c>
       <c r="E2002" s="13">
         <v>1</v>
@@ -42472,16 +42544,16 @@
     </row>
     <row r="2003" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2003" s="35" t="s">
-        <v>2436</v>
+        <v>2428</v>
       </c>
       <c r="B2003" s="35" t="s">
-        <v>2399</v>
+        <v>2395</v>
       </c>
       <c r="C2003" s="35" t="s">
         <v>247</v>
       </c>
       <c r="D2003" s="35" t="s">
-        <v>2444</v>
+        <v>2436</v>
       </c>
       <c r="E2003" s="13">
         <v>1</v>
@@ -42489,16 +42561,16 @@
     </row>
     <row r="2004" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2004" s="35" t="s">
-        <v>2437</v>
+        <v>2429</v>
       </c>
       <c r="B2004" s="35" t="s">
-        <v>2399</v>
+        <v>2395</v>
       </c>
       <c r="C2004" s="35" t="s">
         <v>263</v>
       </c>
       <c r="D2004" s="35" t="s">
-        <v>2445</v>
+        <v>2437</v>
       </c>
       <c r="E2004" s="13">
         <v>1</v>
@@ -42506,16 +42578,16 @@
     </row>
     <row r="2005" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2005" s="35" t="s">
-        <v>2438</v>
+        <v>2430</v>
       </c>
       <c r="B2005" s="35" t="s">
-        <v>2399</v>
+        <v>2395</v>
       </c>
       <c r="C2005" s="35" t="s">
         <v>252</v>
       </c>
       <c r="D2005" s="35" t="s">
-        <v>2446</v>
+        <v>2438</v>
       </c>
       <c r="E2005" s="13">
         <v>1</v>
@@ -42523,16 +42595,16 @@
     </row>
     <row r="2006" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2006" s="35" t="s">
-        <v>2439</v>
+        <v>2431</v>
       </c>
       <c r="B2006" s="35" t="s">
-        <v>2399</v>
+        <v>2395</v>
       </c>
       <c r="C2006" s="35" t="s">
         <v>231</v>
       </c>
       <c r="D2006" s="35" t="s">
-        <v>2447</v>
+        <v>2439</v>
       </c>
       <c r="E2006" s="13">
         <v>1</v>
@@ -42540,16 +42612,16 @@
     </row>
     <row r="2007" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2007" s="36" t="s">
-        <v>2456</v>
+        <v>2448</v>
       </c>
       <c r="B2007" s="36" t="s">
-        <v>2448</v>
+        <v>2440</v>
       </c>
       <c r="C2007" s="36" t="s">
         <v>2</v>
       </c>
       <c r="D2007" s="36" t="s">
-        <v>2440</v>
+        <v>2432</v>
       </c>
       <c r="E2007" s="13">
         <v>1</v>
@@ -42557,16 +42629,16 @@
     </row>
     <row r="2008" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2008" s="36" t="s">
-        <v>2457</v>
+        <v>2449</v>
       </c>
       <c r="B2008" s="36" t="s">
-        <v>2448</v>
+        <v>2440</v>
       </c>
       <c r="C2008" s="36" t="s">
         <v>230</v>
       </c>
       <c r="D2008" s="36" t="s">
-        <v>2441</v>
+        <v>2433</v>
       </c>
       <c r="E2008" s="13">
         <v>1</v>
@@ -42574,16 +42646,16 @@
     </row>
     <row r="2009" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2009" s="36" t="s">
-        <v>2458</v>
+        <v>2450</v>
       </c>
       <c r="B2009" s="36" t="s">
-        <v>2448</v>
+        <v>2440</v>
       </c>
       <c r="C2009" s="36" t="s">
         <v>952</v>
       </c>
       <c r="D2009" s="36" t="s">
-        <v>2442</v>
+        <v>2434</v>
       </c>
       <c r="E2009" s="13">
         <v>1</v>
@@ -42591,16 +42663,16 @@
     </row>
     <row r="2010" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2010" s="36" t="s">
-        <v>2459</v>
+        <v>2451</v>
       </c>
       <c r="B2010" s="36" t="s">
-        <v>2448</v>
+        <v>2440</v>
       </c>
       <c r="C2010" s="36" t="s">
         <v>262</v>
       </c>
       <c r="D2010" s="36" t="s">
-        <v>2443</v>
+        <v>2435</v>
       </c>
       <c r="E2010" s="13">
         <v>1</v>
@@ -42608,16 +42680,16 @@
     </row>
     <row r="2011" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2011" s="36" t="s">
-        <v>2460</v>
+        <v>2452</v>
       </c>
       <c r="B2011" s="36" t="s">
-        <v>2448</v>
+        <v>2440</v>
       </c>
       <c r="C2011" s="36" t="s">
         <v>247</v>
       </c>
       <c r="D2011" s="36" t="s">
-        <v>2444</v>
+        <v>2436</v>
       </c>
       <c r="E2011" s="13">
         <v>1</v>
@@ -42625,16 +42697,16 @@
     </row>
     <row r="2012" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2012" s="36" t="s">
-        <v>2461</v>
+        <v>2453</v>
       </c>
       <c r="B2012" s="36" t="s">
-        <v>2448</v>
+        <v>2440</v>
       </c>
       <c r="C2012" s="36" t="s">
         <v>263</v>
       </c>
       <c r="D2012" s="36" t="s">
-        <v>2445</v>
+        <v>2437</v>
       </c>
       <c r="E2012" s="13">
         <v>1</v>
@@ -42642,16 +42714,16 @@
     </row>
     <row r="2013" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2013" s="36" t="s">
-        <v>2462</v>
+        <v>2454</v>
       </c>
       <c r="B2013" s="36" t="s">
-        <v>2448</v>
+        <v>2440</v>
       </c>
       <c r="C2013" s="36" t="s">
         <v>252</v>
       </c>
       <c r="D2013" s="36" t="s">
-        <v>2446</v>
+        <v>2438</v>
       </c>
       <c r="E2013" s="13">
         <v>1</v>
@@ -42659,16 +42731,16 @@
     </row>
     <row r="2014" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2014" s="36" t="s">
-        <v>2463</v>
+        <v>2455</v>
       </c>
       <c r="B2014" s="36" t="s">
-        <v>2448</v>
+        <v>2440</v>
       </c>
       <c r="C2014" s="36" t="s">
         <v>231</v>
       </c>
       <c r="D2014" s="36" t="s">
-        <v>2447</v>
+        <v>2439</v>
       </c>
       <c r="E2014" s="13">
         <v>1</v>
@@ -42676,16 +42748,16 @@
     </row>
     <row r="2015" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2015" s="35" t="s">
-        <v>2464</v>
+        <v>2456</v>
       </c>
       <c r="B2015" s="35" t="s">
-        <v>2449</v>
+        <v>2441</v>
       </c>
       <c r="C2015" s="35" t="s">
         <v>2</v>
       </c>
       <c r="D2015" s="35" t="s">
-        <v>2440</v>
+        <v>2432</v>
       </c>
       <c r="E2015" s="13">
         <v>1</v>
@@ -42693,16 +42765,16 @@
     </row>
     <row r="2016" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2016" s="35" t="s">
-        <v>2465</v>
+        <v>2457</v>
       </c>
       <c r="B2016" s="35" t="s">
-        <v>2449</v>
+        <v>2441</v>
       </c>
       <c r="C2016" s="35" t="s">
         <v>230</v>
       </c>
       <c r="D2016" s="35" t="s">
-        <v>2441</v>
+        <v>2433</v>
       </c>
       <c r="E2016" s="13">
         <v>1</v>
@@ -42710,16 +42782,16 @@
     </row>
     <row r="2017" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2017" s="35" t="s">
-        <v>2466</v>
+        <v>2458</v>
       </c>
       <c r="B2017" s="35" t="s">
-        <v>2449</v>
+        <v>2441</v>
       </c>
       <c r="C2017" s="35" t="s">
         <v>952</v>
       </c>
       <c r="D2017" s="35" t="s">
-        <v>2442</v>
+        <v>2434</v>
       </c>
       <c r="E2017" s="13">
         <v>1</v>
@@ -42727,16 +42799,16 @@
     </row>
     <row r="2018" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2018" s="35" t="s">
-        <v>2467</v>
+        <v>2459</v>
       </c>
       <c r="B2018" s="35" t="s">
-        <v>2449</v>
+        <v>2441</v>
       </c>
       <c r="C2018" s="35" t="s">
         <v>262</v>
       </c>
       <c r="D2018" s="35" t="s">
-        <v>2443</v>
+        <v>2435</v>
       </c>
       <c r="E2018" s="13">
         <v>1</v>
@@ -42744,16 +42816,16 @@
     </row>
     <row r="2019" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2019" s="35" t="s">
-        <v>2468</v>
+        <v>2460</v>
       </c>
       <c r="B2019" s="35" t="s">
-        <v>2449</v>
+        <v>2441</v>
       </c>
       <c r="C2019" s="35" t="s">
         <v>247</v>
       </c>
       <c r="D2019" s="35" t="s">
-        <v>2444</v>
+        <v>2436</v>
       </c>
       <c r="E2019" s="13">
         <v>1</v>
@@ -42761,16 +42833,16 @@
     </row>
     <row r="2020" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2020" s="35" t="s">
-        <v>2469</v>
+        <v>2461</v>
       </c>
       <c r="B2020" s="35" t="s">
-        <v>2449</v>
+        <v>2441</v>
       </c>
       <c r="C2020" s="35" t="s">
         <v>263</v>
       </c>
       <c r="D2020" s="35" t="s">
-        <v>2445</v>
+        <v>2437</v>
       </c>
       <c r="E2020" s="13">
         <v>1</v>
@@ -42778,16 +42850,16 @@
     </row>
     <row r="2021" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2021" s="35" t="s">
-        <v>2470</v>
+        <v>2462</v>
       </c>
       <c r="B2021" s="35" t="s">
-        <v>2449</v>
+        <v>2441</v>
       </c>
       <c r="C2021" s="35" t="s">
         <v>252</v>
       </c>
       <c r="D2021" s="35" t="s">
-        <v>2446</v>
+        <v>2438</v>
       </c>
       <c r="E2021" s="13">
         <v>1</v>
@@ -42795,16 +42867,16 @@
     </row>
     <row r="2022" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2022" s="35" t="s">
-        <v>2471</v>
+        <v>2463</v>
       </c>
       <c r="B2022" s="35" t="s">
-        <v>2449</v>
+        <v>2441</v>
       </c>
       <c r="C2022" s="35" t="s">
         <v>231</v>
       </c>
       <c r="D2022" s="35" t="s">
-        <v>2447</v>
+        <v>2439</v>
       </c>
       <c r="E2022" s="13">
         <v>1</v>
@@ -42812,16 +42884,16 @@
     </row>
     <row r="2023" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2023" s="36" t="s">
-        <v>2472</v>
+        <v>2464</v>
       </c>
       <c r="B2023" s="36" t="s">
-        <v>2450</v>
+        <v>2442</v>
       </c>
       <c r="C2023" s="36" t="s">
         <v>2</v>
       </c>
       <c r="D2023" s="36" t="s">
-        <v>2440</v>
+        <v>2432</v>
       </c>
       <c r="E2023" s="13">
         <v>1</v>
@@ -42829,16 +42901,16 @@
     </row>
     <row r="2024" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2024" s="36" t="s">
-        <v>2473</v>
+        <v>2465</v>
       </c>
       <c r="B2024" s="36" t="s">
-        <v>2450</v>
+        <v>2442</v>
       </c>
       <c r="C2024" s="36" t="s">
         <v>230</v>
       </c>
       <c r="D2024" s="36" t="s">
-        <v>2441</v>
+        <v>2433</v>
       </c>
       <c r="E2024" s="13">
         <v>1</v>
@@ -42846,16 +42918,16 @@
     </row>
     <row r="2025" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2025" s="36" t="s">
-        <v>2474</v>
+        <v>2466</v>
       </c>
       <c r="B2025" s="36" t="s">
-        <v>2450</v>
+        <v>2442</v>
       </c>
       <c r="C2025" s="36" t="s">
         <v>952</v>
       </c>
       <c r="D2025" s="36" t="s">
-        <v>2442</v>
+        <v>2434</v>
       </c>
       <c r="E2025" s="13">
         <v>1</v>
@@ -42863,16 +42935,16 @@
     </row>
     <row r="2026" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2026" s="36" t="s">
-        <v>2475</v>
+        <v>2467</v>
       </c>
       <c r="B2026" s="36" t="s">
-        <v>2450</v>
+        <v>2442</v>
       </c>
       <c r="C2026" s="36" t="s">
         <v>262</v>
       </c>
       <c r="D2026" s="36" t="s">
-        <v>2443</v>
+        <v>2435</v>
       </c>
       <c r="E2026" s="13">
         <v>1</v>
@@ -42880,16 +42952,16 @@
     </row>
     <row r="2027" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2027" s="36" t="s">
-        <v>2476</v>
+        <v>2468</v>
       </c>
       <c r="B2027" s="36" t="s">
-        <v>2450</v>
+        <v>2442</v>
       </c>
       <c r="C2027" s="36" t="s">
         <v>247</v>
       </c>
       <c r="D2027" s="36" t="s">
-        <v>2444</v>
+        <v>2436</v>
       </c>
       <c r="E2027" s="13">
         <v>1</v>
@@ -42897,16 +42969,16 @@
     </row>
     <row r="2028" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2028" s="36" t="s">
-        <v>2477</v>
+        <v>2469</v>
       </c>
       <c r="B2028" s="36" t="s">
-        <v>2450</v>
+        <v>2442</v>
       </c>
       <c r="C2028" s="36" t="s">
         <v>263</v>
       </c>
       <c r="D2028" s="36" t="s">
-        <v>2445</v>
+        <v>2437</v>
       </c>
       <c r="E2028" s="13">
         <v>1</v>
@@ -42914,16 +42986,16 @@
     </row>
     <row r="2029" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2029" s="36" t="s">
-        <v>2478</v>
+        <v>2470</v>
       </c>
       <c r="B2029" s="36" t="s">
-        <v>2450</v>
+        <v>2442</v>
       </c>
       <c r="C2029" s="36" t="s">
         <v>252</v>
       </c>
       <c r="D2029" s="36" t="s">
-        <v>2446</v>
+        <v>2438</v>
       </c>
       <c r="E2029" s="13">
         <v>1</v>
@@ -42931,16 +43003,16 @@
     </row>
     <row r="2030" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2030" s="36" t="s">
-        <v>2479</v>
+        <v>2471</v>
       </c>
       <c r="B2030" s="36" t="s">
-        <v>2450</v>
+        <v>2442</v>
       </c>
       <c r="C2030" s="36" t="s">
         <v>231</v>
       </c>
       <c r="D2030" s="36" t="s">
-        <v>2447</v>
+        <v>2439</v>
       </c>
       <c r="E2030" s="13">
         <v>1</v>
@@ -42948,16 +43020,16 @@
     </row>
     <row r="2031" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2031" s="35" t="s">
-        <v>2480</v>
+        <v>2472</v>
       </c>
       <c r="B2031" s="35" t="s">
-        <v>2451</v>
+        <v>2443</v>
       </c>
       <c r="C2031" s="35" t="s">
         <v>2</v>
       </c>
       <c r="D2031" s="35" t="s">
-        <v>2440</v>
+        <v>2432</v>
       </c>
       <c r="E2031" s="13">
         <v>1</v>
@@ -42965,16 +43037,16 @@
     </row>
     <row r="2032" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2032" s="35" t="s">
-        <v>2481</v>
+        <v>2473</v>
       </c>
       <c r="B2032" s="35" t="s">
-        <v>2451</v>
+        <v>2443</v>
       </c>
       <c r="C2032" s="35" t="s">
         <v>230</v>
       </c>
       <c r="D2032" s="35" t="s">
-        <v>2441</v>
+        <v>2433</v>
       </c>
       <c r="E2032" s="13">
         <v>1</v>
@@ -42982,16 +43054,16 @@
     </row>
     <row r="2033" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2033" s="35" t="s">
-        <v>2482</v>
+        <v>2474</v>
       </c>
       <c r="B2033" s="35" t="s">
-        <v>2451</v>
+        <v>2443</v>
       </c>
       <c r="C2033" s="35" t="s">
         <v>952</v>
       </c>
       <c r="D2033" s="35" t="s">
-        <v>2442</v>
+        <v>2434</v>
       </c>
       <c r="E2033" s="13">
         <v>1</v>
@@ -42999,16 +43071,16 @@
     </row>
     <row r="2034" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2034" s="35" t="s">
-        <v>2483</v>
+        <v>2475</v>
       </c>
       <c r="B2034" s="35" t="s">
-        <v>2451</v>
+        <v>2443</v>
       </c>
       <c r="C2034" s="35" t="s">
         <v>262</v>
       </c>
       <c r="D2034" s="35" t="s">
-        <v>2443</v>
+        <v>2435</v>
       </c>
       <c r="E2034" s="13">
         <v>1</v>
@@ -43016,16 +43088,16 @@
     </row>
     <row r="2035" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2035" s="35" t="s">
-        <v>2484</v>
+        <v>2476</v>
       </c>
       <c r="B2035" s="35" t="s">
-        <v>2451</v>
+        <v>2443</v>
       </c>
       <c r="C2035" s="35" t="s">
         <v>247</v>
       </c>
       <c r="D2035" s="35" t="s">
-        <v>2444</v>
+        <v>2436</v>
       </c>
       <c r="E2035" s="13">
         <v>1</v>
@@ -43033,16 +43105,16 @@
     </row>
     <row r="2036" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2036" s="35" t="s">
-        <v>2485</v>
+        <v>2477</v>
       </c>
       <c r="B2036" s="35" t="s">
-        <v>2451</v>
+        <v>2443</v>
       </c>
       <c r="C2036" s="35" t="s">
         <v>263</v>
       </c>
       <c r="D2036" s="35" t="s">
-        <v>2445</v>
+        <v>2437</v>
       </c>
       <c r="E2036" s="13">
         <v>1</v>
@@ -43050,16 +43122,16 @@
     </row>
     <row r="2037" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2037" s="35" t="s">
-        <v>2486</v>
+        <v>2478</v>
       </c>
       <c r="B2037" s="35" t="s">
-        <v>2451</v>
+        <v>2443</v>
       </c>
       <c r="C2037" s="35" t="s">
         <v>252</v>
       </c>
       <c r="D2037" s="35" t="s">
-        <v>2446</v>
+        <v>2438</v>
       </c>
       <c r="E2037" s="13">
         <v>1</v>
@@ -43067,16 +43139,16 @@
     </row>
     <row r="2038" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2038" s="35" t="s">
-        <v>2487</v>
+        <v>2479</v>
       </c>
       <c r="B2038" s="35" t="s">
-        <v>2451</v>
+        <v>2443</v>
       </c>
       <c r="C2038" s="35" t="s">
         <v>231</v>
       </c>
       <c r="D2038" s="35" t="s">
-        <v>2447</v>
+        <v>2439</v>
       </c>
       <c r="E2038" s="13">
         <v>1</v>
@@ -43084,16 +43156,16 @@
     </row>
     <row r="2039" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2039" s="36" t="s">
-        <v>2488</v>
+        <v>2480</v>
       </c>
       <c r="B2039" s="36" t="s">
-        <v>2452</v>
+        <v>2444</v>
       </c>
       <c r="C2039" s="36" t="s">
         <v>2</v>
       </c>
       <c r="D2039" s="36" t="s">
-        <v>2440</v>
+        <v>2432</v>
       </c>
       <c r="E2039" s="13">
         <v>1</v>
@@ -43101,16 +43173,16 @@
     </row>
     <row r="2040" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2040" s="36" t="s">
-        <v>2489</v>
+        <v>2481</v>
       </c>
       <c r="B2040" s="36" t="s">
-        <v>2452</v>
+        <v>2444</v>
       </c>
       <c r="C2040" s="36" t="s">
         <v>230</v>
       </c>
       <c r="D2040" s="36" t="s">
-        <v>2441</v>
+        <v>2433</v>
       </c>
       <c r="E2040" s="13">
         <v>1</v>
@@ -43118,16 +43190,16 @@
     </row>
     <row r="2041" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2041" s="36" t="s">
-        <v>2490</v>
+        <v>2482</v>
       </c>
       <c r="B2041" s="36" t="s">
-        <v>2452</v>
+        <v>2444</v>
       </c>
       <c r="C2041" s="36" t="s">
         <v>952</v>
       </c>
       <c r="D2041" s="36" t="s">
-        <v>2442</v>
+        <v>2434</v>
       </c>
       <c r="E2041" s="13">
         <v>1</v>
@@ -43135,16 +43207,16 @@
     </row>
     <row r="2042" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2042" s="36" t="s">
-        <v>2491</v>
+        <v>2483</v>
       </c>
       <c r="B2042" s="36" t="s">
-        <v>2452</v>
+        <v>2444</v>
       </c>
       <c r="C2042" s="36" t="s">
         <v>262</v>
       </c>
       <c r="D2042" s="36" t="s">
-        <v>2443</v>
+        <v>2435</v>
       </c>
       <c r="E2042" s="13">
         <v>1</v>
@@ -43152,16 +43224,16 @@
     </row>
     <row r="2043" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2043" s="36" t="s">
-        <v>2492</v>
+        <v>2484</v>
       </c>
       <c r="B2043" s="36" t="s">
-        <v>2452</v>
+        <v>2444</v>
       </c>
       <c r="C2043" s="36" t="s">
         <v>247</v>
       </c>
       <c r="D2043" s="36" t="s">
-        <v>2444</v>
+        <v>2436</v>
       </c>
       <c r="E2043" s="13">
         <v>1</v>
@@ -43169,16 +43241,16 @@
     </row>
     <row r="2044" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2044" s="36" t="s">
-        <v>2493</v>
+        <v>2485</v>
       </c>
       <c r="B2044" s="36" t="s">
-        <v>2452</v>
+        <v>2444</v>
       </c>
       <c r="C2044" s="36" t="s">
         <v>263</v>
       </c>
       <c r="D2044" s="36" t="s">
-        <v>2445</v>
+        <v>2437</v>
       </c>
       <c r="E2044" s="13">
         <v>1</v>
@@ -43186,16 +43258,16 @@
     </row>
     <row r="2045" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2045" s="36" t="s">
-        <v>2494</v>
+        <v>2486</v>
       </c>
       <c r="B2045" s="36" t="s">
-        <v>2452</v>
+        <v>2444</v>
       </c>
       <c r="C2045" s="36" t="s">
         <v>252</v>
       </c>
       <c r="D2045" s="36" t="s">
-        <v>2446</v>
+        <v>2438</v>
       </c>
       <c r="E2045" s="13">
         <v>1</v>
@@ -43203,16 +43275,16 @@
     </row>
     <row r="2046" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2046" s="36" t="s">
-        <v>2495</v>
+        <v>2487</v>
       </c>
       <c r="B2046" s="36" t="s">
-        <v>2452</v>
+        <v>2444</v>
       </c>
       <c r="C2046" s="36" t="s">
         <v>231</v>
       </c>
       <c r="D2046" s="36" t="s">
-        <v>2447</v>
+        <v>2439</v>
       </c>
       <c r="E2046" s="13">
         <v>1</v>
@@ -43220,16 +43292,16 @@
     </row>
     <row r="2047" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2047" s="35" t="s">
-        <v>2496</v>
+        <v>2488</v>
       </c>
       <c r="B2047" s="35" t="s">
-        <v>2453</v>
+        <v>2445</v>
       </c>
       <c r="C2047" s="35" t="s">
         <v>2</v>
       </c>
       <c r="D2047" s="35" t="s">
-        <v>2440</v>
+        <v>2432</v>
       </c>
       <c r="E2047" s="13">
         <v>1</v>
@@ -43237,16 +43309,16 @@
     </row>
     <row r="2048" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2048" s="35" t="s">
-        <v>2497</v>
+        <v>2489</v>
       </c>
       <c r="B2048" s="35" t="s">
-        <v>2453</v>
+        <v>2445</v>
       </c>
       <c r="C2048" s="35" t="s">
         <v>230</v>
       </c>
       <c r="D2048" s="35" t="s">
-        <v>2441</v>
+        <v>2433</v>
       </c>
       <c r="E2048" s="13">
         <v>1</v>
@@ -43254,16 +43326,16 @@
     </row>
     <row r="2049" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2049" s="35" t="s">
-        <v>2498</v>
+        <v>2490</v>
       </c>
       <c r="B2049" s="35" t="s">
-        <v>2453</v>
+        <v>2445</v>
       </c>
       <c r="C2049" s="35" t="s">
         <v>952</v>
       </c>
       <c r="D2049" s="35" t="s">
-        <v>2442</v>
+        <v>2434</v>
       </c>
       <c r="E2049" s="13">
         <v>1</v>
@@ -43271,16 +43343,16 @@
     </row>
     <row r="2050" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2050" s="35" t="s">
-        <v>2499</v>
+        <v>2491</v>
       </c>
       <c r="B2050" s="35" t="s">
-        <v>2453</v>
+        <v>2445</v>
       </c>
       <c r="C2050" s="35" t="s">
         <v>262</v>
       </c>
       <c r="D2050" s="35" t="s">
-        <v>2443</v>
+        <v>2435</v>
       </c>
       <c r="E2050" s="13">
         <v>1</v>
@@ -43288,16 +43360,16 @@
     </row>
     <row r="2051" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2051" s="35" t="s">
-        <v>2500</v>
+        <v>2492</v>
       </c>
       <c r="B2051" s="35" t="s">
-        <v>2453</v>
+        <v>2445</v>
       </c>
       <c r="C2051" s="35" t="s">
         <v>247</v>
       </c>
       <c r="D2051" s="35" t="s">
-        <v>2444</v>
+        <v>2436</v>
       </c>
       <c r="E2051" s="13">
         <v>1</v>
@@ -43305,16 +43377,16 @@
     </row>
     <row r="2052" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2052" s="35" t="s">
-        <v>2501</v>
+        <v>2493</v>
       </c>
       <c r="B2052" s="35" t="s">
-        <v>2453</v>
+        <v>2445</v>
       </c>
       <c r="C2052" s="35" t="s">
         <v>263</v>
       </c>
       <c r="D2052" s="35" t="s">
-        <v>2445</v>
+        <v>2437</v>
       </c>
       <c r="E2052" s="13">
         <v>1</v>
@@ -43322,16 +43394,16 @@
     </row>
     <row r="2053" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2053" s="35" t="s">
-        <v>2502</v>
+        <v>2494</v>
       </c>
       <c r="B2053" s="35" t="s">
-        <v>2453</v>
+        <v>2445</v>
       </c>
       <c r="C2053" s="35" t="s">
         <v>252</v>
       </c>
       <c r="D2053" s="35" t="s">
-        <v>2446</v>
+        <v>2438</v>
       </c>
       <c r="E2053" s="13">
         <v>1</v>
@@ -43339,16 +43411,16 @@
     </row>
     <row r="2054" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2054" s="35" t="s">
-        <v>2503</v>
+        <v>2495</v>
       </c>
       <c r="B2054" s="35" t="s">
-        <v>2453</v>
+        <v>2445</v>
       </c>
       <c r="C2054" s="35" t="s">
         <v>231</v>
       </c>
       <c r="D2054" s="35" t="s">
-        <v>2447</v>
+        <v>2439</v>
       </c>
       <c r="E2054" s="13">
         <v>1</v>
@@ -43356,16 +43428,16 @@
     </row>
     <row r="2055" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2055" s="36" t="s">
-        <v>2504</v>
+        <v>2496</v>
       </c>
       <c r="B2055" s="36" t="s">
-        <v>2454</v>
+        <v>2446</v>
       </c>
       <c r="C2055" s="36" t="s">
         <v>2</v>
       </c>
       <c r="D2055" s="36" t="s">
-        <v>2440</v>
+        <v>2432</v>
       </c>
       <c r="E2055" s="13">
         <v>1</v>
@@ -43373,16 +43445,16 @@
     </row>
     <row r="2056" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2056" s="36" t="s">
-        <v>2505</v>
+        <v>2497</v>
       </c>
       <c r="B2056" s="36" t="s">
-        <v>2454</v>
+        <v>2446</v>
       </c>
       <c r="C2056" s="36" t="s">
         <v>230</v>
       </c>
       <c r="D2056" s="36" t="s">
-        <v>2441</v>
+        <v>2433</v>
       </c>
       <c r="E2056" s="13">
         <v>1</v>
@@ -43390,16 +43462,16 @@
     </row>
     <row r="2057" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2057" s="36" t="s">
-        <v>2506</v>
+        <v>2498</v>
       </c>
       <c r="B2057" s="36" t="s">
-        <v>2454</v>
+        <v>2446</v>
       </c>
       <c r="C2057" s="36" t="s">
         <v>952</v>
       </c>
       <c r="D2057" s="36" t="s">
-        <v>2442</v>
+        <v>2434</v>
       </c>
       <c r="E2057" s="13">
         <v>1</v>
@@ -43407,16 +43479,16 @@
     </row>
     <row r="2058" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2058" s="36" t="s">
-        <v>2507</v>
+        <v>2499</v>
       </c>
       <c r="B2058" s="36" t="s">
-        <v>2454</v>
+        <v>2446</v>
       </c>
       <c r="C2058" s="36" t="s">
         <v>262</v>
       </c>
       <c r="D2058" s="36" t="s">
-        <v>2443</v>
+        <v>2435</v>
       </c>
       <c r="E2058" s="13">
         <v>1</v>
@@ -43424,16 +43496,16 @@
     </row>
     <row r="2059" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2059" s="36" t="s">
-        <v>2508</v>
+        <v>2500</v>
       </c>
       <c r="B2059" s="36" t="s">
-        <v>2454</v>
+        <v>2446</v>
       </c>
       <c r="C2059" s="36" t="s">
         <v>247</v>
       </c>
       <c r="D2059" s="36" t="s">
-        <v>2444</v>
+        <v>2436</v>
       </c>
       <c r="E2059" s="13">
         <v>1</v>
@@ -43441,16 +43513,16 @@
     </row>
     <row r="2060" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2060" s="36" t="s">
-        <v>2509</v>
+        <v>2501</v>
       </c>
       <c r="B2060" s="36" t="s">
-        <v>2454</v>
+        <v>2446</v>
       </c>
       <c r="C2060" s="36" t="s">
         <v>263</v>
       </c>
       <c r="D2060" s="36" t="s">
-        <v>2445</v>
+        <v>2437</v>
       </c>
       <c r="E2060" s="13">
         <v>1</v>
@@ -43458,16 +43530,16 @@
     </row>
     <row r="2061" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2061" s="36" t="s">
-        <v>2510</v>
+        <v>2502</v>
       </c>
       <c r="B2061" s="36" t="s">
-        <v>2454</v>
+        <v>2446</v>
       </c>
       <c r="C2061" s="36" t="s">
         <v>252</v>
       </c>
       <c r="D2061" s="36" t="s">
-        <v>2446</v>
+        <v>2438</v>
       </c>
       <c r="E2061" s="13">
         <v>1</v>
@@ -43475,16 +43547,16 @@
     </row>
     <row r="2062" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2062" s="36" t="s">
-        <v>2511</v>
+        <v>2503</v>
       </c>
       <c r="B2062" s="36" t="s">
-        <v>2454</v>
+        <v>2446</v>
       </c>
       <c r="C2062" s="36" t="s">
         <v>231</v>
       </c>
       <c r="D2062" s="36" t="s">
-        <v>2447</v>
+        <v>2439</v>
       </c>
       <c r="E2062" s="13">
         <v>1</v>
@@ -43492,16 +43564,16 @@
     </row>
     <row r="2063" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2063" s="35" t="s">
-        <v>2512</v>
+        <v>2504</v>
       </c>
       <c r="B2063" s="35" t="s">
-        <v>2455</v>
+        <v>2447</v>
       </c>
       <c r="C2063" s="35" t="s">
         <v>2</v>
       </c>
       <c r="D2063" s="35" t="s">
-        <v>2440</v>
+        <v>2432</v>
       </c>
       <c r="E2063" s="13">
         <v>1</v>
@@ -43509,16 +43581,16 @@
     </row>
     <row r="2064" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2064" s="35" t="s">
-        <v>2513</v>
+        <v>2505</v>
       </c>
       <c r="B2064" s="35" t="s">
-        <v>2455</v>
+        <v>2447</v>
       </c>
       <c r="C2064" s="35" t="s">
         <v>230</v>
       </c>
       <c r="D2064" s="35" t="s">
-        <v>2441</v>
+        <v>2433</v>
       </c>
       <c r="E2064" s="13">
         <v>1</v>
@@ -43526,16 +43598,16 @@
     </row>
     <row r="2065" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2065" s="35" t="s">
-        <v>2514</v>
+        <v>2506</v>
       </c>
       <c r="B2065" s="35" t="s">
-        <v>2455</v>
+        <v>2447</v>
       </c>
       <c r="C2065" s="35" t="s">
         <v>952</v>
       </c>
       <c r="D2065" s="35" t="s">
-        <v>2442</v>
+        <v>2434</v>
       </c>
       <c r="E2065" s="13">
         <v>1</v>
@@ -43543,16 +43615,16 @@
     </row>
     <row r="2066" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2066" s="35" t="s">
-        <v>2515</v>
+        <v>2507</v>
       </c>
       <c r="B2066" s="35" t="s">
-        <v>2455</v>
+        <v>2447</v>
       </c>
       <c r="C2066" s="35" t="s">
         <v>262</v>
       </c>
       <c r="D2066" s="35" t="s">
-        <v>2443</v>
+        <v>2435</v>
       </c>
       <c r="E2066" s="13">
         <v>1</v>
@@ -43560,16 +43632,16 @@
     </row>
     <row r="2067" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2067" s="35" t="s">
-        <v>2516</v>
+        <v>2508</v>
       </c>
       <c r="B2067" s="35" t="s">
-        <v>2455</v>
+        <v>2447</v>
       </c>
       <c r="C2067" s="35" t="s">
         <v>247</v>
       </c>
       <c r="D2067" s="35" t="s">
-        <v>2444</v>
+        <v>2436</v>
       </c>
       <c r="E2067" s="13">
         <v>1</v>
@@ -43577,16 +43649,16 @@
     </row>
     <row r="2068" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2068" s="35" t="s">
-        <v>2517</v>
+        <v>2509</v>
       </c>
       <c r="B2068" s="35" t="s">
-        <v>2455</v>
+        <v>2447</v>
       </c>
       <c r="C2068" s="35" t="s">
         <v>263</v>
       </c>
       <c r="D2068" s="35" t="s">
-        <v>2445</v>
+        <v>2437</v>
       </c>
       <c r="E2068" s="13">
         <v>1</v>
@@ -43594,16 +43666,16 @@
     </row>
     <row r="2069" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2069" s="35" t="s">
-        <v>2518</v>
+        <v>2510</v>
       </c>
       <c r="B2069" s="35" t="s">
-        <v>2455</v>
+        <v>2447</v>
       </c>
       <c r="C2069" s="35" t="s">
         <v>252</v>
       </c>
       <c r="D2069" s="35" t="s">
-        <v>2446</v>
+        <v>2438</v>
       </c>
       <c r="E2069" s="13">
         <v>1</v>
@@ -43611,16 +43683,16 @@
     </row>
     <row r="2070" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2070" s="35" t="s">
-        <v>2519</v>
+        <v>2511</v>
       </c>
       <c r="B2070" s="35" t="s">
-        <v>2455</v>
+        <v>2447</v>
       </c>
       <c r="C2070" s="35" t="s">
         <v>231</v>
       </c>
       <c r="D2070" s="35" t="s">
-        <v>2447</v>
+        <v>2439</v>
       </c>
       <c r="E2070" s="13">
         <v>1</v>
@@ -43628,16 +43700,16 @@
     </row>
     <row r="2071" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2071" s="51" t="s">
-        <v>2521</v>
+        <v>2513</v>
       </c>
       <c r="B2071" s="51" t="s">
-        <v>2525</v>
+        <v>2517</v>
       </c>
       <c r="C2071" s="51" t="s">
         <v>534</v>
       </c>
       <c r="D2071" s="66" t="s">
-        <v>2529</v>
+        <v>2521</v>
       </c>
       <c r="E2071" s="13">
         <v>1</v>
@@ -43645,16 +43717,16 @@
     </row>
     <row r="2072" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2072" s="51" t="s">
-        <v>2522</v>
+        <v>2514</v>
       </c>
       <c r="B2072" s="51" t="s">
-        <v>2526</v>
+        <v>2518</v>
       </c>
       <c r="C2072" s="51" t="s">
         <v>534</v>
       </c>
       <c r="D2072" s="66" t="s">
-        <v>2530</v>
+        <v>2522</v>
       </c>
       <c r="E2072" s="13">
         <v>1</v>
@@ -43662,16 +43734,16 @@
     </row>
     <row r="2073" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2073" s="51" t="s">
-        <v>2523</v>
+        <v>2515</v>
       </c>
       <c r="B2073" s="51" t="s">
-        <v>2527</v>
+        <v>2519</v>
       </c>
       <c r="C2073" s="51" t="s">
         <v>534</v>
       </c>
       <c r="D2073" s="66" t="s">
-        <v>2531</v>
+        <v>2523</v>
       </c>
       <c r="E2073" s="13">
         <v>1</v>
@@ -43679,16 +43751,16 @@
     </row>
     <row r="2074" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2074" s="51" t="s">
-        <v>2524</v>
+        <v>2516</v>
       </c>
       <c r="B2074" s="51" t="s">
-        <v>2528</v>
+        <v>2520</v>
       </c>
       <c r="C2074" s="51" t="s">
         <v>534</v>
       </c>
       <c r="D2074" s="66" t="s">
-        <v>2532</v>
+        <v>2524</v>
       </c>
       <c r="E2074" s="13">
         <v>1</v>
@@ -43696,16 +43768,16 @@
     </row>
     <row r="2075" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2075" s="35" t="s">
-        <v>2534</v>
+        <v>2526</v>
       </c>
       <c r="B2075" s="35" t="s">
-        <v>2533</v>
+        <v>2525</v>
       </c>
       <c r="C2075" s="35" t="s">
         <v>2</v>
       </c>
       <c r="D2075" s="35" t="s">
-        <v>2440</v>
+        <v>2432</v>
       </c>
       <c r="E2075" s="13">
         <v>1</v>
@@ -43713,16 +43785,16 @@
     </row>
     <row r="2076" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2076" s="35" t="s">
-        <v>2535</v>
+        <v>2527</v>
       </c>
       <c r="B2076" s="35" t="s">
-        <v>2533</v>
+        <v>2525</v>
       </c>
       <c r="C2076" s="35" t="s">
         <v>230</v>
       </c>
       <c r="D2076" s="35" t="s">
-        <v>2441</v>
+        <v>2433</v>
       </c>
       <c r="E2076" s="13">
         <v>1</v>
@@ -43730,16 +43802,16 @@
     </row>
     <row r="2077" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2077" s="35" t="s">
-        <v>2536</v>
+        <v>2528</v>
       </c>
       <c r="B2077" s="35" t="s">
-        <v>2533</v>
+        <v>2525</v>
       </c>
       <c r="C2077" s="35" t="s">
         <v>952</v>
       </c>
       <c r="D2077" s="35" t="s">
-        <v>2442</v>
+        <v>2434</v>
       </c>
       <c r="E2077" s="13">
         <v>1</v>
@@ -43747,16 +43819,16 @@
     </row>
     <row r="2078" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2078" s="35" t="s">
-        <v>2537</v>
+        <v>2529</v>
       </c>
       <c r="B2078" s="35" t="s">
-        <v>2533</v>
+        <v>2525</v>
       </c>
       <c r="C2078" s="35" t="s">
         <v>262</v>
       </c>
       <c r="D2078" s="35" t="s">
-        <v>2443</v>
+        <v>2435</v>
       </c>
       <c r="E2078" s="13">
         <v>1</v>
@@ -43764,16 +43836,16 @@
     </row>
     <row r="2079" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2079" s="35" t="s">
-        <v>2538</v>
+        <v>2530</v>
       </c>
       <c r="B2079" s="35" t="s">
-        <v>2533</v>
+        <v>2525</v>
       </c>
       <c r="C2079" s="35" t="s">
         <v>247</v>
       </c>
       <c r="D2079" s="35" t="s">
-        <v>2444</v>
+        <v>2436</v>
       </c>
       <c r="E2079" s="13">
         <v>1</v>
@@ -43781,16 +43853,16 @@
     </row>
     <row r="2080" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2080" s="35" t="s">
-        <v>2539</v>
+        <v>2531</v>
       </c>
       <c r="B2080" s="35" t="s">
-        <v>2533</v>
+        <v>2525</v>
       </c>
       <c r="C2080" s="35" t="s">
         <v>263</v>
       </c>
       <c r="D2080" s="35" t="s">
-        <v>2445</v>
+        <v>2437</v>
       </c>
       <c r="E2080" s="13">
         <v>1</v>
@@ -43798,16 +43870,16 @@
     </row>
     <row r="2081" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2081" s="35" t="s">
-        <v>2540</v>
+        <v>2532</v>
       </c>
       <c r="B2081" s="35" t="s">
-        <v>2533</v>
+        <v>2525</v>
       </c>
       <c r="C2081" s="35" t="s">
         <v>252</v>
       </c>
       <c r="D2081" s="35" t="s">
-        <v>2446</v>
+        <v>2438</v>
       </c>
       <c r="E2081" s="13">
         <v>1</v>
@@ -43815,16 +43887,16 @@
     </row>
     <row r="2082" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2082" s="35" t="s">
-        <v>2541</v>
+        <v>2533</v>
       </c>
       <c r="B2082" s="35" t="s">
-        <v>2533</v>
+        <v>2525</v>
       </c>
       <c r="C2082" s="35" t="s">
         <v>231</v>
       </c>
       <c r="D2082" s="35" t="s">
-        <v>2447</v>
+        <v>2439</v>
       </c>
       <c r="E2082" s="13">
         <v>1</v>
@@ -43832,16 +43904,16 @@
     </row>
     <row r="2083" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2083" s="36" t="s">
-        <v>2543</v>
+        <v>2535</v>
       </c>
       <c r="B2083" s="36" t="s">
-        <v>2542</v>
+        <v>2534</v>
       </c>
       <c r="C2083" s="36" t="s">
         <v>2</v>
       </c>
       <c r="D2083" s="36" t="s">
-        <v>2440</v>
+        <v>2432</v>
       </c>
       <c r="E2083" s="13">
         <v>1</v>
@@ -43849,16 +43921,16 @@
     </row>
     <row r="2084" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2084" s="36" t="s">
-        <v>2544</v>
+        <v>2536</v>
       </c>
       <c r="B2084" s="36" t="s">
-        <v>2542</v>
+        <v>2534</v>
       </c>
       <c r="C2084" s="36" t="s">
         <v>230</v>
       </c>
       <c r="D2084" s="36" t="s">
-        <v>2441</v>
+        <v>2433</v>
       </c>
       <c r="E2084" s="13">
         <v>1</v>
@@ -43866,16 +43938,16 @@
     </row>
     <row r="2085" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2085" s="36" t="s">
-        <v>2545</v>
+        <v>2537</v>
       </c>
       <c r="B2085" s="36" t="s">
-        <v>2542</v>
+        <v>2534</v>
       </c>
       <c r="C2085" s="36" t="s">
         <v>952</v>
       </c>
       <c r="D2085" s="36" t="s">
-        <v>2442</v>
+        <v>2434</v>
       </c>
       <c r="E2085" s="13">
         <v>1</v>
@@ -43883,16 +43955,16 @@
     </row>
     <row r="2086" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2086" s="36" t="s">
-        <v>2546</v>
+        <v>2538</v>
       </c>
       <c r="B2086" s="36" t="s">
-        <v>2542</v>
+        <v>2534</v>
       </c>
       <c r="C2086" s="36" t="s">
         <v>262</v>
       </c>
       <c r="D2086" s="36" t="s">
-        <v>2443</v>
+        <v>2435</v>
       </c>
       <c r="E2086" s="13">
         <v>1</v>
@@ -43900,16 +43972,16 @@
     </row>
     <row r="2087" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2087" s="36" t="s">
-        <v>2547</v>
+        <v>2539</v>
       </c>
       <c r="B2087" s="36" t="s">
-        <v>2542</v>
+        <v>2534</v>
       </c>
       <c r="C2087" s="36" t="s">
         <v>247</v>
       </c>
       <c r="D2087" s="36" t="s">
-        <v>2444</v>
+        <v>2436</v>
       </c>
       <c r="E2087" s="13">
         <v>1</v>
@@ -43917,16 +43989,16 @@
     </row>
     <row r="2088" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2088" s="36" t="s">
-        <v>2548</v>
+        <v>2540</v>
       </c>
       <c r="B2088" s="36" t="s">
-        <v>2542</v>
+        <v>2534</v>
       </c>
       <c r="C2088" s="36" t="s">
         <v>263</v>
       </c>
       <c r="D2088" s="36" t="s">
-        <v>2445</v>
+        <v>2437</v>
       </c>
       <c r="E2088" s="13">
         <v>1</v>
@@ -43934,16 +44006,16 @@
     </row>
     <row r="2089" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2089" s="36" t="s">
-        <v>2549</v>
+        <v>2541</v>
       </c>
       <c r="B2089" s="36" t="s">
-        <v>2542</v>
+        <v>2534</v>
       </c>
       <c r="C2089" s="36" t="s">
         <v>252</v>
       </c>
       <c r="D2089" s="36" t="s">
-        <v>2446</v>
+        <v>2438</v>
       </c>
       <c r="E2089" s="13">
         <v>1</v>
@@ -43951,16 +44023,16 @@
     </row>
     <row r="2090" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2090" s="36" t="s">
-        <v>2550</v>
+        <v>2542</v>
       </c>
       <c r="B2090" s="36" t="s">
-        <v>2542</v>
+        <v>2534</v>
       </c>
       <c r="C2090" s="36" t="s">
         <v>231</v>
       </c>
       <c r="D2090" s="36" t="s">
-        <v>2447</v>
+        <v>2439</v>
       </c>
       <c r="E2090" s="13">
         <v>1</v>
@@ -43968,16 +44040,16 @@
     </row>
     <row r="2091" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2091" s="35" t="s">
-        <v>2552</v>
+        <v>2544</v>
       </c>
       <c r="B2091" s="35" t="s">
-        <v>2551</v>
+        <v>2543</v>
       </c>
       <c r="C2091" s="35" t="s">
         <v>247</v>
       </c>
       <c r="D2091" s="35" t="s">
-        <v>2444</v>
+        <v>2436</v>
       </c>
       <c r="E2091" s="13">
         <v>1</v>
@@ -43985,16 +44057,16 @@
     </row>
     <row r="2092" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2092" s="35" t="s">
-        <v>2553</v>
+        <v>2545</v>
       </c>
       <c r="B2092" s="35" t="s">
-        <v>2551</v>
+        <v>2543</v>
       </c>
       <c r="C2092" s="35" t="s">
         <v>263</v>
       </c>
       <c r="D2092" s="35" t="s">
-        <v>2445</v>
+        <v>2437</v>
       </c>
       <c r="E2092" s="13">
         <v>1</v>
@@ -44002,16 +44074,16 @@
     </row>
     <row r="2093" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2093" s="36" t="s">
-        <v>2556</v>
+        <v>2548</v>
       </c>
       <c r="B2093" s="36" t="s">
-        <v>2554</v>
+        <v>2546</v>
       </c>
       <c r="C2093" s="36" t="s">
         <v>2</v>
       </c>
       <c r="D2093" s="36" t="s">
-        <v>2591</v>
+        <v>2583</v>
       </c>
       <c r="E2093" s="13">
         <v>1</v>
@@ -44019,16 +44091,16 @@
     </row>
     <row r="2094" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2094" s="36" t="s">
-        <v>2557</v>
+        <v>2549</v>
       </c>
       <c r="B2094" s="36" t="s">
-        <v>2554</v>
+        <v>2546</v>
       </c>
       <c r="C2094" s="36" t="s">
         <v>230</v>
       </c>
       <c r="D2094" s="36" t="s">
-        <v>2592</v>
+        <v>2584</v>
       </c>
       <c r="E2094" s="13">
         <v>1</v>
@@ -44036,16 +44108,16 @@
     </row>
     <row r="2095" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2095" s="36" t="s">
-        <v>2558</v>
+        <v>2550</v>
       </c>
       <c r="B2095" s="36" t="s">
-        <v>2554</v>
+        <v>2546</v>
       </c>
       <c r="C2095" s="36" t="s">
         <v>952</v>
       </c>
       <c r="D2095" s="36" t="s">
-        <v>2593</v>
+        <v>2585</v>
       </c>
       <c r="E2095" s="13">
         <v>1</v>
@@ -44053,16 +44125,16 @@
     </row>
     <row r="2096" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2096" s="36" t="s">
-        <v>2559</v>
+        <v>2551</v>
       </c>
       <c r="B2096" s="36" t="s">
-        <v>2554</v>
+        <v>2546</v>
       </c>
       <c r="C2096" s="36" t="s">
         <v>262</v>
       </c>
       <c r="D2096" s="36" t="s">
-        <v>2594</v>
+        <v>2586</v>
       </c>
       <c r="E2096" s="13">
         <v>1</v>
@@ -44070,16 +44142,16 @@
     </row>
     <row r="2097" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2097" s="36" t="s">
-        <v>2560</v>
+        <v>2552</v>
       </c>
       <c r="B2097" s="36" t="s">
-        <v>2554</v>
+        <v>2546</v>
       </c>
       <c r="C2097" s="36" t="s">
         <v>247</v>
       </c>
       <c r="D2097" s="36" t="s">
-        <v>2595</v>
+        <v>2587</v>
       </c>
       <c r="E2097" s="13">
         <v>1</v>
@@ -44087,16 +44159,16 @@
     </row>
     <row r="2098" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2098" s="36" t="s">
-        <v>2561</v>
+        <v>2553</v>
       </c>
       <c r="B2098" s="36" t="s">
-        <v>2554</v>
+        <v>2546</v>
       </c>
       <c r="C2098" s="36" t="s">
         <v>263</v>
       </c>
       <c r="D2098" s="36" t="s">
-        <v>2596</v>
+        <v>2588</v>
       </c>
       <c r="E2098" s="13">
         <v>1</v>
@@ -44104,16 +44176,16 @@
     </row>
     <row r="2099" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2099" s="36" t="s">
-        <v>2562</v>
+        <v>2554</v>
       </c>
       <c r="B2099" s="36" t="s">
-        <v>2554</v>
+        <v>2546</v>
       </c>
       <c r="C2099" s="36" t="s">
         <v>252</v>
       </c>
       <c r="D2099" s="36" t="s">
-        <v>2597</v>
+        <v>2589</v>
       </c>
       <c r="E2099" s="13">
         <v>1</v>
@@ -44121,16 +44193,16 @@
     </row>
     <row r="2100" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2100" s="36" t="s">
-        <v>2563</v>
+        <v>2555</v>
       </c>
       <c r="B2100" s="36" t="s">
-        <v>2554</v>
+        <v>2546</v>
       </c>
       <c r="C2100" s="36" t="s">
         <v>231</v>
       </c>
       <c r="D2100" s="36" t="s">
-        <v>2598</v>
+        <v>2590</v>
       </c>
       <c r="E2100" s="13">
         <v>1</v>
@@ -44138,16 +44210,16 @@
     </row>
     <row r="2101" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2101" s="35" t="s">
-        <v>2564</v>
+        <v>2556</v>
       </c>
       <c r="B2101" s="35" t="s">
-        <v>2555</v>
+        <v>2547</v>
       </c>
       <c r="C2101" s="35" t="s">
         <v>2</v>
       </c>
       <c r="D2101" s="35" t="s">
-        <v>2591</v>
+        <v>2583</v>
       </c>
       <c r="E2101" s="13">
         <v>1</v>
@@ -44155,16 +44227,16 @@
     </row>
     <row r="2102" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2102" s="35" t="s">
-        <v>2565</v>
+        <v>2557</v>
       </c>
       <c r="B2102" s="35" t="s">
-        <v>2555</v>
+        <v>2547</v>
       </c>
       <c r="C2102" s="35" t="s">
         <v>230</v>
       </c>
       <c r="D2102" s="35" t="s">
-        <v>2592</v>
+        <v>2584</v>
       </c>
       <c r="E2102" s="13">
         <v>1</v>
@@ -44172,16 +44244,16 @@
     </row>
     <row r="2103" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2103" s="35" t="s">
-        <v>2566</v>
+        <v>2558</v>
       </c>
       <c r="B2103" s="35" t="s">
-        <v>2555</v>
+        <v>2547</v>
       </c>
       <c r="C2103" s="35" t="s">
         <v>952</v>
       </c>
       <c r="D2103" s="35" t="s">
-        <v>2593</v>
+        <v>2585</v>
       </c>
       <c r="E2103" s="13">
         <v>1</v>
@@ -44189,16 +44261,16 @@
     </row>
     <row r="2104" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2104" s="35" t="s">
-        <v>2567</v>
+        <v>2559</v>
       </c>
       <c r="B2104" s="35" t="s">
-        <v>2555</v>
+        <v>2547</v>
       </c>
       <c r="C2104" s="35" t="s">
         <v>262</v>
       </c>
       <c r="D2104" s="35" t="s">
-        <v>2594</v>
+        <v>2586</v>
       </c>
       <c r="E2104" s="13">
         <v>1</v>
@@ -44206,16 +44278,16 @@
     </row>
     <row r="2105" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2105" s="35" t="s">
-        <v>2568</v>
+        <v>2560</v>
       </c>
       <c r="B2105" s="35" t="s">
-        <v>2555</v>
+        <v>2547</v>
       </c>
       <c r="C2105" s="35" t="s">
         <v>247</v>
       </c>
       <c r="D2105" s="35" t="s">
-        <v>2595</v>
+        <v>2587</v>
       </c>
       <c r="E2105" s="13">
         <v>1</v>
@@ -44223,16 +44295,16 @@
     </row>
     <row r="2106" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2106" s="35" t="s">
-        <v>2569</v>
+        <v>2561</v>
       </c>
       <c r="B2106" s="35" t="s">
-        <v>2555</v>
+        <v>2547</v>
       </c>
       <c r="C2106" s="35" t="s">
         <v>263</v>
       </c>
       <c r="D2106" s="35" t="s">
-        <v>2596</v>
+        <v>2588</v>
       </c>
       <c r="E2106" s="13">
         <v>1</v>
@@ -44240,16 +44312,16 @@
     </row>
     <row r="2107" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2107" s="35" t="s">
-        <v>2570</v>
+        <v>2562</v>
       </c>
       <c r="B2107" s="35" t="s">
-        <v>2555</v>
+        <v>2547</v>
       </c>
       <c r="C2107" s="35" t="s">
         <v>252</v>
       </c>
       <c r="D2107" s="35" t="s">
-        <v>2597</v>
+        <v>2589</v>
       </c>
       <c r="E2107" s="13">
         <v>1</v>
@@ -44257,16 +44329,16 @@
     </row>
     <row r="2108" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2108" s="35" t="s">
-        <v>2571</v>
+        <v>2563</v>
       </c>
       <c r="B2108" s="35" t="s">
-        <v>2555</v>
+        <v>2547</v>
       </c>
       <c r="C2108" s="35" t="s">
         <v>231</v>
       </c>
       <c r="D2108" s="35" t="s">
-        <v>2598</v>
+        <v>2590</v>
       </c>
       <c r="E2108" s="13">
         <v>1</v>
@@ -44274,16 +44346,16 @@
     </row>
     <row r="2109" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2109" s="36" t="s">
+        <v>2564</v>
+      </c>
+      <c r="B2109" s="36" t="s">
         <v>2572</v>
-      </c>
-      <c r="B2109" s="36" t="s">
-        <v>2580</v>
       </c>
       <c r="C2109" s="36" t="s">
         <v>2</v>
       </c>
       <c r="D2109" s="36" t="s">
-        <v>2591</v>
+        <v>2583</v>
       </c>
       <c r="E2109" s="13">
         <v>1</v>
@@ -44291,16 +44363,16 @@
     </row>
     <row r="2110" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2110" s="36" t="s">
-        <v>2573</v>
+        <v>2565</v>
       </c>
       <c r="B2110" s="36" t="s">
-        <v>2580</v>
+        <v>2572</v>
       </c>
       <c r="C2110" s="36" t="s">
         <v>230</v>
       </c>
       <c r="D2110" s="36" t="s">
-        <v>2592</v>
+        <v>2584</v>
       </c>
       <c r="E2110" s="13">
         <v>1</v>
@@ -44308,16 +44380,16 @@
     </row>
     <row r="2111" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2111" s="36" t="s">
-        <v>2574</v>
+        <v>2566</v>
       </c>
       <c r="B2111" s="36" t="s">
-        <v>2580</v>
+        <v>2572</v>
       </c>
       <c r="C2111" s="36" t="s">
         <v>952</v>
       </c>
       <c r="D2111" s="36" t="s">
-        <v>2593</v>
+        <v>2585</v>
       </c>
       <c r="E2111" s="13">
         <v>1</v>
@@ -44325,16 +44397,16 @@
     </row>
     <row r="2112" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2112" s="36" t="s">
-        <v>2575</v>
+        <v>2567</v>
       </c>
       <c r="B2112" s="36" t="s">
-        <v>2580</v>
+        <v>2572</v>
       </c>
       <c r="C2112" s="36" t="s">
         <v>262</v>
       </c>
       <c r="D2112" s="36" t="s">
-        <v>2594</v>
+        <v>2586</v>
       </c>
       <c r="E2112" s="13">
         <v>1</v>
@@ -44342,16 +44414,16 @@
     </row>
     <row r="2113" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2113" s="36" t="s">
-        <v>2576</v>
+        <v>2568</v>
       </c>
       <c r="B2113" s="36" t="s">
-        <v>2580</v>
+        <v>2572</v>
       </c>
       <c r="C2113" s="36" t="s">
         <v>247</v>
       </c>
       <c r="D2113" s="36" t="s">
-        <v>2595</v>
+        <v>2587</v>
       </c>
       <c r="E2113" s="13">
         <v>1</v>
@@ -44359,16 +44431,16 @@
     </row>
     <row r="2114" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2114" s="36" t="s">
-        <v>2577</v>
+        <v>2569</v>
       </c>
       <c r="B2114" s="36" t="s">
-        <v>2580</v>
+        <v>2572</v>
       </c>
       <c r="C2114" s="36" t="s">
         <v>263</v>
       </c>
       <c r="D2114" s="36" t="s">
-        <v>2596</v>
+        <v>2588</v>
       </c>
       <c r="E2114" s="13">
         <v>1</v>
@@ -44376,16 +44448,16 @@
     </row>
     <row r="2115" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2115" s="36" t="s">
-        <v>2578</v>
+        <v>2570</v>
       </c>
       <c r="B2115" s="36" t="s">
-        <v>2580</v>
+        <v>2572</v>
       </c>
       <c r="C2115" s="36" t="s">
         <v>252</v>
       </c>
       <c r="D2115" s="36" t="s">
-        <v>2597</v>
+        <v>2589</v>
       </c>
       <c r="E2115" s="13">
         <v>1</v>
@@ -44393,16 +44465,16 @@
     </row>
     <row r="2116" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2116" s="36" t="s">
-        <v>2579</v>
+        <v>2571</v>
       </c>
       <c r="B2116" s="36" t="s">
-        <v>2580</v>
+        <v>2572</v>
       </c>
       <c r="C2116" s="36" t="s">
         <v>231</v>
       </c>
       <c r="D2116" s="36" t="s">
-        <v>2598</v>
+        <v>2590</v>
       </c>
       <c r="E2116" s="13">
         <v>1</v>
@@ -44410,16 +44482,16 @@
     </row>
     <row r="2117" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2117" s="35" t="s">
-        <v>2599</v>
+        <v>2591</v>
       </c>
       <c r="B2117" s="35" t="s">
-        <v>2581</v>
+        <v>2573</v>
       </c>
       <c r="C2117" s="35" t="s">
         <v>2</v>
       </c>
       <c r="D2117" s="35" t="s">
-        <v>2591</v>
+        <v>2583</v>
       </c>
       <c r="E2117" s="13">
         <v>1</v>
@@ -44427,16 +44499,16 @@
     </row>
     <row r="2118" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2118" s="35" t="s">
-        <v>2600</v>
+        <v>2592</v>
       </c>
       <c r="B2118" s="35" t="s">
-        <v>2581</v>
+        <v>2573</v>
       </c>
       <c r="C2118" s="35" t="s">
         <v>230</v>
       </c>
       <c r="D2118" s="35" t="s">
-        <v>2592</v>
+        <v>2584</v>
       </c>
       <c r="E2118" s="13">
         <v>1</v>
@@ -44444,16 +44516,16 @@
     </row>
     <row r="2119" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2119" s="35" t="s">
-        <v>2601</v>
+        <v>2593</v>
       </c>
       <c r="B2119" s="35" t="s">
-        <v>2581</v>
+        <v>2573</v>
       </c>
       <c r="C2119" s="35" t="s">
         <v>952</v>
       </c>
       <c r="D2119" s="35" t="s">
-        <v>2593</v>
+        <v>2585</v>
       </c>
       <c r="E2119" s="13">
         <v>1</v>
@@ -44461,16 +44533,16 @@
     </row>
     <row r="2120" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2120" s="35" t="s">
-        <v>2602</v>
+        <v>2594</v>
       </c>
       <c r="B2120" s="35" t="s">
-        <v>2581</v>
+        <v>2573</v>
       </c>
       <c r="C2120" s="35" t="s">
         <v>262</v>
       </c>
       <c r="D2120" s="35" t="s">
-        <v>2594</v>
+        <v>2586</v>
       </c>
       <c r="E2120" s="13">
         <v>1</v>
@@ -44478,16 +44550,16 @@
     </row>
     <row r="2121" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2121" s="35" t="s">
-        <v>2603</v>
+        <v>2595</v>
       </c>
       <c r="B2121" s="35" t="s">
-        <v>2581</v>
+        <v>2573</v>
       </c>
       <c r="C2121" s="35" t="s">
         <v>247</v>
       </c>
       <c r="D2121" s="35" t="s">
-        <v>2595</v>
+        <v>2587</v>
       </c>
       <c r="E2121" s="13">
         <v>1</v>
@@ -44495,16 +44567,16 @@
     </row>
     <row r="2122" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2122" s="35" t="s">
-        <v>2604</v>
+        <v>2596</v>
       </c>
       <c r="B2122" s="35" t="s">
-        <v>2581</v>
+        <v>2573</v>
       </c>
       <c r="C2122" s="35" t="s">
         <v>263</v>
       </c>
       <c r="D2122" s="35" t="s">
-        <v>2596</v>
+        <v>2588</v>
       </c>
       <c r="E2122" s="13">
         <v>1</v>
@@ -44512,16 +44584,16 @@
     </row>
     <row r="2123" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2123" s="35" t="s">
-        <v>2605</v>
+        <v>2597</v>
       </c>
       <c r="B2123" s="35" t="s">
-        <v>2581</v>
+        <v>2573</v>
       </c>
       <c r="C2123" s="35" t="s">
         <v>252</v>
       </c>
       <c r="D2123" s="35" t="s">
-        <v>2597</v>
+        <v>2589</v>
       </c>
       <c r="E2123" s="13">
         <v>1</v>
@@ -44529,16 +44601,16 @@
     </row>
     <row r="2124" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2124" s="35" t="s">
-        <v>2606</v>
+        <v>2598</v>
       </c>
       <c r="B2124" s="35" t="s">
-        <v>2581</v>
+        <v>2573</v>
       </c>
       <c r="C2124" s="35" t="s">
         <v>231</v>
       </c>
       <c r="D2124" s="35" t="s">
-        <v>2598</v>
+        <v>2590</v>
       </c>
       <c r="E2124" s="13">
         <v>1</v>
@@ -44546,16 +44618,16 @@
     </row>
     <row r="2125" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2125" s="36" t="s">
-        <v>2607</v>
+        <v>2599</v>
       </c>
       <c r="B2125" s="36" t="s">
-        <v>2582</v>
+        <v>2574</v>
       </c>
       <c r="C2125" s="36" t="s">
         <v>2</v>
       </c>
       <c r="D2125" s="36" t="s">
-        <v>2591</v>
+        <v>2583</v>
       </c>
       <c r="E2125" s="13">
         <v>1</v>
@@ -44563,16 +44635,16 @@
     </row>
     <row r="2126" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2126" s="36" t="s">
-        <v>2608</v>
+        <v>2600</v>
       </c>
       <c r="B2126" s="36" t="s">
-        <v>2582</v>
+        <v>2574</v>
       </c>
       <c r="C2126" s="36" t="s">
         <v>230</v>
       </c>
       <c r="D2126" s="36" t="s">
-        <v>2592</v>
+        <v>2584</v>
       </c>
       <c r="E2126" s="13">
         <v>1</v>
@@ -44580,16 +44652,16 @@
     </row>
     <row r="2127" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2127" s="36" t="s">
-        <v>2609</v>
+        <v>2601</v>
       </c>
       <c r="B2127" s="36" t="s">
-        <v>2582</v>
+        <v>2574</v>
       </c>
       <c r="C2127" s="36" t="s">
         <v>952</v>
       </c>
       <c r="D2127" s="36" t="s">
-        <v>2593</v>
+        <v>2585</v>
       </c>
       <c r="E2127" s="13">
         <v>1</v>
@@ -44597,16 +44669,16 @@
     </row>
     <row r="2128" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2128" s="36" t="s">
-        <v>2610</v>
+        <v>2602</v>
       </c>
       <c r="B2128" s="36" t="s">
-        <v>2582</v>
+        <v>2574</v>
       </c>
       <c r="C2128" s="36" t="s">
         <v>262</v>
       </c>
       <c r="D2128" s="36" t="s">
-        <v>2594</v>
+        <v>2586</v>
       </c>
       <c r="E2128" s="13">
         <v>1</v>
@@ -44614,16 +44686,16 @@
     </row>
     <row r="2129" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2129" s="36" t="s">
-        <v>2611</v>
+        <v>2603</v>
       </c>
       <c r="B2129" s="36" t="s">
-        <v>2582</v>
+        <v>2574</v>
       </c>
       <c r="C2129" s="36" t="s">
         <v>247</v>
       </c>
       <c r="D2129" s="36" t="s">
-        <v>2595</v>
+        <v>2587</v>
       </c>
       <c r="E2129" s="13">
         <v>1</v>
@@ -44631,16 +44703,16 @@
     </row>
     <row r="2130" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2130" s="36" t="s">
-        <v>2612</v>
+        <v>2604</v>
       </c>
       <c r="B2130" s="36" t="s">
-        <v>2582</v>
+        <v>2574</v>
       </c>
       <c r="C2130" s="36" t="s">
         <v>263</v>
       </c>
       <c r="D2130" s="36" t="s">
-        <v>2596</v>
+        <v>2588</v>
       </c>
       <c r="E2130" s="13">
         <v>1</v>
@@ -44648,16 +44720,16 @@
     </row>
     <row r="2131" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2131" s="36" t="s">
-        <v>2613</v>
+        <v>2605</v>
       </c>
       <c r="B2131" s="36" t="s">
-        <v>2582</v>
+        <v>2574</v>
       </c>
       <c r="C2131" s="36" t="s">
         <v>252</v>
       </c>
       <c r="D2131" s="36" t="s">
-        <v>2597</v>
+        <v>2589</v>
       </c>
       <c r="E2131" s="13">
         <v>1</v>
@@ -44665,16 +44737,16 @@
     </row>
     <row r="2132" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2132" s="36" t="s">
-        <v>2614</v>
+        <v>2606</v>
       </c>
       <c r="B2132" s="36" t="s">
-        <v>2582</v>
+        <v>2574</v>
       </c>
       <c r="C2132" s="36" t="s">
         <v>231</v>
       </c>
       <c r="D2132" s="36" t="s">
-        <v>2598</v>
+        <v>2590</v>
       </c>
       <c r="E2132" s="13">
         <v>1</v>
@@ -44682,16 +44754,16 @@
     </row>
     <row r="2133" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2133" s="35" t="s">
-        <v>2615</v>
+        <v>2607</v>
       </c>
       <c r="B2133" s="35" t="s">
-        <v>2583</v>
+        <v>2575</v>
       </c>
       <c r="C2133" s="35" t="s">
         <v>2</v>
       </c>
       <c r="D2133" s="35" t="s">
-        <v>2591</v>
+        <v>2583</v>
       </c>
       <c r="E2133" s="13">
         <v>1</v>
@@ -44699,16 +44771,16 @@
     </row>
     <row r="2134" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2134" s="35" t="s">
-        <v>2616</v>
+        <v>2608</v>
       </c>
       <c r="B2134" s="35" t="s">
-        <v>2583</v>
+        <v>2575</v>
       </c>
       <c r="C2134" s="35" t="s">
         <v>230</v>
       </c>
       <c r="D2134" s="35" t="s">
-        <v>2592</v>
+        <v>2584</v>
       </c>
       <c r="E2134" s="13">
         <v>1</v>
@@ -44716,16 +44788,16 @@
     </row>
     <row r="2135" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2135" s="35" t="s">
-        <v>2617</v>
+        <v>2609</v>
       </c>
       <c r="B2135" s="35" t="s">
-        <v>2583</v>
+        <v>2575</v>
       </c>
       <c r="C2135" s="35" t="s">
         <v>952</v>
       </c>
       <c r="D2135" s="35" t="s">
-        <v>2593</v>
+        <v>2585</v>
       </c>
       <c r="E2135" s="13">
         <v>1</v>
@@ -44733,16 +44805,16 @@
     </row>
     <row r="2136" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2136" s="35" t="s">
-        <v>2618</v>
+        <v>2610</v>
       </c>
       <c r="B2136" s="35" t="s">
-        <v>2583</v>
+        <v>2575</v>
       </c>
       <c r="C2136" s="35" t="s">
         <v>262</v>
       </c>
       <c r="D2136" s="35" t="s">
-        <v>2594</v>
+        <v>2586</v>
       </c>
       <c r="E2136" s="13">
         <v>1</v>
@@ -44750,16 +44822,16 @@
     </row>
     <row r="2137" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2137" s="35" t="s">
-        <v>2619</v>
+        <v>2611</v>
       </c>
       <c r="B2137" s="35" t="s">
-        <v>2583</v>
+        <v>2575</v>
       </c>
       <c r="C2137" s="35" t="s">
         <v>247</v>
       </c>
       <c r="D2137" s="35" t="s">
-        <v>2595</v>
+        <v>2587</v>
       </c>
       <c r="E2137" s="13">
         <v>1</v>
@@ -44767,16 +44839,16 @@
     </row>
     <row r="2138" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2138" s="35" t="s">
-        <v>2620</v>
+        <v>2612</v>
       </c>
       <c r="B2138" s="35" t="s">
-        <v>2583</v>
+        <v>2575</v>
       </c>
       <c r="C2138" s="35" t="s">
         <v>263</v>
       </c>
       <c r="D2138" s="35" t="s">
-        <v>2596</v>
+        <v>2588</v>
       </c>
       <c r="E2138" s="13">
         <v>1</v>
@@ -44784,16 +44856,16 @@
     </row>
     <row r="2139" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2139" s="35" t="s">
-        <v>2621</v>
+        <v>2613</v>
       </c>
       <c r="B2139" s="35" t="s">
-        <v>2583</v>
+        <v>2575</v>
       </c>
       <c r="C2139" s="35" t="s">
         <v>252</v>
       </c>
       <c r="D2139" s="35" t="s">
-        <v>2597</v>
+        <v>2589</v>
       </c>
       <c r="E2139" s="13">
         <v>1</v>
@@ -44801,16 +44873,16 @@
     </row>
     <row r="2140" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2140" s="35" t="s">
-        <v>2622</v>
+        <v>2614</v>
       </c>
       <c r="B2140" s="35" t="s">
-        <v>2583</v>
+        <v>2575</v>
       </c>
       <c r="C2140" s="35" t="s">
         <v>231</v>
       </c>
       <c r="D2140" s="35" t="s">
-        <v>2598</v>
+        <v>2590</v>
       </c>
       <c r="E2140" s="13">
         <v>1</v>
@@ -44818,16 +44890,16 @@
     </row>
     <row r="2141" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2141" s="36" t="s">
-        <v>2623</v>
+        <v>2615</v>
       </c>
       <c r="B2141" s="36" t="s">
-        <v>2584</v>
+        <v>2576</v>
       </c>
       <c r="C2141" s="36" t="s">
         <v>2</v>
       </c>
       <c r="D2141" s="36" t="s">
-        <v>2591</v>
+        <v>2583</v>
       </c>
       <c r="E2141" s="13">
         <v>1</v>
@@ -44835,16 +44907,16 @@
     </row>
     <row r="2142" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2142" s="36" t="s">
-        <v>2624</v>
+        <v>2616</v>
       </c>
       <c r="B2142" s="36" t="s">
-        <v>2584</v>
+        <v>2576</v>
       </c>
       <c r="C2142" s="36" t="s">
         <v>230</v>
       </c>
       <c r="D2142" s="36" t="s">
-        <v>2592</v>
+        <v>2584</v>
       </c>
       <c r="E2142" s="13">
         <v>1</v>
@@ -44852,16 +44924,16 @@
     </row>
     <row r="2143" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2143" s="36" t="s">
-        <v>2625</v>
+        <v>2617</v>
       </c>
       <c r="B2143" s="36" t="s">
-        <v>2584</v>
+        <v>2576</v>
       </c>
       <c r="C2143" s="36" t="s">
         <v>952</v>
       </c>
       <c r="D2143" s="36" t="s">
-        <v>2593</v>
+        <v>2585</v>
       </c>
       <c r="E2143" s="13">
         <v>1</v>
@@ -44869,16 +44941,16 @@
     </row>
     <row r="2144" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2144" s="36" t="s">
-        <v>2626</v>
+        <v>2618</v>
       </c>
       <c r="B2144" s="36" t="s">
-        <v>2584</v>
+        <v>2576</v>
       </c>
       <c r="C2144" s="36" t="s">
         <v>262</v>
       </c>
       <c r="D2144" s="36" t="s">
-        <v>2594</v>
+        <v>2586</v>
       </c>
       <c r="E2144" s="13">
         <v>1</v>
@@ -44886,16 +44958,16 @@
     </row>
     <row r="2145" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2145" s="36" t="s">
-        <v>2627</v>
+        <v>2619</v>
       </c>
       <c r="B2145" s="36" t="s">
-        <v>2584</v>
+        <v>2576</v>
       </c>
       <c r="C2145" s="36" t="s">
         <v>247</v>
       </c>
       <c r="D2145" s="36" t="s">
-        <v>2595</v>
+        <v>2587</v>
       </c>
       <c r="E2145" s="13">
         <v>1</v>
@@ -44903,16 +44975,16 @@
     </row>
     <row r="2146" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2146" s="36" t="s">
-        <v>2628</v>
+        <v>2620</v>
       </c>
       <c r="B2146" s="36" t="s">
-        <v>2584</v>
+        <v>2576</v>
       </c>
       <c r="C2146" s="36" t="s">
         <v>263</v>
       </c>
       <c r="D2146" s="36" t="s">
-        <v>2596</v>
+        <v>2588</v>
       </c>
       <c r="E2146" s="13">
         <v>1</v>
@@ -44920,16 +44992,16 @@
     </row>
     <row r="2147" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2147" s="36" t="s">
-        <v>2629</v>
+        <v>2621</v>
       </c>
       <c r="B2147" s="36" t="s">
-        <v>2584</v>
+        <v>2576</v>
       </c>
       <c r="C2147" s="36" t="s">
         <v>252</v>
       </c>
       <c r="D2147" s="36" t="s">
-        <v>2597</v>
+        <v>2589</v>
       </c>
       <c r="E2147" s="13">
         <v>1</v>
@@ -44937,16 +45009,16 @@
     </row>
     <row r="2148" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2148" s="36" t="s">
-        <v>2630</v>
+        <v>2622</v>
       </c>
       <c r="B2148" s="36" t="s">
-        <v>2584</v>
+        <v>2576</v>
       </c>
       <c r="C2148" s="36" t="s">
         <v>231</v>
       </c>
       <c r="D2148" s="36" t="s">
-        <v>2598</v>
+        <v>2590</v>
       </c>
       <c r="E2148" s="13">
         <v>1</v>
@@ -44954,16 +45026,16 @@
     </row>
     <row r="2149" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2149" s="35" t="s">
-        <v>2631</v>
+        <v>2623</v>
       </c>
       <c r="B2149" s="35" t="s">
-        <v>2585</v>
+        <v>2577</v>
       </c>
       <c r="C2149" s="35" t="s">
         <v>2</v>
       </c>
       <c r="D2149" s="35" t="s">
-        <v>2591</v>
+        <v>2583</v>
       </c>
       <c r="E2149" s="13">
         <v>1</v>
@@ -44971,16 +45043,16 @@
     </row>
     <row r="2150" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2150" s="35" t="s">
-        <v>2632</v>
+        <v>2624</v>
       </c>
       <c r="B2150" s="35" t="s">
-        <v>2585</v>
+        <v>2577</v>
       </c>
       <c r="C2150" s="35" t="s">
         <v>230</v>
       </c>
       <c r="D2150" s="35" t="s">
-        <v>2592</v>
+        <v>2584</v>
       </c>
       <c r="E2150" s="13">
         <v>1</v>
@@ -44988,16 +45060,16 @@
     </row>
     <row r="2151" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2151" s="35" t="s">
-        <v>2633</v>
+        <v>2625</v>
       </c>
       <c r="B2151" s="35" t="s">
-        <v>2585</v>
+        <v>2577</v>
       </c>
       <c r="C2151" s="35" t="s">
         <v>952</v>
       </c>
       <c r="D2151" s="35" t="s">
-        <v>2593</v>
+        <v>2585</v>
       </c>
       <c r="E2151" s="13">
         <v>1</v>
@@ -45005,16 +45077,16 @@
     </row>
     <row r="2152" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2152" s="35" t="s">
-        <v>2634</v>
+        <v>2626</v>
       </c>
       <c r="B2152" s="35" t="s">
-        <v>2585</v>
+        <v>2577</v>
       </c>
       <c r="C2152" s="35" t="s">
         <v>262</v>
       </c>
       <c r="D2152" s="35" t="s">
-        <v>2594</v>
+        <v>2586</v>
       </c>
       <c r="E2152" s="13">
         <v>1</v>
@@ -45022,16 +45094,16 @@
     </row>
     <row r="2153" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2153" s="35" t="s">
-        <v>2635</v>
+        <v>2627</v>
       </c>
       <c r="B2153" s="35" t="s">
-        <v>2585</v>
+        <v>2577</v>
       </c>
       <c r="C2153" s="35" t="s">
         <v>247</v>
       </c>
       <c r="D2153" s="35" t="s">
-        <v>2595</v>
+        <v>2587</v>
       </c>
       <c r="E2153" s="13">
         <v>1</v>
@@ -45039,16 +45111,16 @@
     </row>
     <row r="2154" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2154" s="35" t="s">
-        <v>2636</v>
+        <v>2628</v>
       </c>
       <c r="B2154" s="35" t="s">
-        <v>2585</v>
+        <v>2577</v>
       </c>
       <c r="C2154" s="35" t="s">
         <v>263</v>
       </c>
       <c r="D2154" s="35" t="s">
-        <v>2596</v>
+        <v>2588</v>
       </c>
       <c r="E2154" s="13">
         <v>1</v>
@@ -45056,16 +45128,16 @@
     </row>
     <row r="2155" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2155" s="35" t="s">
-        <v>2637</v>
+        <v>2629</v>
       </c>
       <c r="B2155" s="35" t="s">
-        <v>2585</v>
+        <v>2577</v>
       </c>
       <c r="C2155" s="35" t="s">
         <v>252</v>
       </c>
       <c r="D2155" s="35" t="s">
-        <v>2597</v>
+        <v>2589</v>
       </c>
       <c r="E2155" s="13">
         <v>1</v>
@@ -45073,16 +45145,16 @@
     </row>
     <row r="2156" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2156" s="35" t="s">
-        <v>2638</v>
+        <v>2630</v>
       </c>
       <c r="B2156" s="35" t="s">
-        <v>2585</v>
+        <v>2577</v>
       </c>
       <c r="C2156" s="35" t="s">
         <v>231</v>
       </c>
       <c r="D2156" s="35" t="s">
-        <v>2598</v>
+        <v>2590</v>
       </c>
       <c r="E2156" s="13">
         <v>1</v>
@@ -45090,16 +45162,16 @@
     </row>
     <row r="2157" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2157" s="36" t="s">
-        <v>2639</v>
+        <v>2631</v>
       </c>
       <c r="B2157" s="36" t="s">
-        <v>2586</v>
+        <v>2578</v>
       </c>
       <c r="C2157" s="36" t="s">
         <v>2</v>
       </c>
       <c r="D2157" s="36" t="s">
-        <v>2591</v>
+        <v>2583</v>
       </c>
       <c r="E2157" s="13">
         <v>1</v>
@@ -45107,16 +45179,16 @@
     </row>
     <row r="2158" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2158" s="36" t="s">
-        <v>2640</v>
+        <v>2632</v>
       </c>
       <c r="B2158" s="36" t="s">
-        <v>2586</v>
+        <v>2578</v>
       </c>
       <c r="C2158" s="36" t="s">
         <v>230</v>
       </c>
       <c r="D2158" s="36" t="s">
-        <v>2592</v>
+        <v>2584</v>
       </c>
       <c r="E2158" s="13">
         <v>1</v>
@@ -45124,16 +45196,16 @@
     </row>
     <row r="2159" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2159" s="36" t="s">
-        <v>2641</v>
+        <v>2633</v>
       </c>
       <c r="B2159" s="36" t="s">
-        <v>2586</v>
+        <v>2578</v>
       </c>
       <c r="C2159" s="36" t="s">
         <v>952</v>
       </c>
       <c r="D2159" s="36" t="s">
-        <v>2593</v>
+        <v>2585</v>
       </c>
       <c r="E2159" s="13">
         <v>1</v>
@@ -45141,16 +45213,16 @@
     </row>
     <row r="2160" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2160" s="36" t="s">
-        <v>2642</v>
+        <v>2634</v>
       </c>
       <c r="B2160" s="36" t="s">
-        <v>2586</v>
+        <v>2578</v>
       </c>
       <c r="C2160" s="36" t="s">
         <v>262</v>
       </c>
       <c r="D2160" s="36" t="s">
-        <v>2594</v>
+        <v>2586</v>
       </c>
       <c r="E2160" s="13">
         <v>1</v>
@@ -45158,16 +45230,16 @@
     </row>
     <row r="2161" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2161" s="36" t="s">
-        <v>2643</v>
+        <v>2635</v>
       </c>
       <c r="B2161" s="36" t="s">
-        <v>2586</v>
+        <v>2578</v>
       </c>
       <c r="C2161" s="36" t="s">
         <v>247</v>
       </c>
       <c r="D2161" s="36" t="s">
-        <v>2595</v>
+        <v>2587</v>
       </c>
       <c r="E2161" s="13">
         <v>1</v>
@@ -45175,16 +45247,16 @@
     </row>
     <row r="2162" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2162" s="36" t="s">
-        <v>2644</v>
+        <v>2636</v>
       </c>
       <c r="B2162" s="36" t="s">
-        <v>2586</v>
+        <v>2578</v>
       </c>
       <c r="C2162" s="36" t="s">
         <v>263</v>
       </c>
       <c r="D2162" s="36" t="s">
-        <v>2596</v>
+        <v>2588</v>
       </c>
       <c r="E2162" s="13">
         <v>1</v>
@@ -45192,16 +45264,16 @@
     </row>
     <row r="2163" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2163" s="36" t="s">
-        <v>2645</v>
+        <v>2637</v>
       </c>
       <c r="B2163" s="36" t="s">
-        <v>2586</v>
+        <v>2578</v>
       </c>
       <c r="C2163" s="36" t="s">
         <v>252</v>
       </c>
       <c r="D2163" s="36" t="s">
-        <v>2597</v>
+        <v>2589</v>
       </c>
       <c r="E2163" s="13">
         <v>1</v>
@@ -45209,16 +45281,16 @@
     </row>
     <row r="2164" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2164" s="36" t="s">
-        <v>2646</v>
+        <v>2638</v>
       </c>
       <c r="B2164" s="36" t="s">
-        <v>2586</v>
+        <v>2578</v>
       </c>
       <c r="C2164" s="36" t="s">
         <v>231</v>
       </c>
       <c r="D2164" s="36" t="s">
-        <v>2598</v>
+        <v>2590</v>
       </c>
       <c r="E2164" s="13">
         <v>1</v>
@@ -45226,16 +45298,16 @@
     </row>
     <row r="2165" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2165" s="35" t="s">
-        <v>2647</v>
+        <v>2639</v>
       </c>
       <c r="B2165" s="35" t="s">
-        <v>2587</v>
+        <v>2579</v>
       </c>
       <c r="C2165" s="35" t="s">
         <v>2</v>
       </c>
       <c r="D2165" s="35" t="s">
-        <v>2591</v>
+        <v>2583</v>
       </c>
       <c r="E2165" s="13">
         <v>1</v>
@@ -45243,16 +45315,16 @@
     </row>
     <row r="2166" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2166" s="35" t="s">
-        <v>2648</v>
+        <v>2640</v>
       </c>
       <c r="B2166" s="35" t="s">
-        <v>2587</v>
+        <v>2579</v>
       </c>
       <c r="C2166" s="35" t="s">
         <v>230</v>
       </c>
       <c r="D2166" s="35" t="s">
-        <v>2592</v>
+        <v>2584</v>
       </c>
       <c r="E2166" s="13">
         <v>1</v>
@@ -45260,16 +45332,16 @@
     </row>
     <row r="2167" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2167" s="35" t="s">
-        <v>2649</v>
+        <v>2641</v>
       </c>
       <c r="B2167" s="35" t="s">
-        <v>2587</v>
+        <v>2579</v>
       </c>
       <c r="C2167" s="35" t="s">
         <v>952</v>
       </c>
       <c r="D2167" s="35" t="s">
-        <v>2593</v>
+        <v>2585</v>
       </c>
       <c r="E2167" s="13">
         <v>1</v>
@@ -45277,16 +45349,16 @@
     </row>
     <row r="2168" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2168" s="35" t="s">
-        <v>2650</v>
+        <v>2642</v>
       </c>
       <c r="B2168" s="35" t="s">
-        <v>2587</v>
+        <v>2579</v>
       </c>
       <c r="C2168" s="35" t="s">
         <v>262</v>
       </c>
       <c r="D2168" s="35" t="s">
-        <v>2594</v>
+        <v>2586</v>
       </c>
       <c r="E2168" s="13">
         <v>1</v>
@@ -45294,16 +45366,16 @@
     </row>
     <row r="2169" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2169" s="35" t="s">
-        <v>2651</v>
+        <v>2643</v>
       </c>
       <c r="B2169" s="35" t="s">
-        <v>2587</v>
+        <v>2579</v>
       </c>
       <c r="C2169" s="35" t="s">
         <v>247</v>
       </c>
       <c r="D2169" s="35" t="s">
-        <v>2595</v>
+        <v>2587</v>
       </c>
       <c r="E2169" s="13">
         <v>1</v>
@@ -45311,16 +45383,16 @@
     </row>
     <row r="2170" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2170" s="35" t="s">
-        <v>2652</v>
+        <v>2644</v>
       </c>
       <c r="B2170" s="35" t="s">
-        <v>2587</v>
+        <v>2579</v>
       </c>
       <c r="C2170" s="35" t="s">
         <v>263</v>
       </c>
       <c r="D2170" s="35" t="s">
-        <v>2596</v>
+        <v>2588</v>
       </c>
       <c r="E2170" s="13">
         <v>1</v>
@@ -45328,16 +45400,16 @@
     </row>
     <row r="2171" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2171" s="35" t="s">
-        <v>2653</v>
+        <v>2645</v>
       </c>
       <c r="B2171" s="35" t="s">
-        <v>2587</v>
+        <v>2579</v>
       </c>
       <c r="C2171" s="35" t="s">
         <v>252</v>
       </c>
       <c r="D2171" s="35" t="s">
-        <v>2597</v>
+        <v>2589</v>
       </c>
       <c r="E2171" s="13">
         <v>1</v>
@@ -45345,16 +45417,16 @@
     </row>
     <row r="2172" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2172" s="35" t="s">
-        <v>2654</v>
+        <v>2646</v>
       </c>
       <c r="B2172" s="35" t="s">
-        <v>2587</v>
+        <v>2579</v>
       </c>
       <c r="C2172" s="35" t="s">
         <v>231</v>
       </c>
       <c r="D2172" s="35" t="s">
-        <v>2598</v>
+        <v>2590</v>
       </c>
       <c r="E2172" s="13">
         <v>1</v>
@@ -45362,16 +45434,16 @@
     </row>
     <row r="2173" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2173" s="36" t="s">
-        <v>2655</v>
+        <v>2647</v>
       </c>
       <c r="B2173" s="36" t="s">
-        <v>2588</v>
+        <v>2580</v>
       </c>
       <c r="C2173" s="36" t="s">
         <v>2</v>
       </c>
       <c r="D2173" s="36" t="s">
-        <v>2591</v>
+        <v>2583</v>
       </c>
       <c r="E2173" s="13">
         <v>1</v>
@@ -45379,16 +45451,16 @@
     </row>
     <row r="2174" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2174" s="36" t="s">
-        <v>2656</v>
+        <v>2648</v>
       </c>
       <c r="B2174" s="36" t="s">
-        <v>2588</v>
+        <v>2580</v>
       </c>
       <c r="C2174" s="36" t="s">
         <v>230</v>
       </c>
       <c r="D2174" s="36" t="s">
-        <v>2592</v>
+        <v>2584</v>
       </c>
       <c r="E2174" s="13">
         <v>1</v>
@@ -45396,16 +45468,16 @@
     </row>
     <row r="2175" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2175" s="36" t="s">
-        <v>2657</v>
+        <v>2649</v>
       </c>
       <c r="B2175" s="36" t="s">
-        <v>2588</v>
+        <v>2580</v>
       </c>
       <c r="C2175" s="36" t="s">
         <v>952</v>
       </c>
       <c r="D2175" s="36" t="s">
-        <v>2593</v>
+        <v>2585</v>
       </c>
       <c r="E2175" s="13">
         <v>1</v>
@@ -45413,16 +45485,16 @@
     </row>
     <row r="2176" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2176" s="36" t="s">
-        <v>2658</v>
+        <v>2650</v>
       </c>
       <c r="B2176" s="36" t="s">
-        <v>2588</v>
+        <v>2580</v>
       </c>
       <c r="C2176" s="36" t="s">
         <v>262</v>
       </c>
       <c r="D2176" s="36" t="s">
-        <v>2594</v>
+        <v>2586</v>
       </c>
       <c r="E2176" s="13">
         <v>1</v>
@@ -45430,16 +45502,16 @@
     </row>
     <row r="2177" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2177" s="36" t="s">
-        <v>2659</v>
+        <v>2651</v>
       </c>
       <c r="B2177" s="36" t="s">
-        <v>2588</v>
+        <v>2580</v>
       </c>
       <c r="C2177" s="36" t="s">
         <v>247</v>
       </c>
       <c r="D2177" s="36" t="s">
-        <v>2595</v>
+        <v>2587</v>
       </c>
       <c r="E2177" s="13">
         <v>1</v>
@@ -45447,16 +45519,16 @@
     </row>
     <row r="2178" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2178" s="36" t="s">
-        <v>2660</v>
+        <v>2652</v>
       </c>
       <c r="B2178" s="36" t="s">
-        <v>2588</v>
+        <v>2580</v>
       </c>
       <c r="C2178" s="36" t="s">
         <v>263</v>
       </c>
       <c r="D2178" s="36" t="s">
-        <v>2596</v>
+        <v>2588</v>
       </c>
       <c r="E2178" s="13">
         <v>1</v>
@@ -45464,16 +45536,16 @@
     </row>
     <row r="2179" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2179" s="36" t="s">
-        <v>2661</v>
+        <v>2653</v>
       </c>
       <c r="B2179" s="36" t="s">
-        <v>2588</v>
+        <v>2580</v>
       </c>
       <c r="C2179" s="36" t="s">
         <v>252</v>
       </c>
       <c r="D2179" s="36" t="s">
-        <v>2597</v>
+        <v>2589</v>
       </c>
       <c r="E2179" s="13">
         <v>1</v>
@@ -45481,16 +45553,16 @@
     </row>
     <row r="2180" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2180" s="36" t="s">
-        <v>2662</v>
+        <v>2654</v>
       </c>
       <c r="B2180" s="36" t="s">
-        <v>2588</v>
+        <v>2580</v>
       </c>
       <c r="C2180" s="36" t="s">
         <v>231</v>
       </c>
       <c r="D2180" s="36" t="s">
-        <v>2598</v>
+        <v>2590</v>
       </c>
       <c r="E2180" s="13">
         <v>1</v>
@@ -45498,16 +45570,16 @@
     </row>
     <row r="2181" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2181" s="35" t="s">
-        <v>2663</v>
+        <v>2655</v>
       </c>
       <c r="B2181" s="35" t="s">
-        <v>2589</v>
+        <v>2581</v>
       </c>
       <c r="C2181" s="35" t="s">
         <v>2</v>
       </c>
       <c r="D2181" s="35" t="s">
-        <v>2591</v>
+        <v>2583</v>
       </c>
       <c r="E2181" s="13">
         <v>1</v>
@@ -45515,16 +45587,16 @@
     </row>
     <row r="2182" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2182" s="35" t="s">
-        <v>2664</v>
+        <v>2656</v>
       </c>
       <c r="B2182" s="35" t="s">
-        <v>2589</v>
+        <v>2581</v>
       </c>
       <c r="C2182" s="35" t="s">
         <v>230</v>
       </c>
       <c r="D2182" s="35" t="s">
-        <v>2592</v>
+        <v>2584</v>
       </c>
       <c r="E2182" s="13">
         <v>1</v>
@@ -45532,16 +45604,16 @@
     </row>
     <row r="2183" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2183" s="35" t="s">
-        <v>2665</v>
+        <v>2657</v>
       </c>
       <c r="B2183" s="35" t="s">
-        <v>2589</v>
+        <v>2581</v>
       </c>
       <c r="C2183" s="35" t="s">
         <v>952</v>
       </c>
       <c r="D2183" s="35" t="s">
-        <v>2593</v>
+        <v>2585</v>
       </c>
       <c r="E2183" s="13">
         <v>1</v>
@@ -45549,16 +45621,16 @@
     </row>
     <row r="2184" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2184" s="35" t="s">
-        <v>2666</v>
+        <v>2658</v>
       </c>
       <c r="B2184" s="35" t="s">
-        <v>2589</v>
+        <v>2581</v>
       </c>
       <c r="C2184" s="35" t="s">
         <v>262</v>
       </c>
       <c r="D2184" s="35" t="s">
-        <v>2594</v>
+        <v>2586</v>
       </c>
       <c r="E2184" s="13">
         <v>1</v>
@@ -45566,16 +45638,16 @@
     </row>
     <row r="2185" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2185" s="35" t="s">
-        <v>2667</v>
+        <v>2659</v>
       </c>
       <c r="B2185" s="35" t="s">
-        <v>2589</v>
+        <v>2581</v>
       </c>
       <c r="C2185" s="35" t="s">
         <v>247</v>
       </c>
       <c r="D2185" s="35" t="s">
-        <v>2595</v>
+        <v>2587</v>
       </c>
       <c r="E2185" s="13">
         <v>1</v>
@@ -45583,16 +45655,16 @@
     </row>
     <row r="2186" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2186" s="35" t="s">
-        <v>2668</v>
+        <v>2660</v>
       </c>
       <c r="B2186" s="35" t="s">
-        <v>2589</v>
+        <v>2581</v>
       </c>
       <c r="C2186" s="35" t="s">
         <v>263</v>
       </c>
       <c r="D2186" s="35" t="s">
-        <v>2596</v>
+        <v>2588</v>
       </c>
       <c r="E2186" s="13">
         <v>1</v>
@@ -45600,16 +45672,16 @@
     </row>
     <row r="2187" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2187" s="35" t="s">
-        <v>2669</v>
+        <v>2661</v>
       </c>
       <c r="B2187" s="35" t="s">
-        <v>2589</v>
+        <v>2581</v>
       </c>
       <c r="C2187" s="35" t="s">
         <v>252</v>
       </c>
       <c r="D2187" s="35" t="s">
-        <v>2597</v>
+        <v>2589</v>
       </c>
       <c r="E2187" s="13">
         <v>1</v>
@@ -45617,16 +45689,16 @@
     </row>
     <row r="2188" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2188" s="35" t="s">
-        <v>2670</v>
+        <v>2662</v>
       </c>
       <c r="B2188" s="35" t="s">
-        <v>2589</v>
+        <v>2581</v>
       </c>
       <c r="C2188" s="35" t="s">
         <v>231</v>
       </c>
       <c r="D2188" s="35" t="s">
-        <v>2598</v>
+        <v>2590</v>
       </c>
       <c r="E2188" s="13">
         <v>1</v>
@@ -45634,16 +45706,16 @@
     </row>
     <row r="2189" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2189" s="36" t="s">
-        <v>2671</v>
+        <v>2663</v>
       </c>
       <c r="B2189" s="36" t="s">
-        <v>2590</v>
+        <v>2582</v>
       </c>
       <c r="C2189" s="36" t="s">
         <v>2</v>
       </c>
       <c r="D2189" s="36" t="s">
-        <v>2591</v>
+        <v>2583</v>
       </c>
       <c r="E2189" s="13">
         <v>1</v>
@@ -45651,16 +45723,16 @@
     </row>
     <row r="2190" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2190" s="36" t="s">
-        <v>2672</v>
+        <v>2664</v>
       </c>
       <c r="B2190" s="36" t="s">
-        <v>2590</v>
+        <v>2582</v>
       </c>
       <c r="C2190" s="36" t="s">
         <v>230</v>
       </c>
       <c r="D2190" s="36" t="s">
-        <v>2592</v>
+        <v>2584</v>
       </c>
       <c r="E2190" s="13">
         <v>1</v>
@@ -45668,16 +45740,16 @@
     </row>
     <row r="2191" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2191" s="36" t="s">
-        <v>2673</v>
+        <v>2665</v>
       </c>
       <c r="B2191" s="36" t="s">
-        <v>2590</v>
+        <v>2582</v>
       </c>
       <c r="C2191" s="36" t="s">
         <v>952</v>
       </c>
       <c r="D2191" s="36" t="s">
-        <v>2593</v>
+        <v>2585</v>
       </c>
       <c r="E2191" s="13">
         <v>1</v>
@@ -45685,16 +45757,16 @@
     </row>
     <row r="2192" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2192" s="36" t="s">
-        <v>2674</v>
+        <v>2666</v>
       </c>
       <c r="B2192" s="36" t="s">
-        <v>2590</v>
+        <v>2582</v>
       </c>
       <c r="C2192" s="36" t="s">
         <v>262</v>
       </c>
       <c r="D2192" s="36" t="s">
-        <v>2594</v>
+        <v>2586</v>
       </c>
       <c r="E2192" s="13">
         <v>1</v>
@@ -45702,16 +45774,16 @@
     </row>
     <row r="2193" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2193" s="36" t="s">
-        <v>2675</v>
+        <v>2667</v>
       </c>
       <c r="B2193" s="36" t="s">
-        <v>2590</v>
+        <v>2582</v>
       </c>
       <c r="C2193" s="36" t="s">
         <v>247</v>
       </c>
       <c r="D2193" s="36" t="s">
-        <v>2595</v>
+        <v>2587</v>
       </c>
       <c r="E2193" s="13">
         <v>1</v>
@@ -45719,16 +45791,16 @@
     </row>
     <row r="2194" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2194" s="36" t="s">
-        <v>2676</v>
+        <v>2668</v>
       </c>
       <c r="B2194" s="36" t="s">
-        <v>2590</v>
+        <v>2582</v>
       </c>
       <c r="C2194" s="36" t="s">
         <v>263</v>
       </c>
       <c r="D2194" s="36" t="s">
-        <v>2596</v>
+        <v>2588</v>
       </c>
       <c r="E2194" s="13">
         <v>1</v>
@@ -45736,16 +45808,16 @@
     </row>
     <row r="2195" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2195" s="36" t="s">
-        <v>2677</v>
+        <v>2669</v>
       </c>
       <c r="B2195" s="36" t="s">
-        <v>2590</v>
+        <v>2582</v>
       </c>
       <c r="C2195" s="36" t="s">
         <v>252</v>
       </c>
       <c r="D2195" s="36" t="s">
-        <v>2597</v>
+        <v>2589</v>
       </c>
       <c r="E2195" s="13">
         <v>1</v>
@@ -45753,16 +45825,16 @@
     </row>
     <row r="2196" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2196" s="36" t="s">
-        <v>2678</v>
+        <v>2670</v>
       </c>
       <c r="B2196" s="36" t="s">
-        <v>2590</v>
+        <v>2582</v>
       </c>
       <c r="C2196" s="36" t="s">
         <v>231</v>
       </c>
       <c r="D2196" s="36" t="s">
-        <v>2598</v>
+        <v>2590</v>
       </c>
       <c r="E2196" s="13">
         <v>1</v>
@@ -45770,16 +45842,16 @@
     </row>
     <row r="2197" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2197" s="35" t="s">
-        <v>2680</v>
+        <v>2672</v>
       </c>
       <c r="B2197" s="35" t="s">
-        <v>2679</v>
+        <v>2671</v>
       </c>
       <c r="C2197" s="35" t="s">
         <v>2</v>
       </c>
       <c r="D2197" s="35" t="s">
-        <v>2591</v>
+        <v>2583</v>
       </c>
       <c r="E2197" s="13">
         <v>1</v>
@@ -45787,16 +45859,16 @@
     </row>
     <row r="2198" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2198" s="35" t="s">
-        <v>2681</v>
+        <v>2673</v>
       </c>
       <c r="B2198" s="35" t="s">
-        <v>2679</v>
+        <v>2671</v>
       </c>
       <c r="C2198" s="35" t="s">
         <v>230</v>
       </c>
       <c r="D2198" s="35" t="s">
-        <v>2592</v>
+        <v>2584</v>
       </c>
       <c r="E2198" s="13">
         <v>1</v>
@@ -45804,16 +45876,16 @@
     </row>
     <row r="2199" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2199" s="35" t="s">
-        <v>2682</v>
+        <v>2674</v>
       </c>
       <c r="B2199" s="35" t="s">
-        <v>2679</v>
+        <v>2671</v>
       </c>
       <c r="C2199" s="35" t="s">
         <v>952</v>
       </c>
       <c r="D2199" s="35" t="s">
-        <v>2593</v>
+        <v>2585</v>
       </c>
       <c r="E2199" s="13">
         <v>1</v>
@@ -45821,16 +45893,16 @@
     </row>
     <row r="2200" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2200" s="35" t="s">
-        <v>2683</v>
+        <v>2675</v>
       </c>
       <c r="B2200" s="35" t="s">
-        <v>2679</v>
+        <v>2671</v>
       </c>
       <c r="C2200" s="35" t="s">
         <v>262</v>
       </c>
       <c r="D2200" s="35" t="s">
-        <v>2594</v>
+        <v>2586</v>
       </c>
       <c r="E2200" s="13">
         <v>1</v>
@@ -45838,16 +45910,16 @@
     </row>
     <row r="2201" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2201" s="35" t="s">
-        <v>2684</v>
+        <v>2676</v>
       </c>
       <c r="B2201" s="35" t="s">
-        <v>2679</v>
+        <v>2671</v>
       </c>
       <c r="C2201" s="35" t="s">
         <v>247</v>
       </c>
       <c r="D2201" s="35" t="s">
-        <v>2595</v>
+        <v>2587</v>
       </c>
       <c r="E2201" s="13">
         <v>1</v>
@@ -45855,16 +45927,16 @@
     </row>
     <row r="2202" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2202" s="35" t="s">
-        <v>2685</v>
+        <v>2677</v>
       </c>
       <c r="B2202" s="35" t="s">
-        <v>2679</v>
+        <v>2671</v>
       </c>
       <c r="C2202" s="35" t="s">
         <v>263</v>
       </c>
       <c r="D2202" s="35" t="s">
-        <v>2596</v>
+        <v>2588</v>
       </c>
       <c r="E2202" s="13">
         <v>1</v>
@@ -45872,16 +45944,16 @@
     </row>
     <row r="2203" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2203" s="35" t="s">
-        <v>2686</v>
+        <v>2678</v>
       </c>
       <c r="B2203" s="35" t="s">
-        <v>2679</v>
+        <v>2671</v>
       </c>
       <c r="C2203" s="35" t="s">
         <v>252</v>
       </c>
       <c r="D2203" s="35" t="s">
-        <v>2597</v>
+        <v>2589</v>
       </c>
       <c r="E2203" s="13">
         <v>1</v>
@@ -45889,16 +45961,16 @@
     </row>
     <row r="2204" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2204" s="35" t="s">
-        <v>2687</v>
+        <v>2679</v>
       </c>
       <c r="B2204" s="35" t="s">
-        <v>2679</v>
+        <v>2671</v>
       </c>
       <c r="C2204" s="35" t="s">
         <v>231</v>
       </c>
       <c r="D2204" s="35" t="s">
-        <v>2598</v>
+        <v>2590</v>
       </c>
       <c r="E2204" s="13">
         <v>1</v>
@@ -45906,76 +45978,300 @@
     </row>
     <row r="2205" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2205" s="51" t="s">
-        <v>2689</v>
+        <v>2681</v>
       </c>
       <c r="B2205" s="51" t="s">
-        <v>2688</v>
+        <v>2680</v>
       </c>
       <c r="C2205" s="51" t="s">
         <v>534</v>
       </c>
       <c r="D2205" s="66" t="s">
-        <v>2529</v>
+        <v>2521</v>
       </c>
       <c r="E2205" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="2206" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2206" s="35"/>
+      <c r="A2206" s="36" t="s">
+        <v>2684</v>
+      </c>
+      <c r="B2206" s="36" t="s">
+        <v>2682</v>
+      </c>
+      <c r="C2206" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2206" s="36" t="s">
+        <v>2583</v>
+      </c>
+      <c r="E2206" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="2207" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2207" s="35"/>
+      <c r="A2207" s="36" t="s">
+        <v>2685</v>
+      </c>
+      <c r="B2207" s="36" t="s">
+        <v>2682</v>
+      </c>
+      <c r="C2207" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2207" s="36" t="s">
+        <v>2584</v>
+      </c>
+      <c r="E2207" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="2208" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2208" s="35"/>
-    </row>
-    <row r="2209" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2209" s="35"/>
-    </row>
-    <row r="2210" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2210" s="35"/>
-    </row>
-    <row r="2211" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2211" s="35"/>
-    </row>
-    <row r="2212" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2212" s="35"/>
-    </row>
-    <row r="2213" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2213" s="35"/>
-    </row>
-    <row r="2214" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2214" s="35"/>
-    </row>
-    <row r="2215" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2215" s="35"/>
-    </row>
-    <row r="2216" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2216" s="35"/>
-    </row>
-    <row r="2217" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2217" s="35"/>
-    </row>
-    <row r="2218" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2218" s="35"/>
-    </row>
-    <row r="2219" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2219" s="35"/>
-    </row>
-    <row r="2220" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2220" s="35"/>
-    </row>
-    <row r="2221" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2221" s="35"/>
-    </row>
-    <row r="2222" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2208" s="36" t="s">
+        <v>2686</v>
+      </c>
+      <c r="B2208" s="36" t="s">
+        <v>2682</v>
+      </c>
+      <c r="C2208" s="36" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2208" s="36" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E2208" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2209" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2209" s="36" t="s">
+        <v>2687</v>
+      </c>
+      <c r="B2209" s="36" t="s">
+        <v>2682</v>
+      </c>
+      <c r="C2209" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2209" s="36" t="s">
+        <v>2586</v>
+      </c>
+      <c r="E2209" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2210" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2210" s="36" t="s">
+        <v>2688</v>
+      </c>
+      <c r="B2210" s="36" t="s">
+        <v>2682</v>
+      </c>
+      <c r="C2210" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2210" s="36" t="s">
+        <v>2587</v>
+      </c>
+      <c r="E2210" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2211" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2211" s="36" t="s">
+        <v>2689</v>
+      </c>
+      <c r="B2211" s="36" t="s">
+        <v>2682</v>
+      </c>
+      <c r="C2211" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2211" s="36" t="s">
+        <v>2588</v>
+      </c>
+      <c r="E2211" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2212" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2212" s="36" t="s">
+        <v>2690</v>
+      </c>
+      <c r="B2212" s="36" t="s">
+        <v>2682</v>
+      </c>
+      <c r="C2212" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2212" s="36" t="s">
+        <v>2589</v>
+      </c>
+      <c r="E2212" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2213" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2213" s="36" t="s">
+        <v>2691</v>
+      </c>
+      <c r="B2213" s="36" t="s">
+        <v>2682</v>
+      </c>
+      <c r="C2213" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2213" s="36" t="s">
+        <v>2590</v>
+      </c>
+      <c r="E2213" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2214" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2214" s="35" t="s">
+        <v>2692</v>
+      </c>
+      <c r="B2214" s="35" t="s">
+        <v>2683</v>
+      </c>
+      <c r="C2214" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2214" s="35" t="s">
+        <v>2583</v>
+      </c>
+      <c r="E2214" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2215" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2215" s="35" t="s">
+        <v>2693</v>
+      </c>
+      <c r="B2215" s="35" t="s">
+        <v>2683</v>
+      </c>
+      <c r="C2215" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2215" s="35" t="s">
+        <v>2584</v>
+      </c>
+      <c r="E2215" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2216" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2216" s="35" t="s">
+        <v>2694</v>
+      </c>
+      <c r="B2216" s="35" t="s">
+        <v>2683</v>
+      </c>
+      <c r="C2216" s="35" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2216" s="35" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E2216" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2217" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2217" s="35" t="s">
+        <v>2695</v>
+      </c>
+      <c r="B2217" s="35" t="s">
+        <v>2683</v>
+      </c>
+      <c r="C2217" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2217" s="35" t="s">
+        <v>2586</v>
+      </c>
+      <c r="E2217" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2218" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2218" s="35" t="s">
+        <v>2696</v>
+      </c>
+      <c r="B2218" s="35" t="s">
+        <v>2683</v>
+      </c>
+      <c r="C2218" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2218" s="35" t="s">
+        <v>2587</v>
+      </c>
+      <c r="E2218" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2219" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2219" s="35" t="s">
+        <v>2697</v>
+      </c>
+      <c r="B2219" s="35" t="s">
+        <v>2683</v>
+      </c>
+      <c r="C2219" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2219" s="35" t="s">
+        <v>2588</v>
+      </c>
+      <c r="E2219" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2220" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2220" s="35" t="s">
+        <v>2698</v>
+      </c>
+      <c r="B2220" s="35" t="s">
+        <v>2683</v>
+      </c>
+      <c r="C2220" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2220" s="35" t="s">
+        <v>2589</v>
+      </c>
+      <c r="E2220" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2221" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2221" s="35" t="s">
+        <v>2699</v>
+      </c>
+      <c r="B2221" s="35" t="s">
+        <v>2683</v>
+      </c>
+      <c r="C2221" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2221" s="35" t="s">
+        <v>2590</v>
+      </c>
+      <c r="E2221" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2222" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2222" s="35"/>
     </row>
-    <row r="2223" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2223" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2223" s="35"/>
     </row>
-    <row r="2224" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2224" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2224" s="35"/>
     </row>
     <row r="2225" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
@@ -46061,7 +46357,7 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="40" orientation="portrait" r:id="rId1"/>
-  <rowBreaks count="16" manualBreakCount="16">
+  <rowBreaks count="17" manualBreakCount="17">
     <brk id="70" max="16383" man="1"/>
     <brk id="409" max="4" man="1"/>
     <brk id="493" max="4" man="1"/>
@@ -46076,6 +46372,7 @@
     <brk id="1562" max="4" man="1"/>
     <brk id="1663" max="4" man="1"/>
     <brk id="1873" max="4" man="1"/>
+    <brk id="1982" max="4" man="1"/>
     <brk id="2090" max="4" man="1"/>
     <brk id="2196" max="4" man="1"/>
   </rowBreaks>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7732" uniqueCount="2712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7732" uniqueCount="2718">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -8162,10 +8162,28 @@
     <t>01-Mar-2022</t>
   </si>
   <si>
-    <t>DSS1001c</t>
-  </si>
-  <si>
-    <t>DSS008v</t>
+    <t>DSS008</t>
+  </si>
+  <si>
+    <t>DSS009</t>
+  </si>
+  <si>
+    <t>DSS010</t>
+  </si>
+  <si>
+    <t>DSS011</t>
+  </si>
+  <si>
+    <t>DSS602</t>
+  </si>
+  <si>
+    <t>DSS603</t>
+  </si>
+  <si>
+    <t>DSS604</t>
+  </si>
+  <si>
+    <t>DSS605</t>
   </si>
 </sst>
 </file>
@@ -8862,8 +8880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2250"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1781" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B1808" sqref="B1808"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1970" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A1983" sqref="A1983:E1990"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39059,7 +39077,7 @@
     </row>
     <row r="1798" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1798" s="67" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="B1798" s="67" t="s">
         <v>2081</v>
@@ -39093,7 +39111,7 @@
     </row>
     <row r="1800" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1800" s="67" t="s">
-        <v>2711</v>
+        <v>2712</v>
       </c>
       <c r="B1800" s="67" t="s">
         <v>2081</v>
@@ -39110,7 +39128,7 @@
     </row>
     <row r="1801" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1801" s="67" t="s">
-        <v>2711</v>
+        <v>2713</v>
       </c>
       <c r="B1801" s="67" t="s">
         <v>2081</v>
@@ -42272,7 +42290,7 @@
     </row>
     <row r="1987" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1987" s="67" t="s">
-        <v>2710</v>
+        <v>2714</v>
       </c>
       <c r="B1987" s="67" t="s">
         <v>2393</v>
@@ -42289,7 +42307,7 @@
     </row>
     <row r="1988" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1988" s="67" t="s">
-        <v>2710</v>
+        <v>2715</v>
       </c>
       <c r="B1988" s="67" t="s">
         <v>2393</v>
@@ -42306,7 +42324,7 @@
     </row>
     <row r="1989" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1989" s="67" t="s">
-        <v>2710</v>
+        <v>2716</v>
       </c>
       <c r="B1989" s="67" t="s">
         <v>2393</v>
@@ -42323,7 +42341,7 @@
     </row>
     <row r="1990" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1990" s="67" t="s">
-        <v>2710</v>
+        <v>2717</v>
       </c>
       <c r="B1990" s="67" t="s">
         <v>2393</v>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7732" uniqueCount="2718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7732" uniqueCount="2724">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -8132,21 +8132,6 @@
     <t>DSS3236</t>
   </si>
   <si>
-    <t>05-May-2021</t>
-  </si>
-  <si>
-    <t>10-May-2021</t>
-  </si>
-  <si>
-    <t>06-May-2021</t>
-  </si>
-  <si>
-    <t>03-May-2021</t>
-  </si>
-  <si>
-    <t>01-Feb-2022</t>
-  </si>
-  <si>
     <t>05-Jan-2021</t>
   </si>
   <si>
@@ -8184,6 +8169,39 @@
   </si>
   <si>
     <t>DSS605</t>
+  </si>
+  <si>
+    <t>04-Mar-2022</t>
+  </si>
+  <si>
+    <t>06-Mar-2022</t>
+  </si>
+  <si>
+    <t>08-Mar-2022</t>
+  </si>
+  <si>
+    <t>06-Feb-2022</t>
+  </si>
+  <si>
+    <t>08-Feb-2022</t>
+  </si>
+  <si>
+    <t>10-Feb-2022</t>
+  </si>
+  <si>
+    <t>05-Feb-2022</t>
+  </si>
+  <si>
+    <t>04-May-2021</t>
+  </si>
+  <si>
+    <t>09-May-2021</t>
+  </si>
+  <si>
+    <t>07-May-2021</t>
+  </si>
+  <si>
+    <t>11-May-2021</t>
   </si>
 </sst>
 </file>
@@ -8880,8 +8898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2250"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1970" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A1983" sqref="A1983:E1990"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1978" zoomScale="148" zoomScaleNormal="100" zoomScaleSheetLayoutView="148" workbookViewId="0">
+      <selection activeCell="A1983" sqref="A1983:D1990"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39018,7 +39036,7 @@
         <v>2</v>
       </c>
       <c r="D1794" s="67" t="s">
-        <v>2705</v>
+        <v>2700</v>
       </c>
       <c r="E1794" s="68">
         <v>1</v>
@@ -39035,7 +39053,7 @@
         <v>230</v>
       </c>
       <c r="D1795" s="67" t="s">
-        <v>2706</v>
+        <v>2701</v>
       </c>
       <c r="E1795" s="68">
         <v>1</v>
@@ -39052,7 +39070,7 @@
         <v>952</v>
       </c>
       <c r="D1796" s="67" t="s">
-        <v>2707</v>
+        <v>2702</v>
       </c>
       <c r="E1796" s="68">
         <v>1</v>
@@ -39069,7 +39087,7 @@
         <v>262</v>
       </c>
       <c r="D1797" s="67" t="s">
-        <v>2708</v>
+        <v>2703</v>
       </c>
       <c r="E1797" s="68">
         <v>1</v>
@@ -39077,7 +39095,7 @@
     </row>
     <row r="1798" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1798" s="67" t="s">
-        <v>2710</v>
+        <v>2705</v>
       </c>
       <c r="B1798" s="67" t="s">
         <v>2081</v>
@@ -39086,7 +39104,7 @@
         <v>247</v>
       </c>
       <c r="D1798" s="67" t="s">
-        <v>2709</v>
+        <v>2704</v>
       </c>
       <c r="E1798" s="68">
         <v>1</v>
@@ -39094,7 +39112,7 @@
     </row>
     <row r="1799" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1799" s="67" t="s">
-        <v>2711</v>
+        <v>2706</v>
       </c>
       <c r="B1799" s="67" t="s">
         <v>2081</v>
@@ -39103,7 +39121,7 @@
         <v>263</v>
       </c>
       <c r="D1799" s="67" t="s">
-        <v>2709</v>
+        <v>2713</v>
       </c>
       <c r="E1799" s="68">
         <v>1</v>
@@ -39111,7 +39129,7 @@
     </row>
     <row r="1800" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1800" s="67" t="s">
-        <v>2712</v>
+        <v>2707</v>
       </c>
       <c r="B1800" s="67" t="s">
         <v>2081</v>
@@ -39120,7 +39138,7 @@
         <v>252</v>
       </c>
       <c r="D1800" s="67" t="s">
-        <v>2709</v>
+        <v>2714</v>
       </c>
       <c r="E1800" s="68">
         <v>1</v>
@@ -39128,7 +39146,7 @@
     </row>
     <row r="1801" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1801" s="67" t="s">
-        <v>2713</v>
+        <v>2708</v>
       </c>
       <c r="B1801" s="67" t="s">
         <v>2081</v>
@@ -39137,7 +39155,7 @@
         <v>231</v>
       </c>
       <c r="D1801" s="67" t="s">
-        <v>2709</v>
+        <v>2715</v>
       </c>
       <c r="E1801" s="68">
         <v>1</v>
@@ -42231,7 +42249,7 @@
         <v>2</v>
       </c>
       <c r="D1983" s="67" t="s">
-        <v>2700</v>
+        <v>2720</v>
       </c>
       <c r="E1983" s="68">
         <v>1</v>
@@ -42248,7 +42266,7 @@
         <v>230</v>
       </c>
       <c r="D1984" s="67" t="s">
-        <v>2701</v>
+        <v>2722</v>
       </c>
       <c r="E1984" s="68">
         <v>1</v>
@@ -42265,7 +42283,7 @@
         <v>952</v>
       </c>
       <c r="D1985" s="67" t="s">
-        <v>2702</v>
+        <v>2721</v>
       </c>
       <c r="E1985" s="68">
         <v>1</v>
@@ -42282,7 +42300,7 @@
         <v>262</v>
       </c>
       <c r="D1986" s="67" t="s">
-        <v>2703</v>
+        <v>2723</v>
       </c>
       <c r="E1986" s="68">
         <v>1</v>
@@ -42290,7 +42308,7 @@
     </row>
     <row r="1987" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1987" s="67" t="s">
-        <v>2714</v>
+        <v>2709</v>
       </c>
       <c r="B1987" s="67" t="s">
         <v>2393</v>
@@ -42299,7 +42317,7 @@
         <v>247</v>
       </c>
       <c r="D1987" s="67" t="s">
-        <v>2704</v>
+        <v>2719</v>
       </c>
       <c r="E1987" s="68">
         <v>1</v>
@@ -42307,7 +42325,7 @@
     </row>
     <row r="1988" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1988" s="67" t="s">
-        <v>2715</v>
+        <v>2710</v>
       </c>
       <c r="B1988" s="67" t="s">
         <v>2393</v>
@@ -42316,7 +42334,7 @@
         <v>263</v>
       </c>
       <c r="D1988" s="67" t="s">
-        <v>2704</v>
+        <v>2716</v>
       </c>
       <c r="E1988" s="68">
         <v>1</v>
@@ -42324,7 +42342,7 @@
     </row>
     <row r="1989" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1989" s="67" t="s">
-        <v>2716</v>
+        <v>2711</v>
       </c>
       <c r="B1989" s="67" t="s">
         <v>2393</v>
@@ -42333,7 +42351,7 @@
         <v>252</v>
       </c>
       <c r="D1989" s="67" t="s">
-        <v>2704</v>
+        <v>2717</v>
       </c>
       <c r="E1989" s="68">
         <v>1</v>
@@ -42341,7 +42359,7 @@
     </row>
     <row r="1990" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1990" s="67" t="s">
-        <v>2717</v>
+        <v>2712</v>
       </c>
       <c r="B1990" s="67" t="s">
         <v>2393</v>
@@ -42350,7 +42368,7 @@
         <v>231</v>
       </c>
       <c r="D1990" s="67" t="s">
-        <v>2704</v>
+        <v>2718</v>
       </c>
       <c r="E1990" s="68">
         <v>1</v>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7732" uniqueCount="2724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7736" uniqueCount="2728">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -8202,6 +8202,18 @@
   </si>
   <si>
     <t>11-May-2021</t>
+  </si>
+  <si>
+    <t>Lifting, Rigging, Securing &amp; Lashing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lekaa El Egeimy </t>
+  </si>
+  <si>
+    <t>DSS3237</t>
+  </si>
+  <si>
+    <t>18-Jun-2025</t>
   </si>
 </sst>
 </file>
@@ -8888,7 +8900,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8898,8 +8910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2250"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1978" zoomScale="148" zoomScaleNormal="100" zoomScaleSheetLayoutView="148" workbookViewId="0">
-      <selection activeCell="A1983" sqref="A1983:D1990"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2212" zoomScale="148" zoomScaleNormal="100" zoomScaleSheetLayoutView="148" workbookViewId="0">
+      <selection activeCell="A2222" sqref="A2222:D2222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46302,7 +46314,21 @@
       </c>
     </row>
     <row r="2222" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2222" s="35"/>
+      <c r="A2222" s="36" t="s">
+        <v>2726</v>
+      </c>
+      <c r="B2222" s="36" t="s">
+        <v>2725</v>
+      </c>
+      <c r="C2222" s="36" t="s">
+        <v>2724</v>
+      </c>
+      <c r="D2222" s="36" t="s">
+        <v>2727</v>
+      </c>
+      <c r="E2222" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="2223" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2223" s="35"/>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7736" uniqueCount="2728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7768" uniqueCount="2737">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -8214,6 +8214,33 @@
   </si>
   <si>
     <t>18-Jun-2025</t>
+  </si>
+  <si>
+    <t>Alhasan Abdulhakim Saed</t>
+  </si>
+  <si>
+    <t>DSS3238</t>
+  </si>
+  <si>
+    <t>DSS3239</t>
+  </si>
+  <si>
+    <t>DSS3240</t>
+  </si>
+  <si>
+    <t>DSS3241</t>
+  </si>
+  <si>
+    <t>DSS3242</t>
+  </si>
+  <si>
+    <t>DSS3243</t>
+  </si>
+  <si>
+    <t>DSS3244</t>
+  </si>
+  <si>
+    <t>DSS3245</t>
   </si>
 </sst>
 </file>
@@ -8910,8 +8937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2250"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2212" zoomScale="148" zoomScaleNormal="100" zoomScaleSheetLayoutView="148" workbookViewId="0">
-      <selection activeCell="A2222" sqref="A2222:D2222"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2216" zoomScale="148" zoomScaleNormal="100" zoomScaleSheetLayoutView="148" workbookViewId="0">
+      <selection activeCell="B2232" sqref="B2232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40833,7 +40860,7 @@
         <v>230</v>
       </c>
       <c r="D1899" s="36">
-        <v>45935</v>
+        <v>45787</v>
       </c>
       <c r="E1899" s="13">
         <v>1</v>
@@ -40850,7 +40877,7 @@
         <v>952</v>
       </c>
       <c r="D1900" s="36">
-        <v>45813</v>
+        <v>45783</v>
       </c>
       <c r="E1900" s="13">
         <v>1</v>
@@ -40867,7 +40894,7 @@
         <v>262</v>
       </c>
       <c r="D1901" s="36">
-        <v>45721</v>
+        <v>45780</v>
       </c>
       <c r="E1901" s="13">
         <v>1</v>
@@ -40884,7 +40911,7 @@
         <v>247</v>
       </c>
       <c r="D1902" s="36">
-        <v>45662</v>
+        <v>45778</v>
       </c>
       <c r="E1902" s="13">
         <v>1</v>
@@ -40901,7 +40928,7 @@
         <v>263</v>
       </c>
       <c r="D1903" s="36">
-        <v>45693</v>
+        <v>45779</v>
       </c>
       <c r="E1903" s="13">
         <v>1</v>
@@ -40918,7 +40945,7 @@
         <v>252</v>
       </c>
       <c r="D1904" s="36">
-        <v>45843</v>
+        <v>45784</v>
       </c>
       <c r="E1904" s="13">
         <v>1</v>
@@ -40935,7 +40962,7 @@
         <v>231</v>
       </c>
       <c r="D1905" s="36">
-        <v>45874</v>
+        <v>45785</v>
       </c>
       <c r="E1905" s="13">
         <v>1</v>
@@ -46331,57 +46358,169 @@
       </c>
     </row>
     <row r="2223" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2223" s="35"/>
+      <c r="A2223" s="35" t="s">
+        <v>2729</v>
+      </c>
+      <c r="B2223" s="35" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C2223" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2223" s="35" t="s">
+        <v>2583</v>
+      </c>
+      <c r="E2223" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="2224" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2224" s="35"/>
-    </row>
-    <row r="2225" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2225" s="35"/>
-    </row>
-    <row r="2226" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2226" s="35"/>
-    </row>
-    <row r="2227" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2227" s="35"/>
-    </row>
-    <row r="2228" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2228" s="35"/>
-    </row>
-    <row r="2229" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2229" s="35"/>
-    </row>
-    <row r="2230" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2230" s="35"/>
-    </row>
-    <row r="2231" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2224" s="35" t="s">
+        <v>2730</v>
+      </c>
+      <c r="B2224" s="35" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C2224" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2224" s="35" t="s">
+        <v>2584</v>
+      </c>
+      <c r="E2224" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2225" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2225" s="35" t="s">
+        <v>2731</v>
+      </c>
+      <c r="B2225" s="35" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C2225" s="35" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2225" s="35" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E2225" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2226" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2226" s="35" t="s">
+        <v>2732</v>
+      </c>
+      <c r="B2226" s="35" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C2226" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2226" s="35" t="s">
+        <v>2586</v>
+      </c>
+      <c r="E2226" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2227" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2227" s="35" t="s">
+        <v>2733</v>
+      </c>
+      <c r="B2227" s="35" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C2227" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2227" s="35" t="s">
+        <v>2587</v>
+      </c>
+      <c r="E2227" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2228" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2228" s="35" t="s">
+        <v>2734</v>
+      </c>
+      <c r="B2228" s="35" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C2228" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2228" s="35" t="s">
+        <v>2588</v>
+      </c>
+      <c r="E2228" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2229" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2229" s="35" t="s">
+        <v>2735</v>
+      </c>
+      <c r="B2229" s="35" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C2229" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2229" s="35" t="s">
+        <v>2589</v>
+      </c>
+      <c r="E2229" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2230" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2230" s="35" t="s">
+        <v>2736</v>
+      </c>
+      <c r="B2230" s="35" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C2230" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2230" s="35" t="s">
+        <v>2590</v>
+      </c>
+      <c r="E2230" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2231" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2231" s="35"/>
     </row>
-    <row r="2232" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2232" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2232" s="35"/>
     </row>
-    <row r="2233" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2233" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2233" s="35"/>
     </row>
-    <row r="2234" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2234" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2234" s="35"/>
     </row>
-    <row r="2235" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2235" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2235" s="35"/>
     </row>
-    <row r="2236" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2236" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2236" s="35"/>
     </row>
-    <row r="2237" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2237" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2237" s="35"/>
     </row>
-    <row r="2238" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2238" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2238" s="35"/>
     </row>
-    <row r="2239" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2239" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2239" s="35"/>
     </row>
-    <row r="2240" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2240" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2240" s="35"/>
     </row>
     <row r="2241" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7768" uniqueCount="2737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7824" uniqueCount="2766">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -8241,6 +8241,93 @@
   </si>
   <si>
     <t>DSS3245</t>
+  </si>
+  <si>
+    <t>DSS3246</t>
+  </si>
+  <si>
+    <t>DSS3247</t>
+  </si>
+  <si>
+    <t>DSS3248</t>
+  </si>
+  <si>
+    <t>DSS3249</t>
+  </si>
+  <si>
+    <t>DSS3250</t>
+  </si>
+  <si>
+    <t>DSS3251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amer Gamal Mohamed Ahmed </t>
+  </si>
+  <si>
+    <t>Karim Nabil Taha Abd Elmoez</t>
+  </si>
+  <si>
+    <t>Mohamed Ali Abd Elrahman</t>
+  </si>
+  <si>
+    <t>Hany Gendy Saeed Gendy</t>
+  </si>
+  <si>
+    <t>Mahmoud Ahmed Saad Ahmed Tera</t>
+  </si>
+  <si>
+    <t>Ahmed Samir Mohamed Fathy</t>
+  </si>
+  <si>
+    <t>Lashing and Securing Technician</t>
+  </si>
+  <si>
+    <t>Cargo Lashing and Securing Planner</t>
+  </si>
+  <si>
+    <t>Lashing and Securing Supervisor</t>
+  </si>
+  <si>
+    <t>14-Jun-2025</t>
+  </si>
+  <si>
+    <t>14-Jun-2026</t>
+  </si>
+  <si>
+    <t>14-Jun-2027</t>
+  </si>
+  <si>
+    <t>06-Jun-2027</t>
+  </si>
+  <si>
+    <t>06-Jun-2028</t>
+  </si>
+  <si>
+    <t>10-Jun-2027</t>
+  </si>
+  <si>
+    <t>DSS3252</t>
+  </si>
+  <si>
+    <t>DSS3253</t>
+  </si>
+  <si>
+    <t>DSS3254</t>
+  </si>
+  <si>
+    <t>DSS3255</t>
+  </si>
+  <si>
+    <t>DSS3256</t>
+  </si>
+  <si>
+    <t>DSS3257</t>
+  </si>
+  <si>
+    <t>DSS3258</t>
+  </si>
+  <si>
+    <t>DSS3259</t>
   </si>
 </sst>
 </file>
@@ -8313,7 +8400,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8365,6 +8452,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8449,7 +8542,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -8653,6 +8746,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="10" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8927,7 +9032,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8935,10 +9040,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2250"/>
+  <dimension ref="A1:E2271"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2216" zoomScale="148" zoomScaleNormal="100" zoomScaleSheetLayoutView="148" workbookViewId="0">
-      <selection activeCell="B2232" sqref="B2232"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2231" zoomScale="148" zoomScaleNormal="100" zoomScaleSheetLayoutView="148" workbookViewId="0">
+      <selection activeCell="C2240" sqref="C2240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46494,64 +46599,404 @@
       </c>
     </row>
     <row r="2231" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2231" s="35"/>
+      <c r="A2231" s="61" t="s">
+        <v>2737</v>
+      </c>
+      <c r="B2231" s="61" t="s">
+        <v>2743</v>
+      </c>
+      <c r="C2231" s="61" t="s">
+        <v>2749</v>
+      </c>
+      <c r="D2231" s="61" t="s">
+        <v>2752</v>
+      </c>
+      <c r="E2231" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="2232" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2232" s="35"/>
+      <c r="A2232" s="61" t="s">
+        <v>2738</v>
+      </c>
+      <c r="B2232" s="61" t="s">
+        <v>2744</v>
+      </c>
+      <c r="C2232" s="61" t="s">
+        <v>2749</v>
+      </c>
+      <c r="D2232" s="61" t="s">
+        <v>2753</v>
+      </c>
+      <c r="E2232" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="2233" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2233" s="35"/>
+      <c r="A2233" s="61" t="s">
+        <v>2739</v>
+      </c>
+      <c r="B2233" s="61" t="s">
+        <v>2745</v>
+      </c>
+      <c r="C2233" s="61" t="s">
+        <v>2749</v>
+      </c>
+      <c r="D2233" s="61" t="s">
+        <v>2754</v>
+      </c>
+      <c r="E2233" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="2234" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2234" s="35"/>
+      <c r="A2234" s="61" t="s">
+        <v>2740</v>
+      </c>
+      <c r="B2234" s="61" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C2234" s="61" t="s">
+        <v>2750</v>
+      </c>
+      <c r="D2234" s="61" t="s">
+        <v>2755</v>
+      </c>
+      <c r="E2234" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="2235" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2235" s="35"/>
+      <c r="A2235" s="61" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B2235" s="61" t="s">
+        <v>2747</v>
+      </c>
+      <c r="C2235" s="61" t="s">
+        <v>2750</v>
+      </c>
+      <c r="D2235" s="61" t="s">
+        <v>2756</v>
+      </c>
+      <c r="E2235" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="2236" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2236" s="35"/>
+      <c r="A2236" s="61" t="s">
+        <v>2742</v>
+      </c>
+      <c r="B2236" s="61" t="s">
+        <v>2748</v>
+      </c>
+      <c r="C2236" s="61" t="s">
+        <v>2751</v>
+      </c>
+      <c r="D2236" s="61" t="s">
+        <v>2757</v>
+      </c>
+      <c r="E2236" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="2237" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2237" s="35"/>
+      <c r="A2237" s="35" t="s">
+        <v>2758</v>
+      </c>
+      <c r="B2237" s="35" t="s">
+        <v>2386</v>
+      </c>
+      <c r="C2237" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2237" s="35" t="s">
+        <v>2583</v>
+      </c>
+      <c r="E2237" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="2238" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2238" s="35"/>
+      <c r="A2238" s="35" t="s">
+        <v>2759</v>
+      </c>
+      <c r="B2238" s="35" t="s">
+        <v>2386</v>
+      </c>
+      <c r="C2238" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2238" s="35" t="s">
+        <v>2584</v>
+      </c>
+      <c r="E2238" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="2239" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2239" s="35"/>
+      <c r="A2239" s="35" t="s">
+        <v>2760</v>
+      </c>
+      <c r="B2239" s="35" t="s">
+        <v>2386</v>
+      </c>
+      <c r="C2239" s="35" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2239" s="35" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E2239" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="2240" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2240" s="35"/>
-    </row>
-    <row r="2241" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2241" s="35"/>
-    </row>
-    <row r="2242" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2242" s="35"/>
-    </row>
-    <row r="2243" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2243" s="35"/>
-    </row>
-    <row r="2244" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2244" s="35"/>
-    </row>
-    <row r="2245" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2245" s="35"/>
-    </row>
-    <row r="2246" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2246" s="35"/>
-    </row>
-    <row r="2247" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2247" s="35"/>
-    </row>
-    <row r="2248" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2248" s="35"/>
-    </row>
-    <row r="2249" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2249" s="35"/>
-    </row>
-    <row r="2250" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2250" s="35"/>
+      <c r="A2240" s="35" t="s">
+        <v>2761</v>
+      </c>
+      <c r="B2240" s="35" t="s">
+        <v>2386</v>
+      </c>
+      <c r="C2240" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2240" s="35" t="s">
+        <v>2586</v>
+      </c>
+      <c r="E2240" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2241" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2241" s="35" t="s">
+        <v>2762</v>
+      </c>
+      <c r="B2241" s="35" t="s">
+        <v>2386</v>
+      </c>
+      <c r="C2241" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2241" s="35" t="s">
+        <v>2587</v>
+      </c>
+      <c r="E2241" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2242" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2242" s="35" t="s">
+        <v>2763</v>
+      </c>
+      <c r="B2242" s="35" t="s">
+        <v>2386</v>
+      </c>
+      <c r="C2242" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2242" s="35" t="s">
+        <v>2588</v>
+      </c>
+      <c r="E2242" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2243" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2243" s="35" t="s">
+        <v>2764</v>
+      </c>
+      <c r="B2243" s="35" t="s">
+        <v>2386</v>
+      </c>
+      <c r="C2243" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2243" s="35" t="s">
+        <v>2589</v>
+      </c>
+      <c r="E2243" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2244" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2244" s="35" t="s">
+        <v>2765</v>
+      </c>
+      <c r="B2244" s="35" t="s">
+        <v>2386</v>
+      </c>
+      <c r="C2244" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2244" s="35" t="s">
+        <v>2590</v>
+      </c>
+      <c r="E2244" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2245" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2245" s="69"/>
+      <c r="B2245" s="70"/>
+      <c r="C2245" s="69"/>
+      <c r="D2245" s="69"/>
+    </row>
+    <row r="2246" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2246" s="69"/>
+      <c r="B2246" s="70"/>
+      <c r="C2246" s="71"/>
+      <c r="D2246" s="71"/>
+    </row>
+    <row r="2247" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2247" s="69"/>
+      <c r="B2247" s="70"/>
+      <c r="C2247" s="71"/>
+      <c r="D2247" s="71"/>
+    </row>
+    <row r="2248" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2248" s="69"/>
+      <c r="B2248" s="70"/>
+      <c r="C2248" s="71"/>
+      <c r="D2248" s="71"/>
+    </row>
+    <row r="2249" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2249" s="69"/>
+      <c r="B2249" s="70"/>
+      <c r="C2249" s="71"/>
+      <c r="D2249" s="71"/>
+    </row>
+    <row r="2250" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2250" s="69"/>
+      <c r="B2250" s="70"/>
+      <c r="C2250" s="71"/>
+      <c r="D2250" s="71"/>
+    </row>
+    <row r="2251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2251" s="72"/>
+      <c r="B2251" s="70"/>
+      <c r="C2251" s="71"/>
+      <c r="D2251" s="71"/>
+    </row>
+    <row r="2252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2252" s="72"/>
+      <c r="B2252" s="70"/>
+      <c r="C2252" s="71"/>
+      <c r="D2252" s="71"/>
+    </row>
+    <row r="2253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2253" s="72"/>
+      <c r="B2253" s="70"/>
+      <c r="C2253" s="71"/>
+      <c r="D2253" s="71"/>
+    </row>
+    <row r="2254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2254" s="72"/>
+      <c r="B2254" s="70"/>
+      <c r="C2254" s="71"/>
+      <c r="D2254" s="71"/>
+    </row>
+    <row r="2255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2255" s="72"/>
+      <c r="B2255" s="70"/>
+      <c r="C2255" s="71"/>
+      <c r="D2255" s="71"/>
+    </row>
+    <row r="2256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2256" s="72"/>
+      <c r="B2256" s="70"/>
+      <c r="C2256" s="71"/>
+      <c r="D2256" s="71"/>
+    </row>
+    <row r="2257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2257" s="72"/>
+      <c r="B2257" s="70"/>
+      <c r="C2257" s="71"/>
+      <c r="D2257" s="71"/>
+    </row>
+    <row r="2258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2258" s="72"/>
+      <c r="B2258" s="70"/>
+      <c r="C2258" s="71"/>
+      <c r="D2258" s="71"/>
+    </row>
+    <row r="2259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2259" s="72"/>
+      <c r="B2259" s="70"/>
+      <c r="C2259" s="71"/>
+      <c r="D2259" s="71"/>
+    </row>
+    <row r="2260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2260" s="72"/>
+      <c r="B2260" s="70"/>
+      <c r="C2260" s="71"/>
+      <c r="D2260" s="71"/>
+    </row>
+    <row r="2261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2261" s="72"/>
+      <c r="B2261" s="70"/>
+      <c r="C2261" s="71"/>
+      <c r="D2261" s="71"/>
+    </row>
+    <row r="2262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2262" s="72"/>
+      <c r="B2262" s="70"/>
+      <c r="C2262" s="71"/>
+      <c r="D2262" s="71"/>
+    </row>
+    <row r="2263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2263" s="72"/>
+      <c r="B2263" s="70"/>
+      <c r="C2263" s="71"/>
+      <c r="D2263" s="71"/>
+    </row>
+    <row r="2264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2264" s="72"/>
+      <c r="B2264" s="70"/>
+      <c r="C2264" s="71"/>
+      <c r="D2264" s="71"/>
+    </row>
+    <row r="2265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2265" s="72"/>
+      <c r="B2265" s="70"/>
+      <c r="C2265" s="71"/>
+      <c r="D2265" s="71"/>
+    </row>
+    <row r="2266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2266" s="72"/>
+      <c r="B2266" s="70"/>
+      <c r="C2266" s="71"/>
+      <c r="D2266" s="71"/>
+    </row>
+    <row r="2267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2267" s="72"/>
+      <c r="B2267" s="70"/>
+      <c r="C2267" s="71"/>
+      <c r="D2267" s="71"/>
+    </row>
+    <row r="2268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2268" s="72"/>
+      <c r="B2268" s="70"/>
+      <c r="C2268" s="71"/>
+      <c r="D2268" s="71"/>
+    </row>
+    <row r="2269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2269" s="72"/>
+      <c r="B2269" s="70"/>
+      <c r="C2269" s="71"/>
+      <c r="D2269" s="71"/>
+    </row>
+    <row r="2270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2270" s="72"/>
+      <c r="B2270" s="70"/>
+      <c r="C2270" s="71"/>
+      <c r="D2270" s="71"/>
+    </row>
+    <row r="2271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2271" s="72"/>
+      <c r="B2271" s="70"/>
+      <c r="C2271" s="71"/>
+      <c r="D2271" s="71"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E695"/>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$695</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$2255</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$2497</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7824" uniqueCount="2766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8732" uniqueCount="3020">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -8328,6 +8328,768 @@
   </si>
   <si>
     <t>DSS3259</t>
+  </si>
+  <si>
+    <t>Mohamed Gamal Mohamed Zhran</t>
+  </si>
+  <si>
+    <t>DSS3260</t>
+  </si>
+  <si>
+    <t>DSS3261</t>
+  </si>
+  <si>
+    <t>DSS3262</t>
+  </si>
+  <si>
+    <t>DSS3263</t>
+  </si>
+  <si>
+    <t>DSS3264</t>
+  </si>
+  <si>
+    <t>DSS3265</t>
+  </si>
+  <si>
+    <t>DSS3266</t>
+  </si>
+  <si>
+    <t>DSS3267</t>
+  </si>
+  <si>
+    <t>DSS3268</t>
+  </si>
+  <si>
+    <t>DSS3269</t>
+  </si>
+  <si>
+    <t>DSS3270</t>
+  </si>
+  <si>
+    <t>DSS3271</t>
+  </si>
+  <si>
+    <t>DSS3272</t>
+  </si>
+  <si>
+    <t>DSS3273</t>
+  </si>
+  <si>
+    <t>DSS3274</t>
+  </si>
+  <si>
+    <t>DSS3275</t>
+  </si>
+  <si>
+    <t>DSS3276</t>
+  </si>
+  <si>
+    <t>DSS3277</t>
+  </si>
+  <si>
+    <t>DSS3278</t>
+  </si>
+  <si>
+    <t>DSS3279</t>
+  </si>
+  <si>
+    <t>DSS3280</t>
+  </si>
+  <si>
+    <t>DSS3281</t>
+  </si>
+  <si>
+    <t>DSS3282</t>
+  </si>
+  <si>
+    <t>DSS3283</t>
+  </si>
+  <si>
+    <t>DSS3284</t>
+  </si>
+  <si>
+    <t>DSS3285</t>
+  </si>
+  <si>
+    <t>DSS3286</t>
+  </si>
+  <si>
+    <t>DSS3287</t>
+  </si>
+  <si>
+    <t>DSS3288</t>
+  </si>
+  <si>
+    <t>DSS3289</t>
+  </si>
+  <si>
+    <t>DSS3290</t>
+  </si>
+  <si>
+    <t>DSS3291</t>
+  </si>
+  <si>
+    <t>DSS3292</t>
+  </si>
+  <si>
+    <t>DSS3293</t>
+  </si>
+  <si>
+    <t>DSS3294</t>
+  </si>
+  <si>
+    <t>DSS3295</t>
+  </si>
+  <si>
+    <t>DSS3296</t>
+  </si>
+  <si>
+    <t>DSS3297</t>
+  </si>
+  <si>
+    <t>DSS3298</t>
+  </si>
+  <si>
+    <t>DSS3299</t>
+  </si>
+  <si>
+    <t>DSS3300</t>
+  </si>
+  <si>
+    <t>DSS3301</t>
+  </si>
+  <si>
+    <t>DSS3302</t>
+  </si>
+  <si>
+    <t>DSS3303</t>
+  </si>
+  <si>
+    <t>DSS3304</t>
+  </si>
+  <si>
+    <t>DSS3305</t>
+  </si>
+  <si>
+    <t>DSS3306</t>
+  </si>
+  <si>
+    <t>DSS3307</t>
+  </si>
+  <si>
+    <t>DSS3308</t>
+  </si>
+  <si>
+    <t>DSS3309</t>
+  </si>
+  <si>
+    <t>DSS3310</t>
+  </si>
+  <si>
+    <t>DSS3311</t>
+  </si>
+  <si>
+    <t>DSS3312</t>
+  </si>
+  <si>
+    <t>DSS3313</t>
+  </si>
+  <si>
+    <t>DSS3314</t>
+  </si>
+  <si>
+    <t>DSS3315</t>
+  </si>
+  <si>
+    <t>DSS3316</t>
+  </si>
+  <si>
+    <t>DSS3317</t>
+  </si>
+  <si>
+    <t>DSS3318</t>
+  </si>
+  <si>
+    <t>DSS3319</t>
+  </si>
+  <si>
+    <t>DSS3320</t>
+  </si>
+  <si>
+    <t>DSS3321</t>
+  </si>
+  <si>
+    <t>DSS3322</t>
+  </si>
+  <si>
+    <t>DSS3323</t>
+  </si>
+  <si>
+    <t>DSS3324</t>
+  </si>
+  <si>
+    <t>DSS3325</t>
+  </si>
+  <si>
+    <t>DSS3326</t>
+  </si>
+  <si>
+    <t>DSS3327</t>
+  </si>
+  <si>
+    <t>DSS3328</t>
+  </si>
+  <si>
+    <t>DSS3329</t>
+  </si>
+  <si>
+    <t>DSS3330</t>
+  </si>
+  <si>
+    <t>DSS3331</t>
+  </si>
+  <si>
+    <t>DSS3332</t>
+  </si>
+  <si>
+    <t>DSS3333</t>
+  </si>
+  <si>
+    <t>DSS3334</t>
+  </si>
+  <si>
+    <t>DSS3335</t>
+  </si>
+  <si>
+    <t>DSS3336</t>
+  </si>
+  <si>
+    <t>DSS3337</t>
+  </si>
+  <si>
+    <t>DSS3338</t>
+  </si>
+  <si>
+    <t>DSS3339</t>
+  </si>
+  <si>
+    <t>DSS3340</t>
+  </si>
+  <si>
+    <t>DSS3341</t>
+  </si>
+  <si>
+    <t>DSS3342</t>
+  </si>
+  <si>
+    <t>DSS3343</t>
+  </si>
+  <si>
+    <t>DSS3345</t>
+  </si>
+  <si>
+    <t>DSS3346</t>
+  </si>
+  <si>
+    <t>DSS3347</t>
+  </si>
+  <si>
+    <t>DSS3348</t>
+  </si>
+  <si>
+    <t>DSS3349</t>
+  </si>
+  <si>
+    <t>DSS3350</t>
+  </si>
+  <si>
+    <t>DSS3351</t>
+  </si>
+  <si>
+    <t>DSS3352</t>
+  </si>
+  <si>
+    <t>DSS3353</t>
+  </si>
+  <si>
+    <t>DSS3354</t>
+  </si>
+  <si>
+    <t>DSS3355</t>
+  </si>
+  <si>
+    <t>DSS3356</t>
+  </si>
+  <si>
+    <t>DSS3357</t>
+  </si>
+  <si>
+    <t>DSS3358</t>
+  </si>
+  <si>
+    <t>DSS3359</t>
+  </si>
+  <si>
+    <t>DSS3360</t>
+  </si>
+  <si>
+    <t>DSS3361</t>
+  </si>
+  <si>
+    <t>DSS3362</t>
+  </si>
+  <si>
+    <t>DSS3363</t>
+  </si>
+  <si>
+    <t>DSS3364</t>
+  </si>
+  <si>
+    <t>DSS3365</t>
+  </si>
+  <si>
+    <t>DSS3366</t>
+  </si>
+  <si>
+    <t>DSS3367</t>
+  </si>
+  <si>
+    <t>DSS3368</t>
+  </si>
+  <si>
+    <t>DSS3369</t>
+  </si>
+  <si>
+    <t>DSS3370</t>
+  </si>
+  <si>
+    <t>DSS3371</t>
+  </si>
+  <si>
+    <t>DSS3372</t>
+  </si>
+  <si>
+    <t>DSS3373</t>
+  </si>
+  <si>
+    <t>DSS3374</t>
+  </si>
+  <si>
+    <t>DSS3375</t>
+  </si>
+  <si>
+    <t>DSS3376</t>
+  </si>
+  <si>
+    <t>DSS3377</t>
+  </si>
+  <si>
+    <t>DSS3378</t>
+  </si>
+  <si>
+    <t>DSS3379</t>
+  </si>
+  <si>
+    <t>DSS3380</t>
+  </si>
+  <si>
+    <t>DSS3381</t>
+  </si>
+  <si>
+    <t>DSS3382</t>
+  </si>
+  <si>
+    <t>DSS3383</t>
+  </si>
+  <si>
+    <t>DSS3384</t>
+  </si>
+  <si>
+    <t>DSS3385</t>
+  </si>
+  <si>
+    <t>DSS3386</t>
+  </si>
+  <si>
+    <t>DSS3387</t>
+  </si>
+  <si>
+    <t>DSS3388</t>
+  </si>
+  <si>
+    <t>DSS3389</t>
+  </si>
+  <si>
+    <t>DSS3390</t>
+  </si>
+  <si>
+    <t>DSS3391</t>
+  </si>
+  <si>
+    <t>DSS3392</t>
+  </si>
+  <si>
+    <t>DSS3393</t>
+  </si>
+  <si>
+    <t>DSS3394</t>
+  </si>
+  <si>
+    <t>DSS3395</t>
+  </si>
+  <si>
+    <t>DSS3396</t>
+  </si>
+  <si>
+    <t>DSS3397</t>
+  </si>
+  <si>
+    <t>DSS3398</t>
+  </si>
+  <si>
+    <t>DSS3399</t>
+  </si>
+  <si>
+    <t>DSS3400</t>
+  </si>
+  <si>
+    <t>DSS3401</t>
+  </si>
+  <si>
+    <t>DSS3402</t>
+  </si>
+  <si>
+    <t>DSS3403</t>
+  </si>
+  <si>
+    <t>DSS3404</t>
+  </si>
+  <si>
+    <t>DSS3405</t>
+  </si>
+  <si>
+    <t>DSS3406</t>
+  </si>
+  <si>
+    <t>DSS3407</t>
+  </si>
+  <si>
+    <t>DSS3408</t>
+  </si>
+  <si>
+    <t>DSS3409</t>
+  </si>
+  <si>
+    <t>DSS3410</t>
+  </si>
+  <si>
+    <t>DSS3411</t>
+  </si>
+  <si>
+    <t>DSS3412</t>
+  </si>
+  <si>
+    <t>DSS3413</t>
+  </si>
+  <si>
+    <t>DSS3414</t>
+  </si>
+  <si>
+    <t>05-July-2025</t>
+  </si>
+  <si>
+    <t>10-July-2025</t>
+  </si>
+  <si>
+    <t>06-July-2025</t>
+  </si>
+  <si>
+    <t>03-July-2025</t>
+  </si>
+  <si>
+    <t>01-July-2025</t>
+  </si>
+  <si>
+    <t>02-July-2025</t>
+  </si>
+  <si>
+    <t>07-July-2025</t>
+  </si>
+  <si>
+    <t>08-July-2025</t>
+  </si>
+  <si>
+    <t>Ahmed Nasr Sabry Daif Allah</t>
+  </si>
+  <si>
+    <t>Ahmed Talaat El Sayed El Sayed</t>
+  </si>
+  <si>
+    <t>Maged Ibrahim Gab Allah Ramadan</t>
+  </si>
+  <si>
+    <t>Hisham Mohamed zaki El-Sbbagh</t>
+  </si>
+  <si>
+    <t>Sayed Abdelaal Sayed Ahmed</t>
+  </si>
+  <si>
+    <t>Ahmed Ibrahim Mahmoud Ramadan</t>
+  </si>
+  <si>
+    <t>Ahmed Mohey Eldeen Ramadan</t>
+  </si>
+  <si>
+    <t>SHAHER OMER HASSAN</t>
+  </si>
+  <si>
+    <t>Hatem Shaban Mesbah Shinkada</t>
+  </si>
+  <si>
+    <t>Suliman Sabir Suliman Seedahmed</t>
+  </si>
+  <si>
+    <t>Hazem Atif Hamdy Hafez</t>
+  </si>
+  <si>
+    <t>ABDELRAHMAN ABDELWAHAB YOUNES ATWA</t>
+  </si>
+  <si>
+    <t>ASMAIL MOHAMED ABDELHADl</t>
+  </si>
+  <si>
+    <t>AHMED KHAMEES EID MASOUD</t>
+  </si>
+  <si>
+    <t>MAHMOUD HAFITD IBRAHIM ELSAHATI</t>
+  </si>
+  <si>
+    <t>19-Jun-2025</t>
+  </si>
+  <si>
+    <t>Fouad Mohamed Mohamed Saleh</t>
+  </si>
+  <si>
+    <t>Adel Abdelwahab Mohamed Mohamed</t>
+  </si>
+  <si>
+    <t>Kareem Tarek Mohamed Ali</t>
+  </si>
+  <si>
+    <t>Mohamed Ahmed Mohamed Nemr</t>
+  </si>
+  <si>
+    <t>Abdallah Ebrahim Ahmed Nada</t>
+  </si>
+  <si>
+    <t>Yassine Cherchar</t>
+  </si>
+  <si>
+    <t>Ali Mohamed Ibrahim</t>
+  </si>
+  <si>
+    <t>ABDELRAHIM ZAROUK ZAWAK ABDELRAHIM</t>
+  </si>
+  <si>
+    <t>ALHASSAN ALI ABDALLA ABDELRAHMAN</t>
+  </si>
+  <si>
+    <t>AHMED MOHAMMED ABDULQADIR ALHUWAYJ</t>
+  </si>
+  <si>
+    <t>Mohammad Abdullah Mohammad Heefan</t>
+  </si>
+  <si>
+    <t>SIRAJ ELHABIB ZORQANI</t>
+  </si>
+  <si>
+    <t>DSS3415</t>
+  </si>
+  <si>
+    <t>DSS3416</t>
+  </si>
+  <si>
+    <t>DSS3417</t>
+  </si>
+  <si>
+    <t>DSS3418</t>
+  </si>
+  <si>
+    <t>DSS3419</t>
+  </si>
+  <si>
+    <t>DSS3420</t>
+  </si>
+  <si>
+    <t>DSS3421</t>
+  </si>
+  <si>
+    <t>DSS3422</t>
+  </si>
+  <si>
+    <t>DSS3423</t>
+  </si>
+  <si>
+    <t>DSS3424</t>
+  </si>
+  <si>
+    <t>DSS3425</t>
+  </si>
+  <si>
+    <t>DSS3426</t>
+  </si>
+  <si>
+    <t>DSS3427</t>
+  </si>
+  <si>
+    <t>DSS3428</t>
+  </si>
+  <si>
+    <t>DSS3429</t>
+  </si>
+  <si>
+    <t>DSS3430</t>
+  </si>
+  <si>
+    <t>DSS3431</t>
+  </si>
+  <si>
+    <t>DSS3432</t>
+  </si>
+  <si>
+    <t>DSS3433</t>
+  </si>
+  <si>
+    <t>DSS3434</t>
+  </si>
+  <si>
+    <t>DSS3435</t>
+  </si>
+  <si>
+    <t>DSS3436</t>
+  </si>
+  <si>
+    <t>DSS3437</t>
+  </si>
+  <si>
+    <t>DSS3438</t>
+  </si>
+  <si>
+    <t>DSS3439</t>
+  </si>
+  <si>
+    <t>DSS3440</t>
+  </si>
+  <si>
+    <t>DSS3441</t>
+  </si>
+  <si>
+    <t>DSS3442</t>
+  </si>
+  <si>
+    <t>DSS3443</t>
+  </si>
+  <si>
+    <t>DSS3444</t>
+  </si>
+  <si>
+    <t>DSS3445</t>
+  </si>
+  <si>
+    <t>DSS3446</t>
+  </si>
+  <si>
+    <t>DSS3447</t>
+  </si>
+  <si>
+    <t>DSS3448</t>
+  </si>
+  <si>
+    <t>DSS3449</t>
+  </si>
+  <si>
+    <t>DSS3450</t>
+  </si>
+  <si>
+    <t>DSS3451</t>
+  </si>
+  <si>
+    <t>DSS3452</t>
+  </si>
+  <si>
+    <t>DSS3453</t>
+  </si>
+  <si>
+    <t>DSS3454</t>
+  </si>
+  <si>
+    <t>DSS3455</t>
+  </si>
+  <si>
+    <t>DSS3456</t>
+  </si>
+  <si>
+    <t>DSS3457</t>
+  </si>
+  <si>
+    <t>DSS3458</t>
+  </si>
+  <si>
+    <t>DSS3459</t>
+  </si>
+  <si>
+    <t>DSS3460</t>
+  </si>
+  <si>
+    <t>DSS3461</t>
+  </si>
+  <si>
+    <t>DSS3462</t>
+  </si>
+  <si>
+    <t>DSS3463</t>
+  </si>
+  <si>
+    <t>DSS3464</t>
+  </si>
+  <si>
+    <t>Mohamed Gamal Ahmed Fathylbab</t>
+  </si>
+  <si>
+    <t>DSS3465</t>
+  </si>
+  <si>
+    <t>DSS3466</t>
+  </si>
+  <si>
+    <t>DSS3467</t>
+  </si>
+  <si>
+    <t>DSS3468</t>
+  </si>
+  <si>
+    <t>DSS3469</t>
+  </si>
+  <si>
+    <t>DSS3470</t>
+  </si>
+  <si>
+    <t>DSS3471</t>
+  </si>
+  <si>
+    <t>DSS3472</t>
+  </si>
+  <si>
+    <t>DSS3473</t>
+  </si>
+  <si>
+    <t>Ali Ahmed Awadalla Hamed</t>
+  </si>
+  <si>
+    <t>Fire Fighting &amp; Fire Watcher</t>
+  </si>
+  <si>
+    <t>15-July-2025</t>
   </si>
 </sst>
 </file>
@@ -8400,7 +9162,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8452,12 +9214,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8542,7 +9298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -8748,16 +9504,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="10" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9040,10 +9790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2271"/>
+  <dimension ref="A1:E2475"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2231" zoomScale="148" zoomScaleNormal="100" zoomScaleSheetLayoutView="148" workbookViewId="0">
-      <selection activeCell="C2240" sqref="C2240"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2444" zoomScale="148" zoomScaleNormal="100" zoomScaleSheetLayoutView="148" workbookViewId="0">
+      <selection activeCell="C2461" sqref="C2461"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41083,8 +41833,8 @@
       <c r="C1906" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1906" s="35">
-        <v>45782</v>
+      <c r="D1906" s="35" t="s">
+        <v>2432</v>
       </c>
       <c r="E1906" s="13">
         <v>1</v>
@@ -41100,8 +41850,8 @@
       <c r="C1907" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="D1907" s="35">
-        <v>45935</v>
+      <c r="D1907" s="35" t="s">
+        <v>2433</v>
       </c>
       <c r="E1907" s="13">
         <v>1</v>
@@ -41117,8 +41867,8 @@
       <c r="C1908" s="35" t="s">
         <v>952</v>
       </c>
-      <c r="D1908" s="35">
-        <v>45813</v>
+      <c r="D1908" s="35" t="s">
+        <v>2434</v>
       </c>
       <c r="E1908" s="13">
         <v>1</v>
@@ -41134,8 +41884,8 @@
       <c r="C1909" s="35" t="s">
         <v>262</v>
       </c>
-      <c r="D1909" s="35">
-        <v>45721</v>
+      <c r="D1909" s="35" t="s">
+        <v>2435</v>
       </c>
       <c r="E1909" s="13">
         <v>1</v>
@@ -41151,8 +41901,8 @@
       <c r="C1910" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="D1910" s="35">
-        <v>45662</v>
+      <c r="D1910" s="35" t="s">
+        <v>2436</v>
       </c>
       <c r="E1910" s="13">
         <v>1</v>
@@ -41168,8 +41918,8 @@
       <c r="C1911" s="35" t="s">
         <v>263</v>
       </c>
-      <c r="D1911" s="35">
-        <v>45693</v>
+      <c r="D1911" s="35" t="s">
+        <v>2437</v>
       </c>
       <c r="E1911" s="13">
         <v>1</v>
@@ -41185,8 +41935,8 @@
       <c r="C1912" s="35" t="s">
         <v>252</v>
       </c>
-      <c r="D1912" s="35">
-        <v>45843</v>
+      <c r="D1912" s="35" t="s">
+        <v>2438</v>
       </c>
       <c r="E1912" s="13">
         <v>1</v>
@@ -41202,8 +41952,8 @@
       <c r="C1913" s="35" t="s">
         <v>231</v>
       </c>
-      <c r="D1913" s="35">
-        <v>45874</v>
+      <c r="D1913" s="35" t="s">
+        <v>2439</v>
       </c>
       <c r="E1913" s="13">
         <v>1</v>
@@ -41219,8 +41969,8 @@
       <c r="C1914" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D1914" s="36">
-        <v>45782</v>
+      <c r="D1914" s="36" t="s">
+        <v>2432</v>
       </c>
       <c r="E1914" s="13">
         <v>1</v>
@@ -41236,8 +41986,8 @@
       <c r="C1915" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="D1915" s="36">
-        <v>45935</v>
+      <c r="D1915" s="36" t="s">
+        <v>2433</v>
       </c>
       <c r="E1915" s="13">
         <v>1</v>
@@ -41253,8 +42003,8 @@
       <c r="C1916" s="36" t="s">
         <v>952</v>
       </c>
-      <c r="D1916" s="36">
-        <v>45813</v>
+      <c r="D1916" s="36" t="s">
+        <v>2434</v>
       </c>
       <c r="E1916" s="13">
         <v>1</v>
@@ -41270,8 +42020,8 @@
       <c r="C1917" s="36" t="s">
         <v>262</v>
       </c>
-      <c r="D1917" s="36">
-        <v>45721</v>
+      <c r="D1917" s="36" t="s">
+        <v>2435</v>
       </c>
       <c r="E1917" s="13">
         <v>1</v>
@@ -41287,8 +42037,8 @@
       <c r="C1918" s="36" t="s">
         <v>247</v>
       </c>
-      <c r="D1918" s="36">
-        <v>45662</v>
+      <c r="D1918" s="36" t="s">
+        <v>2436</v>
       </c>
       <c r="E1918" s="13">
         <v>1</v>
@@ -41304,8 +42054,8 @@
       <c r="C1919" s="36" t="s">
         <v>263</v>
       </c>
-      <c r="D1919" s="36">
-        <v>45693</v>
+      <c r="D1919" s="36" t="s">
+        <v>2437</v>
       </c>
       <c r="E1919" s="13">
         <v>1</v>
@@ -41321,8 +42071,8 @@
       <c r="C1920" s="36" t="s">
         <v>252</v>
       </c>
-      <c r="D1920" s="36">
-        <v>45843</v>
+      <c r="D1920" s="36" t="s">
+        <v>2438</v>
       </c>
       <c r="E1920" s="13">
         <v>1</v>
@@ -41338,8 +42088,8 @@
       <c r="C1921" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="D1921" s="36">
-        <v>45874</v>
+      <c r="D1921" s="36" t="s">
+        <v>2439</v>
       </c>
       <c r="E1921" s="13">
         <v>1</v>
@@ -41355,8 +42105,8 @@
       <c r="C1922" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1922" s="35">
-        <v>45782</v>
+      <c r="D1922" s="35" t="s">
+        <v>2432</v>
       </c>
       <c r="E1922" s="13">
         <v>1</v>
@@ -41372,8 +42122,8 @@
       <c r="C1923" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="D1923" s="35">
-        <v>45935</v>
+      <c r="D1923" s="35" t="s">
+        <v>2433</v>
       </c>
       <c r="E1923" s="13">
         <v>1</v>
@@ -41389,8 +42139,8 @@
       <c r="C1924" s="35" t="s">
         <v>952</v>
       </c>
-      <c r="D1924" s="35">
-        <v>45813</v>
+      <c r="D1924" s="35" t="s">
+        <v>2434</v>
       </c>
       <c r="E1924" s="13">
         <v>1</v>
@@ -41406,8 +42156,8 @@
       <c r="C1925" s="35" t="s">
         <v>262</v>
       </c>
-      <c r="D1925" s="35">
-        <v>45721</v>
+      <c r="D1925" s="35" t="s">
+        <v>2435</v>
       </c>
       <c r="E1925" s="13">
         <v>1</v>
@@ -41423,8 +42173,8 @@
       <c r="C1926" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="D1926" s="35">
-        <v>45662</v>
+      <c r="D1926" s="35" t="s">
+        <v>2436</v>
       </c>
       <c r="E1926" s="13">
         <v>1</v>
@@ -41440,8 +42190,8 @@
       <c r="C1927" s="35" t="s">
         <v>263</v>
       </c>
-      <c r="D1927" s="35">
-        <v>45693</v>
+      <c r="D1927" s="35" t="s">
+        <v>2437</v>
       </c>
       <c r="E1927" s="13">
         <v>1</v>
@@ -41457,8 +42207,8 @@
       <c r="C1928" s="35" t="s">
         <v>252</v>
       </c>
-      <c r="D1928" s="35">
-        <v>45843</v>
+      <c r="D1928" s="35" t="s">
+        <v>2438</v>
       </c>
       <c r="E1928" s="13">
         <v>1</v>
@@ -41474,8 +42224,8 @@
       <c r="C1929" s="35" t="s">
         <v>231</v>
       </c>
-      <c r="D1929" s="35">
-        <v>45874</v>
+      <c r="D1929" s="35" t="s">
+        <v>2439</v>
       </c>
       <c r="E1929" s="13">
         <v>1</v>
@@ -41491,8 +42241,8 @@
       <c r="C1930" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D1930" s="36">
-        <v>45782</v>
+      <c r="D1930" s="36" t="s">
+        <v>2432</v>
       </c>
       <c r="E1930" s="13">
         <v>1</v>
@@ -41508,8 +42258,8 @@
       <c r="C1931" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="D1931" s="36">
-        <v>45935</v>
+      <c r="D1931" s="36" t="s">
+        <v>2433</v>
       </c>
       <c r="E1931" s="13">
         <v>1</v>
@@ -41525,8 +42275,8 @@
       <c r="C1932" s="36" t="s">
         <v>952</v>
       </c>
-      <c r="D1932" s="36">
-        <v>45813</v>
+      <c r="D1932" s="36" t="s">
+        <v>2434</v>
       </c>
       <c r="E1932" s="13">
         <v>1</v>
@@ -41542,8 +42292,8 @@
       <c r="C1933" s="36" t="s">
         <v>262</v>
       </c>
-      <c r="D1933" s="36">
-        <v>45721</v>
+      <c r="D1933" s="36" t="s">
+        <v>2435</v>
       </c>
       <c r="E1933" s="13">
         <v>1</v>
@@ -41559,8 +42309,8 @@
       <c r="C1934" s="36" t="s">
         <v>247</v>
       </c>
-      <c r="D1934" s="36">
-        <v>45662</v>
+      <c r="D1934" s="36" t="s">
+        <v>2436</v>
       </c>
       <c r="E1934" s="13">
         <v>1</v>
@@ -41576,8 +42326,8 @@
       <c r="C1935" s="36" t="s">
         <v>263</v>
       </c>
-      <c r="D1935" s="36">
-        <v>45693</v>
+      <c r="D1935" s="36" t="s">
+        <v>2437</v>
       </c>
       <c r="E1935" s="13">
         <v>1</v>
@@ -41593,8 +42343,8 @@
       <c r="C1936" s="36" t="s">
         <v>252</v>
       </c>
-      <c r="D1936" s="36">
-        <v>45843</v>
+      <c r="D1936" s="36" t="s">
+        <v>2438</v>
       </c>
       <c r="E1936" s="13">
         <v>1</v>
@@ -41610,8 +42360,8 @@
       <c r="C1937" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="D1937" s="36">
-        <v>45874</v>
+      <c r="D1937" s="36" t="s">
+        <v>2439</v>
       </c>
       <c r="E1937" s="13">
         <v>1</v>
@@ -41627,8 +42377,8 @@
       <c r="C1938" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1938" s="35">
-        <v>45782</v>
+      <c r="D1938" s="35" t="s">
+        <v>2432</v>
       </c>
       <c r="E1938" s="13">
         <v>1</v>
@@ -41644,8 +42394,8 @@
       <c r="C1939" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="D1939" s="35">
-        <v>45935</v>
+      <c r="D1939" s="35" t="s">
+        <v>2433</v>
       </c>
       <c r="E1939" s="13">
         <v>1</v>
@@ -41661,8 +42411,8 @@
       <c r="C1940" s="35" t="s">
         <v>952</v>
       </c>
-      <c r="D1940" s="35">
-        <v>45813</v>
+      <c r="D1940" s="35" t="s">
+        <v>2434</v>
       </c>
       <c r="E1940" s="13">
         <v>1</v>
@@ -41678,8 +42428,8 @@
       <c r="C1941" s="35" t="s">
         <v>262</v>
       </c>
-      <c r="D1941" s="35">
-        <v>45721</v>
+      <c r="D1941" s="35" t="s">
+        <v>2435</v>
       </c>
       <c r="E1941" s="13">
         <v>1</v>
@@ -41695,8 +42445,8 @@
       <c r="C1942" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="D1942" s="35">
-        <v>45662</v>
+      <c r="D1942" s="35" t="s">
+        <v>2436</v>
       </c>
       <c r="E1942" s="13">
         <v>1</v>
@@ -41712,8 +42462,8 @@
       <c r="C1943" s="35" t="s">
         <v>263</v>
       </c>
-      <c r="D1943" s="35">
-        <v>45693</v>
+      <c r="D1943" s="35" t="s">
+        <v>2437</v>
       </c>
       <c r="E1943" s="13">
         <v>1</v>
@@ -41729,8 +42479,8 @@
       <c r="C1944" s="35" t="s">
         <v>252</v>
       </c>
-      <c r="D1944" s="35">
-        <v>45843</v>
+      <c r="D1944" s="35" t="s">
+        <v>2438</v>
       </c>
       <c r="E1944" s="13">
         <v>1</v>
@@ -41746,8 +42496,8 @@
       <c r="C1945" s="35" t="s">
         <v>231</v>
       </c>
-      <c r="D1945" s="35">
-        <v>45874</v>
+      <c r="D1945" s="35" t="s">
+        <v>2439</v>
       </c>
       <c r="E1945" s="13">
         <v>1</v>
@@ -41763,8 +42513,8 @@
       <c r="C1946" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D1946" s="36">
-        <v>45782</v>
+      <c r="D1946" s="36" t="s">
+        <v>2432</v>
       </c>
       <c r="E1946" s="13">
         <v>1</v>
@@ -41780,8 +42530,8 @@
       <c r="C1947" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="D1947" s="36">
-        <v>45935</v>
+      <c r="D1947" s="36" t="s">
+        <v>2433</v>
       </c>
       <c r="E1947" s="13">
         <v>1</v>
@@ -41797,8 +42547,8 @@
       <c r="C1948" s="36" t="s">
         <v>952</v>
       </c>
-      <c r="D1948" s="36">
-        <v>45813</v>
+      <c r="D1948" s="36" t="s">
+        <v>2434</v>
       </c>
       <c r="E1948" s="13">
         <v>1</v>
@@ -41814,8 +42564,8 @@
       <c r="C1949" s="36" t="s">
         <v>262</v>
       </c>
-      <c r="D1949" s="36">
-        <v>45721</v>
+      <c r="D1949" s="36" t="s">
+        <v>2435</v>
       </c>
       <c r="E1949" s="13">
         <v>1</v>
@@ -41831,8 +42581,8 @@
       <c r="C1950" s="36" t="s">
         <v>247</v>
       </c>
-      <c r="D1950" s="36">
-        <v>45662</v>
+      <c r="D1950" s="36" t="s">
+        <v>2436</v>
       </c>
       <c r="E1950" s="13">
         <v>1</v>
@@ -41848,8 +42598,8 @@
       <c r="C1951" s="36" t="s">
         <v>263</v>
       </c>
-      <c r="D1951" s="36">
-        <v>45693</v>
+      <c r="D1951" s="36" t="s">
+        <v>2437</v>
       </c>
       <c r="E1951" s="13">
         <v>1</v>
@@ -41865,8 +42615,8 @@
       <c r="C1952" s="36" t="s">
         <v>252</v>
       </c>
-      <c r="D1952" s="36">
-        <v>45843</v>
+      <c r="D1952" s="36" t="s">
+        <v>2438</v>
       </c>
       <c r="E1952" s="13">
         <v>1</v>
@@ -41882,8 +42632,8 @@
       <c r="C1953" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="D1953" s="36">
-        <v>45874</v>
+      <c r="D1953" s="36" t="s">
+        <v>2439</v>
       </c>
       <c r="E1953" s="13">
         <v>1</v>
@@ -41950,8 +42700,8 @@
       <c r="C1957" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D1957" s="36">
-        <v>45051</v>
+      <c r="D1957" s="36" t="s">
+        <v>2432</v>
       </c>
       <c r="E1957" s="13">
         <v>1</v>
@@ -41967,8 +42717,8 @@
       <c r="C1958" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="D1958" s="36">
-        <v>45204</v>
+      <c r="D1958" s="36" t="s">
+        <v>2433</v>
       </c>
       <c r="E1958" s="13">
         <v>1</v>
@@ -41984,8 +42734,8 @@
       <c r="C1959" s="36" t="s">
         <v>952</v>
       </c>
-      <c r="D1959" s="36">
-        <v>45082</v>
+      <c r="D1959" s="36" t="s">
+        <v>2434</v>
       </c>
       <c r="E1959" s="13">
         <v>1</v>
@@ -42001,8 +42751,8 @@
       <c r="C1960" s="36" t="s">
         <v>262</v>
       </c>
-      <c r="D1960" s="36">
-        <v>44990</v>
+      <c r="D1960" s="36" t="s">
+        <v>2435</v>
       </c>
       <c r="E1960" s="13">
         <v>1</v>
@@ -42018,8 +42768,8 @@
       <c r="C1961" s="36" t="s">
         <v>247</v>
       </c>
-      <c r="D1961" s="36">
-        <v>44931</v>
+      <c r="D1961" s="36" t="s">
+        <v>2436</v>
       </c>
       <c r="E1961" s="13">
         <v>1</v>
@@ -42035,8 +42785,8 @@
       <c r="C1962" s="36" t="s">
         <v>263</v>
       </c>
-      <c r="D1962" s="36">
-        <v>44962</v>
+      <c r="D1962" s="36" t="s">
+        <v>2437</v>
       </c>
       <c r="E1962" s="13">
         <v>1</v>
@@ -42052,8 +42802,8 @@
       <c r="C1963" s="36" t="s">
         <v>252</v>
       </c>
-      <c r="D1963" s="36">
-        <v>45112</v>
+      <c r="D1963" s="36" t="s">
+        <v>2438</v>
       </c>
       <c r="E1963" s="13">
         <v>1</v>
@@ -42069,8 +42819,8 @@
       <c r="C1964" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="D1964" s="36">
-        <v>45143</v>
+      <c r="D1964" s="36" t="s">
+        <v>2439</v>
       </c>
       <c r="E1964" s="13">
         <v>1</v>
@@ -46837,173 +47587,3686 @@
       </c>
     </row>
     <row r="2245" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2245" s="69"/>
-      <c r="B2245" s="70"/>
-      <c r="C2245" s="69"/>
-      <c r="D2245" s="69"/>
+      <c r="A2245" s="36" t="s">
+        <v>2767</v>
+      </c>
+      <c r="B2245" s="36" t="s">
+        <v>2766</v>
+      </c>
+      <c r="C2245" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2245" s="36" t="s">
+        <v>2921</v>
+      </c>
+      <c r="E2245" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="2246" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2246" s="69"/>
-      <c r="B2246" s="70"/>
-      <c r="C2246" s="71"/>
-      <c r="D2246" s="71"/>
+      <c r="A2246" s="36" t="s">
+        <v>2768</v>
+      </c>
+      <c r="B2246" s="36" t="s">
+        <v>2766</v>
+      </c>
+      <c r="C2246" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2246" s="36" t="s">
+        <v>2922</v>
+      </c>
+      <c r="E2246" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="2247" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2247" s="69"/>
-      <c r="B2247" s="70"/>
-      <c r="C2247" s="71"/>
-      <c r="D2247" s="71"/>
+      <c r="A2247" s="36" t="s">
+        <v>2769</v>
+      </c>
+      <c r="B2247" s="36" t="s">
+        <v>2766</v>
+      </c>
+      <c r="C2247" s="36" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2247" s="36" t="s">
+        <v>2923</v>
+      </c>
+      <c r="E2247" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="2248" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2248" s="69"/>
-      <c r="B2248" s="70"/>
-      <c r="C2248" s="71"/>
-      <c r="D2248" s="71"/>
+      <c r="A2248" s="36" t="s">
+        <v>2770</v>
+      </c>
+      <c r="B2248" s="36" t="s">
+        <v>2766</v>
+      </c>
+      <c r="C2248" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2248" s="36" t="s">
+        <v>2924</v>
+      </c>
+      <c r="E2248" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="2249" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2249" s="69"/>
-      <c r="B2249" s="70"/>
-      <c r="C2249" s="71"/>
-      <c r="D2249" s="71"/>
+      <c r="A2249" s="36" t="s">
+        <v>2771</v>
+      </c>
+      <c r="B2249" s="36" t="s">
+        <v>2766</v>
+      </c>
+      <c r="C2249" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2249" s="36" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E2249" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="2250" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2250" s="69"/>
-      <c r="B2250" s="70"/>
-      <c r="C2250" s="71"/>
-      <c r="D2250" s="71"/>
-    </row>
-    <row r="2251" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2251" s="72"/>
-      <c r="B2251" s="70"/>
-      <c r="C2251" s="71"/>
-      <c r="D2251" s="71"/>
-    </row>
-    <row r="2252" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2252" s="72"/>
-      <c r="B2252" s="70"/>
-      <c r="C2252" s="71"/>
-      <c r="D2252" s="71"/>
-    </row>
-    <row r="2253" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2253" s="72"/>
-      <c r="B2253" s="70"/>
-      <c r="C2253" s="71"/>
-      <c r="D2253" s="71"/>
-    </row>
-    <row r="2254" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2254" s="72"/>
-      <c r="B2254" s="70"/>
-      <c r="C2254" s="71"/>
-      <c r="D2254" s="71"/>
-    </row>
-    <row r="2255" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2255" s="72"/>
-      <c r="B2255" s="70"/>
-      <c r="C2255" s="71"/>
-      <c r="D2255" s="71"/>
-    </row>
-    <row r="2256" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2256" s="72"/>
-      <c r="B2256" s="70"/>
-      <c r="C2256" s="71"/>
-      <c r="D2256" s="71"/>
-    </row>
-    <row r="2257" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2257" s="72"/>
-      <c r="B2257" s="70"/>
-      <c r="C2257" s="71"/>
-      <c r="D2257" s="71"/>
-    </row>
-    <row r="2258" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2258" s="72"/>
-      <c r="B2258" s="70"/>
-      <c r="C2258" s="71"/>
-      <c r="D2258" s="71"/>
-    </row>
-    <row r="2259" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2259" s="72"/>
-      <c r="B2259" s="70"/>
-      <c r="C2259" s="71"/>
-      <c r="D2259" s="71"/>
-    </row>
-    <row r="2260" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2260" s="72"/>
-      <c r="B2260" s="70"/>
-      <c r="C2260" s="71"/>
-      <c r="D2260" s="71"/>
-    </row>
-    <row r="2261" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2261" s="72"/>
-      <c r="B2261" s="70"/>
-      <c r="C2261" s="71"/>
-      <c r="D2261" s="71"/>
-    </row>
-    <row r="2262" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2262" s="72"/>
-      <c r="B2262" s="70"/>
-      <c r="C2262" s="71"/>
-      <c r="D2262" s="71"/>
-    </row>
-    <row r="2263" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2263" s="72"/>
-      <c r="B2263" s="70"/>
-      <c r="C2263" s="71"/>
-      <c r="D2263" s="71"/>
-    </row>
-    <row r="2264" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2264" s="72"/>
-      <c r="B2264" s="70"/>
-      <c r="C2264" s="71"/>
-      <c r="D2264" s="71"/>
-    </row>
-    <row r="2265" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2265" s="72"/>
-      <c r="B2265" s="70"/>
-      <c r="C2265" s="71"/>
-      <c r="D2265" s="71"/>
-    </row>
-    <row r="2266" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2266" s="72"/>
-      <c r="B2266" s="70"/>
-      <c r="C2266" s="71"/>
-      <c r="D2266" s="71"/>
-    </row>
-    <row r="2267" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2267" s="72"/>
-      <c r="B2267" s="70"/>
-      <c r="C2267" s="71"/>
-      <c r="D2267" s="71"/>
-    </row>
-    <row r="2268" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2268" s="72"/>
-      <c r="B2268" s="70"/>
-      <c r="C2268" s="71"/>
-      <c r="D2268" s="71"/>
-    </row>
-    <row r="2269" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2269" s="72"/>
-      <c r="B2269" s="70"/>
-      <c r="C2269" s="71"/>
-      <c r="D2269" s="71"/>
-    </row>
-    <row r="2270" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2270" s="72"/>
-      <c r="B2270" s="70"/>
-      <c r="C2270" s="71"/>
-      <c r="D2270" s="71"/>
-    </row>
-    <row r="2271" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2271" s="72"/>
-      <c r="B2271" s="70"/>
-      <c r="C2271" s="71"/>
-      <c r="D2271" s="71"/>
+      <c r="A2250" s="36" t="s">
+        <v>2772</v>
+      </c>
+      <c r="B2250" s="36" t="s">
+        <v>2766</v>
+      </c>
+      <c r="C2250" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2250" s="36" t="s">
+        <v>2926</v>
+      </c>
+      <c r="E2250" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2251" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2251" s="36" t="s">
+        <v>2773</v>
+      </c>
+      <c r="B2251" s="36" t="s">
+        <v>2766</v>
+      </c>
+      <c r="C2251" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2251" s="36" t="s">
+        <v>2927</v>
+      </c>
+      <c r="E2251" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2252" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2252" s="36" t="s">
+        <v>2774</v>
+      </c>
+      <c r="B2252" s="36" t="s">
+        <v>2766</v>
+      </c>
+      <c r="C2252" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2252" s="36" t="s">
+        <v>2928</v>
+      </c>
+      <c r="E2252" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2253" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2253" s="35" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B2253" s="35" t="s">
+        <v>2929</v>
+      </c>
+      <c r="C2253" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2253" s="35" t="s">
+        <v>2921</v>
+      </c>
+      <c r="E2253" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2254" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2254" s="35" t="s">
+        <v>2776</v>
+      </c>
+      <c r="B2254" s="35" t="s">
+        <v>2929</v>
+      </c>
+      <c r="C2254" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2254" s="35" t="s">
+        <v>2922</v>
+      </c>
+      <c r="E2254" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2255" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2255" s="35" t="s">
+        <v>2777</v>
+      </c>
+      <c r="B2255" s="35" t="s">
+        <v>2929</v>
+      </c>
+      <c r="C2255" s="35" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2255" s="35" t="s">
+        <v>2923</v>
+      </c>
+      <c r="E2255" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2256" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2256" s="35" t="s">
+        <v>2778</v>
+      </c>
+      <c r="B2256" s="35" t="s">
+        <v>2929</v>
+      </c>
+      <c r="C2256" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2256" s="35" t="s">
+        <v>2924</v>
+      </c>
+      <c r="E2256" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2257" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2257" s="35" t="s">
+        <v>2779</v>
+      </c>
+      <c r="B2257" s="35" t="s">
+        <v>2929</v>
+      </c>
+      <c r="C2257" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2257" s="35" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E2257" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2258" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2258" s="35" t="s">
+        <v>2780</v>
+      </c>
+      <c r="B2258" s="35" t="s">
+        <v>2929</v>
+      </c>
+      <c r="C2258" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2258" s="35" t="s">
+        <v>2926</v>
+      </c>
+      <c r="E2258" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2259" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2259" s="35" t="s">
+        <v>2781</v>
+      </c>
+      <c r="B2259" s="35" t="s">
+        <v>2929</v>
+      </c>
+      <c r="C2259" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2259" s="35" t="s">
+        <v>2927</v>
+      </c>
+      <c r="E2259" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2260" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2260" s="35" t="s">
+        <v>2782</v>
+      </c>
+      <c r="B2260" s="35" t="s">
+        <v>2929</v>
+      </c>
+      <c r="C2260" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2260" s="35" t="s">
+        <v>2928</v>
+      </c>
+      <c r="E2260" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2261" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2261" s="36" t="s">
+        <v>2783</v>
+      </c>
+      <c r="B2261" s="36" t="s">
+        <v>2930</v>
+      </c>
+      <c r="C2261" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2261" s="36" t="s">
+        <v>2921</v>
+      </c>
+      <c r="E2261" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2262" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2262" s="36" t="s">
+        <v>2784</v>
+      </c>
+      <c r="B2262" s="36" t="s">
+        <v>2930</v>
+      </c>
+      <c r="C2262" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2262" s="36" t="s">
+        <v>2922</v>
+      </c>
+      <c r="E2262" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2263" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2263" s="36" t="s">
+        <v>2785</v>
+      </c>
+      <c r="B2263" s="36" t="s">
+        <v>2930</v>
+      </c>
+      <c r="C2263" s="36" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2263" s="36" t="s">
+        <v>2923</v>
+      </c>
+      <c r="E2263" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2264" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2264" s="36" t="s">
+        <v>2786</v>
+      </c>
+      <c r="B2264" s="36" t="s">
+        <v>2930</v>
+      </c>
+      <c r="C2264" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2264" s="36" t="s">
+        <v>2924</v>
+      </c>
+      <c r="E2264" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2265" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2265" s="36" t="s">
+        <v>2787</v>
+      </c>
+      <c r="B2265" s="36" t="s">
+        <v>2930</v>
+      </c>
+      <c r="C2265" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2265" s="36" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E2265" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2266" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2266" s="36" t="s">
+        <v>2788</v>
+      </c>
+      <c r="B2266" s="36" t="s">
+        <v>2930</v>
+      </c>
+      <c r="C2266" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2266" s="36" t="s">
+        <v>2926</v>
+      </c>
+      <c r="E2266" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2267" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2267" s="36" t="s">
+        <v>2789</v>
+      </c>
+      <c r="B2267" s="36" t="s">
+        <v>2930</v>
+      </c>
+      <c r="C2267" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2267" s="36" t="s">
+        <v>2927</v>
+      </c>
+      <c r="E2267" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2268" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2268" s="36" t="s">
+        <v>2790</v>
+      </c>
+      <c r="B2268" s="36" t="s">
+        <v>2930</v>
+      </c>
+      <c r="C2268" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2268" s="36" t="s">
+        <v>2928</v>
+      </c>
+      <c r="E2268" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2269" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2269" s="35" t="s">
+        <v>2791</v>
+      </c>
+      <c r="B2269" s="35" t="s">
+        <v>2931</v>
+      </c>
+      <c r="C2269" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2269" s="35" t="s">
+        <v>2921</v>
+      </c>
+      <c r="E2269" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2270" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2270" s="35" t="s">
+        <v>2792</v>
+      </c>
+      <c r="B2270" s="35" t="s">
+        <v>2931</v>
+      </c>
+      <c r="C2270" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2270" s="35" t="s">
+        <v>2922</v>
+      </c>
+      <c r="E2270" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2271" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2271" s="35" t="s">
+        <v>2793</v>
+      </c>
+      <c r="B2271" s="35" t="s">
+        <v>2931</v>
+      </c>
+      <c r="C2271" s="35" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2271" s="35" t="s">
+        <v>2923</v>
+      </c>
+      <c r="E2271" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2272" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2272" s="35" t="s">
+        <v>2794</v>
+      </c>
+      <c r="B2272" s="35" t="s">
+        <v>2931</v>
+      </c>
+      <c r="C2272" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2272" s="35" t="s">
+        <v>2924</v>
+      </c>
+      <c r="E2272" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2273" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2273" s="35" t="s">
+        <v>2795</v>
+      </c>
+      <c r="B2273" s="35" t="s">
+        <v>2931</v>
+      </c>
+      <c r="C2273" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2273" s="35" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E2273" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2274" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2274" s="35" t="s">
+        <v>2796</v>
+      </c>
+      <c r="B2274" s="35" t="s">
+        <v>2931</v>
+      </c>
+      <c r="C2274" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2274" s="35" t="s">
+        <v>2926</v>
+      </c>
+      <c r="E2274" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2275" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2275" s="35" t="s">
+        <v>2797</v>
+      </c>
+      <c r="B2275" s="35" t="s">
+        <v>2931</v>
+      </c>
+      <c r="C2275" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2275" s="35" t="s">
+        <v>2927</v>
+      </c>
+      <c r="E2275" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2276" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2276" s="35" t="s">
+        <v>2798</v>
+      </c>
+      <c r="B2276" s="35" t="s">
+        <v>2931</v>
+      </c>
+      <c r="C2276" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2276" s="35" t="s">
+        <v>2928</v>
+      </c>
+      <c r="E2276" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2277" s="46" t="s">
+        <v>2799</v>
+      </c>
+      <c r="B2277" s="46" t="s">
+        <v>2932</v>
+      </c>
+      <c r="C2277" s="69" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2277" s="69" t="s">
+        <v>2588</v>
+      </c>
+      <c r="E2277" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2278" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2278" s="36" t="s">
+        <v>2800</v>
+      </c>
+      <c r="B2278" s="36" t="s">
+        <v>2933</v>
+      </c>
+      <c r="C2278" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2278" s="36" t="s">
+        <v>2921</v>
+      </c>
+      <c r="E2278" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2279" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2279" s="36" t="s">
+        <v>2801</v>
+      </c>
+      <c r="B2279" s="36" t="s">
+        <v>2933</v>
+      </c>
+      <c r="C2279" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2279" s="36" t="s">
+        <v>2922</v>
+      </c>
+      <c r="E2279" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2280" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2280" s="36" t="s">
+        <v>2802</v>
+      </c>
+      <c r="B2280" s="36" t="s">
+        <v>2933</v>
+      </c>
+      <c r="C2280" s="36" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2280" s="36" t="s">
+        <v>2923</v>
+      </c>
+      <c r="E2280" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2281" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2281" s="36" t="s">
+        <v>2803</v>
+      </c>
+      <c r="B2281" s="36" t="s">
+        <v>2933</v>
+      </c>
+      <c r="C2281" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2281" s="36" t="s">
+        <v>2924</v>
+      </c>
+      <c r="E2281" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2282" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2282" s="36" t="s">
+        <v>2804</v>
+      </c>
+      <c r="B2282" s="36" t="s">
+        <v>2933</v>
+      </c>
+      <c r="C2282" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2282" s="36" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E2282" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2283" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2283" s="36" t="s">
+        <v>2805</v>
+      </c>
+      <c r="B2283" s="36" t="s">
+        <v>2933</v>
+      </c>
+      <c r="C2283" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2283" s="36" t="s">
+        <v>2926</v>
+      </c>
+      <c r="E2283" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2284" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2284" s="36" t="s">
+        <v>2806</v>
+      </c>
+      <c r="B2284" s="36" t="s">
+        <v>2933</v>
+      </c>
+      <c r="C2284" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2284" s="36" t="s">
+        <v>2927</v>
+      </c>
+      <c r="E2284" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2285" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2285" s="36" t="s">
+        <v>2807</v>
+      </c>
+      <c r="B2285" s="36" t="s">
+        <v>2933</v>
+      </c>
+      <c r="C2285" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2285" s="36" t="s">
+        <v>2928</v>
+      </c>
+      <c r="E2285" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2286" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2286" s="35" t="s">
+        <v>2808</v>
+      </c>
+      <c r="B2286" s="35" t="s">
+        <v>2934</v>
+      </c>
+      <c r="C2286" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2286" s="35" t="s">
+        <v>2921</v>
+      </c>
+      <c r="E2286" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2287" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2287" s="35" t="s">
+        <v>2809</v>
+      </c>
+      <c r="B2287" s="35" t="s">
+        <v>2934</v>
+      </c>
+      <c r="C2287" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2287" s="35" t="s">
+        <v>2922</v>
+      </c>
+      <c r="E2287" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2288" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2288" s="35" t="s">
+        <v>2810</v>
+      </c>
+      <c r="B2288" s="35" t="s">
+        <v>2934</v>
+      </c>
+      <c r="C2288" s="35" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2288" s="35" t="s">
+        <v>2923</v>
+      </c>
+      <c r="E2288" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2289" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2289" s="35" t="s">
+        <v>2811</v>
+      </c>
+      <c r="B2289" s="35" t="s">
+        <v>2934</v>
+      </c>
+      <c r="C2289" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2289" s="35" t="s">
+        <v>2924</v>
+      </c>
+      <c r="E2289" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2290" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2290" s="35" t="s">
+        <v>2812</v>
+      </c>
+      <c r="B2290" s="35" t="s">
+        <v>2934</v>
+      </c>
+      <c r="C2290" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2290" s="35" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E2290" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2291" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2291" s="35" t="s">
+        <v>2813</v>
+      </c>
+      <c r="B2291" s="35" t="s">
+        <v>2934</v>
+      </c>
+      <c r="C2291" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2291" s="35" t="s">
+        <v>2926</v>
+      </c>
+      <c r="E2291" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2292" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2292" s="35" t="s">
+        <v>2814</v>
+      </c>
+      <c r="B2292" s="35" t="s">
+        <v>2934</v>
+      </c>
+      <c r="C2292" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2292" s="35" t="s">
+        <v>2927</v>
+      </c>
+      <c r="E2292" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2293" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2293" s="35" t="s">
+        <v>2815</v>
+      </c>
+      <c r="B2293" s="35" t="s">
+        <v>2934</v>
+      </c>
+      <c r="C2293" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2293" s="35" t="s">
+        <v>2928</v>
+      </c>
+      <c r="E2293" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2294" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2294" s="61" t="s">
+        <v>2816</v>
+      </c>
+      <c r="B2294" s="70" t="s">
+        <v>2935</v>
+      </c>
+      <c r="C2294" s="61" t="s">
+        <v>534</v>
+      </c>
+      <c r="D2294" s="61" t="s">
+        <v>2944</v>
+      </c>
+      <c r="E2294" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2295" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2295" s="61" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B2295" s="70" t="s">
+        <v>2936</v>
+      </c>
+      <c r="C2295" s="61" t="s">
+        <v>534</v>
+      </c>
+      <c r="D2295" s="61" t="s">
+        <v>2944</v>
+      </c>
+      <c r="E2295" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2296" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2296" s="61" t="s">
+        <v>2818</v>
+      </c>
+      <c r="B2296" s="70" t="s">
+        <v>2087</v>
+      </c>
+      <c r="C2296" s="61" t="s">
+        <v>534</v>
+      </c>
+      <c r="D2296" s="61" t="s">
+        <v>2944</v>
+      </c>
+      <c r="E2296" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2297" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2297" s="36" t="s">
+        <v>2819</v>
+      </c>
+      <c r="B2297" s="36" t="s">
+        <v>2937</v>
+      </c>
+      <c r="C2297" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2297" s="36" t="s">
+        <v>2921</v>
+      </c>
+      <c r="E2297" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2298" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2298" s="36" t="s">
+        <v>2820</v>
+      </c>
+      <c r="B2298" s="36" t="s">
+        <v>2937</v>
+      </c>
+      <c r="C2298" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2298" s="36" t="s">
+        <v>2922</v>
+      </c>
+      <c r="E2298" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2299" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2299" s="36" t="s">
+        <v>2821</v>
+      </c>
+      <c r="B2299" s="36" t="s">
+        <v>2937</v>
+      </c>
+      <c r="C2299" s="36" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2299" s="36" t="s">
+        <v>2923</v>
+      </c>
+      <c r="E2299" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2300" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2300" s="36" t="s">
+        <v>2822</v>
+      </c>
+      <c r="B2300" s="36" t="s">
+        <v>2937</v>
+      </c>
+      <c r="C2300" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2300" s="36" t="s">
+        <v>2924</v>
+      </c>
+      <c r="E2300" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2301" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2301" s="36" t="s">
+        <v>2823</v>
+      </c>
+      <c r="B2301" s="36" t="s">
+        <v>2937</v>
+      </c>
+      <c r="C2301" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2301" s="36" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E2301" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2302" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2302" s="36" t="s">
+        <v>2824</v>
+      </c>
+      <c r="B2302" s="36" t="s">
+        <v>2937</v>
+      </c>
+      <c r="C2302" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2302" s="36" t="s">
+        <v>2926</v>
+      </c>
+      <c r="E2302" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2303" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2303" s="36" t="s">
+        <v>2825</v>
+      </c>
+      <c r="B2303" s="36" t="s">
+        <v>2937</v>
+      </c>
+      <c r="C2303" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2303" s="36" t="s">
+        <v>2927</v>
+      </c>
+      <c r="E2303" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2304" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2304" s="36" t="s">
+        <v>2826</v>
+      </c>
+      <c r="B2304" s="36" t="s">
+        <v>2937</v>
+      </c>
+      <c r="C2304" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2304" s="36" t="s">
+        <v>2928</v>
+      </c>
+      <c r="E2304" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2305" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2305" s="35" t="s">
+        <v>2827</v>
+      </c>
+      <c r="B2305" s="35" t="s">
+        <v>2938</v>
+      </c>
+      <c r="C2305" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2305" s="35" t="s">
+        <v>2921</v>
+      </c>
+      <c r="E2305" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2306" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2306" s="35" t="s">
+        <v>2828</v>
+      </c>
+      <c r="B2306" s="35" t="s">
+        <v>2938</v>
+      </c>
+      <c r="C2306" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2306" s="35" t="s">
+        <v>2922</v>
+      </c>
+      <c r="E2306" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2307" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2307" s="35" t="s">
+        <v>2829</v>
+      </c>
+      <c r="B2307" s="35" t="s">
+        <v>2938</v>
+      </c>
+      <c r="C2307" s="35" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2307" s="35" t="s">
+        <v>2923</v>
+      </c>
+      <c r="E2307" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2308" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2308" s="35" t="s">
+        <v>2830</v>
+      </c>
+      <c r="B2308" s="35" t="s">
+        <v>2938</v>
+      </c>
+      <c r="C2308" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2308" s="35" t="s">
+        <v>2924</v>
+      </c>
+      <c r="E2308" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2309" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2309" s="35" t="s">
+        <v>2831</v>
+      </c>
+      <c r="B2309" s="35" t="s">
+        <v>2938</v>
+      </c>
+      <c r="C2309" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2309" s="35" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E2309" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2310" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2310" s="35" t="s">
+        <v>2832</v>
+      </c>
+      <c r="B2310" s="35" t="s">
+        <v>2938</v>
+      </c>
+      <c r="C2310" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2310" s="35" t="s">
+        <v>2926</v>
+      </c>
+      <c r="E2310" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2311" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2311" s="35" t="s">
+        <v>2833</v>
+      </c>
+      <c r="B2311" s="35" t="s">
+        <v>2938</v>
+      </c>
+      <c r="C2311" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2311" s="35" t="s">
+        <v>2927</v>
+      </c>
+      <c r="E2311" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2312" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2312" s="35" t="s">
+        <v>2834</v>
+      </c>
+      <c r="B2312" s="35" t="s">
+        <v>2938</v>
+      </c>
+      <c r="C2312" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2312" s="35" t="s">
+        <v>2928</v>
+      </c>
+      <c r="E2312" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2313" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2313" s="36" t="s">
+        <v>2835</v>
+      </c>
+      <c r="B2313" s="36" t="s">
+        <v>2939</v>
+      </c>
+      <c r="C2313" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2313" s="36" t="s">
+        <v>2921</v>
+      </c>
+      <c r="E2313" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2314" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2314" s="36" t="s">
+        <v>2836</v>
+      </c>
+      <c r="B2314" s="36" t="s">
+        <v>2939</v>
+      </c>
+      <c r="C2314" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2314" s="36" t="s">
+        <v>2922</v>
+      </c>
+      <c r="E2314" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2315" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2315" s="36" t="s">
+        <v>2837</v>
+      </c>
+      <c r="B2315" s="36" t="s">
+        <v>2939</v>
+      </c>
+      <c r="C2315" s="36" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2315" s="36" t="s">
+        <v>2923</v>
+      </c>
+      <c r="E2315" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2316" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2316" s="36" t="s">
+        <v>2838</v>
+      </c>
+      <c r="B2316" s="36" t="s">
+        <v>2939</v>
+      </c>
+      <c r="C2316" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2316" s="36" t="s">
+        <v>2924</v>
+      </c>
+      <c r="E2316" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2317" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2317" s="36" t="s">
+        <v>2839</v>
+      </c>
+      <c r="B2317" s="36" t="s">
+        <v>2939</v>
+      </c>
+      <c r="C2317" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2317" s="36" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E2317" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2318" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2318" s="36" t="s">
+        <v>2840</v>
+      </c>
+      <c r="B2318" s="36" t="s">
+        <v>2939</v>
+      </c>
+      <c r="C2318" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2318" s="36" t="s">
+        <v>2926</v>
+      </c>
+      <c r="E2318" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2319" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2319" s="36" t="s">
+        <v>2841</v>
+      </c>
+      <c r="B2319" s="36" t="s">
+        <v>2939</v>
+      </c>
+      <c r="C2319" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2319" s="36" t="s">
+        <v>2927</v>
+      </c>
+      <c r="E2319" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2320" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2320" s="36" t="s">
+        <v>2842</v>
+      </c>
+      <c r="B2320" s="36" t="s">
+        <v>2939</v>
+      </c>
+      <c r="C2320" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2320" s="36" t="s">
+        <v>2928</v>
+      </c>
+      <c r="E2320" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2321" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2321" s="35" t="s">
+        <v>2843</v>
+      </c>
+      <c r="B2321" s="35" t="s">
+        <v>2940</v>
+      </c>
+      <c r="C2321" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2321" s="35" t="s">
+        <v>2921</v>
+      </c>
+      <c r="E2321" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2322" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2322" s="35" t="s">
+        <v>2844</v>
+      </c>
+      <c r="B2322" s="35" t="s">
+        <v>2940</v>
+      </c>
+      <c r="C2322" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2322" s="35" t="s">
+        <v>2922</v>
+      </c>
+      <c r="E2322" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2323" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2323" s="35" t="s">
+        <v>2845</v>
+      </c>
+      <c r="B2323" s="35" t="s">
+        <v>2940</v>
+      </c>
+      <c r="C2323" s="35" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2323" s="35" t="s">
+        <v>2923</v>
+      </c>
+      <c r="E2323" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2324" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2324" s="35" t="s">
+        <v>2846</v>
+      </c>
+      <c r="B2324" s="35" t="s">
+        <v>2940</v>
+      </c>
+      <c r="C2324" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2324" s="35" t="s">
+        <v>2924</v>
+      </c>
+      <c r="E2324" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2325" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2325" s="35" t="s">
+        <v>2847</v>
+      </c>
+      <c r="B2325" s="35" t="s">
+        <v>2940</v>
+      </c>
+      <c r="C2325" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2325" s="35" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E2325" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2326" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2326" s="35" t="s">
+        <v>2848</v>
+      </c>
+      <c r="B2326" s="35" t="s">
+        <v>2940</v>
+      </c>
+      <c r="C2326" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2326" s="35" t="s">
+        <v>2926</v>
+      </c>
+      <c r="E2326" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2327" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2327" s="35" t="s">
+        <v>2849</v>
+      </c>
+      <c r="B2327" s="35" t="s">
+        <v>2940</v>
+      </c>
+      <c r="C2327" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2327" s="35" t="s">
+        <v>2927</v>
+      </c>
+      <c r="E2327" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2328" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2328" s="35" t="s">
+        <v>2850</v>
+      </c>
+      <c r="B2328" s="35" t="s">
+        <v>2940</v>
+      </c>
+      <c r="C2328" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2328" s="35" t="s">
+        <v>2928</v>
+      </c>
+      <c r="E2328" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2329" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2329" s="36" t="s">
+        <v>2851</v>
+      </c>
+      <c r="B2329" s="36" t="s">
+        <v>2941</v>
+      </c>
+      <c r="C2329" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2329" s="36" t="s">
+        <v>2921</v>
+      </c>
+      <c r="E2329" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2330" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2330" s="36" t="s">
+        <v>2852</v>
+      </c>
+      <c r="B2330" s="36" t="s">
+        <v>2941</v>
+      </c>
+      <c r="C2330" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2330" s="36" t="s">
+        <v>2922</v>
+      </c>
+      <c r="E2330" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2331" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2331" s="36" t="s">
+        <v>2853</v>
+      </c>
+      <c r="B2331" s="36" t="s">
+        <v>2941</v>
+      </c>
+      <c r="C2331" s="36" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2331" s="36" t="s">
+        <v>2923</v>
+      </c>
+      <c r="E2331" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2332" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2332" s="36" t="s">
+        <v>2854</v>
+      </c>
+      <c r="B2332" s="36" t="s">
+        <v>2941</v>
+      </c>
+      <c r="C2332" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2332" s="36" t="s">
+        <v>2924</v>
+      </c>
+      <c r="E2332" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2333" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2333" s="36" t="s">
+        <v>2855</v>
+      </c>
+      <c r="B2333" s="36" t="s">
+        <v>2941</v>
+      </c>
+      <c r="C2333" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2333" s="36" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E2333" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2334" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2334" s="36" t="s">
+        <v>2856</v>
+      </c>
+      <c r="B2334" s="36" t="s">
+        <v>2941</v>
+      </c>
+      <c r="C2334" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2334" s="36" t="s">
+        <v>2926</v>
+      </c>
+      <c r="E2334" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2335" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2335" s="36" t="s">
+        <v>2857</v>
+      </c>
+      <c r="B2335" s="36" t="s">
+        <v>2941</v>
+      </c>
+      <c r="C2335" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2335" s="36" t="s">
+        <v>2927</v>
+      </c>
+      <c r="E2335" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2336" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2336" s="36" t="s">
+        <v>2858</v>
+      </c>
+      <c r="B2336" s="36" t="s">
+        <v>2941</v>
+      </c>
+      <c r="C2336" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2336" s="36" t="s">
+        <v>2928</v>
+      </c>
+      <c r="E2336" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2337" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2337" s="35" t="s">
+        <v>2859</v>
+      </c>
+      <c r="B2337" s="35" t="s">
+        <v>2942</v>
+      </c>
+      <c r="C2337" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2337" s="35" t="s">
+        <v>2921</v>
+      </c>
+      <c r="E2337" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2338" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2338" s="35" t="s">
+        <v>2860</v>
+      </c>
+      <c r="B2338" s="35" t="s">
+        <v>2942</v>
+      </c>
+      <c r="C2338" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2338" s="35" t="s">
+        <v>2922</v>
+      </c>
+      <c r="E2338" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2339" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2339" s="35" t="s">
+        <v>2861</v>
+      </c>
+      <c r="B2339" s="35" t="s">
+        <v>2942</v>
+      </c>
+      <c r="C2339" s="35" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2339" s="35" t="s">
+        <v>2923</v>
+      </c>
+      <c r="E2339" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2340" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2340" s="35" t="s">
+        <v>2862</v>
+      </c>
+      <c r="B2340" s="35" t="s">
+        <v>2942</v>
+      </c>
+      <c r="C2340" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2340" s="35" t="s">
+        <v>2924</v>
+      </c>
+      <c r="E2340" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2341" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2341" s="35" t="s">
+        <v>2863</v>
+      </c>
+      <c r="B2341" s="35" t="s">
+        <v>2942</v>
+      </c>
+      <c r="C2341" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2341" s="35" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E2341" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2342" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2342" s="35" t="s">
+        <v>2864</v>
+      </c>
+      <c r="B2342" s="35" t="s">
+        <v>2942</v>
+      </c>
+      <c r="C2342" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2342" s="35" t="s">
+        <v>2926</v>
+      </c>
+      <c r="E2342" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2343" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2343" s="35" t="s">
+        <v>2865</v>
+      </c>
+      <c r="B2343" s="35" t="s">
+        <v>2942</v>
+      </c>
+      <c r="C2343" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2343" s="35" t="s">
+        <v>2927</v>
+      </c>
+      <c r="E2343" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2344" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2344" s="35" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B2344" s="35" t="s">
+        <v>2942</v>
+      </c>
+      <c r="C2344" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2344" s="35" t="s">
+        <v>2928</v>
+      </c>
+      <c r="E2344" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2345" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2345" s="36" t="s">
+        <v>2867</v>
+      </c>
+      <c r="B2345" s="36" t="s">
+        <v>2943</v>
+      </c>
+      <c r="C2345" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2345" s="36" t="s">
+        <v>2921</v>
+      </c>
+      <c r="E2345" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2346" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2346" s="36" t="s">
+        <v>2868</v>
+      </c>
+      <c r="B2346" s="36" t="s">
+        <v>2943</v>
+      </c>
+      <c r="C2346" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2346" s="36" t="s">
+        <v>2922</v>
+      </c>
+      <c r="E2346" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2347" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2347" s="36" t="s">
+        <v>2869</v>
+      </c>
+      <c r="B2347" s="36" t="s">
+        <v>2943</v>
+      </c>
+      <c r="C2347" s="36" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2347" s="36" t="s">
+        <v>2923</v>
+      </c>
+      <c r="E2347" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2348" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2348" s="36" t="s">
+        <v>2870</v>
+      </c>
+      <c r="B2348" s="36" t="s">
+        <v>2943</v>
+      </c>
+      <c r="C2348" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2348" s="36" t="s">
+        <v>2924</v>
+      </c>
+      <c r="E2348" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2349" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2349" s="36" t="s">
+        <v>2871</v>
+      </c>
+      <c r="B2349" s="36" t="s">
+        <v>2943</v>
+      </c>
+      <c r="C2349" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2349" s="36" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E2349" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2350" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2350" s="36" t="s">
+        <v>2872</v>
+      </c>
+      <c r="B2350" s="36" t="s">
+        <v>2943</v>
+      </c>
+      <c r="C2350" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2350" s="36" t="s">
+        <v>2926</v>
+      </c>
+      <c r="E2350" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2351" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2351" s="36" t="s">
+        <v>2873</v>
+      </c>
+      <c r="B2351" s="36" t="s">
+        <v>2943</v>
+      </c>
+      <c r="C2351" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2351" s="36" t="s">
+        <v>2927</v>
+      </c>
+      <c r="E2351" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2352" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2352" s="36" t="s">
+        <v>2874</v>
+      </c>
+      <c r="B2352" s="36" t="s">
+        <v>2943</v>
+      </c>
+      <c r="C2352" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2352" s="36" t="s">
+        <v>2928</v>
+      </c>
+      <c r="E2352" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2353" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2353" s="35" t="s">
+        <v>2875</v>
+      </c>
+      <c r="B2353" s="35" t="s">
+        <v>2945</v>
+      </c>
+      <c r="C2353" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2353" s="35" t="s">
+        <v>2921</v>
+      </c>
+      <c r="E2353" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2354" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2354" s="35" t="s">
+        <v>2876</v>
+      </c>
+      <c r="B2354" s="35" t="s">
+        <v>2945</v>
+      </c>
+      <c r="C2354" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2354" s="35" t="s">
+        <v>2922</v>
+      </c>
+      <c r="E2354" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2355" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2355" s="35" t="s">
+        <v>2877</v>
+      </c>
+      <c r="B2355" s="35" t="s">
+        <v>2945</v>
+      </c>
+      <c r="C2355" s="35" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2355" s="35" t="s">
+        <v>2923</v>
+      </c>
+      <c r="E2355" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2356" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2356" s="35" t="s">
+        <v>2878</v>
+      </c>
+      <c r="B2356" s="35" t="s">
+        <v>2945</v>
+      </c>
+      <c r="C2356" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2356" s="35" t="s">
+        <v>2924</v>
+      </c>
+      <c r="E2356" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2357" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2357" s="35" t="s">
+        <v>2879</v>
+      </c>
+      <c r="B2357" s="35" t="s">
+        <v>2945</v>
+      </c>
+      <c r="C2357" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2357" s="35" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E2357" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2358" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2358" s="35" t="s">
+        <v>2880</v>
+      </c>
+      <c r="B2358" s="35" t="s">
+        <v>2945</v>
+      </c>
+      <c r="C2358" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2358" s="35" t="s">
+        <v>2926</v>
+      </c>
+      <c r="E2358" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2359" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2359" s="35" t="s">
+        <v>2881</v>
+      </c>
+      <c r="B2359" s="35" t="s">
+        <v>2945</v>
+      </c>
+      <c r="C2359" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2359" s="35" t="s">
+        <v>2927</v>
+      </c>
+      <c r="E2359" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2360" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2360" s="35" t="s">
+        <v>2882</v>
+      </c>
+      <c r="B2360" s="35" t="s">
+        <v>2945</v>
+      </c>
+      <c r="C2360" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2360" s="35" t="s">
+        <v>2928</v>
+      </c>
+      <c r="E2360" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2361" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2361" s="36" t="s">
+        <v>2883</v>
+      </c>
+      <c r="B2361" s="36" t="s">
+        <v>2946</v>
+      </c>
+      <c r="C2361" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2361" s="36" t="s">
+        <v>2921</v>
+      </c>
+      <c r="E2361" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2362" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2362" s="36" t="s">
+        <v>2884</v>
+      </c>
+      <c r="B2362" s="36" t="s">
+        <v>2946</v>
+      </c>
+      <c r="C2362" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2362" s="36" t="s">
+        <v>2922</v>
+      </c>
+      <c r="E2362" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2363" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2363" s="36" t="s">
+        <v>2885</v>
+      </c>
+      <c r="B2363" s="36" t="s">
+        <v>2946</v>
+      </c>
+      <c r="C2363" s="36" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2363" s="36" t="s">
+        <v>2923</v>
+      </c>
+      <c r="E2363" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2364" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2364" s="36" t="s">
+        <v>2886</v>
+      </c>
+      <c r="B2364" s="36" t="s">
+        <v>2946</v>
+      </c>
+      <c r="C2364" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2364" s="36" t="s">
+        <v>2924</v>
+      </c>
+      <c r="E2364" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2365" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2365" s="36" t="s">
+        <v>2887</v>
+      </c>
+      <c r="B2365" s="36" t="s">
+        <v>2946</v>
+      </c>
+      <c r="C2365" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2365" s="36" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E2365" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2366" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2366" s="36" t="s">
+        <v>2888</v>
+      </c>
+      <c r="B2366" s="36" t="s">
+        <v>2946</v>
+      </c>
+      <c r="C2366" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2366" s="36" t="s">
+        <v>2926</v>
+      </c>
+      <c r="E2366" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2367" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2367" s="36" t="s">
+        <v>2889</v>
+      </c>
+      <c r="B2367" s="36" t="s">
+        <v>2946</v>
+      </c>
+      <c r="C2367" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2367" s="36" t="s">
+        <v>2927</v>
+      </c>
+      <c r="E2367" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2368" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2368" s="36" t="s">
+        <v>2890</v>
+      </c>
+      <c r="B2368" s="36" t="s">
+        <v>2946</v>
+      </c>
+      <c r="C2368" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2368" s="36" t="s">
+        <v>2928</v>
+      </c>
+      <c r="E2368" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2369" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2369" s="35" t="s">
+        <v>2891</v>
+      </c>
+      <c r="B2369" s="35" t="s">
+        <v>2947</v>
+      </c>
+      <c r="C2369" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2369" s="35" t="s">
+        <v>2921</v>
+      </c>
+      <c r="E2369" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2370" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2370" s="35" t="s">
+        <v>2892</v>
+      </c>
+      <c r="B2370" s="35" t="s">
+        <v>2947</v>
+      </c>
+      <c r="C2370" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2370" s="35" t="s">
+        <v>2922</v>
+      </c>
+      <c r="E2370" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2371" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2371" s="35" t="s">
+        <v>2893</v>
+      </c>
+      <c r="B2371" s="35" t="s">
+        <v>2947</v>
+      </c>
+      <c r="C2371" s="35" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2371" s="35" t="s">
+        <v>2923</v>
+      </c>
+      <c r="E2371" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2372" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2372" s="35" t="s">
+        <v>2894</v>
+      </c>
+      <c r="B2372" s="35" t="s">
+        <v>2947</v>
+      </c>
+      <c r="C2372" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2372" s="35" t="s">
+        <v>2924</v>
+      </c>
+      <c r="E2372" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2373" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2373" s="35" t="s">
+        <v>2895</v>
+      </c>
+      <c r="B2373" s="35" t="s">
+        <v>2947</v>
+      </c>
+      <c r="C2373" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2373" s="35" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E2373" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2374" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2374" s="35" t="s">
+        <v>2896</v>
+      </c>
+      <c r="B2374" s="35" t="s">
+        <v>2947</v>
+      </c>
+      <c r="C2374" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2374" s="35" t="s">
+        <v>2926</v>
+      </c>
+      <c r="E2374" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2375" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2375" s="35" t="s">
+        <v>2897</v>
+      </c>
+      <c r="B2375" s="35" t="s">
+        <v>2947</v>
+      </c>
+      <c r="C2375" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2375" s="35" t="s">
+        <v>2927</v>
+      </c>
+      <c r="E2375" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2376" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2376" s="35" t="s">
+        <v>2898</v>
+      </c>
+      <c r="B2376" s="35" t="s">
+        <v>2947</v>
+      </c>
+      <c r="C2376" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2376" s="35" t="s">
+        <v>2928</v>
+      </c>
+      <c r="E2376" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2377" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2377" s="36" t="s">
+        <v>2899</v>
+      </c>
+      <c r="B2377" s="36" t="s">
+        <v>2948</v>
+      </c>
+      <c r="C2377" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2377" s="36" t="s">
+        <v>2921</v>
+      </c>
+      <c r="E2377" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2378" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2378" s="36" t="s">
+        <v>2900</v>
+      </c>
+      <c r="B2378" s="36" t="s">
+        <v>2948</v>
+      </c>
+      <c r="C2378" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2378" s="36" t="s">
+        <v>2922</v>
+      </c>
+      <c r="E2378" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2379" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2379" s="36" t="s">
+        <v>2901</v>
+      </c>
+      <c r="B2379" s="36" t="s">
+        <v>2948</v>
+      </c>
+      <c r="C2379" s="36" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2379" s="36" t="s">
+        <v>2923</v>
+      </c>
+      <c r="E2379" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2380" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2380" s="36" t="s">
+        <v>2902</v>
+      </c>
+      <c r="B2380" s="36" t="s">
+        <v>2948</v>
+      </c>
+      <c r="C2380" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2380" s="36" t="s">
+        <v>2924</v>
+      </c>
+      <c r="E2380" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2381" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2381" s="36" t="s">
+        <v>2903</v>
+      </c>
+      <c r="B2381" s="36" t="s">
+        <v>2948</v>
+      </c>
+      <c r="C2381" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2381" s="36" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E2381" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2382" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2382" s="36" t="s">
+        <v>2904</v>
+      </c>
+      <c r="B2382" s="36" t="s">
+        <v>2948</v>
+      </c>
+      <c r="C2382" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2382" s="36" t="s">
+        <v>2926</v>
+      </c>
+      <c r="E2382" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2383" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2383" s="36" t="s">
+        <v>2905</v>
+      </c>
+      <c r="B2383" s="36" t="s">
+        <v>2948</v>
+      </c>
+      <c r="C2383" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2383" s="36" t="s">
+        <v>2927</v>
+      </c>
+      <c r="E2383" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2384" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2384" s="36" t="s">
+        <v>2906</v>
+      </c>
+      <c r="B2384" s="36" t="s">
+        <v>2948</v>
+      </c>
+      <c r="C2384" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2384" s="36" t="s">
+        <v>2928</v>
+      </c>
+      <c r="E2384" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2385" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2385" s="35" t="s">
+        <v>2907</v>
+      </c>
+      <c r="B2385" s="35" t="s">
+        <v>2949</v>
+      </c>
+      <c r="C2385" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2385" s="35" t="s">
+        <v>2921</v>
+      </c>
+      <c r="E2385" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2386" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2386" s="35" t="s">
+        <v>2908</v>
+      </c>
+      <c r="B2386" s="35" t="s">
+        <v>2949</v>
+      </c>
+      <c r="C2386" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2386" s="35" t="s">
+        <v>2922</v>
+      </c>
+      <c r="E2386" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2387" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2387" s="35" t="s">
+        <v>2909</v>
+      </c>
+      <c r="B2387" s="35" t="s">
+        <v>2949</v>
+      </c>
+      <c r="C2387" s="35" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2387" s="35" t="s">
+        <v>2923</v>
+      </c>
+      <c r="E2387" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2388" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2388" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="B2388" s="35" t="s">
+        <v>2949</v>
+      </c>
+      <c r="C2388" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2388" s="35" t="s">
+        <v>2924</v>
+      </c>
+      <c r="E2388" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2389" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2389" s="35" t="s">
+        <v>2911</v>
+      </c>
+      <c r="B2389" s="35" t="s">
+        <v>2949</v>
+      </c>
+      <c r="C2389" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2389" s="35" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E2389" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2390" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2390" s="35" t="s">
+        <v>2912</v>
+      </c>
+      <c r="B2390" s="35" t="s">
+        <v>2949</v>
+      </c>
+      <c r="C2390" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2390" s="35" t="s">
+        <v>2926</v>
+      </c>
+      <c r="E2390" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2391" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2391" s="35" t="s">
+        <v>2913</v>
+      </c>
+      <c r="B2391" s="35" t="s">
+        <v>2949</v>
+      </c>
+      <c r="C2391" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2391" s="35" t="s">
+        <v>2927</v>
+      </c>
+      <c r="E2391" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2392" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2392" s="35" t="s">
+        <v>2914</v>
+      </c>
+      <c r="B2392" s="35" t="s">
+        <v>2949</v>
+      </c>
+      <c r="C2392" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2392" s="35" t="s">
+        <v>2928</v>
+      </c>
+      <c r="E2392" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2393" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2393" s="36" t="s">
+        <v>2915</v>
+      </c>
+      <c r="B2393" s="36" t="s">
+        <v>2950</v>
+      </c>
+      <c r="C2393" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2393" s="36" t="s">
+        <v>2921</v>
+      </c>
+      <c r="E2393" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2394" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2394" s="36" t="s">
+        <v>2916</v>
+      </c>
+      <c r="B2394" s="36" t="s">
+        <v>2950</v>
+      </c>
+      <c r="C2394" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2394" s="36" t="s">
+        <v>2922</v>
+      </c>
+      <c r="E2394" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2395" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2395" s="36" t="s">
+        <v>2917</v>
+      </c>
+      <c r="B2395" s="36" t="s">
+        <v>2950</v>
+      </c>
+      <c r="C2395" s="36" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2395" s="36" t="s">
+        <v>2923</v>
+      </c>
+      <c r="E2395" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2396" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2396" s="36" t="s">
+        <v>2918</v>
+      </c>
+      <c r="B2396" s="36" t="s">
+        <v>2950</v>
+      </c>
+      <c r="C2396" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2396" s="36" t="s">
+        <v>2924</v>
+      </c>
+      <c r="E2396" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2397" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2397" s="36" t="s">
+        <v>2919</v>
+      </c>
+      <c r="B2397" s="36" t="s">
+        <v>2950</v>
+      </c>
+      <c r="C2397" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2397" s="36" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E2397" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2398" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2398" s="36" t="s">
+        <v>2920</v>
+      </c>
+      <c r="B2398" s="36" t="s">
+        <v>2950</v>
+      </c>
+      <c r="C2398" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2398" s="36" t="s">
+        <v>2926</v>
+      </c>
+      <c r="E2398" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2399" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2399" s="36" t="s">
+        <v>2957</v>
+      </c>
+      <c r="B2399" s="36" t="s">
+        <v>2950</v>
+      </c>
+      <c r="C2399" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2399" s="36" t="s">
+        <v>2927</v>
+      </c>
+      <c r="E2399" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2400" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2400" s="36" t="s">
+        <v>2958</v>
+      </c>
+      <c r="B2400" s="36" t="s">
+        <v>2950</v>
+      </c>
+      <c r="C2400" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2400" s="36" t="s">
+        <v>2928</v>
+      </c>
+      <c r="E2400" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2401" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2401" s="35" t="s">
+        <v>2959</v>
+      </c>
+      <c r="B2401" s="35" t="s">
+        <v>2951</v>
+      </c>
+      <c r="C2401" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2401" s="35" t="s">
+        <v>2921</v>
+      </c>
+      <c r="E2401" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2402" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2402" s="35" t="s">
+        <v>2960</v>
+      </c>
+      <c r="B2402" s="35" t="s">
+        <v>2951</v>
+      </c>
+      <c r="C2402" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2402" s="35" t="s">
+        <v>2922</v>
+      </c>
+      <c r="E2402" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2403" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2403" s="35" t="s">
+        <v>2961</v>
+      </c>
+      <c r="B2403" s="35" t="s">
+        <v>2951</v>
+      </c>
+      <c r="C2403" s="35" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2403" s="35" t="s">
+        <v>2923</v>
+      </c>
+      <c r="E2403" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2404" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2404" s="35" t="s">
+        <v>2962</v>
+      </c>
+      <c r="B2404" s="35" t="s">
+        <v>2951</v>
+      </c>
+      <c r="C2404" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2404" s="35" t="s">
+        <v>2924</v>
+      </c>
+      <c r="E2404" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2405" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2405" s="35" t="s">
+        <v>2963</v>
+      </c>
+      <c r="B2405" s="35" t="s">
+        <v>2951</v>
+      </c>
+      <c r="C2405" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2405" s="35" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E2405" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2406" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2406" s="35" t="s">
+        <v>2964</v>
+      </c>
+      <c r="B2406" s="35" t="s">
+        <v>2951</v>
+      </c>
+      <c r="C2406" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2406" s="35" t="s">
+        <v>2926</v>
+      </c>
+      <c r="E2406" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2407" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2407" s="35" t="s">
+        <v>2965</v>
+      </c>
+      <c r="B2407" s="35" t="s">
+        <v>2951</v>
+      </c>
+      <c r="C2407" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2407" s="35" t="s">
+        <v>2927</v>
+      </c>
+      <c r="E2407" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2408" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2408" s="35" t="s">
+        <v>2966</v>
+      </c>
+      <c r="B2408" s="35" t="s">
+        <v>2951</v>
+      </c>
+      <c r="C2408" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2408" s="35" t="s">
+        <v>2928</v>
+      </c>
+      <c r="E2408" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2409" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2409" s="36" t="s">
+        <v>2967</v>
+      </c>
+      <c r="B2409" s="36" t="s">
+        <v>2952</v>
+      </c>
+      <c r="C2409" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2409" s="36" t="s">
+        <v>2921</v>
+      </c>
+      <c r="E2409" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2410" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2410" s="36" t="s">
+        <v>2968</v>
+      </c>
+      <c r="B2410" s="36" t="s">
+        <v>2952</v>
+      </c>
+      <c r="C2410" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2410" s="36" t="s">
+        <v>2922</v>
+      </c>
+      <c r="E2410" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2411" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2411" s="36" t="s">
+        <v>2969</v>
+      </c>
+      <c r="B2411" s="36" t="s">
+        <v>2952</v>
+      </c>
+      <c r="C2411" s="36" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2411" s="36" t="s">
+        <v>2923</v>
+      </c>
+      <c r="E2411" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2412" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2412" s="36" t="s">
+        <v>2970</v>
+      </c>
+      <c r="B2412" s="36" t="s">
+        <v>2952</v>
+      </c>
+      <c r="C2412" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2412" s="36" t="s">
+        <v>2924</v>
+      </c>
+      <c r="E2412" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2413" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2413" s="36" t="s">
+        <v>2971</v>
+      </c>
+      <c r="B2413" s="36" t="s">
+        <v>2952</v>
+      </c>
+      <c r="C2413" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2413" s="36" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E2413" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2414" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2414" s="36" t="s">
+        <v>2972</v>
+      </c>
+      <c r="B2414" s="36" t="s">
+        <v>2952</v>
+      </c>
+      <c r="C2414" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2414" s="36" t="s">
+        <v>2926</v>
+      </c>
+      <c r="E2414" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2415" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2415" s="36" t="s">
+        <v>2973</v>
+      </c>
+      <c r="B2415" s="36" t="s">
+        <v>2952</v>
+      </c>
+      <c r="C2415" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2415" s="36" t="s">
+        <v>2927</v>
+      </c>
+      <c r="E2415" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2416" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2416" s="36" t="s">
+        <v>2974</v>
+      </c>
+      <c r="B2416" s="36" t="s">
+        <v>2952</v>
+      </c>
+      <c r="C2416" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2416" s="36" t="s">
+        <v>2928</v>
+      </c>
+      <c r="E2416" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2417" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2417" s="35" t="s">
+        <v>2975</v>
+      </c>
+      <c r="B2417" s="35" t="s">
+        <v>2953</v>
+      </c>
+      <c r="C2417" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2417" s="35" t="s">
+        <v>2921</v>
+      </c>
+      <c r="E2417" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2418" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2418" s="35" t="s">
+        <v>2976</v>
+      </c>
+      <c r="B2418" s="35" t="s">
+        <v>2953</v>
+      </c>
+      <c r="C2418" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2418" s="35" t="s">
+        <v>2922</v>
+      </c>
+      <c r="E2418" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2419" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2419" s="35" t="s">
+        <v>2977</v>
+      </c>
+      <c r="B2419" s="35" t="s">
+        <v>2953</v>
+      </c>
+      <c r="C2419" s="35" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2419" s="35" t="s">
+        <v>2923</v>
+      </c>
+      <c r="E2419" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2420" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2420" s="35" t="s">
+        <v>2978</v>
+      </c>
+      <c r="B2420" s="35" t="s">
+        <v>2953</v>
+      </c>
+      <c r="C2420" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2420" s="35" t="s">
+        <v>2924</v>
+      </c>
+      <c r="E2420" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2421" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2421" s="35" t="s">
+        <v>2979</v>
+      </c>
+      <c r="B2421" s="35" t="s">
+        <v>2953</v>
+      </c>
+      <c r="C2421" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2421" s="35" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E2421" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2422" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2422" s="35" t="s">
+        <v>2980</v>
+      </c>
+      <c r="B2422" s="35" t="s">
+        <v>2953</v>
+      </c>
+      <c r="C2422" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2422" s="35" t="s">
+        <v>2926</v>
+      </c>
+      <c r="E2422" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2423" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2423" s="35" t="s">
+        <v>2981</v>
+      </c>
+      <c r="B2423" s="35" t="s">
+        <v>2953</v>
+      </c>
+      <c r="C2423" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2423" s="35" t="s">
+        <v>2927</v>
+      </c>
+      <c r="E2423" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2424" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2424" s="35" t="s">
+        <v>2982</v>
+      </c>
+      <c r="B2424" s="35" t="s">
+        <v>2953</v>
+      </c>
+      <c r="C2424" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2424" s="35" t="s">
+        <v>2928</v>
+      </c>
+      <c r="E2424" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2425" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2425" s="36" t="s">
+        <v>2983</v>
+      </c>
+      <c r="B2425" s="36" t="s">
+        <v>2954</v>
+      </c>
+      <c r="C2425" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2425" s="36" t="s">
+        <v>2921</v>
+      </c>
+      <c r="E2425" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2426" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2426" s="36" t="s">
+        <v>2984</v>
+      </c>
+      <c r="B2426" s="36" t="s">
+        <v>2954</v>
+      </c>
+      <c r="C2426" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2426" s="36" t="s">
+        <v>2922</v>
+      </c>
+      <c r="E2426" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2427" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2427" s="36" t="s">
+        <v>2985</v>
+      </c>
+      <c r="B2427" s="36" t="s">
+        <v>2954</v>
+      </c>
+      <c r="C2427" s="36" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2427" s="36" t="s">
+        <v>2923</v>
+      </c>
+      <c r="E2427" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2428" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2428" s="36" t="s">
+        <v>2986</v>
+      </c>
+      <c r="B2428" s="36" t="s">
+        <v>2954</v>
+      </c>
+      <c r="C2428" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2428" s="36" t="s">
+        <v>2924</v>
+      </c>
+      <c r="E2428" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2429" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2429" s="36" t="s">
+        <v>2987</v>
+      </c>
+      <c r="B2429" s="36" t="s">
+        <v>2954</v>
+      </c>
+      <c r="C2429" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2429" s="36" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E2429" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2430" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2430" s="36" t="s">
+        <v>2988</v>
+      </c>
+      <c r="B2430" s="36" t="s">
+        <v>2954</v>
+      </c>
+      <c r="C2430" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2430" s="36" t="s">
+        <v>2926</v>
+      </c>
+      <c r="E2430" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2431" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2431" s="36" t="s">
+        <v>2989</v>
+      </c>
+      <c r="B2431" s="36" t="s">
+        <v>2954</v>
+      </c>
+      <c r="C2431" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2431" s="36" t="s">
+        <v>2927</v>
+      </c>
+      <c r="E2431" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2432" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2432" s="36" t="s">
+        <v>2990</v>
+      </c>
+      <c r="B2432" s="36" t="s">
+        <v>2954</v>
+      </c>
+      <c r="C2432" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2432" s="36" t="s">
+        <v>2928</v>
+      </c>
+      <c r="E2432" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2433" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2433" s="35" t="s">
+        <v>2991</v>
+      </c>
+      <c r="B2433" s="35" t="s">
+        <v>2955</v>
+      </c>
+      <c r="C2433" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2433" s="35" t="s">
+        <v>2921</v>
+      </c>
+      <c r="E2433" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2434" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2434" s="35" t="s">
+        <v>2992</v>
+      </c>
+      <c r="B2434" s="35" t="s">
+        <v>2955</v>
+      </c>
+      <c r="C2434" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2434" s="35" t="s">
+        <v>2922</v>
+      </c>
+      <c r="E2434" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2435" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2435" s="35" t="s">
+        <v>2993</v>
+      </c>
+      <c r="B2435" s="35" t="s">
+        <v>2955</v>
+      </c>
+      <c r="C2435" s="35" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2435" s="35" t="s">
+        <v>2923</v>
+      </c>
+      <c r="E2435" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2436" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2436" s="35" t="s">
+        <v>2994</v>
+      </c>
+      <c r="B2436" s="35" t="s">
+        <v>2955</v>
+      </c>
+      <c r="C2436" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2436" s="35" t="s">
+        <v>2924</v>
+      </c>
+      <c r="E2436" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2437" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2437" s="35" t="s">
+        <v>2995</v>
+      </c>
+      <c r="B2437" s="35" t="s">
+        <v>2955</v>
+      </c>
+      <c r="C2437" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2437" s="35" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E2437" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2438" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2438" s="35" t="s">
+        <v>2996</v>
+      </c>
+      <c r="B2438" s="35" t="s">
+        <v>2955</v>
+      </c>
+      <c r="C2438" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2438" s="35" t="s">
+        <v>2926</v>
+      </c>
+      <c r="E2438" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2439" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2439" s="35" t="s">
+        <v>2997</v>
+      </c>
+      <c r="B2439" s="35" t="s">
+        <v>2955</v>
+      </c>
+      <c r="C2439" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2439" s="35" t="s">
+        <v>2927</v>
+      </c>
+      <c r="E2439" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2440" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2440" s="35" t="s">
+        <v>2998</v>
+      </c>
+      <c r="B2440" s="35" t="s">
+        <v>2955</v>
+      </c>
+      <c r="C2440" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2440" s="35" t="s">
+        <v>2928</v>
+      </c>
+      <c r="E2440" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2441" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2441" s="36" t="s">
+        <v>2999</v>
+      </c>
+      <c r="B2441" s="36" t="s">
+        <v>2956</v>
+      </c>
+      <c r="C2441" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2441" s="36" t="s">
+        <v>2921</v>
+      </c>
+      <c r="E2441" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2442" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2442" s="36" t="s">
+        <v>3000</v>
+      </c>
+      <c r="B2442" s="36" t="s">
+        <v>2956</v>
+      </c>
+      <c r="C2442" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2442" s="36" t="s">
+        <v>2922</v>
+      </c>
+      <c r="E2442" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2443" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2443" s="36" t="s">
+        <v>3001</v>
+      </c>
+      <c r="B2443" s="36" t="s">
+        <v>2956</v>
+      </c>
+      <c r="C2443" s="36" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2443" s="36" t="s">
+        <v>2923</v>
+      </c>
+      <c r="E2443" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2444" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2444" s="36" t="s">
+        <v>3002</v>
+      </c>
+      <c r="B2444" s="36" t="s">
+        <v>2956</v>
+      </c>
+      <c r="C2444" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2444" s="36" t="s">
+        <v>2924</v>
+      </c>
+      <c r="E2444" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2445" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2445" s="36" t="s">
+        <v>3003</v>
+      </c>
+      <c r="B2445" s="36" t="s">
+        <v>2956</v>
+      </c>
+      <c r="C2445" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2445" s="36" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E2445" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2446" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2446" s="36" t="s">
+        <v>3004</v>
+      </c>
+      <c r="B2446" s="36" t="s">
+        <v>2956</v>
+      </c>
+      <c r="C2446" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2446" s="36" t="s">
+        <v>2926</v>
+      </c>
+      <c r="E2446" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2447" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2447" s="36" t="s">
+        <v>3005</v>
+      </c>
+      <c r="B2447" s="36" t="s">
+        <v>2956</v>
+      </c>
+      <c r="C2447" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2447" s="36" t="s">
+        <v>2927</v>
+      </c>
+      <c r="E2447" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2448" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2448" s="36" t="s">
+        <v>3006</v>
+      </c>
+      <c r="B2448" s="36" t="s">
+        <v>2956</v>
+      </c>
+      <c r="C2448" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2448" s="36" t="s">
+        <v>2928</v>
+      </c>
+      <c r="E2448" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2449" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2449" s="35" t="s">
+        <v>3008</v>
+      </c>
+      <c r="B2449" s="35" t="s">
+        <v>3007</v>
+      </c>
+      <c r="C2449" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2449" s="35" t="s">
+        <v>2921</v>
+      </c>
+      <c r="E2449" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2450" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2450" s="35" t="s">
+        <v>3009</v>
+      </c>
+      <c r="B2450" s="35" t="s">
+        <v>3007</v>
+      </c>
+      <c r="C2450" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2450" s="35" t="s">
+        <v>2922</v>
+      </c>
+      <c r="E2450" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2451" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2451" s="35" t="s">
+        <v>3010</v>
+      </c>
+      <c r="B2451" s="35" t="s">
+        <v>3007</v>
+      </c>
+      <c r="C2451" s="35" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2451" s="35" t="s">
+        <v>2923</v>
+      </c>
+      <c r="E2451" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2452" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2452" s="35" t="s">
+        <v>3011</v>
+      </c>
+      <c r="B2452" s="35" t="s">
+        <v>3007</v>
+      </c>
+      <c r="C2452" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2452" s="35" t="s">
+        <v>2924</v>
+      </c>
+      <c r="E2452" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2453" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2453" s="35" t="s">
+        <v>3012</v>
+      </c>
+      <c r="B2453" s="35" t="s">
+        <v>3007</v>
+      </c>
+      <c r="C2453" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2453" s="35" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E2453" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2454" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2454" s="35" t="s">
+        <v>3013</v>
+      </c>
+      <c r="B2454" s="35" t="s">
+        <v>3007</v>
+      </c>
+      <c r="C2454" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2454" s="35" t="s">
+        <v>2926</v>
+      </c>
+      <c r="E2454" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2455" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2455" s="35" t="s">
+        <v>3014</v>
+      </c>
+      <c r="B2455" s="35" t="s">
+        <v>3007</v>
+      </c>
+      <c r="C2455" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2455" s="35" t="s">
+        <v>2927</v>
+      </c>
+      <c r="E2455" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2456" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2456" s="35" t="s">
+        <v>3015</v>
+      </c>
+      <c r="B2456" s="35" t="s">
+        <v>3007</v>
+      </c>
+      <c r="C2456" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2456" s="35" t="s">
+        <v>2928</v>
+      </c>
+      <c r="E2456" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2457" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2457" s="36" t="s">
+        <v>3016</v>
+      </c>
+      <c r="B2457" s="36" t="s">
+        <v>3017</v>
+      </c>
+      <c r="C2457" s="36" t="s">
+        <v>3018</v>
+      </c>
+      <c r="D2457" s="36" t="s">
+        <v>3019</v>
+      </c>
+      <c r="E2457" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2458" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2458" s="35"/>
+    </row>
+    <row r="2459" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2459" s="35"/>
+    </row>
+    <row r="2460" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2460" s="35"/>
+    </row>
+    <row r="2461" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2461" s="35"/>
+    </row>
+    <row r="2462" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2462" s="35"/>
+    </row>
+    <row r="2463" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2463" s="35"/>
+    </row>
+    <row r="2464" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2464" s="35"/>
+    </row>
+    <row r="2465" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2465" s="35"/>
+    </row>
+    <row r="2466" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2466" s="35"/>
+    </row>
+    <row r="2467" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2467" s="35"/>
+    </row>
+    <row r="2468" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2468" s="35"/>
+    </row>
+    <row r="2469" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2469" s="35"/>
+    </row>
+    <row r="2470" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2470" s="35"/>
+    </row>
+    <row r="2471" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2471" s="35"/>
+    </row>
+    <row r="2472" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2472" s="35"/>
+    </row>
+    <row r="2473" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2473" s="35"/>
+    </row>
+    <row r="2474" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2474" s="35"/>
+    </row>
+    <row r="2475" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2475" s="35"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E695"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="40" orientation="portrait" r:id="rId1"/>
-  <rowBreaks count="17" manualBreakCount="17">
+  <rowBreaks count="18" manualBreakCount="18">
     <brk id="70" max="16383" man="1"/>
     <brk id="409" max="4" man="1"/>
     <brk id="493" max="4" man="1"/>
@@ -47021,6 +51284,7 @@
     <brk id="1982" max="4" man="1"/>
     <brk id="2090" max="4" man="1"/>
     <brk id="2196" max="4" man="1"/>
+    <brk id="2408" max="4" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8804" uniqueCount="3050">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8808" uniqueCount="3052">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -9181,6 +9181,12 @@
   </si>
   <si>
     <t>20-July-2025</t>
+  </si>
+  <si>
+    <t>DSS3492</t>
+  </si>
+  <si>
+    <t>25-July-2025</t>
   </si>
 </sst>
 </file>
@@ -9253,7 +9259,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9305,6 +9311,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9389,7 +9401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -9640,9 +9652,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="7" fillId="6" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -9650,6 +9659,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="10" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9924,7 +9942,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9934,8 +9952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2476"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2461" zoomScale="148" zoomScaleNormal="100" zoomScaleSheetLayoutView="148" workbookViewId="0">
-      <selection activeCell="D2478" sqref="D2478"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2467" zoomScale="148" zoomScaleNormal="100" zoomScaleSheetLayoutView="148" workbookViewId="0">
+      <selection activeCell="D2482" sqref="D2482"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49021,138 +49039,138 @@
       </c>
     </row>
     <row r="2321" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2321" s="85" t="s">
+      <c r="A2321" s="84" t="s">
         <v>3011</v>
       </c>
-      <c r="B2321" s="86" t="s">
+      <c r="B2321" s="85" t="s">
         <v>2931</v>
       </c>
-      <c r="C2321" s="86" t="s">
+      <c r="C2321" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="D2321" s="86" t="s">
+      <c r="D2321" s="85" t="s">
         <v>3019</v>
       </c>
-      <c r="E2321" s="87">
+      <c r="E2321" s="86">
         <v>1</v>
       </c>
     </row>
     <row r="2322" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2322" s="85" t="s">
+      <c r="A2322" s="84" t="s">
         <v>3012</v>
       </c>
-      <c r="B2322" s="86" t="s">
+      <c r="B2322" s="85" t="s">
         <v>2931</v>
       </c>
-      <c r="C2322" s="86" t="s">
+      <c r="C2322" s="85" t="s">
         <v>230</v>
       </c>
-      <c r="D2322" s="86" t="s">
+      <c r="D2322" s="85" t="s">
         <v>3020</v>
       </c>
-      <c r="E2322" s="87">
+      <c r="E2322" s="86">
         <v>1</v>
       </c>
     </row>
     <row r="2323" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2323" s="85" t="s">
+      <c r="A2323" s="84" t="s">
         <v>3013</v>
       </c>
-      <c r="B2323" s="86" t="s">
+      <c r="B2323" s="85" t="s">
         <v>2931</v>
       </c>
-      <c r="C2323" s="86" t="s">
+      <c r="C2323" s="85" t="s">
         <v>952</v>
       </c>
-      <c r="D2323" s="86" t="s">
+      <c r="D2323" s="85" t="s">
         <v>3021</v>
       </c>
-      <c r="E2323" s="87">
+      <c r="E2323" s="86">
         <v>1</v>
       </c>
     </row>
     <row r="2324" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2324" s="85" t="s">
+      <c r="A2324" s="84" t="s">
         <v>3014</v>
       </c>
-      <c r="B2324" s="86" t="s">
+      <c r="B2324" s="85" t="s">
         <v>2931</v>
       </c>
-      <c r="C2324" s="86" t="s">
+      <c r="C2324" s="85" t="s">
         <v>262</v>
       </c>
-      <c r="D2324" s="86" t="s">
+      <c r="D2324" s="85" t="s">
         <v>3022</v>
       </c>
-      <c r="E2324" s="87">
+      <c r="E2324" s="86">
         <v>1</v>
       </c>
     </row>
     <row r="2325" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2325" s="85" t="s">
+      <c r="A2325" s="84" t="s">
         <v>3015</v>
       </c>
-      <c r="B2325" s="86" t="s">
+      <c r="B2325" s="85" t="s">
         <v>2931</v>
       </c>
-      <c r="C2325" s="86" t="s">
+      <c r="C2325" s="85" t="s">
         <v>247</v>
       </c>
-      <c r="D2325" s="86" t="s">
+      <c r="D2325" s="85" t="s">
         <v>3023</v>
       </c>
-      <c r="E2325" s="87">
+      <c r="E2325" s="86">
         <v>1</v>
       </c>
     </row>
     <row r="2326" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2326" s="85" t="s">
+      <c r="A2326" s="84" t="s">
         <v>3016</v>
       </c>
-      <c r="B2326" s="86" t="s">
+      <c r="B2326" s="85" t="s">
         <v>2931</v>
       </c>
-      <c r="C2326" s="86" t="s">
+      <c r="C2326" s="85" t="s">
         <v>263</v>
       </c>
-      <c r="D2326" s="86" t="s">
+      <c r="D2326" s="85" t="s">
         <v>3024</v>
       </c>
-      <c r="E2326" s="87">
+      <c r="E2326" s="86">
         <v>1</v>
       </c>
     </row>
     <row r="2327" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2327" s="85" t="s">
+      <c r="A2327" s="84" t="s">
         <v>3017</v>
       </c>
-      <c r="B2327" s="86" t="s">
+      <c r="B2327" s="85" t="s">
         <v>2931</v>
       </c>
-      <c r="C2327" s="86" t="s">
+      <c r="C2327" s="85" t="s">
         <v>252</v>
       </c>
-      <c r="D2327" s="86" t="s">
+      <c r="D2327" s="85" t="s">
         <v>3025</v>
       </c>
-      <c r="E2327" s="87">
+      <c r="E2327" s="86">
         <v>1</v>
       </c>
     </row>
     <row r="2328" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2328" s="85" t="s">
+      <c r="A2328" s="84" t="s">
         <v>3018</v>
       </c>
-      <c r="B2328" s="86" t="s">
+      <c r="B2328" s="85" t="s">
         <v>2931</v>
       </c>
-      <c r="C2328" s="86" t="s">
+      <c r="C2328" s="85" t="s">
         <v>231</v>
       </c>
-      <c r="D2328" s="86" t="s">
+      <c r="D2328" s="85" t="s">
         <v>3026</v>
       </c>
-      <c r="E2328" s="87">
+      <c r="E2328" s="86">
         <v>1</v>
       </c>
     </row>
@@ -51655,8 +51673,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2476" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2476" s="84"/>
+    <row r="2476" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2476" s="87" t="s">
+        <v>3050</v>
+      </c>
+      <c r="B2476" s="88" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C2476" s="89" t="s">
+        <v>239</v>
+      </c>
+      <c r="D2476" s="87" t="s">
+        <v>3051</v>
+      </c>
+      <c r="E2476" s="11">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -9186,7 +9186,7 @@
     <t>DSS3492</t>
   </si>
   <si>
-    <t>25-July-2025</t>
+    <t>28-July-2025</t>
   </si>
 </sst>
 </file>
@@ -9942,7 +9942,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9953,7 +9953,7 @@
   <dimension ref="A1:E2476"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2467" zoomScale="148" zoomScaleNormal="100" zoomScaleSheetLayoutView="148" workbookViewId="0">
-      <selection activeCell="D2482" sqref="D2482"/>
+      <selection activeCell="B2481" sqref="B2481"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8808" uniqueCount="3052">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8840" uniqueCount="3061">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -9187,6 +9187,33 @@
   </si>
   <si>
     <t>28-July-2025</t>
+  </si>
+  <si>
+    <t>Mohamed Kamaleldin Mohamed Zein Elsharif</t>
+  </si>
+  <si>
+    <t>DSS3493</t>
+  </si>
+  <si>
+    <t>DSS3494</t>
+  </si>
+  <si>
+    <t>DSS3495</t>
+  </si>
+  <si>
+    <t>DSS3496</t>
+  </si>
+  <si>
+    <t>DSS3497</t>
+  </si>
+  <si>
+    <t>DSS3498</t>
+  </si>
+  <si>
+    <t>DSS3499</t>
+  </si>
+  <si>
+    <t>DSS3500</t>
   </si>
 </sst>
 </file>
@@ -9942,7 +9969,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9950,10 +9977,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2476"/>
+  <dimension ref="A1:E2484"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2467" zoomScale="148" zoomScaleNormal="100" zoomScaleSheetLayoutView="148" workbookViewId="0">
-      <selection activeCell="B2481" sqref="B2481"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2464" zoomScale="148" zoomScaleNormal="100" zoomScaleSheetLayoutView="148" workbookViewId="0">
+      <selection activeCell="F2478" sqref="F2478"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51687,6 +51714,142 @@
         <v>3051</v>
       </c>
       <c r="E2476" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2477" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2477" s="28" t="s">
+        <v>3053</v>
+      </c>
+      <c r="B2477" s="28" t="s">
+        <v>3052</v>
+      </c>
+      <c r="C2477" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2477" s="28" t="s">
+        <v>2583</v>
+      </c>
+      <c r="E2477" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2478" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2478" s="28" t="s">
+        <v>3054</v>
+      </c>
+      <c r="B2478" s="28" t="s">
+        <v>3052</v>
+      </c>
+      <c r="C2478" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2478" s="28" t="s">
+        <v>2584</v>
+      </c>
+      <c r="E2478" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2479" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2479" s="28" t="s">
+        <v>3055</v>
+      </c>
+      <c r="B2479" s="28" t="s">
+        <v>3052</v>
+      </c>
+      <c r="C2479" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2479" s="28" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E2479" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2480" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2480" s="28" t="s">
+        <v>3056</v>
+      </c>
+      <c r="B2480" s="28" t="s">
+        <v>3052</v>
+      </c>
+      <c r="C2480" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2480" s="28" t="s">
+        <v>2586</v>
+      </c>
+      <c r="E2480" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2481" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2481" s="28" t="s">
+        <v>3057</v>
+      </c>
+      <c r="B2481" s="28" t="s">
+        <v>3052</v>
+      </c>
+      <c r="C2481" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2481" s="28" t="s">
+        <v>2587</v>
+      </c>
+      <c r="E2481" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2482" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2482" s="28" t="s">
+        <v>3058</v>
+      </c>
+      <c r="B2482" s="28" t="s">
+        <v>3052</v>
+      </c>
+      <c r="C2482" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2482" s="28" t="s">
+        <v>2588</v>
+      </c>
+      <c r="E2482" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2483" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2483" s="28" t="s">
+        <v>3059</v>
+      </c>
+      <c r="B2483" s="28" t="s">
+        <v>3052</v>
+      </c>
+      <c r="C2483" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2483" s="28" t="s">
+        <v>2589</v>
+      </c>
+      <c r="E2483" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2484" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2484" s="28" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B2484" s="28" t="s">
+        <v>3052</v>
+      </c>
+      <c r="C2484" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2484" s="28" t="s">
+        <v>2590</v>
+      </c>
+      <c r="E2484" s="11">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$2497</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$2503</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8840" uniqueCount="3061">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8904" uniqueCount="3078">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -9214,6 +9214,57 @@
   </si>
   <si>
     <t>DSS3500</t>
+  </si>
+  <si>
+    <t>Osama Abdullah Yonis Bilall</t>
+  </si>
+  <si>
+    <t>DSS3501</t>
+  </si>
+  <si>
+    <t>DSS3502</t>
+  </si>
+  <si>
+    <t>DSS3503</t>
+  </si>
+  <si>
+    <t>DSS3504</t>
+  </si>
+  <si>
+    <t>DSS3505</t>
+  </si>
+  <si>
+    <t>DSS3506</t>
+  </si>
+  <si>
+    <t>DSS3507</t>
+  </si>
+  <si>
+    <t>DSS3508</t>
+  </si>
+  <si>
+    <t>DSS3509</t>
+  </si>
+  <si>
+    <t>DSS3510</t>
+  </si>
+  <si>
+    <t>DSS3511</t>
+  </si>
+  <si>
+    <t>DSS3512</t>
+  </si>
+  <si>
+    <t>DSS3513</t>
+  </si>
+  <si>
+    <t>DSS3514</t>
+  </si>
+  <si>
+    <t>DSS3515</t>
+  </si>
+  <si>
+    <t>DSS3516</t>
   </si>
 </sst>
 </file>
@@ -9969,7 +10020,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9977,10 +10028,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2484"/>
+  <dimension ref="A1:E2500"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2464" zoomScale="148" zoomScaleNormal="100" zoomScaleSheetLayoutView="148" workbookViewId="0">
-      <selection activeCell="F2478" sqref="F2478"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2482" zoomScale="148" zoomScaleNormal="100" zoomScaleSheetLayoutView="148" workbookViewId="0">
+      <selection activeCell="B2493" sqref="B2493:B2500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51853,6 +51904,278 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2485" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2485" s="28" t="s">
+        <v>3062</v>
+      </c>
+      <c r="B2485" s="27" t="s">
+        <v>2940</v>
+      </c>
+      <c r="C2485" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2485" s="27" t="s">
+        <v>2912</v>
+      </c>
+      <c r="E2485" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2486" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2486" s="28" t="s">
+        <v>3063</v>
+      </c>
+      <c r="B2486" s="27" t="s">
+        <v>2940</v>
+      </c>
+      <c r="C2486" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2486" s="27" t="s">
+        <v>2913</v>
+      </c>
+      <c r="E2486" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2487" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2487" s="28" t="s">
+        <v>3064</v>
+      </c>
+      <c r="B2487" s="27" t="s">
+        <v>2940</v>
+      </c>
+      <c r="C2487" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2487" s="27" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E2487" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2488" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2488" s="28" t="s">
+        <v>3065</v>
+      </c>
+      <c r="B2488" s="27" t="s">
+        <v>2940</v>
+      </c>
+      <c r="C2488" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2488" s="27" t="s">
+        <v>2915</v>
+      </c>
+      <c r="E2488" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2489" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2489" s="28" t="s">
+        <v>3066</v>
+      </c>
+      <c r="B2489" s="27" t="s">
+        <v>2940</v>
+      </c>
+      <c r="C2489" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2489" s="27" t="s">
+        <v>2916</v>
+      </c>
+      <c r="E2489" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2490" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2490" s="28" t="s">
+        <v>3067</v>
+      </c>
+      <c r="B2490" s="27" t="s">
+        <v>2940</v>
+      </c>
+      <c r="C2490" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2490" s="27" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E2490" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2491" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2491" s="28" t="s">
+        <v>3068</v>
+      </c>
+      <c r="B2491" s="27" t="s">
+        <v>2940</v>
+      </c>
+      <c r="C2491" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2491" s="27" t="s">
+        <v>2918</v>
+      </c>
+      <c r="E2491" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2492" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2492" s="28" t="s">
+        <v>3069</v>
+      </c>
+      <c r="B2492" s="27" t="s">
+        <v>2940</v>
+      </c>
+      <c r="C2492" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2492" s="27" t="s">
+        <v>2919</v>
+      </c>
+      <c r="E2492" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2493" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2493" s="28" t="s">
+        <v>3070</v>
+      </c>
+      <c r="B2493" s="28" t="s">
+        <v>3061</v>
+      </c>
+      <c r="C2493" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2493" s="28" t="s">
+        <v>2912</v>
+      </c>
+      <c r="E2493" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2494" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2494" s="28" t="s">
+        <v>3071</v>
+      </c>
+      <c r="B2494" s="28" t="s">
+        <v>3061</v>
+      </c>
+      <c r="C2494" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2494" s="28" t="s">
+        <v>2913</v>
+      </c>
+      <c r="E2494" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2495" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2495" s="28" t="s">
+        <v>3072</v>
+      </c>
+      <c r="B2495" s="28" t="s">
+        <v>3061</v>
+      </c>
+      <c r="C2495" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2495" s="28" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E2495" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2496" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2496" s="28" t="s">
+        <v>3073</v>
+      </c>
+      <c r="B2496" s="28" t="s">
+        <v>3061</v>
+      </c>
+      <c r="C2496" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2496" s="28" t="s">
+        <v>2915</v>
+      </c>
+      <c r="E2496" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2497" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2497" s="28" t="s">
+        <v>3074</v>
+      </c>
+      <c r="B2497" s="28" t="s">
+        <v>3061</v>
+      </c>
+      <c r="C2497" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2497" s="28" t="s">
+        <v>2916</v>
+      </c>
+      <c r="E2497" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2498" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2498" s="28" t="s">
+        <v>3075</v>
+      </c>
+      <c r="B2498" s="28" t="s">
+        <v>3061</v>
+      </c>
+      <c r="C2498" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2498" s="28" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E2498" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2499" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2499" s="28" t="s">
+        <v>3076</v>
+      </c>
+      <c r="B2499" s="28" t="s">
+        <v>3061</v>
+      </c>
+      <c r="C2499" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2499" s="28" t="s">
+        <v>2918</v>
+      </c>
+      <c r="E2499" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2500" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2500" s="28" t="s">
+        <v>3077</v>
+      </c>
+      <c r="B2500" s="28" t="s">
+        <v>3061</v>
+      </c>
+      <c r="C2500" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2500" s="28" t="s">
+        <v>2919</v>
+      </c>
+      <c r="E2500" s="11">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
@@ -51864,23 +52187,23 @@
   <pageSetup scale="40" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="18" manualBreakCount="18">
     <brk id="70" max="16383" man="1"/>
-    <brk id="409" max="5" man="1"/>
-    <brk id="493" max="5" man="1"/>
-    <brk id="576" max="5" man="1"/>
-    <brk id="664" max="5" man="1"/>
-    <brk id="753" max="5" man="1"/>
-    <brk id="852" max="5" man="1"/>
-    <brk id="948" max="5" man="1"/>
-    <brk id="1044" max="5" man="1"/>
-    <brk id="1242" max="5" man="1"/>
-    <brk id="1343" max="5" man="1"/>
-    <brk id="1562" max="5" man="1"/>
-    <brk id="1663" max="5" man="1"/>
-    <brk id="1873" max="5" man="1"/>
-    <brk id="1982" max="5" man="1"/>
-    <brk id="2090" max="5" man="1"/>
-    <brk id="2196" max="5" man="1"/>
-    <brk id="2408" max="5" man="1"/>
+    <brk id="409" max="4" man="1"/>
+    <brk id="493" max="4" man="1"/>
+    <brk id="576" max="4" man="1"/>
+    <brk id="664" max="4" man="1"/>
+    <brk id="753" max="4" man="1"/>
+    <brk id="852" max="4" man="1"/>
+    <brk id="948" max="4" man="1"/>
+    <brk id="1044" max="4" man="1"/>
+    <brk id="1242" max="4" man="1"/>
+    <brk id="1343" max="4" man="1"/>
+    <brk id="1562" max="4" man="1"/>
+    <brk id="1663" max="4" man="1"/>
+    <brk id="1873" max="4" man="1"/>
+    <brk id="1982" max="4" man="1"/>
+    <brk id="2090" max="4" man="1"/>
+    <brk id="2196" max="4" man="1"/>
+    <brk id="2408" max="4" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$2503</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$2510</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8904" uniqueCount="3078">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8936" uniqueCount="3087">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -9265,6 +9265,33 @@
   </si>
   <si>
     <t>DSS3516</t>
+  </si>
+  <si>
+    <t>DSS3517</t>
+  </si>
+  <si>
+    <t>DSS3518</t>
+  </si>
+  <si>
+    <t>DSS3519</t>
+  </si>
+  <si>
+    <t>DSS3520</t>
+  </si>
+  <si>
+    <t>DSS3521</t>
+  </si>
+  <si>
+    <t>DSS3522</t>
+  </si>
+  <si>
+    <t>DSS3523</t>
+  </si>
+  <si>
+    <t>DSS3524</t>
+  </si>
+  <si>
+    <t>Ibrahim Samir Zayed Souror</t>
   </si>
 </sst>
 </file>
@@ -10020,7 +10047,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10028,10 +10055,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2500"/>
+  <dimension ref="A1:E2508"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2482" zoomScale="148" zoomScaleNormal="100" zoomScaleSheetLayoutView="148" workbookViewId="0">
-      <selection activeCell="B2493" sqref="B2493:B2500"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2494" zoomScale="148" zoomScaleNormal="100" zoomScaleSheetLayoutView="148" workbookViewId="0">
+      <selection activeCell="C2506" sqref="C2506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52173,6 +52200,142 @@
         <v>2919</v>
       </c>
       <c r="E2500" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2501" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2501" s="27" t="s">
+        <v>3078</v>
+      </c>
+      <c r="B2501" s="27" t="s">
+        <v>3086</v>
+      </c>
+      <c r="C2501" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2501" s="27" t="s">
+        <v>2912</v>
+      </c>
+      <c r="E2501" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2502" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2502" s="27" t="s">
+        <v>3079</v>
+      </c>
+      <c r="B2502" s="27" t="s">
+        <v>3086</v>
+      </c>
+      <c r="C2502" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2502" s="27" t="s">
+        <v>2913</v>
+      </c>
+      <c r="E2502" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2503" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2503" s="27" t="s">
+        <v>3080</v>
+      </c>
+      <c r="B2503" s="27" t="s">
+        <v>3086</v>
+      </c>
+      <c r="C2503" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2503" s="27" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E2503" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2504" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2504" s="27" t="s">
+        <v>3081</v>
+      </c>
+      <c r="B2504" s="27" t="s">
+        <v>3086</v>
+      </c>
+      <c r="C2504" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2504" s="27" t="s">
+        <v>2915</v>
+      </c>
+      <c r="E2504" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2505" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2505" s="27" t="s">
+        <v>3082</v>
+      </c>
+      <c r="B2505" s="27" t="s">
+        <v>3086</v>
+      </c>
+      <c r="C2505" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2505" s="27" t="s">
+        <v>2916</v>
+      </c>
+      <c r="E2505" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2506" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2506" s="27" t="s">
+        <v>3083</v>
+      </c>
+      <c r="B2506" s="27" t="s">
+        <v>3086</v>
+      </c>
+      <c r="C2506" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2506" s="27" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E2506" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2507" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2507" s="27" t="s">
+        <v>3084</v>
+      </c>
+      <c r="B2507" s="27" t="s">
+        <v>3086</v>
+      </c>
+      <c r="C2507" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2507" s="27" t="s">
+        <v>2918</v>
+      </c>
+      <c r="E2507" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2508" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2508" s="27" t="s">
+        <v>3085</v>
+      </c>
+      <c r="B2508" s="27" t="s">
+        <v>3086</v>
+      </c>
+      <c r="C2508" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2508" s="27" t="s">
+        <v>2919</v>
+      </c>
+      <c r="E2508" s="11">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$2510</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$2519</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8936" uniqueCount="3087">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8968" uniqueCount="3096">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -9292,6 +9292,33 @@
   </si>
   <si>
     <t>Ibrahim Samir Zayed Souror</t>
+  </si>
+  <si>
+    <t>KHALLEL FARAJ KHALEEL ALKADEEKI</t>
+  </si>
+  <si>
+    <t>DSS3525</t>
+  </si>
+  <si>
+    <t>DSS3526</t>
+  </si>
+  <si>
+    <t>DSS3527</t>
+  </si>
+  <si>
+    <t>DSS3528</t>
+  </si>
+  <si>
+    <t>DSS3529</t>
+  </si>
+  <si>
+    <t>DSS3530</t>
+  </si>
+  <si>
+    <t>DSS3531</t>
+  </si>
+  <si>
+    <t>DSS3532</t>
   </si>
 </sst>
 </file>
@@ -10047,7 +10074,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10055,10 +10082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2508"/>
+  <dimension ref="A1:E2516"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2494" zoomScale="148" zoomScaleNormal="100" zoomScaleSheetLayoutView="148" workbookViewId="0">
-      <selection activeCell="C2506" sqref="C2506"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2506" zoomScale="148" zoomScaleNormal="100" zoomScaleSheetLayoutView="148" workbookViewId="0">
+      <selection activeCell="A2509" sqref="A2509:E2516"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52336,6 +52363,142 @@
         <v>2919</v>
       </c>
       <c r="E2508" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2509" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2509" s="28" t="s">
+        <v>3088</v>
+      </c>
+      <c r="B2509" s="28" t="s">
+        <v>3087</v>
+      </c>
+      <c r="C2509" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2509" s="28" t="s">
+        <v>2912</v>
+      </c>
+      <c r="E2509" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2510" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2510" s="28" t="s">
+        <v>3089</v>
+      </c>
+      <c r="B2510" s="28" t="s">
+        <v>3087</v>
+      </c>
+      <c r="C2510" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2510" s="28" t="s">
+        <v>2913</v>
+      </c>
+      <c r="E2510" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2511" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2511" s="28" t="s">
+        <v>3090</v>
+      </c>
+      <c r="B2511" s="28" t="s">
+        <v>3087</v>
+      </c>
+      <c r="C2511" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2511" s="28" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E2511" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2512" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2512" s="28" t="s">
+        <v>3091</v>
+      </c>
+      <c r="B2512" s="28" t="s">
+        <v>3087</v>
+      </c>
+      <c r="C2512" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2512" s="28" t="s">
+        <v>2915</v>
+      </c>
+      <c r="E2512" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2513" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2513" s="28" t="s">
+        <v>3092</v>
+      </c>
+      <c r="B2513" s="28" t="s">
+        <v>3087</v>
+      </c>
+      <c r="C2513" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2513" s="28" t="s">
+        <v>2916</v>
+      </c>
+      <c r="E2513" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2514" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2514" s="28" t="s">
+        <v>3093</v>
+      </c>
+      <c r="B2514" s="28" t="s">
+        <v>3087</v>
+      </c>
+      <c r="C2514" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2514" s="28" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E2514" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2515" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2515" s="28" t="s">
+        <v>3094</v>
+      </c>
+      <c r="B2515" s="28" t="s">
+        <v>3087</v>
+      </c>
+      <c r="C2515" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2515" s="28" t="s">
+        <v>2918</v>
+      </c>
+      <c r="E2515" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2516" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2516" s="28" t="s">
+        <v>3095</v>
+      </c>
+      <c r="B2516" s="28" t="s">
+        <v>3087</v>
+      </c>
+      <c r="C2516" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2516" s="28" t="s">
+        <v>2919</v>
+      </c>
+      <c r="E2516" s="11">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$2519</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$2602</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8968" uniqueCount="3096">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9192" uniqueCount="3158">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -9319,6 +9319,192 @@
   </si>
   <si>
     <t>DSS3532</t>
+  </si>
+  <si>
+    <t>Mohamed Hassena Lekweiry</t>
+  </si>
+  <si>
+    <t>Amir Mohamed Ali Eldesoky</t>
+  </si>
+  <si>
+    <t>Mohamed Housam Abd Elfatah Ahmed</t>
+  </si>
+  <si>
+    <t>Abdallah Elmahdy Attia Abdelghany</t>
+  </si>
+  <si>
+    <t>Moustafa lotfy Ibrahim Elshahawy</t>
+  </si>
+  <si>
+    <t>Ahmed Amen Fahem Abo Gabal</t>
+  </si>
+  <si>
+    <t>DSS3533</t>
+  </si>
+  <si>
+    <t>DSS3534</t>
+  </si>
+  <si>
+    <t>DSS3535</t>
+  </si>
+  <si>
+    <t>DSS3536</t>
+  </si>
+  <si>
+    <t>DSS3537</t>
+  </si>
+  <si>
+    <t>DSS3538</t>
+  </si>
+  <si>
+    <t>DSS3539</t>
+  </si>
+  <si>
+    <t>DSS3540</t>
+  </si>
+  <si>
+    <t>DSS3541</t>
+  </si>
+  <si>
+    <t>DSS3542</t>
+  </si>
+  <si>
+    <t>DSS3543</t>
+  </si>
+  <si>
+    <t>DSS3544</t>
+  </si>
+  <si>
+    <t>DSS3545</t>
+  </si>
+  <si>
+    <t>DSS3546</t>
+  </si>
+  <si>
+    <t>DSS3547</t>
+  </si>
+  <si>
+    <t>DSS3548</t>
+  </si>
+  <si>
+    <t>DSS3549</t>
+  </si>
+  <si>
+    <t>DSS3550</t>
+  </si>
+  <si>
+    <t>DSS3551</t>
+  </si>
+  <si>
+    <t>DSS3552</t>
+  </si>
+  <si>
+    <t>DSS3553</t>
+  </si>
+  <si>
+    <t>DSS3554</t>
+  </si>
+  <si>
+    <t>DSS3555</t>
+  </si>
+  <si>
+    <t>DSS3556</t>
+  </si>
+  <si>
+    <t>DSS3557</t>
+  </si>
+  <si>
+    <t>DSS3558</t>
+  </si>
+  <si>
+    <t>DSS3559</t>
+  </si>
+  <si>
+    <t>DSS3560</t>
+  </si>
+  <si>
+    <t>DSS3561</t>
+  </si>
+  <si>
+    <t>DSS3562</t>
+  </si>
+  <si>
+    <t>DSS3563</t>
+  </si>
+  <si>
+    <t>DSS3564</t>
+  </si>
+  <si>
+    <t>DSS3565</t>
+  </si>
+  <si>
+    <t>DSS3566</t>
+  </si>
+  <si>
+    <t>DSS3567</t>
+  </si>
+  <si>
+    <t>DSS3568</t>
+  </si>
+  <si>
+    <t>DSS3569</t>
+  </si>
+  <si>
+    <t>DSS3570</t>
+  </si>
+  <si>
+    <t>DSS3571</t>
+  </si>
+  <si>
+    <t>DSS3572</t>
+  </si>
+  <si>
+    <t>DSS3573</t>
+  </si>
+  <si>
+    <t>DSS3574</t>
+  </si>
+  <si>
+    <t>DSS3575</t>
+  </si>
+  <si>
+    <t>DSS3576</t>
+  </si>
+  <si>
+    <t>DSS3577</t>
+  </si>
+  <si>
+    <t>DSS3578</t>
+  </si>
+  <si>
+    <t>DSS3579</t>
+  </si>
+  <si>
+    <t>DSS3580</t>
+  </si>
+  <si>
+    <t>DSS3581</t>
+  </si>
+  <si>
+    <t>DSS3582</t>
+  </si>
+  <si>
+    <t>DSS3583</t>
+  </si>
+  <si>
+    <t>DSS3584</t>
+  </si>
+  <si>
+    <t>DSS3585</t>
+  </si>
+  <si>
+    <t>DSS3586</t>
+  </si>
+  <si>
+    <t>DSS3587</t>
+  </si>
+  <si>
+    <t>DSS3588</t>
   </si>
 </sst>
 </file>
@@ -10074,7 +10260,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10082,10 +10268,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2516"/>
+  <dimension ref="A1:E2572"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2506" zoomScale="148" zoomScaleNormal="100" zoomScaleSheetLayoutView="148" workbookViewId="0">
-      <selection activeCell="A2509" sqref="A2509:E2516"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2547" zoomScale="148" zoomScaleNormal="100" zoomScaleSheetLayoutView="148" workbookViewId="0">
+      <selection activeCell="A2557" sqref="A2557:D2564"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51959,7 +52145,7 @@
       </c>
     </row>
     <row r="2485" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2485" s="28" t="s">
+      <c r="A2485" s="27" t="s">
         <v>3062</v>
       </c>
       <c r="B2485" s="27" t="s">
@@ -51976,7 +52162,7 @@
       </c>
     </row>
     <row r="2486" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2486" s="28" t="s">
+      <c r="A2486" s="27" t="s">
         <v>3063</v>
       </c>
       <c r="B2486" s="27" t="s">
@@ -51993,7 +52179,7 @@
       </c>
     </row>
     <row r="2487" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2487" s="28" t="s">
+      <c r="A2487" s="27" t="s">
         <v>3064</v>
       </c>
       <c r="B2487" s="27" t="s">
@@ -52010,7 +52196,7 @@
       </c>
     </row>
     <row r="2488" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2488" s="28" t="s">
+      <c r="A2488" s="27" t="s">
         <v>3065</v>
       </c>
       <c r="B2488" s="27" t="s">
@@ -52027,7 +52213,7 @@
       </c>
     </row>
     <row r="2489" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2489" s="28" t="s">
+      <c r="A2489" s="27" t="s">
         <v>3066</v>
       </c>
       <c r="B2489" s="27" t="s">
@@ -52044,7 +52230,7 @@
       </c>
     </row>
     <row r="2490" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2490" s="28" t="s">
+      <c r="A2490" s="27" t="s">
         <v>3067</v>
       </c>
       <c r="B2490" s="27" t="s">
@@ -52061,7 +52247,7 @@
       </c>
     </row>
     <row r="2491" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2491" s="28" t="s">
+      <c r="A2491" s="27" t="s">
         <v>3068</v>
       </c>
       <c r="B2491" s="27" t="s">
@@ -52078,7 +52264,7 @@
       </c>
     </row>
     <row r="2492" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2492" s="28" t="s">
+      <c r="A2492" s="27" t="s">
         <v>3069</v>
       </c>
       <c r="B2492" s="27" t="s">
@@ -52499,6 +52685,958 @@
         <v>2919</v>
       </c>
       <c r="E2516" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2517" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2517" s="27" t="s">
+        <v>3102</v>
+      </c>
+      <c r="B2517" s="27" t="s">
+        <v>3096</v>
+      </c>
+      <c r="C2517" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2517" s="27" t="s">
+        <v>2583</v>
+      </c>
+      <c r="E2517" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2518" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2518" s="27" t="s">
+        <v>3103</v>
+      </c>
+      <c r="B2518" s="27" t="s">
+        <v>3096</v>
+      </c>
+      <c r="C2518" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2518" s="27" t="s">
+        <v>2584</v>
+      </c>
+      <c r="E2518" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2519" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2519" s="27" t="s">
+        <v>3104</v>
+      </c>
+      <c r="B2519" s="27" t="s">
+        <v>3096</v>
+      </c>
+      <c r="C2519" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2519" s="27" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E2519" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2520" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2520" s="27" t="s">
+        <v>3105</v>
+      </c>
+      <c r="B2520" s="27" t="s">
+        <v>3096</v>
+      </c>
+      <c r="C2520" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2520" s="27" t="s">
+        <v>2586</v>
+      </c>
+      <c r="E2520" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2521" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2521" s="27" t="s">
+        <v>3106</v>
+      </c>
+      <c r="B2521" s="27" t="s">
+        <v>3096</v>
+      </c>
+      <c r="C2521" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2521" s="27" t="s">
+        <v>2587</v>
+      </c>
+      <c r="E2521" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2522" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2522" s="27" t="s">
+        <v>3107</v>
+      </c>
+      <c r="B2522" s="27" t="s">
+        <v>3096</v>
+      </c>
+      <c r="C2522" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2522" s="27" t="s">
+        <v>2588</v>
+      </c>
+      <c r="E2522" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2523" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2523" s="27" t="s">
+        <v>3108</v>
+      </c>
+      <c r="B2523" s="27" t="s">
+        <v>3096</v>
+      </c>
+      <c r="C2523" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2523" s="27" t="s">
+        <v>2589</v>
+      </c>
+      <c r="E2523" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2524" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2524" s="27" t="s">
+        <v>3109</v>
+      </c>
+      <c r="B2524" s="27" t="s">
+        <v>3096</v>
+      </c>
+      <c r="C2524" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2524" s="27" t="s">
+        <v>2590</v>
+      </c>
+      <c r="E2524" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2525" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2525" s="28" t="s">
+        <v>3110</v>
+      </c>
+      <c r="B2525" s="28" t="s">
+        <v>3097</v>
+      </c>
+      <c r="C2525" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2525" s="28" t="s">
+        <v>2583</v>
+      </c>
+      <c r="E2525" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2526" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2526" s="28" t="s">
+        <v>3111</v>
+      </c>
+      <c r="B2526" s="28" t="s">
+        <v>3097</v>
+      </c>
+      <c r="C2526" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2526" s="28" t="s">
+        <v>2584</v>
+      </c>
+      <c r="E2526" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2527" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2527" s="28" t="s">
+        <v>3112</v>
+      </c>
+      <c r="B2527" s="28" t="s">
+        <v>3097</v>
+      </c>
+      <c r="C2527" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2527" s="28" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E2527" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2528" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2528" s="28" t="s">
+        <v>3113</v>
+      </c>
+      <c r="B2528" s="28" t="s">
+        <v>3097</v>
+      </c>
+      <c r="C2528" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2528" s="28" t="s">
+        <v>2586</v>
+      </c>
+      <c r="E2528" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2529" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2529" s="28" t="s">
+        <v>3114</v>
+      </c>
+      <c r="B2529" s="28" t="s">
+        <v>3097</v>
+      </c>
+      <c r="C2529" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2529" s="28" t="s">
+        <v>2587</v>
+      </c>
+      <c r="E2529" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2530" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2530" s="28" t="s">
+        <v>3115</v>
+      </c>
+      <c r="B2530" s="28" t="s">
+        <v>3097</v>
+      </c>
+      <c r="C2530" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2530" s="28" t="s">
+        <v>2588</v>
+      </c>
+      <c r="E2530" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2531" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2531" s="28" t="s">
+        <v>3116</v>
+      </c>
+      <c r="B2531" s="28" t="s">
+        <v>3097</v>
+      </c>
+      <c r="C2531" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2531" s="28" t="s">
+        <v>2589</v>
+      </c>
+      <c r="E2531" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2532" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2532" s="28" t="s">
+        <v>3117</v>
+      </c>
+      <c r="B2532" s="28" t="s">
+        <v>3097</v>
+      </c>
+      <c r="C2532" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2532" s="28" t="s">
+        <v>2590</v>
+      </c>
+      <c r="E2532" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2533" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2533" s="27" t="s">
+        <v>3118</v>
+      </c>
+      <c r="B2533" s="27" t="s">
+        <v>3052</v>
+      </c>
+      <c r="C2533" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2533" s="27" t="s">
+        <v>2583</v>
+      </c>
+      <c r="E2533" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2534" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2534" s="27" t="s">
+        <v>3119</v>
+      </c>
+      <c r="B2534" s="27" t="s">
+        <v>3052</v>
+      </c>
+      <c r="C2534" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2534" s="27" t="s">
+        <v>2584</v>
+      </c>
+      <c r="E2534" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2535" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2535" s="27" t="s">
+        <v>3120</v>
+      </c>
+      <c r="B2535" s="27" t="s">
+        <v>3052</v>
+      </c>
+      <c r="C2535" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2535" s="27" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E2535" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2536" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2536" s="27" t="s">
+        <v>3121</v>
+      </c>
+      <c r="B2536" s="27" t="s">
+        <v>3052</v>
+      </c>
+      <c r="C2536" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2536" s="27" t="s">
+        <v>2586</v>
+      </c>
+      <c r="E2536" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2537" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2537" s="27" t="s">
+        <v>3122</v>
+      </c>
+      <c r="B2537" s="27" t="s">
+        <v>3052</v>
+      </c>
+      <c r="C2537" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2537" s="27" t="s">
+        <v>2587</v>
+      </c>
+      <c r="E2537" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2538" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2538" s="27" t="s">
+        <v>3123</v>
+      </c>
+      <c r="B2538" s="27" t="s">
+        <v>3052</v>
+      </c>
+      <c r="C2538" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2538" s="27" t="s">
+        <v>2588</v>
+      </c>
+      <c r="E2538" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2539" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2539" s="27" t="s">
+        <v>3124</v>
+      </c>
+      <c r="B2539" s="27" t="s">
+        <v>3052</v>
+      </c>
+      <c r="C2539" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2539" s="27" t="s">
+        <v>2589</v>
+      </c>
+      <c r="E2539" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2540" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2540" s="27" t="s">
+        <v>3125</v>
+      </c>
+      <c r="B2540" s="27" t="s">
+        <v>3052</v>
+      </c>
+      <c r="C2540" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2540" s="27" t="s">
+        <v>2590</v>
+      </c>
+      <c r="E2540" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2541" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2541" s="28" t="s">
+        <v>3126</v>
+      </c>
+      <c r="B2541" s="28" t="s">
+        <v>3098</v>
+      </c>
+      <c r="C2541" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2541" s="28" t="s">
+        <v>2583</v>
+      </c>
+      <c r="E2541" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2542" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2542" s="28" t="s">
+        <v>3127</v>
+      </c>
+      <c r="B2542" s="28" t="s">
+        <v>3098</v>
+      </c>
+      <c r="C2542" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2542" s="28" t="s">
+        <v>2584</v>
+      </c>
+      <c r="E2542" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2543" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2543" s="28" t="s">
+        <v>3128</v>
+      </c>
+      <c r="B2543" s="28" t="s">
+        <v>3098</v>
+      </c>
+      <c r="C2543" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2543" s="28" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E2543" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2544" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2544" s="28" t="s">
+        <v>3129</v>
+      </c>
+      <c r="B2544" s="28" t="s">
+        <v>3098</v>
+      </c>
+      <c r="C2544" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2544" s="28" t="s">
+        <v>2586</v>
+      </c>
+      <c r="E2544" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2545" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2545" s="28" t="s">
+        <v>3130</v>
+      </c>
+      <c r="B2545" s="28" t="s">
+        <v>3098</v>
+      </c>
+      <c r="C2545" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2545" s="28" t="s">
+        <v>2587</v>
+      </c>
+      <c r="E2545" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2546" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2546" s="28" t="s">
+        <v>3131</v>
+      </c>
+      <c r="B2546" s="28" t="s">
+        <v>3098</v>
+      </c>
+      <c r="C2546" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2546" s="28" t="s">
+        <v>2588</v>
+      </c>
+      <c r="E2546" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2547" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2547" s="28" t="s">
+        <v>3132</v>
+      </c>
+      <c r="B2547" s="28" t="s">
+        <v>3098</v>
+      </c>
+      <c r="C2547" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2547" s="28" t="s">
+        <v>2589</v>
+      </c>
+      <c r="E2547" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2548" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2548" s="28" t="s">
+        <v>3133</v>
+      </c>
+      <c r="B2548" s="28" t="s">
+        <v>3098</v>
+      </c>
+      <c r="C2548" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2548" s="28" t="s">
+        <v>2590</v>
+      </c>
+      <c r="E2548" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2549" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2549" s="27" t="s">
+        <v>3134</v>
+      </c>
+      <c r="B2549" s="27" t="s">
+        <v>3099</v>
+      </c>
+      <c r="C2549" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2549" s="27" t="s">
+        <v>2583</v>
+      </c>
+      <c r="E2549" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2550" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2550" s="27" t="s">
+        <v>3135</v>
+      </c>
+      <c r="B2550" s="27" t="s">
+        <v>3099</v>
+      </c>
+      <c r="C2550" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2550" s="27" t="s">
+        <v>2584</v>
+      </c>
+      <c r="E2550" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2551" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2551" s="27" t="s">
+        <v>3136</v>
+      </c>
+      <c r="B2551" s="27" t="s">
+        <v>3099</v>
+      </c>
+      <c r="C2551" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2551" s="27" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E2551" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2552" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2552" s="27" t="s">
+        <v>3137</v>
+      </c>
+      <c r="B2552" s="27" t="s">
+        <v>3099</v>
+      </c>
+      <c r="C2552" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2552" s="27" t="s">
+        <v>2586</v>
+      </c>
+      <c r="E2552" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2553" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2553" s="27" t="s">
+        <v>3138</v>
+      </c>
+      <c r="B2553" s="27" t="s">
+        <v>3099</v>
+      </c>
+      <c r="C2553" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2553" s="27" t="s">
+        <v>2587</v>
+      </c>
+      <c r="E2553" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2554" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2554" s="27" t="s">
+        <v>3139</v>
+      </c>
+      <c r="B2554" s="27" t="s">
+        <v>3099</v>
+      </c>
+      <c r="C2554" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2554" s="27" t="s">
+        <v>2588</v>
+      </c>
+      <c r="E2554" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2555" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2555" s="27" t="s">
+        <v>3140</v>
+      </c>
+      <c r="B2555" s="27" t="s">
+        <v>3099</v>
+      </c>
+      <c r="C2555" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2555" s="27" t="s">
+        <v>2589</v>
+      </c>
+      <c r="E2555" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2556" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2556" s="27" t="s">
+        <v>3141</v>
+      </c>
+      <c r="B2556" s="27" t="s">
+        <v>3099</v>
+      </c>
+      <c r="C2556" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2556" s="27" t="s">
+        <v>2590</v>
+      </c>
+      <c r="E2556" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2557" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2557" s="28" t="s">
+        <v>3142</v>
+      </c>
+      <c r="B2557" s="28" t="s">
+        <v>3100</v>
+      </c>
+      <c r="C2557" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2557" s="28" t="s">
+        <v>2583</v>
+      </c>
+      <c r="E2557" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2558" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2558" s="28" t="s">
+        <v>3143</v>
+      </c>
+      <c r="B2558" s="28" t="s">
+        <v>3100</v>
+      </c>
+      <c r="C2558" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2558" s="28" t="s">
+        <v>2584</v>
+      </c>
+      <c r="E2558" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2559" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2559" s="28" t="s">
+        <v>3144</v>
+      </c>
+      <c r="B2559" s="28" t="s">
+        <v>3100</v>
+      </c>
+      <c r="C2559" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2559" s="28" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E2559" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2560" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2560" s="28" t="s">
+        <v>3145</v>
+      </c>
+      <c r="B2560" s="28" t="s">
+        <v>3100</v>
+      </c>
+      <c r="C2560" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2560" s="28" t="s">
+        <v>2586</v>
+      </c>
+      <c r="E2560" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2561" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2561" s="28" t="s">
+        <v>3146</v>
+      </c>
+      <c r="B2561" s="28" t="s">
+        <v>3100</v>
+      </c>
+      <c r="C2561" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2561" s="28" t="s">
+        <v>2587</v>
+      </c>
+      <c r="E2561" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2562" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2562" s="28" t="s">
+        <v>3147</v>
+      </c>
+      <c r="B2562" s="28" t="s">
+        <v>3100</v>
+      </c>
+      <c r="C2562" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2562" s="28" t="s">
+        <v>2588</v>
+      </c>
+      <c r="E2562" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2563" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2563" s="28" t="s">
+        <v>3148</v>
+      </c>
+      <c r="B2563" s="28" t="s">
+        <v>3100</v>
+      </c>
+      <c r="C2563" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2563" s="28" t="s">
+        <v>2589</v>
+      </c>
+      <c r="E2563" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2564" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2564" s="28" t="s">
+        <v>3149</v>
+      </c>
+      <c r="B2564" s="28" t="s">
+        <v>3100</v>
+      </c>
+      <c r="C2564" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2564" s="28" t="s">
+        <v>2590</v>
+      </c>
+      <c r="E2564" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2565" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2565" s="27" t="s">
+        <v>3150</v>
+      </c>
+      <c r="B2565" s="27" t="s">
+        <v>3101</v>
+      </c>
+      <c r="C2565" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2565" s="27" t="s">
+        <v>2583</v>
+      </c>
+      <c r="E2565" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2566" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2566" s="27" t="s">
+        <v>3151</v>
+      </c>
+      <c r="B2566" s="27" t="s">
+        <v>3101</v>
+      </c>
+      <c r="C2566" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2566" s="27" t="s">
+        <v>2584</v>
+      </c>
+      <c r="E2566" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2567" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2567" s="27" t="s">
+        <v>3152</v>
+      </c>
+      <c r="B2567" s="27" t="s">
+        <v>3101</v>
+      </c>
+      <c r="C2567" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2567" s="27" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E2567" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2568" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2568" s="27" t="s">
+        <v>3153</v>
+      </c>
+      <c r="B2568" s="27" t="s">
+        <v>3101</v>
+      </c>
+      <c r="C2568" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2568" s="27" t="s">
+        <v>2586</v>
+      </c>
+      <c r="E2568" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2569" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2569" s="27" t="s">
+        <v>3154</v>
+      </c>
+      <c r="B2569" s="27" t="s">
+        <v>3101</v>
+      </c>
+      <c r="C2569" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2569" s="27" t="s">
+        <v>2587</v>
+      </c>
+      <c r="E2569" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2570" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2570" s="27" t="s">
+        <v>3155</v>
+      </c>
+      <c r="B2570" s="27" t="s">
+        <v>3101</v>
+      </c>
+      <c r="C2570" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2570" s="27" t="s">
+        <v>2588</v>
+      </c>
+      <c r="E2570" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2571" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2571" s="27" t="s">
+        <v>3156</v>
+      </c>
+      <c r="B2571" s="27" t="s">
+        <v>3101</v>
+      </c>
+      <c r="C2571" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2571" s="27" t="s">
+        <v>2589</v>
+      </c>
+      <c r="E2571" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2572" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2572" s="27" t="s">
+        <v>3157</v>
+      </c>
+      <c r="B2572" s="27" t="s">
+        <v>3101</v>
+      </c>
+      <c r="C2572" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2572" s="27" t="s">
+        <v>2590</v>
+      </c>
+      <c r="E2572" s="11">
         <v>1</v>
       </c>
     </row>
@@ -52511,7 +53649,7 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="40" orientation="portrait" r:id="rId1"/>
-  <rowBreaks count="18" manualBreakCount="18">
+  <rowBreaks count="19" manualBreakCount="19">
     <brk id="70" max="16383" man="1"/>
     <brk id="409" max="4" man="1"/>
     <brk id="493" max="4" man="1"/>
@@ -52530,6 +53668,7 @@
     <brk id="2090" max="4" man="1"/>
     <brk id="2196" max="4" man="1"/>
     <brk id="2408" max="4" man="1"/>
+    <brk id="2508" max="4" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9192" uniqueCount="3158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9228" uniqueCount="3170">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -9505,6 +9505,42 @@
   </si>
   <si>
     <t>DSS3588</t>
+  </si>
+  <si>
+    <t>MAHMOUD SHALABY ELSAYED SHALABY</t>
+  </si>
+  <si>
+    <t>DSS3589</t>
+  </si>
+  <si>
+    <t>DSS3590</t>
+  </si>
+  <si>
+    <t>DSS3591</t>
+  </si>
+  <si>
+    <t>DSS3592</t>
+  </si>
+  <si>
+    <t>DSS3593</t>
+  </si>
+  <si>
+    <t>DSS3594</t>
+  </si>
+  <si>
+    <t>DSS3595</t>
+  </si>
+  <si>
+    <t>DSS3596</t>
+  </si>
+  <si>
+    <t>AHMED ZAKI MOHAMED SALAMA</t>
+  </si>
+  <si>
+    <t>DSS3597</t>
+  </si>
+  <si>
+    <t>05-Aug-2025</t>
   </si>
 </sst>
 </file>
@@ -10268,10 +10304,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2572"/>
+  <dimension ref="A1:E2581"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2547" zoomScale="148" zoomScaleNormal="100" zoomScaleSheetLayoutView="148" workbookViewId="0">
-      <selection activeCell="A2557" sqref="A2557:D2564"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2570" zoomScale="148" zoomScaleNormal="100" zoomScaleSheetLayoutView="148" workbookViewId="0">
+      <selection activeCell="D2581" sqref="D2581"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53637,6 +53673,159 @@
         <v>2590</v>
       </c>
       <c r="E2572" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2573" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2573" s="28" t="s">
+        <v>3159</v>
+      </c>
+      <c r="B2573" s="28" t="s">
+        <v>3158</v>
+      </c>
+      <c r="C2573" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2573" s="28" t="s">
+        <v>2432</v>
+      </c>
+      <c r="E2573" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2574" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2574" s="28" t="s">
+        <v>3160</v>
+      </c>
+      <c r="B2574" s="28" t="s">
+        <v>3158</v>
+      </c>
+      <c r="C2574" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2574" s="28" t="s">
+        <v>2433</v>
+      </c>
+      <c r="E2574" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2575" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2575" s="28" t="s">
+        <v>3161</v>
+      </c>
+      <c r="B2575" s="28" t="s">
+        <v>3158</v>
+      </c>
+      <c r="C2575" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2575" s="28" t="s">
+        <v>2434</v>
+      </c>
+      <c r="E2575" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2576" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2576" s="28" t="s">
+        <v>3162</v>
+      </c>
+      <c r="B2576" s="28" t="s">
+        <v>3158</v>
+      </c>
+      <c r="C2576" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2576" s="28" t="s">
+        <v>2435</v>
+      </c>
+      <c r="E2576" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2577" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2577" s="28" t="s">
+        <v>3163</v>
+      </c>
+      <c r="B2577" s="28" t="s">
+        <v>3158</v>
+      </c>
+      <c r="C2577" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2577" s="28" t="s">
+        <v>2436</v>
+      </c>
+      <c r="E2577" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2578" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2578" s="28" t="s">
+        <v>3164</v>
+      </c>
+      <c r="B2578" s="28" t="s">
+        <v>3158</v>
+      </c>
+      <c r="C2578" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2578" s="28" t="s">
+        <v>2437</v>
+      </c>
+      <c r="E2578" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2579" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2579" s="28" t="s">
+        <v>3165</v>
+      </c>
+      <c r="B2579" s="28" t="s">
+        <v>3158</v>
+      </c>
+      <c r="C2579" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2579" s="28" t="s">
+        <v>2438</v>
+      </c>
+      <c r="E2579" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2580" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2580" s="28" t="s">
+        <v>3166</v>
+      </c>
+      <c r="B2580" s="28" t="s">
+        <v>3158</v>
+      </c>
+      <c r="C2580" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2580" s="28" t="s">
+        <v>2439</v>
+      </c>
+      <c r="E2580" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2581" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2581" s="89" t="s">
+        <v>3168</v>
+      </c>
+      <c r="B2581" s="89" t="s">
+        <v>3167</v>
+      </c>
+      <c r="C2581" s="89" t="s">
+        <v>239</v>
+      </c>
+      <c r="D2581" s="87" t="s">
+        <v>3169</v>
+      </c>
+      <c r="E2581" s="11">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$2602</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$2742</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9228" uniqueCount="3170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9840" uniqueCount="3358">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -9541,6 +9541,570 @@
   </si>
   <si>
     <t>05-Aug-2025</t>
+  </si>
+  <si>
+    <t>MUETAZ MANSOUR MOHAMMED</t>
+  </si>
+  <si>
+    <t>06-Aug-2025</t>
+  </si>
+  <si>
+    <t>03-Aug-2025</t>
+  </si>
+  <si>
+    <t>01-Aug-2025</t>
+  </si>
+  <si>
+    <t>02-Aug-2025</t>
+  </si>
+  <si>
+    <t>07-Aug-2025</t>
+  </si>
+  <si>
+    <t>08-Aug-2025</t>
+  </si>
+  <si>
+    <t>04-Aug-2025</t>
+  </si>
+  <si>
+    <t>DSS3598</t>
+  </si>
+  <si>
+    <t>DSS3599</t>
+  </si>
+  <si>
+    <t>DSS3600</t>
+  </si>
+  <si>
+    <t>DSS3601</t>
+  </si>
+  <si>
+    <t>DSS3602</t>
+  </si>
+  <si>
+    <t>DSS3603</t>
+  </si>
+  <si>
+    <t>DSS3604</t>
+  </si>
+  <si>
+    <t>DSS3605</t>
+  </si>
+  <si>
+    <t>DSS3606</t>
+  </si>
+  <si>
+    <t>Mohamed Hendy Abo Zaid Mohamed</t>
+  </si>
+  <si>
+    <t>DSS3607</t>
+  </si>
+  <si>
+    <t>DSS3608</t>
+  </si>
+  <si>
+    <t>DSS3609</t>
+  </si>
+  <si>
+    <t>DSS3610</t>
+  </si>
+  <si>
+    <t>DSS3611</t>
+  </si>
+  <si>
+    <t>DSS3612</t>
+  </si>
+  <si>
+    <t>DSS3613</t>
+  </si>
+  <si>
+    <t>DSS3614</t>
+  </si>
+  <si>
+    <t>Ahmed Abdel Moneim Hassan Ibrahim</t>
+  </si>
+  <si>
+    <t>Abdalwahab Wanes Ried</t>
+  </si>
+  <si>
+    <t>Mohamed Taha Mohamed Mohamed</t>
+  </si>
+  <si>
+    <t>Mostafa Abdelbaset Mohamed Ahmed</t>
+  </si>
+  <si>
+    <t>Hazim Mahmoud Essa Ajl</t>
+  </si>
+  <si>
+    <t>Ismaeil Mohamed Abd el  Hakim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABDELFATTAH. S SALEM </t>
+  </si>
+  <si>
+    <t>MOHAMED HAMDY GAD  ABOUSALEH</t>
+  </si>
+  <si>
+    <t>Ramadan Abdelwahab Ramadan Mostafa</t>
+  </si>
+  <si>
+    <t>MIFTAH AHMED OMAR ALSHIBLI</t>
+  </si>
+  <si>
+    <t>MUNSIF SALIM MOHAMMED WANNEES</t>
+  </si>
+  <si>
+    <t>NAJEH MADALLAH ALI AL AWAZIM</t>
+  </si>
+  <si>
+    <t>Ahmed Rabie Mohamed Ahmed</t>
+  </si>
+  <si>
+    <t>Hassan Noaman Hassan Metwali</t>
+  </si>
+  <si>
+    <t>Mazin Jamal Ahmed Seedahmed</t>
+  </si>
+  <si>
+    <t>Mohamed Ahmed Sayed Mohammadin</t>
+  </si>
+  <si>
+    <t>Mosab Farag Mohamed Moursi</t>
+  </si>
+  <si>
+    <t>10-Aug-2025</t>
+  </si>
+  <si>
+    <t>05-Jun-2022</t>
+  </si>
+  <si>
+    <t>10-Jun-2022</t>
+  </si>
+  <si>
+    <t>06-Jun-2022</t>
+  </si>
+  <si>
+    <t>03-Jun-2022</t>
+  </si>
+  <si>
+    <t>01-Jun-2022</t>
+  </si>
+  <si>
+    <t>02-Jun-2022</t>
+  </si>
+  <si>
+    <t>07-Jun-2022</t>
+  </si>
+  <si>
+    <t>08-Jun-2022</t>
+  </si>
+  <si>
+    <t>DSS3615</t>
+  </si>
+  <si>
+    <t>DSS3616</t>
+  </si>
+  <si>
+    <t>DSS3617</t>
+  </si>
+  <si>
+    <t>DSS3618</t>
+  </si>
+  <si>
+    <t>DSS3619</t>
+  </si>
+  <si>
+    <t>DSS3620</t>
+  </si>
+  <si>
+    <t>DSS3621</t>
+  </si>
+  <si>
+    <t>DSS3622</t>
+  </si>
+  <si>
+    <t>DSS3623</t>
+  </si>
+  <si>
+    <t>DSS3624</t>
+  </si>
+  <si>
+    <t>DSS3625</t>
+  </si>
+  <si>
+    <t>DSS3626</t>
+  </si>
+  <si>
+    <t>DSS3627</t>
+  </si>
+  <si>
+    <t>DSS3628</t>
+  </si>
+  <si>
+    <t>DSS3629</t>
+  </si>
+  <si>
+    <t>DSS3630</t>
+  </si>
+  <si>
+    <t>DSS3631</t>
+  </si>
+  <si>
+    <t>DSS3632</t>
+  </si>
+  <si>
+    <t>DSS3633</t>
+  </si>
+  <si>
+    <t>DSS3634</t>
+  </si>
+  <si>
+    <t>DSS3635</t>
+  </si>
+  <si>
+    <t>DSS3636</t>
+  </si>
+  <si>
+    <t>DSS3637</t>
+  </si>
+  <si>
+    <t>DSS3638</t>
+  </si>
+  <si>
+    <t>DSS3639</t>
+  </si>
+  <si>
+    <t>DSS3640</t>
+  </si>
+  <si>
+    <t>DSS3641</t>
+  </si>
+  <si>
+    <t>DSS3642</t>
+  </si>
+  <si>
+    <t>DSS3643</t>
+  </si>
+  <si>
+    <t>DSS3644</t>
+  </si>
+  <si>
+    <t>DSS3645</t>
+  </si>
+  <si>
+    <t>DSS3646</t>
+  </si>
+  <si>
+    <t>DSS3647</t>
+  </si>
+  <si>
+    <t>DSS3648</t>
+  </si>
+  <si>
+    <t>DSS3649</t>
+  </si>
+  <si>
+    <t>DSS3650</t>
+  </si>
+  <si>
+    <t>DSS3651</t>
+  </si>
+  <si>
+    <t>DSS3652</t>
+  </si>
+  <si>
+    <t>DSS3653</t>
+  </si>
+  <si>
+    <t>DSS3654</t>
+  </si>
+  <si>
+    <t>DSS3655</t>
+  </si>
+  <si>
+    <t>DSS3656</t>
+  </si>
+  <si>
+    <t>DSS3657</t>
+  </si>
+  <si>
+    <t>DSS3658</t>
+  </si>
+  <si>
+    <t>DSS3659</t>
+  </si>
+  <si>
+    <t>DSS3660</t>
+  </si>
+  <si>
+    <t>DSS3661</t>
+  </si>
+  <si>
+    <t>DSS3662</t>
+  </si>
+  <si>
+    <t>DSS3663</t>
+  </si>
+  <si>
+    <t>DSS3664</t>
+  </si>
+  <si>
+    <t>DSS3665</t>
+  </si>
+  <si>
+    <t>DSS3666</t>
+  </si>
+  <si>
+    <t>DSS3667</t>
+  </si>
+  <si>
+    <t>DSS3668</t>
+  </si>
+  <si>
+    <t>DSS3669</t>
+  </si>
+  <si>
+    <t>DSS3670</t>
+  </si>
+  <si>
+    <t>DSS3671</t>
+  </si>
+  <si>
+    <t>DSS3672</t>
+  </si>
+  <si>
+    <t>DSS3673</t>
+  </si>
+  <si>
+    <t>DSS3674</t>
+  </si>
+  <si>
+    <t>DSS3675</t>
+  </si>
+  <si>
+    <t>DSS3676</t>
+  </si>
+  <si>
+    <t>DSS3677</t>
+  </si>
+  <si>
+    <t>DSS3678</t>
+  </si>
+  <si>
+    <t>DSS3679</t>
+  </si>
+  <si>
+    <t>DSS3680</t>
+  </si>
+  <si>
+    <t>DSS3681</t>
+  </si>
+  <si>
+    <t>DSS3682</t>
+  </si>
+  <si>
+    <t>DSS3683</t>
+  </si>
+  <si>
+    <t>DSS3684</t>
+  </si>
+  <si>
+    <t>DSS3685</t>
+  </si>
+  <si>
+    <t>DSS3686</t>
+  </si>
+  <si>
+    <t>DSS3687</t>
+  </si>
+  <si>
+    <t>DSS3688</t>
+  </si>
+  <si>
+    <t>DSS3689</t>
+  </si>
+  <si>
+    <t>DSS3690</t>
+  </si>
+  <si>
+    <t>DSS3691</t>
+  </si>
+  <si>
+    <t>DSS3692</t>
+  </si>
+  <si>
+    <t>DSS3693</t>
+  </si>
+  <si>
+    <t>DSS3694</t>
+  </si>
+  <si>
+    <t>DSS3695</t>
+  </si>
+  <si>
+    <t>DSS3696</t>
+  </si>
+  <si>
+    <t>DSS3697</t>
+  </si>
+  <si>
+    <t>DSS3698</t>
+  </si>
+  <si>
+    <t>DSS3699</t>
+  </si>
+  <si>
+    <t>DSS3700</t>
+  </si>
+  <si>
+    <t>DSS3701</t>
+  </si>
+  <si>
+    <t>DSS3702</t>
+  </si>
+  <si>
+    <t>DSS3703</t>
+  </si>
+  <si>
+    <t>DSS3704</t>
+  </si>
+  <si>
+    <t>DSS3705</t>
+  </si>
+  <si>
+    <t>DSS3706</t>
+  </si>
+  <si>
+    <t>DSS3707</t>
+  </si>
+  <si>
+    <t>DSS3708</t>
+  </si>
+  <si>
+    <t>DSS3709</t>
+  </si>
+  <si>
+    <t>DSS3710</t>
+  </si>
+  <si>
+    <t>DSS3719</t>
+  </si>
+  <si>
+    <t>DSS3720</t>
+  </si>
+  <si>
+    <t>DSS3721</t>
+  </si>
+  <si>
+    <t>DSS3722</t>
+  </si>
+  <si>
+    <t>DSS3723</t>
+  </si>
+  <si>
+    <t>DSS3724</t>
+  </si>
+  <si>
+    <t>DSS3725</t>
+  </si>
+  <si>
+    <t>DSS3726</t>
+  </si>
+  <si>
+    <t>DSS3727</t>
+  </si>
+  <si>
+    <t>DSS3728</t>
+  </si>
+  <si>
+    <t>DSS3729</t>
+  </si>
+  <si>
+    <t>DSS3730</t>
+  </si>
+  <si>
+    <t>DSS3731</t>
+  </si>
+  <si>
+    <t>DSS3732</t>
+  </si>
+  <si>
+    <t>DSS3733</t>
+  </si>
+  <si>
+    <t>DSS3734</t>
+  </si>
+  <si>
+    <t>DSS3735</t>
+  </si>
+  <si>
+    <t>DSS3736</t>
+  </si>
+  <si>
+    <t>DSS3737</t>
+  </si>
+  <si>
+    <t>DSS3738</t>
+  </si>
+  <si>
+    <t>DSS3739</t>
+  </si>
+  <si>
+    <t>DSS3740</t>
+  </si>
+  <si>
+    <t>DSS3741</t>
+  </si>
+  <si>
+    <t>DSS3742</t>
+  </si>
+  <si>
+    <t>DSS3743</t>
+  </si>
+  <si>
+    <t>DSS3744</t>
+  </si>
+  <si>
+    <t>DSS3745</t>
+  </si>
+  <si>
+    <t>DSS3746</t>
+  </si>
+  <si>
+    <t>DSS3747</t>
+  </si>
+  <si>
+    <t>DSS3748</t>
+  </si>
+  <si>
+    <t>DSS3749</t>
+  </si>
+  <si>
+    <t>DSS3750</t>
+  </si>
+  <si>
+    <t>DSS614</t>
+  </si>
+  <si>
+    <t>DSS615</t>
+  </si>
+  <si>
+    <t>DSS616</t>
+  </si>
+  <si>
+    <t>DSS617</t>
+  </si>
+  <si>
+    <t>DSS618</t>
+  </si>
+  <si>
+    <t>DSS619</t>
+  </si>
+  <si>
+    <t>DSS620</t>
+  </si>
+  <si>
+    <t>DSS621</t>
   </si>
 </sst>
 </file>
@@ -10304,10 +10868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2581"/>
+  <dimension ref="A1:E2734"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2570" zoomScale="148" zoomScaleNormal="100" zoomScaleSheetLayoutView="148" workbookViewId="0">
-      <selection activeCell="D2581" sqref="D2581"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2698" zoomScale="148" zoomScaleNormal="100" zoomScaleSheetLayoutView="148" workbookViewId="0">
+      <selection activeCell="B2736" sqref="B2736"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53826,6 +54390,2607 @@
         <v>3169</v>
       </c>
       <c r="E2581" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2582" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2582" s="27" t="s">
+        <v>3178</v>
+      </c>
+      <c r="B2582" s="27" t="s">
+        <v>3170</v>
+      </c>
+      <c r="C2582" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2582" s="27" t="s">
+        <v>3169</v>
+      </c>
+      <c r="E2582" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2583" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2583" s="27" t="s">
+        <v>3179</v>
+      </c>
+      <c r="B2583" s="27" t="s">
+        <v>3170</v>
+      </c>
+      <c r="C2583" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2583" s="27" t="s">
+        <v>3176</v>
+      </c>
+      <c r="E2583" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2584" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2584" s="27" t="s">
+        <v>3180</v>
+      </c>
+      <c r="B2584" s="27" t="s">
+        <v>3170</v>
+      </c>
+      <c r="C2584" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2584" s="27" t="s">
+        <v>3171</v>
+      </c>
+      <c r="E2584" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2585" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2585" s="27" t="s">
+        <v>3181</v>
+      </c>
+      <c r="B2585" s="27" t="s">
+        <v>3170</v>
+      </c>
+      <c r="C2585" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2585" s="27" t="s">
+        <v>3172</v>
+      </c>
+      <c r="E2585" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2586" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2586" s="27" t="s">
+        <v>3182</v>
+      </c>
+      <c r="B2586" s="27" t="s">
+        <v>3170</v>
+      </c>
+      <c r="C2586" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2586" s="27" t="s">
+        <v>3173</v>
+      </c>
+      <c r="E2586" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2587" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2587" s="27" t="s">
+        <v>3183</v>
+      </c>
+      <c r="B2587" s="27" t="s">
+        <v>3170</v>
+      </c>
+      <c r="C2587" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2587" s="27" t="s">
+        <v>3174</v>
+      </c>
+      <c r="E2587" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2588" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2588" s="27" t="s">
+        <v>3184</v>
+      </c>
+      <c r="B2588" s="27" t="s">
+        <v>3170</v>
+      </c>
+      <c r="C2588" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2588" s="27" t="s">
+        <v>3175</v>
+      </c>
+      <c r="E2588" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2589" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2589" s="27" t="s">
+        <v>3185</v>
+      </c>
+      <c r="B2589" s="27" t="s">
+        <v>3170</v>
+      </c>
+      <c r="C2589" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2589" s="27" t="s">
+        <v>3176</v>
+      </c>
+      <c r="E2589" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2590" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2590" s="27" t="s">
+        <v>3186</v>
+      </c>
+      <c r="B2590" s="27" t="s">
+        <v>3170</v>
+      </c>
+      <c r="C2590" s="27" t="s">
+        <v>462</v>
+      </c>
+      <c r="D2590" s="27" t="s">
+        <v>3177</v>
+      </c>
+      <c r="E2590" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2591" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2591" s="28" t="s">
+        <v>3188</v>
+      </c>
+      <c r="B2591" s="28" t="s">
+        <v>3187</v>
+      </c>
+      <c r="C2591" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2591" s="28" t="s">
+        <v>2912</v>
+      </c>
+      <c r="E2591" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2592" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2592" s="28" t="s">
+        <v>3189</v>
+      </c>
+      <c r="B2592" s="28" t="s">
+        <v>3187</v>
+      </c>
+      <c r="C2592" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2592" s="28" t="s">
+        <v>2913</v>
+      </c>
+      <c r="E2592" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2593" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2593" s="28" t="s">
+        <v>3190</v>
+      </c>
+      <c r="B2593" s="28" t="s">
+        <v>3187</v>
+      </c>
+      <c r="C2593" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2593" s="28" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E2593" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2594" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2594" s="28" t="s">
+        <v>3191</v>
+      </c>
+      <c r="B2594" s="28" t="s">
+        <v>3187</v>
+      </c>
+      <c r="C2594" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2594" s="28" t="s">
+        <v>2915</v>
+      </c>
+      <c r="E2594" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2595" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2595" s="28" t="s">
+        <v>3192</v>
+      </c>
+      <c r="B2595" s="28" t="s">
+        <v>3187</v>
+      </c>
+      <c r="C2595" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2595" s="28" t="s">
+        <v>2916</v>
+      </c>
+      <c r="E2595" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2596" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2596" s="28" t="s">
+        <v>3193</v>
+      </c>
+      <c r="B2596" s="28" t="s">
+        <v>3187</v>
+      </c>
+      <c r="C2596" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2596" s="28" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E2596" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2597" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2597" s="28" t="s">
+        <v>3194</v>
+      </c>
+      <c r="B2597" s="28" t="s">
+        <v>3187</v>
+      </c>
+      <c r="C2597" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2597" s="28" t="s">
+        <v>2918</v>
+      </c>
+      <c r="E2597" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2598" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2598" s="28" t="s">
+        <v>3195</v>
+      </c>
+      <c r="B2598" s="28" t="s">
+        <v>3187</v>
+      </c>
+      <c r="C2598" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2598" s="28" t="s">
+        <v>2919</v>
+      </c>
+      <c r="E2598" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2599" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2599" s="27" t="s">
+        <v>3222</v>
+      </c>
+      <c r="B2599" s="27" t="s">
+        <v>3196</v>
+      </c>
+      <c r="C2599" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2599" s="27" t="s">
+        <v>2912</v>
+      </c>
+      <c r="E2599" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2600" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2600" s="27" t="s">
+        <v>3223</v>
+      </c>
+      <c r="B2600" s="27" t="s">
+        <v>3196</v>
+      </c>
+      <c r="C2600" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2600" s="27" t="s">
+        <v>2913</v>
+      </c>
+      <c r="E2600" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2601" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2601" s="27" t="s">
+        <v>3224</v>
+      </c>
+      <c r="B2601" s="27" t="s">
+        <v>3196</v>
+      </c>
+      <c r="C2601" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2601" s="27" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E2601" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2602" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2602" s="27" t="s">
+        <v>3225</v>
+      </c>
+      <c r="B2602" s="27" t="s">
+        <v>3196</v>
+      </c>
+      <c r="C2602" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2602" s="27" t="s">
+        <v>2915</v>
+      </c>
+      <c r="E2602" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2603" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2603" s="27" t="s">
+        <v>3226</v>
+      </c>
+      <c r="B2603" s="27" t="s">
+        <v>3196</v>
+      </c>
+      <c r="C2603" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2603" s="27" t="s">
+        <v>2916</v>
+      </c>
+      <c r="E2603" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2604" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2604" s="27" t="s">
+        <v>3227</v>
+      </c>
+      <c r="B2604" s="27" t="s">
+        <v>3196</v>
+      </c>
+      <c r="C2604" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2604" s="27" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E2604" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2605" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2605" s="27" t="s">
+        <v>3228</v>
+      </c>
+      <c r="B2605" s="27" t="s">
+        <v>3196</v>
+      </c>
+      <c r="C2605" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2605" s="27" t="s">
+        <v>2918</v>
+      </c>
+      <c r="E2605" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2606" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2606" s="27" t="s">
+        <v>3229</v>
+      </c>
+      <c r="B2606" s="27" t="s">
+        <v>3196</v>
+      </c>
+      <c r="C2606" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2606" s="27" t="s">
+        <v>2919</v>
+      </c>
+      <c r="E2606" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2607" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2607" s="28" t="s">
+        <v>3230</v>
+      </c>
+      <c r="B2607" s="28" t="s">
+        <v>3197</v>
+      </c>
+      <c r="C2607" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2607" s="28" t="s">
+        <v>2912</v>
+      </c>
+      <c r="E2607" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2608" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2608" s="28" t="s">
+        <v>3231</v>
+      </c>
+      <c r="B2608" s="28" t="s">
+        <v>3197</v>
+      </c>
+      <c r="C2608" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2608" s="28" t="s">
+        <v>2913</v>
+      </c>
+      <c r="E2608" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2609" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2609" s="28" t="s">
+        <v>3232</v>
+      </c>
+      <c r="B2609" s="28" t="s">
+        <v>3197</v>
+      </c>
+      <c r="C2609" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2609" s="28" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E2609" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2610" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2610" s="28" t="s">
+        <v>3233</v>
+      </c>
+      <c r="B2610" s="28" t="s">
+        <v>3197</v>
+      </c>
+      <c r="C2610" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2610" s="28" t="s">
+        <v>2915</v>
+      </c>
+      <c r="E2610" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2611" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2611" s="28" t="s">
+        <v>3234</v>
+      </c>
+      <c r="B2611" s="28" t="s">
+        <v>3197</v>
+      </c>
+      <c r="C2611" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2611" s="28" t="s">
+        <v>2916</v>
+      </c>
+      <c r="E2611" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2612" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2612" s="28" t="s">
+        <v>3235</v>
+      </c>
+      <c r="B2612" s="28" t="s">
+        <v>3197</v>
+      </c>
+      <c r="C2612" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2612" s="28" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E2612" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2613" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2613" s="28" t="s">
+        <v>3236</v>
+      </c>
+      <c r="B2613" s="28" t="s">
+        <v>3197</v>
+      </c>
+      <c r="C2613" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2613" s="28" t="s">
+        <v>2918</v>
+      </c>
+      <c r="E2613" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2614" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2614" s="28" t="s">
+        <v>3237</v>
+      </c>
+      <c r="B2614" s="28" t="s">
+        <v>3197</v>
+      </c>
+      <c r="C2614" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2614" s="28" t="s">
+        <v>2919</v>
+      </c>
+      <c r="E2614" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2615" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2615" s="27" t="s">
+        <v>3238</v>
+      </c>
+      <c r="B2615" s="27" t="s">
+        <v>3198</v>
+      </c>
+      <c r="C2615" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2615" s="27" t="s">
+        <v>2912</v>
+      </c>
+      <c r="E2615" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2616" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2616" s="27" t="s">
+        <v>3239</v>
+      </c>
+      <c r="B2616" s="27" t="s">
+        <v>3198</v>
+      </c>
+      <c r="C2616" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2616" s="27" t="s">
+        <v>2913</v>
+      </c>
+      <c r="E2616" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2617" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2617" s="27" t="s">
+        <v>3240</v>
+      </c>
+      <c r="B2617" s="27" t="s">
+        <v>3198</v>
+      </c>
+      <c r="C2617" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2617" s="27" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E2617" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2618" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2618" s="27" t="s">
+        <v>3241</v>
+      </c>
+      <c r="B2618" s="27" t="s">
+        <v>3198</v>
+      </c>
+      <c r="C2618" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2618" s="27" t="s">
+        <v>2915</v>
+      </c>
+      <c r="E2618" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2619" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2619" s="27" t="s">
+        <v>3242</v>
+      </c>
+      <c r="B2619" s="27" t="s">
+        <v>3198</v>
+      </c>
+      <c r="C2619" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2619" s="27" t="s">
+        <v>2916</v>
+      </c>
+      <c r="E2619" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2620" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2620" s="27" t="s">
+        <v>3243</v>
+      </c>
+      <c r="B2620" s="27" t="s">
+        <v>3198</v>
+      </c>
+      <c r="C2620" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2620" s="27" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E2620" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2621" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2621" s="27" t="s">
+        <v>3244</v>
+      </c>
+      <c r="B2621" s="27" t="s">
+        <v>3198</v>
+      </c>
+      <c r="C2621" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2621" s="27" t="s">
+        <v>2918</v>
+      </c>
+      <c r="E2621" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2622" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2622" s="27" t="s">
+        <v>3245</v>
+      </c>
+      <c r="B2622" s="27" t="s">
+        <v>3198</v>
+      </c>
+      <c r="C2622" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2622" s="27" t="s">
+        <v>2919</v>
+      </c>
+      <c r="E2622" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2623" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2623" s="28" t="s">
+        <v>3246</v>
+      </c>
+      <c r="B2623" s="28" t="s">
+        <v>3199</v>
+      </c>
+      <c r="C2623" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2623" s="28" t="s">
+        <v>2912</v>
+      </c>
+      <c r="E2623" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2624" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2624" s="28" t="s">
+        <v>3247</v>
+      </c>
+      <c r="B2624" s="28" t="s">
+        <v>3199</v>
+      </c>
+      <c r="C2624" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2624" s="28" t="s">
+        <v>2913</v>
+      </c>
+      <c r="E2624" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2625" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2625" s="28" t="s">
+        <v>3248</v>
+      </c>
+      <c r="B2625" s="28" t="s">
+        <v>3199</v>
+      </c>
+      <c r="C2625" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2625" s="28" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E2625" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2626" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2626" s="28" t="s">
+        <v>3249</v>
+      </c>
+      <c r="B2626" s="28" t="s">
+        <v>3199</v>
+      </c>
+      <c r="C2626" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2626" s="28" t="s">
+        <v>2915</v>
+      </c>
+      <c r="E2626" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2627" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2627" s="28" t="s">
+        <v>3250</v>
+      </c>
+      <c r="B2627" s="28" t="s">
+        <v>3199</v>
+      </c>
+      <c r="C2627" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2627" s="28" t="s">
+        <v>2916</v>
+      </c>
+      <c r="E2627" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2628" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2628" s="28" t="s">
+        <v>3251</v>
+      </c>
+      <c r="B2628" s="28" t="s">
+        <v>3199</v>
+      </c>
+      <c r="C2628" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2628" s="28" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E2628" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2629" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2629" s="28" t="s">
+        <v>3252</v>
+      </c>
+      <c r="B2629" s="28" t="s">
+        <v>3199</v>
+      </c>
+      <c r="C2629" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2629" s="28" t="s">
+        <v>2918</v>
+      </c>
+      <c r="E2629" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2630" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2630" s="28" t="s">
+        <v>3253</v>
+      </c>
+      <c r="B2630" s="28" t="s">
+        <v>3199</v>
+      </c>
+      <c r="C2630" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2630" s="28" t="s">
+        <v>2919</v>
+      </c>
+      <c r="E2630" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2631" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2631" s="27" t="s">
+        <v>3254</v>
+      </c>
+      <c r="B2631" s="27" t="s">
+        <v>3200</v>
+      </c>
+      <c r="C2631" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2631" s="27" t="s">
+        <v>2912</v>
+      </c>
+      <c r="E2631" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2632" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2632" s="27" t="s">
+        <v>3255</v>
+      </c>
+      <c r="B2632" s="27" t="s">
+        <v>3200</v>
+      </c>
+      <c r="C2632" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2632" s="27" t="s">
+        <v>2913</v>
+      </c>
+      <c r="E2632" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2633" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2633" s="27" t="s">
+        <v>3256</v>
+      </c>
+      <c r="B2633" s="27" t="s">
+        <v>3200</v>
+      </c>
+      <c r="C2633" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2633" s="27" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E2633" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2634" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2634" s="27" t="s">
+        <v>3257</v>
+      </c>
+      <c r="B2634" s="27" t="s">
+        <v>3200</v>
+      </c>
+      <c r="C2634" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2634" s="27" t="s">
+        <v>2915</v>
+      </c>
+      <c r="E2634" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2635" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2635" s="27" t="s">
+        <v>3258</v>
+      </c>
+      <c r="B2635" s="27" t="s">
+        <v>3200</v>
+      </c>
+      <c r="C2635" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2635" s="27" t="s">
+        <v>2916</v>
+      </c>
+      <c r="E2635" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2636" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2636" s="27" t="s">
+        <v>3259</v>
+      </c>
+      <c r="B2636" s="27" t="s">
+        <v>3200</v>
+      </c>
+      <c r="C2636" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2636" s="27" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E2636" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2637" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2637" s="27" t="s">
+        <v>3260</v>
+      </c>
+      <c r="B2637" s="27" t="s">
+        <v>3200</v>
+      </c>
+      <c r="C2637" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2637" s="27" t="s">
+        <v>2918</v>
+      </c>
+      <c r="E2637" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2638" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2638" s="27" t="s">
+        <v>3261</v>
+      </c>
+      <c r="B2638" s="27" t="s">
+        <v>3200</v>
+      </c>
+      <c r="C2638" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2638" s="27" t="s">
+        <v>2919</v>
+      </c>
+      <c r="E2638" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2639" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2639" s="28" t="s">
+        <v>3262</v>
+      </c>
+      <c r="B2639" s="28" t="s">
+        <v>3201</v>
+      </c>
+      <c r="C2639" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2639" s="28" t="s">
+        <v>3169</v>
+      </c>
+      <c r="E2639" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2640" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2640" s="28" t="s">
+        <v>3263</v>
+      </c>
+      <c r="B2640" s="28" t="s">
+        <v>3201</v>
+      </c>
+      <c r="C2640" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2640" s="28" t="s">
+        <v>3213</v>
+      </c>
+      <c r="E2640" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2641" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2641" s="28" t="s">
+        <v>3264</v>
+      </c>
+      <c r="B2641" s="28" t="s">
+        <v>3201</v>
+      </c>
+      <c r="C2641" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2641" s="28" t="s">
+        <v>3171</v>
+      </c>
+      <c r="E2641" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2642" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2642" s="28" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B2642" s="28" t="s">
+        <v>3201</v>
+      </c>
+      <c r="C2642" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2642" s="28" t="s">
+        <v>3172</v>
+      </c>
+      <c r="E2642" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2643" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2643" s="28" t="s">
+        <v>3266</v>
+      </c>
+      <c r="B2643" s="28" t="s">
+        <v>3201</v>
+      </c>
+      <c r="C2643" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2643" s="28" t="s">
+        <v>3173</v>
+      </c>
+      <c r="E2643" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2644" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2644" s="28" t="s">
+        <v>3267</v>
+      </c>
+      <c r="B2644" s="28" t="s">
+        <v>3201</v>
+      </c>
+      <c r="C2644" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2644" s="28" t="s">
+        <v>3174</v>
+      </c>
+      <c r="E2644" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2645" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2645" s="28" t="s">
+        <v>3268</v>
+      </c>
+      <c r="B2645" s="28" t="s">
+        <v>3201</v>
+      </c>
+      <c r="C2645" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2645" s="28" t="s">
+        <v>3175</v>
+      </c>
+      <c r="E2645" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2646" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2646" s="28" t="s">
+        <v>3269</v>
+      </c>
+      <c r="B2646" s="28" t="s">
+        <v>3201</v>
+      </c>
+      <c r="C2646" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2646" s="28" t="s">
+        <v>3176</v>
+      </c>
+      <c r="E2646" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2647" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2647" s="27" t="s">
+        <v>3270</v>
+      </c>
+      <c r="B2647" s="27" t="s">
+        <v>3202</v>
+      </c>
+      <c r="C2647" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2647" s="27" t="s">
+        <v>3169</v>
+      </c>
+      <c r="E2647" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2648" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2648" s="27" t="s">
+        <v>3271</v>
+      </c>
+      <c r="B2648" s="27" t="s">
+        <v>3202</v>
+      </c>
+      <c r="C2648" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2648" s="27" t="s">
+        <v>3213</v>
+      </c>
+      <c r="E2648" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2649" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2649" s="27" t="s">
+        <v>3272</v>
+      </c>
+      <c r="B2649" s="27" t="s">
+        <v>3202</v>
+      </c>
+      <c r="C2649" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2649" s="27" t="s">
+        <v>3171</v>
+      </c>
+      <c r="E2649" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2650" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2650" s="27" t="s">
+        <v>3273</v>
+      </c>
+      <c r="B2650" s="27" t="s">
+        <v>3202</v>
+      </c>
+      <c r="C2650" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2650" s="27" t="s">
+        <v>3172</v>
+      </c>
+      <c r="E2650" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2651" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2651" s="27" t="s">
+        <v>3274</v>
+      </c>
+      <c r="B2651" s="27" t="s">
+        <v>3202</v>
+      </c>
+      <c r="C2651" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2651" s="27" t="s">
+        <v>3173</v>
+      </c>
+      <c r="E2651" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2652" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2652" s="27" t="s">
+        <v>3275</v>
+      </c>
+      <c r="B2652" s="27" t="s">
+        <v>3202</v>
+      </c>
+      <c r="C2652" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2652" s="27" t="s">
+        <v>3174</v>
+      </c>
+      <c r="E2652" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2653" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2653" s="27" t="s">
+        <v>3276</v>
+      </c>
+      <c r="B2653" s="27" t="s">
+        <v>3202</v>
+      </c>
+      <c r="C2653" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2653" s="27" t="s">
+        <v>3175</v>
+      </c>
+      <c r="E2653" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2654" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2654" s="27" t="s">
+        <v>3277</v>
+      </c>
+      <c r="B2654" s="27" t="s">
+        <v>3202</v>
+      </c>
+      <c r="C2654" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2654" s="27" t="s">
+        <v>3176</v>
+      </c>
+      <c r="E2654" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2655" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2655" s="28" t="s">
+        <v>3278</v>
+      </c>
+      <c r="B2655" s="28" t="s">
+        <v>3203</v>
+      </c>
+      <c r="C2655" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2655" s="28" t="s">
+        <v>3169</v>
+      </c>
+      <c r="E2655" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2656" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2656" s="28" t="s">
+        <v>3279</v>
+      </c>
+      <c r="B2656" s="28" t="s">
+        <v>3203</v>
+      </c>
+      <c r="C2656" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2656" s="28" t="s">
+        <v>3213</v>
+      </c>
+      <c r="E2656" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2657" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2657" s="28" t="s">
+        <v>3280</v>
+      </c>
+      <c r="B2657" s="28" t="s">
+        <v>3203</v>
+      </c>
+      <c r="C2657" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2657" s="28" t="s">
+        <v>3171</v>
+      </c>
+      <c r="E2657" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2658" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2658" s="28" t="s">
+        <v>3281</v>
+      </c>
+      <c r="B2658" s="28" t="s">
+        <v>3203</v>
+      </c>
+      <c r="C2658" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2658" s="28" t="s">
+        <v>3172</v>
+      </c>
+      <c r="E2658" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2659" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2659" s="28" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B2659" s="28" t="s">
+        <v>3203</v>
+      </c>
+      <c r="C2659" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2659" s="28" t="s">
+        <v>3173</v>
+      </c>
+      <c r="E2659" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2660" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2660" s="28" t="s">
+        <v>3283</v>
+      </c>
+      <c r="B2660" s="28" t="s">
+        <v>3203</v>
+      </c>
+      <c r="C2660" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2660" s="28" t="s">
+        <v>3174</v>
+      </c>
+      <c r="E2660" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2661" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2661" s="28" t="s">
+        <v>3284</v>
+      </c>
+      <c r="B2661" s="28" t="s">
+        <v>3203</v>
+      </c>
+      <c r="C2661" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2661" s="28" t="s">
+        <v>3175</v>
+      </c>
+      <c r="E2661" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2662" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2662" s="28" t="s">
+        <v>3285</v>
+      </c>
+      <c r="B2662" s="28" t="s">
+        <v>3203</v>
+      </c>
+      <c r="C2662" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2662" s="28" t="s">
+        <v>3176</v>
+      </c>
+      <c r="E2662" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2663" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2663" s="27" t="s">
+        <v>3286</v>
+      </c>
+      <c r="B2663" s="27" t="s">
+        <v>3204</v>
+      </c>
+      <c r="C2663" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2663" s="27" t="s">
+        <v>3169</v>
+      </c>
+      <c r="E2663" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2664" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2664" s="27" t="s">
+        <v>3287</v>
+      </c>
+      <c r="B2664" s="27" t="s">
+        <v>3204</v>
+      </c>
+      <c r="C2664" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2664" s="27" t="s">
+        <v>3213</v>
+      </c>
+      <c r="E2664" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2665" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2665" s="27" t="s">
+        <v>3288</v>
+      </c>
+      <c r="B2665" s="27" t="s">
+        <v>3204</v>
+      </c>
+      <c r="C2665" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2665" s="27" t="s">
+        <v>3171</v>
+      </c>
+      <c r="E2665" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2666" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2666" s="27" t="s">
+        <v>3289</v>
+      </c>
+      <c r="B2666" s="27" t="s">
+        <v>3204</v>
+      </c>
+      <c r="C2666" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2666" s="27" t="s">
+        <v>3172</v>
+      </c>
+      <c r="E2666" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2667" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2667" s="27" t="s">
+        <v>3290</v>
+      </c>
+      <c r="B2667" s="27" t="s">
+        <v>3204</v>
+      </c>
+      <c r="C2667" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2667" s="27" t="s">
+        <v>3173</v>
+      </c>
+      <c r="E2667" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2668" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2668" s="27" t="s">
+        <v>3291</v>
+      </c>
+      <c r="B2668" s="27" t="s">
+        <v>3204</v>
+      </c>
+      <c r="C2668" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2668" s="27" t="s">
+        <v>3174</v>
+      </c>
+      <c r="E2668" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2669" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2669" s="27" t="s">
+        <v>3292</v>
+      </c>
+      <c r="B2669" s="27" t="s">
+        <v>3204</v>
+      </c>
+      <c r="C2669" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2669" s="27" t="s">
+        <v>3175</v>
+      </c>
+      <c r="E2669" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2670" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2670" s="27" t="s">
+        <v>3293</v>
+      </c>
+      <c r="B2670" s="27" t="s">
+        <v>3204</v>
+      </c>
+      <c r="C2670" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2670" s="27" t="s">
+        <v>3176</v>
+      </c>
+      <c r="E2670" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2671" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2671" s="28" t="s">
+        <v>3294</v>
+      </c>
+      <c r="B2671" s="28" t="s">
+        <v>3205</v>
+      </c>
+      <c r="C2671" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2671" s="28" t="s">
+        <v>3169</v>
+      </c>
+      <c r="E2671" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2672" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2672" s="28" t="s">
+        <v>3295</v>
+      </c>
+      <c r="B2672" s="28" t="s">
+        <v>3205</v>
+      </c>
+      <c r="C2672" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2672" s="28" t="s">
+        <v>3213</v>
+      </c>
+      <c r="E2672" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2673" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2673" s="28" t="s">
+        <v>3296</v>
+      </c>
+      <c r="B2673" s="28" t="s">
+        <v>3205</v>
+      </c>
+      <c r="C2673" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2673" s="28" t="s">
+        <v>3171</v>
+      </c>
+      <c r="E2673" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2674" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2674" s="28" t="s">
+        <v>3297</v>
+      </c>
+      <c r="B2674" s="28" t="s">
+        <v>3205</v>
+      </c>
+      <c r="C2674" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2674" s="28" t="s">
+        <v>3172</v>
+      </c>
+      <c r="E2674" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2675" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2675" s="28" t="s">
+        <v>3298</v>
+      </c>
+      <c r="B2675" s="28" t="s">
+        <v>3205</v>
+      </c>
+      <c r="C2675" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2675" s="28" t="s">
+        <v>3173</v>
+      </c>
+      <c r="E2675" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2676" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2676" s="28" t="s">
+        <v>3299</v>
+      </c>
+      <c r="B2676" s="28" t="s">
+        <v>3205</v>
+      </c>
+      <c r="C2676" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2676" s="28" t="s">
+        <v>3174</v>
+      </c>
+      <c r="E2676" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2677" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2677" s="28" t="s">
+        <v>3300</v>
+      </c>
+      <c r="B2677" s="28" t="s">
+        <v>3205</v>
+      </c>
+      <c r="C2677" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2677" s="28" t="s">
+        <v>3175</v>
+      </c>
+      <c r="E2677" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2678" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2678" s="28" t="s">
+        <v>3301</v>
+      </c>
+      <c r="B2678" s="28" t="s">
+        <v>3205</v>
+      </c>
+      <c r="C2678" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2678" s="28" t="s">
+        <v>3176</v>
+      </c>
+      <c r="E2678" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2679" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2679" s="27" t="s">
+        <v>3302</v>
+      </c>
+      <c r="B2679" s="27" t="s">
+        <v>3206</v>
+      </c>
+      <c r="C2679" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2679" s="27" t="s">
+        <v>3169</v>
+      </c>
+      <c r="E2679" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2680" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2680" s="27" t="s">
+        <v>3303</v>
+      </c>
+      <c r="B2680" s="27" t="s">
+        <v>3206</v>
+      </c>
+      <c r="C2680" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2680" s="27" t="s">
+        <v>3213</v>
+      </c>
+      <c r="E2680" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2681" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2681" s="27" t="s">
+        <v>3304</v>
+      </c>
+      <c r="B2681" s="27" t="s">
+        <v>3206</v>
+      </c>
+      <c r="C2681" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2681" s="27" t="s">
+        <v>3171</v>
+      </c>
+      <c r="E2681" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2682" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2682" s="27" t="s">
+        <v>3305</v>
+      </c>
+      <c r="B2682" s="27" t="s">
+        <v>3206</v>
+      </c>
+      <c r="C2682" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2682" s="27" t="s">
+        <v>3172</v>
+      </c>
+      <c r="E2682" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2683" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2683" s="27" t="s">
+        <v>3306</v>
+      </c>
+      <c r="B2683" s="27" t="s">
+        <v>3206</v>
+      </c>
+      <c r="C2683" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2683" s="27" t="s">
+        <v>3173</v>
+      </c>
+      <c r="E2683" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2684" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2684" s="27" t="s">
+        <v>3307</v>
+      </c>
+      <c r="B2684" s="27" t="s">
+        <v>3206</v>
+      </c>
+      <c r="C2684" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2684" s="27" t="s">
+        <v>3174</v>
+      </c>
+      <c r="E2684" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2685" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2685" s="27" t="s">
+        <v>3308</v>
+      </c>
+      <c r="B2685" s="27" t="s">
+        <v>3206</v>
+      </c>
+      <c r="C2685" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2685" s="27" t="s">
+        <v>3175</v>
+      </c>
+      <c r="E2685" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2686" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2686" s="27" t="s">
+        <v>3309</v>
+      </c>
+      <c r="B2686" s="27" t="s">
+        <v>3206</v>
+      </c>
+      <c r="C2686" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2686" s="27" t="s">
+        <v>3176</v>
+      </c>
+      <c r="E2686" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2687" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2687" s="28" t="s">
+        <v>3310</v>
+      </c>
+      <c r="B2687" s="28" t="s">
+        <v>3207</v>
+      </c>
+      <c r="C2687" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2687" s="28" t="s">
+        <v>3169</v>
+      </c>
+      <c r="E2687" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2688" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2688" s="28" t="s">
+        <v>3311</v>
+      </c>
+      <c r="B2688" s="28" t="s">
+        <v>3207</v>
+      </c>
+      <c r="C2688" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2688" s="28" t="s">
+        <v>3213</v>
+      </c>
+      <c r="E2688" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2689" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2689" s="28" t="s">
+        <v>3312</v>
+      </c>
+      <c r="B2689" s="28" t="s">
+        <v>3207</v>
+      </c>
+      <c r="C2689" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2689" s="28" t="s">
+        <v>3171</v>
+      </c>
+      <c r="E2689" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2690" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2690" s="28" t="s">
+        <v>3313</v>
+      </c>
+      <c r="B2690" s="28" t="s">
+        <v>3207</v>
+      </c>
+      <c r="C2690" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2690" s="28" t="s">
+        <v>3172</v>
+      </c>
+      <c r="E2690" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2691" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2691" s="28" t="s">
+        <v>3314</v>
+      </c>
+      <c r="B2691" s="28" t="s">
+        <v>3207</v>
+      </c>
+      <c r="C2691" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2691" s="28" t="s">
+        <v>3173</v>
+      </c>
+      <c r="E2691" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2692" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2692" s="28" t="s">
+        <v>3315</v>
+      </c>
+      <c r="B2692" s="28" t="s">
+        <v>3207</v>
+      </c>
+      <c r="C2692" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2692" s="28" t="s">
+        <v>3174</v>
+      </c>
+      <c r="E2692" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2693" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2693" s="28" t="s">
+        <v>3316</v>
+      </c>
+      <c r="B2693" s="28" t="s">
+        <v>3207</v>
+      </c>
+      <c r="C2693" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2693" s="28" t="s">
+        <v>3175</v>
+      </c>
+      <c r="E2693" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2694" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2694" s="28" t="s">
+        <v>3317</v>
+      </c>
+      <c r="B2694" s="28" t="s">
+        <v>3207</v>
+      </c>
+      <c r="C2694" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2694" s="28" t="s">
+        <v>3176</v>
+      </c>
+      <c r="E2694" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2695" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2695" s="84" t="s">
+        <v>3350</v>
+      </c>
+      <c r="B2695" s="57" t="s">
+        <v>3208</v>
+      </c>
+      <c r="C2695" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2695" s="57" t="s">
+        <v>3214</v>
+      </c>
+      <c r="E2695" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2696" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2696" s="84" t="s">
+        <v>3351</v>
+      </c>
+      <c r="B2696" s="57" t="s">
+        <v>3208</v>
+      </c>
+      <c r="C2696" s="57" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2696" s="57" t="s">
+        <v>3215</v>
+      </c>
+      <c r="E2696" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2697" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2697" s="84" t="s">
+        <v>3352</v>
+      </c>
+      <c r="B2697" s="57" t="s">
+        <v>3208</v>
+      </c>
+      <c r="C2697" s="57" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2697" s="57" t="s">
+        <v>3216</v>
+      </c>
+      <c r="E2697" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2698" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2698" s="84" t="s">
+        <v>3353</v>
+      </c>
+      <c r="B2698" s="57" t="s">
+        <v>3208</v>
+      </c>
+      <c r="C2698" s="57" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2698" s="57" t="s">
+        <v>3217</v>
+      </c>
+      <c r="E2698" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2699" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2699" s="84" t="s">
+        <v>3354</v>
+      </c>
+      <c r="B2699" s="57" t="s">
+        <v>3208</v>
+      </c>
+      <c r="C2699" s="57" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2699" s="57" t="s">
+        <v>3218</v>
+      </c>
+      <c r="E2699" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2700" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2700" s="84" t="s">
+        <v>3355</v>
+      </c>
+      <c r="B2700" s="57" t="s">
+        <v>3208</v>
+      </c>
+      <c r="C2700" s="57" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2700" s="57" t="s">
+        <v>3219</v>
+      </c>
+      <c r="E2700" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2701" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2701" s="84" t="s">
+        <v>3356</v>
+      </c>
+      <c r="B2701" s="57" t="s">
+        <v>3208</v>
+      </c>
+      <c r="C2701" s="57" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2701" s="57" t="s">
+        <v>3220</v>
+      </c>
+      <c r="E2701" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2702" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2702" s="84" t="s">
+        <v>3357</v>
+      </c>
+      <c r="B2702" s="57" t="s">
+        <v>3208</v>
+      </c>
+      <c r="C2702" s="57" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2702" s="57" t="s">
+        <v>3221</v>
+      </c>
+      <c r="E2702" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2703" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2703" s="27" t="s">
+        <v>3318</v>
+      </c>
+      <c r="B2703" s="27" t="s">
+        <v>3209</v>
+      </c>
+      <c r="C2703" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2703" s="27" t="s">
+        <v>3169</v>
+      </c>
+      <c r="E2703" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2704" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2704" s="27" t="s">
+        <v>3319</v>
+      </c>
+      <c r="B2704" s="27" t="s">
+        <v>3209</v>
+      </c>
+      <c r="C2704" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2704" s="27" t="s">
+        <v>3213</v>
+      </c>
+      <c r="E2704" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2705" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2705" s="27" t="s">
+        <v>3320</v>
+      </c>
+      <c r="B2705" s="27" t="s">
+        <v>3209</v>
+      </c>
+      <c r="C2705" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2705" s="27" t="s">
+        <v>3171</v>
+      </c>
+      <c r="E2705" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2706" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2706" s="27" t="s">
+        <v>3321</v>
+      </c>
+      <c r="B2706" s="27" t="s">
+        <v>3209</v>
+      </c>
+      <c r="C2706" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2706" s="27" t="s">
+        <v>3172</v>
+      </c>
+      <c r="E2706" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2707" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2707" s="27" t="s">
+        <v>3322</v>
+      </c>
+      <c r="B2707" s="27" t="s">
+        <v>3209</v>
+      </c>
+      <c r="C2707" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2707" s="27" t="s">
+        <v>3173</v>
+      </c>
+      <c r="E2707" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2708" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2708" s="27" t="s">
+        <v>3323</v>
+      </c>
+      <c r="B2708" s="27" t="s">
+        <v>3209</v>
+      </c>
+      <c r="C2708" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2708" s="27" t="s">
+        <v>3174</v>
+      </c>
+      <c r="E2708" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2709" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2709" s="27" t="s">
+        <v>3324</v>
+      </c>
+      <c r="B2709" s="27" t="s">
+        <v>3209</v>
+      </c>
+      <c r="C2709" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2709" s="27" t="s">
+        <v>3175</v>
+      </c>
+      <c r="E2709" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2710" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2710" s="27" t="s">
+        <v>3325</v>
+      </c>
+      <c r="B2710" s="27" t="s">
+        <v>3209</v>
+      </c>
+      <c r="C2710" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2710" s="27" t="s">
+        <v>3176</v>
+      </c>
+      <c r="E2710" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2711" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2711" s="28" t="s">
+        <v>3326</v>
+      </c>
+      <c r="B2711" s="28" t="s">
+        <v>3210</v>
+      </c>
+      <c r="C2711" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2711" s="28" t="s">
+        <v>3169</v>
+      </c>
+      <c r="E2711" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2712" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2712" s="28" t="s">
+        <v>3327</v>
+      </c>
+      <c r="B2712" s="28" t="s">
+        <v>3210</v>
+      </c>
+      <c r="C2712" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2712" s="28" t="s">
+        <v>3213</v>
+      </c>
+      <c r="E2712" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2713" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2713" s="28" t="s">
+        <v>3328</v>
+      </c>
+      <c r="B2713" s="28" t="s">
+        <v>3210</v>
+      </c>
+      <c r="C2713" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2713" s="28" t="s">
+        <v>3171</v>
+      </c>
+      <c r="E2713" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2714" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2714" s="28" t="s">
+        <v>3329</v>
+      </c>
+      <c r="B2714" s="28" t="s">
+        <v>3210</v>
+      </c>
+      <c r="C2714" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2714" s="28" t="s">
+        <v>3172</v>
+      </c>
+      <c r="E2714" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2715" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2715" s="28" t="s">
+        <v>3330</v>
+      </c>
+      <c r="B2715" s="28" t="s">
+        <v>3210</v>
+      </c>
+      <c r="C2715" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2715" s="28" t="s">
+        <v>3173</v>
+      </c>
+      <c r="E2715" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2716" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2716" s="28" t="s">
+        <v>3331</v>
+      </c>
+      <c r="B2716" s="28" t="s">
+        <v>3210</v>
+      </c>
+      <c r="C2716" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2716" s="28" t="s">
+        <v>3174</v>
+      </c>
+      <c r="E2716" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2717" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2717" s="28" t="s">
+        <v>3332</v>
+      </c>
+      <c r="B2717" s="28" t="s">
+        <v>3210</v>
+      </c>
+      <c r="C2717" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2717" s="28" t="s">
+        <v>3175</v>
+      </c>
+      <c r="E2717" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2718" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2718" s="28" t="s">
+        <v>3333</v>
+      </c>
+      <c r="B2718" s="28" t="s">
+        <v>3210</v>
+      </c>
+      <c r="C2718" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2718" s="28" t="s">
+        <v>3176</v>
+      </c>
+      <c r="E2718" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2719" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2719" s="27" t="s">
+        <v>3334</v>
+      </c>
+      <c r="B2719" s="27" t="s">
+        <v>3211</v>
+      </c>
+      <c r="C2719" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2719" s="27" t="s">
+        <v>3169</v>
+      </c>
+      <c r="E2719" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2720" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2720" s="27" t="s">
+        <v>3335</v>
+      </c>
+      <c r="B2720" s="27" t="s">
+        <v>3211</v>
+      </c>
+      <c r="C2720" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2720" s="27" t="s">
+        <v>3213</v>
+      </c>
+      <c r="E2720" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2721" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2721" s="27" t="s">
+        <v>3336</v>
+      </c>
+      <c r="B2721" s="27" t="s">
+        <v>3211</v>
+      </c>
+      <c r="C2721" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2721" s="27" t="s">
+        <v>3171</v>
+      </c>
+      <c r="E2721" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2722" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2722" s="27" t="s">
+        <v>3337</v>
+      </c>
+      <c r="B2722" s="27" t="s">
+        <v>3211</v>
+      </c>
+      <c r="C2722" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2722" s="27" t="s">
+        <v>3172</v>
+      </c>
+      <c r="E2722" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2723" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2723" s="27" t="s">
+        <v>3338</v>
+      </c>
+      <c r="B2723" s="27" t="s">
+        <v>3211</v>
+      </c>
+      <c r="C2723" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2723" s="27" t="s">
+        <v>3173</v>
+      </c>
+      <c r="E2723" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2724" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2724" s="27" t="s">
+        <v>3339</v>
+      </c>
+      <c r="B2724" s="27" t="s">
+        <v>3211</v>
+      </c>
+      <c r="C2724" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2724" s="27" t="s">
+        <v>3174</v>
+      </c>
+      <c r="E2724" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2725" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2725" s="27" t="s">
+        <v>3340</v>
+      </c>
+      <c r="B2725" s="27" t="s">
+        <v>3211</v>
+      </c>
+      <c r="C2725" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2725" s="27" t="s">
+        <v>3175</v>
+      </c>
+      <c r="E2725" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2726" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2726" s="27" t="s">
+        <v>3341</v>
+      </c>
+      <c r="B2726" s="27" t="s">
+        <v>3211</v>
+      </c>
+      <c r="C2726" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2726" s="27" t="s">
+        <v>3176</v>
+      </c>
+      <c r="E2726" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2727" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2727" s="28" t="s">
+        <v>3342</v>
+      </c>
+      <c r="B2727" s="28" t="s">
+        <v>3212</v>
+      </c>
+      <c r="C2727" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2727" s="28" t="s">
+        <v>3169</v>
+      </c>
+      <c r="E2727" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2728" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2728" s="28" t="s">
+        <v>3343</v>
+      </c>
+      <c r="B2728" s="28" t="s">
+        <v>3212</v>
+      </c>
+      <c r="C2728" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2728" s="28" t="s">
+        <v>3213</v>
+      </c>
+      <c r="E2728" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2729" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2729" s="28" t="s">
+        <v>3344</v>
+      </c>
+      <c r="B2729" s="28" t="s">
+        <v>3212</v>
+      </c>
+      <c r="C2729" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2729" s="28" t="s">
+        <v>3171</v>
+      </c>
+      <c r="E2729" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2730" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2730" s="28" t="s">
+        <v>3345</v>
+      </c>
+      <c r="B2730" s="28" t="s">
+        <v>3212</v>
+      </c>
+      <c r="C2730" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2730" s="28" t="s">
+        <v>3172</v>
+      </c>
+      <c r="E2730" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2731" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2731" s="28" t="s">
+        <v>3346</v>
+      </c>
+      <c r="B2731" s="28" t="s">
+        <v>3212</v>
+      </c>
+      <c r="C2731" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2731" s="28" t="s">
+        <v>3173</v>
+      </c>
+      <c r="E2731" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2732" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2732" s="28" t="s">
+        <v>3347</v>
+      </c>
+      <c r="B2732" s="28" t="s">
+        <v>3212</v>
+      </c>
+      <c r="C2732" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2732" s="28" t="s">
+        <v>3174</v>
+      </c>
+      <c r="E2732" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2733" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2733" s="28" t="s">
+        <v>3348</v>
+      </c>
+      <c r="B2733" s="28" t="s">
+        <v>3212</v>
+      </c>
+      <c r="C2733" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2733" s="28" t="s">
+        <v>3175</v>
+      </c>
+      <c r="E2733" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2734" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2734" s="28" t="s">
+        <v>3349</v>
+      </c>
+      <c r="B2734" s="28" t="s">
+        <v>3212</v>
+      </c>
+      <c r="C2734" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2734" s="28" t="s">
+        <v>3176</v>
+      </c>
+      <c r="E2734" s="11">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$2742</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$2829</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9840" uniqueCount="3358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10008" uniqueCount="3407">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -10105,6 +10105,153 @@
   </si>
   <si>
     <t>DSS621</t>
+  </si>
+  <si>
+    <t>Mohamed Essam Fawzi Eldrini</t>
+  </si>
+  <si>
+    <t>Ahmed Rashad Mustafa Awad</t>
+  </si>
+  <si>
+    <t>DSS3751</t>
+  </si>
+  <si>
+    <t>DSS3752</t>
+  </si>
+  <si>
+    <t>DSS3753</t>
+  </si>
+  <si>
+    <t>DSS3754</t>
+  </si>
+  <si>
+    <t>DSS3755</t>
+  </si>
+  <si>
+    <t>DSS3756</t>
+  </si>
+  <si>
+    <t>DSS3757</t>
+  </si>
+  <si>
+    <t>DSS3758</t>
+  </si>
+  <si>
+    <t>DSS3759</t>
+  </si>
+  <si>
+    <t>17-Jul-2025</t>
+  </si>
+  <si>
+    <t>ALAA MOHAMED AHMED ELERAKI</t>
+  </si>
+  <si>
+    <t>DSS3760</t>
+  </si>
+  <si>
+    <t>DSS3761</t>
+  </si>
+  <si>
+    <t>DSS3762</t>
+  </si>
+  <si>
+    <t>DSS3763</t>
+  </si>
+  <si>
+    <t>DSS3764</t>
+  </si>
+  <si>
+    <t>DSS3765</t>
+  </si>
+  <si>
+    <t>DSS3766</t>
+  </si>
+  <si>
+    <t>DSS3767</t>
+  </si>
+  <si>
+    <t>Salem Mohamed Abdalazim Osman</t>
+  </si>
+  <si>
+    <t>Abdelrhman Eid Abbas</t>
+  </si>
+  <si>
+    <t>DSS3768</t>
+  </si>
+  <si>
+    <t>DSS3769</t>
+  </si>
+  <si>
+    <t>DSS3770</t>
+  </si>
+  <si>
+    <t>DSS3771</t>
+  </si>
+  <si>
+    <t>DSS3772</t>
+  </si>
+  <si>
+    <t>DSS3773</t>
+  </si>
+  <si>
+    <t>DSS3774</t>
+  </si>
+  <si>
+    <t>DSS3775</t>
+  </si>
+  <si>
+    <t>DSS3776</t>
+  </si>
+  <si>
+    <t>DSS3777</t>
+  </si>
+  <si>
+    <t>DSS3778</t>
+  </si>
+  <si>
+    <t>DSS3779</t>
+  </si>
+  <si>
+    <t>DSS3780</t>
+  </si>
+  <si>
+    <t>DSS3781</t>
+  </si>
+  <si>
+    <t>DSS3782</t>
+  </si>
+  <si>
+    <t>DSS3783</t>
+  </si>
+  <si>
+    <t>DSS3784</t>
+  </si>
+  <si>
+    <t>DSS3785</t>
+  </si>
+  <si>
+    <t>DSS3786</t>
+  </si>
+  <si>
+    <t>DSS3787</t>
+  </si>
+  <si>
+    <t>DSS3788</t>
+  </si>
+  <si>
+    <t>DSS3789</t>
+  </si>
+  <si>
+    <t>DSS3790</t>
+  </si>
+  <si>
+    <t>DSS3791</t>
+  </si>
+  <si>
+    <t>15-Jul-2025</t>
+  </si>
+  <si>
+    <t>DSS3792</t>
   </si>
 </sst>
 </file>
@@ -10177,7 +10324,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10235,6 +10382,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10319,7 +10472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -10586,6 +10739,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10860,7 +11016,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10868,10 +11024,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2734"/>
+  <dimension ref="A1:E2776"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2698" zoomScale="148" zoomScaleNormal="100" zoomScaleSheetLayoutView="148" workbookViewId="0">
-      <selection activeCell="B2736" sqref="B2736"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2765" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
+      <selection activeCell="D2779" sqref="D2779"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10881,7 +11037,8 @@
     <col min="3" max="3" width="43.42578125" style="29" customWidth="1"/>
     <col min="4" max="4" width="22.28515625" style="29" customWidth="1"/>
     <col min="5" max="5" width="8.85546875" style="11" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="8"/>
+    <col min="6" max="6" width="9" style="8" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -48014,7 +48171,7 @@
       <c r="D2206" s="28" t="s">
         <v>2583</v>
       </c>
-      <c r="E2206" s="11">
+      <c r="E2206" s="90">
         <v>1</v>
       </c>
     </row>
@@ -48031,7 +48188,7 @@
       <c r="D2207" s="28" t="s">
         <v>2584</v>
       </c>
-      <c r="E2207" s="11">
+      <c r="E2207" s="90">
         <v>1</v>
       </c>
     </row>
@@ -48048,7 +48205,7 @@
       <c r="D2208" s="28" t="s">
         <v>2585</v>
       </c>
-      <c r="E2208" s="11">
+      <c r="E2208" s="90">
         <v>1</v>
       </c>
     </row>
@@ -48065,7 +48222,7 @@
       <c r="D2209" s="28" t="s">
         <v>2586</v>
       </c>
-      <c r="E2209" s="11">
+      <c r="E2209" s="90">
         <v>1</v>
       </c>
     </row>
@@ -48082,7 +48239,7 @@
       <c r="D2210" s="28" t="s">
         <v>2587</v>
       </c>
-      <c r="E2210" s="11">
+      <c r="E2210" s="90">
         <v>1</v>
       </c>
     </row>
@@ -48099,7 +48256,7 @@
       <c r="D2211" s="28" t="s">
         <v>2588</v>
       </c>
-      <c r="E2211" s="11">
+      <c r="E2211" s="90">
         <v>1</v>
       </c>
     </row>
@@ -48116,7 +48273,7 @@
       <c r="D2212" s="28" t="s">
         <v>2589</v>
       </c>
-      <c r="E2212" s="11">
+      <c r="E2212" s="90">
         <v>1</v>
       </c>
     </row>
@@ -48133,7 +48290,7 @@
       <c r="D2213" s="28" t="s">
         <v>2590</v>
       </c>
-      <c r="E2213" s="11">
+      <c r="E2213" s="90">
         <v>1</v>
       </c>
     </row>
@@ -48150,7 +48307,7 @@
       <c r="D2214" s="27" t="s">
         <v>2583</v>
       </c>
-      <c r="E2214" s="11">
+      <c r="E2214" s="90">
         <v>1</v>
       </c>
     </row>
@@ -48167,7 +48324,7 @@
       <c r="D2215" s="27" t="s">
         <v>2584</v>
       </c>
-      <c r="E2215" s="11">
+      <c r="E2215" s="90">
         <v>1</v>
       </c>
     </row>
@@ -48184,7 +48341,7 @@
       <c r="D2216" s="27" t="s">
         <v>2585</v>
       </c>
-      <c r="E2216" s="11">
+      <c r="E2216" s="90">
         <v>1</v>
       </c>
     </row>
@@ -48201,7 +48358,7 @@
       <c r="D2217" s="27" t="s">
         <v>2586</v>
       </c>
-      <c r="E2217" s="11">
+      <c r="E2217" s="90">
         <v>1</v>
       </c>
     </row>
@@ -48218,7 +48375,7 @@
       <c r="D2218" s="27" t="s">
         <v>2587</v>
       </c>
-      <c r="E2218" s="11">
+      <c r="E2218" s="90">
         <v>1</v>
       </c>
     </row>
@@ -48235,7 +48392,7 @@
       <c r="D2219" s="27" t="s">
         <v>2588</v>
       </c>
-      <c r="E2219" s="11">
+      <c r="E2219" s="90">
         <v>1</v>
       </c>
     </row>
@@ -48252,7 +48409,7 @@
       <c r="D2220" s="27" t="s">
         <v>2589</v>
       </c>
-      <c r="E2220" s="11">
+      <c r="E2220" s="90">
         <v>1</v>
       </c>
     </row>
@@ -48269,7 +48426,7 @@
       <c r="D2221" s="27" t="s">
         <v>2590</v>
       </c>
-      <c r="E2221" s="11">
+      <c r="E2221" s="90">
         <v>1</v>
       </c>
     </row>
@@ -48303,7 +48460,7 @@
       <c r="D2223" s="27" t="s">
         <v>2583</v>
       </c>
-      <c r="E2223" s="11">
+      <c r="E2223" s="90">
         <v>1</v>
       </c>
     </row>
@@ -48320,7 +48477,7 @@
       <c r="D2224" s="27" t="s">
         <v>2584</v>
       </c>
-      <c r="E2224" s="11">
+      <c r="E2224" s="90">
         <v>1</v>
       </c>
     </row>
@@ -48337,7 +48494,7 @@
       <c r="D2225" s="27" t="s">
         <v>2585</v>
       </c>
-      <c r="E2225" s="11">
+      <c r="E2225" s="90">
         <v>1</v>
       </c>
     </row>
@@ -48354,7 +48511,7 @@
       <c r="D2226" s="27" t="s">
         <v>2586</v>
       </c>
-      <c r="E2226" s="11">
+      <c r="E2226" s="90">
         <v>1</v>
       </c>
     </row>
@@ -48371,7 +48528,7 @@
       <c r="D2227" s="27" t="s">
         <v>2587</v>
       </c>
-      <c r="E2227" s="11">
+      <c r="E2227" s="90">
         <v>1</v>
       </c>
     </row>
@@ -48388,7 +48545,7 @@
       <c r="D2228" s="27" t="s">
         <v>2588</v>
       </c>
-      <c r="E2228" s="11">
+      <c r="E2228" s="90">
         <v>1</v>
       </c>
     </row>
@@ -48405,7 +48562,7 @@
       <c r="D2229" s="27" t="s">
         <v>2589</v>
       </c>
-      <c r="E2229" s="11">
+      <c r="E2229" s="90">
         <v>1</v>
       </c>
     </row>
@@ -48422,7 +48579,7 @@
       <c r="D2230" s="27" t="s">
         <v>2590</v>
       </c>
-      <c r="E2230" s="11">
+      <c r="E2230" s="90">
         <v>1</v>
       </c>
     </row>
@@ -50224,7 +50381,7 @@
       <c r="D2336" s="28" t="s">
         <v>2919</v>
       </c>
-      <c r="E2336" s="36">
+      <c r="E2336" s="52">
         <v>1</v>
       </c>
     </row>
@@ -52893,7 +53050,7 @@
       <c r="D2493" s="28" t="s">
         <v>2912</v>
       </c>
-      <c r="E2493" s="11">
+      <c r="E2493" s="90">
         <v>1</v>
       </c>
     </row>
@@ -52910,7 +53067,7 @@
       <c r="D2494" s="28" t="s">
         <v>2913</v>
       </c>
-      <c r="E2494" s="11">
+      <c r="E2494" s="90">
         <v>1</v>
       </c>
     </row>
@@ -52927,7 +53084,7 @@
       <c r="D2495" s="28" t="s">
         <v>2914</v>
       </c>
-      <c r="E2495" s="11">
+      <c r="E2495" s="90">
         <v>1</v>
       </c>
     </row>
@@ -52944,7 +53101,7 @@
       <c r="D2496" s="28" t="s">
         <v>2915</v>
       </c>
-      <c r="E2496" s="11">
+      <c r="E2496" s="90">
         <v>1</v>
       </c>
     </row>
@@ -52961,7 +53118,7 @@
       <c r="D2497" s="28" t="s">
         <v>2916</v>
       </c>
-      <c r="E2497" s="11">
+      <c r="E2497" s="90">
         <v>1</v>
       </c>
     </row>
@@ -52978,7 +53135,7 @@
       <c r="D2498" s="28" t="s">
         <v>2917</v>
       </c>
-      <c r="E2498" s="11">
+      <c r="E2498" s="90">
         <v>1</v>
       </c>
     </row>
@@ -52995,7 +53152,7 @@
       <c r="D2499" s="28" t="s">
         <v>2918</v>
       </c>
-      <c r="E2499" s="11">
+      <c r="E2499" s="90">
         <v>1</v>
       </c>
     </row>
@@ -53012,7 +53169,7 @@
       <c r="D2500" s="28" t="s">
         <v>2919</v>
       </c>
-      <c r="E2500" s="11">
+      <c r="E2500" s="90">
         <v>1</v>
       </c>
     </row>
@@ -56991,6 +57148,720 @@
         <v>3176</v>
       </c>
       <c r="E2734" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2735" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2735" s="27" t="s">
+        <v>3360</v>
+      </c>
+      <c r="B2735" s="27" t="s">
+        <v>3358</v>
+      </c>
+      <c r="C2735" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2735" s="27" t="s">
+        <v>2912</v>
+      </c>
+      <c r="E2735" s="90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2736" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2736" s="27" t="s">
+        <v>3361</v>
+      </c>
+      <c r="B2736" s="27" t="s">
+        <v>3358</v>
+      </c>
+      <c r="C2736" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2736" s="27" t="s">
+        <v>2913</v>
+      </c>
+      <c r="E2736" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2737" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2737" s="27" t="s">
+        <v>3362</v>
+      </c>
+      <c r="B2737" s="27" t="s">
+        <v>3358</v>
+      </c>
+      <c r="C2737" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2737" s="27" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E2737" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2738" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2738" s="27" t="s">
+        <v>3363</v>
+      </c>
+      <c r="B2738" s="27" t="s">
+        <v>3358</v>
+      </c>
+      <c r="C2738" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2738" s="27" t="s">
+        <v>2915</v>
+      </c>
+      <c r="E2738" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2739" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2739" s="27" t="s">
+        <v>3364</v>
+      </c>
+      <c r="B2739" s="27" t="s">
+        <v>3358</v>
+      </c>
+      <c r="C2739" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2739" s="27" t="s">
+        <v>2916</v>
+      </c>
+      <c r="E2739" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2740" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2740" s="27" t="s">
+        <v>3365</v>
+      </c>
+      <c r="B2740" s="27" t="s">
+        <v>3358</v>
+      </c>
+      <c r="C2740" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2740" s="27" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E2740" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2741" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2741" s="27" t="s">
+        <v>3366</v>
+      </c>
+      <c r="B2741" s="27" t="s">
+        <v>3358</v>
+      </c>
+      <c r="C2741" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2741" s="27" t="s">
+        <v>2918</v>
+      </c>
+      <c r="E2741" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2742" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2742" s="27" t="s">
+        <v>3367</v>
+      </c>
+      <c r="B2742" s="27" t="s">
+        <v>3358</v>
+      </c>
+      <c r="C2742" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2742" s="27" t="s">
+        <v>2919</v>
+      </c>
+      <c r="E2742" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2743" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2743" s="28" t="s">
+        <v>3368</v>
+      </c>
+      <c r="B2743" s="28" t="s">
+        <v>3359</v>
+      </c>
+      <c r="C2743" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2743" s="28" t="s">
+        <v>3369</v>
+      </c>
+      <c r="E2743" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2744" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2744" s="27" t="s">
+        <v>3371</v>
+      </c>
+      <c r="B2744" s="27" t="s">
+        <v>3370</v>
+      </c>
+      <c r="C2744" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2744" s="27" t="s">
+        <v>2912</v>
+      </c>
+      <c r="E2744" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2745" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2745" s="27" t="s">
+        <v>3372</v>
+      </c>
+      <c r="B2745" s="27" t="s">
+        <v>3370</v>
+      </c>
+      <c r="C2745" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2745" s="27" t="s">
+        <v>2913</v>
+      </c>
+      <c r="E2745" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2746" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2746" s="27" t="s">
+        <v>3373</v>
+      </c>
+      <c r="B2746" s="27" t="s">
+        <v>3370</v>
+      </c>
+      <c r="C2746" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2746" s="27" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E2746" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2747" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2747" s="27" t="s">
+        <v>3374</v>
+      </c>
+      <c r="B2747" s="27" t="s">
+        <v>3370</v>
+      </c>
+      <c r="C2747" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2747" s="27" t="s">
+        <v>2915</v>
+      </c>
+      <c r="E2747" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2748" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2748" s="27" t="s">
+        <v>3375</v>
+      </c>
+      <c r="B2748" s="27" t="s">
+        <v>3370</v>
+      </c>
+      <c r="C2748" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2748" s="27" t="s">
+        <v>2916</v>
+      </c>
+      <c r="E2748" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2749" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2749" s="27" t="s">
+        <v>3376</v>
+      </c>
+      <c r="B2749" s="27" t="s">
+        <v>3370</v>
+      </c>
+      <c r="C2749" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2749" s="27" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E2749" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2750" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2750" s="27" t="s">
+        <v>3377</v>
+      </c>
+      <c r="B2750" s="27" t="s">
+        <v>3370</v>
+      </c>
+      <c r="C2750" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2750" s="27" t="s">
+        <v>2918</v>
+      </c>
+      <c r="E2750" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2751" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2751" s="27" t="s">
+        <v>3378</v>
+      </c>
+      <c r="B2751" s="27" t="s">
+        <v>3370</v>
+      </c>
+      <c r="C2751" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2751" s="27" t="s">
+        <v>2919</v>
+      </c>
+      <c r="E2751" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2752" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2752" s="28" t="s">
+        <v>3381</v>
+      </c>
+      <c r="B2752" s="28" t="s">
+        <v>533</v>
+      </c>
+      <c r="C2752" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2752" s="28" t="s">
+        <v>2912</v>
+      </c>
+      <c r="E2752" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2753" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2753" s="28" t="s">
+        <v>3382</v>
+      </c>
+      <c r="B2753" s="28" t="s">
+        <v>533</v>
+      </c>
+      <c r="C2753" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2753" s="28" t="s">
+        <v>2913</v>
+      </c>
+      <c r="E2753" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2754" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2754" s="28" t="s">
+        <v>3383</v>
+      </c>
+      <c r="B2754" s="28" t="s">
+        <v>533</v>
+      </c>
+      <c r="C2754" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2754" s="28" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E2754" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2755" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2755" s="28" t="s">
+        <v>3384</v>
+      </c>
+      <c r="B2755" s="28" t="s">
+        <v>533</v>
+      </c>
+      <c r="C2755" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2755" s="28" t="s">
+        <v>2915</v>
+      </c>
+      <c r="E2755" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2756" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2756" s="28" t="s">
+        <v>3385</v>
+      </c>
+      <c r="B2756" s="28" t="s">
+        <v>533</v>
+      </c>
+      <c r="C2756" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2756" s="28" t="s">
+        <v>2916</v>
+      </c>
+      <c r="E2756" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2757" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2757" s="28" t="s">
+        <v>3386</v>
+      </c>
+      <c r="B2757" s="28" t="s">
+        <v>533</v>
+      </c>
+      <c r="C2757" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2757" s="28" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E2757" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2758" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2758" s="28" t="s">
+        <v>3387</v>
+      </c>
+      <c r="B2758" s="28" t="s">
+        <v>533</v>
+      </c>
+      <c r="C2758" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2758" s="28" t="s">
+        <v>2918</v>
+      </c>
+      <c r="E2758" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2759" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2759" s="28" t="s">
+        <v>3388</v>
+      </c>
+      <c r="B2759" s="28" t="s">
+        <v>533</v>
+      </c>
+      <c r="C2759" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2759" s="28" t="s">
+        <v>2919</v>
+      </c>
+      <c r="E2759" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2760" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2760" s="27" t="s">
+        <v>3389</v>
+      </c>
+      <c r="B2760" s="27" t="s">
+        <v>3379</v>
+      </c>
+      <c r="C2760" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2760" s="27" t="s">
+        <v>2912</v>
+      </c>
+      <c r="E2760" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2761" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2761" s="27" t="s">
+        <v>3390</v>
+      </c>
+      <c r="B2761" s="27" t="s">
+        <v>3379</v>
+      </c>
+      <c r="C2761" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2761" s="27" t="s">
+        <v>2913</v>
+      </c>
+      <c r="E2761" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2762" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2762" s="27" t="s">
+        <v>3391</v>
+      </c>
+      <c r="B2762" s="27" t="s">
+        <v>3379</v>
+      </c>
+      <c r="C2762" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2762" s="27" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E2762" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2763" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2763" s="27" t="s">
+        <v>3392</v>
+      </c>
+      <c r="B2763" s="27" t="s">
+        <v>3379</v>
+      </c>
+      <c r="C2763" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2763" s="27" t="s">
+        <v>2915</v>
+      </c>
+      <c r="E2763" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2764" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2764" s="27" t="s">
+        <v>3393</v>
+      </c>
+      <c r="B2764" s="27" t="s">
+        <v>3379</v>
+      </c>
+      <c r="C2764" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2764" s="27" t="s">
+        <v>2916</v>
+      </c>
+      <c r="E2764" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2765" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2765" s="27" t="s">
+        <v>3394</v>
+      </c>
+      <c r="B2765" s="27" t="s">
+        <v>3379</v>
+      </c>
+      <c r="C2765" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2765" s="27" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E2765" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2766" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2766" s="27" t="s">
+        <v>3395</v>
+      </c>
+      <c r="B2766" s="27" t="s">
+        <v>3379</v>
+      </c>
+      <c r="C2766" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2766" s="27" t="s">
+        <v>2918</v>
+      </c>
+      <c r="E2766" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2767" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2767" s="27" t="s">
+        <v>3396</v>
+      </c>
+      <c r="B2767" s="27" t="s">
+        <v>3379</v>
+      </c>
+      <c r="C2767" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2767" s="27" t="s">
+        <v>2919</v>
+      </c>
+      <c r="E2767" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2768" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2768" s="28" t="s">
+        <v>3397</v>
+      </c>
+      <c r="B2768" s="28" t="s">
+        <v>3380</v>
+      </c>
+      <c r="C2768" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2768" s="28" t="s">
+        <v>2912</v>
+      </c>
+      <c r="E2768" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2769" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2769" s="28" t="s">
+        <v>3398</v>
+      </c>
+      <c r="B2769" s="28" t="s">
+        <v>3380</v>
+      </c>
+      <c r="C2769" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2769" s="28" t="s">
+        <v>2913</v>
+      </c>
+      <c r="E2769" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2770" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2770" s="28" t="s">
+        <v>3399</v>
+      </c>
+      <c r="B2770" s="28" t="s">
+        <v>3380</v>
+      </c>
+      <c r="C2770" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2770" s="28" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E2770" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2771" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2771" s="28" t="s">
+        <v>3400</v>
+      </c>
+      <c r="B2771" s="28" t="s">
+        <v>3380</v>
+      </c>
+      <c r="C2771" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2771" s="28" t="s">
+        <v>2915</v>
+      </c>
+      <c r="E2771" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2772" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2772" s="28" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B2772" s="28" t="s">
+        <v>3380</v>
+      </c>
+      <c r="C2772" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2772" s="28" t="s">
+        <v>2916</v>
+      </c>
+      <c r="E2772" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2773" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2773" s="28" t="s">
+        <v>3402</v>
+      </c>
+      <c r="B2773" s="28" t="s">
+        <v>3380</v>
+      </c>
+      <c r="C2773" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2773" s="28" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E2773" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2774" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2774" s="28" t="s">
+        <v>3403</v>
+      </c>
+      <c r="B2774" s="28" t="s">
+        <v>3380</v>
+      </c>
+      <c r="C2774" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2774" s="28" t="s">
+        <v>2918</v>
+      </c>
+      <c r="E2774" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2775" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2775" s="28" t="s">
+        <v>3404</v>
+      </c>
+      <c r="B2775" s="28" t="s">
+        <v>3380</v>
+      </c>
+      <c r="C2775" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2775" s="28" t="s">
+        <v>2919</v>
+      </c>
+      <c r="E2775" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2776" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2776" s="87" t="s">
+        <v>3406</v>
+      </c>
+      <c r="B2776" s="87" t="s">
+        <v>2930</v>
+      </c>
+      <c r="C2776" s="87" t="s">
+        <v>462</v>
+      </c>
+      <c r="D2776" s="87" t="s">
+        <v>3405</v>
+      </c>
+      <c r="E2776" s="88">
         <v>1</v>
       </c>
     </row>
@@ -57003,7 +57874,7 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="40" orientation="portrait" r:id="rId1"/>
-  <rowBreaks count="19" manualBreakCount="19">
+  <rowBreaks count="20" manualBreakCount="20">
     <brk id="70" max="16383" man="1"/>
     <brk id="409" max="4" man="1"/>
     <brk id="493" max="4" man="1"/>
@@ -57021,8 +57892,9 @@
     <brk id="1982" max="4" man="1"/>
     <brk id="2090" max="4" man="1"/>
     <brk id="2196" max="4" man="1"/>
+    <brk id="2304" max="4" man="1"/>
     <brk id="2408" max="4" man="1"/>
-    <brk id="2508" max="4" man="1"/>
+    <brk id="2500" max="4" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10008" uniqueCount="3407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10040" uniqueCount="3424">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -10252,6 +10252,57 @@
   </si>
   <si>
     <t>DSS3792</t>
+  </si>
+  <si>
+    <t>Zakaria Said Ahmed Abdelall</t>
+  </si>
+  <si>
+    <t>05-July-2024</t>
+  </si>
+  <si>
+    <t>10-July-2024</t>
+  </si>
+  <si>
+    <t>06-July-2024</t>
+  </si>
+  <si>
+    <t>03-July-2024</t>
+  </si>
+  <si>
+    <t>01-July-2024</t>
+  </si>
+  <si>
+    <t>02-July-2024</t>
+  </si>
+  <si>
+    <t>07-July-2024</t>
+  </si>
+  <si>
+    <t>08-July-2024</t>
+  </si>
+  <si>
+    <t>DSS3793</t>
+  </si>
+  <si>
+    <t>DSS3794</t>
+  </si>
+  <si>
+    <t>DSS3795</t>
+  </si>
+  <si>
+    <t>DSS3796</t>
+  </si>
+  <si>
+    <t>DSS3797</t>
+  </si>
+  <si>
+    <t>DSS3798</t>
+  </si>
+  <si>
+    <t>DSS3799</t>
+  </si>
+  <si>
+    <t>DSS3800</t>
   </si>
 </sst>
 </file>
@@ -11016,7 +11067,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -11024,10 +11075,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2776"/>
+  <dimension ref="A1:E2784"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2765" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
-      <selection activeCell="D2779" sqref="D2779"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2768" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
+      <selection activeCell="C2778" sqref="C2778"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57862,6 +57913,142 @@
         <v>3405</v>
       </c>
       <c r="E2776" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2777" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2777" s="28" t="s">
+        <v>3416</v>
+      </c>
+      <c r="B2777" s="28" t="s">
+        <v>3407</v>
+      </c>
+      <c r="C2777" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2777" s="28" t="s">
+        <v>3408</v>
+      </c>
+      <c r="E2777" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2778" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2778" s="28" t="s">
+        <v>3417</v>
+      </c>
+      <c r="B2778" s="28" t="s">
+        <v>3407</v>
+      </c>
+      <c r="C2778" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2778" s="28" t="s">
+        <v>3409</v>
+      </c>
+      <c r="E2778" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2779" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2779" s="28" t="s">
+        <v>3418</v>
+      </c>
+      <c r="B2779" s="28" t="s">
+        <v>3407</v>
+      </c>
+      <c r="C2779" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2779" s="28" t="s">
+        <v>3410</v>
+      </c>
+      <c r="E2779" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2780" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2780" s="28" t="s">
+        <v>3419</v>
+      </c>
+      <c r="B2780" s="28" t="s">
+        <v>3407</v>
+      </c>
+      <c r="C2780" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2780" s="28" t="s">
+        <v>3411</v>
+      </c>
+      <c r="E2780" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2781" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2781" s="28" t="s">
+        <v>3420</v>
+      </c>
+      <c r="B2781" s="28" t="s">
+        <v>3407</v>
+      </c>
+      <c r="C2781" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2781" s="28" t="s">
+        <v>3412</v>
+      </c>
+      <c r="E2781" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2782" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2782" s="28" t="s">
+        <v>3421</v>
+      </c>
+      <c r="B2782" s="28" t="s">
+        <v>3407</v>
+      </c>
+      <c r="C2782" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2782" s="28" t="s">
+        <v>3413</v>
+      </c>
+      <c r="E2782" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2783" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2783" s="28" t="s">
+        <v>3422</v>
+      </c>
+      <c r="B2783" s="28" t="s">
+        <v>3407</v>
+      </c>
+      <c r="C2783" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2783" s="28" t="s">
+        <v>3414</v>
+      </c>
+      <c r="E2783" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2784" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2784" s="28" t="s">
+        <v>3423</v>
+      </c>
+      <c r="B2784" s="28" t="s">
+        <v>3407</v>
+      </c>
+      <c r="C2784" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2784" s="28" t="s">
+        <v>3415</v>
+      </c>
+      <c r="E2784" s="11">
         <v>1</v>
       </c>
     </row>

--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$2829</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$2864</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10200" uniqueCount="3469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10300" uniqueCount="3511">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -10438,6 +10438,132 @@
   </si>
   <si>
     <t>DSS3840</t>
+  </si>
+  <si>
+    <t>AHMED ABDELSATTAR ABDELFATTAH KEFAFY</t>
+  </si>
+  <si>
+    <t>05-July-2020</t>
+  </si>
+  <si>
+    <t>10-July-2020</t>
+  </si>
+  <si>
+    <t>06-July-2020</t>
+  </si>
+  <si>
+    <t>03-July-2020</t>
+  </si>
+  <si>
+    <t>01-July-2020</t>
+  </si>
+  <si>
+    <t>02-July-2020</t>
+  </si>
+  <si>
+    <t>07-July-2020</t>
+  </si>
+  <si>
+    <t>08-July-2020</t>
+  </si>
+  <si>
+    <t>DSS622</t>
+  </si>
+  <si>
+    <t>DSS623</t>
+  </si>
+  <si>
+    <t>DSS624</t>
+  </si>
+  <si>
+    <t>DSS625</t>
+  </si>
+  <si>
+    <t>DSS626</t>
+  </si>
+  <si>
+    <t>DSS627</t>
+  </si>
+  <si>
+    <t>DSS628</t>
+  </si>
+  <si>
+    <t>DSS629</t>
+  </si>
+  <si>
+    <t>DSS630</t>
+  </si>
+  <si>
+    <t>DSS631</t>
+  </si>
+  <si>
+    <t>DSS632</t>
+  </si>
+  <si>
+    <t>DSS633</t>
+  </si>
+  <si>
+    <t>DSS634</t>
+  </si>
+  <si>
+    <t>DSS635</t>
+  </si>
+  <si>
+    <t>DSS636</t>
+  </si>
+  <si>
+    <t>DSS637</t>
+  </si>
+  <si>
+    <t>05-Mar-2020</t>
+  </si>
+  <si>
+    <t>10-Mar-2020</t>
+  </si>
+  <si>
+    <t>06-Mar-2020</t>
+  </si>
+  <si>
+    <t>03-Mar-2020</t>
+  </si>
+  <si>
+    <t>01-Mar-2020</t>
+  </si>
+  <si>
+    <t>02-Mar-2020</t>
+  </si>
+  <si>
+    <t>07-Mar-2020</t>
+  </si>
+  <si>
+    <t>08-Mar-2020</t>
+  </si>
+  <si>
+    <t>DSS660</t>
+  </si>
+  <si>
+    <t>DSS661</t>
+  </si>
+  <si>
+    <t>DSS662</t>
+  </si>
+  <si>
+    <t>DSS663</t>
+  </si>
+  <si>
+    <t>DSS664</t>
+  </si>
+  <si>
+    <t>DSS665</t>
+  </si>
+  <si>
+    <t>DSS666</t>
+  </si>
+  <si>
+    <t>DSS667</t>
+  </si>
+  <si>
+    <t>DSS3841</t>
   </si>
 </sst>
 </file>
@@ -10510,7 +10636,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10568,6 +10694,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0066"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10652,7 +10784,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -10921,12 +11053,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF0066"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -11193,7 +11336,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -11201,10 +11344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2824"/>
+  <dimension ref="A1:E2849"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2808" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
-      <selection activeCell="H2820" sqref="H2820"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2366" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
+      <selection activeCell="A2369" sqref="A2369:D2376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58735,7 +58878,7 @@
       <c r="D2817" s="27" t="s">
         <v>3169</v>
       </c>
-      <c r="E2817" s="51">
+      <c r="E2817" s="90">
         <v>1</v>
       </c>
     </row>
@@ -58752,7 +58895,7 @@
       <c r="D2818" s="27" t="s">
         <v>3213</v>
       </c>
-      <c r="E2818" s="51">
+      <c r="E2818" s="90">
         <v>1</v>
       </c>
     </row>
@@ -58769,7 +58912,7 @@
       <c r="D2819" s="27" t="s">
         <v>3171</v>
       </c>
-      <c r="E2819" s="51">
+      <c r="E2819" s="90">
         <v>1</v>
       </c>
     </row>
@@ -58786,7 +58929,7 @@
       <c r="D2820" s="27" t="s">
         <v>3172</v>
       </c>
-      <c r="E2820" s="51">
+      <c r="E2820" s="90">
         <v>1</v>
       </c>
     </row>
@@ -58803,7 +58946,7 @@
       <c r="D2821" s="27" t="s">
         <v>3173</v>
       </c>
-      <c r="E2821" s="51">
+      <c r="E2821" s="90">
         <v>1</v>
       </c>
     </row>
@@ -58820,7 +58963,7 @@
       <c r="D2822" s="27" t="s">
         <v>3174</v>
       </c>
-      <c r="E2822" s="51">
+      <c r="E2822" s="90">
         <v>1</v>
       </c>
     </row>
@@ -58837,7 +58980,7 @@
       <c r="D2823" s="27" t="s">
         <v>3175</v>
       </c>
-      <c r="E2823" s="51">
+      <c r="E2823" s="90">
         <v>1</v>
       </c>
     </row>
@@ -58854,7 +58997,432 @@
       <c r="D2824" s="27" t="s">
         <v>3176</v>
       </c>
-      <c r="E2824" s="51">
+      <c r="E2824" s="90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2825" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2825" s="83" t="s">
+        <v>3478</v>
+      </c>
+      <c r="B2825" s="83" t="s">
+        <v>3469</v>
+      </c>
+      <c r="C2825" s="83" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2825" s="83" t="s">
+        <v>3470</v>
+      </c>
+      <c r="E2825" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2826" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2826" s="83" t="s">
+        <v>3479</v>
+      </c>
+      <c r="B2826" s="83" t="s">
+        <v>3469</v>
+      </c>
+      <c r="C2826" s="83" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2826" s="83" t="s">
+        <v>3471</v>
+      </c>
+      <c r="E2826" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2827" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2827" s="83" t="s">
+        <v>3480</v>
+      </c>
+      <c r="B2827" s="83" t="s">
+        <v>3469</v>
+      </c>
+      <c r="C2827" s="83" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2827" s="83" t="s">
+        <v>3472</v>
+      </c>
+      <c r="E2827" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2828" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2828" s="83" t="s">
+        <v>3481</v>
+      </c>
+      <c r="B2828" s="83" t="s">
+        <v>3469</v>
+      </c>
+      <c r="C2828" s="83" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2828" s="83" t="s">
+        <v>3473</v>
+      </c>
+      <c r="E2828" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2829" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2829" s="83" t="s">
+        <v>3482</v>
+      </c>
+      <c r="B2829" s="83" t="s">
+        <v>3469</v>
+      </c>
+      <c r="C2829" s="83" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2829" s="83" t="s">
+        <v>3474</v>
+      </c>
+      <c r="E2829" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2830" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2830" s="83" t="s">
+        <v>3483</v>
+      </c>
+      <c r="B2830" s="83" t="s">
+        <v>3469</v>
+      </c>
+      <c r="C2830" s="83" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2830" s="83" t="s">
+        <v>3475</v>
+      </c>
+      <c r="E2830" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2831" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2831" s="83" t="s">
+        <v>3484</v>
+      </c>
+      <c r="B2831" s="83" t="s">
+        <v>3469</v>
+      </c>
+      <c r="C2831" s="83" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2831" s="83" t="s">
+        <v>3476</v>
+      </c>
+      <c r="E2831" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2832" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2832" s="83" t="s">
+        <v>3485</v>
+      </c>
+      <c r="B2832" s="83" t="s">
+        <v>3469</v>
+      </c>
+      <c r="C2832" s="83" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2832" s="83" t="s">
+        <v>3477</v>
+      </c>
+      <c r="E2832" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2833" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2833" s="83" t="s">
+        <v>3486</v>
+      </c>
+      <c r="B2833" s="83" t="s">
+        <v>3204</v>
+      </c>
+      <c r="C2833" s="83" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2833" s="83" t="s">
+        <v>3019</v>
+      </c>
+      <c r="E2833" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2834" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2834" s="83" t="s">
+        <v>3487</v>
+      </c>
+      <c r="B2834" s="83" t="s">
+        <v>3204</v>
+      </c>
+      <c r="C2834" s="83" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2834" s="83" t="s">
+        <v>3020</v>
+      </c>
+      <c r="E2834" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2835" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2835" s="83" t="s">
+        <v>3488</v>
+      </c>
+      <c r="B2835" s="83" t="s">
+        <v>3204</v>
+      </c>
+      <c r="C2835" s="83" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2835" s="83" t="s">
+        <v>3021</v>
+      </c>
+      <c r="E2835" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2836" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2836" s="83" t="s">
+        <v>3489</v>
+      </c>
+      <c r="B2836" s="83" t="s">
+        <v>3204</v>
+      </c>
+      <c r="C2836" s="83" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2836" s="83" t="s">
+        <v>3022</v>
+      </c>
+      <c r="E2836" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2837" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2837" s="83" t="s">
+        <v>3490</v>
+      </c>
+      <c r="B2837" s="83" t="s">
+        <v>3204</v>
+      </c>
+      <c r="C2837" s="83" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2837" s="83" t="s">
+        <v>3023</v>
+      </c>
+      <c r="E2837" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2838" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2838" s="83" t="s">
+        <v>3491</v>
+      </c>
+      <c r="B2838" s="83" t="s">
+        <v>3204</v>
+      </c>
+      <c r="C2838" s="83" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2838" s="83" t="s">
+        <v>3024</v>
+      </c>
+      <c r="E2838" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2839" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2839" s="83" t="s">
+        <v>3492</v>
+      </c>
+      <c r="B2839" s="83" t="s">
+        <v>3204</v>
+      </c>
+      <c r="C2839" s="83" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2839" s="83" t="s">
+        <v>3025</v>
+      </c>
+      <c r="E2839" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2840" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2840" s="83" t="s">
+        <v>3493</v>
+      </c>
+      <c r="B2840" s="83" t="s">
+        <v>3204</v>
+      </c>
+      <c r="C2840" s="83" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2840" s="83" t="s">
+        <v>3026</v>
+      </c>
+      <c r="E2840" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2841" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2841" s="91" t="s">
+        <v>3502</v>
+      </c>
+      <c r="B2841" s="91" t="s">
+        <v>3203</v>
+      </c>
+      <c r="C2841" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2841" s="91" t="s">
+        <v>3494</v>
+      </c>
+      <c r="E2841" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2842" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2842" s="91" t="s">
+        <v>3503</v>
+      </c>
+      <c r="B2842" s="91" t="s">
+        <v>3203</v>
+      </c>
+      <c r="C2842" s="91" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2842" s="91" t="s">
+        <v>3495</v>
+      </c>
+      <c r="E2842" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2843" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2843" s="91" t="s">
+        <v>3504</v>
+      </c>
+      <c r="B2843" s="91" t="s">
+        <v>3203</v>
+      </c>
+      <c r="C2843" s="91" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2843" s="91" t="s">
+        <v>3496</v>
+      </c>
+      <c r="E2843" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2844" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2844" s="91" t="s">
+        <v>3505</v>
+      </c>
+      <c r="B2844" s="91" t="s">
+        <v>3203</v>
+      </c>
+      <c r="C2844" s="91" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2844" s="91" t="s">
+        <v>3497</v>
+      </c>
+      <c r="E2844" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2845" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2845" s="91" t="s">
+        <v>3506</v>
+      </c>
+      <c r="B2845" s="91" t="s">
+        <v>3203</v>
+      </c>
+      <c r="C2845" s="91" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2845" s="91" t="s">
+        <v>3498</v>
+      </c>
+      <c r="E2845" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2846" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2846" s="91" t="s">
+        <v>3507</v>
+      </c>
+      <c r="B2846" s="91" t="s">
+        <v>3203</v>
+      </c>
+      <c r="C2846" s="91" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2846" s="91" t="s">
+        <v>3499</v>
+      </c>
+      <c r="E2846" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2847" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2847" s="91" t="s">
+        <v>3508</v>
+      </c>
+      <c r="B2847" s="91" t="s">
+        <v>3203</v>
+      </c>
+      <c r="C2847" s="91" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2847" s="91" t="s">
+        <v>3500</v>
+      </c>
+      <c r="E2847" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2848" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2848" s="91" t="s">
+        <v>3509</v>
+      </c>
+      <c r="B2848" s="91" t="s">
+        <v>3203</v>
+      </c>
+      <c r="C2848" s="91" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2848" s="91" t="s">
+        <v>3501</v>
+      </c>
+      <c r="E2848" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2849" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2849" s="85" t="s">
+        <v>3510</v>
+      </c>
+      <c r="B2849" s="85" t="s">
+        <v>2938</v>
+      </c>
+      <c r="C2849" s="87" t="s">
+        <v>462</v>
+      </c>
+      <c r="D2849" s="85" t="s">
+        <v>3213</v>
+      </c>
+      <c r="E2849" s="51">
         <v>1</v>
       </c>
     </row>
@@ -58867,7 +59435,7 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="40" orientation="portrait" r:id="rId1"/>
-  <rowBreaks count="20" manualBreakCount="20">
+  <rowBreaks count="21" manualBreakCount="21">
     <brk id="70" max="16383" man="1"/>
     <brk id="409" max="4" man="1"/>
     <brk id="493" max="4" man="1"/>
@@ -58888,6 +59456,7 @@
     <brk id="2304" max="4" man="1"/>
     <brk id="2408" max="4" man="1"/>
     <brk id="2500" max="4" man="1"/>
+    <brk id="2832" max="4" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/DSS.xlsx
+++ b/DSS.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$2864</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$2857</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10300" uniqueCount="3511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10332" uniqueCount="3527">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -10564,13 +10564,61 @@
   </si>
   <si>
     <t>DSS3841</t>
+  </si>
+  <si>
+    <t>OSAMA FATHY MOHAMED ABOUSHAHIN</t>
+  </si>
+  <si>
+    <t>Ahmed Mahmoud Mohamed Hassan</t>
+  </si>
+  <si>
+    <t>Ahmed Mohamed Abdulaziz Marzouk</t>
+  </si>
+  <si>
+    <t>ABDALLA SHAABAN MAHMOUD ELSADEK</t>
+  </si>
+  <si>
+    <t>Hisham Mohamed Zaki El-Sbbagh</t>
+  </si>
+  <si>
+    <t>Mohammed Ahmed Abdaziz</t>
+  </si>
+  <si>
+    <t>Ahmed Mohamed Ismail Gabr</t>
+  </si>
+  <si>
+    <t>DSS3842</t>
+  </si>
+  <si>
+    <t>DSS3843</t>
+  </si>
+  <si>
+    <t>DSS3844</t>
+  </si>
+  <si>
+    <t>DSS3845</t>
+  </si>
+  <si>
+    <t>DSS3846</t>
+  </si>
+  <si>
+    <t>DSS3847</t>
+  </si>
+  <si>
+    <t>DSS3848</t>
+  </si>
+  <si>
+    <t>DSS3849</t>
+  </si>
+  <si>
+    <t>18-Jul-2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10634,6 +10682,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="12">
@@ -10784,7 +10839,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -11058,6 +11113,9 @@
     </xf>
     <xf numFmtId="2" fontId="7" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -11336,7 +11394,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -11344,10 +11402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2849"/>
+  <dimension ref="A1:E2857"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2366" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
-      <selection activeCell="A2369" sqref="A2369:D2376"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2841" zoomScale="141" zoomScaleNormal="100" zoomScaleSheetLayoutView="141" workbookViewId="0">
+      <selection activeCell="G2852" sqref="G2852"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59014,7 +59072,7 @@
       <c r="D2825" s="83" t="s">
         <v>3470</v>
       </c>
-      <c r="E2825" s="51">
+      <c r="E2825" s="90">
         <v>1</v>
       </c>
     </row>
@@ -59031,7 +59089,7 @@
       <c r="D2826" s="83" t="s">
         <v>3471</v>
       </c>
-      <c r="E2826" s="51">
+      <c r="E2826" s="90">
         <v>1</v>
       </c>
     </row>
@@ -59048,7 +59106,7 @@
       <c r="D2827" s="83" t="s">
         <v>3472</v>
       </c>
-      <c r="E2827" s="51">
+      <c r="E2827" s="90">
         <v>1</v>
       </c>
     </row>
@@ -59065,7 +59123,7 @@
       <c r="D2828" s="83" t="s">
         <v>3473</v>
       </c>
-      <c r="E2828" s="51">
+      <c r="E2828" s="90">
         <v>1</v>
       </c>
     </row>
@@ -59082,7 +59140,7 @@
       <c r="D2829" s="83" t="s">
         <v>3474</v>
       </c>
-      <c r="E2829" s="51">
+      <c r="E2829" s="90">
         <v>1</v>
       </c>
     </row>
@@ -59099,7 +59157,7 @@
       <c r="D2830" s="83" t="s">
         <v>3475</v>
       </c>
-      <c r="E2830" s="51">
+      <c r="E2830" s="90">
         <v>1</v>
       </c>
     </row>
@@ -59116,7 +59174,7 @@
       <c r="D2831" s="83" t="s">
         <v>3476</v>
       </c>
-      <c r="E2831" s="51">
+      <c r="E2831" s="90">
         <v>1</v>
       </c>
     </row>
@@ -59133,7 +59191,7 @@
       <c r="D2832" s="83" t="s">
         <v>3477</v>
       </c>
-      <c r="E2832" s="51">
+      <c r="E2832" s="90">
         <v>1</v>
       </c>
     </row>
@@ -59150,7 +59208,7 @@
       <c r="D2833" s="83" t="s">
         <v>3019</v>
       </c>
-      <c r="E2833" s="51">
+      <c r="E2833" s="90">
         <v>1</v>
       </c>
     </row>
@@ -59167,7 +59225,7 @@
       <c r="D2834" s="83" t="s">
         <v>3020</v>
       </c>
-      <c r="E2834" s="51">
+      <c r="E2834" s="90">
         <v>1</v>
       </c>
     </row>
@@ -59184,7 +59242,7 @@
       <c r="D2835" s="83" t="s">
         <v>3021</v>
       </c>
-      <c r="E2835" s="51">
+      <c r="E2835" s="90">
         <v>1</v>
       </c>
     </row>
@@ -59201,7 +59259,7 @@
       <c r="D2836" s="83" t="s">
         <v>3022</v>
       </c>
-      <c r="E2836" s="51">
+      <c r="E2836" s="90">
         <v>1</v>
       </c>
     </row>
@@ -59218,7 +59276,7 @@
       <c r="D2837" s="83" t="s">
         <v>3023</v>
       </c>
-      <c r="E2837" s="51">
+      <c r="E2837" s="90">
         <v>1</v>
       </c>
     </row>
@@ -59235,7 +59293,7 @@
       <c r="D2838" s="83" t="s">
         <v>3024</v>
       </c>
-      <c r="E2838" s="51">
+      <c r="E2838" s="90">
         <v>1</v>
       </c>
     </row>
@@ -59252,7 +59310,7 @@
       <c r="D2839" s="83" t="s">
         <v>3025</v>
       </c>
-      <c r="E2839" s="51">
+      <c r="E2839" s="90">
         <v>1</v>
       </c>
     </row>
@@ -59269,7 +59327,7 @@
       <c r="D2840" s="83" t="s">
         <v>3026</v>
       </c>
-      <c r="E2840" s="51">
+      <c r="E2840" s="90">
         <v>1</v>
       </c>
     </row>
@@ -59286,7 +59344,7 @@
       <c r="D2841" s="91" t="s">
         <v>3494</v>
       </c>
-      <c r="E2841" s="51">
+      <c r="E2841" s="90">
         <v>1</v>
       </c>
     </row>
@@ -59303,7 +59361,7 @@
       <c r="D2842" s="91" t="s">
         <v>3495</v>
       </c>
-      <c r="E2842" s="51">
+      <c r="E2842" s="90">
         <v>1</v>
       </c>
     </row>
@@ -59320,7 +59378,7 @@
       <c r="D2843" s="91" t="s">
         <v>3496</v>
       </c>
-      <c r="E2843" s="51">
+      <c r="E2843" s="90">
         <v>1</v>
       </c>
     </row>
@@ -59337,7 +59395,7 @@
       <c r="D2844" s="91" t="s">
         <v>3497</v>
       </c>
-      <c r="E2844" s="51">
+      <c r="E2844" s="90">
         <v>1</v>
       </c>
     </row>
@@ -59354,7 +59412,7 @@
       <c r="D2845" s="91" t="s">
         <v>3498</v>
       </c>
-      <c r="E2845" s="51">
+      <c r="E2845" s="90">
         <v>1</v>
       </c>
     </row>
@@ -59371,7 +59429,7 @@
       <c r="D2846" s="91" t="s">
         <v>3499</v>
       </c>
-      <c r="E2846" s="51">
+      <c r="E2846" s="90">
         <v>1</v>
       </c>
     </row>
@@ -59388,7 +59446,7 @@
       <c r="D2847" s="91" t="s">
         <v>3500</v>
       </c>
-      <c r="E2847" s="51">
+      <c r="E2847" s="90">
         <v>1</v>
       </c>
     </row>
@@ -59405,7 +59463,7 @@
       <c r="D2848" s="91" t="s">
         <v>3501</v>
       </c>
-      <c r="E2848" s="51">
+      <c r="E2848" s="90">
         <v>1</v>
       </c>
     </row>
@@ -59423,6 +59481,142 @@
         <v>3213</v>
       </c>
       <c r="E2849" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2850" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2850" s="40" t="s">
+        <v>3518</v>
+      </c>
+      <c r="B2850" s="40" t="s">
+        <v>3511</v>
+      </c>
+      <c r="C2850" s="40" t="s">
+        <v>534</v>
+      </c>
+      <c r="D2850" s="40" t="s">
+        <v>3526</v>
+      </c>
+      <c r="E2850" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2851" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2851" s="40" t="s">
+        <v>3519</v>
+      </c>
+      <c r="B2851" s="92" t="s">
+        <v>3512</v>
+      </c>
+      <c r="C2851" s="40" t="s">
+        <v>534</v>
+      </c>
+      <c r="D2851" s="40" t="s">
+        <v>3526</v>
+      </c>
+      <c r="E2851" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2852" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2852" s="40" t="s">
+        <v>3520</v>
+      </c>
+      <c r="B2852" s="92" t="s">
+        <v>3513</v>
+      </c>
+      <c r="C2852" s="40" t="s">
+        <v>534</v>
+      </c>
+      <c r="D2852" s="40" t="s">
+        <v>3526</v>
+      </c>
+      <c r="E2852" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2853" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2853" s="40" t="s">
+        <v>3521</v>
+      </c>
+      <c r="B2853" s="40" t="s">
+        <v>3514</v>
+      </c>
+      <c r="C2853" s="40" t="s">
+        <v>534</v>
+      </c>
+      <c r="D2853" s="40" t="s">
+        <v>3526</v>
+      </c>
+      <c r="E2853" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2854" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2854" s="40" t="s">
+        <v>3522</v>
+      </c>
+      <c r="B2854" s="40" t="s">
+        <v>3515</v>
+      </c>
+      <c r="C2854" s="40" t="s">
+        <v>534</v>
+      </c>
+      <c r="D2854" s="40" t="s">
+        <v>3526</v>
+      </c>
+      <c r="E2854" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2855" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2855" s="40" t="s">
+        <v>3523</v>
+      </c>
+      <c r="B2855" s="40" t="s">
+        <v>839</v>
+      </c>
+      <c r="C2855" s="40" t="s">
+        <v>534</v>
+      </c>
+      <c r="D2855" s="40" t="s">
+        <v>3526</v>
+      </c>
+      <c r="E2855" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2856" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2856" s="40" t="s">
+        <v>3524</v>
+      </c>
+      <c r="B2856" s="92" t="s">
+        <v>3516</v>
+      </c>
+      <c r="C2856" s="40" t="s">
+        <v>534</v>
+      </c>
+      <c r="D2856" s="40" t="s">
+        <v>3526</v>
+      </c>
+      <c r="E2856" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2857" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2857" s="40" t="s">
+        <v>3525</v>
+      </c>
+      <c r="B2857" s="92" t="s">
+        <v>3517</v>
+      </c>
+      <c r="C2857" s="40" t="s">
+        <v>534</v>
+      </c>
+      <c r="D2857" s="40" t="s">
+        <v>3526</v>
+      </c>
+      <c r="E2857" s="51">
         <v>1</v>
       </c>
     </row>
